--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6102,7 +6102,7 @@
         <v>670</v>
       </c>
       <c r="E2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F2" t="s">
         <v>909</v>
@@ -6137,7 +6137,7 @@
         <v>671</v>
       </c>
       <c r="E3">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F3" t="s">
         <v>910</v>
@@ -6172,7 +6172,7 @@
         <v>672</v>
       </c>
       <c r="E4">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F4" t="s">
         <v>910</v>
@@ -6207,7 +6207,7 @@
         <v>673</v>
       </c>
       <c r="E5">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F5" t="s">
         <v>910</v>
@@ -6242,7 +6242,7 @@
         <v>674</v>
       </c>
       <c r="E6">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F6" t="s">
         <v>910</v>
@@ -6277,7 +6277,7 @@
         <v>675</v>
       </c>
       <c r="E7">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F7" t="s">
         <v>910</v>
@@ -6312,7 +6312,7 @@
         <v>676</v>
       </c>
       <c r="E8">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F8" t="s">
         <v>910</v>
@@ -6350,7 +6350,7 @@
         <v>677</v>
       </c>
       <c r="E9">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F9" t="s">
         <v>910</v>
@@ -6385,7 +6385,7 @@
         <v>678</v>
       </c>
       <c r="E10">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F10" t="s">
         <v>910</v>
@@ -6423,7 +6423,7 @@
         <v>679</v>
       </c>
       <c r="E11">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F11" t="s">
         <v>910</v>
@@ -6458,7 +6458,7 @@
         <v>680</v>
       </c>
       <c r="E12">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F12" t="s">
         <v>910</v>
@@ -6493,7 +6493,7 @@
         <v>681</v>
       </c>
       <c r="E13">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F13" t="s">
         <v>910</v>
@@ -6528,7 +6528,7 @@
         <v>682</v>
       </c>
       <c r="E14">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F14" t="s">
         <v>910</v>
@@ -6563,7 +6563,7 @@
         <v>683</v>
       </c>
       <c r="E15">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
         <v>910</v>
@@ -6598,7 +6598,7 @@
         <v>684</v>
       </c>
       <c r="E16">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
         <v>910</v>
@@ -6636,7 +6636,7 @@
         <v>685</v>
       </c>
       <c r="E17">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F17" t="s">
         <v>910</v>
@@ -6671,7 +6671,7 @@
         <v>686</v>
       </c>
       <c r="E18">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F18" t="s">
         <v>910</v>
@@ -6706,7 +6706,7 @@
         <v>687</v>
       </c>
       <c r="E19">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
         <v>910</v>
@@ -6744,7 +6744,7 @@
         <v>688</v>
       </c>
       <c r="E20">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F20" t="s">
         <v>910</v>
@@ -6782,7 +6782,7 @@
         <v>689</v>
       </c>
       <c r="E21">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F21" t="s">
         <v>910</v>
@@ -6817,7 +6817,7 @@
         <v>690</v>
       </c>
       <c r="E22">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F22" t="s">
         <v>910</v>
@@ -6852,7 +6852,7 @@
         <v>691</v>
       </c>
       <c r="E23">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F23" t="s">
         <v>910</v>
@@ -6887,7 +6887,7 @@
         <v>692</v>
       </c>
       <c r="E24">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F24" t="s">
         <v>910</v>
@@ -6922,7 +6922,7 @@
         <v>693</v>
       </c>
       <c r="E25">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
         <v>910</v>
@@ -6957,7 +6957,7 @@
         <v>694</v>
       </c>
       <c r="E26">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F26" t="s">
         <v>910</v>
@@ -6992,7 +6992,7 @@
         <v>694</v>
       </c>
       <c r="E27">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F27" t="s">
         <v>911</v>
@@ -7027,7 +7027,7 @@
         <v>695</v>
       </c>
       <c r="E28">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>910</v>
@@ -7062,7 +7062,7 @@
         <v>696</v>
       </c>
       <c r="E29">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F29" t="s">
         <v>910</v>
@@ -7097,7 +7097,7 @@
         <v>697</v>
       </c>
       <c r="E30">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F30" t="s">
         <v>910</v>
@@ -7132,7 +7132,7 @@
         <v>697</v>
       </c>
       <c r="E31">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F31" t="s">
         <v>910</v>
@@ -7167,7 +7167,7 @@
         <v>698</v>
       </c>
       <c r="E32">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F32" t="s">
         <v>910</v>
@@ -7205,7 +7205,7 @@
         <v>699</v>
       </c>
       <c r="E33">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F33" t="s">
         <v>910</v>
@@ -7240,7 +7240,7 @@
         <v>699</v>
       </c>
       <c r="E34">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F34" t="s">
         <v>910</v>
@@ -7275,7 +7275,7 @@
         <v>700</v>
       </c>
       <c r="E35">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
         <v>910</v>
@@ -7313,7 +7313,7 @@
         <v>700</v>
       </c>
       <c r="E36">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
         <v>910</v>
@@ -7351,7 +7351,7 @@
         <v>701</v>
       </c>
       <c r="E37">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F37" t="s">
         <v>910</v>
@@ -7386,7 +7386,7 @@
         <v>702</v>
       </c>
       <c r="E38">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F38" t="s">
         <v>910</v>
@@ -7421,7 +7421,7 @@
         <v>703</v>
       </c>
       <c r="E39">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F39" t="s">
         <v>910</v>
@@ -7456,7 +7456,7 @@
         <v>703</v>
       </c>
       <c r="E40">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F40" t="s">
         <v>910</v>
@@ -7491,7 +7491,7 @@
         <v>704</v>
       </c>
       <c r="E41">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F41" t="s">
         <v>910</v>
@@ -7529,7 +7529,7 @@
         <v>705</v>
       </c>
       <c r="E42">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F42" t="s">
         <v>910</v>
@@ -7564,7 +7564,7 @@
         <v>706</v>
       </c>
       <c r="E43">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F43" t="s">
         <v>910</v>
@@ -7599,7 +7599,7 @@
         <v>707</v>
       </c>
       <c r="E44">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F44" t="s">
         <v>910</v>
@@ -7634,7 +7634,7 @@
         <v>708</v>
       </c>
       <c r="E45">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F45" t="s">
         <v>910</v>
@@ -7669,7 +7669,7 @@
         <v>709</v>
       </c>
       <c r="E46">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F46" t="s">
         <v>910</v>
@@ -7704,7 +7704,7 @@
         <v>709</v>
       </c>
       <c r="E47">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F47" t="s">
         <v>910</v>
@@ -7739,7 +7739,7 @@
         <v>710</v>
       </c>
       <c r="E48">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F48" t="s">
         <v>910</v>
@@ -7774,7 +7774,7 @@
         <v>711</v>
       </c>
       <c r="E49">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F49" t="s">
         <v>910</v>
@@ -7809,7 +7809,7 @@
         <v>712</v>
       </c>
       <c r="E50">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F50" t="s">
         <v>910</v>
@@ -7844,7 +7844,7 @@
         <v>713</v>
       </c>
       <c r="E51">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F51" t="s">
         <v>910</v>
@@ -7879,7 +7879,7 @@
         <v>713</v>
       </c>
       <c r="E52">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F52" t="s">
         <v>910</v>
@@ -7914,7 +7914,7 @@
         <v>714</v>
       </c>
       <c r="E53">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
         <v>910</v>
@@ -7949,7 +7949,7 @@
         <v>715</v>
       </c>
       <c r="E54">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F54" t="s">
         <v>910</v>
@@ -7984,7 +7984,7 @@
         <v>715</v>
       </c>
       <c r="E55">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F55" t="s">
         <v>910</v>
@@ -8019,7 +8019,7 @@
         <v>716</v>
       </c>
       <c r="E56">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F56" t="s">
         <v>910</v>
@@ -8054,7 +8054,7 @@
         <v>717</v>
       </c>
       <c r="E57">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F57" t="s">
         <v>910</v>
@@ -8092,7 +8092,7 @@
         <v>718</v>
       </c>
       <c r="E58">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F58" t="s">
         <v>910</v>
@@ -8127,7 +8127,7 @@
         <v>719</v>
       </c>
       <c r="E59">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F59" t="s">
         <v>910</v>
@@ -8162,7 +8162,7 @@
         <v>720</v>
       </c>
       <c r="E60">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F60" t="s">
         <v>910</v>
@@ -8200,7 +8200,7 @@
         <v>721</v>
       </c>
       <c r="E61">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F61" t="s">
         <v>910</v>
@@ -8235,7 +8235,7 @@
         <v>722</v>
       </c>
       <c r="E62">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F62" t="s">
         <v>910</v>
@@ -8270,7 +8270,7 @@
         <v>723</v>
       </c>
       <c r="E63">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F63" t="s">
         <v>910</v>
@@ -8305,7 +8305,7 @@
         <v>724</v>
       </c>
       <c r="E64">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F64" t="s">
         <v>910</v>
@@ -8340,7 +8340,7 @@
         <v>725</v>
       </c>
       <c r="E65">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F65" t="s">
         <v>910</v>
@@ -8375,7 +8375,7 @@
         <v>726</v>
       </c>
       <c r="E66">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
         <v>912</v>
@@ -8413,7 +8413,7 @@
         <v>727</v>
       </c>
       <c r="E67">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F67" t="s">
         <v>912</v>
@@ -8448,7 +8448,7 @@
         <v>728</v>
       </c>
       <c r="E68">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F68" t="s">
         <v>910</v>
@@ -8483,7 +8483,7 @@
         <v>729</v>
       </c>
       <c r="E69">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
         <v>912</v>
@@ -8518,7 +8518,7 @@
         <v>730</v>
       </c>
       <c r="E70">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
         <v>912</v>
@@ -8553,7 +8553,7 @@
         <v>731</v>
       </c>
       <c r="E71">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F71" t="s">
         <v>912</v>
@@ -8588,7 +8588,7 @@
         <v>732</v>
       </c>
       <c r="E72">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F72" t="s">
         <v>912</v>
@@ -8626,7 +8626,7 @@
         <v>733</v>
       </c>
       <c r="E73">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
         <v>912</v>
@@ -8661,7 +8661,7 @@
         <v>734</v>
       </c>
       <c r="E74">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F74" t="s">
         <v>910</v>
@@ -8699,7 +8699,7 @@
         <v>735</v>
       </c>
       <c r="E75">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F75" t="s">
         <v>910</v>
@@ -8734,7 +8734,7 @@
         <v>735</v>
       </c>
       <c r="E76">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
         <v>910</v>
@@ -8769,7 +8769,7 @@
         <v>736</v>
       </c>
       <c r="E77">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>912</v>
@@ -8804,7 +8804,7 @@
         <v>737</v>
       </c>
       <c r="E78">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
         <v>912</v>
@@ -8839,7 +8839,7 @@
         <v>738</v>
       </c>
       <c r="E79">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
         <v>912</v>
@@ -8874,7 +8874,7 @@
         <v>739</v>
       </c>
       <c r="E80">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F80" t="s">
         <v>912</v>
@@ -8909,7 +8909,7 @@
         <v>739</v>
       </c>
       <c r="E81">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F81" t="s">
         <v>912</v>
@@ -8944,7 +8944,7 @@
         <v>740</v>
       </c>
       <c r="E82">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s">
         <v>910</v>
@@ -8982,7 +8982,7 @@
         <v>741</v>
       </c>
       <c r="E83">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
         <v>912</v>
@@ -9017,7 +9017,7 @@
         <v>742</v>
       </c>
       <c r="E84">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
         <v>909</v>
@@ -9052,7 +9052,7 @@
         <v>743</v>
       </c>
       <c r="E85">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
         <v>912</v>
@@ -9087,7 +9087,7 @@
         <v>743</v>
       </c>
       <c r="E86">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
         <v>912</v>
@@ -9122,7 +9122,7 @@
         <v>743</v>
       </c>
       <c r="E87">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>912</v>
@@ -9157,7 +9157,7 @@
         <v>744</v>
       </c>
       <c r="E88">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
         <v>912</v>
@@ -9192,7 +9192,7 @@
         <v>744</v>
       </c>
       <c r="E89">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F89" t="s">
         <v>911</v>
@@ -9227,7 +9227,7 @@
         <v>745</v>
       </c>
       <c r="E90">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F90" t="s">
         <v>909</v>
@@ -9262,7 +9262,7 @@
         <v>746</v>
       </c>
       <c r="E91">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F91" t="s">
         <v>912</v>
@@ -9297,7 +9297,7 @@
         <v>747</v>
       </c>
       <c r="E92">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
         <v>909</v>
@@ -9335,7 +9335,7 @@
         <v>748</v>
       </c>
       <c r="E93">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
         <v>912</v>
@@ -9370,7 +9370,7 @@
         <v>748</v>
       </c>
       <c r="E94">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F94" t="s">
         <v>912</v>
@@ -9405,7 +9405,7 @@
         <v>748</v>
       </c>
       <c r="E95">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F95" t="s">
         <v>909</v>
@@ -9440,7 +9440,7 @@
         <v>748</v>
       </c>
       <c r="E96">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F96" t="s">
         <v>909</v>
@@ -9475,7 +9475,7 @@
         <v>749</v>
       </c>
       <c r="E97">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F97" t="s">
         <v>911</v>
@@ -9510,7 +9510,7 @@
         <v>750</v>
       </c>
       <c r="E98">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F98" t="s">
         <v>912</v>
@@ -9545,7 +9545,7 @@
         <v>750</v>
       </c>
       <c r="E99">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F99" t="s">
         <v>912</v>
@@ -9580,7 +9580,7 @@
         <v>750</v>
       </c>
       <c r="E100">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F100" t="s">
         <v>912</v>
@@ -9615,7 +9615,7 @@
         <v>751</v>
       </c>
       <c r="E101">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F101" t="s">
         <v>912</v>
@@ -9650,7 +9650,7 @@
         <v>751</v>
       </c>
       <c r="E102">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
         <v>912</v>
@@ -9685,7 +9685,7 @@
         <v>752</v>
       </c>
       <c r="E103">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
         <v>912</v>
@@ -9720,7 +9720,7 @@
         <v>753</v>
       </c>
       <c r="E104">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
         <v>912</v>
@@ -9755,7 +9755,7 @@
         <v>753</v>
       </c>
       <c r="E105">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
         <v>909</v>
@@ -9790,7 +9790,7 @@
         <v>754</v>
       </c>
       <c r="E106">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
         <v>912</v>
@@ -9825,7 +9825,7 @@
         <v>754</v>
       </c>
       <c r="E107">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
         <v>912</v>
@@ -9860,7 +9860,7 @@
         <v>755</v>
       </c>
       <c r="E108">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F108" t="s">
         <v>912</v>
@@ -9898,7 +9898,7 @@
         <v>755</v>
       </c>
       <c r="E109">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F109" t="s">
         <v>912</v>
@@ -9933,7 +9933,7 @@
         <v>756</v>
       </c>
       <c r="E110">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F110" t="s">
         <v>912</v>
@@ -9968,7 +9968,7 @@
         <v>756</v>
       </c>
       <c r="E111">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F111" t="s">
         <v>909</v>
@@ -10003,7 +10003,7 @@
         <v>757</v>
       </c>
       <c r="E112">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F112" t="s">
         <v>912</v>
@@ -10038,7 +10038,7 @@
         <v>757</v>
       </c>
       <c r="E113">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F113" t="s">
         <v>909</v>
@@ -10073,7 +10073,7 @@
         <v>758</v>
       </c>
       <c r="E114">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
         <v>909</v>
@@ -10108,7 +10108,7 @@
         <v>759</v>
       </c>
       <c r="E115">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F115" t="s">
         <v>909</v>
@@ -10143,7 +10143,7 @@
         <v>759</v>
       </c>
       <c r="E116">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F116" t="s">
         <v>909</v>
@@ -10178,7 +10178,7 @@
         <v>759</v>
       </c>
       <c r="E117">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F117" t="s">
         <v>912</v>
@@ -10213,7 +10213,7 @@
         <v>760</v>
       </c>
       <c r="E118">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F118" t="s">
         <v>909</v>
@@ -10248,7 +10248,7 @@
         <v>761</v>
       </c>
       <c r="E119">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F119" t="s">
         <v>909</v>
@@ -10283,7 +10283,7 @@
         <v>761</v>
       </c>
       <c r="E120">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F120" t="s">
         <v>909</v>
@@ -10321,7 +10321,7 @@
         <v>762</v>
       </c>
       <c r="E121">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F121" t="s">
         <v>913</v>
@@ -10356,7 +10356,7 @@
         <v>762</v>
       </c>
       <c r="E122">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
         <v>913</v>
@@ -10391,7 +10391,7 @@
         <v>762</v>
       </c>
       <c r="E123">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F123" t="s">
         <v>913</v>
@@ -10426,7 +10426,7 @@
         <v>763</v>
       </c>
       <c r="E124">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F124" t="s">
         <v>913</v>
@@ -10461,7 +10461,7 @@
         <v>764</v>
       </c>
       <c r="E125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F125" t="s">
         <v>913</v>
@@ -10499,7 +10499,7 @@
         <v>765</v>
       </c>
       <c r="E126">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F126" t="s">
         <v>909</v>
@@ -10534,7 +10534,7 @@
         <v>766</v>
       </c>
       <c r="E127">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F127" t="s">
         <v>913</v>
@@ -10569,7 +10569,7 @@
         <v>767</v>
       </c>
       <c r="E128">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
         <v>913</v>
@@ -10604,7 +10604,7 @@
         <v>767</v>
       </c>
       <c r="E129">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
         <v>909</v>
@@ -10639,7 +10639,7 @@
         <v>767</v>
       </c>
       <c r="E130">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
         <v>909</v>
@@ -10674,7 +10674,7 @@
         <v>768</v>
       </c>
       <c r="E131">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
         <v>909</v>
@@ -10712,7 +10712,7 @@
         <v>769</v>
       </c>
       <c r="E132">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
         <v>909</v>
@@ -10747,7 +10747,7 @@
         <v>769</v>
       </c>
       <c r="E133">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
         <v>909</v>
@@ -10782,7 +10782,7 @@
         <v>770</v>
       </c>
       <c r="E134">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
         <v>909</v>
@@ -10817,7 +10817,7 @@
         <v>771</v>
       </c>
       <c r="E135">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
         <v>909</v>
@@ -10855,7 +10855,7 @@
         <v>771</v>
       </c>
       <c r="E136">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F136" t="s">
         <v>909</v>
@@ -10890,7 +10890,7 @@
         <v>771</v>
       </c>
       <c r="E137">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F137" t="s">
         <v>909</v>
@@ -10925,7 +10925,7 @@
         <v>771</v>
       </c>
       <c r="E138">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
         <v>909</v>
@@ -10960,7 +10960,7 @@
         <v>772</v>
       </c>
       <c r="E139">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F139" t="s">
         <v>913</v>
@@ -10995,7 +10995,7 @@
         <v>772</v>
       </c>
       <c r="E140">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
         <v>909</v>
@@ -11030,7 +11030,7 @@
         <v>773</v>
       </c>
       <c r="E141">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F141" t="s">
         <v>913</v>
@@ -11065,7 +11065,7 @@
         <v>773</v>
       </c>
       <c r="E142">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F142" t="s">
         <v>909</v>
@@ -11100,7 +11100,7 @@
         <v>773</v>
       </c>
       <c r="E143">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F143" t="s">
         <v>909</v>
@@ -11135,7 +11135,7 @@
         <v>773</v>
       </c>
       <c r="E144">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F144" t="s">
         <v>911</v>
@@ -11173,7 +11173,7 @@
         <v>774</v>
       </c>
       <c r="E145">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F145" t="s">
         <v>909</v>
@@ -11208,7 +11208,7 @@
         <v>775</v>
       </c>
       <c r="E146">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F146" t="s">
         <v>909</v>
@@ -11243,7 +11243,7 @@
         <v>776</v>
       </c>
       <c r="E147">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F147" t="s">
         <v>909</v>
@@ -11278,7 +11278,7 @@
         <v>776</v>
       </c>
       <c r="E148">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F148" t="s">
         <v>911</v>
@@ -11313,7 +11313,7 @@
         <v>777</v>
       </c>
       <c r="E149">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F149" t="s">
         <v>911</v>
@@ -11348,7 +11348,7 @@
         <v>777</v>
       </c>
       <c r="E150">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F150" t="s">
         <v>909</v>
@@ -11383,7 +11383,7 @@
         <v>777</v>
       </c>
       <c r="E151">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F151" t="s">
         <v>913</v>
@@ -11418,7 +11418,7 @@
         <v>777</v>
       </c>
       <c r="E152">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F152" t="s">
         <v>909</v>
@@ -11453,7 +11453,7 @@
         <v>777</v>
       </c>
       <c r="E153">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F153" t="s">
         <v>911</v>
@@ -11488,7 +11488,7 @@
         <v>777</v>
       </c>
       <c r="E154">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F154" t="s">
         <v>911</v>
@@ -11523,7 +11523,7 @@
         <v>777</v>
       </c>
       <c r="E155">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F155" t="s">
         <v>911</v>
@@ -11558,7 +11558,7 @@
         <v>777</v>
       </c>
       <c r="E156">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F156" t="s">
         <v>909</v>
@@ -11593,7 +11593,7 @@
         <v>778</v>
       </c>
       <c r="E157">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F157" t="s">
         <v>909</v>
@@ -11631,7 +11631,7 @@
         <v>779</v>
       </c>
       <c r="E158">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F158" t="s">
         <v>909</v>
@@ -11666,7 +11666,7 @@
         <v>779</v>
       </c>
       <c r="E159">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F159" t="s">
         <v>909</v>
@@ -11701,7 +11701,7 @@
         <v>779</v>
       </c>
       <c r="E160">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F160" t="s">
         <v>909</v>
@@ -11736,7 +11736,7 @@
         <v>780</v>
       </c>
       <c r="E161">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F161" t="s">
         <v>909</v>
@@ -11771,7 +11771,7 @@
         <v>781</v>
       </c>
       <c r="E162">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F162" t="s">
         <v>909</v>
@@ -11806,7 +11806,7 @@
         <v>782</v>
       </c>
       <c r="E163">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F163" t="s">
         <v>909</v>
@@ -11841,7 +11841,7 @@
         <v>783</v>
       </c>
       <c r="E164">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F164" t="s">
         <v>909</v>
@@ -11876,7 +11876,7 @@
         <v>783</v>
       </c>
       <c r="E165">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F165" t="s">
         <v>909</v>
@@ -11911,7 +11911,7 @@
         <v>784</v>
       </c>
       <c r="E166">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F166" t="s">
         <v>909</v>
@@ -11946,7 +11946,7 @@
         <v>784</v>
       </c>
       <c r="E167">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F167" t="s">
         <v>909</v>
@@ -11981,7 +11981,7 @@
         <v>785</v>
       </c>
       <c r="E168">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F168" t="s">
         <v>909</v>
@@ -12016,7 +12016,7 @@
         <v>786</v>
       </c>
       <c r="E169">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F169" t="s">
         <v>909</v>
@@ -12051,7 +12051,7 @@
         <v>787</v>
       </c>
       <c r="E170">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F170" t="s">
         <v>909</v>
@@ -12086,7 +12086,7 @@
         <v>788</v>
       </c>
       <c r="E171">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F171" t="s">
         <v>909</v>
@@ -12121,7 +12121,7 @@
         <v>788</v>
       </c>
       <c r="E172">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F172" t="s">
         <v>909</v>
@@ -12156,7 +12156,7 @@
         <v>788</v>
       </c>
       <c r="E173">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F173" t="s">
         <v>909</v>
@@ -12191,7 +12191,7 @@
         <v>788</v>
       </c>
       <c r="E174">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F174" t="s">
         <v>909</v>
@@ -12226,7 +12226,7 @@
         <v>788</v>
       </c>
       <c r="E175">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F175" t="s">
         <v>909</v>
@@ -12261,7 +12261,7 @@
         <v>789</v>
       </c>
       <c r="E176">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F176" t="s">
         <v>909</v>
@@ -12296,7 +12296,7 @@
         <v>790</v>
       </c>
       <c r="E177">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F177" t="s">
         <v>909</v>
@@ -12331,7 +12331,7 @@
         <v>790</v>
       </c>
       <c r="E178">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F178" t="s">
         <v>909</v>
@@ -12366,7 +12366,7 @@
         <v>791</v>
       </c>
       <c r="E179">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F179" t="s">
         <v>909</v>
@@ -12401,7 +12401,7 @@
         <v>791</v>
       </c>
       <c r="E180">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F180" t="s">
         <v>909</v>
@@ -12436,7 +12436,7 @@
         <v>792</v>
       </c>
       <c r="E181">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F181" t="s">
         <v>909</v>
@@ -12471,7 +12471,7 @@
         <v>792</v>
       </c>
       <c r="E182">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F182" t="s">
         <v>909</v>
@@ -12506,7 +12506,7 @@
         <v>793</v>
       </c>
       <c r="E183">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F183" t="s">
         <v>909</v>
@@ -12541,7 +12541,7 @@
         <v>793</v>
       </c>
       <c r="E184">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F184" t="s">
         <v>909</v>
@@ -12576,7 +12576,7 @@
         <v>793</v>
       </c>
       <c r="E185">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F185" t="s">
         <v>909</v>
@@ -12611,7 +12611,7 @@
         <v>793</v>
       </c>
       <c r="E186">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F186" t="s">
         <v>909</v>
@@ -12646,7 +12646,7 @@
         <v>794</v>
       </c>
       <c r="E187">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F187" t="s">
         <v>909</v>
@@ -12681,7 +12681,7 @@
         <v>795</v>
       </c>
       <c r="E188">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F188" t="s">
         <v>909</v>
@@ -12716,7 +12716,7 @@
         <v>795</v>
       </c>
       <c r="E189">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F189" t="s">
         <v>909</v>
@@ -12751,7 +12751,7 @@
         <v>795</v>
       </c>
       <c r="E190">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F190" t="s">
         <v>909</v>
@@ -12786,7 +12786,7 @@
         <v>796</v>
       </c>
       <c r="E191">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F191" t="s">
         <v>909</v>
@@ -12821,7 +12821,7 @@
         <v>796</v>
       </c>
       <c r="E192">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F192" t="s">
         <v>909</v>
@@ -12856,7 +12856,7 @@
         <v>796</v>
       </c>
       <c r="E193">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F193" t="s">
         <v>909</v>
@@ -12891,7 +12891,7 @@
         <v>797</v>
       </c>
       <c r="E194">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F194" t="s">
         <v>909</v>
@@ -12926,7 +12926,7 @@
         <v>797</v>
       </c>
       <c r="E195">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F195" t="s">
         <v>909</v>
@@ -12961,7 +12961,7 @@
         <v>797</v>
       </c>
       <c r="E196">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F196" t="s">
         <v>909</v>
@@ -12996,7 +12996,7 @@
         <v>798</v>
       </c>
       <c r="E197">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F197" t="s">
         <v>909</v>
@@ -13031,7 +13031,7 @@
         <v>798</v>
       </c>
       <c r="E198">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F198" t="s">
         <v>909</v>
@@ -13069,7 +13069,7 @@
         <v>799</v>
       </c>
       <c r="E199">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F199" t="s">
         <v>909</v>
@@ -13104,7 +13104,7 @@
         <v>799</v>
       </c>
       <c r="E200">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F200" t="s">
         <v>909</v>
@@ -13139,7 +13139,7 @@
         <v>799</v>
       </c>
       <c r="E201">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F201" t="s">
         <v>909</v>
@@ -13174,7 +13174,7 @@
         <v>799</v>
       </c>
       <c r="E202">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F202" t="s">
         <v>909</v>
@@ -13209,7 +13209,7 @@
         <v>800</v>
       </c>
       <c r="E203">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F203" t="s">
         <v>909</v>
@@ -13244,7 +13244,7 @@
         <v>801</v>
       </c>
       <c r="E204">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F204" t="s">
         <v>914</v>
@@ -13279,7 +13279,7 @@
         <v>801</v>
       </c>
       <c r="E205">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F205" t="s">
         <v>909</v>
@@ -13314,7 +13314,7 @@
         <v>801</v>
       </c>
       <c r="E206">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F206" t="s">
         <v>909</v>
@@ -13349,7 +13349,7 @@
         <v>802</v>
       </c>
       <c r="E207">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F207" t="s">
         <v>911</v>
@@ -13384,7 +13384,7 @@
         <v>803</v>
       </c>
       <c r="E208">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F208" t="s">
         <v>909</v>
@@ -13419,7 +13419,7 @@
         <v>803</v>
       </c>
       <c r="E209">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F209" t="s">
         <v>909</v>
@@ -13454,7 +13454,7 @@
         <v>803</v>
       </c>
       <c r="E210">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F210" t="s">
         <v>909</v>
@@ -13489,7 +13489,7 @@
         <v>803</v>
       </c>
       <c r="E211">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F211" t="s">
         <v>909</v>
@@ -13524,7 +13524,7 @@
         <v>804</v>
       </c>
       <c r="E212">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F212" t="s">
         <v>909</v>
@@ -13559,7 +13559,7 @@
         <v>804</v>
       </c>
       <c r="E213">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F213" t="s">
         <v>909</v>
@@ -13594,7 +13594,7 @@
         <v>805</v>
       </c>
       <c r="E214">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F214" t="s">
         <v>909</v>
@@ -13629,7 +13629,7 @@
         <v>806</v>
       </c>
       <c r="E215">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F215" t="s">
         <v>909</v>
@@ -13667,7 +13667,7 @@
         <v>806</v>
       </c>
       <c r="E216">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F216" t="s">
         <v>909</v>
@@ -13702,7 +13702,7 @@
         <v>807</v>
       </c>
       <c r="E217">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F217" t="s">
         <v>909</v>
@@ -13737,7 +13737,7 @@
         <v>807</v>
       </c>
       <c r="E218">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F218" t="s">
         <v>909</v>
@@ -13772,7 +13772,7 @@
         <v>807</v>
       </c>
       <c r="E219">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F219" t="s">
         <v>909</v>
@@ -13807,7 +13807,7 @@
         <v>808</v>
       </c>
       <c r="E220">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F220" t="s">
         <v>909</v>
@@ -13842,7 +13842,7 @@
         <v>809</v>
       </c>
       <c r="E221">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F221" t="s">
         <v>909</v>
@@ -13877,7 +13877,7 @@
         <v>809</v>
       </c>
       <c r="E222">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F222" t="s">
         <v>909</v>
@@ -13912,7 +13912,7 @@
         <v>809</v>
       </c>
       <c r="E223">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F223" t="s">
         <v>909</v>
@@ -13947,7 +13947,7 @@
         <v>809</v>
       </c>
       <c r="E224">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F224" t="s">
         <v>909</v>
@@ -13982,7 +13982,7 @@
         <v>809</v>
       </c>
       <c r="E225">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F225" t="s">
         <v>909</v>
@@ -14020,7 +14020,7 @@
         <v>809</v>
       </c>
       <c r="E226">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F226" t="s">
         <v>909</v>
@@ -14055,7 +14055,7 @@
         <v>810</v>
       </c>
       <c r="E227">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F227" t="s">
         <v>909</v>
@@ -14090,7 +14090,7 @@
         <v>811</v>
       </c>
       <c r="E228">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F228" t="s">
         <v>909</v>
@@ -14125,7 +14125,7 @@
         <v>811</v>
       </c>
       <c r="E229">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F229" t="s">
         <v>909</v>
@@ -14160,7 +14160,7 @@
         <v>811</v>
       </c>
       <c r="E230">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F230" t="s">
         <v>909</v>
@@ -14195,7 +14195,7 @@
         <v>812</v>
       </c>
       <c r="E231">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F231" t="s">
         <v>909</v>
@@ -14230,7 +14230,7 @@
         <v>812</v>
       </c>
       <c r="E232">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F232" t="s">
         <v>909</v>
@@ -14265,7 +14265,7 @@
         <v>812</v>
       </c>
       <c r="E233">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F233" t="s">
         <v>909</v>
@@ -14300,7 +14300,7 @@
         <v>813</v>
       </c>
       <c r="E234">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F234" t="s">
         <v>909</v>
@@ -14335,7 +14335,7 @@
         <v>813</v>
       </c>
       <c r="E235">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F235" t="s">
         <v>909</v>
@@ -14370,7 +14370,7 @@
         <v>813</v>
       </c>
       <c r="E236">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F236" t="s">
         <v>909</v>
@@ -14405,7 +14405,7 @@
         <v>814</v>
       </c>
       <c r="E237">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F237" t="s">
         <v>909</v>
@@ -14440,7 +14440,7 @@
         <v>814</v>
       </c>
       <c r="E238">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F238" t="s">
         <v>909</v>
@@ -14475,7 +14475,7 @@
         <v>815</v>
       </c>
       <c r="E239">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F239" t="s">
         <v>909</v>
@@ -14510,7 +14510,7 @@
         <v>815</v>
       </c>
       <c r="E240">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F240" t="s">
         <v>909</v>
@@ -14545,7 +14545,7 @@
         <v>816</v>
       </c>
       <c r="E241">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F241" t="s">
         <v>909</v>
@@ -14580,7 +14580,7 @@
         <v>816</v>
       </c>
       <c r="E242">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F242" t="s">
         <v>909</v>
@@ -14615,7 +14615,7 @@
         <v>816</v>
       </c>
       <c r="E243">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F243" t="s">
         <v>909</v>
@@ -14650,7 +14650,7 @@
         <v>817</v>
       </c>
       <c r="E244">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F244" t="s">
         <v>909</v>
@@ -14685,7 +14685,7 @@
         <v>817</v>
       </c>
       <c r="E245">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F245" t="s">
         <v>909</v>
@@ -14723,7 +14723,7 @@
         <v>817</v>
       </c>
       <c r="E246">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F246" t="s">
         <v>909</v>
@@ -14758,7 +14758,7 @@
         <v>818</v>
       </c>
       <c r="E247">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F247" t="s">
         <v>909</v>
@@ -14793,7 +14793,7 @@
         <v>819</v>
       </c>
       <c r="E248">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F248" t="s">
         <v>909</v>
@@ -14828,7 +14828,7 @@
         <v>819</v>
       </c>
       <c r="E249">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F249" t="s">
         <v>909</v>
@@ -14863,7 +14863,7 @@
         <v>820</v>
       </c>
       <c r="E250">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F250" t="s">
         <v>909</v>
@@ -14898,7 +14898,7 @@
         <v>821</v>
       </c>
       <c r="E251">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F251" t="s">
         <v>914</v>
@@ -14936,7 +14936,7 @@
         <v>821</v>
       </c>
       <c r="E252">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F252" t="s">
         <v>909</v>
@@ -14971,7 +14971,7 @@
         <v>821</v>
       </c>
       <c r="E253">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F253" t="s">
         <v>909</v>
@@ -15006,7 +15006,7 @@
         <v>821</v>
       </c>
       <c r="E254">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F254" t="s">
         <v>909</v>
@@ -15041,7 +15041,7 @@
         <v>821</v>
       </c>
       <c r="E255">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F255" t="s">
         <v>909</v>
@@ -15076,7 +15076,7 @@
         <v>822</v>
       </c>
       <c r="E256">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F256" t="s">
         <v>909</v>
@@ -15111,7 +15111,7 @@
         <v>822</v>
       </c>
       <c r="E257">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F257" t="s">
         <v>909</v>
@@ -15146,7 +15146,7 @@
         <v>822</v>
       </c>
       <c r="E258">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F258" t="s">
         <v>909</v>
@@ -15181,7 +15181,7 @@
         <v>822</v>
       </c>
       <c r="E259">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F259" t="s">
         <v>914</v>
@@ -15216,7 +15216,7 @@
         <v>822</v>
       </c>
       <c r="E260">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F260" t="s">
         <v>909</v>
@@ -15254,7 +15254,7 @@
         <v>822</v>
       </c>
       <c r="E261">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F261" t="s">
         <v>909</v>
@@ -15289,7 +15289,7 @@
         <v>823</v>
       </c>
       <c r="E262">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F262" t="s">
         <v>909</v>
@@ -15324,7 +15324,7 @@
         <v>823</v>
       </c>
       <c r="E263">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F263" t="s">
         <v>909</v>
@@ -15359,7 +15359,7 @@
         <v>823</v>
       </c>
       <c r="E264">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F264" t="s">
         <v>909</v>
@@ -15394,7 +15394,7 @@
         <v>824</v>
       </c>
       <c r="E265">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F265" t="s">
         <v>909</v>
@@ -15429,7 +15429,7 @@
         <v>825</v>
       </c>
       <c r="E266">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F266" t="s">
         <v>909</v>
@@ -15464,7 +15464,7 @@
         <v>825</v>
       </c>
       <c r="E267">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F267" t="s">
         <v>909</v>
@@ -15499,7 +15499,7 @@
         <v>825</v>
       </c>
       <c r="E268">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F268" t="s">
         <v>909</v>
@@ -15537,7 +15537,7 @@
         <v>825</v>
       </c>
       <c r="E269">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F269" t="s">
         <v>909</v>
@@ -15572,7 +15572,7 @@
         <v>826</v>
       </c>
       <c r="E270">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F270" t="s">
         <v>909</v>
@@ -15607,7 +15607,7 @@
         <v>826</v>
       </c>
       <c r="E271">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F271" t="s">
         <v>909</v>
@@ -15642,7 +15642,7 @@
         <v>826</v>
       </c>
       <c r="E272">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F272" t="s">
         <v>909</v>
@@ -15677,7 +15677,7 @@
         <v>826</v>
       </c>
       <c r="E273">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F273" t="s">
         <v>909</v>
@@ -15712,7 +15712,7 @@
         <v>827</v>
       </c>
       <c r="E274">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F274" t="s">
         <v>909</v>
@@ -15747,7 +15747,7 @@
         <v>827</v>
       </c>
       <c r="E275">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F275" t="s">
         <v>909</v>
@@ -15782,7 +15782,7 @@
         <v>827</v>
       </c>
       <c r="E276">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F276" t="s">
         <v>909</v>
@@ -15817,7 +15817,7 @@
         <v>827</v>
       </c>
       <c r="E277">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F277" t="s">
         <v>909</v>
@@ -15852,7 +15852,7 @@
         <v>828</v>
       </c>
       <c r="E278">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F278" t="s">
         <v>909</v>
@@ -15887,7 +15887,7 @@
         <v>829</v>
       </c>
       <c r="E279">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F279" t="s">
         <v>909</v>
@@ -15922,7 +15922,7 @@
         <v>829</v>
       </c>
       <c r="E280">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F280" t="s">
         <v>909</v>
@@ -15957,7 +15957,7 @@
         <v>830</v>
       </c>
       <c r="E281">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F281" t="s">
         <v>909</v>
@@ -15992,7 +15992,7 @@
         <v>830</v>
       </c>
       <c r="E282">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F282" t="s">
         <v>909</v>
@@ -16027,7 +16027,7 @@
         <v>831</v>
       </c>
       <c r="E283">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F283" t="s">
         <v>909</v>
@@ -16065,7 +16065,7 @@
         <v>831</v>
       </c>
       <c r="E284">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F284" t="s">
         <v>909</v>
@@ -16103,7 +16103,7 @@
         <v>831</v>
       </c>
       <c r="E285">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F285" t="s">
         <v>909</v>
@@ -16141,7 +16141,7 @@
         <v>832</v>
       </c>
       <c r="E286">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F286" t="s">
         <v>909</v>
@@ -16176,7 +16176,7 @@
         <v>832</v>
       </c>
       <c r="E287">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F287" t="s">
         <v>909</v>
@@ -16211,7 +16211,7 @@
         <v>832</v>
       </c>
       <c r="E288">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F288" t="s">
         <v>909</v>
@@ -16246,7 +16246,7 @@
         <v>833</v>
       </c>
       <c r="E289">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F289" t="s">
         <v>909</v>
@@ -16281,7 +16281,7 @@
         <v>833</v>
       </c>
       <c r="E290">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F290" t="s">
         <v>909</v>
@@ -16319,7 +16319,7 @@
         <v>833</v>
       </c>
       <c r="E291">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F291" t="s">
         <v>909</v>
@@ -16354,7 +16354,7 @@
         <v>833</v>
       </c>
       <c r="E292">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F292" t="s">
         <v>914</v>
@@ -16389,7 +16389,7 @@
         <v>834</v>
       </c>
       <c r="E293">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F293" t="s">
         <v>909</v>
@@ -16424,7 +16424,7 @@
         <v>834</v>
       </c>
       <c r="E294">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F294" t="s">
         <v>909</v>
@@ -16459,7 +16459,7 @@
         <v>835</v>
       </c>
       <c r="E295">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F295" t="s">
         <v>909</v>
@@ -16494,7 +16494,7 @@
         <v>835</v>
       </c>
       <c r="E296">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F296" t="s">
         <v>909</v>
@@ -16529,7 +16529,7 @@
         <v>835</v>
       </c>
       <c r="E297">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F297" t="s">
         <v>909</v>
@@ -16564,7 +16564,7 @@
         <v>835</v>
       </c>
       <c r="E298">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F298" t="s">
         <v>909</v>
@@ -16599,7 +16599,7 @@
         <v>836</v>
       </c>
       <c r="E299">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F299" t="s">
         <v>909</v>
@@ -16634,7 +16634,7 @@
         <v>836</v>
       </c>
       <c r="E300">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F300" t="s">
         <v>909</v>
@@ -16669,7 +16669,7 @@
         <v>836</v>
       </c>
       <c r="E301">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F301" t="s">
         <v>909</v>
@@ -16704,7 +16704,7 @@
         <v>837</v>
       </c>
       <c r="E302">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F302" t="s">
         <v>909</v>
@@ -16739,7 +16739,7 @@
         <v>837</v>
       </c>
       <c r="E303">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F303" t="s">
         <v>909</v>
@@ -16774,7 +16774,7 @@
         <v>837</v>
       </c>
       <c r="E304">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F304" t="s">
         <v>909</v>
@@ -16809,7 +16809,7 @@
         <v>837</v>
       </c>
       <c r="E305">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F305" t="s">
         <v>909</v>
@@ -16844,7 +16844,7 @@
         <v>837</v>
       </c>
       <c r="E306">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F306" t="s">
         <v>909</v>
@@ -16879,7 +16879,7 @@
         <v>837</v>
       </c>
       <c r="E307">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F307" t="s">
         <v>909</v>
@@ -16914,7 +16914,7 @@
         <v>837</v>
       </c>
       <c r="E308">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F308" t="s">
         <v>909</v>
@@ -16949,7 +16949,7 @@
         <v>837</v>
       </c>
       <c r="E309">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F309" t="s">
         <v>909</v>
@@ -16984,7 +16984,7 @@
         <v>837</v>
       </c>
       <c r="E310">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F310" t="s">
         <v>909</v>
@@ -17019,7 +17019,7 @@
         <v>837</v>
       </c>
       <c r="E311">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F311" t="s">
         <v>909</v>
@@ -17057,7 +17057,7 @@
         <v>838</v>
       </c>
       <c r="E312">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F312" t="s">
         <v>909</v>
@@ -17092,7 +17092,7 @@
         <v>838</v>
       </c>
       <c r="E313">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F313" t="s">
         <v>909</v>
@@ -17127,7 +17127,7 @@
         <v>839</v>
       </c>
       <c r="E314">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F314" t="s">
         <v>910</v>
@@ -17162,7 +17162,7 @@
         <v>839</v>
       </c>
       <c r="E315">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F315" t="s">
         <v>909</v>
@@ -17197,7 +17197,7 @@
         <v>840</v>
       </c>
       <c r="E316">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F316" t="s">
         <v>909</v>
@@ -17232,7 +17232,7 @@
         <v>840</v>
       </c>
       <c r="E317">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F317" t="s">
         <v>909</v>
@@ -17267,7 +17267,7 @@
         <v>841</v>
       </c>
       <c r="E318">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F318" t="s">
         <v>909</v>
@@ -17302,7 +17302,7 @@
         <v>841</v>
       </c>
       <c r="E319">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F319" t="s">
         <v>909</v>
@@ -17337,7 +17337,7 @@
         <v>841</v>
       </c>
       <c r="E320">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F320" t="s">
         <v>909</v>
@@ -17372,7 +17372,7 @@
         <v>841</v>
       </c>
       <c r="E321">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F321" t="s">
         <v>909</v>
@@ -17407,7 +17407,7 @@
         <v>841</v>
       </c>
       <c r="E322">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F322" t="s">
         <v>909</v>
@@ -17442,7 +17442,7 @@
         <v>841</v>
       </c>
       <c r="E323">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F323" t="s">
         <v>909</v>
@@ -17477,7 +17477,7 @@
         <v>841</v>
       </c>
       <c r="E324">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F324" t="s">
         <v>909</v>
@@ -17512,7 +17512,7 @@
         <v>841</v>
       </c>
       <c r="E325">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F325" t="s">
         <v>909</v>
@@ -17547,7 +17547,7 @@
         <v>842</v>
       </c>
       <c r="E326">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F326" t="s">
         <v>909</v>
@@ -17582,7 +17582,7 @@
         <v>842</v>
       </c>
       <c r="E327">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F327" t="s">
         <v>909</v>
@@ -17617,7 +17617,7 @@
         <v>842</v>
       </c>
       <c r="E328">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F328" t="s">
         <v>909</v>
@@ -17652,7 +17652,7 @@
         <v>842</v>
       </c>
       <c r="E329">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F329" t="s">
         <v>909</v>
@@ -17687,7 +17687,7 @@
         <v>842</v>
       </c>
       <c r="E330">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F330" t="s">
         <v>909</v>
@@ -17722,7 +17722,7 @@
         <v>843</v>
       </c>
       <c r="E331">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F331" t="s">
         <v>909</v>
@@ -17757,7 +17757,7 @@
         <v>843</v>
       </c>
       <c r="E332">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F332" t="s">
         <v>909</v>
@@ -17792,7 +17792,7 @@
         <v>843</v>
       </c>
       <c r="E333">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F333" t="s">
         <v>909</v>
@@ -17827,7 +17827,7 @@
         <v>844</v>
       </c>
       <c r="E334">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F334" t="s">
         <v>909</v>
@@ -17862,7 +17862,7 @@
         <v>844</v>
       </c>
       <c r="E335">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F335" t="s">
         <v>909</v>
@@ -17897,7 +17897,7 @@
         <v>845</v>
       </c>
       <c r="E336">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F336" t="s">
         <v>909</v>
@@ -17932,7 +17932,7 @@
         <v>845</v>
       </c>
       <c r="E337">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F337" t="s">
         <v>909</v>
@@ -17967,7 +17967,7 @@
         <v>845</v>
       </c>
       <c r="E338">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F338" t="s">
         <v>909</v>
@@ -18002,7 +18002,7 @@
         <v>845</v>
       </c>
       <c r="E339">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F339" t="s">
         <v>909</v>
@@ -18037,7 +18037,7 @@
         <v>846</v>
       </c>
       <c r="E340">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F340" t="s">
         <v>909</v>
@@ -18072,7 +18072,7 @@
         <v>846</v>
       </c>
       <c r="E341">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F341" t="s">
         <v>909</v>
@@ -18107,7 +18107,7 @@
         <v>846</v>
       </c>
       <c r="E342">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F342" t="s">
         <v>909</v>
@@ -18142,7 +18142,7 @@
         <v>846</v>
       </c>
       <c r="E343">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F343" t="s">
         <v>909</v>
@@ -18177,7 +18177,7 @@
         <v>846</v>
       </c>
       <c r="E344">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F344" t="s">
         <v>909</v>
@@ -18212,7 +18212,7 @@
         <v>847</v>
       </c>
       <c r="E345">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F345" t="s">
         <v>909</v>
@@ -18247,7 +18247,7 @@
         <v>847</v>
       </c>
       <c r="E346">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F346" t="s">
         <v>909</v>
@@ -18285,7 +18285,7 @@
         <v>847</v>
       </c>
       <c r="E347">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F347" t="s">
         <v>909</v>
@@ -18320,7 +18320,7 @@
         <v>847</v>
       </c>
       <c r="E348">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F348" t="s">
         <v>909</v>
@@ -18355,7 +18355,7 @@
         <v>848</v>
       </c>
       <c r="E349">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F349" t="s">
         <v>909</v>
@@ -18390,7 +18390,7 @@
         <v>848</v>
       </c>
       <c r="E350">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F350" t="s">
         <v>909</v>
@@ -18425,7 +18425,7 @@
         <v>848</v>
       </c>
       <c r="E351">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F351" t="s">
         <v>909</v>
@@ -18460,7 +18460,7 @@
         <v>848</v>
       </c>
       <c r="E352">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F352" t="s">
         <v>909</v>
@@ -18495,7 +18495,7 @@
         <v>849</v>
       </c>
       <c r="E353">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F353" t="s">
         <v>909</v>
@@ -18530,7 +18530,7 @@
         <v>849</v>
       </c>
       <c r="E354">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F354" t="s">
         <v>909</v>
@@ -18565,7 +18565,7 @@
         <v>849</v>
       </c>
       <c r="E355">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F355" t="s">
         <v>909</v>
@@ -18600,7 +18600,7 @@
         <v>849</v>
       </c>
       <c r="E356">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F356" t="s">
         <v>909</v>
@@ -18635,7 +18635,7 @@
         <v>849</v>
       </c>
       <c r="E357">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F357" t="s">
         <v>909</v>
@@ -18670,7 +18670,7 @@
         <v>849</v>
       </c>
       <c r="E358">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F358" t="s">
         <v>909</v>
@@ -18705,7 +18705,7 @@
         <v>849</v>
       </c>
       <c r="E359">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F359" t="s">
         <v>909</v>
@@ -18740,7 +18740,7 @@
         <v>849</v>
       </c>
       <c r="E360">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F360" t="s">
         <v>909</v>
@@ -18775,7 +18775,7 @@
         <v>849</v>
       </c>
       <c r="E361">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F361" t="s">
         <v>909</v>
@@ -18810,7 +18810,7 @@
         <v>850</v>
       </c>
       <c r="E362">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F362" t="s">
         <v>909</v>
@@ -18845,7 +18845,7 @@
         <v>850</v>
       </c>
       <c r="E363">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F363" t="s">
         <v>909</v>
@@ -18883,7 +18883,7 @@
         <v>850</v>
       </c>
       <c r="E364">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F364" t="s">
         <v>909</v>
@@ -18918,7 +18918,7 @@
         <v>850</v>
       </c>
       <c r="E365">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F365" t="s">
         <v>909</v>
@@ -18953,7 +18953,7 @@
         <v>851</v>
       </c>
       <c r="E366">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F366" t="s">
         <v>909</v>
@@ -18988,7 +18988,7 @@
         <v>852</v>
       </c>
       <c r="E367">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F367" t="s">
         <v>909</v>
@@ -19023,7 +19023,7 @@
         <v>852</v>
       </c>
       <c r="E368">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F368" t="s">
         <v>909</v>
@@ -19058,7 +19058,7 @@
         <v>852</v>
       </c>
       <c r="E369">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F369" t="s">
         <v>909</v>
@@ -19093,7 +19093,7 @@
         <v>852</v>
       </c>
       <c r="E370">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F370" t="s">
         <v>909</v>
@@ -19128,7 +19128,7 @@
         <v>852</v>
       </c>
       <c r="E371">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F371" t="s">
         <v>909</v>
@@ -19163,7 +19163,7 @@
         <v>852</v>
       </c>
       <c r="E372">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F372" t="s">
         <v>909</v>
@@ -19198,7 +19198,7 @@
         <v>852</v>
       </c>
       <c r="E373">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F373" t="s">
         <v>909</v>
@@ -19233,7 +19233,7 @@
         <v>852</v>
       </c>
       <c r="E374">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F374" t="s">
         <v>909</v>
@@ -19271,7 +19271,7 @@
         <v>853</v>
       </c>
       <c r="E375">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F375" t="s">
         <v>909</v>
@@ -19306,7 +19306,7 @@
         <v>853</v>
       </c>
       <c r="E376">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F376" t="s">
         <v>909</v>
@@ -19341,7 +19341,7 @@
         <v>854</v>
       </c>
       <c r="E377">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F377" t="s">
         <v>909</v>
@@ -19376,7 +19376,7 @@
         <v>855</v>
       </c>
       <c r="E378">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F378" t="s">
         <v>909</v>
@@ -19414,7 +19414,7 @@
         <v>855</v>
       </c>
       <c r="E379">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F379" t="s">
         <v>909</v>
@@ -19449,7 +19449,7 @@
         <v>855</v>
       </c>
       <c r="E380">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F380" t="s">
         <v>909</v>
@@ -19484,7 +19484,7 @@
         <v>855</v>
       </c>
       <c r="E381">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F381" t="s">
         <v>909</v>
@@ -19519,7 +19519,7 @@
         <v>855</v>
       </c>
       <c r="E382">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F382" t="s">
         <v>909</v>
@@ -19557,7 +19557,7 @@
         <v>856</v>
       </c>
       <c r="E383">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F383" t="s">
         <v>909</v>
@@ -19592,7 +19592,7 @@
         <v>856</v>
       </c>
       <c r="E384">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F384" t="s">
         <v>909</v>
@@ -19627,7 +19627,7 @@
         <v>856</v>
       </c>
       <c r="E385">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F385" t="s">
         <v>909</v>
@@ -19662,7 +19662,7 @@
         <v>856</v>
       </c>
       <c r="E386">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F386" t="s">
         <v>909</v>
@@ -19697,7 +19697,7 @@
         <v>856</v>
       </c>
       <c r="E387">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F387" t="s">
         <v>909</v>
@@ -19732,7 +19732,7 @@
         <v>856</v>
       </c>
       <c r="E388">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F388" t="s">
         <v>909</v>
@@ -19767,7 +19767,7 @@
         <v>856</v>
       </c>
       <c r="E389">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F389" t="s">
         <v>909</v>
@@ -19802,7 +19802,7 @@
         <v>857</v>
       </c>
       <c r="E390">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F390" t="s">
         <v>909</v>
@@ -19837,7 +19837,7 @@
         <v>857</v>
       </c>
       <c r="E391">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F391" t="s">
         <v>909</v>
@@ -19872,7 +19872,7 @@
         <v>857</v>
       </c>
       <c r="E392">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F392" t="s">
         <v>909</v>
@@ -19907,7 +19907,7 @@
         <v>857</v>
       </c>
       <c r="E393">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F393" t="s">
         <v>909</v>
@@ -19942,7 +19942,7 @@
         <v>857</v>
       </c>
       <c r="E394">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F394" t="s">
         <v>909</v>
@@ -19980,7 +19980,7 @@
         <v>857</v>
       </c>
       <c r="E395">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F395" t="s">
         <v>909</v>
@@ -20015,7 +20015,7 @@
         <v>857</v>
       </c>
       <c r="E396">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F396" t="s">
         <v>909</v>
@@ -20050,7 +20050,7 @@
         <v>858</v>
       </c>
       <c r="E397">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F397" t="s">
         <v>909</v>
@@ -20085,7 +20085,7 @@
         <v>859</v>
       </c>
       <c r="E398">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F398" t="s">
         <v>909</v>
@@ -20123,7 +20123,7 @@
         <v>859</v>
       </c>
       <c r="E399">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F399" t="s">
         <v>909</v>
@@ -20158,7 +20158,7 @@
         <v>859</v>
       </c>
       <c r="E400">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F400" t="s">
         <v>909</v>
@@ -20193,7 +20193,7 @@
         <v>859</v>
       </c>
       <c r="E401">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F401" t="s">
         <v>909</v>
@@ -20228,7 +20228,7 @@
         <v>859</v>
       </c>
       <c r="E402">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F402" t="s">
         <v>909</v>
@@ -20263,7 +20263,7 @@
         <v>859</v>
       </c>
       <c r="E403">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F403" t="s">
         <v>909</v>
@@ -20298,7 +20298,7 @@
         <v>859</v>
       </c>
       <c r="E404">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F404" t="s">
         <v>909</v>
@@ -20333,7 +20333,7 @@
         <v>859</v>
       </c>
       <c r="E405">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F405" t="s">
         <v>909</v>
@@ -20368,7 +20368,7 @@
         <v>859</v>
       </c>
       <c r="E406">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F406" t="s">
         <v>909</v>
@@ -20403,7 +20403,7 @@
         <v>859</v>
       </c>
       <c r="E407">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F407" t="s">
         <v>909</v>
@@ -20438,7 +20438,7 @@
         <v>859</v>
       </c>
       <c r="E408">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F408" t="s">
         <v>909</v>
@@ -20473,7 +20473,7 @@
         <v>859</v>
       </c>
       <c r="E409">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F409" t="s">
         <v>909</v>
@@ -20508,7 +20508,7 @@
         <v>859</v>
       </c>
       <c r="E410">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F410" t="s">
         <v>909</v>
@@ -20543,7 +20543,7 @@
         <v>859</v>
       </c>
       <c r="E411">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F411" t="s">
         <v>909</v>
@@ -20578,7 +20578,7 @@
         <v>860</v>
       </c>
       <c r="E412">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F412" t="s">
         <v>909</v>
@@ -20613,7 +20613,7 @@
         <v>860</v>
       </c>
       <c r="E413">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F413" t="s">
         <v>909</v>
@@ -20648,7 +20648,7 @@
         <v>860</v>
       </c>
       <c r="E414">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F414" t="s">
         <v>909</v>
@@ -20683,7 +20683,7 @@
         <v>860</v>
       </c>
       <c r="E415">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F415" t="s">
         <v>909</v>
@@ -20718,7 +20718,7 @@
         <v>860</v>
       </c>
       <c r="E416">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F416" t="s">
         <v>909</v>
@@ -20753,7 +20753,7 @@
         <v>860</v>
       </c>
       <c r="E417">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F417" t="s">
         <v>909</v>
@@ -20788,7 +20788,7 @@
         <v>860</v>
       </c>
       <c r="E418">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F418" t="s">
         <v>909</v>
@@ -20823,7 +20823,7 @@
         <v>860</v>
       </c>
       <c r="E419">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F419" t="s">
         <v>914</v>
@@ -20858,7 +20858,7 @@
         <v>860</v>
       </c>
       <c r="E420">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F420" t="s">
         <v>909</v>
@@ -20893,7 +20893,7 @@
         <v>861</v>
       </c>
       <c r="E421">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F421" t="s">
         <v>909</v>
@@ -20931,7 +20931,7 @@
         <v>862</v>
       </c>
       <c r="E422">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F422" t="s">
         <v>909</v>
@@ -20966,7 +20966,7 @@
         <v>862</v>
       </c>
       <c r="E423">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F423" t="s">
         <v>909</v>
@@ -21001,7 +21001,7 @@
         <v>863</v>
       </c>
       <c r="E424">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F424" t="s">
         <v>909</v>
@@ -21036,7 +21036,7 @@
         <v>863</v>
       </c>
       <c r="E425">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F425" t="s">
         <v>909</v>
@@ -21071,7 +21071,7 @@
         <v>863</v>
       </c>
       <c r="E426">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F426" t="s">
         <v>909</v>
@@ -21106,7 +21106,7 @@
         <v>863</v>
       </c>
       <c r="E427">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F427" t="s">
         <v>909</v>
@@ -21141,7 +21141,7 @@
         <v>863</v>
       </c>
       <c r="E428">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F428" t="s">
         <v>909</v>
@@ -21176,7 +21176,7 @@
         <v>863</v>
       </c>
       <c r="E429">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F429" t="s">
         <v>909</v>
@@ -21211,7 +21211,7 @@
         <v>864</v>
       </c>
       <c r="E430">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F430" t="s">
         <v>909</v>
@@ -21246,7 +21246,7 @@
         <v>864</v>
       </c>
       <c r="E431">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F431" t="s">
         <v>909</v>
@@ -21281,7 +21281,7 @@
         <v>864</v>
       </c>
       <c r="E432">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F432" t="s">
         <v>909</v>
@@ -21316,7 +21316,7 @@
         <v>864</v>
       </c>
       <c r="E433">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F433" t="s">
         <v>909</v>
@@ -21351,7 +21351,7 @@
         <v>864</v>
       </c>
       <c r="E434">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F434" t="s">
         <v>909</v>
@@ -21386,7 +21386,7 @@
         <v>864</v>
       </c>
       <c r="E435">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F435" t="s">
         <v>909</v>
@@ -21421,7 +21421,7 @@
         <v>864</v>
       </c>
       <c r="E436">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F436" t="s">
         <v>909</v>
@@ -21456,7 +21456,7 @@
         <v>865</v>
       </c>
       <c r="E437">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F437" t="s">
         <v>909</v>
@@ -21491,7 +21491,7 @@
         <v>865</v>
       </c>
       <c r="E438">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F438" t="s">
         <v>909</v>
@@ -21526,7 +21526,7 @@
         <v>865</v>
       </c>
       <c r="E439">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F439" t="s">
         <v>909</v>
@@ -21561,7 +21561,7 @@
         <v>865</v>
       </c>
       <c r="E440">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F440" t="s">
         <v>909</v>
@@ -21596,7 +21596,7 @@
         <v>865</v>
       </c>
       <c r="E441">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F441" t="s">
         <v>909</v>
@@ -21631,7 +21631,7 @@
         <v>865</v>
       </c>
       <c r="E442">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F442" t="s">
         <v>909</v>
@@ -21666,7 +21666,7 @@
         <v>866</v>
       </c>
       <c r="E443">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F443" t="s">
         <v>909</v>
@@ -21701,7 +21701,7 @@
         <v>866</v>
       </c>
       <c r="E444">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F444" t="s">
         <v>909</v>
@@ -21736,7 +21736,7 @@
         <v>867</v>
       </c>
       <c r="E445">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F445" t="s">
         <v>909</v>
@@ -21771,7 +21771,7 @@
         <v>867</v>
       </c>
       <c r="E446">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F446" t="s">
         <v>909</v>
@@ -21806,7 +21806,7 @@
         <v>867</v>
       </c>
       <c r="E447">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F447" t="s">
         <v>909</v>
@@ -21841,7 +21841,7 @@
         <v>867</v>
       </c>
       <c r="E448">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F448" t="s">
         <v>909</v>
@@ -21876,7 +21876,7 @@
         <v>867</v>
       </c>
       <c r="E449">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F449" t="s">
         <v>909</v>
@@ -21911,7 +21911,7 @@
         <v>868</v>
       </c>
       <c r="E450">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F450" t="s">
         <v>909</v>
@@ -21946,7 +21946,7 @@
         <v>868</v>
       </c>
       <c r="E451">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F451" t="s">
         <v>909</v>
@@ -21981,7 +21981,7 @@
         <v>868</v>
       </c>
       <c r="E452">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F452" t="s">
         <v>909</v>
@@ -22016,7 +22016,7 @@
         <v>868</v>
       </c>
       <c r="E453">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F453" t="s">
         <v>909</v>
@@ -22051,7 +22051,7 @@
         <v>869</v>
       </c>
       <c r="E454">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F454" t="s">
         <v>909</v>
@@ -22089,7 +22089,7 @@
         <v>870</v>
       </c>
       <c r="E455">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F455" t="s">
         <v>909</v>
@@ -22124,7 +22124,7 @@
         <v>870</v>
       </c>
       <c r="E456">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F456" t="s">
         <v>909</v>
@@ -22159,7 +22159,7 @@
         <v>871</v>
       </c>
       <c r="E457">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F457" t="s">
         <v>914</v>
@@ -22197,7 +22197,7 @@
         <v>871</v>
       </c>
       <c r="E458">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F458" t="s">
         <v>909</v>
@@ -22232,7 +22232,7 @@
         <v>871</v>
       </c>
       <c r="E459">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F459" t="s">
         <v>909</v>
@@ -22267,7 +22267,7 @@
         <v>871</v>
       </c>
       <c r="E460">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F460" t="s">
         <v>909</v>
@@ -22302,7 +22302,7 @@
         <v>871</v>
       </c>
       <c r="E461">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F461" t="s">
         <v>909</v>
@@ -22337,7 +22337,7 @@
         <v>871</v>
       </c>
       <c r="E462">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F462" t="s">
         <v>909</v>
@@ -22372,7 +22372,7 @@
         <v>872</v>
       </c>
       <c r="E463">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F463" t="s">
         <v>909</v>
@@ -22410,7 +22410,7 @@
         <v>872</v>
       </c>
       <c r="E464">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F464" t="s">
         <v>909</v>
@@ -22445,7 +22445,7 @@
         <v>873</v>
       </c>
       <c r="E465">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F465" t="s">
         <v>911</v>
@@ -22480,7 +22480,7 @@
         <v>873</v>
       </c>
       <c r="E466">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F466" t="s">
         <v>909</v>
@@ -22515,7 +22515,7 @@
         <v>874</v>
       </c>
       <c r="E467">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F467" t="s">
         <v>909</v>
@@ -22550,7 +22550,7 @@
         <v>874</v>
       </c>
       <c r="E468">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F468" t="s">
         <v>909</v>
@@ -22585,7 +22585,7 @@
         <v>875</v>
       </c>
       <c r="E469">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F469" t="s">
         <v>909</v>
@@ -22620,7 +22620,7 @@
         <v>875</v>
       </c>
       <c r="E470">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F470" t="s">
         <v>909</v>
@@ -22655,7 +22655,7 @@
         <v>875</v>
       </c>
       <c r="E471">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F471" t="s">
         <v>909</v>
@@ -22690,7 +22690,7 @@
         <v>876</v>
       </c>
       <c r="E472">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F472" t="s">
         <v>909</v>
@@ -22725,7 +22725,7 @@
         <v>876</v>
       </c>
       <c r="E473">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F473" t="s">
         <v>909</v>
@@ -22760,7 +22760,7 @@
         <v>877</v>
       </c>
       <c r="E474">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F474" t="s">
         <v>909</v>
@@ -22795,7 +22795,7 @@
         <v>877</v>
       </c>
       <c r="E475">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F475" t="s">
         <v>909</v>
@@ -22830,7 +22830,7 @@
         <v>877</v>
       </c>
       <c r="E476">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F476" t="s">
         <v>909</v>
@@ -22868,7 +22868,7 @@
         <v>877</v>
       </c>
       <c r="E477">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F477" t="s">
         <v>909</v>
@@ -22906,7 +22906,7 @@
         <v>877</v>
       </c>
       <c r="E478">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F478" t="s">
         <v>909</v>
@@ -22941,7 +22941,7 @@
         <v>878</v>
       </c>
       <c r="E479">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F479" t="s">
         <v>909</v>
@@ -22976,7 +22976,7 @@
         <v>878</v>
       </c>
       <c r="E480">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F480" t="s">
         <v>909</v>
@@ -23011,7 +23011,7 @@
         <v>878</v>
       </c>
       <c r="E481">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F481" t="s">
         <v>909</v>
@@ -23046,7 +23046,7 @@
         <v>879</v>
       </c>
       <c r="E482">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F482" t="s">
         <v>914</v>
@@ -23084,7 +23084,7 @@
         <v>879</v>
       </c>
       <c r="E483">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F483" t="s">
         <v>909</v>
@@ -23122,7 +23122,7 @@
         <v>879</v>
       </c>
       <c r="E484">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F484" t="s">
         <v>914</v>
@@ -23160,7 +23160,7 @@
         <v>879</v>
       </c>
       <c r="E485">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F485" t="s">
         <v>909</v>
@@ -23195,7 +23195,7 @@
         <v>880</v>
       </c>
       <c r="E486">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F486" t="s">
         <v>913</v>
@@ -23230,7 +23230,7 @@
         <v>880</v>
       </c>
       <c r="E487">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F487" t="s">
         <v>914</v>
@@ -23268,7 +23268,7 @@
         <v>880</v>
       </c>
       <c r="E488">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F488" t="s">
         <v>909</v>
@@ -23303,7 +23303,7 @@
         <v>880</v>
       </c>
       <c r="E489">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F489" t="s">
         <v>914</v>
@@ -23338,7 +23338,7 @@
         <v>881</v>
       </c>
       <c r="E490">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F490" t="s">
         <v>909</v>
@@ -23373,7 +23373,7 @@
         <v>881</v>
       </c>
       <c r="E491">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F491" t="s">
         <v>909</v>
@@ -23408,7 +23408,7 @@
         <v>881</v>
       </c>
       <c r="E492">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F492" t="s">
         <v>909</v>
@@ -23443,7 +23443,7 @@
         <v>881</v>
       </c>
       <c r="E493">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F493" t="s">
         <v>909</v>
@@ -23478,7 +23478,7 @@
         <v>881</v>
       </c>
       <c r="E494">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F494" t="s">
         <v>909</v>
@@ -23513,7 +23513,7 @@
         <v>882</v>
       </c>
       <c r="E495">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F495" t="s">
         <v>909</v>
@@ -23548,7 +23548,7 @@
         <v>882</v>
       </c>
       <c r="E496">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F496" t="s">
         <v>909</v>
@@ -23583,7 +23583,7 @@
         <v>882</v>
       </c>
       <c r="E497">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F497" t="s">
         <v>909</v>
@@ -23618,7 +23618,7 @@
         <v>882</v>
       </c>
       <c r="E498">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F498" t="s">
         <v>909</v>
@@ -23653,7 +23653,7 @@
         <v>882</v>
       </c>
       <c r="E499">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F499" t="s">
         <v>909</v>
@@ -23688,7 +23688,7 @@
         <v>882</v>
       </c>
       <c r="E500">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F500" t="s">
         <v>914</v>
@@ -23726,7 +23726,7 @@
         <v>882</v>
       </c>
       <c r="E501">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F501" t="s">
         <v>909</v>
@@ -23761,7 +23761,7 @@
         <v>882</v>
       </c>
       <c r="E502">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F502" t="s">
         <v>909</v>
@@ -23796,7 +23796,7 @@
         <v>883</v>
       </c>
       <c r="E503">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F503" t="s">
         <v>909</v>
@@ -23831,7 +23831,7 @@
         <v>884</v>
       </c>
       <c r="E504">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F504" t="s">
         <v>909</v>
@@ -23866,7 +23866,7 @@
         <v>884</v>
       </c>
       <c r="E505">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F505" t="s">
         <v>909</v>
@@ -23901,7 +23901,7 @@
         <v>884</v>
       </c>
       <c r="E506">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F506" t="s">
         <v>909</v>
@@ -23936,7 +23936,7 @@
         <v>884</v>
       </c>
       <c r="E507">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F507" t="s">
         <v>909</v>
@@ -23971,7 +23971,7 @@
         <v>884</v>
       </c>
       <c r="E508">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F508" t="s">
         <v>909</v>
@@ -24006,7 +24006,7 @@
         <v>885</v>
       </c>
       <c r="E509">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F509" t="s">
         <v>909</v>
@@ -24041,7 +24041,7 @@
         <v>885</v>
       </c>
       <c r="E510">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F510" t="s">
         <v>909</v>
@@ -24079,7 +24079,7 @@
         <v>886</v>
       </c>
       <c r="E511">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F511" t="s">
         <v>909</v>
@@ -24114,7 +24114,7 @@
         <v>886</v>
       </c>
       <c r="E512">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F512" t="s">
         <v>909</v>
@@ -24149,7 +24149,7 @@
         <v>886</v>
       </c>
       <c r="E513">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F513" t="s">
         <v>909</v>
@@ -24184,7 +24184,7 @@
         <v>886</v>
       </c>
       <c r="E514">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F514" t="s">
         <v>909</v>
@@ -24219,7 +24219,7 @@
         <v>886</v>
       </c>
       <c r="E515">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F515" t="s">
         <v>909</v>
@@ -24254,7 +24254,7 @@
         <v>887</v>
       </c>
       <c r="E516">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F516" t="s">
         <v>909</v>
@@ -24289,7 +24289,7 @@
         <v>887</v>
       </c>
       <c r="E517">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F517" t="s">
         <v>909</v>
@@ -24324,7 +24324,7 @@
         <v>887</v>
       </c>
       <c r="E518">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F518" t="s">
         <v>909</v>
@@ -24359,7 +24359,7 @@
         <v>887</v>
       </c>
       <c r="E519">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F519" t="s">
         <v>909</v>
@@ -24394,7 +24394,7 @@
         <v>887</v>
       </c>
       <c r="E520">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F520" t="s">
         <v>909</v>
@@ -24429,7 +24429,7 @@
         <v>887</v>
       </c>
       <c r="E521">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F521" t="s">
         <v>909</v>
@@ -24464,7 +24464,7 @@
         <v>887</v>
       </c>
       <c r="E522">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F522" t="s">
         <v>914</v>
@@ -24502,7 +24502,7 @@
         <v>888</v>
       </c>
       <c r="E523">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F523" t="s">
         <v>913</v>
@@ -24537,7 +24537,7 @@
         <v>888</v>
       </c>
       <c r="E524">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F524" t="s">
         <v>909</v>
@@ -24575,7 +24575,7 @@
         <v>888</v>
       </c>
       <c r="E525">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F525" t="s">
         <v>909</v>
@@ -24610,7 +24610,7 @@
         <v>888</v>
       </c>
       <c r="E526">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F526" t="s">
         <v>909</v>
@@ -24645,7 +24645,7 @@
         <v>888</v>
       </c>
       <c r="E527">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F527" t="s">
         <v>909</v>
@@ -24680,7 +24680,7 @@
         <v>888</v>
       </c>
       <c r="E528">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F528" t="s">
         <v>914</v>
@@ -24718,7 +24718,7 @@
         <v>888</v>
       </c>
       <c r="E529">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F529" t="s">
         <v>909</v>
@@ -24756,7 +24756,7 @@
         <v>889</v>
       </c>
       <c r="E530">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F530" t="s">
         <v>909</v>
@@ -24791,7 +24791,7 @@
         <v>889</v>
       </c>
       <c r="E531">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F531" t="s">
         <v>909</v>
@@ -24826,7 +24826,7 @@
         <v>890</v>
       </c>
       <c r="E532">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F532" t="s">
         <v>909</v>
@@ -24864,7 +24864,7 @@
         <v>890</v>
       </c>
       <c r="E533">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F533" t="s">
         <v>909</v>
@@ -24899,7 +24899,7 @@
         <v>890</v>
       </c>
       <c r="E534">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F534" t="s">
         <v>909</v>
@@ -24934,7 +24934,7 @@
         <v>890</v>
       </c>
       <c r="E535">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F535" t="s">
         <v>909</v>
@@ -24969,7 +24969,7 @@
         <v>890</v>
       </c>
       <c r="E536">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F536" t="s">
         <v>909</v>
@@ -25004,7 +25004,7 @@
         <v>891</v>
       </c>
       <c r="E537">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F537" t="s">
         <v>909</v>
@@ -25039,7 +25039,7 @@
         <v>891</v>
       </c>
       <c r="E538">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F538" t="s">
         <v>909</v>
@@ -25074,7 +25074,7 @@
         <v>891</v>
       </c>
       <c r="E539">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F539" t="s">
         <v>914</v>
@@ -25112,7 +25112,7 @@
         <v>892</v>
       </c>
       <c r="E540">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F540" t="s">
         <v>909</v>
@@ -25147,7 +25147,7 @@
         <v>892</v>
       </c>
       <c r="E541">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F541" t="s">
         <v>909</v>
@@ -25182,7 +25182,7 @@
         <v>892</v>
       </c>
       <c r="E542">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F542" t="s">
         <v>909</v>
@@ -25217,7 +25217,7 @@
         <v>892</v>
       </c>
       <c r="E543">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F543" t="s">
         <v>909</v>
@@ -25252,7 +25252,7 @@
         <v>892</v>
       </c>
       <c r="E544">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F544" t="s">
         <v>909</v>
@@ -25287,7 +25287,7 @@
         <v>893</v>
       </c>
       <c r="E545">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F545" t="s">
         <v>909</v>
@@ -25322,7 +25322,7 @@
         <v>893</v>
       </c>
       <c r="E546">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F546" t="s">
         <v>909</v>
@@ -25357,7 +25357,7 @@
         <v>893</v>
       </c>
       <c r="E547">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F547" t="s">
         <v>909</v>
@@ -25392,7 +25392,7 @@
         <v>894</v>
       </c>
       <c r="E548">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F548" t="s">
         <v>909</v>
@@ -25427,7 +25427,7 @@
         <v>894</v>
       </c>
       <c r="E549">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F549" t="s">
         <v>909</v>
@@ -25462,7 +25462,7 @@
         <v>894</v>
       </c>
       <c r="E550">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F550" t="s">
         <v>909</v>
@@ -25497,7 +25497,7 @@
         <v>894</v>
       </c>
       <c r="E551">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F551" t="s">
         <v>909</v>
@@ -25532,7 +25532,7 @@
         <v>894</v>
       </c>
       <c r="E552">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F552" t="s">
         <v>909</v>
@@ -25567,7 +25567,7 @@
         <v>894</v>
       </c>
       <c r="E553">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F553" t="s">
         <v>914</v>
@@ -25605,7 +25605,7 @@
         <v>894</v>
       </c>
       <c r="E554">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F554" t="s">
         <v>909</v>
@@ -25640,7 +25640,7 @@
         <v>894</v>
       </c>
       <c r="E555">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F555" t="s">
         <v>909</v>
@@ -25675,7 +25675,7 @@
         <v>894</v>
       </c>
       <c r="E556">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F556" t="s">
         <v>909</v>
@@ -25710,7 +25710,7 @@
         <v>895</v>
       </c>
       <c r="E557">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F557" t="s">
         <v>909</v>
@@ -25745,7 +25745,7 @@
         <v>895</v>
       </c>
       <c r="E558">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F558" t="s">
         <v>909</v>
@@ -25780,7 +25780,7 @@
         <v>895</v>
       </c>
       <c r="E559">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F559" t="s">
         <v>909</v>
@@ -25815,7 +25815,7 @@
         <v>895</v>
       </c>
       <c r="E560">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F560" t="s">
         <v>909</v>
@@ -25850,7 +25850,7 @@
         <v>895</v>
       </c>
       <c r="E561">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F561" t="s">
         <v>909</v>
@@ -25885,7 +25885,7 @@
         <v>895</v>
       </c>
       <c r="E562">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F562" t="s">
         <v>909</v>
@@ -25920,7 +25920,7 @@
         <v>895</v>
       </c>
       <c r="E563">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F563" t="s">
         <v>909</v>
@@ -25955,7 +25955,7 @@
         <v>895</v>
       </c>
       <c r="E564">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F564" t="s">
         <v>909</v>
@@ -25990,7 +25990,7 @@
         <v>895</v>
       </c>
       <c r="E565">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F565" t="s">
         <v>909</v>
@@ -26025,7 +26025,7 @@
         <v>895</v>
       </c>
       <c r="E566">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F566" t="s">
         <v>909</v>
@@ -26060,7 +26060,7 @@
         <v>895</v>
       </c>
       <c r="E567">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F567" t="s">
         <v>909</v>
@@ -26095,7 +26095,7 @@
         <v>895</v>
       </c>
       <c r="E568">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F568" t="s">
         <v>909</v>
@@ -26130,7 +26130,7 @@
         <v>895</v>
       </c>
       <c r="E569">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F569" t="s">
         <v>909</v>
@@ -26165,7 +26165,7 @@
         <v>895</v>
       </c>
       <c r="E570">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F570" t="s">
         <v>909</v>
@@ -26200,7 +26200,7 @@
         <v>895</v>
       </c>
       <c r="E571">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F571" t="s">
         <v>909</v>
@@ -26235,7 +26235,7 @@
         <v>895</v>
       </c>
       <c r="E572">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F572" t="s">
         <v>909</v>
@@ -26270,7 +26270,7 @@
         <v>895</v>
       </c>
       <c r="E573">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F573" t="s">
         <v>909</v>
@@ -26305,7 +26305,7 @@
         <v>895</v>
       </c>
       <c r="E574">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F574" t="s">
         <v>909</v>
@@ -26340,7 +26340,7 @@
         <v>896</v>
       </c>
       <c r="E575">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F575" t="s">
         <v>909</v>
@@ -26375,7 +26375,7 @@
         <v>896</v>
       </c>
       <c r="E576">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F576" t="s">
         <v>909</v>
@@ -26410,7 +26410,7 @@
         <v>897</v>
       </c>
       <c r="E577">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F577" t="s">
         <v>909</v>
@@ -26445,7 +26445,7 @@
         <v>898</v>
       </c>
       <c r="E578">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F578" t="s">
         <v>909</v>
@@ -26480,7 +26480,7 @@
         <v>898</v>
       </c>
       <c r="E579">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F579" t="s">
         <v>909</v>
@@ -26515,7 +26515,7 @@
         <v>898</v>
       </c>
       <c r="E580">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F580" t="s">
         <v>914</v>
@@ -26553,7 +26553,7 @@
         <v>898</v>
       </c>
       <c r="E581">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F581" t="s">
         <v>909</v>
@@ -26588,7 +26588,7 @@
         <v>898</v>
       </c>
       <c r="E582">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F582" t="s">
         <v>914</v>
@@ -26626,7 +26626,7 @@
         <v>899</v>
       </c>
       <c r="E583">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F583" t="s">
         <v>909</v>
@@ -26661,7 +26661,7 @@
         <v>899</v>
       </c>
       <c r="E584">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F584" t="s">
         <v>909</v>
@@ -26696,7 +26696,7 @@
         <v>900</v>
       </c>
       <c r="E585">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F585" t="s">
         <v>914</v>
@@ -26731,7 +26731,7 @@
         <v>900</v>
       </c>
       <c r="E586">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F586" t="s">
         <v>909</v>
@@ -26769,7 +26769,7 @@
         <v>900</v>
       </c>
       <c r="E587">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F587" t="s">
         <v>909</v>
@@ -26804,7 +26804,7 @@
         <v>900</v>
       </c>
       <c r="E588">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F588" t="s">
         <v>914</v>
@@ -26839,7 +26839,7 @@
         <v>900</v>
       </c>
       <c r="E589">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F589" t="s">
         <v>909</v>
@@ -26877,7 +26877,7 @@
         <v>900</v>
       </c>
       <c r="E590">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F590" t="s">
         <v>909</v>
@@ -26912,7 +26912,7 @@
         <v>901</v>
       </c>
       <c r="E591">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F591" t="s">
         <v>909</v>
@@ -26947,7 +26947,7 @@
         <v>901</v>
       </c>
       <c r="E592">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F592" t="s">
         <v>909</v>
@@ -26982,7 +26982,7 @@
         <v>901</v>
       </c>
       <c r="E593">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F593" t="s">
         <v>909</v>
@@ -27017,7 +27017,7 @@
         <v>901</v>
       </c>
       <c r="E594">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F594" t="s">
         <v>909</v>
@@ -27052,7 +27052,7 @@
         <v>901</v>
       </c>
       <c r="E595">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F595" t="s">
         <v>914</v>
@@ -27090,7 +27090,7 @@
         <v>901</v>
       </c>
       <c r="E596">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F596" t="s">
         <v>909</v>
@@ -27125,7 +27125,7 @@
         <v>901</v>
       </c>
       <c r="E597">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F597" t="s">
         <v>909</v>
@@ -27160,7 +27160,7 @@
         <v>901</v>
       </c>
       <c r="E598">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F598" t="s">
         <v>909</v>
@@ -27195,7 +27195,7 @@
         <v>902</v>
       </c>
       <c r="E599">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F599" t="s">
         <v>909</v>
@@ -27230,7 +27230,7 @@
         <v>902</v>
       </c>
       <c r="E600">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F600" t="s">
         <v>914</v>
@@ -27268,7 +27268,7 @@
         <v>902</v>
       </c>
       <c r="E601">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F601" t="s">
         <v>914</v>
@@ -27303,7 +27303,7 @@
         <v>902</v>
       </c>
       <c r="E602">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F602" t="s">
         <v>909</v>
@@ -27341,7 +27341,7 @@
         <v>902</v>
       </c>
       <c r="E603">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F603" t="s">
         <v>909</v>
@@ -27376,7 +27376,7 @@
         <v>902</v>
       </c>
       <c r="E604">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F604" t="s">
         <v>909</v>
@@ -27414,7 +27414,7 @@
         <v>903</v>
       </c>
       <c r="E605">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F605" t="s">
         <v>909</v>
@@ -27449,7 +27449,7 @@
         <v>903</v>
       </c>
       <c r="E606">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F606" t="s">
         <v>914</v>
@@ -27487,7 +27487,7 @@
         <v>903</v>
       </c>
       <c r="E607">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F607" t="s">
         <v>909</v>
@@ -27522,7 +27522,7 @@
         <v>904</v>
       </c>
       <c r="E608">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F608" t="s">
         <v>909</v>
@@ -27557,7 +27557,7 @@
         <v>904</v>
       </c>
       <c r="E609">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F609" t="s">
         <v>909</v>
@@ -27592,7 +27592,7 @@
         <v>904</v>
       </c>
       <c r="E610">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F610" t="s">
         <v>909</v>
@@ -27627,7 +27627,7 @@
         <v>904</v>
       </c>
       <c r="E611">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F611" t="s">
         <v>914</v>
@@ -27665,7 +27665,7 @@
         <v>904</v>
       </c>
       <c r="E612">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F612" t="s">
         <v>909</v>
@@ -27700,7 +27700,7 @@
         <v>905</v>
       </c>
       <c r="E613">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F613" t="s">
         <v>914</v>
@@ -27738,7 +27738,7 @@
         <v>905</v>
       </c>
       <c r="E614">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F614" t="s">
         <v>909</v>
@@ -27776,7 +27776,7 @@
         <v>905</v>
       </c>
       <c r="E615">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F615" t="s">
         <v>909</v>
@@ -27814,7 +27814,7 @@
         <v>905</v>
       </c>
       <c r="E616">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F616" t="s">
         <v>909</v>
@@ -27849,7 +27849,7 @@
         <v>906</v>
       </c>
       <c r="E617">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F617" t="s">
         <v>909</v>
@@ -27884,7 +27884,7 @@
         <v>907</v>
       </c>
       <c r="E618">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F618" t="s">
         <v>909</v>
@@ -27919,7 +27919,7 @@
         <v>907</v>
       </c>
       <c r="E619">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F619" t="s">
         <v>909</v>
@@ -27957,7 +27957,7 @@
         <v>907</v>
       </c>
       <c r="E620">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F620" t="s">
         <v>909</v>
@@ -27992,7 +27992,7 @@
         <v>907</v>
       </c>
       <c r="E621">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F621" t="s">
         <v>909</v>
@@ -28027,7 +28027,7 @@
         <v>907</v>
       </c>
       <c r="E622">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F622" t="s">
         <v>909</v>
@@ -28062,7 +28062,7 @@
         <v>907</v>
       </c>
       <c r="E623">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F623" t="s">
         <v>909</v>
@@ -28097,7 +28097,7 @@
         <v>907</v>
       </c>
       <c r="E624">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F624" t="s">
         <v>909</v>
@@ -28132,7 +28132,7 @@
         <v>907</v>
       </c>
       <c r="E625">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F625" t="s">
         <v>914</v>
@@ -28167,7 +28167,7 @@
         <v>907</v>
       </c>
       <c r="E626">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F626" t="s">
         <v>914</v>
@@ -28202,7 +28202,7 @@
         <v>907</v>
       </c>
       <c r="E627">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F627" t="s">
         <v>909</v>
@@ -28237,7 +28237,7 @@
         <v>908</v>
       </c>
       <c r="E628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F628" t="s">
         <v>909</v>
@@ -28272,7 +28272,7 @@
         <v>908</v>
       </c>
       <c r="E629">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F629" t="s">
         <v>909</v>
@@ -28307,7 +28307,7 @@
         <v>908</v>
       </c>
       <c r="E630">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F630" t="s">
         <v>909</v>
@@ -28342,7 +28342,7 @@
         <v>908</v>
       </c>
       <c r="E631">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F631" t="s">
         <v>909</v>
@@ -28377,7 +28377,7 @@
         <v>908</v>
       </c>
       <c r="E632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F632" t="s">
         <v>909</v>
@@ -28415,7 +28415,7 @@
         <v>908</v>
       </c>
       <c r="E633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F633" t="s">
         <v>909</v>
@@ -28450,7 +28450,7 @@
         <v>908</v>
       </c>
       <c r="E634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F634" t="s">
         <v>909</v>
@@ -28485,7 +28485,7 @@
         <v>908</v>
       </c>
       <c r="E635">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F635" t="s">
         <v>909</v>
@@ -28520,7 +28520,7 @@
         <v>908</v>
       </c>
       <c r="E636">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F636" t="s">
         <v>909</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6306,7 +6306,7 @@
         <v>703</v>
       </c>
       <c r="E2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F2" t="s">
         <v>939</v>
@@ -6341,7 +6341,7 @@
         <v>704</v>
       </c>
       <c r="E3">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F3" t="s">
         <v>940</v>
@@ -6376,7 +6376,7 @@
         <v>705</v>
       </c>
       <c r="E4">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F4" t="s">
         <v>940</v>
@@ -6411,7 +6411,7 @@
         <v>706</v>
       </c>
       <c r="E5">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F5" t="s">
         <v>940</v>
@@ -6446,7 +6446,7 @@
         <v>707</v>
       </c>
       <c r="E6">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F6" t="s">
         <v>940</v>
@@ -6481,7 +6481,7 @@
         <v>708</v>
       </c>
       <c r="E7">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F7" t="s">
         <v>940</v>
@@ -6516,7 +6516,7 @@
         <v>709</v>
       </c>
       <c r="E8">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F8" t="s">
         <v>940</v>
@@ -6554,7 +6554,7 @@
         <v>710</v>
       </c>
       <c r="E9">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F9" t="s">
         <v>940</v>
@@ -6589,7 +6589,7 @@
         <v>711</v>
       </c>
       <c r="E10">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F10" t="s">
         <v>940</v>
@@ -6627,7 +6627,7 @@
         <v>712</v>
       </c>
       <c r="E11">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F11" t="s">
         <v>940</v>
@@ -6662,7 +6662,7 @@
         <v>713</v>
       </c>
       <c r="E12">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F12" t="s">
         <v>940</v>
@@ -6697,7 +6697,7 @@
         <v>714</v>
       </c>
       <c r="E13">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F13" t="s">
         <v>940</v>
@@ -6732,7 +6732,7 @@
         <v>715</v>
       </c>
       <c r="E14">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F14" t="s">
         <v>940</v>
@@ -6767,7 +6767,7 @@
         <v>716</v>
       </c>
       <c r="E15">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F15" t="s">
         <v>940</v>
@@ -6805,7 +6805,7 @@
         <v>717</v>
       </c>
       <c r="E16">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F16" t="s">
         <v>940</v>
@@ -6840,7 +6840,7 @@
         <v>718</v>
       </c>
       <c r="E17">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F17" t="s">
         <v>940</v>
@@ -6878,7 +6878,7 @@
         <v>719</v>
       </c>
       <c r="E18">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F18" t="s">
         <v>940</v>
@@ -6916,7 +6916,7 @@
         <v>720</v>
       </c>
       <c r="E19">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F19" t="s">
         <v>940</v>
@@ -6951,7 +6951,7 @@
         <v>721</v>
       </c>
       <c r="E20">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F20" t="s">
         <v>940</v>
@@ -6986,7 +6986,7 @@
         <v>722</v>
       </c>
       <c r="E21">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F21" t="s">
         <v>940</v>
@@ -7021,7 +7021,7 @@
         <v>723</v>
       </c>
       <c r="E22">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F22" t="s">
         <v>940</v>
@@ -7056,7 +7056,7 @@
         <v>724</v>
       </c>
       <c r="E23">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F23" t="s">
         <v>940</v>
@@ -7091,7 +7091,7 @@
         <v>725</v>
       </c>
       <c r="E24">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F24" t="s">
         <v>940</v>
@@ -7126,7 +7126,7 @@
         <v>725</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
         <v>941</v>
@@ -7161,7 +7161,7 @@
         <v>726</v>
       </c>
       <c r="E26">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F26" t="s">
         <v>940</v>
@@ -7196,7 +7196,7 @@
         <v>727</v>
       </c>
       <c r="E27">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F27" t="s">
         <v>940</v>
@@ -7231,7 +7231,7 @@
         <v>728</v>
       </c>
       <c r="E28">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F28" t="s">
         <v>940</v>
@@ -7266,7 +7266,7 @@
         <v>728</v>
       </c>
       <c r="E29">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F29" t="s">
         <v>940</v>
@@ -7301,7 +7301,7 @@
         <v>729</v>
       </c>
       <c r="E30">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
         <v>940</v>
@@ -7339,7 +7339,7 @@
         <v>730</v>
       </c>
       <c r="E31">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F31" t="s">
         <v>940</v>
@@ -7374,7 +7374,7 @@
         <v>730</v>
       </c>
       <c r="E32">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F32" t="s">
         <v>940</v>
@@ -7409,7 +7409,7 @@
         <v>731</v>
       </c>
       <c r="E33">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
         <v>940</v>
@@ -7447,7 +7447,7 @@
         <v>731</v>
       </c>
       <c r="E34">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F34" t="s">
         <v>940</v>
@@ -7485,7 +7485,7 @@
         <v>732</v>
       </c>
       <c r="E35">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F35" t="s">
         <v>940</v>
@@ -7520,7 +7520,7 @@
         <v>733</v>
       </c>
       <c r="E36">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F36" t="s">
         <v>940</v>
@@ -7555,7 +7555,7 @@
         <v>734</v>
       </c>
       <c r="E37">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F37" t="s">
         <v>940</v>
@@ -7590,7 +7590,7 @@
         <v>734</v>
       </c>
       <c r="E38">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F38" t="s">
         <v>940</v>
@@ -7625,7 +7625,7 @@
         <v>735</v>
       </c>
       <c r="E39">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F39" t="s">
         <v>940</v>
@@ -7660,7 +7660,7 @@
         <v>736</v>
       </c>
       <c r="E40">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
         <v>940</v>
@@ -7695,7 +7695,7 @@
         <v>737</v>
       </c>
       <c r="E41">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F41" t="s">
         <v>940</v>
@@ -7730,7 +7730,7 @@
         <v>738</v>
       </c>
       <c r="E42">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F42" t="s">
         <v>940</v>
@@ -7765,7 +7765,7 @@
         <v>738</v>
       </c>
       <c r="E43">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F43" t="s">
         <v>940</v>
@@ -7800,7 +7800,7 @@
         <v>739</v>
       </c>
       <c r="E44">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
         <v>940</v>
@@ -7835,7 +7835,7 @@
         <v>740</v>
       </c>
       <c r="E45">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F45" t="s">
         <v>940</v>
@@ -7870,7 +7870,7 @@
         <v>741</v>
       </c>
       <c r="E46">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F46" t="s">
         <v>940</v>
@@ -7905,7 +7905,7 @@
         <v>742</v>
       </c>
       <c r="E47">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F47" t="s">
         <v>940</v>
@@ -7940,7 +7940,7 @@
         <v>742</v>
       </c>
       <c r="E48">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F48" t="s">
         <v>940</v>
@@ -7975,7 +7975,7 @@
         <v>743</v>
       </c>
       <c r="E49">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F49" t="s">
         <v>940</v>
@@ -8010,7 +8010,7 @@
         <v>744</v>
       </c>
       <c r="E50">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F50" t="s">
         <v>940</v>
@@ -8045,7 +8045,7 @@
         <v>744</v>
       </c>
       <c r="E51">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F51" t="s">
         <v>940</v>
@@ -8080,7 +8080,7 @@
         <v>745</v>
       </c>
       <c r="E52">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F52" t="s">
         <v>940</v>
@@ -8115,7 +8115,7 @@
         <v>746</v>
       </c>
       <c r="E53">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F53" t="s">
         <v>940</v>
@@ -8153,7 +8153,7 @@
         <v>747</v>
       </c>
       <c r="E54">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F54" t="s">
         <v>940</v>
@@ -8188,7 +8188,7 @@
         <v>748</v>
       </c>
       <c r="E55">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F55" t="s">
         <v>940</v>
@@ -8223,7 +8223,7 @@
         <v>749</v>
       </c>
       <c r="E56">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F56" t="s">
         <v>940</v>
@@ -8261,7 +8261,7 @@
         <v>750</v>
       </c>
       <c r="E57">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F57" t="s">
         <v>940</v>
@@ -8296,7 +8296,7 @@
         <v>751</v>
       </c>
       <c r="E58">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
         <v>940</v>
@@ -8331,7 +8331,7 @@
         <v>752</v>
       </c>
       <c r="E59">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
         <v>940</v>
@@ -8366,7 +8366,7 @@
         <v>753</v>
       </c>
       <c r="E60">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F60" t="s">
         <v>940</v>
@@ -8401,7 +8401,7 @@
         <v>754</v>
       </c>
       <c r="E61">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F61" t="s">
         <v>940</v>
@@ -8439,7 +8439,7 @@
         <v>755</v>
       </c>
       <c r="E62">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F62" t="s">
         <v>940</v>
@@ -8474,7 +8474,7 @@
         <v>756</v>
       </c>
       <c r="E63">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F63" t="s">
         <v>942</v>
@@ -8509,7 +8509,7 @@
         <v>757</v>
       </c>
       <c r="E64">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s">
         <v>942</v>
@@ -8544,7 +8544,7 @@
         <v>758</v>
       </c>
       <c r="E65">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F65" t="s">
         <v>942</v>
@@ -8579,7 +8579,7 @@
         <v>759</v>
       </c>
       <c r="E66">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F66" t="s">
         <v>942</v>
@@ -8617,7 +8617,7 @@
         <v>760</v>
       </c>
       <c r="E67">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>942</v>
@@ -8652,7 +8652,7 @@
         <v>761</v>
       </c>
       <c r="E68">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F68" t="s">
         <v>940</v>
@@ -8687,7 +8687,7 @@
         <v>761</v>
       </c>
       <c r="E69">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F69" t="s">
         <v>940</v>
@@ -8722,7 +8722,7 @@
         <v>762</v>
       </c>
       <c r="E70">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F70" t="s">
         <v>942</v>
@@ -8757,7 +8757,7 @@
         <v>763</v>
       </c>
       <c r="E71">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F71" t="s">
         <v>942</v>
@@ -8792,7 +8792,7 @@
         <v>764</v>
       </c>
       <c r="E72">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F72" t="s">
         <v>942</v>
@@ -8827,7 +8827,7 @@
         <v>765</v>
       </c>
       <c r="E73">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
         <v>942</v>
@@ -8862,7 +8862,7 @@
         <v>765</v>
       </c>
       <c r="E74">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>942</v>
@@ -8897,7 +8897,7 @@
         <v>766</v>
       </c>
       <c r="E75">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F75" t="s">
         <v>940</v>
@@ -8935,7 +8935,7 @@
         <v>767</v>
       </c>
       <c r="E76">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F76" t="s">
         <v>942</v>
@@ -8970,7 +8970,7 @@
         <v>768</v>
       </c>
       <c r="E77">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F77" t="s">
         <v>939</v>
@@ -9005,7 +9005,7 @@
         <v>769</v>
       </c>
       <c r="E78">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F78" t="s">
         <v>942</v>
@@ -9040,7 +9040,7 @@
         <v>769</v>
       </c>
       <c r="E79">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F79" t="s">
         <v>942</v>
@@ -9075,7 +9075,7 @@
         <v>769</v>
       </c>
       <c r="E80">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
         <v>942</v>
@@ -9110,7 +9110,7 @@
         <v>770</v>
       </c>
       <c r="E81">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F81" t="s">
         <v>941</v>
@@ -9145,7 +9145,7 @@
         <v>771</v>
       </c>
       <c r="E82">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F82" t="s">
         <v>939</v>
@@ -9180,7 +9180,7 @@
         <v>772</v>
       </c>
       <c r="E83">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F83" t="s">
         <v>942</v>
@@ -9215,7 +9215,7 @@
         <v>773</v>
       </c>
       <c r="E84">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
         <v>939</v>
@@ -9253,7 +9253,7 @@
         <v>774</v>
       </c>
       <c r="E85">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
         <v>942</v>
@@ -9288,7 +9288,7 @@
         <v>774</v>
       </c>
       <c r="E86">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
         <v>942</v>
@@ -9323,7 +9323,7 @@
         <v>774</v>
       </c>
       <c r="E87">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
         <v>939</v>
@@ -9358,7 +9358,7 @@
         <v>774</v>
       </c>
       <c r="E88">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
         <v>939</v>
@@ -9393,7 +9393,7 @@
         <v>775</v>
       </c>
       <c r="E89">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F89" t="s">
         <v>941</v>
@@ -9428,7 +9428,7 @@
         <v>776</v>
       </c>
       <c r="E90">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F90" t="s">
         <v>942</v>
@@ -9463,7 +9463,7 @@
         <v>776</v>
       </c>
       <c r="E91">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
         <v>942</v>
@@ -9498,7 +9498,7 @@
         <v>776</v>
       </c>
       <c r="E92">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
         <v>942</v>
@@ -9533,7 +9533,7 @@
         <v>777</v>
       </c>
       <c r="E93">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
         <v>942</v>
@@ -9568,7 +9568,7 @@
         <v>777</v>
       </c>
       <c r="E94">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F94" t="s">
         <v>942</v>
@@ -9603,7 +9603,7 @@
         <v>778</v>
       </c>
       <c r="E95">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F95" t="s">
         <v>942</v>
@@ -9638,7 +9638,7 @@
         <v>779</v>
       </c>
       <c r="E96">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F96" t="s">
         <v>942</v>
@@ -9673,7 +9673,7 @@
         <v>779</v>
       </c>
       <c r="E97">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F97" t="s">
         <v>939</v>
@@ -9708,7 +9708,7 @@
         <v>780</v>
       </c>
       <c r="E98">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F98" t="s">
         <v>942</v>
@@ -9743,7 +9743,7 @@
         <v>780</v>
       </c>
       <c r="E99">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F99" t="s">
         <v>942</v>
@@ -9778,7 +9778,7 @@
         <v>781</v>
       </c>
       <c r="E100">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F100" t="s">
         <v>942</v>
@@ -9816,7 +9816,7 @@
         <v>781</v>
       </c>
       <c r="E101">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F101" t="s">
         <v>942</v>
@@ -9851,7 +9851,7 @@
         <v>782</v>
       </c>
       <c r="E102">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F102" t="s">
         <v>942</v>
@@ -9886,7 +9886,7 @@
         <v>782</v>
       </c>
       <c r="E103">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F103" t="s">
         <v>939</v>
@@ -9921,7 +9921,7 @@
         <v>783</v>
       </c>
       <c r="E104">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F104" t="s">
         <v>942</v>
@@ -9956,7 +9956,7 @@
         <v>783</v>
       </c>
       <c r="E105">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F105" t="s">
         <v>939</v>
@@ -9991,7 +9991,7 @@
         <v>784</v>
       </c>
       <c r="E106">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F106" t="s">
         <v>939</v>
@@ -10026,7 +10026,7 @@
         <v>785</v>
       </c>
       <c r="E107">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F107" t="s">
         <v>939</v>
@@ -10061,7 +10061,7 @@
         <v>785</v>
       </c>
       <c r="E108">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F108" t="s">
         <v>939</v>
@@ -10096,7 +10096,7 @@
         <v>785</v>
       </c>
       <c r="E109">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F109" t="s">
         <v>942</v>
@@ -10131,7 +10131,7 @@
         <v>786</v>
       </c>
       <c r="E110">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F110" t="s">
         <v>939</v>
@@ -10166,7 +10166,7 @@
         <v>787</v>
       </c>
       <c r="E111">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F111" t="s">
         <v>939</v>
@@ -10201,7 +10201,7 @@
         <v>787</v>
       </c>
       <c r="E112">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F112" t="s">
         <v>939</v>
@@ -10239,7 +10239,7 @@
         <v>788</v>
       </c>
       <c r="E113">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F113" t="s">
         <v>943</v>
@@ -10274,7 +10274,7 @@
         <v>788</v>
       </c>
       <c r="E114">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F114" t="s">
         <v>943</v>
@@ -10309,7 +10309,7 @@
         <v>788</v>
       </c>
       <c r="E115">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F115" t="s">
         <v>943</v>
@@ -10344,7 +10344,7 @@
         <v>789</v>
       </c>
       <c r="E116">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F116" t="s">
         <v>943</v>
@@ -10379,7 +10379,7 @@
         <v>790</v>
       </c>
       <c r="E117">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F117" t="s">
         <v>943</v>
@@ -10417,7 +10417,7 @@
         <v>791</v>
       </c>
       <c r="E118">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F118" t="s">
         <v>939</v>
@@ -10452,7 +10452,7 @@
         <v>792</v>
       </c>
       <c r="E119">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F119" t="s">
         <v>943</v>
@@ -10487,7 +10487,7 @@
         <v>793</v>
       </c>
       <c r="E120">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F120" t="s">
         <v>943</v>
@@ -10522,7 +10522,7 @@
         <v>793</v>
       </c>
       <c r="E121">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F121" t="s">
         <v>939</v>
@@ -10557,7 +10557,7 @@
         <v>793</v>
       </c>
       <c r="E122">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
         <v>939</v>
@@ -10592,7 +10592,7 @@
         <v>794</v>
       </c>
       <c r="E123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F123" t="s">
         <v>939</v>
@@ -10630,7 +10630,7 @@
         <v>795</v>
       </c>
       <c r="E124">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F124" t="s">
         <v>939</v>
@@ -10665,7 +10665,7 @@
         <v>795</v>
       </c>
       <c r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F125" t="s">
         <v>939</v>
@@ -10700,7 +10700,7 @@
         <v>795</v>
       </c>
       <c r="E126">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F126" t="s">
         <v>939</v>
@@ -10735,7 +10735,7 @@
         <v>796</v>
       </c>
       <c r="E127">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F127" t="s">
         <v>939</v>
@@ -10773,7 +10773,7 @@
         <v>796</v>
       </c>
       <c r="E128">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F128" t="s">
         <v>939</v>
@@ -10808,7 +10808,7 @@
         <v>796</v>
       </c>
       <c r="E129">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F129" t="s">
         <v>939</v>
@@ -10843,7 +10843,7 @@
         <v>796</v>
       </c>
       <c r="E130">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
         <v>939</v>
@@ -10878,7 +10878,7 @@
         <v>797</v>
       </c>
       <c r="E131">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
         <v>943</v>
@@ -10913,7 +10913,7 @@
         <v>797</v>
       </c>
       <c r="E132">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
         <v>939</v>
@@ -10948,7 +10948,7 @@
         <v>798</v>
       </c>
       <c r="E133">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
         <v>943</v>
@@ -10983,7 +10983,7 @@
         <v>798</v>
       </c>
       <c r="E134">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
         <v>939</v>
@@ -11018,7 +11018,7 @@
         <v>798</v>
       </c>
       <c r="E135">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
         <v>939</v>
@@ -11053,7 +11053,7 @@
         <v>798</v>
       </c>
       <c r="E136">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
         <v>941</v>
@@ -11091,7 +11091,7 @@
         <v>799</v>
       </c>
       <c r="E137">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F137" t="s">
         <v>939</v>
@@ -11126,7 +11126,7 @@
         <v>800</v>
       </c>
       <c r="E138">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
         <v>939</v>
@@ -11161,7 +11161,7 @@
         <v>801</v>
       </c>
       <c r="E139">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
         <v>939</v>
@@ -11196,7 +11196,7 @@
         <v>801</v>
       </c>
       <c r="E140">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F140" t="s">
         <v>941</v>
@@ -11231,7 +11231,7 @@
         <v>802</v>
       </c>
       <c r="E141">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
         <v>939</v>
@@ -11266,7 +11266,7 @@
         <v>802</v>
       </c>
       <c r="E142">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F142" t="s">
         <v>943</v>
@@ -11301,7 +11301,7 @@
         <v>802</v>
       </c>
       <c r="E143">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F143" t="s">
         <v>939</v>
@@ -11336,7 +11336,7 @@
         <v>802</v>
       </c>
       <c r="E144">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F144" t="s">
         <v>941</v>
@@ -11371,7 +11371,7 @@
         <v>802</v>
       </c>
       <c r="E145">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F145" t="s">
         <v>941</v>
@@ -11406,7 +11406,7 @@
         <v>802</v>
       </c>
       <c r="E146">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F146" t="s">
         <v>941</v>
@@ -11441,7 +11441,7 @@
         <v>802</v>
       </c>
       <c r="E147">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F147" t="s">
         <v>939</v>
@@ -11476,7 +11476,7 @@
         <v>803</v>
       </c>
       <c r="E148">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F148" t="s">
         <v>939</v>
@@ -11514,7 +11514,7 @@
         <v>804</v>
       </c>
       <c r="E149">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F149" t="s">
         <v>939</v>
@@ -11549,7 +11549,7 @@
         <v>804</v>
       </c>
       <c r="E150">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
         <v>939</v>
@@ -11584,7 +11584,7 @@
         <v>804</v>
       </c>
       <c r="E151">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
         <v>939</v>
@@ -11619,7 +11619,7 @@
         <v>805</v>
       </c>
       <c r="E152">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F152" t="s">
         <v>939</v>
@@ -11654,7 +11654,7 @@
         <v>806</v>
       </c>
       <c r="E153">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F153" t="s">
         <v>939</v>
@@ -11689,7 +11689,7 @@
         <v>807</v>
       </c>
       <c r="E154">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F154" t="s">
         <v>939</v>
@@ -11724,7 +11724,7 @@
         <v>808</v>
       </c>
       <c r="E155">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F155" t="s">
         <v>939</v>
@@ -11759,7 +11759,7 @@
         <v>809</v>
       </c>
       <c r="E156">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F156" t="s">
         <v>939</v>
@@ -11794,7 +11794,7 @@
         <v>809</v>
       </c>
       <c r="E157">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F157" t="s">
         <v>939</v>
@@ -11829,7 +11829,7 @@
         <v>810</v>
       </c>
       <c r="E158">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F158" t="s">
         <v>939</v>
@@ -11864,7 +11864,7 @@
         <v>811</v>
       </c>
       <c r="E159">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F159" t="s">
         <v>939</v>
@@ -11899,7 +11899,7 @@
         <v>812</v>
       </c>
       <c r="E160">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F160" t="s">
         <v>939</v>
@@ -11934,7 +11934,7 @@
         <v>813</v>
       </c>
       <c r="E161">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F161" t="s">
         <v>939</v>
@@ -11969,7 +11969,7 @@
         <v>813</v>
       </c>
       <c r="E162">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F162" t="s">
         <v>939</v>
@@ -12004,7 +12004,7 @@
         <v>813</v>
       </c>
       <c r="E163">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F163" t="s">
         <v>939</v>
@@ -12039,7 +12039,7 @@
         <v>813</v>
       </c>
       <c r="E164">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F164" t="s">
         <v>939</v>
@@ -12074,7 +12074,7 @@
         <v>813</v>
       </c>
       <c r="E165">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F165" t="s">
         <v>939</v>
@@ -12109,7 +12109,7 @@
         <v>814</v>
       </c>
       <c r="E166">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F166" t="s">
         <v>939</v>
@@ -12144,7 +12144,7 @@
         <v>815</v>
       </c>
       <c r="E167">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F167" t="s">
         <v>939</v>
@@ -12179,7 +12179,7 @@
         <v>815</v>
       </c>
       <c r="E168">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F168" t="s">
         <v>939</v>
@@ -12214,7 +12214,7 @@
         <v>816</v>
       </c>
       <c r="E169">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F169" t="s">
         <v>939</v>
@@ -12249,7 +12249,7 @@
         <v>816</v>
       </c>
       <c r="E170">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F170" t="s">
         <v>939</v>
@@ -12284,7 +12284,7 @@
         <v>817</v>
       </c>
       <c r="E171">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F171" t="s">
         <v>939</v>
@@ -12319,7 +12319,7 @@
         <v>817</v>
       </c>
       <c r="E172">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F172" t="s">
         <v>939</v>
@@ -12354,7 +12354,7 @@
         <v>818</v>
       </c>
       <c r="E173">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F173" t="s">
         <v>939</v>
@@ -12389,7 +12389,7 @@
         <v>818</v>
       </c>
       <c r="E174">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F174" t="s">
         <v>939</v>
@@ -12424,7 +12424,7 @@
         <v>818</v>
       </c>
       <c r="E175">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F175" t="s">
         <v>939</v>
@@ -12459,7 +12459,7 @@
         <v>818</v>
       </c>
       <c r="E176">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F176" t="s">
         <v>939</v>
@@ -12494,7 +12494,7 @@
         <v>819</v>
       </c>
       <c r="E177">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F177" t="s">
         <v>939</v>
@@ -12529,7 +12529,7 @@
         <v>820</v>
       </c>
       <c r="E178">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F178" t="s">
         <v>939</v>
@@ -12564,7 +12564,7 @@
         <v>820</v>
       </c>
       <c r="E179">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F179" t="s">
         <v>939</v>
@@ -12599,7 +12599,7 @@
         <v>820</v>
       </c>
       <c r="E180">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F180" t="s">
         <v>939</v>
@@ -12634,7 +12634,7 @@
         <v>821</v>
       </c>
       <c r="E181">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F181" t="s">
         <v>939</v>
@@ -12669,7 +12669,7 @@
         <v>821</v>
       </c>
       <c r="E182">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F182" t="s">
         <v>939</v>
@@ -12704,7 +12704,7 @@
         <v>821</v>
       </c>
       <c r="E183">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F183" t="s">
         <v>939</v>
@@ -12739,7 +12739,7 @@
         <v>822</v>
       </c>
       <c r="E184">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F184" t="s">
         <v>939</v>
@@ -12774,7 +12774,7 @@
         <v>822</v>
       </c>
       <c r="E185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F185" t="s">
         <v>939</v>
@@ -12809,7 +12809,7 @@
         <v>822</v>
       </c>
       <c r="E186">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F186" t="s">
         <v>939</v>
@@ -12844,7 +12844,7 @@
         <v>823</v>
       </c>
       <c r="E187">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F187" t="s">
         <v>939</v>
@@ -12879,7 +12879,7 @@
         <v>823</v>
       </c>
       <c r="E188">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F188" t="s">
         <v>939</v>
@@ -12917,7 +12917,7 @@
         <v>824</v>
       </c>
       <c r="E189">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F189" t="s">
         <v>939</v>
@@ -12952,7 +12952,7 @@
         <v>824</v>
       </c>
       <c r="E190">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F190" t="s">
         <v>939</v>
@@ -12987,7 +12987,7 @@
         <v>824</v>
       </c>
       <c r="E191">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F191" t="s">
         <v>939</v>
@@ -13022,7 +13022,7 @@
         <v>824</v>
       </c>
       <c r="E192">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F192" t="s">
         <v>939</v>
@@ -13057,7 +13057,7 @@
         <v>825</v>
       </c>
       <c r="E193">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F193" t="s">
         <v>939</v>
@@ -13092,7 +13092,7 @@
         <v>826</v>
       </c>
       <c r="E194">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F194" t="s">
         <v>944</v>
@@ -13127,7 +13127,7 @@
         <v>826</v>
       </c>
       <c r="E195">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F195" t="s">
         <v>939</v>
@@ -13162,7 +13162,7 @@
         <v>826</v>
       </c>
       <c r="E196">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F196" t="s">
         <v>939</v>
@@ -13197,7 +13197,7 @@
         <v>827</v>
       </c>
       <c r="E197">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F197" t="s">
         <v>941</v>
@@ -13232,7 +13232,7 @@
         <v>828</v>
       </c>
       <c r="E198">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F198" t="s">
         <v>939</v>
@@ -13267,7 +13267,7 @@
         <v>828</v>
       </c>
       <c r="E199">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F199" t="s">
         <v>939</v>
@@ -13302,7 +13302,7 @@
         <v>828</v>
       </c>
       <c r="E200">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F200" t="s">
         <v>939</v>
@@ -13337,7 +13337,7 @@
         <v>829</v>
       </c>
       <c r="E201">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F201" t="s">
         <v>939</v>
@@ -13372,7 +13372,7 @@
         <v>830</v>
       </c>
       <c r="E202">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F202" t="s">
         <v>939</v>
@@ -13407,7 +13407,7 @@
         <v>831</v>
       </c>
       <c r="E203">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F203" t="s">
         <v>939</v>
@@ -13445,7 +13445,7 @@
         <v>831</v>
       </c>
       <c r="E204">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F204" t="s">
         <v>939</v>
@@ -13480,7 +13480,7 @@
         <v>832</v>
       </c>
       <c r="E205">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F205" t="s">
         <v>939</v>
@@ -13515,7 +13515,7 @@
         <v>832</v>
       </c>
       <c r="E206">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F206" t="s">
         <v>939</v>
@@ -13550,7 +13550,7 @@
         <v>832</v>
       </c>
       <c r="E207">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F207" t="s">
         <v>939</v>
@@ -13585,7 +13585,7 @@
         <v>833</v>
       </c>
       <c r="E208">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F208" t="s">
         <v>939</v>
@@ -13620,7 +13620,7 @@
         <v>834</v>
       </c>
       <c r="E209">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F209" t="s">
         <v>939</v>
@@ -13655,7 +13655,7 @@
         <v>834</v>
       </c>
       <c r="E210">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F210" t="s">
         <v>939</v>
@@ -13690,7 +13690,7 @@
         <v>834</v>
       </c>
       <c r="E211">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F211" t="s">
         <v>939</v>
@@ -13725,7 +13725,7 @@
         <v>834</v>
       </c>
       <c r="E212">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F212" t="s">
         <v>939</v>
@@ -13760,7 +13760,7 @@
         <v>834</v>
       </c>
       <c r="E213">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F213" t="s">
         <v>939</v>
@@ -13795,7 +13795,7 @@
         <v>835</v>
       </c>
       <c r="E214">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F214" t="s">
         <v>939</v>
@@ -13830,7 +13830,7 @@
         <v>836</v>
       </c>
       <c r="E215">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F215" t="s">
         <v>939</v>
@@ -13865,7 +13865,7 @@
         <v>836</v>
       </c>
       <c r="E216">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F216" t="s">
         <v>939</v>
@@ -13900,7 +13900,7 @@
         <v>836</v>
       </c>
       <c r="E217">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F217" t="s">
         <v>939</v>
@@ -13935,7 +13935,7 @@
         <v>837</v>
       </c>
       <c r="E218">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F218" t="s">
         <v>939</v>
@@ -13970,7 +13970,7 @@
         <v>837</v>
       </c>
       <c r="E219">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F219" t="s">
         <v>939</v>
@@ -14005,7 +14005,7 @@
         <v>837</v>
       </c>
       <c r="E220">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F220" t="s">
         <v>939</v>
@@ -14040,7 +14040,7 @@
         <v>838</v>
       </c>
       <c r="E221">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F221" t="s">
         <v>939</v>
@@ -14075,7 +14075,7 @@
         <v>838</v>
       </c>
       <c r="E222">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F222" t="s">
         <v>939</v>
@@ -14110,7 +14110,7 @@
         <v>838</v>
       </c>
       <c r="E223">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F223" t="s">
         <v>939</v>
@@ -14145,7 +14145,7 @@
         <v>839</v>
       </c>
       <c r="E224">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F224" t="s">
         <v>939</v>
@@ -14180,7 +14180,7 @@
         <v>839</v>
       </c>
       <c r="E225">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F225" t="s">
         <v>939</v>
@@ -14215,7 +14215,7 @@
         <v>840</v>
       </c>
       <c r="E226">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F226" t="s">
         <v>939</v>
@@ -14250,7 +14250,7 @@
         <v>840</v>
       </c>
       <c r="E227">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F227" t="s">
         <v>939</v>
@@ -14285,7 +14285,7 @@
         <v>841</v>
       </c>
       <c r="E228">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F228" t="s">
         <v>939</v>
@@ -14320,7 +14320,7 @@
         <v>841</v>
       </c>
       <c r="E229">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F229" t="s">
         <v>939</v>
@@ -14355,7 +14355,7 @@
         <v>841</v>
       </c>
       <c r="E230">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F230" t="s">
         <v>939</v>
@@ -14390,7 +14390,7 @@
         <v>842</v>
       </c>
       <c r="E231">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F231" t="s">
         <v>939</v>
@@ -14425,7 +14425,7 @@
         <v>842</v>
       </c>
       <c r="E232">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F232" t="s">
         <v>939</v>
@@ -14463,7 +14463,7 @@
         <v>842</v>
       </c>
       <c r="E233">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F233" t="s">
         <v>939</v>
@@ -14498,7 +14498,7 @@
         <v>843</v>
       </c>
       <c r="E234">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F234" t="s">
         <v>939</v>
@@ -14533,7 +14533,7 @@
         <v>844</v>
       </c>
       <c r="E235">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F235" t="s">
         <v>939</v>
@@ -14568,7 +14568,7 @@
         <v>844</v>
       </c>
       <c r="E236">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F236" t="s">
         <v>939</v>
@@ -14603,7 +14603,7 @@
         <v>845</v>
       </c>
       <c r="E237">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F237" t="s">
         <v>939</v>
@@ -14638,7 +14638,7 @@
         <v>846</v>
       </c>
       <c r="E238">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F238" t="s">
         <v>944</v>
@@ -14676,7 +14676,7 @@
         <v>846</v>
       </c>
       <c r="E239">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F239" t="s">
         <v>939</v>
@@ -14711,7 +14711,7 @@
         <v>846</v>
       </c>
       <c r="E240">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F240" t="s">
         <v>939</v>
@@ -14746,7 +14746,7 @@
         <v>846</v>
       </c>
       <c r="E241">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F241" t="s">
         <v>939</v>
@@ -14781,7 +14781,7 @@
         <v>846</v>
       </c>
       <c r="E242">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F242" t="s">
         <v>939</v>
@@ -14816,7 +14816,7 @@
         <v>847</v>
       </c>
       <c r="E243">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F243" t="s">
         <v>939</v>
@@ -14851,7 +14851,7 @@
         <v>847</v>
       </c>
       <c r="E244">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F244" t="s">
         <v>939</v>
@@ -14886,7 +14886,7 @@
         <v>847</v>
       </c>
       <c r="E245">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F245" t="s">
         <v>939</v>
@@ -14921,7 +14921,7 @@
         <v>847</v>
       </c>
       <c r="E246">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F246" t="s">
         <v>944</v>
@@ -14956,7 +14956,7 @@
         <v>847</v>
       </c>
       <c r="E247">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F247" t="s">
         <v>939</v>
@@ -14994,7 +14994,7 @@
         <v>847</v>
       </c>
       <c r="E248">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F248" t="s">
         <v>939</v>
@@ -15029,7 +15029,7 @@
         <v>848</v>
       </c>
       <c r="E249">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F249" t="s">
         <v>939</v>
@@ -15064,7 +15064,7 @@
         <v>848</v>
       </c>
       <c r="E250">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F250" t="s">
         <v>939</v>
@@ -15099,7 +15099,7 @@
         <v>848</v>
       </c>
       <c r="E251">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F251" t="s">
         <v>939</v>
@@ -15134,7 +15134,7 @@
         <v>849</v>
       </c>
       <c r="E252">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F252" t="s">
         <v>939</v>
@@ -15169,7 +15169,7 @@
         <v>849</v>
       </c>
       <c r="E253">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F253" t="s">
         <v>939</v>
@@ -15204,7 +15204,7 @@
         <v>849</v>
       </c>
       <c r="E254">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F254" t="s">
         <v>939</v>
@@ -15242,7 +15242,7 @@
         <v>849</v>
       </c>
       <c r="E255">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F255" t="s">
         <v>939</v>
@@ -15277,7 +15277,7 @@
         <v>850</v>
       </c>
       <c r="E256">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F256" t="s">
         <v>939</v>
@@ -15312,7 +15312,7 @@
         <v>850</v>
       </c>
       <c r="E257">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F257" t="s">
         <v>939</v>
@@ -15347,7 +15347,7 @@
         <v>850</v>
       </c>
       <c r="E258">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F258" t="s">
         <v>939</v>
@@ -15382,7 +15382,7 @@
         <v>850</v>
       </c>
       <c r="E259">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F259" t="s">
         <v>939</v>
@@ -15417,7 +15417,7 @@
         <v>851</v>
       </c>
       <c r="E260">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F260" t="s">
         <v>939</v>
@@ -15452,7 +15452,7 @@
         <v>851</v>
       </c>
       <c r="E261">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F261" t="s">
         <v>939</v>
@@ -15487,7 +15487,7 @@
         <v>851</v>
       </c>
       <c r="E262">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F262" t="s">
         <v>939</v>
@@ -15522,7 +15522,7 @@
         <v>851</v>
       </c>
       <c r="E263">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F263" t="s">
         <v>939</v>
@@ -15557,7 +15557,7 @@
         <v>852</v>
       </c>
       <c r="E264">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F264" t="s">
         <v>939</v>
@@ -15592,7 +15592,7 @@
         <v>852</v>
       </c>
       <c r="E265">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F265" t="s">
         <v>939</v>
@@ -15627,7 +15627,7 @@
         <v>853</v>
       </c>
       <c r="E266">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F266" t="s">
         <v>939</v>
@@ -15662,7 +15662,7 @@
         <v>853</v>
       </c>
       <c r="E267">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F267" t="s">
         <v>939</v>
@@ -15697,7 +15697,7 @@
         <v>854</v>
       </c>
       <c r="E268">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F268" t="s">
         <v>939</v>
@@ -15735,7 +15735,7 @@
         <v>854</v>
       </c>
       <c r="E269">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F269" t="s">
         <v>939</v>
@@ -15773,7 +15773,7 @@
         <v>854</v>
       </c>
       <c r="E270">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F270" t="s">
         <v>939</v>
@@ -15811,7 +15811,7 @@
         <v>855</v>
       </c>
       <c r="E271">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F271" t="s">
         <v>939</v>
@@ -15846,7 +15846,7 @@
         <v>855</v>
       </c>
       <c r="E272">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F272" t="s">
         <v>939</v>
@@ -15881,7 +15881,7 @@
         <v>855</v>
       </c>
       <c r="E273">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F273" t="s">
         <v>939</v>
@@ -15916,7 +15916,7 @@
         <v>856</v>
       </c>
       <c r="E274">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F274" t="s">
         <v>939</v>
@@ -15951,7 +15951,7 @@
         <v>856</v>
       </c>
       <c r="E275">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F275" t="s">
         <v>939</v>
@@ -15989,7 +15989,7 @@
         <v>856</v>
       </c>
       <c r="E276">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F276" t="s">
         <v>939</v>
@@ -16024,7 +16024,7 @@
         <v>857</v>
       </c>
       <c r="E277">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F277" t="s">
         <v>939</v>
@@ -16059,7 +16059,7 @@
         <v>857</v>
       </c>
       <c r="E278">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F278" t="s">
         <v>939</v>
@@ -16094,7 +16094,7 @@
         <v>858</v>
       </c>
       <c r="E279">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F279" t="s">
         <v>939</v>
@@ -16129,7 +16129,7 @@
         <v>858</v>
       </c>
       <c r="E280">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F280" t="s">
         <v>939</v>
@@ -16164,7 +16164,7 @@
         <v>858</v>
       </c>
       <c r="E281">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F281" t="s">
         <v>939</v>
@@ -16199,7 +16199,7 @@
         <v>858</v>
       </c>
       <c r="E282">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F282" t="s">
         <v>939</v>
@@ -16234,7 +16234,7 @@
         <v>859</v>
       </c>
       <c r="E283">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F283" t="s">
         <v>939</v>
@@ -16269,7 +16269,7 @@
         <v>859</v>
       </c>
       <c r="E284">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F284" t="s">
         <v>939</v>
@@ -16304,7 +16304,7 @@
         <v>859</v>
       </c>
       <c r="E285">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F285" t="s">
         <v>939</v>
@@ -16339,7 +16339,7 @@
         <v>860</v>
       </c>
       <c r="E286">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F286" t="s">
         <v>939</v>
@@ -16374,7 +16374,7 @@
         <v>860</v>
       </c>
       <c r="E287">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F287" t="s">
         <v>939</v>
@@ -16409,7 +16409,7 @@
         <v>860</v>
       </c>
       <c r="E288">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F288" t="s">
         <v>939</v>
@@ -16444,7 +16444,7 @@
         <v>860</v>
       </c>
       <c r="E289">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F289" t="s">
         <v>939</v>
@@ -16479,7 +16479,7 @@
         <v>860</v>
       </c>
       <c r="E290">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F290" t="s">
         <v>939</v>
@@ -16514,7 +16514,7 @@
         <v>860</v>
       </c>
       <c r="E291">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F291" t="s">
         <v>939</v>
@@ -16549,7 +16549,7 @@
         <v>860</v>
       </c>
       <c r="E292">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F292" t="s">
         <v>939</v>
@@ -16584,7 +16584,7 @@
         <v>860</v>
       </c>
       <c r="E293">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F293" t="s">
         <v>939</v>
@@ -16619,7 +16619,7 @@
         <v>861</v>
       </c>
       <c r="E294">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F294" t="s">
         <v>939</v>
@@ -16654,7 +16654,7 @@
         <v>861</v>
       </c>
       <c r="E295">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F295" t="s">
         <v>939</v>
@@ -16689,7 +16689,7 @@
         <v>862</v>
       </c>
       <c r="E296">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F296" t="s">
         <v>940</v>
@@ -16724,7 +16724,7 @@
         <v>862</v>
       </c>
       <c r="E297">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F297" t="s">
         <v>939</v>
@@ -16759,7 +16759,7 @@
         <v>863</v>
       </c>
       <c r="E298">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F298" t="s">
         <v>939</v>
@@ -16794,7 +16794,7 @@
         <v>863</v>
       </c>
       <c r="E299">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F299" t="s">
         <v>939</v>
@@ -16829,7 +16829,7 @@
         <v>864</v>
       </c>
       <c r="E300">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F300" t="s">
         <v>939</v>
@@ -16864,7 +16864,7 @@
         <v>864</v>
       </c>
       <c r="E301">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F301" t="s">
         <v>939</v>
@@ -16899,7 +16899,7 @@
         <v>864</v>
       </c>
       <c r="E302">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F302" t="s">
         <v>939</v>
@@ -16934,7 +16934,7 @@
         <v>864</v>
       </c>
       <c r="E303">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F303" t="s">
         <v>939</v>
@@ -16969,7 +16969,7 @@
         <v>864</v>
       </c>
       <c r="E304">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F304" t="s">
         <v>939</v>
@@ -17004,7 +17004,7 @@
         <v>864</v>
       </c>
       <c r="E305">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F305" t="s">
         <v>939</v>
@@ -17039,7 +17039,7 @@
         <v>864</v>
       </c>
       <c r="E306">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F306" t="s">
         <v>939</v>
@@ -17074,7 +17074,7 @@
         <v>864</v>
       </c>
       <c r="E307">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F307" t="s">
         <v>939</v>
@@ -17109,7 +17109,7 @@
         <v>865</v>
       </c>
       <c r="E308">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F308" t="s">
         <v>939</v>
@@ -17144,7 +17144,7 @@
         <v>865</v>
       </c>
       <c r="E309">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F309" t="s">
         <v>939</v>
@@ -17179,7 +17179,7 @@
         <v>865</v>
       </c>
       <c r="E310">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F310" t="s">
         <v>939</v>
@@ -17214,7 +17214,7 @@
         <v>865</v>
       </c>
       <c r="E311">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F311" t="s">
         <v>939</v>
@@ -17249,7 +17249,7 @@
         <v>865</v>
       </c>
       <c r="E312">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F312" t="s">
         <v>939</v>
@@ -17284,7 +17284,7 @@
         <v>866</v>
       </c>
       <c r="E313">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F313" t="s">
         <v>939</v>
@@ -17319,7 +17319,7 @@
         <v>866</v>
       </c>
       <c r="E314">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F314" t="s">
         <v>939</v>
@@ -17354,7 +17354,7 @@
         <v>866</v>
       </c>
       <c r="E315">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F315" t="s">
         <v>939</v>
@@ -17389,7 +17389,7 @@
         <v>867</v>
       </c>
       <c r="E316">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F316" t="s">
         <v>939</v>
@@ -17424,7 +17424,7 @@
         <v>867</v>
       </c>
       <c r="E317">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F317" t="s">
         <v>939</v>
@@ -17459,7 +17459,7 @@
         <v>868</v>
       </c>
       <c r="E318">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F318" t="s">
         <v>939</v>
@@ -17494,7 +17494,7 @@
         <v>868</v>
       </c>
       <c r="E319">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F319" t="s">
         <v>939</v>
@@ -17529,7 +17529,7 @@
         <v>868</v>
       </c>
       <c r="E320">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F320" t="s">
         <v>939</v>
@@ -17564,7 +17564,7 @@
         <v>868</v>
       </c>
       <c r="E321">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F321" t="s">
         <v>939</v>
@@ -17599,7 +17599,7 @@
         <v>869</v>
       </c>
       <c r="E322">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F322" t="s">
         <v>939</v>
@@ -17634,7 +17634,7 @@
         <v>869</v>
       </c>
       <c r="E323">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F323" t="s">
         <v>939</v>
@@ -17669,7 +17669,7 @@
         <v>869</v>
       </c>
       <c r="E324">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F324" t="s">
         <v>939</v>
@@ -17704,7 +17704,7 @@
         <v>869</v>
       </c>
       <c r="E325">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F325" t="s">
         <v>939</v>
@@ -17739,7 +17739,7 @@
         <v>869</v>
       </c>
       <c r="E326">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F326" t="s">
         <v>939</v>
@@ -17774,7 +17774,7 @@
         <v>870</v>
       </c>
       <c r="E327">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F327" t="s">
         <v>939</v>
@@ -17809,7 +17809,7 @@
         <v>870</v>
       </c>
       <c r="E328">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F328" t="s">
         <v>939</v>
@@ -17847,7 +17847,7 @@
         <v>870</v>
       </c>
       <c r="E329">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F329" t="s">
         <v>939</v>
@@ -17882,7 +17882,7 @@
         <v>871</v>
       </c>
       <c r="E330">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F330" t="s">
         <v>939</v>
@@ -17917,7 +17917,7 @@
         <v>871</v>
       </c>
       <c r="E331">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F331" t="s">
         <v>939</v>
@@ -17952,7 +17952,7 @@
         <v>871</v>
       </c>
       <c r="E332">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F332" t="s">
         <v>939</v>
@@ -17987,7 +17987,7 @@
         <v>871</v>
       </c>
       <c r="E333">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F333" t="s">
         <v>939</v>
@@ -18022,7 +18022,7 @@
         <v>872</v>
       </c>
       <c r="E334">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F334" t="s">
         <v>939</v>
@@ -18057,7 +18057,7 @@
         <v>872</v>
       </c>
       <c r="E335">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F335" t="s">
         <v>939</v>
@@ -18092,7 +18092,7 @@
         <v>872</v>
       </c>
       <c r="E336">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F336" t="s">
         <v>939</v>
@@ -18127,7 +18127,7 @@
         <v>872</v>
       </c>
       <c r="E337">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F337" t="s">
         <v>939</v>
@@ -18162,7 +18162,7 @@
         <v>872</v>
       </c>
       <c r="E338">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F338" t="s">
         <v>939</v>
@@ -18197,7 +18197,7 @@
         <v>872</v>
       </c>
       <c r="E339">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F339" t="s">
         <v>939</v>
@@ -18232,7 +18232,7 @@
         <v>872</v>
       </c>
       <c r="E340">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F340" t="s">
         <v>939</v>
@@ -18267,7 +18267,7 @@
         <v>872</v>
       </c>
       <c r="E341">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F341" t="s">
         <v>939</v>
@@ -18302,7 +18302,7 @@
         <v>872</v>
       </c>
       <c r="E342">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F342" t="s">
         <v>939</v>
@@ -18337,7 +18337,7 @@
         <v>873</v>
       </c>
       <c r="E343">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F343" t="s">
         <v>939</v>
@@ -18372,7 +18372,7 @@
         <v>873</v>
       </c>
       <c r="E344">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F344" t="s">
         <v>939</v>
@@ -18410,7 +18410,7 @@
         <v>873</v>
       </c>
       <c r="E345">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F345" t="s">
         <v>939</v>
@@ -18445,7 +18445,7 @@
         <v>873</v>
       </c>
       <c r="E346">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F346" t="s">
         <v>939</v>
@@ -18480,7 +18480,7 @@
         <v>874</v>
       </c>
       <c r="E347">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F347" t="s">
         <v>939</v>
@@ -18515,7 +18515,7 @@
         <v>875</v>
       </c>
       <c r="E348">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F348" t="s">
         <v>939</v>
@@ -18550,7 +18550,7 @@
         <v>875</v>
       </c>
       <c r="E349">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F349" t="s">
         <v>939</v>
@@ -18585,7 +18585,7 @@
         <v>875</v>
       </c>
       <c r="E350">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F350" t="s">
         <v>939</v>
@@ -18620,7 +18620,7 @@
         <v>875</v>
       </c>
       <c r="E351">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F351" t="s">
         <v>939</v>
@@ -18655,7 +18655,7 @@
         <v>875</v>
       </c>
       <c r="E352">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F352" t="s">
         <v>939</v>
@@ -18690,7 +18690,7 @@
         <v>875</v>
       </c>
       <c r="E353">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F353" t="s">
         <v>939</v>
@@ -18725,7 +18725,7 @@
         <v>875</v>
       </c>
       <c r="E354">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F354" t="s">
         <v>939</v>
@@ -18760,7 +18760,7 @@
         <v>875</v>
       </c>
       <c r="E355">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F355" t="s">
         <v>939</v>
@@ -18798,7 +18798,7 @@
         <v>876</v>
       </c>
       <c r="E356">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F356" t="s">
         <v>939</v>
@@ -18833,7 +18833,7 @@
         <v>876</v>
       </c>
       <c r="E357">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F357" t="s">
         <v>939</v>
@@ -18868,7 +18868,7 @@
         <v>877</v>
       </c>
       <c r="E358">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F358" t="s">
         <v>939</v>
@@ -18906,7 +18906,7 @@
         <v>877</v>
       </c>
       <c r="E359">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F359" t="s">
         <v>939</v>
@@ -18941,7 +18941,7 @@
         <v>877</v>
       </c>
       <c r="E360">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F360" t="s">
         <v>939</v>
@@ -18976,7 +18976,7 @@
         <v>877</v>
       </c>
       <c r="E361">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F361" t="s">
         <v>939</v>
@@ -19011,7 +19011,7 @@
         <v>877</v>
       </c>
       <c r="E362">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F362" t="s">
         <v>939</v>
@@ -19049,7 +19049,7 @@
         <v>878</v>
       </c>
       <c r="E363">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F363" t="s">
         <v>939</v>
@@ -19084,7 +19084,7 @@
         <v>878</v>
       </c>
       <c r="E364">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F364" t="s">
         <v>939</v>
@@ -19119,7 +19119,7 @@
         <v>878</v>
       </c>
       <c r="E365">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F365" t="s">
         <v>939</v>
@@ -19154,7 +19154,7 @@
         <v>878</v>
       </c>
       <c r="E366">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F366" t="s">
         <v>939</v>
@@ -19189,7 +19189,7 @@
         <v>878</v>
       </c>
       <c r="E367">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F367" t="s">
         <v>939</v>
@@ -19224,7 +19224,7 @@
         <v>878</v>
       </c>
       <c r="E368">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F368" t="s">
         <v>939</v>
@@ -19259,7 +19259,7 @@
         <v>878</v>
       </c>
       <c r="E369">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F369" t="s">
         <v>939</v>
@@ -19294,7 +19294,7 @@
         <v>879</v>
       </c>
       <c r="E370">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F370" t="s">
         <v>939</v>
@@ -19329,7 +19329,7 @@
         <v>879</v>
       </c>
       <c r="E371">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F371" t="s">
         <v>939</v>
@@ -19364,7 +19364,7 @@
         <v>879</v>
       </c>
       <c r="E372">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F372" t="s">
         <v>939</v>
@@ -19399,7 +19399,7 @@
         <v>879</v>
       </c>
       <c r="E373">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F373" t="s">
         <v>939</v>
@@ -19437,7 +19437,7 @@
         <v>879</v>
       </c>
       <c r="E374">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F374" t="s">
         <v>939</v>
@@ -19472,7 +19472,7 @@
         <v>879</v>
       </c>
       <c r="E375">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F375" t="s">
         <v>939</v>
@@ -19507,7 +19507,7 @@
         <v>880</v>
       </c>
       <c r="E376">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F376" t="s">
         <v>939</v>
@@ -19542,7 +19542,7 @@
         <v>881</v>
       </c>
       <c r="E377">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F377" t="s">
         <v>939</v>
@@ -19580,7 +19580,7 @@
         <v>881</v>
       </c>
       <c r="E378">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F378" t="s">
         <v>939</v>
@@ -19615,7 +19615,7 @@
         <v>881</v>
       </c>
       <c r="E379">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F379" t="s">
         <v>939</v>
@@ -19650,7 +19650,7 @@
         <v>881</v>
       </c>
       <c r="E380">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F380" t="s">
         <v>939</v>
@@ -19685,7 +19685,7 @@
         <v>881</v>
       </c>
       <c r="E381">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F381" t="s">
         <v>939</v>
@@ -19720,7 +19720,7 @@
         <v>881</v>
       </c>
       <c r="E382">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F382" t="s">
         <v>939</v>
@@ -19755,7 +19755,7 @@
         <v>881</v>
       </c>
       <c r="E383">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F383" t="s">
         <v>939</v>
@@ -19790,7 +19790,7 @@
         <v>881</v>
       </c>
       <c r="E384">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F384" t="s">
         <v>939</v>
@@ -19825,7 +19825,7 @@
         <v>881</v>
       </c>
       <c r="E385">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F385" t="s">
         <v>939</v>
@@ -19860,7 +19860,7 @@
         <v>881</v>
       </c>
       <c r="E386">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F386" t="s">
         <v>939</v>
@@ -19895,7 +19895,7 @@
         <v>881</v>
       </c>
       <c r="E387">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F387" t="s">
         <v>939</v>
@@ -19930,7 +19930,7 @@
         <v>881</v>
       </c>
       <c r="E388">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F388" t="s">
         <v>939</v>
@@ -19965,7 +19965,7 @@
         <v>881</v>
       </c>
       <c r="E389">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F389" t="s">
         <v>939</v>
@@ -20000,7 +20000,7 @@
         <v>881</v>
       </c>
       <c r="E390">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F390" t="s">
         <v>939</v>
@@ -20035,7 +20035,7 @@
         <v>882</v>
       </c>
       <c r="E391">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F391" t="s">
         <v>939</v>
@@ -20070,7 +20070,7 @@
         <v>882</v>
       </c>
       <c r="E392">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F392" t="s">
         <v>939</v>
@@ -20105,7 +20105,7 @@
         <v>882</v>
       </c>
       <c r="E393">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F393" t="s">
         <v>939</v>
@@ -20140,7 +20140,7 @@
         <v>882</v>
       </c>
       <c r="E394">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F394" t="s">
         <v>939</v>
@@ -20175,7 +20175,7 @@
         <v>882</v>
       </c>
       <c r="E395">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F395" t="s">
         <v>939</v>
@@ -20210,7 +20210,7 @@
         <v>882</v>
       </c>
       <c r="E396">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F396" t="s">
         <v>939</v>
@@ -20245,7 +20245,7 @@
         <v>882</v>
       </c>
       <c r="E397">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F397" t="s">
         <v>939</v>
@@ -20280,7 +20280,7 @@
         <v>882</v>
       </c>
       <c r="E398">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F398" t="s">
         <v>944</v>
@@ -20315,7 +20315,7 @@
         <v>882</v>
       </c>
       <c r="E399">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F399" t="s">
         <v>939</v>
@@ -20350,7 +20350,7 @@
         <v>883</v>
       </c>
       <c r="E400">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F400" t="s">
         <v>939</v>
@@ -20388,7 +20388,7 @@
         <v>884</v>
       </c>
       <c r="E401">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F401" t="s">
         <v>939</v>
@@ -20423,7 +20423,7 @@
         <v>884</v>
       </c>
       <c r="E402">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F402" t="s">
         <v>939</v>
@@ -20458,7 +20458,7 @@
         <v>885</v>
       </c>
       <c r="E403">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F403" t="s">
         <v>939</v>
@@ -20493,7 +20493,7 @@
         <v>885</v>
       </c>
       <c r="E404">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F404" t="s">
         <v>939</v>
@@ -20528,7 +20528,7 @@
         <v>885</v>
       </c>
       <c r="E405">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F405" t="s">
         <v>939</v>
@@ -20563,7 +20563,7 @@
         <v>885</v>
       </c>
       <c r="E406">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F406" t="s">
         <v>939</v>
@@ -20598,7 +20598,7 @@
         <v>885</v>
       </c>
       <c r="E407">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F407" t="s">
         <v>939</v>
@@ -20633,7 +20633,7 @@
         <v>885</v>
       </c>
       <c r="E408">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F408" t="s">
         <v>939</v>
@@ -20668,7 +20668,7 @@
         <v>886</v>
       </c>
       <c r="E409">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F409" t="s">
         <v>939</v>
@@ -20703,7 +20703,7 @@
         <v>886</v>
       </c>
       <c r="E410">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F410" t="s">
         <v>939</v>
@@ -20738,7 +20738,7 @@
         <v>886</v>
       </c>
       <c r="E411">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F411" t="s">
         <v>939</v>
@@ -20773,7 +20773,7 @@
         <v>886</v>
       </c>
       <c r="E412">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F412" t="s">
         <v>939</v>
@@ -20808,7 +20808,7 @@
         <v>886</v>
       </c>
       <c r="E413">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F413" t="s">
         <v>939</v>
@@ -20843,7 +20843,7 @@
         <v>886</v>
       </c>
       <c r="E414">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F414" t="s">
         <v>939</v>
@@ -20878,7 +20878,7 @@
         <v>887</v>
       </c>
       <c r="E415">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F415" t="s">
         <v>939</v>
@@ -20913,7 +20913,7 @@
         <v>887</v>
       </c>
       <c r="E416">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F416" t="s">
         <v>939</v>
@@ -20948,7 +20948,7 @@
         <v>887</v>
       </c>
       <c r="E417">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F417" t="s">
         <v>939</v>
@@ -20983,7 +20983,7 @@
         <v>887</v>
       </c>
       <c r="E418">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F418" t="s">
         <v>939</v>
@@ -21018,7 +21018,7 @@
         <v>887</v>
       </c>
       <c r="E419">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F419" t="s">
         <v>939</v>
@@ -21053,7 +21053,7 @@
         <v>887</v>
       </c>
       <c r="E420">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F420" t="s">
         <v>939</v>
@@ -21088,7 +21088,7 @@
         <v>888</v>
       </c>
       <c r="E421">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F421" t="s">
         <v>939</v>
@@ -21123,7 +21123,7 @@
         <v>888</v>
       </c>
       <c r="E422">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F422" t="s">
         <v>939</v>
@@ -21158,7 +21158,7 @@
         <v>889</v>
       </c>
       <c r="E423">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F423" t="s">
         <v>939</v>
@@ -21193,7 +21193,7 @@
         <v>889</v>
       </c>
       <c r="E424">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F424" t="s">
         <v>939</v>
@@ -21228,7 +21228,7 @@
         <v>889</v>
       </c>
       <c r="E425">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F425" t="s">
         <v>939</v>
@@ -21263,7 +21263,7 @@
         <v>889</v>
       </c>
       <c r="E426">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F426" t="s">
         <v>939</v>
@@ -21298,7 +21298,7 @@
         <v>889</v>
       </c>
       <c r="E427">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F427" t="s">
         <v>939</v>
@@ -21333,7 +21333,7 @@
         <v>890</v>
       </c>
       <c r="E428">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F428" t="s">
         <v>939</v>
@@ -21368,7 +21368,7 @@
         <v>890</v>
       </c>
       <c r="E429">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F429" t="s">
         <v>939</v>
@@ -21403,7 +21403,7 @@
         <v>890</v>
       </c>
       <c r="E430">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F430" t="s">
         <v>939</v>
@@ -21438,7 +21438,7 @@
         <v>890</v>
       </c>
       <c r="E431">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F431" t="s">
         <v>939</v>
@@ -21473,7 +21473,7 @@
         <v>891</v>
       </c>
       <c r="E432">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F432" t="s">
         <v>939</v>
@@ -21511,7 +21511,7 @@
         <v>892</v>
       </c>
       <c r="E433">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F433" t="s">
         <v>939</v>
@@ -21546,7 +21546,7 @@
         <v>892</v>
       </c>
       <c r="E434">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F434" t="s">
         <v>939</v>
@@ -21581,7 +21581,7 @@
         <v>893</v>
       </c>
       <c r="E435">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F435" t="s">
         <v>944</v>
@@ -21619,7 +21619,7 @@
         <v>893</v>
       </c>
       <c r="E436">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F436" t="s">
         <v>939</v>
@@ -21654,7 +21654,7 @@
         <v>893</v>
       </c>
       <c r="E437">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F437" t="s">
         <v>939</v>
@@ -21689,7 +21689,7 @@
         <v>893</v>
       </c>
       <c r="E438">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F438" t="s">
         <v>939</v>
@@ -21724,7 +21724,7 @@
         <v>893</v>
       </c>
       <c r="E439">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F439" t="s">
         <v>939</v>
@@ -21759,7 +21759,7 @@
         <v>893</v>
       </c>
       <c r="E440">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F440" t="s">
         <v>939</v>
@@ -21794,7 +21794,7 @@
         <v>894</v>
       </c>
       <c r="E441">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F441" t="s">
         <v>939</v>
@@ -21832,7 +21832,7 @@
         <v>894</v>
       </c>
       <c r="E442">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F442" t="s">
         <v>939</v>
@@ -21867,7 +21867,7 @@
         <v>895</v>
       </c>
       <c r="E443">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F443" t="s">
         <v>941</v>
@@ -21902,7 +21902,7 @@
         <v>895</v>
       </c>
       <c r="E444">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F444" t="s">
         <v>939</v>
@@ -21937,7 +21937,7 @@
         <v>896</v>
       </c>
       <c r="E445">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F445" t="s">
         <v>939</v>
@@ -21972,7 +21972,7 @@
         <v>896</v>
       </c>
       <c r="E446">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F446" t="s">
         <v>939</v>
@@ -22007,7 +22007,7 @@
         <v>897</v>
       </c>
       <c r="E447">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F447" t="s">
         <v>939</v>
@@ -22042,7 +22042,7 @@
         <v>897</v>
       </c>
       <c r="E448">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F448" t="s">
         <v>939</v>
@@ -22077,7 +22077,7 @@
         <v>897</v>
       </c>
       <c r="E449">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F449" t="s">
         <v>939</v>
@@ -22112,7 +22112,7 @@
         <v>898</v>
       </c>
       <c r="E450">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F450" t="s">
         <v>939</v>
@@ -22147,7 +22147,7 @@
         <v>898</v>
       </c>
       <c r="E451">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F451" t="s">
         <v>939</v>
@@ -22182,7 +22182,7 @@
         <v>899</v>
       </c>
       <c r="E452">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F452" t="s">
         <v>939</v>
@@ -22217,7 +22217,7 @@
         <v>899</v>
       </c>
       <c r="E453">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F453" t="s">
         <v>939</v>
@@ -22255,7 +22255,7 @@
         <v>899</v>
       </c>
       <c r="E454">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F454" t="s">
         <v>939</v>
@@ -22293,7 +22293,7 @@
         <v>899</v>
       </c>
       <c r="E455">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F455" t="s">
         <v>939</v>
@@ -22328,7 +22328,7 @@
         <v>900</v>
       </c>
       <c r="E456">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F456" t="s">
         <v>939</v>
@@ -22363,7 +22363,7 @@
         <v>900</v>
       </c>
       <c r="E457">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F457" t="s">
         <v>939</v>
@@ -22398,7 +22398,7 @@
         <v>900</v>
       </c>
       <c r="E458">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F458" t="s">
         <v>939</v>
@@ -22433,7 +22433,7 @@
         <v>901</v>
       </c>
       <c r="E459">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F459" t="s">
         <v>944</v>
@@ -22471,7 +22471,7 @@
         <v>901</v>
       </c>
       <c r="E460">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F460" t="s">
         <v>939</v>
@@ -22509,7 +22509,7 @@
         <v>901</v>
       </c>
       <c r="E461">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F461" t="s">
         <v>939</v>
@@ -22544,7 +22544,7 @@
         <v>902</v>
       </c>
       <c r="E462">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F462" t="s">
         <v>943</v>
@@ -22579,7 +22579,7 @@
         <v>902</v>
       </c>
       <c r="E463">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F463" t="s">
         <v>944</v>
@@ -22617,7 +22617,7 @@
         <v>902</v>
       </c>
       <c r="E464">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F464" t="s">
         <v>939</v>
@@ -22652,7 +22652,7 @@
         <v>902</v>
       </c>
       <c r="E465">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F465" t="s">
         <v>944</v>
@@ -22687,7 +22687,7 @@
         <v>903</v>
       </c>
       <c r="E466">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F466" t="s">
         <v>939</v>
@@ -22722,7 +22722,7 @@
         <v>903</v>
       </c>
       <c r="E467">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F467" t="s">
         <v>939</v>
@@ -22757,7 +22757,7 @@
         <v>903</v>
       </c>
       <c r="E468">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F468" t="s">
         <v>939</v>
@@ -22792,7 +22792,7 @@
         <v>903</v>
       </c>
       <c r="E469">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F469" t="s">
         <v>939</v>
@@ -22827,7 +22827,7 @@
         <v>903</v>
       </c>
       <c r="E470">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F470" t="s">
         <v>939</v>
@@ -22862,7 +22862,7 @@
         <v>904</v>
       </c>
       <c r="E471">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F471" t="s">
         <v>939</v>
@@ -22897,7 +22897,7 @@
         <v>904</v>
       </c>
       <c r="E472">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F472" t="s">
         <v>939</v>
@@ -22932,7 +22932,7 @@
         <v>904</v>
       </c>
       <c r="E473">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F473" t="s">
         <v>939</v>
@@ -22967,7 +22967,7 @@
         <v>904</v>
       </c>
       <c r="E474">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F474" t="s">
         <v>939</v>
@@ -23002,7 +23002,7 @@
         <v>904</v>
       </c>
       <c r="E475">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F475" t="s">
         <v>939</v>
@@ -23037,7 +23037,7 @@
         <v>904</v>
       </c>
       <c r="E476">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F476" t="s">
         <v>939</v>
@@ -23072,7 +23072,7 @@
         <v>904</v>
       </c>
       <c r="E477">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F477" t="s">
         <v>939</v>
@@ -23107,7 +23107,7 @@
         <v>905</v>
       </c>
       <c r="E478">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F478" t="s">
         <v>939</v>
@@ -23142,7 +23142,7 @@
         <v>906</v>
       </c>
       <c r="E479">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F479" t="s">
         <v>939</v>
@@ -23177,7 +23177,7 @@
         <v>906</v>
       </c>
       <c r="E480">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F480" t="s">
         <v>939</v>
@@ -23212,7 +23212,7 @@
         <v>906</v>
       </c>
       <c r="E481">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F481" t="s">
         <v>939</v>
@@ -23247,7 +23247,7 @@
         <v>906</v>
       </c>
       <c r="E482">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F482" t="s">
         <v>939</v>
@@ -23282,7 +23282,7 @@
         <v>906</v>
       </c>
       <c r="E483">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F483" t="s">
         <v>939</v>
@@ -23317,7 +23317,7 @@
         <v>907</v>
       </c>
       <c r="E484">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F484" t="s">
         <v>939</v>
@@ -23352,7 +23352,7 @@
         <v>907</v>
       </c>
       <c r="E485">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F485" t="s">
         <v>939</v>
@@ -23390,7 +23390,7 @@
         <v>908</v>
       </c>
       <c r="E486">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F486" t="s">
         <v>939</v>
@@ -23425,7 +23425,7 @@
         <v>908</v>
       </c>
       <c r="E487">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F487" t="s">
         <v>939</v>
@@ -23460,7 +23460,7 @@
         <v>908</v>
       </c>
       <c r="E488">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F488" t="s">
         <v>939</v>
@@ -23495,7 +23495,7 @@
         <v>908</v>
       </c>
       <c r="E489">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F489" t="s">
         <v>939</v>
@@ -23530,7 +23530,7 @@
         <v>908</v>
       </c>
       <c r="E490">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F490" t="s">
         <v>939</v>
@@ -23565,7 +23565,7 @@
         <v>909</v>
       </c>
       <c r="E491">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F491" t="s">
         <v>939</v>
@@ -23600,7 +23600,7 @@
         <v>909</v>
       </c>
       <c r="E492">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F492" t="s">
         <v>939</v>
@@ -23635,7 +23635,7 @@
         <v>909</v>
       </c>
       <c r="E493">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F493" t="s">
         <v>939</v>
@@ -23670,7 +23670,7 @@
         <v>909</v>
       </c>
       <c r="E494">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F494" t="s">
         <v>939</v>
@@ -23705,7 +23705,7 @@
         <v>909</v>
       </c>
       <c r="E495">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F495" t="s">
         <v>939</v>
@@ -23740,7 +23740,7 @@
         <v>909</v>
       </c>
       <c r="E496">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F496" t="s">
         <v>939</v>
@@ -23775,7 +23775,7 @@
         <v>909</v>
       </c>
       <c r="E497">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F497" t="s">
         <v>944</v>
@@ -23813,7 +23813,7 @@
         <v>910</v>
       </c>
       <c r="E498">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F498" t="s">
         <v>939</v>
@@ -23851,7 +23851,7 @@
         <v>910</v>
       </c>
       <c r="E499">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F499" t="s">
         <v>939</v>
@@ -23886,7 +23886,7 @@
         <v>910</v>
       </c>
       <c r="E500">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F500" t="s">
         <v>939</v>
@@ -23921,7 +23921,7 @@
         <v>910</v>
       </c>
       <c r="E501">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F501" t="s">
         <v>939</v>
@@ -23956,7 +23956,7 @@
         <v>910</v>
       </c>
       <c r="E502">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F502" t="s">
         <v>939</v>
@@ -23994,7 +23994,7 @@
         <v>911</v>
       </c>
       <c r="E503">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F503" t="s">
         <v>939</v>
@@ -24029,7 +24029,7 @@
         <v>911</v>
       </c>
       <c r="E504">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F504" t="s">
         <v>939</v>
@@ -24064,7 +24064,7 @@
         <v>912</v>
       </c>
       <c r="E505">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F505" t="s">
         <v>939</v>
@@ -24102,7 +24102,7 @@
         <v>912</v>
       </c>
       <c r="E506">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F506" t="s">
         <v>939</v>
@@ -24137,7 +24137,7 @@
         <v>912</v>
       </c>
       <c r="E507">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F507" t="s">
         <v>939</v>
@@ -24172,7 +24172,7 @@
         <v>912</v>
       </c>
       <c r="E508">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F508" t="s">
         <v>939</v>
@@ -24207,7 +24207,7 @@
         <v>912</v>
       </c>
       <c r="E509">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F509" t="s">
         <v>939</v>
@@ -24242,7 +24242,7 @@
         <v>913</v>
       </c>
       <c r="E510">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F510" t="s">
         <v>939</v>
@@ -24277,7 +24277,7 @@
         <v>913</v>
       </c>
       <c r="E511">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F511" t="s">
         <v>939</v>
@@ -24312,7 +24312,7 @@
         <v>914</v>
       </c>
       <c r="E512">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F512" t="s">
         <v>939</v>
@@ -24347,7 +24347,7 @@
         <v>914</v>
       </c>
       <c r="E513">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F513" t="s">
         <v>939</v>
@@ -24382,7 +24382,7 @@
         <v>914</v>
       </c>
       <c r="E514">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F514" t="s">
         <v>939</v>
@@ -24417,7 +24417,7 @@
         <v>914</v>
       </c>
       <c r="E515">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F515" t="s">
         <v>939</v>
@@ -24452,7 +24452,7 @@
         <v>914</v>
       </c>
       <c r="E516">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F516" t="s">
         <v>939</v>
@@ -24487,7 +24487,7 @@
         <v>915</v>
       </c>
       <c r="E517">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F517" t="s">
         <v>939</v>
@@ -24522,7 +24522,7 @@
         <v>915</v>
       </c>
       <c r="E518">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F518" t="s">
         <v>939</v>
@@ -24557,7 +24557,7 @@
         <v>915</v>
       </c>
       <c r="E519">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F519" t="s">
         <v>939</v>
@@ -24592,7 +24592,7 @@
         <v>916</v>
       </c>
       <c r="E520">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F520" t="s">
         <v>939</v>
@@ -24627,7 +24627,7 @@
         <v>916</v>
       </c>
       <c r="E521">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F521" t="s">
         <v>939</v>
@@ -24662,7 +24662,7 @@
         <v>916</v>
       </c>
       <c r="E522">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F522" t="s">
         <v>939</v>
@@ -24697,7 +24697,7 @@
         <v>916</v>
       </c>
       <c r="E523">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F523" t="s">
         <v>939</v>
@@ -24732,7 +24732,7 @@
         <v>916</v>
       </c>
       <c r="E524">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F524" t="s">
         <v>939</v>
@@ -24767,7 +24767,7 @@
         <v>916</v>
       </c>
       <c r="E525">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F525" t="s">
         <v>944</v>
@@ -24805,7 +24805,7 @@
         <v>916</v>
       </c>
       <c r="E526">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F526" t="s">
         <v>939</v>
@@ -24840,7 +24840,7 @@
         <v>916</v>
       </c>
       <c r="E527">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F527" t="s">
         <v>939</v>
@@ -24875,7 +24875,7 @@
         <v>916</v>
       </c>
       <c r="E528">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F528" t="s">
         <v>939</v>
@@ -24910,7 +24910,7 @@
         <v>917</v>
       </c>
       <c r="E529">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F529" t="s">
         <v>939</v>
@@ -24945,7 +24945,7 @@
         <v>917</v>
       </c>
       <c r="E530">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F530" t="s">
         <v>939</v>
@@ -24980,7 +24980,7 @@
         <v>917</v>
       </c>
       <c r="E531">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F531" t="s">
         <v>939</v>
@@ -25015,7 +25015,7 @@
         <v>917</v>
       </c>
       <c r="E532">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F532" t="s">
         <v>939</v>
@@ -25050,7 +25050,7 @@
         <v>917</v>
       </c>
       <c r="E533">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F533" t="s">
         <v>939</v>
@@ -25085,7 +25085,7 @@
         <v>917</v>
       </c>
       <c r="E534">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F534" t="s">
         <v>939</v>
@@ -25120,7 +25120,7 @@
         <v>917</v>
       </c>
       <c r="E535">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F535" t="s">
         <v>939</v>
@@ -25155,7 +25155,7 @@
         <v>917</v>
       </c>
       <c r="E536">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F536" t="s">
         <v>939</v>
@@ -25190,7 +25190,7 @@
         <v>917</v>
       </c>
       <c r="E537">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F537" t="s">
         <v>939</v>
@@ -25225,7 +25225,7 @@
         <v>917</v>
       </c>
       <c r="E538">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F538" t="s">
         <v>939</v>
@@ -25260,7 +25260,7 @@
         <v>917</v>
       </c>
       <c r="E539">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F539" t="s">
         <v>939</v>
@@ -25295,7 +25295,7 @@
         <v>917</v>
       </c>
       <c r="E540">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F540" t="s">
         <v>939</v>
@@ -25330,7 +25330,7 @@
         <v>917</v>
       </c>
       <c r="E541">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F541" t="s">
         <v>939</v>
@@ -25365,7 +25365,7 @@
         <v>917</v>
       </c>
       <c r="E542">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F542" t="s">
         <v>939</v>
@@ -25400,7 +25400,7 @@
         <v>917</v>
       </c>
       <c r="E543">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F543" t="s">
         <v>939</v>
@@ -25435,7 +25435,7 @@
         <v>917</v>
       </c>
       <c r="E544">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F544" t="s">
         <v>939</v>
@@ -25470,7 +25470,7 @@
         <v>917</v>
       </c>
       <c r="E545">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F545" t="s">
         <v>939</v>
@@ -25505,7 +25505,7 @@
         <v>917</v>
       </c>
       <c r="E546">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F546" t="s">
         <v>939</v>
@@ -25540,7 +25540,7 @@
         <v>918</v>
       </c>
       <c r="E547">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F547" t="s">
         <v>939</v>
@@ -25575,7 +25575,7 @@
         <v>918</v>
       </c>
       <c r="E548">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F548" t="s">
         <v>939</v>
@@ -25610,7 +25610,7 @@
         <v>919</v>
       </c>
       <c r="E549">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F549" t="s">
         <v>939</v>
@@ -25645,7 +25645,7 @@
         <v>920</v>
       </c>
       <c r="E550">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F550" t="s">
         <v>939</v>
@@ -25680,7 +25680,7 @@
         <v>920</v>
       </c>
       <c r="E551">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F551" t="s">
         <v>939</v>
@@ -25715,7 +25715,7 @@
         <v>920</v>
       </c>
       <c r="E552">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F552" t="s">
         <v>944</v>
@@ -25753,7 +25753,7 @@
         <v>920</v>
       </c>
       <c r="E553">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F553" t="s">
         <v>939</v>
@@ -25788,7 +25788,7 @@
         <v>920</v>
       </c>
       <c r="E554">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F554" t="s">
         <v>944</v>
@@ -25826,7 +25826,7 @@
         <v>921</v>
       </c>
       <c r="E555">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F555" t="s">
         <v>939</v>
@@ -25861,7 +25861,7 @@
         <v>921</v>
       </c>
       <c r="E556">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F556" t="s">
         <v>939</v>
@@ -25896,7 +25896,7 @@
         <v>922</v>
       </c>
       <c r="E557">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F557" t="s">
         <v>939</v>
@@ -25934,7 +25934,7 @@
         <v>922</v>
       </c>
       <c r="E558">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F558" t="s">
         <v>939</v>
@@ -25969,7 +25969,7 @@
         <v>922</v>
       </c>
       <c r="E559">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F559" t="s">
         <v>939</v>
@@ -26007,7 +26007,7 @@
         <v>922</v>
       </c>
       <c r="E560">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F560" t="s">
         <v>939</v>
@@ -26042,7 +26042,7 @@
         <v>923</v>
       </c>
       <c r="E561">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F561" t="s">
         <v>939</v>
@@ -26077,7 +26077,7 @@
         <v>923</v>
       </c>
       <c r="E562">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F562" t="s">
         <v>939</v>
@@ -26112,7 +26112,7 @@
         <v>923</v>
       </c>
       <c r="E563">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F563" t="s">
         <v>939</v>
@@ -26147,7 +26147,7 @@
         <v>923</v>
       </c>
       <c r="E564">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F564" t="s">
         <v>939</v>
@@ -26182,7 +26182,7 @@
         <v>923</v>
       </c>
       <c r="E565">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F565" t="s">
         <v>944</v>
@@ -26220,7 +26220,7 @@
         <v>923</v>
       </c>
       <c r="E566">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F566" t="s">
         <v>939</v>
@@ -26255,7 +26255,7 @@
         <v>923</v>
       </c>
       <c r="E567">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F567" t="s">
         <v>939</v>
@@ -26290,7 +26290,7 @@
         <v>923</v>
       </c>
       <c r="E568">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F568" t="s">
         <v>939</v>
@@ -26325,7 +26325,7 @@
         <v>924</v>
       </c>
       <c r="E569">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F569" t="s">
         <v>939</v>
@@ -26360,7 +26360,7 @@
         <v>924</v>
       </c>
       <c r="E570">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F570" t="s">
         <v>944</v>
@@ -26395,7 +26395,7 @@
         <v>924</v>
       </c>
       <c r="E571">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F571" t="s">
         <v>939</v>
@@ -26433,7 +26433,7 @@
         <v>924</v>
       </c>
       <c r="E572">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F572" t="s">
         <v>939</v>
@@ -26468,7 +26468,7 @@
         <v>925</v>
       </c>
       <c r="E573">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F573" t="s">
         <v>939</v>
@@ -26503,7 +26503,7 @@
         <v>925</v>
       </c>
       <c r="E574">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F574" t="s">
         <v>939</v>
@@ -26538,7 +26538,7 @@
         <v>926</v>
       </c>
       <c r="E575">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F575" t="s">
         <v>939</v>
@@ -26573,7 +26573,7 @@
         <v>926</v>
       </c>
       <c r="E576">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F576" t="s">
         <v>939</v>
@@ -26608,7 +26608,7 @@
         <v>926</v>
       </c>
       <c r="E577">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F577" t="s">
         <v>939</v>
@@ -26643,7 +26643,7 @@
         <v>926</v>
       </c>
       <c r="E578">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F578" t="s">
         <v>939</v>
@@ -26678,7 +26678,7 @@
         <v>927</v>
       </c>
       <c r="E579">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F579" t="s">
         <v>944</v>
@@ -26716,7 +26716,7 @@
         <v>927</v>
       </c>
       <c r="E580">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F580" t="s">
         <v>939</v>
@@ -26751,7 +26751,7 @@
         <v>928</v>
       </c>
       <c r="E581">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F581" t="s">
         <v>939</v>
@@ -26786,7 +26786,7 @@
         <v>929</v>
       </c>
       <c r="E582">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F582" t="s">
         <v>939</v>
@@ -26821,7 +26821,7 @@
         <v>929</v>
       </c>
       <c r="E583">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F583" t="s">
         <v>939</v>
@@ -26859,7 +26859,7 @@
         <v>929</v>
       </c>
       <c r="E584">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F584" t="s">
         <v>939</v>
@@ -26894,7 +26894,7 @@
         <v>929</v>
       </c>
       <c r="E585">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F585" t="s">
         <v>939</v>
@@ -26929,7 +26929,7 @@
         <v>929</v>
       </c>
       <c r="E586">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F586" t="s">
         <v>939</v>
@@ -26964,7 +26964,7 @@
         <v>929</v>
       </c>
       <c r="E587">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F587" t="s">
         <v>939</v>
@@ -26999,7 +26999,7 @@
         <v>929</v>
       </c>
       <c r="E588">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F588" t="s">
         <v>939</v>
@@ -27034,7 +27034,7 @@
         <v>929</v>
       </c>
       <c r="E589">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F589" t="s">
         <v>944</v>
@@ -27069,7 +27069,7 @@
         <v>929</v>
       </c>
       <c r="E590">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F590" t="s">
         <v>944</v>
@@ -27104,7 +27104,7 @@
         <v>929</v>
       </c>
       <c r="E591">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F591" t="s">
         <v>939</v>
@@ -27139,7 +27139,7 @@
         <v>930</v>
       </c>
       <c r="E592">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F592" t="s">
         <v>939</v>
@@ -27174,7 +27174,7 @@
         <v>930</v>
       </c>
       <c r="E593">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F593" t="s">
         <v>939</v>
@@ -27209,7 +27209,7 @@
         <v>930</v>
       </c>
       <c r="E594">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F594" t="s">
         <v>939</v>
@@ -27244,7 +27244,7 @@
         <v>930</v>
       </c>
       <c r="E595">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F595" t="s">
         <v>939</v>
@@ -27279,7 +27279,7 @@
         <v>930</v>
       </c>
       <c r="E596">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F596" t="s">
         <v>939</v>
@@ -27314,7 +27314,7 @@
         <v>930</v>
       </c>
       <c r="E597">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F597" t="s">
         <v>939</v>
@@ -27349,7 +27349,7 @@
         <v>930</v>
       </c>
       <c r="E598">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F598" t="s">
         <v>939</v>
@@ -27384,7 +27384,7 @@
         <v>930</v>
       </c>
       <c r="E599">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F599" t="s">
         <v>939</v>
@@ -27419,7 +27419,7 @@
         <v>931</v>
       </c>
       <c r="E600">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F600" t="s">
         <v>939</v>
@@ -27454,7 +27454,7 @@
         <v>931</v>
       </c>
       <c r="E601">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F601" t="s">
         <v>939</v>
@@ -27489,7 +27489,7 @@
         <v>931</v>
       </c>
       <c r="E602">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F602" t="s">
         <v>939</v>
@@ -27524,7 +27524,7 @@
         <v>931</v>
       </c>
       <c r="E603">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F603" t="s">
         <v>939</v>
@@ -27559,7 +27559,7 @@
         <v>931</v>
       </c>
       <c r="E604">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F604" t="s">
         <v>939</v>
@@ -27594,7 +27594,7 @@
         <v>931</v>
       </c>
       <c r="E605">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F605" t="s">
         <v>944</v>
@@ -27629,7 +27629,7 @@
         <v>931</v>
       </c>
       <c r="E606">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F606" t="s">
         <v>939</v>
@@ -27664,7 +27664,7 @@
         <v>931</v>
       </c>
       <c r="E607">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F607" t="s">
         <v>944</v>
@@ -27702,7 +27702,7 @@
         <v>931</v>
       </c>
       <c r="E608">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F608" t="s">
         <v>939</v>
@@ -27737,7 +27737,7 @@
         <v>932</v>
       </c>
       <c r="E609">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F609" t="s">
         <v>939</v>
@@ -27772,7 +27772,7 @@
         <v>932</v>
       </c>
       <c r="E610">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F610" t="s">
         <v>939</v>
@@ -27807,7 +27807,7 @@
         <v>932</v>
       </c>
       <c r="E611">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F611" t="s">
         <v>939</v>
@@ -27842,7 +27842,7 @@
         <v>932</v>
       </c>
       <c r="E612">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F612" t="s">
         <v>939</v>
@@ -27877,7 +27877,7 @@
         <v>932</v>
       </c>
       <c r="E613">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F613" t="s">
         <v>944</v>
@@ -27915,7 +27915,7 @@
         <v>932</v>
       </c>
       <c r="E614">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F614" t="s">
         <v>939</v>
@@ -27950,7 +27950,7 @@
         <v>932</v>
       </c>
       <c r="E615">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F615" t="s">
         <v>939</v>
@@ -27985,7 +27985,7 @@
         <v>932</v>
       </c>
       <c r="E616">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F616" t="s">
         <v>939</v>
@@ -28020,7 +28020,7 @@
         <v>932</v>
       </c>
       <c r="E617">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F617" t="s">
         <v>939</v>
@@ -28055,7 +28055,7 @@
         <v>932</v>
       </c>
       <c r="E618">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F618" t="s">
         <v>939</v>
@@ -28090,7 +28090,7 @@
         <v>932</v>
       </c>
       <c r="E619">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F619" t="s">
         <v>944</v>
@@ -28128,7 +28128,7 @@
         <v>932</v>
       </c>
       <c r="E620">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F620" t="s">
         <v>939</v>
@@ -28163,7 +28163,7 @@
         <v>932</v>
       </c>
       <c r="E621">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F621" t="s">
         <v>944</v>
@@ -28201,7 +28201,7 @@
         <v>932</v>
       </c>
       <c r="E622">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F622" t="s">
         <v>939</v>
@@ -28236,7 +28236,7 @@
         <v>932</v>
       </c>
       <c r="E623">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F623" t="s">
         <v>939</v>
@@ -28271,7 +28271,7 @@
         <v>932</v>
       </c>
       <c r="E624">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F624" t="s">
         <v>939</v>
@@ -28306,7 +28306,7 @@
         <v>933</v>
       </c>
       <c r="E625">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F625" t="s">
         <v>939</v>
@@ -28341,7 +28341,7 @@
         <v>933</v>
       </c>
       <c r="E626">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F626" t="s">
         <v>939</v>
@@ -28376,7 +28376,7 @@
         <v>933</v>
       </c>
       <c r="E627">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F627" t="s">
         <v>939</v>
@@ -28411,7 +28411,7 @@
         <v>933</v>
       </c>
       <c r="E628">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F628" t="s">
         <v>944</v>
@@ -28449,7 +28449,7 @@
         <v>933</v>
       </c>
       <c r="E629">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F629" t="s">
         <v>944</v>
@@ -28487,7 +28487,7 @@
         <v>933</v>
       </c>
       <c r="E630">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F630" t="s">
         <v>939</v>
@@ -28522,7 +28522,7 @@
         <v>933</v>
       </c>
       <c r="E631">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F631" t="s">
         <v>939</v>
@@ -28557,7 +28557,7 @@
         <v>933</v>
       </c>
       <c r="E632">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F632" t="s">
         <v>939</v>
@@ -28592,7 +28592,7 @@
         <v>933</v>
       </c>
       <c r="E633">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F633" t="s">
         <v>939</v>
@@ -28627,7 +28627,7 @@
         <v>933</v>
       </c>
       <c r="E634">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F634" t="s">
         <v>939</v>
@@ -28662,7 +28662,7 @@
         <v>933</v>
       </c>
       <c r="E635">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F635" t="s">
         <v>939</v>
@@ -28697,7 +28697,7 @@
         <v>934</v>
       </c>
       <c r="E636">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F636" t="s">
         <v>944</v>
@@ -28732,7 +28732,7 @@
         <v>934</v>
       </c>
       <c r="E637">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F637" t="s">
         <v>939</v>
@@ -28770,7 +28770,7 @@
         <v>934</v>
       </c>
       <c r="E638">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F638" t="s">
         <v>939</v>
@@ -28805,7 +28805,7 @@
         <v>934</v>
       </c>
       <c r="E639">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F639" t="s">
         <v>939</v>
@@ -28840,7 +28840,7 @@
         <v>934</v>
       </c>
       <c r="E640">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F640" t="s">
         <v>939</v>
@@ -28875,7 +28875,7 @@
         <v>935</v>
       </c>
       <c r="E641">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F641" t="s">
         <v>939</v>
@@ -28910,7 +28910,7 @@
         <v>935</v>
       </c>
       <c r="E642">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F642" t="s">
         <v>939</v>
@@ -28948,7 +28948,7 @@
         <v>935</v>
       </c>
       <c r="E643">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F643" t="s">
         <v>939</v>
@@ -28983,7 +28983,7 @@
         <v>935</v>
       </c>
       <c r="E644">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F644" t="s">
         <v>939</v>
@@ -29018,7 +29018,7 @@
         <v>935</v>
       </c>
       <c r="E645">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F645" t="s">
         <v>939</v>
@@ -29053,7 +29053,7 @@
         <v>936</v>
       </c>
       <c r="E646">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F646" t="s">
         <v>939</v>
@@ -29088,7 +29088,7 @@
         <v>936</v>
       </c>
       <c r="E647">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F647" t="s">
         <v>939</v>
@@ -29123,7 +29123,7 @@
         <v>936</v>
       </c>
       <c r="E648">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F648" t="s">
         <v>944</v>
@@ -29161,7 +29161,7 @@
         <v>936</v>
       </c>
       <c r="E649">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F649" t="s">
         <v>944</v>
@@ -29199,7 +29199,7 @@
         <v>936</v>
       </c>
       <c r="E650">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F650" t="s">
         <v>939</v>
@@ -29234,7 +29234,7 @@
         <v>937</v>
       </c>
       <c r="E651">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F651" t="s">
         <v>939</v>
@@ -29269,7 +29269,7 @@
         <v>937</v>
       </c>
       <c r="E652">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F652" t="s">
         <v>939</v>
@@ -29307,7 +29307,7 @@
         <v>937</v>
       </c>
       <c r="E653">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F653" t="s">
         <v>939</v>
@@ -29342,7 +29342,7 @@
         <v>937</v>
       </c>
       <c r="E654">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F654" t="s">
         <v>939</v>
@@ -29377,7 +29377,7 @@
         <v>937</v>
       </c>
       <c r="E655">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F655" t="s">
         <v>939</v>
@@ -29415,7 +29415,7 @@
         <v>937</v>
       </c>
       <c r="E656">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F656" t="s">
         <v>939</v>
@@ -29453,7 +29453,7 @@
         <v>937</v>
       </c>
       <c r="E657">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F657" t="s">
         <v>939</v>
@@ -29491,7 +29491,7 @@
         <v>937</v>
       </c>
       <c r="E658">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F658" t="s">
         <v>939</v>
@@ -29526,7 +29526,7 @@
         <v>937</v>
       </c>
       <c r="E659">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F659" t="s">
         <v>939</v>
@@ -29561,7 +29561,7 @@
         <v>938</v>
       </c>
       <c r="E660">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F660" t="s">
         <v>939</v>
@@ -29596,7 +29596,7 @@
         <v>938</v>
       </c>
       <c r="E661">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F661" t="s">
         <v>939</v>
@@ -29631,7 +29631,7 @@
         <v>938</v>
       </c>
       <c r="E662">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F662" t="s">
         <v>939</v>
@@ -29666,7 +29666,7 @@
         <v>938</v>
       </c>
       <c r="E663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F663" t="s">
         <v>939</v>
@@ -29704,7 +29704,7 @@
         <v>938</v>
       </c>
       <c r="E664">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F664" t="s">
         <v>939</v>
@@ -29742,7 +29742,7 @@
         <v>938</v>
       </c>
       <c r="E665">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F665" t="s">
         <v>939</v>
@@ -29780,7 +29780,7 @@
         <v>938</v>
       </c>
       <c r="E666">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F666" t="s">
         <v>939</v>
@@ -29818,7 +29818,7 @@
         <v>938</v>
       </c>
       <c r="E667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F667" t="s">
         <v>939</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6306,7 +6306,7 @@
         <v>703</v>
       </c>
       <c r="E2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F2" t="s">
         <v>939</v>
@@ -6341,7 +6341,7 @@
         <v>704</v>
       </c>
       <c r="E3">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F3" t="s">
         <v>940</v>
@@ -6376,7 +6376,7 @@
         <v>705</v>
       </c>
       <c r="E4">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F4" t="s">
         <v>940</v>
@@ -6411,7 +6411,7 @@
         <v>706</v>
       </c>
       <c r="E5">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F5" t="s">
         <v>940</v>
@@ -6446,7 +6446,7 @@
         <v>707</v>
       </c>
       <c r="E6">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F6" t="s">
         <v>940</v>
@@ -6481,7 +6481,7 @@
         <v>708</v>
       </c>
       <c r="E7">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F7" t="s">
         <v>940</v>
@@ -6516,7 +6516,7 @@
         <v>709</v>
       </c>
       <c r="E8">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F8" t="s">
         <v>940</v>
@@ -6554,7 +6554,7 @@
         <v>710</v>
       </c>
       <c r="E9">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F9" t="s">
         <v>940</v>
@@ -6589,7 +6589,7 @@
         <v>711</v>
       </c>
       <c r="E10">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F10" t="s">
         <v>940</v>
@@ -6627,7 +6627,7 @@
         <v>712</v>
       </c>
       <c r="E11">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F11" t="s">
         <v>940</v>
@@ -6662,7 +6662,7 @@
         <v>713</v>
       </c>
       <c r="E12">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F12" t="s">
         <v>940</v>
@@ -6697,7 +6697,7 @@
         <v>714</v>
       </c>
       <c r="E13">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F13" t="s">
         <v>940</v>
@@ -6732,7 +6732,7 @@
         <v>715</v>
       </c>
       <c r="E14">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F14" t="s">
         <v>940</v>
@@ -6767,7 +6767,7 @@
         <v>716</v>
       </c>
       <c r="E15">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F15" t="s">
         <v>940</v>
@@ -6805,7 +6805,7 @@
         <v>717</v>
       </c>
       <c r="E16">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F16" t="s">
         <v>940</v>
@@ -6840,7 +6840,7 @@
         <v>718</v>
       </c>
       <c r="E17">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F17" t="s">
         <v>940</v>
@@ -6878,7 +6878,7 @@
         <v>719</v>
       </c>
       <c r="E18">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F18" t="s">
         <v>940</v>
@@ -6916,7 +6916,7 @@
         <v>720</v>
       </c>
       <c r="E19">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F19" t="s">
         <v>940</v>
@@ -6951,7 +6951,7 @@
         <v>721</v>
       </c>
       <c r="E20">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F20" t="s">
         <v>940</v>
@@ -6986,7 +6986,7 @@
         <v>722</v>
       </c>
       <c r="E21">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
         <v>940</v>
@@ -7021,7 +7021,7 @@
         <v>723</v>
       </c>
       <c r="E22">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F22" t="s">
         <v>940</v>
@@ -7056,7 +7056,7 @@
         <v>724</v>
       </c>
       <c r="E23">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F23" t="s">
         <v>940</v>
@@ -7091,7 +7091,7 @@
         <v>725</v>
       </c>
       <c r="E24">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F24" t="s">
         <v>940</v>
@@ -7126,7 +7126,7 @@
         <v>725</v>
       </c>
       <c r="E25">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
         <v>941</v>
@@ -7161,7 +7161,7 @@
         <v>726</v>
       </c>
       <c r="E26">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F26" t="s">
         <v>940</v>
@@ -7196,7 +7196,7 @@
         <v>727</v>
       </c>
       <c r="E27">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F27" t="s">
         <v>940</v>
@@ -7231,7 +7231,7 @@
         <v>728</v>
       </c>
       <c r="E28">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>940</v>
@@ -7266,7 +7266,7 @@
         <v>728</v>
       </c>
       <c r="E29">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F29" t="s">
         <v>940</v>
@@ -7301,7 +7301,7 @@
         <v>729</v>
       </c>
       <c r="E30">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F30" t="s">
         <v>940</v>
@@ -7339,7 +7339,7 @@
         <v>730</v>
       </c>
       <c r="E31">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F31" t="s">
         <v>940</v>
@@ -7374,7 +7374,7 @@
         <v>730</v>
       </c>
       <c r="E32">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F32" t="s">
         <v>940</v>
@@ -7409,7 +7409,7 @@
         <v>731</v>
       </c>
       <c r="E33">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F33" t="s">
         <v>940</v>
@@ -7447,7 +7447,7 @@
         <v>731</v>
       </c>
       <c r="E34">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F34" t="s">
         <v>940</v>
@@ -7485,7 +7485,7 @@
         <v>732</v>
       </c>
       <c r="E35">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F35" t="s">
         <v>940</v>
@@ -7520,7 +7520,7 @@
         <v>733</v>
       </c>
       <c r="E36">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F36" t="s">
         <v>940</v>
@@ -7555,7 +7555,7 @@
         <v>734</v>
       </c>
       <c r="E37">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F37" t="s">
         <v>940</v>
@@ -7590,7 +7590,7 @@
         <v>734</v>
       </c>
       <c r="E38">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F38" t="s">
         <v>940</v>
@@ -7625,7 +7625,7 @@
         <v>735</v>
       </c>
       <c r="E39">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F39" t="s">
         <v>940</v>
@@ -7660,7 +7660,7 @@
         <v>736</v>
       </c>
       <c r="E40">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F40" t="s">
         <v>940</v>
@@ -7695,7 +7695,7 @@
         <v>737</v>
       </c>
       <c r="E41">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F41" t="s">
         <v>940</v>
@@ -7730,7 +7730,7 @@
         <v>738</v>
       </c>
       <c r="E42">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F42" t="s">
         <v>940</v>
@@ -7765,7 +7765,7 @@
         <v>738</v>
       </c>
       <c r="E43">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F43" t="s">
         <v>940</v>
@@ -7800,7 +7800,7 @@
         <v>739</v>
       </c>
       <c r="E44">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
         <v>940</v>
@@ -7835,7 +7835,7 @@
         <v>740</v>
       </c>
       <c r="E45">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F45" t="s">
         <v>940</v>
@@ -7870,7 +7870,7 @@
         <v>741</v>
       </c>
       <c r="E46">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F46" t="s">
         <v>940</v>
@@ -7905,7 +7905,7 @@
         <v>742</v>
       </c>
       <c r="E47">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F47" t="s">
         <v>940</v>
@@ -7940,7 +7940,7 @@
         <v>742</v>
       </c>
       <c r="E48">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F48" t="s">
         <v>940</v>
@@ -7975,7 +7975,7 @@
         <v>743</v>
       </c>
       <c r="E49">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F49" t="s">
         <v>940</v>
@@ -8010,7 +8010,7 @@
         <v>744</v>
       </c>
       <c r="E50">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F50" t="s">
         <v>940</v>
@@ -8045,7 +8045,7 @@
         <v>744</v>
       </c>
       <c r="E51">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F51" t="s">
         <v>940</v>
@@ -8080,7 +8080,7 @@
         <v>745</v>
       </c>
       <c r="E52">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F52" t="s">
         <v>940</v>
@@ -8115,7 +8115,7 @@
         <v>746</v>
       </c>
       <c r="E53">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F53" t="s">
         <v>940</v>
@@ -8153,7 +8153,7 @@
         <v>747</v>
       </c>
       <c r="E54">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F54" t="s">
         <v>940</v>
@@ -8188,7 +8188,7 @@
         <v>748</v>
       </c>
       <c r="E55">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F55" t="s">
         <v>940</v>
@@ -8223,7 +8223,7 @@
         <v>749</v>
       </c>
       <c r="E56">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F56" t="s">
         <v>940</v>
@@ -8261,7 +8261,7 @@
         <v>750</v>
       </c>
       <c r="E57">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F57" t="s">
         <v>940</v>
@@ -8296,7 +8296,7 @@
         <v>751</v>
       </c>
       <c r="E58">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F58" t="s">
         <v>940</v>
@@ -8331,7 +8331,7 @@
         <v>752</v>
       </c>
       <c r="E59">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
         <v>940</v>
@@ -8366,7 +8366,7 @@
         <v>753</v>
       </c>
       <c r="E60">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F60" t="s">
         <v>940</v>
@@ -8401,7 +8401,7 @@
         <v>754</v>
       </c>
       <c r="E61">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F61" t="s">
         <v>940</v>
@@ -8439,7 +8439,7 @@
         <v>755</v>
       </c>
       <c r="E62">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
         <v>940</v>
@@ -8474,7 +8474,7 @@
         <v>756</v>
       </c>
       <c r="E63">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F63" t="s">
         <v>942</v>
@@ -8509,7 +8509,7 @@
         <v>757</v>
       </c>
       <c r="E64">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
         <v>942</v>
@@ -8544,7 +8544,7 @@
         <v>758</v>
       </c>
       <c r="E65">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F65" t="s">
         <v>942</v>
@@ -8579,7 +8579,7 @@
         <v>759</v>
       </c>
       <c r="E66">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F66" t="s">
         <v>942</v>
@@ -8617,7 +8617,7 @@
         <v>760</v>
       </c>
       <c r="E67">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F67" t="s">
         <v>942</v>
@@ -8652,7 +8652,7 @@
         <v>761</v>
       </c>
       <c r="E68">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F68" t="s">
         <v>940</v>
@@ -8687,7 +8687,7 @@
         <v>761</v>
       </c>
       <c r="E69">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F69" t="s">
         <v>940</v>
@@ -8722,7 +8722,7 @@
         <v>762</v>
       </c>
       <c r="E70">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F70" t="s">
         <v>942</v>
@@ -8757,7 +8757,7 @@
         <v>763</v>
       </c>
       <c r="E71">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F71" t="s">
         <v>942</v>
@@ -8792,7 +8792,7 @@
         <v>764</v>
       </c>
       <c r="E72">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F72" t="s">
         <v>942</v>
@@ -8827,7 +8827,7 @@
         <v>765</v>
       </c>
       <c r="E73">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
         <v>942</v>
@@ -8862,7 +8862,7 @@
         <v>765</v>
       </c>
       <c r="E74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F74" t="s">
         <v>942</v>
@@ -8897,7 +8897,7 @@
         <v>766</v>
       </c>
       <c r="E75">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F75" t="s">
         <v>940</v>
@@ -8935,7 +8935,7 @@
         <v>767</v>
       </c>
       <c r="E76">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F76" t="s">
         <v>942</v>
@@ -8970,7 +8970,7 @@
         <v>768</v>
       </c>
       <c r="E77">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F77" t="s">
         <v>939</v>
@@ -9005,7 +9005,7 @@
         <v>769</v>
       </c>
       <c r="E78">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
         <v>942</v>
@@ -9040,7 +9040,7 @@
         <v>769</v>
       </c>
       <c r="E79">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
         <v>942</v>
@@ -9075,7 +9075,7 @@
         <v>769</v>
       </c>
       <c r="E80">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
         <v>942</v>
@@ -9110,7 +9110,7 @@
         <v>770</v>
       </c>
       <c r="E81">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F81" t="s">
         <v>941</v>
@@ -9145,7 +9145,7 @@
         <v>771</v>
       </c>
       <c r="E82">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F82" t="s">
         <v>939</v>
@@ -9180,7 +9180,7 @@
         <v>772</v>
       </c>
       <c r="E83">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F83" t="s">
         <v>942</v>
@@ -9215,7 +9215,7 @@
         <v>773</v>
       </c>
       <c r="E84">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F84" t="s">
         <v>939</v>
@@ -9253,7 +9253,7 @@
         <v>774</v>
       </c>
       <c r="E85">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s">
         <v>942</v>
@@ -9288,7 +9288,7 @@
         <v>774</v>
       </c>
       <c r="E86">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
         <v>942</v>
@@ -9323,7 +9323,7 @@
         <v>774</v>
       </c>
       <c r="E87">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F87" t="s">
         <v>939</v>
@@ -9358,7 +9358,7 @@
         <v>774</v>
       </c>
       <c r="E88">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
         <v>939</v>
@@ -9393,7 +9393,7 @@
         <v>775</v>
       </c>
       <c r="E89">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F89" t="s">
         <v>941</v>
@@ -9428,7 +9428,7 @@
         <v>776</v>
       </c>
       <c r="E90">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
         <v>942</v>
@@ -9463,7 +9463,7 @@
         <v>776</v>
       </c>
       <c r="E91">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F91" t="s">
         <v>942</v>
@@ -9498,7 +9498,7 @@
         <v>776</v>
       </c>
       <c r="E92">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
         <v>942</v>
@@ -9533,7 +9533,7 @@
         <v>777</v>
       </c>
       <c r="E93">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F93" t="s">
         <v>942</v>
@@ -9568,7 +9568,7 @@
         <v>777</v>
       </c>
       <c r="E94">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
         <v>942</v>
@@ -9603,7 +9603,7 @@
         <v>778</v>
       </c>
       <c r="E95">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F95" t="s">
         <v>942</v>
@@ -9638,7 +9638,7 @@
         <v>779</v>
       </c>
       <c r="E96">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F96" t="s">
         <v>942</v>
@@ -9673,7 +9673,7 @@
         <v>779</v>
       </c>
       <c r="E97">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F97" t="s">
         <v>939</v>
@@ -9708,7 +9708,7 @@
         <v>780</v>
       </c>
       <c r="E98">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F98" t="s">
         <v>942</v>
@@ -9743,7 +9743,7 @@
         <v>780</v>
       </c>
       <c r="E99">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F99" t="s">
         <v>942</v>
@@ -9778,7 +9778,7 @@
         <v>781</v>
       </c>
       <c r="E100">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F100" t="s">
         <v>942</v>
@@ -9816,7 +9816,7 @@
         <v>781</v>
       </c>
       <c r="E101">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F101" t="s">
         <v>942</v>
@@ -9851,7 +9851,7 @@
         <v>782</v>
       </c>
       <c r="E102">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F102" t="s">
         <v>942</v>
@@ -9886,7 +9886,7 @@
         <v>782</v>
       </c>
       <c r="E103">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F103" t="s">
         <v>939</v>
@@ -9921,7 +9921,7 @@
         <v>783</v>
       </c>
       <c r="E104">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F104" t="s">
         <v>942</v>
@@ -9956,7 +9956,7 @@
         <v>783</v>
       </c>
       <c r="E105">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F105" t="s">
         <v>939</v>
@@ -9991,7 +9991,7 @@
         <v>784</v>
       </c>
       <c r="E106">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F106" t="s">
         <v>939</v>
@@ -10026,7 +10026,7 @@
         <v>785</v>
       </c>
       <c r="E107">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F107" t="s">
         <v>939</v>
@@ -10061,7 +10061,7 @@
         <v>785</v>
       </c>
       <c r="E108">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F108" t="s">
         <v>939</v>
@@ -10096,7 +10096,7 @@
         <v>785</v>
       </c>
       <c r="E109">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F109" t="s">
         <v>942</v>
@@ -10131,7 +10131,7 @@
         <v>786</v>
       </c>
       <c r="E110">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F110" t="s">
         <v>939</v>
@@ -10166,7 +10166,7 @@
         <v>787</v>
       </c>
       <c r="E111">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F111" t="s">
         <v>939</v>
@@ -10201,7 +10201,7 @@
         <v>787</v>
       </c>
       <c r="E112">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F112" t="s">
         <v>939</v>
@@ -10239,7 +10239,7 @@
         <v>788</v>
       </c>
       <c r="E113">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F113" t="s">
         <v>943</v>
@@ -10274,7 +10274,7 @@
         <v>788</v>
       </c>
       <c r="E114">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F114" t="s">
         <v>943</v>
@@ -10309,7 +10309,7 @@
         <v>788</v>
       </c>
       <c r="E115">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F115" t="s">
         <v>943</v>
@@ -10344,7 +10344,7 @@
         <v>789</v>
       </c>
       <c r="E116">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F116" t="s">
         <v>943</v>
@@ -10379,7 +10379,7 @@
         <v>790</v>
       </c>
       <c r="E117">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F117" t="s">
         <v>943</v>
@@ -10417,7 +10417,7 @@
         <v>791</v>
       </c>
       <c r="E118">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F118" t="s">
         <v>939</v>
@@ -10452,7 +10452,7 @@
         <v>792</v>
       </c>
       <c r="E119">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F119" t="s">
         <v>943</v>
@@ -10487,7 +10487,7 @@
         <v>793</v>
       </c>
       <c r="E120">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F120" t="s">
         <v>943</v>
@@ -10522,7 +10522,7 @@
         <v>793</v>
       </c>
       <c r="E121">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F121" t="s">
         <v>939</v>
@@ -10557,7 +10557,7 @@
         <v>793</v>
       </c>
       <c r="E122">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F122" t="s">
         <v>939</v>
@@ -10592,7 +10592,7 @@
         <v>794</v>
       </c>
       <c r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F123" t="s">
         <v>939</v>
@@ -10630,7 +10630,7 @@
         <v>795</v>
       </c>
       <c r="E124">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F124" t="s">
         <v>939</v>
@@ -10665,7 +10665,7 @@
         <v>795</v>
       </c>
       <c r="E125">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F125" t="s">
         <v>939</v>
@@ -10700,7 +10700,7 @@
         <v>795</v>
       </c>
       <c r="E126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F126" t="s">
         <v>939</v>
@@ -10735,7 +10735,7 @@
         <v>796</v>
       </c>
       <c r="E127">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F127" t="s">
         <v>939</v>
@@ -10773,7 +10773,7 @@
         <v>796</v>
       </c>
       <c r="E128">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
         <v>939</v>
@@ -10808,7 +10808,7 @@
         <v>796</v>
       </c>
       <c r="E129">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F129" t="s">
         <v>939</v>
@@ -10843,7 +10843,7 @@
         <v>796</v>
       </c>
       <c r="E130">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
         <v>939</v>
@@ -10878,7 +10878,7 @@
         <v>797</v>
       </c>
       <c r="E131">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
         <v>943</v>
@@ -10913,7 +10913,7 @@
         <v>797</v>
       </c>
       <c r="E132">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
         <v>939</v>
@@ -10948,7 +10948,7 @@
         <v>798</v>
       </c>
       <c r="E133">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
         <v>943</v>
@@ -10983,7 +10983,7 @@
         <v>798</v>
       </c>
       <c r="E134">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
         <v>939</v>
@@ -11018,7 +11018,7 @@
         <v>798</v>
       </c>
       <c r="E135">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
         <v>939</v>
@@ -11053,7 +11053,7 @@
         <v>798</v>
       </c>
       <c r="E136">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
         <v>941</v>
@@ -11091,7 +11091,7 @@
         <v>799</v>
       </c>
       <c r="E137">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
         <v>939</v>
@@ -11126,7 +11126,7 @@
         <v>800</v>
       </c>
       <c r="E138">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F138" t="s">
         <v>939</v>
@@ -11161,7 +11161,7 @@
         <v>801</v>
       </c>
       <c r="E139">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F139" t="s">
         <v>939</v>
@@ -11196,7 +11196,7 @@
         <v>801</v>
       </c>
       <c r="E140">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F140" t="s">
         <v>941</v>
@@ -11231,7 +11231,7 @@
         <v>802</v>
       </c>
       <c r="E141">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F141" t="s">
         <v>939</v>
@@ -11266,7 +11266,7 @@
         <v>802</v>
       </c>
       <c r="E142">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
         <v>943</v>
@@ -11301,7 +11301,7 @@
         <v>802</v>
       </c>
       <c r="E143">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F143" t="s">
         <v>939</v>
@@ -11336,7 +11336,7 @@
         <v>802</v>
       </c>
       <c r="E144">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F144" t="s">
         <v>941</v>
@@ -11371,7 +11371,7 @@
         <v>802</v>
       </c>
       <c r="E145">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F145" t="s">
         <v>941</v>
@@ -11406,7 +11406,7 @@
         <v>802</v>
       </c>
       <c r="E146">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F146" t="s">
         <v>941</v>
@@ -11441,7 +11441,7 @@
         <v>802</v>
       </c>
       <c r="E147">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F147" t="s">
         <v>939</v>
@@ -11476,7 +11476,7 @@
         <v>803</v>
       </c>
       <c r="E148">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F148" t="s">
         <v>939</v>
@@ -11514,7 +11514,7 @@
         <v>804</v>
       </c>
       <c r="E149">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F149" t="s">
         <v>939</v>
@@ -11549,7 +11549,7 @@
         <v>804</v>
       </c>
       <c r="E150">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F150" t="s">
         <v>939</v>
@@ -11584,7 +11584,7 @@
         <v>804</v>
       </c>
       <c r="E151">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F151" t="s">
         <v>939</v>
@@ -11619,7 +11619,7 @@
         <v>805</v>
       </c>
       <c r="E152">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F152" t="s">
         <v>939</v>
@@ -11654,7 +11654,7 @@
         <v>806</v>
       </c>
       <c r="E153">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F153" t="s">
         <v>939</v>
@@ -11689,7 +11689,7 @@
         <v>807</v>
       </c>
       <c r="E154">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F154" t="s">
         <v>939</v>
@@ -11724,7 +11724,7 @@
         <v>808</v>
       </c>
       <c r="E155">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F155" t="s">
         <v>939</v>
@@ -11759,7 +11759,7 @@
         <v>809</v>
       </c>
       <c r="E156">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F156" t="s">
         <v>939</v>
@@ -11794,7 +11794,7 @@
         <v>809</v>
       </c>
       <c r="E157">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F157" t="s">
         <v>939</v>
@@ -11829,7 +11829,7 @@
         <v>810</v>
       </c>
       <c r="E158">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F158" t="s">
         <v>939</v>
@@ -11864,7 +11864,7 @@
         <v>811</v>
       </c>
       <c r="E159">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s">
         <v>939</v>
@@ -11899,7 +11899,7 @@
         <v>812</v>
       </c>
       <c r="E160">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F160" t="s">
         <v>939</v>
@@ -11934,7 +11934,7 @@
         <v>813</v>
       </c>
       <c r="E161">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F161" t="s">
         <v>939</v>
@@ -11969,7 +11969,7 @@
         <v>813</v>
       </c>
       <c r="E162">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F162" t="s">
         <v>939</v>
@@ -12004,7 +12004,7 @@
         <v>813</v>
       </c>
       <c r="E163">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F163" t="s">
         <v>939</v>
@@ -12039,7 +12039,7 @@
         <v>813</v>
       </c>
       <c r="E164">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F164" t="s">
         <v>939</v>
@@ -12074,7 +12074,7 @@
         <v>813</v>
       </c>
       <c r="E165">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F165" t="s">
         <v>939</v>
@@ -12109,7 +12109,7 @@
         <v>814</v>
       </c>
       <c r="E166">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F166" t="s">
         <v>939</v>
@@ -12144,7 +12144,7 @@
         <v>815</v>
       </c>
       <c r="E167">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F167" t="s">
         <v>939</v>
@@ -12179,7 +12179,7 @@
         <v>815</v>
       </c>
       <c r="E168">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F168" t="s">
         <v>939</v>
@@ -12214,7 +12214,7 @@
         <v>816</v>
       </c>
       <c r="E169">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F169" t="s">
         <v>939</v>
@@ -12249,7 +12249,7 @@
         <v>816</v>
       </c>
       <c r="E170">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F170" t="s">
         <v>939</v>
@@ -12284,7 +12284,7 @@
         <v>817</v>
       </c>
       <c r="E171">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F171" t="s">
         <v>939</v>
@@ -12319,7 +12319,7 @@
         <v>817</v>
       </c>
       <c r="E172">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F172" t="s">
         <v>939</v>
@@ -12354,7 +12354,7 @@
         <v>818</v>
       </c>
       <c r="E173">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F173" t="s">
         <v>939</v>
@@ -12389,7 +12389,7 @@
         <v>818</v>
       </c>
       <c r="E174">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F174" t="s">
         <v>939</v>
@@ -12424,7 +12424,7 @@
         <v>818</v>
       </c>
       <c r="E175">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F175" t="s">
         <v>939</v>
@@ -12459,7 +12459,7 @@
         <v>818</v>
       </c>
       <c r="E176">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F176" t="s">
         <v>939</v>
@@ -12494,7 +12494,7 @@
         <v>819</v>
       </c>
       <c r="E177">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F177" t="s">
         <v>939</v>
@@ -12529,7 +12529,7 @@
         <v>820</v>
       </c>
       <c r="E178">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F178" t="s">
         <v>939</v>
@@ -12564,7 +12564,7 @@
         <v>820</v>
       </c>
       <c r="E179">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F179" t="s">
         <v>939</v>
@@ -12599,7 +12599,7 @@
         <v>820</v>
       </c>
       <c r="E180">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F180" t="s">
         <v>939</v>
@@ -12634,7 +12634,7 @@
         <v>821</v>
       </c>
       <c r="E181">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F181" t="s">
         <v>939</v>
@@ -12669,7 +12669,7 @@
         <v>821</v>
       </c>
       <c r="E182">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F182" t="s">
         <v>939</v>
@@ -12704,7 +12704,7 @@
         <v>821</v>
       </c>
       <c r="E183">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F183" t="s">
         <v>939</v>
@@ -12739,7 +12739,7 @@
         <v>822</v>
       </c>
       <c r="E184">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F184" t="s">
         <v>939</v>
@@ -12774,7 +12774,7 @@
         <v>822</v>
       </c>
       <c r="E185">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F185" t="s">
         <v>939</v>
@@ -12809,7 +12809,7 @@
         <v>822</v>
       </c>
       <c r="E186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F186" t="s">
         <v>939</v>
@@ -12844,7 +12844,7 @@
         <v>823</v>
       </c>
       <c r="E187">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F187" t="s">
         <v>939</v>
@@ -12879,7 +12879,7 @@
         <v>823</v>
       </c>
       <c r="E188">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F188" t="s">
         <v>939</v>
@@ -12917,7 +12917,7 @@
         <v>824</v>
       </c>
       <c r="E189">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F189" t="s">
         <v>939</v>
@@ -12952,7 +12952,7 @@
         <v>824</v>
       </c>
       <c r="E190">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F190" t="s">
         <v>939</v>
@@ -12987,7 +12987,7 @@
         <v>824</v>
       </c>
       <c r="E191">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F191" t="s">
         <v>939</v>
@@ -13022,7 +13022,7 @@
         <v>824</v>
       </c>
       <c r="E192">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F192" t="s">
         <v>939</v>
@@ -13057,7 +13057,7 @@
         <v>825</v>
       </c>
       <c r="E193">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F193" t="s">
         <v>939</v>
@@ -13092,7 +13092,7 @@
         <v>826</v>
       </c>
       <c r="E194">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F194" t="s">
         <v>944</v>
@@ -13127,7 +13127,7 @@
         <v>826</v>
       </c>
       <c r="E195">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F195" t="s">
         <v>939</v>
@@ -13162,7 +13162,7 @@
         <v>826</v>
       </c>
       <c r="E196">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F196" t="s">
         <v>939</v>
@@ -13197,7 +13197,7 @@
         <v>827</v>
       </c>
       <c r="E197">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F197" t="s">
         <v>941</v>
@@ -13232,7 +13232,7 @@
         <v>828</v>
       </c>
       <c r="E198">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F198" t="s">
         <v>939</v>
@@ -13267,7 +13267,7 @@
         <v>828</v>
       </c>
       <c r="E199">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F199" t="s">
         <v>939</v>
@@ -13302,7 +13302,7 @@
         <v>828</v>
       </c>
       <c r="E200">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F200" t="s">
         <v>939</v>
@@ -13337,7 +13337,7 @@
         <v>829</v>
       </c>
       <c r="E201">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F201" t="s">
         <v>939</v>
@@ -13372,7 +13372,7 @@
         <v>830</v>
       </c>
       <c r="E202">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F202" t="s">
         <v>939</v>
@@ -13407,7 +13407,7 @@
         <v>831</v>
       </c>
       <c r="E203">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F203" t="s">
         <v>939</v>
@@ -13445,7 +13445,7 @@
         <v>831</v>
       </c>
       <c r="E204">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F204" t="s">
         <v>939</v>
@@ -13480,7 +13480,7 @@
         <v>832</v>
       </c>
       <c r="E205">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F205" t="s">
         <v>939</v>
@@ -13515,7 +13515,7 @@
         <v>832</v>
       </c>
       <c r="E206">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F206" t="s">
         <v>939</v>
@@ -13550,7 +13550,7 @@
         <v>832</v>
       </c>
       <c r="E207">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F207" t="s">
         <v>939</v>
@@ -13585,7 +13585,7 @@
         <v>833</v>
       </c>
       <c r="E208">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F208" t="s">
         <v>939</v>
@@ -13620,7 +13620,7 @@
         <v>834</v>
       </c>
       <c r="E209">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F209" t="s">
         <v>939</v>
@@ -13655,7 +13655,7 @@
         <v>834</v>
       </c>
       <c r="E210">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F210" t="s">
         <v>939</v>
@@ -13690,7 +13690,7 @@
         <v>834</v>
       </c>
       <c r="E211">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F211" t="s">
         <v>939</v>
@@ -13725,7 +13725,7 @@
         <v>834</v>
       </c>
       <c r="E212">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F212" t="s">
         <v>939</v>
@@ -13760,7 +13760,7 @@
         <v>834</v>
       </c>
       <c r="E213">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F213" t="s">
         <v>939</v>
@@ -13795,7 +13795,7 @@
         <v>835</v>
       </c>
       <c r="E214">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F214" t="s">
         <v>939</v>
@@ -13830,7 +13830,7 @@
         <v>836</v>
       </c>
       <c r="E215">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F215" t="s">
         <v>939</v>
@@ -13865,7 +13865,7 @@
         <v>836</v>
       </c>
       <c r="E216">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F216" t="s">
         <v>939</v>
@@ -13900,7 +13900,7 @@
         <v>836</v>
       </c>
       <c r="E217">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F217" t="s">
         <v>939</v>
@@ -13935,7 +13935,7 @@
         <v>837</v>
       </c>
       <c r="E218">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F218" t="s">
         <v>939</v>
@@ -13970,7 +13970,7 @@
         <v>837</v>
       </c>
       <c r="E219">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F219" t="s">
         <v>939</v>
@@ -14005,7 +14005,7 @@
         <v>837</v>
       </c>
       <c r="E220">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F220" t="s">
         <v>939</v>
@@ -14040,7 +14040,7 @@
         <v>838</v>
       </c>
       <c r="E221">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F221" t="s">
         <v>939</v>
@@ -14075,7 +14075,7 @@
         <v>838</v>
       </c>
       <c r="E222">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F222" t="s">
         <v>939</v>
@@ -14110,7 +14110,7 @@
         <v>838</v>
       </c>
       <c r="E223">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F223" t="s">
         <v>939</v>
@@ -14145,7 +14145,7 @@
         <v>839</v>
       </c>
       <c r="E224">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F224" t="s">
         <v>939</v>
@@ -14180,7 +14180,7 @@
         <v>839</v>
       </c>
       <c r="E225">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F225" t="s">
         <v>939</v>
@@ -14215,7 +14215,7 @@
         <v>840</v>
       </c>
       <c r="E226">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F226" t="s">
         <v>939</v>
@@ -14250,7 +14250,7 @@
         <v>840</v>
       </c>
       <c r="E227">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F227" t="s">
         <v>939</v>
@@ -14285,7 +14285,7 @@
         <v>841</v>
       </c>
       <c r="E228">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F228" t="s">
         <v>939</v>
@@ -14320,7 +14320,7 @@
         <v>841</v>
       </c>
       <c r="E229">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F229" t="s">
         <v>939</v>
@@ -14355,7 +14355,7 @@
         <v>841</v>
       </c>
       <c r="E230">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F230" t="s">
         <v>939</v>
@@ -14390,7 +14390,7 @@
         <v>842</v>
       </c>
       <c r="E231">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F231" t="s">
         <v>939</v>
@@ -14425,7 +14425,7 @@
         <v>842</v>
       </c>
       <c r="E232">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F232" t="s">
         <v>939</v>
@@ -14463,7 +14463,7 @@
         <v>842</v>
       </c>
       <c r="E233">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F233" t="s">
         <v>939</v>
@@ -14498,7 +14498,7 @@
         <v>843</v>
       </c>
       <c r="E234">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F234" t="s">
         <v>939</v>
@@ -14533,7 +14533,7 @@
         <v>844</v>
       </c>
       <c r="E235">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F235" t="s">
         <v>939</v>
@@ -14568,7 +14568,7 @@
         <v>844</v>
       </c>
       <c r="E236">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F236" t="s">
         <v>939</v>
@@ -14603,7 +14603,7 @@
         <v>845</v>
       </c>
       <c r="E237">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F237" t="s">
         <v>939</v>
@@ -14638,7 +14638,7 @@
         <v>846</v>
       </c>
       <c r="E238">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F238" t="s">
         <v>944</v>
@@ -14676,7 +14676,7 @@
         <v>846</v>
       </c>
       <c r="E239">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F239" t="s">
         <v>939</v>
@@ -14711,7 +14711,7 @@
         <v>846</v>
       </c>
       <c r="E240">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F240" t="s">
         <v>939</v>
@@ -14746,7 +14746,7 @@
         <v>846</v>
       </c>
       <c r="E241">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F241" t="s">
         <v>939</v>
@@ -14781,7 +14781,7 @@
         <v>846</v>
       </c>
       <c r="E242">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F242" t="s">
         <v>939</v>
@@ -14816,7 +14816,7 @@
         <v>847</v>
       </c>
       <c r="E243">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F243" t="s">
         <v>939</v>
@@ -14851,7 +14851,7 @@
         <v>847</v>
       </c>
       <c r="E244">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F244" t="s">
         <v>939</v>
@@ -14886,7 +14886,7 @@
         <v>847</v>
       </c>
       <c r="E245">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F245" t="s">
         <v>939</v>
@@ -14921,7 +14921,7 @@
         <v>847</v>
       </c>
       <c r="E246">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F246" t="s">
         <v>944</v>
@@ -14956,7 +14956,7 @@
         <v>847</v>
       </c>
       <c r="E247">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F247" t="s">
         <v>939</v>
@@ -14994,7 +14994,7 @@
         <v>847</v>
       </c>
       <c r="E248">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F248" t="s">
         <v>939</v>
@@ -15029,7 +15029,7 @@
         <v>848</v>
       </c>
       <c r="E249">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F249" t="s">
         <v>939</v>
@@ -15064,7 +15064,7 @@
         <v>848</v>
       </c>
       <c r="E250">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F250" t="s">
         <v>939</v>
@@ -15099,7 +15099,7 @@
         <v>848</v>
       </c>
       <c r="E251">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F251" t="s">
         <v>939</v>
@@ -15134,7 +15134,7 @@
         <v>849</v>
       </c>
       <c r="E252">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F252" t="s">
         <v>939</v>
@@ -15169,7 +15169,7 @@
         <v>849</v>
       </c>
       <c r="E253">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F253" t="s">
         <v>939</v>
@@ -15204,7 +15204,7 @@
         <v>849</v>
       </c>
       <c r="E254">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F254" t="s">
         <v>939</v>
@@ -15242,7 +15242,7 @@
         <v>849</v>
       </c>
       <c r="E255">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F255" t="s">
         <v>939</v>
@@ -15277,7 +15277,7 @@
         <v>850</v>
       </c>
       <c r="E256">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F256" t="s">
         <v>939</v>
@@ -15312,7 +15312,7 @@
         <v>850</v>
       </c>
       <c r="E257">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F257" t="s">
         <v>939</v>
@@ -15347,7 +15347,7 @@
         <v>850</v>
       </c>
       <c r="E258">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F258" t="s">
         <v>939</v>
@@ -15382,7 +15382,7 @@
         <v>850</v>
       </c>
       <c r="E259">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F259" t="s">
         <v>939</v>
@@ -15417,7 +15417,7 @@
         <v>851</v>
       </c>
       <c r="E260">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F260" t="s">
         <v>939</v>
@@ -15452,7 +15452,7 @@
         <v>851</v>
       </c>
       <c r="E261">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F261" t="s">
         <v>939</v>
@@ -15487,7 +15487,7 @@
         <v>851</v>
       </c>
       <c r="E262">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F262" t="s">
         <v>939</v>
@@ -15522,7 +15522,7 @@
         <v>851</v>
       </c>
       <c r="E263">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F263" t="s">
         <v>939</v>
@@ -15557,7 +15557,7 @@
         <v>852</v>
       </c>
       <c r="E264">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F264" t="s">
         <v>939</v>
@@ -15592,7 +15592,7 @@
         <v>852</v>
       </c>
       <c r="E265">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F265" t="s">
         <v>939</v>
@@ -15627,7 +15627,7 @@
         <v>853</v>
       </c>
       <c r="E266">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F266" t="s">
         <v>939</v>
@@ -15662,7 +15662,7 @@
         <v>853</v>
       </c>
       <c r="E267">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F267" t="s">
         <v>939</v>
@@ -15697,7 +15697,7 @@
         <v>854</v>
       </c>
       <c r="E268">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F268" t="s">
         <v>939</v>
@@ -15735,7 +15735,7 @@
         <v>854</v>
       </c>
       <c r="E269">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F269" t="s">
         <v>939</v>
@@ -15773,7 +15773,7 @@
         <v>854</v>
       </c>
       <c r="E270">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F270" t="s">
         <v>939</v>
@@ -15811,7 +15811,7 @@
         <v>855</v>
       </c>
       <c r="E271">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F271" t="s">
         <v>939</v>
@@ -15846,7 +15846,7 @@
         <v>855</v>
       </c>
       <c r="E272">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F272" t="s">
         <v>939</v>
@@ -15881,7 +15881,7 @@
         <v>855</v>
       </c>
       <c r="E273">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F273" t="s">
         <v>939</v>
@@ -15916,7 +15916,7 @@
         <v>856</v>
       </c>
       <c r="E274">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F274" t="s">
         <v>939</v>
@@ -15951,7 +15951,7 @@
         <v>856</v>
       </c>
       <c r="E275">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F275" t="s">
         <v>939</v>
@@ -15989,7 +15989,7 @@
         <v>856</v>
       </c>
       <c r="E276">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F276" t="s">
         <v>939</v>
@@ -16024,7 +16024,7 @@
         <v>857</v>
       </c>
       <c r="E277">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F277" t="s">
         <v>939</v>
@@ -16059,7 +16059,7 @@
         <v>857</v>
       </c>
       <c r="E278">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F278" t="s">
         <v>939</v>
@@ -16094,7 +16094,7 @@
         <v>858</v>
       </c>
       <c r="E279">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F279" t="s">
         <v>939</v>
@@ -16129,7 +16129,7 @@
         <v>858</v>
       </c>
       <c r="E280">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F280" t="s">
         <v>939</v>
@@ -16164,7 +16164,7 @@
         <v>858</v>
       </c>
       <c r="E281">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F281" t="s">
         <v>939</v>
@@ -16199,7 +16199,7 @@
         <v>858</v>
       </c>
       <c r="E282">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F282" t="s">
         <v>939</v>
@@ -16234,7 +16234,7 @@
         <v>859</v>
       </c>
       <c r="E283">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F283" t="s">
         <v>939</v>
@@ -16269,7 +16269,7 @@
         <v>859</v>
       </c>
       <c r="E284">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F284" t="s">
         <v>939</v>
@@ -16304,7 +16304,7 @@
         <v>859</v>
       </c>
       <c r="E285">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F285" t="s">
         <v>939</v>
@@ -16339,7 +16339,7 @@
         <v>860</v>
       </c>
       <c r="E286">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F286" t="s">
         <v>939</v>
@@ -16374,7 +16374,7 @@
         <v>860</v>
       </c>
       <c r="E287">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F287" t="s">
         <v>939</v>
@@ -16409,7 +16409,7 @@
         <v>860</v>
       </c>
       <c r="E288">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F288" t="s">
         <v>939</v>
@@ -16444,7 +16444,7 @@
         <v>860</v>
       </c>
       <c r="E289">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F289" t="s">
         <v>939</v>
@@ -16479,7 +16479,7 @@
         <v>860</v>
       </c>
       <c r="E290">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F290" t="s">
         <v>939</v>
@@ -16514,7 +16514,7 @@
         <v>860</v>
       </c>
       <c r="E291">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F291" t="s">
         <v>939</v>
@@ -16549,7 +16549,7 @@
         <v>860</v>
       </c>
       <c r="E292">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F292" t="s">
         <v>939</v>
@@ -16584,7 +16584,7 @@
         <v>860</v>
       </c>
       <c r="E293">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F293" t="s">
         <v>939</v>
@@ -16619,7 +16619,7 @@
         <v>861</v>
       </c>
       <c r="E294">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F294" t="s">
         <v>939</v>
@@ -16654,7 +16654,7 @@
         <v>861</v>
       </c>
       <c r="E295">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F295" t="s">
         <v>939</v>
@@ -16689,7 +16689,7 @@
         <v>862</v>
       </c>
       <c r="E296">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F296" t="s">
         <v>940</v>
@@ -16724,7 +16724,7 @@
         <v>862</v>
       </c>
       <c r="E297">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F297" t="s">
         <v>939</v>
@@ -16759,7 +16759,7 @@
         <v>863</v>
       </c>
       <c r="E298">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F298" t="s">
         <v>939</v>
@@ -16794,7 +16794,7 @@
         <v>863</v>
       </c>
       <c r="E299">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F299" t="s">
         <v>939</v>
@@ -16829,7 +16829,7 @@
         <v>864</v>
       </c>
       <c r="E300">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F300" t="s">
         <v>939</v>
@@ -16864,7 +16864,7 @@
         <v>864</v>
       </c>
       <c r="E301">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F301" t="s">
         <v>939</v>
@@ -16899,7 +16899,7 @@
         <v>864</v>
       </c>
       <c r="E302">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F302" t="s">
         <v>939</v>
@@ -16934,7 +16934,7 @@
         <v>864</v>
       </c>
       <c r="E303">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F303" t="s">
         <v>939</v>
@@ -16969,7 +16969,7 @@
         <v>864</v>
       </c>
       <c r="E304">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F304" t="s">
         <v>939</v>
@@ -17004,7 +17004,7 @@
         <v>864</v>
       </c>
       <c r="E305">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F305" t="s">
         <v>939</v>
@@ -17039,7 +17039,7 @@
         <v>864</v>
       </c>
       <c r="E306">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F306" t="s">
         <v>939</v>
@@ -17074,7 +17074,7 @@
         <v>864</v>
       </c>
       <c r="E307">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F307" t="s">
         <v>939</v>
@@ -17109,7 +17109,7 @@
         <v>865</v>
       </c>
       <c r="E308">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F308" t="s">
         <v>939</v>
@@ -17144,7 +17144,7 @@
         <v>865</v>
       </c>
       <c r="E309">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F309" t="s">
         <v>939</v>
@@ -17179,7 +17179,7 @@
         <v>865</v>
       </c>
       <c r="E310">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F310" t="s">
         <v>939</v>
@@ -17214,7 +17214,7 @@
         <v>865</v>
       </c>
       <c r="E311">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F311" t="s">
         <v>939</v>
@@ -17249,7 +17249,7 @@
         <v>865</v>
       </c>
       <c r="E312">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F312" t="s">
         <v>939</v>
@@ -17284,7 +17284,7 @@
         <v>866</v>
       </c>
       <c r="E313">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F313" t="s">
         <v>939</v>
@@ -17319,7 +17319,7 @@
         <v>866</v>
       </c>
       <c r="E314">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F314" t="s">
         <v>939</v>
@@ -17354,7 +17354,7 @@
         <v>866</v>
       </c>
       <c r="E315">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F315" t="s">
         <v>939</v>
@@ -17389,7 +17389,7 @@
         <v>867</v>
       </c>
       <c r="E316">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F316" t="s">
         <v>939</v>
@@ -17424,7 +17424,7 @@
         <v>867</v>
       </c>
       <c r="E317">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F317" t="s">
         <v>939</v>
@@ -17459,7 +17459,7 @@
         <v>868</v>
       </c>
       <c r="E318">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F318" t="s">
         <v>939</v>
@@ -17494,7 +17494,7 @@
         <v>868</v>
       </c>
       <c r="E319">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F319" t="s">
         <v>939</v>
@@ -17529,7 +17529,7 @@
         <v>868</v>
       </c>
       <c r="E320">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F320" t="s">
         <v>939</v>
@@ -17564,7 +17564,7 @@
         <v>868</v>
       </c>
       <c r="E321">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F321" t="s">
         <v>939</v>
@@ -17599,7 +17599,7 @@
         <v>869</v>
       </c>
       <c r="E322">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F322" t="s">
         <v>939</v>
@@ -17634,7 +17634,7 @@
         <v>869</v>
       </c>
       <c r="E323">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F323" t="s">
         <v>939</v>
@@ -17669,7 +17669,7 @@
         <v>869</v>
       </c>
       <c r="E324">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F324" t="s">
         <v>939</v>
@@ -17704,7 +17704,7 @@
         <v>869</v>
       </c>
       <c r="E325">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F325" t="s">
         <v>939</v>
@@ -17739,7 +17739,7 @@
         <v>869</v>
       </c>
       <c r="E326">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F326" t="s">
         <v>939</v>
@@ -17774,7 +17774,7 @@
         <v>870</v>
       </c>
       <c r="E327">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F327" t="s">
         <v>939</v>
@@ -17809,7 +17809,7 @@
         <v>870</v>
       </c>
       <c r="E328">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F328" t="s">
         <v>939</v>
@@ -17847,7 +17847,7 @@
         <v>870</v>
       </c>
       <c r="E329">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F329" t="s">
         <v>939</v>
@@ -17882,7 +17882,7 @@
         <v>871</v>
       </c>
       <c r="E330">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F330" t="s">
         <v>939</v>
@@ -17917,7 +17917,7 @@
         <v>871</v>
       </c>
       <c r="E331">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F331" t="s">
         <v>939</v>
@@ -17952,7 +17952,7 @@
         <v>871</v>
       </c>
       <c r="E332">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F332" t="s">
         <v>939</v>
@@ -17987,7 +17987,7 @@
         <v>871</v>
       </c>
       <c r="E333">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F333" t="s">
         <v>939</v>
@@ -18022,7 +18022,7 @@
         <v>872</v>
       </c>
       <c r="E334">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F334" t="s">
         <v>939</v>
@@ -18057,7 +18057,7 @@
         <v>872</v>
       </c>
       <c r="E335">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F335" t="s">
         <v>939</v>
@@ -18092,7 +18092,7 @@
         <v>872</v>
       </c>
       <c r="E336">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F336" t="s">
         <v>939</v>
@@ -18127,7 +18127,7 @@
         <v>872</v>
       </c>
       <c r="E337">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F337" t="s">
         <v>939</v>
@@ -18162,7 +18162,7 @@
         <v>872</v>
       </c>
       <c r="E338">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F338" t="s">
         <v>939</v>
@@ -18197,7 +18197,7 @@
         <v>872</v>
       </c>
       <c r="E339">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F339" t="s">
         <v>939</v>
@@ -18232,7 +18232,7 @@
         <v>872</v>
       </c>
       <c r="E340">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F340" t="s">
         <v>939</v>
@@ -18267,7 +18267,7 @@
         <v>872</v>
       </c>
       <c r="E341">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F341" t="s">
         <v>939</v>
@@ -18302,7 +18302,7 @@
         <v>872</v>
       </c>
       <c r="E342">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F342" t="s">
         <v>939</v>
@@ -18337,7 +18337,7 @@
         <v>873</v>
       </c>
       <c r="E343">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F343" t="s">
         <v>939</v>
@@ -18372,7 +18372,7 @@
         <v>873</v>
       </c>
       <c r="E344">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F344" t="s">
         <v>939</v>
@@ -18410,7 +18410,7 @@
         <v>873</v>
       </c>
       <c r="E345">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F345" t="s">
         <v>939</v>
@@ -18445,7 +18445,7 @@
         <v>873</v>
       </c>
       <c r="E346">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F346" t="s">
         <v>939</v>
@@ -18480,7 +18480,7 @@
         <v>874</v>
       </c>
       <c r="E347">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F347" t="s">
         <v>939</v>
@@ -18515,7 +18515,7 @@
         <v>875</v>
       </c>
       <c r="E348">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F348" t="s">
         <v>939</v>
@@ -18550,7 +18550,7 @@
         <v>875</v>
       </c>
       <c r="E349">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F349" t="s">
         <v>939</v>
@@ -18585,7 +18585,7 @@
         <v>875</v>
       </c>
       <c r="E350">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F350" t="s">
         <v>939</v>
@@ -18620,7 +18620,7 @@
         <v>875</v>
       </c>
       <c r="E351">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F351" t="s">
         <v>939</v>
@@ -18655,7 +18655,7 @@
         <v>875</v>
       </c>
       <c r="E352">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F352" t="s">
         <v>939</v>
@@ -18690,7 +18690,7 @@
         <v>875</v>
       </c>
       <c r="E353">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F353" t="s">
         <v>939</v>
@@ -18725,7 +18725,7 @@
         <v>875</v>
       </c>
       <c r="E354">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F354" t="s">
         <v>939</v>
@@ -18760,7 +18760,7 @@
         <v>875</v>
       </c>
       <c r="E355">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F355" t="s">
         <v>939</v>
@@ -18798,7 +18798,7 @@
         <v>876</v>
       </c>
       <c r="E356">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F356" t="s">
         <v>939</v>
@@ -18833,7 +18833,7 @@
         <v>876</v>
       </c>
       <c r="E357">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F357" t="s">
         <v>939</v>
@@ -18868,7 +18868,7 @@
         <v>877</v>
       </c>
       <c r="E358">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F358" t="s">
         <v>939</v>
@@ -18906,7 +18906,7 @@
         <v>877</v>
       </c>
       <c r="E359">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F359" t="s">
         <v>939</v>
@@ -18941,7 +18941,7 @@
         <v>877</v>
       </c>
       <c r="E360">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F360" t="s">
         <v>939</v>
@@ -18976,7 +18976,7 @@
         <v>877</v>
       </c>
       <c r="E361">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F361" t="s">
         <v>939</v>
@@ -19011,7 +19011,7 @@
         <v>877</v>
       </c>
       <c r="E362">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F362" t="s">
         <v>939</v>
@@ -19049,7 +19049,7 @@
         <v>878</v>
       </c>
       <c r="E363">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F363" t="s">
         <v>939</v>
@@ -19084,7 +19084,7 @@
         <v>878</v>
       </c>
       <c r="E364">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F364" t="s">
         <v>939</v>
@@ -19119,7 +19119,7 @@
         <v>878</v>
       </c>
       <c r="E365">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F365" t="s">
         <v>939</v>
@@ -19154,7 +19154,7 @@
         <v>878</v>
       </c>
       <c r="E366">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F366" t="s">
         <v>939</v>
@@ -19189,7 +19189,7 @@
         <v>878</v>
       </c>
       <c r="E367">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F367" t="s">
         <v>939</v>
@@ -19224,7 +19224,7 @@
         <v>878</v>
       </c>
       <c r="E368">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F368" t="s">
         <v>939</v>
@@ -19259,7 +19259,7 @@
         <v>878</v>
       </c>
       <c r="E369">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F369" t="s">
         <v>939</v>
@@ -19294,7 +19294,7 @@
         <v>879</v>
       </c>
       <c r="E370">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F370" t="s">
         <v>939</v>
@@ -19329,7 +19329,7 @@
         <v>879</v>
       </c>
       <c r="E371">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F371" t="s">
         <v>939</v>
@@ -19364,7 +19364,7 @@
         <v>879</v>
       </c>
       <c r="E372">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F372" t="s">
         <v>939</v>
@@ -19399,7 +19399,7 @@
         <v>879</v>
       </c>
       <c r="E373">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F373" t="s">
         <v>939</v>
@@ -19437,7 +19437,7 @@
         <v>879</v>
       </c>
       <c r="E374">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F374" t="s">
         <v>939</v>
@@ -19472,7 +19472,7 @@
         <v>879</v>
       </c>
       <c r="E375">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F375" t="s">
         <v>939</v>
@@ -19507,7 +19507,7 @@
         <v>880</v>
       </c>
       <c r="E376">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F376" t="s">
         <v>939</v>
@@ -19542,7 +19542,7 @@
         <v>881</v>
       </c>
       <c r="E377">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F377" t="s">
         <v>939</v>
@@ -19580,7 +19580,7 @@
         <v>881</v>
       </c>
       <c r="E378">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F378" t="s">
         <v>939</v>
@@ -19615,7 +19615,7 @@
         <v>881</v>
       </c>
       <c r="E379">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F379" t="s">
         <v>939</v>
@@ -19650,7 +19650,7 @@
         <v>881</v>
       </c>
       <c r="E380">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F380" t="s">
         <v>939</v>
@@ -19685,7 +19685,7 @@
         <v>881</v>
       </c>
       <c r="E381">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F381" t="s">
         <v>939</v>
@@ -19720,7 +19720,7 @@
         <v>881</v>
       </c>
       <c r="E382">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F382" t="s">
         <v>939</v>
@@ -19755,7 +19755,7 @@
         <v>881</v>
       </c>
       <c r="E383">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F383" t="s">
         <v>939</v>
@@ -19790,7 +19790,7 @@
         <v>881</v>
       </c>
       <c r="E384">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F384" t="s">
         <v>939</v>
@@ -19825,7 +19825,7 @@
         <v>881</v>
       </c>
       <c r="E385">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F385" t="s">
         <v>939</v>
@@ -19860,7 +19860,7 @@
         <v>881</v>
       </c>
       <c r="E386">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F386" t="s">
         <v>939</v>
@@ -19895,7 +19895,7 @@
         <v>881</v>
       </c>
       <c r="E387">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F387" t="s">
         <v>939</v>
@@ -19930,7 +19930,7 @@
         <v>881</v>
       </c>
       <c r="E388">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F388" t="s">
         <v>939</v>
@@ -19965,7 +19965,7 @@
         <v>881</v>
       </c>
       <c r="E389">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F389" t="s">
         <v>939</v>
@@ -20000,7 +20000,7 @@
         <v>881</v>
       </c>
       <c r="E390">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F390" t="s">
         <v>939</v>
@@ -20035,7 +20035,7 @@
         <v>882</v>
       </c>
       <c r="E391">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F391" t="s">
         <v>939</v>
@@ -20070,7 +20070,7 @@
         <v>882</v>
       </c>
       <c r="E392">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F392" t="s">
         <v>939</v>
@@ -20105,7 +20105,7 @@
         <v>882</v>
       </c>
       <c r="E393">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F393" t="s">
         <v>939</v>
@@ -20140,7 +20140,7 @@
         <v>882</v>
       </c>
       <c r="E394">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F394" t="s">
         <v>939</v>
@@ -20175,7 +20175,7 @@
         <v>882</v>
       </c>
       <c r="E395">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F395" t="s">
         <v>939</v>
@@ -20210,7 +20210,7 @@
         <v>882</v>
       </c>
       <c r="E396">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F396" t="s">
         <v>939</v>
@@ -20245,7 +20245,7 @@
         <v>882</v>
       </c>
       <c r="E397">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F397" t="s">
         <v>939</v>
@@ -20280,7 +20280,7 @@
         <v>882</v>
       </c>
       <c r="E398">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F398" t="s">
         <v>944</v>
@@ -20315,7 +20315,7 @@
         <v>882</v>
       </c>
       <c r="E399">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F399" t="s">
         <v>939</v>
@@ -20350,7 +20350,7 @@
         <v>883</v>
       </c>
       <c r="E400">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F400" t="s">
         <v>939</v>
@@ -20388,7 +20388,7 @@
         <v>884</v>
       </c>
       <c r="E401">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F401" t="s">
         <v>939</v>
@@ -20423,7 +20423,7 @@
         <v>884</v>
       </c>
       <c r="E402">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F402" t="s">
         <v>939</v>
@@ -20458,7 +20458,7 @@
         <v>885</v>
       </c>
       <c r="E403">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F403" t="s">
         <v>939</v>
@@ -20493,7 +20493,7 @@
         <v>885</v>
       </c>
       <c r="E404">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F404" t="s">
         <v>939</v>
@@ -20528,7 +20528,7 @@
         <v>885</v>
       </c>
       <c r="E405">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F405" t="s">
         <v>939</v>
@@ -20563,7 +20563,7 @@
         <v>885</v>
       </c>
       <c r="E406">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F406" t="s">
         <v>939</v>
@@ -20598,7 +20598,7 @@
         <v>885</v>
       </c>
       <c r="E407">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F407" t="s">
         <v>939</v>
@@ -20633,7 +20633,7 @@
         <v>885</v>
       </c>
       <c r="E408">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F408" t="s">
         <v>939</v>
@@ -20668,7 +20668,7 @@
         <v>886</v>
       </c>
       <c r="E409">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F409" t="s">
         <v>939</v>
@@ -20703,7 +20703,7 @@
         <v>886</v>
       </c>
       <c r="E410">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F410" t="s">
         <v>939</v>
@@ -20738,7 +20738,7 @@
         <v>886</v>
       </c>
       <c r="E411">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F411" t="s">
         <v>939</v>
@@ -20773,7 +20773,7 @@
         <v>886</v>
       </c>
       <c r="E412">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F412" t="s">
         <v>939</v>
@@ -20808,7 +20808,7 @@
         <v>886</v>
       </c>
       <c r="E413">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F413" t="s">
         <v>939</v>
@@ -20843,7 +20843,7 @@
         <v>886</v>
       </c>
       <c r="E414">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F414" t="s">
         <v>939</v>
@@ -20878,7 +20878,7 @@
         <v>887</v>
       </c>
       <c r="E415">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F415" t="s">
         <v>939</v>
@@ -20913,7 +20913,7 @@
         <v>887</v>
       </c>
       <c r="E416">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F416" t="s">
         <v>939</v>
@@ -20948,7 +20948,7 @@
         <v>887</v>
       </c>
       <c r="E417">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F417" t="s">
         <v>939</v>
@@ -20983,7 +20983,7 @@
         <v>887</v>
       </c>
       <c r="E418">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F418" t="s">
         <v>939</v>
@@ -21018,7 +21018,7 @@
         <v>887</v>
       </c>
       <c r="E419">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F419" t="s">
         <v>939</v>
@@ -21053,7 +21053,7 @@
         <v>887</v>
       </c>
       <c r="E420">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F420" t="s">
         <v>939</v>
@@ -21088,7 +21088,7 @@
         <v>888</v>
       </c>
       <c r="E421">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F421" t="s">
         <v>939</v>
@@ -21123,7 +21123,7 @@
         <v>888</v>
       </c>
       <c r="E422">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F422" t="s">
         <v>939</v>
@@ -21158,7 +21158,7 @@
         <v>889</v>
       </c>
       <c r="E423">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F423" t="s">
         <v>939</v>
@@ -21193,7 +21193,7 @@
         <v>889</v>
       </c>
       <c r="E424">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F424" t="s">
         <v>939</v>
@@ -21228,7 +21228,7 @@
         <v>889</v>
       </c>
       <c r="E425">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F425" t="s">
         <v>939</v>
@@ -21263,7 +21263,7 @@
         <v>889</v>
       </c>
       <c r="E426">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F426" t="s">
         <v>939</v>
@@ -21298,7 +21298,7 @@
         <v>889</v>
       </c>
       <c r="E427">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F427" t="s">
         <v>939</v>
@@ -21333,7 +21333,7 @@
         <v>890</v>
       </c>
       <c r="E428">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F428" t="s">
         <v>939</v>
@@ -21368,7 +21368,7 @@
         <v>890</v>
       </c>
       <c r="E429">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F429" t="s">
         <v>939</v>
@@ -21403,7 +21403,7 @@
         <v>890</v>
       </c>
       <c r="E430">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F430" t="s">
         <v>939</v>
@@ -21438,7 +21438,7 @@
         <v>890</v>
       </c>
       <c r="E431">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F431" t="s">
         <v>939</v>
@@ -21473,7 +21473,7 @@
         <v>891</v>
       </c>
       <c r="E432">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F432" t="s">
         <v>939</v>
@@ -21511,7 +21511,7 @@
         <v>892</v>
       </c>
       <c r="E433">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F433" t="s">
         <v>939</v>
@@ -21546,7 +21546,7 @@
         <v>892</v>
       </c>
       <c r="E434">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F434" t="s">
         <v>939</v>
@@ -21581,7 +21581,7 @@
         <v>893</v>
       </c>
       <c r="E435">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F435" t="s">
         <v>944</v>
@@ -21619,7 +21619,7 @@
         <v>893</v>
       </c>
       <c r="E436">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F436" t="s">
         <v>939</v>
@@ -21654,7 +21654,7 @@
         <v>893</v>
       </c>
       <c r="E437">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F437" t="s">
         <v>939</v>
@@ -21689,7 +21689,7 @@
         <v>893</v>
       </c>
       <c r="E438">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F438" t="s">
         <v>939</v>
@@ -21724,7 +21724,7 @@
         <v>893</v>
       </c>
       <c r="E439">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F439" t="s">
         <v>939</v>
@@ -21759,7 +21759,7 @@
         <v>893</v>
       </c>
       <c r="E440">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F440" t="s">
         <v>939</v>
@@ -21794,7 +21794,7 @@
         <v>894</v>
       </c>
       <c r="E441">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F441" t="s">
         <v>939</v>
@@ -21832,7 +21832,7 @@
         <v>894</v>
       </c>
       <c r="E442">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F442" t="s">
         <v>939</v>
@@ -21867,7 +21867,7 @@
         <v>895</v>
       </c>
       <c r="E443">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F443" t="s">
         <v>941</v>
@@ -21902,7 +21902,7 @@
         <v>895</v>
       </c>
       <c r="E444">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F444" t="s">
         <v>939</v>
@@ -21937,7 +21937,7 @@
         <v>896</v>
       </c>
       <c r="E445">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F445" t="s">
         <v>939</v>
@@ -21972,7 +21972,7 @@
         <v>896</v>
       </c>
       <c r="E446">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F446" t="s">
         <v>939</v>
@@ -22007,7 +22007,7 @@
         <v>897</v>
       </c>
       <c r="E447">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F447" t="s">
         <v>939</v>
@@ -22042,7 +22042,7 @@
         <v>897</v>
       </c>
       <c r="E448">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F448" t="s">
         <v>939</v>
@@ -22077,7 +22077,7 @@
         <v>897</v>
       </c>
       <c r="E449">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F449" t="s">
         <v>939</v>
@@ -22112,7 +22112,7 @@
         <v>898</v>
       </c>
       <c r="E450">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F450" t="s">
         <v>939</v>
@@ -22147,7 +22147,7 @@
         <v>898</v>
       </c>
       <c r="E451">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F451" t="s">
         <v>939</v>
@@ -22182,7 +22182,7 @@
         <v>899</v>
       </c>
       <c r="E452">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F452" t="s">
         <v>939</v>
@@ -22217,7 +22217,7 @@
         <v>899</v>
       </c>
       <c r="E453">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F453" t="s">
         <v>939</v>
@@ -22255,7 +22255,7 @@
         <v>899</v>
       </c>
       <c r="E454">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F454" t="s">
         <v>939</v>
@@ -22293,7 +22293,7 @@
         <v>899</v>
       </c>
       <c r="E455">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F455" t="s">
         <v>939</v>
@@ -22328,7 +22328,7 @@
         <v>900</v>
       </c>
       <c r="E456">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F456" t="s">
         <v>939</v>
@@ -22363,7 +22363,7 @@
         <v>900</v>
       </c>
       <c r="E457">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F457" t="s">
         <v>939</v>
@@ -22398,7 +22398,7 @@
         <v>900</v>
       </c>
       <c r="E458">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F458" t="s">
         <v>939</v>
@@ -22433,7 +22433,7 @@
         <v>901</v>
       </c>
       <c r="E459">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F459" t="s">
         <v>944</v>
@@ -22471,7 +22471,7 @@
         <v>901</v>
       </c>
       <c r="E460">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F460" t="s">
         <v>939</v>
@@ -22509,7 +22509,7 @@
         <v>901</v>
       </c>
       <c r="E461">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F461" t="s">
         <v>939</v>
@@ -22544,7 +22544,7 @@
         <v>902</v>
       </c>
       <c r="E462">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F462" t="s">
         <v>943</v>
@@ -22579,7 +22579,7 @@
         <v>902</v>
       </c>
       <c r="E463">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F463" t="s">
         <v>944</v>
@@ -22617,7 +22617,7 @@
         <v>902</v>
       </c>
       <c r="E464">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F464" t="s">
         <v>939</v>
@@ -22652,7 +22652,7 @@
         <v>902</v>
       </c>
       <c r="E465">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F465" t="s">
         <v>944</v>
@@ -22687,7 +22687,7 @@
         <v>903</v>
       </c>
       <c r="E466">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F466" t="s">
         <v>939</v>
@@ -22722,7 +22722,7 @@
         <v>903</v>
       </c>
       <c r="E467">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F467" t="s">
         <v>939</v>
@@ -22757,7 +22757,7 @@
         <v>903</v>
       </c>
       <c r="E468">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F468" t="s">
         <v>939</v>
@@ -22792,7 +22792,7 @@
         <v>903</v>
       </c>
       <c r="E469">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F469" t="s">
         <v>939</v>
@@ -22827,7 +22827,7 @@
         <v>903</v>
       </c>
       <c r="E470">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F470" t="s">
         <v>939</v>
@@ -22862,7 +22862,7 @@
         <v>904</v>
       </c>
       <c r="E471">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F471" t="s">
         <v>939</v>
@@ -22897,7 +22897,7 @@
         <v>904</v>
       </c>
       <c r="E472">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F472" t="s">
         <v>939</v>
@@ -22932,7 +22932,7 @@
         <v>904</v>
       </c>
       <c r="E473">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F473" t="s">
         <v>939</v>
@@ -22967,7 +22967,7 @@
         <v>904</v>
       </c>
       <c r="E474">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F474" t="s">
         <v>939</v>
@@ -23002,7 +23002,7 @@
         <v>904</v>
       </c>
       <c r="E475">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F475" t="s">
         <v>939</v>
@@ -23037,7 +23037,7 @@
         <v>904</v>
       </c>
       <c r="E476">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F476" t="s">
         <v>939</v>
@@ -23072,7 +23072,7 @@
         <v>904</v>
       </c>
       <c r="E477">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F477" t="s">
         <v>939</v>
@@ -23107,7 +23107,7 @@
         <v>905</v>
       </c>
       <c r="E478">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F478" t="s">
         <v>939</v>
@@ -23142,7 +23142,7 @@
         <v>906</v>
       </c>
       <c r="E479">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F479" t="s">
         <v>939</v>
@@ -23177,7 +23177,7 @@
         <v>906</v>
       </c>
       <c r="E480">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F480" t="s">
         <v>939</v>
@@ -23212,7 +23212,7 @@
         <v>906</v>
       </c>
       <c r="E481">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F481" t="s">
         <v>939</v>
@@ -23247,7 +23247,7 @@
         <v>906</v>
       </c>
       <c r="E482">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F482" t="s">
         <v>939</v>
@@ -23282,7 +23282,7 @@
         <v>906</v>
       </c>
       <c r="E483">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F483" t="s">
         <v>939</v>
@@ -23317,7 +23317,7 @@
         <v>907</v>
       </c>
       <c r="E484">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F484" t="s">
         <v>939</v>
@@ -23352,7 +23352,7 @@
         <v>907</v>
       </c>
       <c r="E485">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F485" t="s">
         <v>939</v>
@@ -23390,7 +23390,7 @@
         <v>908</v>
       </c>
       <c r="E486">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F486" t="s">
         <v>939</v>
@@ -23425,7 +23425,7 @@
         <v>908</v>
       </c>
       <c r="E487">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F487" t="s">
         <v>939</v>
@@ -23460,7 +23460,7 @@
         <v>908</v>
       </c>
       <c r="E488">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F488" t="s">
         <v>939</v>
@@ -23495,7 +23495,7 @@
         <v>908</v>
       </c>
       <c r="E489">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F489" t="s">
         <v>939</v>
@@ -23530,7 +23530,7 @@
         <v>908</v>
       </c>
       <c r="E490">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F490" t="s">
         <v>939</v>
@@ -23565,7 +23565,7 @@
         <v>909</v>
       </c>
       <c r="E491">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F491" t="s">
         <v>939</v>
@@ -23600,7 +23600,7 @@
         <v>909</v>
       </c>
       <c r="E492">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F492" t="s">
         <v>939</v>
@@ -23635,7 +23635,7 @@
         <v>909</v>
       </c>
       <c r="E493">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F493" t="s">
         <v>939</v>
@@ -23670,7 +23670,7 @@
         <v>909</v>
       </c>
       <c r="E494">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F494" t="s">
         <v>939</v>
@@ -23705,7 +23705,7 @@
         <v>909</v>
       </c>
       <c r="E495">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F495" t="s">
         <v>939</v>
@@ -23740,7 +23740,7 @@
         <v>909</v>
       </c>
       <c r="E496">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F496" t="s">
         <v>939</v>
@@ -23775,7 +23775,7 @@
         <v>909</v>
       </c>
       <c r="E497">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F497" t="s">
         <v>944</v>
@@ -23813,7 +23813,7 @@
         <v>910</v>
       </c>
       <c r="E498">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F498" t="s">
         <v>939</v>
@@ -23851,7 +23851,7 @@
         <v>910</v>
       </c>
       <c r="E499">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F499" t="s">
         <v>939</v>
@@ -23886,7 +23886,7 @@
         <v>910</v>
       </c>
       <c r="E500">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F500" t="s">
         <v>939</v>
@@ -23921,7 +23921,7 @@
         <v>910</v>
       </c>
       <c r="E501">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F501" t="s">
         <v>939</v>
@@ -23956,7 +23956,7 @@
         <v>910</v>
       </c>
       <c r="E502">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F502" t="s">
         <v>939</v>
@@ -23994,7 +23994,7 @@
         <v>911</v>
       </c>
       <c r="E503">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F503" t="s">
         <v>939</v>
@@ -24029,7 +24029,7 @@
         <v>911</v>
       </c>
       <c r="E504">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F504" t="s">
         <v>939</v>
@@ -24064,7 +24064,7 @@
         <v>912</v>
       </c>
       <c r="E505">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F505" t="s">
         <v>939</v>
@@ -24102,7 +24102,7 @@
         <v>912</v>
       </c>
       <c r="E506">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F506" t="s">
         <v>939</v>
@@ -24137,7 +24137,7 @@
         <v>912</v>
       </c>
       <c r="E507">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F507" t="s">
         <v>939</v>
@@ -24172,7 +24172,7 @@
         <v>912</v>
       </c>
       <c r="E508">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F508" t="s">
         <v>939</v>
@@ -24207,7 +24207,7 @@
         <v>912</v>
       </c>
       <c r="E509">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F509" t="s">
         <v>939</v>
@@ -24242,7 +24242,7 @@
         <v>913</v>
       </c>
       <c r="E510">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F510" t="s">
         <v>939</v>
@@ -24277,7 +24277,7 @@
         <v>913</v>
       </c>
       <c r="E511">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F511" t="s">
         <v>939</v>
@@ -24312,7 +24312,7 @@
         <v>914</v>
       </c>
       <c r="E512">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F512" t="s">
         <v>939</v>
@@ -24347,7 +24347,7 @@
         <v>914</v>
       </c>
       <c r="E513">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F513" t="s">
         <v>939</v>
@@ -24382,7 +24382,7 @@
         <v>914</v>
       </c>
       <c r="E514">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F514" t="s">
         <v>939</v>
@@ -24417,7 +24417,7 @@
         <v>914</v>
       </c>
       <c r="E515">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F515" t="s">
         <v>939</v>
@@ -24452,7 +24452,7 @@
         <v>914</v>
       </c>
       <c r="E516">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F516" t="s">
         <v>939</v>
@@ -24487,7 +24487,7 @@
         <v>915</v>
       </c>
       <c r="E517">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F517" t="s">
         <v>939</v>
@@ -24522,7 +24522,7 @@
         <v>915</v>
       </c>
       <c r="E518">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F518" t="s">
         <v>939</v>
@@ -24557,7 +24557,7 @@
         <v>915</v>
       </c>
       <c r="E519">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F519" t="s">
         <v>939</v>
@@ -24592,7 +24592,7 @@
         <v>916</v>
       </c>
       <c r="E520">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F520" t="s">
         <v>939</v>
@@ -24627,7 +24627,7 @@
         <v>916</v>
       </c>
       <c r="E521">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F521" t="s">
         <v>939</v>
@@ -24662,7 +24662,7 @@
         <v>916</v>
       </c>
       <c r="E522">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F522" t="s">
         <v>939</v>
@@ -24697,7 +24697,7 @@
         <v>916</v>
       </c>
       <c r="E523">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F523" t="s">
         <v>939</v>
@@ -24732,7 +24732,7 @@
         <v>916</v>
       </c>
       <c r="E524">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F524" t="s">
         <v>939</v>
@@ -24767,7 +24767,7 @@
         <v>916</v>
       </c>
       <c r="E525">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F525" t="s">
         <v>944</v>
@@ -24805,7 +24805,7 @@
         <v>916</v>
       </c>
       <c r="E526">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F526" t="s">
         <v>939</v>
@@ -24840,7 +24840,7 @@
         <v>916</v>
       </c>
       <c r="E527">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F527" t="s">
         <v>939</v>
@@ -24875,7 +24875,7 @@
         <v>916</v>
       </c>
       <c r="E528">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F528" t="s">
         <v>939</v>
@@ -24910,7 +24910,7 @@
         <v>917</v>
       </c>
       <c r="E529">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F529" t="s">
         <v>939</v>
@@ -24945,7 +24945,7 @@
         <v>917</v>
       </c>
       <c r="E530">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F530" t="s">
         <v>939</v>
@@ -24980,7 +24980,7 @@
         <v>917</v>
       </c>
       <c r="E531">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F531" t="s">
         <v>939</v>
@@ -25015,7 +25015,7 @@
         <v>917</v>
       </c>
       <c r="E532">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F532" t="s">
         <v>939</v>
@@ -25050,7 +25050,7 @@
         <v>917</v>
       </c>
       <c r="E533">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F533" t="s">
         <v>939</v>
@@ -25085,7 +25085,7 @@
         <v>917</v>
       </c>
       <c r="E534">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F534" t="s">
         <v>939</v>
@@ -25120,7 +25120,7 @@
         <v>917</v>
       </c>
       <c r="E535">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F535" t="s">
         <v>939</v>
@@ -25155,7 +25155,7 @@
         <v>917</v>
       </c>
       <c r="E536">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F536" t="s">
         <v>939</v>
@@ -25190,7 +25190,7 @@
         <v>917</v>
       </c>
       <c r="E537">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F537" t="s">
         <v>939</v>
@@ -25225,7 +25225,7 @@
         <v>917</v>
       </c>
       <c r="E538">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F538" t="s">
         <v>939</v>
@@ -25260,7 +25260,7 @@
         <v>917</v>
       </c>
       <c r="E539">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F539" t="s">
         <v>939</v>
@@ -25295,7 +25295,7 @@
         <v>917</v>
       </c>
       <c r="E540">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F540" t="s">
         <v>939</v>
@@ -25330,7 +25330,7 @@
         <v>917</v>
       </c>
       <c r="E541">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F541" t="s">
         <v>939</v>
@@ -25365,7 +25365,7 @@
         <v>917</v>
       </c>
       <c r="E542">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F542" t="s">
         <v>939</v>
@@ -25400,7 +25400,7 @@
         <v>917</v>
       </c>
       <c r="E543">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F543" t="s">
         <v>939</v>
@@ -25435,7 +25435,7 @@
         <v>917</v>
       </c>
       <c r="E544">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F544" t="s">
         <v>939</v>
@@ -25470,7 +25470,7 @@
         <v>917</v>
       </c>
       <c r="E545">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F545" t="s">
         <v>939</v>
@@ -25505,7 +25505,7 @@
         <v>917</v>
       </c>
       <c r="E546">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F546" t="s">
         <v>939</v>
@@ -25540,7 +25540,7 @@
         <v>918</v>
       </c>
       <c r="E547">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F547" t="s">
         <v>939</v>
@@ -25575,7 +25575,7 @@
         <v>918</v>
       </c>
       <c r="E548">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F548" t="s">
         <v>939</v>
@@ -25610,7 +25610,7 @@
         <v>919</v>
       </c>
       <c r="E549">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F549" t="s">
         <v>939</v>
@@ -25645,7 +25645,7 @@
         <v>920</v>
       </c>
       <c r="E550">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F550" t="s">
         <v>939</v>
@@ -25680,7 +25680,7 @@
         <v>920</v>
       </c>
       <c r="E551">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F551" t="s">
         <v>939</v>
@@ -25715,7 +25715,7 @@
         <v>920</v>
       </c>
       <c r="E552">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F552" t="s">
         <v>944</v>
@@ -25753,7 +25753,7 @@
         <v>920</v>
       </c>
       <c r="E553">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F553" t="s">
         <v>939</v>
@@ -25788,7 +25788,7 @@
         <v>920</v>
       </c>
       <c r="E554">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F554" t="s">
         <v>944</v>
@@ -25826,7 +25826,7 @@
         <v>921</v>
       </c>
       <c r="E555">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F555" t="s">
         <v>939</v>
@@ -25861,7 +25861,7 @@
         <v>921</v>
       </c>
       <c r="E556">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F556" t="s">
         <v>939</v>
@@ -25896,7 +25896,7 @@
         <v>922</v>
       </c>
       <c r="E557">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F557" t="s">
         <v>939</v>
@@ -25934,7 +25934,7 @@
         <v>922</v>
       </c>
       <c r="E558">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F558" t="s">
         <v>939</v>
@@ -25969,7 +25969,7 @@
         <v>922</v>
       </c>
       <c r="E559">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F559" t="s">
         <v>939</v>
@@ -26007,7 +26007,7 @@
         <v>922</v>
       </c>
       <c r="E560">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F560" t="s">
         <v>939</v>
@@ -26042,7 +26042,7 @@
         <v>923</v>
       </c>
       <c r="E561">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F561" t="s">
         <v>939</v>
@@ -26077,7 +26077,7 @@
         <v>923</v>
       </c>
       <c r="E562">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F562" t="s">
         <v>939</v>
@@ -26112,7 +26112,7 @@
         <v>923</v>
       </c>
       <c r="E563">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F563" t="s">
         <v>939</v>
@@ -26147,7 +26147,7 @@
         <v>923</v>
       </c>
       <c r="E564">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F564" t="s">
         <v>939</v>
@@ -26182,7 +26182,7 @@
         <v>923</v>
       </c>
       <c r="E565">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F565" t="s">
         <v>944</v>
@@ -26220,7 +26220,7 @@
         <v>923</v>
       </c>
       <c r="E566">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F566" t="s">
         <v>939</v>
@@ -26255,7 +26255,7 @@
         <v>923</v>
       </c>
       <c r="E567">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F567" t="s">
         <v>939</v>
@@ -26290,7 +26290,7 @@
         <v>923</v>
       </c>
       <c r="E568">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F568" t="s">
         <v>939</v>
@@ -26325,7 +26325,7 @@
         <v>924</v>
       </c>
       <c r="E569">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F569" t="s">
         <v>939</v>
@@ -26360,7 +26360,7 @@
         <v>924</v>
       </c>
       <c r="E570">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F570" t="s">
         <v>944</v>
@@ -26395,7 +26395,7 @@
         <v>924</v>
       </c>
       <c r="E571">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F571" t="s">
         <v>939</v>
@@ -26433,7 +26433,7 @@
         <v>924</v>
       </c>
       <c r="E572">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F572" t="s">
         <v>939</v>
@@ -26468,7 +26468,7 @@
         <v>925</v>
       </c>
       <c r="E573">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F573" t="s">
         <v>939</v>
@@ -26503,7 +26503,7 @@
         <v>925</v>
       </c>
       <c r="E574">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F574" t="s">
         <v>939</v>
@@ -26538,7 +26538,7 @@
         <v>926</v>
       </c>
       <c r="E575">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F575" t="s">
         <v>939</v>
@@ -26573,7 +26573,7 @@
         <v>926</v>
       </c>
       <c r="E576">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F576" t="s">
         <v>939</v>
@@ -26608,7 +26608,7 @@
         <v>926</v>
       </c>
       <c r="E577">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F577" t="s">
         <v>939</v>
@@ -26643,7 +26643,7 @@
         <v>926</v>
       </c>
       <c r="E578">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F578" t="s">
         <v>939</v>
@@ -26678,7 +26678,7 @@
         <v>927</v>
       </c>
       <c r="E579">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F579" t="s">
         <v>944</v>
@@ -26716,7 +26716,7 @@
         <v>927</v>
       </c>
       <c r="E580">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F580" t="s">
         <v>939</v>
@@ -26751,7 +26751,7 @@
         <v>928</v>
       </c>
       <c r="E581">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F581" t="s">
         <v>939</v>
@@ -26786,7 +26786,7 @@
         <v>929</v>
       </c>
       <c r="E582">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F582" t="s">
         <v>939</v>
@@ -26821,7 +26821,7 @@
         <v>929</v>
       </c>
       <c r="E583">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F583" t="s">
         <v>939</v>
@@ -26859,7 +26859,7 @@
         <v>929</v>
       </c>
       <c r="E584">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F584" t="s">
         <v>939</v>
@@ -26894,7 +26894,7 @@
         <v>929</v>
       </c>
       <c r="E585">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F585" t="s">
         <v>939</v>
@@ -26929,7 +26929,7 @@
         <v>929</v>
       </c>
       <c r="E586">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F586" t="s">
         <v>939</v>
@@ -26964,7 +26964,7 @@
         <v>929</v>
       </c>
       <c r="E587">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F587" t="s">
         <v>939</v>
@@ -26999,7 +26999,7 @@
         <v>929</v>
       </c>
       <c r="E588">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F588" t="s">
         <v>939</v>
@@ -27034,7 +27034,7 @@
         <v>929</v>
       </c>
       <c r="E589">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F589" t="s">
         <v>944</v>
@@ -27069,7 +27069,7 @@
         <v>929</v>
       </c>
       <c r="E590">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F590" t="s">
         <v>944</v>
@@ -27104,7 +27104,7 @@
         <v>929</v>
       </c>
       <c r="E591">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F591" t="s">
         <v>939</v>
@@ -27139,7 +27139,7 @@
         <v>930</v>
       </c>
       <c r="E592">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F592" t="s">
         <v>939</v>
@@ -27174,7 +27174,7 @@
         <v>930</v>
       </c>
       <c r="E593">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F593" t="s">
         <v>939</v>
@@ -27209,7 +27209,7 @@
         <v>930</v>
       </c>
       <c r="E594">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F594" t="s">
         <v>939</v>
@@ -27244,7 +27244,7 @@
         <v>930</v>
       </c>
       <c r="E595">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F595" t="s">
         <v>939</v>
@@ -27279,7 +27279,7 @@
         <v>930</v>
       </c>
       <c r="E596">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F596" t="s">
         <v>939</v>
@@ -27314,7 +27314,7 @@
         <v>930</v>
       </c>
       <c r="E597">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F597" t="s">
         <v>939</v>
@@ -27349,7 +27349,7 @@
         <v>930</v>
       </c>
       <c r="E598">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F598" t="s">
         <v>939</v>
@@ -27384,7 +27384,7 @@
         <v>930</v>
       </c>
       <c r="E599">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F599" t="s">
         <v>939</v>
@@ -27419,7 +27419,7 @@
         <v>931</v>
       </c>
       <c r="E600">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F600" t="s">
         <v>939</v>
@@ -27454,7 +27454,7 @@
         <v>931</v>
       </c>
       <c r="E601">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F601" t="s">
         <v>939</v>
@@ -27489,7 +27489,7 @@
         <v>931</v>
       </c>
       <c r="E602">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F602" t="s">
         <v>939</v>
@@ -27524,7 +27524,7 @@
         <v>931</v>
       </c>
       <c r="E603">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F603" t="s">
         <v>939</v>
@@ -27559,7 +27559,7 @@
         <v>931</v>
       </c>
       <c r="E604">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F604" t="s">
         <v>939</v>
@@ -27594,7 +27594,7 @@
         <v>931</v>
       </c>
       <c r="E605">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F605" t="s">
         <v>944</v>
@@ -27629,7 +27629,7 @@
         <v>931</v>
       </c>
       <c r="E606">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F606" t="s">
         <v>939</v>
@@ -27664,7 +27664,7 @@
         <v>931</v>
       </c>
       <c r="E607">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F607" t="s">
         <v>944</v>
@@ -27702,7 +27702,7 @@
         <v>931</v>
       </c>
       <c r="E608">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F608" t="s">
         <v>939</v>
@@ -27737,7 +27737,7 @@
         <v>932</v>
       </c>
       <c r="E609">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F609" t="s">
         <v>939</v>
@@ -27772,7 +27772,7 @@
         <v>932</v>
       </c>
       <c r="E610">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F610" t="s">
         <v>939</v>
@@ -27807,7 +27807,7 @@
         <v>932</v>
       </c>
       <c r="E611">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F611" t="s">
         <v>939</v>
@@ -27842,7 +27842,7 @@
         <v>932</v>
       </c>
       <c r="E612">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F612" t="s">
         <v>939</v>
@@ -27877,7 +27877,7 @@
         <v>932</v>
       </c>
       <c r="E613">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F613" t="s">
         <v>944</v>
@@ -27915,7 +27915,7 @@
         <v>932</v>
       </c>
       <c r="E614">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F614" t="s">
         <v>939</v>
@@ -27950,7 +27950,7 @@
         <v>932</v>
       </c>
       <c r="E615">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F615" t="s">
         <v>939</v>
@@ -27985,7 +27985,7 @@
         <v>932</v>
       </c>
       <c r="E616">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F616" t="s">
         <v>939</v>
@@ -28020,7 +28020,7 @@
         <v>932</v>
       </c>
       <c r="E617">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F617" t="s">
         <v>939</v>
@@ -28055,7 +28055,7 @@
         <v>932</v>
       </c>
       <c r="E618">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F618" t="s">
         <v>939</v>
@@ -28090,7 +28090,7 @@
         <v>932</v>
       </c>
       <c r="E619">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F619" t="s">
         <v>944</v>
@@ -28128,7 +28128,7 @@
         <v>932</v>
       </c>
       <c r="E620">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F620" t="s">
         <v>939</v>
@@ -28163,7 +28163,7 @@
         <v>932</v>
       </c>
       <c r="E621">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F621" t="s">
         <v>944</v>
@@ -28201,7 +28201,7 @@
         <v>932</v>
       </c>
       <c r="E622">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F622" t="s">
         <v>939</v>
@@ -28236,7 +28236,7 @@
         <v>932</v>
       </c>
       <c r="E623">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F623" t="s">
         <v>939</v>
@@ -28271,7 +28271,7 @@
         <v>932</v>
       </c>
       <c r="E624">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F624" t="s">
         <v>939</v>
@@ -28306,7 +28306,7 @@
         <v>933</v>
       </c>
       <c r="E625">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F625" t="s">
         <v>939</v>
@@ -28341,7 +28341,7 @@
         <v>933</v>
       </c>
       <c r="E626">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F626" t="s">
         <v>939</v>
@@ -28376,7 +28376,7 @@
         <v>933</v>
       </c>
       <c r="E627">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F627" t="s">
         <v>939</v>
@@ -28411,7 +28411,7 @@
         <v>933</v>
       </c>
       <c r="E628">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F628" t="s">
         <v>944</v>
@@ -28449,7 +28449,7 @@
         <v>933</v>
       </c>
       <c r="E629">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F629" t="s">
         <v>944</v>
@@ -28487,7 +28487,7 @@
         <v>933</v>
       </c>
       <c r="E630">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F630" t="s">
         <v>939</v>
@@ -28522,7 +28522,7 @@
         <v>933</v>
       </c>
       <c r="E631">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F631" t="s">
         <v>939</v>
@@ -28557,7 +28557,7 @@
         <v>933</v>
       </c>
       <c r="E632">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F632" t="s">
         <v>939</v>
@@ -28592,7 +28592,7 @@
         <v>933</v>
       </c>
       <c r="E633">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F633" t="s">
         <v>939</v>
@@ -28627,7 +28627,7 @@
         <v>933</v>
       </c>
       <c r="E634">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F634" t="s">
         <v>939</v>
@@ -28662,7 +28662,7 @@
         <v>933</v>
       </c>
       <c r="E635">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F635" t="s">
         <v>939</v>
@@ -28697,7 +28697,7 @@
         <v>934</v>
       </c>
       <c r="E636">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F636" t="s">
         <v>944</v>
@@ -28732,7 +28732,7 @@
         <v>934</v>
       </c>
       <c r="E637">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F637" t="s">
         <v>939</v>
@@ -28770,7 +28770,7 @@
         <v>934</v>
       </c>
       <c r="E638">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F638" t="s">
         <v>939</v>
@@ -28805,7 +28805,7 @@
         <v>934</v>
       </c>
       <c r="E639">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F639" t="s">
         <v>939</v>
@@ -28840,7 +28840,7 @@
         <v>934</v>
       </c>
       <c r="E640">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F640" t="s">
         <v>939</v>
@@ -28875,7 +28875,7 @@
         <v>935</v>
       </c>
       <c r="E641">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F641" t="s">
         <v>939</v>
@@ -28910,7 +28910,7 @@
         <v>935</v>
       </c>
       <c r="E642">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F642" t="s">
         <v>939</v>
@@ -28948,7 +28948,7 @@
         <v>935</v>
       </c>
       <c r="E643">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F643" t="s">
         <v>939</v>
@@ -28983,7 +28983,7 @@
         <v>935</v>
       </c>
       <c r="E644">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F644" t="s">
         <v>939</v>
@@ -29018,7 +29018,7 @@
         <v>935</v>
       </c>
       <c r="E645">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F645" t="s">
         <v>939</v>
@@ -29053,7 +29053,7 @@
         <v>936</v>
       </c>
       <c r="E646">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F646" t="s">
         <v>939</v>
@@ -29088,7 +29088,7 @@
         <v>936</v>
       </c>
       <c r="E647">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F647" t="s">
         <v>939</v>
@@ -29123,7 +29123,7 @@
         <v>936</v>
       </c>
       <c r="E648">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F648" t="s">
         <v>944</v>
@@ -29161,7 +29161,7 @@
         <v>936</v>
       </c>
       <c r="E649">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F649" t="s">
         <v>944</v>
@@ -29199,7 +29199,7 @@
         <v>936</v>
       </c>
       <c r="E650">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F650" t="s">
         <v>939</v>
@@ -29234,7 +29234,7 @@
         <v>937</v>
       </c>
       <c r="E651">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F651" t="s">
         <v>939</v>
@@ -29269,7 +29269,7 @@
         <v>937</v>
       </c>
       <c r="E652">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F652" t="s">
         <v>939</v>
@@ -29307,7 +29307,7 @@
         <v>937</v>
       </c>
       <c r="E653">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F653" t="s">
         <v>939</v>
@@ -29342,7 +29342,7 @@
         <v>937</v>
       </c>
       <c r="E654">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F654" t="s">
         <v>939</v>
@@ -29377,7 +29377,7 @@
         <v>937</v>
       </c>
       <c r="E655">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F655" t="s">
         <v>939</v>
@@ -29415,7 +29415,7 @@
         <v>937</v>
       </c>
       <c r="E656">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F656" t="s">
         <v>939</v>
@@ -29453,7 +29453,7 @@
         <v>937</v>
       </c>
       <c r="E657">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F657" t="s">
         <v>939</v>
@@ -29491,7 +29491,7 @@
         <v>937</v>
       </c>
       <c r="E658">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F658" t="s">
         <v>939</v>
@@ -29526,7 +29526,7 @@
         <v>937</v>
       </c>
       <c r="E659">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F659" t="s">
         <v>939</v>
@@ -29561,7 +29561,7 @@
         <v>938</v>
       </c>
       <c r="E660">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F660" t="s">
         <v>939</v>
@@ -29596,7 +29596,7 @@
         <v>938</v>
       </c>
       <c r="E661">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F661" t="s">
         <v>939</v>
@@ -29631,7 +29631,7 @@
         <v>938</v>
       </c>
       <c r="E662">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F662" t="s">
         <v>939</v>
@@ -29666,7 +29666,7 @@
         <v>938</v>
       </c>
       <c r="E663">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F663" t="s">
         <v>939</v>
@@ -29704,7 +29704,7 @@
         <v>938</v>
       </c>
       <c r="E664">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F664" t="s">
         <v>939</v>
@@ -29742,7 +29742,7 @@
         <v>938</v>
       </c>
       <c r="E665">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F665" t="s">
         <v>939</v>
@@ -29780,7 +29780,7 @@
         <v>938</v>
       </c>
       <c r="E666">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F666" t="s">
         <v>939</v>
@@ -29818,7 +29818,7 @@
         <v>938</v>
       </c>
       <c r="E667">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F667" t="s">
         <v>939</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6471,7 +6471,7 @@
         <v>726</v>
       </c>
       <c r="E2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F2" t="s">
         <v>963</v>
@@ -6506,7 +6506,7 @@
         <v>727</v>
       </c>
       <c r="E3">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F3" t="s">
         <v>964</v>
@@ -6541,7 +6541,7 @@
         <v>728</v>
       </c>
       <c r="E4">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F4" t="s">
         <v>964</v>
@@ -6576,7 +6576,7 @@
         <v>729</v>
       </c>
       <c r="E5">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F5" t="s">
         <v>964</v>
@@ -6611,7 +6611,7 @@
         <v>730</v>
       </c>
       <c r="E6">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F6" t="s">
         <v>964</v>
@@ -6646,7 +6646,7 @@
         <v>731</v>
       </c>
       <c r="E7">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F7" t="s">
         <v>964</v>
@@ -6681,7 +6681,7 @@
         <v>732</v>
       </c>
       <c r="E8">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F8" t="s">
         <v>964</v>
@@ -6719,7 +6719,7 @@
         <v>733</v>
       </c>
       <c r="E9">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F9" t="s">
         <v>964</v>
@@ -6754,7 +6754,7 @@
         <v>734</v>
       </c>
       <c r="E10">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F10" t="s">
         <v>964</v>
@@ -6792,7 +6792,7 @@
         <v>735</v>
       </c>
       <c r="E11">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F11" t="s">
         <v>964</v>
@@ -6827,7 +6827,7 @@
         <v>736</v>
       </c>
       <c r="E12">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F12" t="s">
         <v>964</v>
@@ -6862,7 +6862,7 @@
         <v>737</v>
       </c>
       <c r="E13">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F13" t="s">
         <v>964</v>
@@ -6897,7 +6897,7 @@
         <v>738</v>
       </c>
       <c r="E14">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F14" t="s">
         <v>964</v>
@@ -6932,7 +6932,7 @@
         <v>739</v>
       </c>
       <c r="E15">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F15" t="s">
         <v>964</v>
@@ -6970,7 +6970,7 @@
         <v>740</v>
       </c>
       <c r="E16">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
         <v>964</v>
@@ -7008,7 +7008,7 @@
         <v>741</v>
       </c>
       <c r="E17">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F17" t="s">
         <v>964</v>
@@ -7046,7 +7046,7 @@
         <v>742</v>
       </c>
       <c r="E18">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F18" t="s">
         <v>964</v>
@@ -7081,7 +7081,7 @@
         <v>743</v>
       </c>
       <c r="E19">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F19" t="s">
         <v>964</v>
@@ -7116,7 +7116,7 @@
         <v>744</v>
       </c>
       <c r="E20">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F20" t="s">
         <v>964</v>
@@ -7151,7 +7151,7 @@
         <v>745</v>
       </c>
       <c r="E21">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F21" t="s">
         <v>964</v>
@@ -7186,7 +7186,7 @@
         <v>746</v>
       </c>
       <c r="E22">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
         <v>964</v>
@@ -7221,7 +7221,7 @@
         <v>747</v>
       </c>
       <c r="E23">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F23" t="s">
         <v>964</v>
@@ -7256,7 +7256,7 @@
         <v>747</v>
       </c>
       <c r="E24">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F24" t="s">
         <v>965</v>
@@ -7291,7 +7291,7 @@
         <v>748</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
         <v>964</v>
@@ -7326,7 +7326,7 @@
         <v>749</v>
       </c>
       <c r="E26">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
         <v>964</v>
@@ -7361,7 +7361,7 @@
         <v>750</v>
       </c>
       <c r="E27">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F27" t="s">
         <v>964</v>
@@ -7396,7 +7396,7 @@
         <v>750</v>
       </c>
       <c r="E28">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F28" t="s">
         <v>964</v>
@@ -7431,7 +7431,7 @@
         <v>751</v>
       </c>
       <c r="E29">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F29" t="s">
         <v>964</v>
@@ -7469,7 +7469,7 @@
         <v>752</v>
       </c>
       <c r="E30">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F30" t="s">
         <v>964</v>
@@ -7504,7 +7504,7 @@
         <v>752</v>
       </c>
       <c r="E31">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F31" t="s">
         <v>964</v>
@@ -7539,7 +7539,7 @@
         <v>753</v>
       </c>
       <c r="E32">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F32" t="s">
         <v>964</v>
@@ -7577,7 +7577,7 @@
         <v>753</v>
       </c>
       <c r="E33">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F33" t="s">
         <v>964</v>
@@ -7615,7 +7615,7 @@
         <v>754</v>
       </c>
       <c r="E34">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F34" t="s">
         <v>964</v>
@@ -7650,7 +7650,7 @@
         <v>755</v>
       </c>
       <c r="E35">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F35" t="s">
         <v>964</v>
@@ -7685,7 +7685,7 @@
         <v>756</v>
       </c>
       <c r="E36">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F36" t="s">
         <v>964</v>
@@ -7720,7 +7720,7 @@
         <v>756</v>
       </c>
       <c r="E37">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F37" t="s">
         <v>964</v>
@@ -7755,7 +7755,7 @@
         <v>757</v>
       </c>
       <c r="E38">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F38" t="s">
         <v>964</v>
@@ -7790,7 +7790,7 @@
         <v>758</v>
       </c>
       <c r="E39">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F39" t="s">
         <v>964</v>
@@ -7825,7 +7825,7 @@
         <v>759</v>
       </c>
       <c r="E40">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F40" t="s">
         <v>964</v>
@@ -7860,7 +7860,7 @@
         <v>760</v>
       </c>
       <c r="E41">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
         <v>964</v>
@@ -7895,7 +7895,7 @@
         <v>760</v>
       </c>
       <c r="E42">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F42" t="s">
         <v>964</v>
@@ -7930,7 +7930,7 @@
         <v>761</v>
       </c>
       <c r="E43">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F43" t="s">
         <v>964</v>
@@ -7965,7 +7965,7 @@
         <v>762</v>
       </c>
       <c r="E44">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F44" t="s">
         <v>964</v>
@@ -8000,7 +8000,7 @@
         <v>763</v>
       </c>
       <c r="E45">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F45" t="s">
         <v>964</v>
@@ -8035,7 +8035,7 @@
         <v>764</v>
       </c>
       <c r="E46">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F46" t="s">
         <v>964</v>
@@ -8070,7 +8070,7 @@
         <v>764</v>
       </c>
       <c r="E47">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F47" t="s">
         <v>964</v>
@@ -8105,7 +8105,7 @@
         <v>765</v>
       </c>
       <c r="E48">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F48" t="s">
         <v>964</v>
@@ -8140,7 +8140,7 @@
         <v>766</v>
       </c>
       <c r="E49">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F49" t="s">
         <v>964</v>
@@ -8175,7 +8175,7 @@
         <v>766</v>
       </c>
       <c r="E50">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F50" t="s">
         <v>964</v>
@@ -8210,7 +8210,7 @@
         <v>767</v>
       </c>
       <c r="E51">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F51" t="s">
         <v>964</v>
@@ -8245,7 +8245,7 @@
         <v>768</v>
       </c>
       <c r="E52">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F52" t="s">
         <v>964</v>
@@ -8283,7 +8283,7 @@
         <v>769</v>
       </c>
       <c r="E53">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F53" t="s">
         <v>964</v>
@@ -8318,7 +8318,7 @@
         <v>770</v>
       </c>
       <c r="E54">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F54" t="s">
         <v>964</v>
@@ -8356,7 +8356,7 @@
         <v>771</v>
       </c>
       <c r="E55">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F55" t="s">
         <v>964</v>
@@ -8391,7 +8391,7 @@
         <v>772</v>
       </c>
       <c r="E56">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F56" t="s">
         <v>964</v>
@@ -8426,7 +8426,7 @@
         <v>773</v>
       </c>
       <c r="E57">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F57" t="s">
         <v>964</v>
@@ -8461,7 +8461,7 @@
         <v>774</v>
       </c>
       <c r="E58">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
         <v>964</v>
@@ -8496,7 +8496,7 @@
         <v>775</v>
       </c>
       <c r="E59">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F59" t="s">
         <v>964</v>
@@ -8534,7 +8534,7 @@
         <v>776</v>
       </c>
       <c r="E60">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F60" t="s">
         <v>964</v>
@@ -8569,7 +8569,7 @@
         <v>777</v>
       </c>
       <c r="E61">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F61" t="s">
         <v>966</v>
@@ -8604,7 +8604,7 @@
         <v>778</v>
       </c>
       <c r="E62">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F62" t="s">
         <v>966</v>
@@ -8639,7 +8639,7 @@
         <v>779</v>
       </c>
       <c r="E63">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F63" t="s">
         <v>966</v>
@@ -8674,7 +8674,7 @@
         <v>780</v>
       </c>
       <c r="E64">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s">
         <v>966</v>
@@ -8712,7 +8712,7 @@
         <v>781</v>
       </c>
       <c r="E65">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F65" t="s">
         <v>966</v>
@@ -8747,7 +8747,7 @@
         <v>782</v>
       </c>
       <c r="E66">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F66" t="s">
         <v>964</v>
@@ -8782,7 +8782,7 @@
         <v>783</v>
       </c>
       <c r="E67">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F67" t="s">
         <v>966</v>
@@ -8817,7 +8817,7 @@
         <v>784</v>
       </c>
       <c r="E68">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
         <v>966</v>
@@ -8852,7 +8852,7 @@
         <v>785</v>
       </c>
       <c r="E69">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
         <v>966</v>
@@ -8887,7 +8887,7 @@
         <v>786</v>
       </c>
       <c r="E70">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F70" t="s">
         <v>966</v>
@@ -8922,7 +8922,7 @@
         <v>786</v>
       </c>
       <c r="E71">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F71" t="s">
         <v>966</v>
@@ -8957,7 +8957,7 @@
         <v>787</v>
       </c>
       <c r="E72">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
         <v>964</v>
@@ -8995,7 +8995,7 @@
         <v>788</v>
       </c>
       <c r="E73">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F73" t="s">
         <v>966</v>
@@ -9030,7 +9030,7 @@
         <v>789</v>
       </c>
       <c r="E74">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F74" t="s">
         <v>963</v>
@@ -9065,7 +9065,7 @@
         <v>790</v>
       </c>
       <c r="E75">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F75" t="s">
         <v>966</v>
@@ -9100,7 +9100,7 @@
         <v>790</v>
       </c>
       <c r="E76">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F76" t="s">
         <v>966</v>
@@ -9135,7 +9135,7 @@
         <v>790</v>
       </c>
       <c r="E77">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F77" t="s">
         <v>966</v>
@@ -9170,7 +9170,7 @@
         <v>791</v>
       </c>
       <c r="E78">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
         <v>965</v>
@@ -9205,7 +9205,7 @@
         <v>792</v>
       </c>
       <c r="E79">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F79" t="s">
         <v>963</v>
@@ -9240,7 +9240,7 @@
         <v>793</v>
       </c>
       <c r="E80">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F80" t="s">
         <v>966</v>
@@ -9275,7 +9275,7 @@
         <v>794</v>
       </c>
       <c r="E81">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
         <v>963</v>
@@ -9313,7 +9313,7 @@
         <v>795</v>
       </c>
       <c r="E82">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F82" t="s">
         <v>966</v>
@@ -9348,7 +9348,7 @@
         <v>795</v>
       </c>
       <c r="E83">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
         <v>966</v>
@@ -9383,7 +9383,7 @@
         <v>795</v>
       </c>
       <c r="E84">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s">
         <v>963</v>
@@ -9418,7 +9418,7 @@
         <v>795</v>
       </c>
       <c r="E85">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F85" t="s">
         <v>963</v>
@@ -9453,7 +9453,7 @@
         <v>796</v>
       </c>
       <c r="E86">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F86" t="s">
         <v>965</v>
@@ -9488,7 +9488,7 @@
         <v>797</v>
       </c>
       <c r="E87">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F87" t="s">
         <v>966</v>
@@ -9523,7 +9523,7 @@
         <v>797</v>
       </c>
       <c r="E88">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
         <v>966</v>
@@ -9558,7 +9558,7 @@
         <v>797</v>
       </c>
       <c r="E89">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F89" t="s">
         <v>966</v>
@@ -9593,7 +9593,7 @@
         <v>798</v>
       </c>
       <c r="E90">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F90" t="s">
         <v>966</v>
@@ -9628,7 +9628,7 @@
         <v>798</v>
       </c>
       <c r="E91">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
         <v>966</v>
@@ -9663,7 +9663,7 @@
         <v>799</v>
       </c>
       <c r="E92">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F92" t="s">
         <v>966</v>
@@ -9698,7 +9698,7 @@
         <v>800</v>
       </c>
       <c r="E93">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
         <v>966</v>
@@ -9733,7 +9733,7 @@
         <v>800</v>
       </c>
       <c r="E94">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F94" t="s">
         <v>963</v>
@@ -9768,7 +9768,7 @@
         <v>801</v>
       </c>
       <c r="E95">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
         <v>966</v>
@@ -9803,7 +9803,7 @@
         <v>801</v>
       </c>
       <c r="E96">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s">
         <v>966</v>
@@ -9838,7 +9838,7 @@
         <v>802</v>
       </c>
       <c r="E97">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
         <v>966</v>
@@ -9876,7 +9876,7 @@
         <v>802</v>
       </c>
       <c r="E98">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
         <v>966</v>
@@ -9911,7 +9911,7 @@
         <v>803</v>
       </c>
       <c r="E99">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F99" t="s">
         <v>966</v>
@@ -9946,7 +9946,7 @@
         <v>803</v>
       </c>
       <c r="E100">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F100" t="s">
         <v>963</v>
@@ -9981,7 +9981,7 @@
         <v>804</v>
       </c>
       <c r="E101">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F101" t="s">
         <v>966</v>
@@ -10016,7 +10016,7 @@
         <v>804</v>
       </c>
       <c r="E102">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
         <v>963</v>
@@ -10051,7 +10051,7 @@
         <v>805</v>
       </c>
       <c r="E103">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F103" t="s">
         <v>963</v>
@@ -10086,7 +10086,7 @@
         <v>806</v>
       </c>
       <c r="E104">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
         <v>963</v>
@@ -10121,7 +10121,7 @@
         <v>806</v>
       </c>
       <c r="E105">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F105" t="s">
         <v>963</v>
@@ -10156,7 +10156,7 @@
         <v>806</v>
       </c>
       <c r="E106">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F106" t="s">
         <v>966</v>
@@ -10191,7 +10191,7 @@
         <v>807</v>
       </c>
       <c r="E107">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F107" t="s">
         <v>963</v>
@@ -10226,7 +10226,7 @@
         <v>808</v>
       </c>
       <c r="E108">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F108" t="s">
         <v>963</v>
@@ -10261,7 +10261,7 @@
         <v>808</v>
       </c>
       <c r="E109">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F109" t="s">
         <v>963</v>
@@ -10299,7 +10299,7 @@
         <v>809</v>
       </c>
       <c r="E110">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F110" t="s">
         <v>967</v>
@@ -10334,7 +10334,7 @@
         <v>809</v>
       </c>
       <c r="E111">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F111" t="s">
         <v>967</v>
@@ -10369,7 +10369,7 @@
         <v>809</v>
       </c>
       <c r="E112">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F112" t="s">
         <v>967</v>
@@ -10404,7 +10404,7 @@
         <v>810</v>
       </c>
       <c r="E113">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
         <v>967</v>
@@ -10439,7 +10439,7 @@
         <v>811</v>
       </c>
       <c r="E114">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F114" t="s">
         <v>967</v>
@@ -10477,7 +10477,7 @@
         <v>812</v>
       </c>
       <c r="E115">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F115" t="s">
         <v>963</v>
@@ -10512,7 +10512,7 @@
         <v>813</v>
       </c>
       <c r="E116">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F116" t="s">
         <v>967</v>
@@ -10547,7 +10547,7 @@
         <v>814</v>
       </c>
       <c r="E117">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F117" t="s">
         <v>967</v>
@@ -10582,7 +10582,7 @@
         <v>814</v>
       </c>
       <c r="E118">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F118" t="s">
         <v>963</v>
@@ -10617,7 +10617,7 @@
         <v>814</v>
       </c>
       <c r="E119">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F119" t="s">
         <v>963</v>
@@ -10652,7 +10652,7 @@
         <v>815</v>
       </c>
       <c r="E120">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F120" t="s">
         <v>963</v>
@@ -10690,7 +10690,7 @@
         <v>816</v>
       </c>
       <c r="E121">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F121" t="s">
         <v>963</v>
@@ -10725,7 +10725,7 @@
         <v>816</v>
       </c>
       <c r="E122">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F122" t="s">
         <v>963</v>
@@ -10760,7 +10760,7 @@
         <v>816</v>
       </c>
       <c r="E123">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
         <v>963</v>
@@ -10795,7 +10795,7 @@
         <v>817</v>
       </c>
       <c r="E124">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F124" t="s">
         <v>963</v>
@@ -10833,7 +10833,7 @@
         <v>817</v>
       </c>
       <c r="E125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F125" t="s">
         <v>963</v>
@@ -10868,7 +10868,7 @@
         <v>817</v>
       </c>
       <c r="E126">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F126" t="s">
         <v>963</v>
@@ -10903,7 +10903,7 @@
         <v>817</v>
       </c>
       <c r="E127">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F127" t="s">
         <v>963</v>
@@ -10938,7 +10938,7 @@
         <v>818</v>
       </c>
       <c r="E128">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F128" t="s">
         <v>967</v>
@@ -10973,7 +10973,7 @@
         <v>818</v>
       </c>
       <c r="E129">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F129" t="s">
         <v>963</v>
@@ -11008,7 +11008,7 @@
         <v>819</v>
       </c>
       <c r="E130">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
         <v>967</v>
@@ -11043,7 +11043,7 @@
         <v>819</v>
       </c>
       <c r="E131">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
         <v>963</v>
@@ -11078,7 +11078,7 @@
         <v>819</v>
       </c>
       <c r="E132">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
         <v>963</v>
@@ -11113,7 +11113,7 @@
         <v>819</v>
       </c>
       <c r="E133">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
         <v>965</v>
@@ -11151,7 +11151,7 @@
         <v>820</v>
       </c>
       <c r="E134">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
         <v>963</v>
@@ -11186,7 +11186,7 @@
         <v>821</v>
       </c>
       <c r="E135">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
         <v>963</v>
@@ -11221,7 +11221,7 @@
         <v>822</v>
       </c>
       <c r="E136">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
         <v>963</v>
@@ -11256,7 +11256,7 @@
         <v>822</v>
       </c>
       <c r="E137">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
         <v>965</v>
@@ -11291,7 +11291,7 @@
         <v>823</v>
       </c>
       <c r="E138">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
         <v>963</v>
@@ -11326,7 +11326,7 @@
         <v>823</v>
       </c>
       <c r="E139">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F139" t="s">
         <v>967</v>
@@ -11361,7 +11361,7 @@
         <v>823</v>
       </c>
       <c r="E140">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F140" t="s">
         <v>963</v>
@@ -11396,7 +11396,7 @@
         <v>823</v>
       </c>
       <c r="E141">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
         <v>965</v>
@@ -11431,7 +11431,7 @@
         <v>823</v>
       </c>
       <c r="E142">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
         <v>965</v>
@@ -11466,7 +11466,7 @@
         <v>823</v>
       </c>
       <c r="E143">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F143" t="s">
         <v>965</v>
@@ -11501,7 +11501,7 @@
         <v>823</v>
       </c>
       <c r="E144">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F144" t="s">
         <v>963</v>
@@ -11536,7 +11536,7 @@
         <v>824</v>
       </c>
       <c r="E145">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F145" t="s">
         <v>963</v>
@@ -11574,7 +11574,7 @@
         <v>825</v>
       </c>
       <c r="E146">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F146" t="s">
         <v>963</v>
@@ -11609,7 +11609,7 @@
         <v>825</v>
       </c>
       <c r="E147">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F147" t="s">
         <v>963</v>
@@ -11644,7 +11644,7 @@
         <v>825</v>
       </c>
       <c r="E148">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F148" t="s">
         <v>963</v>
@@ -11679,7 +11679,7 @@
         <v>826</v>
       </c>
       <c r="E149">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F149" t="s">
         <v>963</v>
@@ -11714,7 +11714,7 @@
         <v>827</v>
       </c>
       <c r="E150">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F150" t="s">
         <v>963</v>
@@ -11749,7 +11749,7 @@
         <v>828</v>
       </c>
       <c r="E151">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
         <v>963</v>
@@ -11784,7 +11784,7 @@
         <v>829</v>
       </c>
       <c r="E152">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F152" t="s">
         <v>963</v>
@@ -11819,7 +11819,7 @@
         <v>830</v>
       </c>
       <c r="E153">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F153" t="s">
         <v>963</v>
@@ -11854,7 +11854,7 @@
         <v>830</v>
       </c>
       <c r="E154">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F154" t="s">
         <v>963</v>
@@ -11889,7 +11889,7 @@
         <v>831</v>
       </c>
       <c r="E155">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F155" t="s">
         <v>963</v>
@@ -11924,7 +11924,7 @@
         <v>832</v>
       </c>
       <c r="E156">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F156" t="s">
         <v>963</v>
@@ -11959,7 +11959,7 @@
         <v>833</v>
       </c>
       <c r="E157">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F157" t="s">
         <v>963</v>
@@ -11994,7 +11994,7 @@
         <v>834</v>
       </c>
       <c r="E158">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F158" t="s">
         <v>963</v>
@@ -12029,7 +12029,7 @@
         <v>834</v>
       </c>
       <c r="E159">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F159" t="s">
         <v>963</v>
@@ -12064,7 +12064,7 @@
         <v>834</v>
       </c>
       <c r="E160">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F160" t="s">
         <v>963</v>
@@ -12099,7 +12099,7 @@
         <v>834</v>
       </c>
       <c r="E161">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F161" t="s">
         <v>963</v>
@@ -12134,7 +12134,7 @@
         <v>834</v>
       </c>
       <c r="E162">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F162" t="s">
         <v>963</v>
@@ -12169,7 +12169,7 @@
         <v>835</v>
       </c>
       <c r="E163">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F163" t="s">
         <v>963</v>
@@ -12204,7 +12204,7 @@
         <v>836</v>
       </c>
       <c r="E164">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F164" t="s">
         <v>963</v>
@@ -12239,7 +12239,7 @@
         <v>836</v>
       </c>
       <c r="E165">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F165" t="s">
         <v>963</v>
@@ -12274,7 +12274,7 @@
         <v>837</v>
       </c>
       <c r="E166">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F166" t="s">
         <v>963</v>
@@ -12309,7 +12309,7 @@
         <v>837</v>
       </c>
       <c r="E167">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F167" t="s">
         <v>963</v>
@@ -12344,7 +12344,7 @@
         <v>838</v>
       </c>
       <c r="E168">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F168" t="s">
         <v>963</v>
@@ -12379,7 +12379,7 @@
         <v>838</v>
       </c>
       <c r="E169">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F169" t="s">
         <v>963</v>
@@ -12414,7 +12414,7 @@
         <v>839</v>
       </c>
       <c r="E170">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F170" t="s">
         <v>963</v>
@@ -12449,7 +12449,7 @@
         <v>839</v>
       </c>
       <c r="E171">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F171" t="s">
         <v>963</v>
@@ -12484,7 +12484,7 @@
         <v>839</v>
       </c>
       <c r="E172">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F172" t="s">
         <v>963</v>
@@ -12519,7 +12519,7 @@
         <v>839</v>
       </c>
       <c r="E173">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F173" t="s">
         <v>963</v>
@@ -12554,7 +12554,7 @@
         <v>840</v>
       </c>
       <c r="E174">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F174" t="s">
         <v>963</v>
@@ -12589,7 +12589,7 @@
         <v>841</v>
       </c>
       <c r="E175">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F175" t="s">
         <v>963</v>
@@ -12624,7 +12624,7 @@
         <v>841</v>
       </c>
       <c r="E176">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F176" t="s">
         <v>963</v>
@@ -12659,7 +12659,7 @@
         <v>841</v>
       </c>
       <c r="E177">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F177" t="s">
         <v>963</v>
@@ -12694,7 +12694,7 @@
         <v>842</v>
       </c>
       <c r="E178">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F178" t="s">
         <v>963</v>
@@ -12729,7 +12729,7 @@
         <v>842</v>
       </c>
       <c r="E179">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F179" t="s">
         <v>963</v>
@@ -12764,7 +12764,7 @@
         <v>842</v>
       </c>
       <c r="E180">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F180" t="s">
         <v>963</v>
@@ -12799,7 +12799,7 @@
         <v>843</v>
       </c>
       <c r="E181">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F181" t="s">
         <v>963</v>
@@ -12834,7 +12834,7 @@
         <v>843</v>
       </c>
       <c r="E182">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F182" t="s">
         <v>963</v>
@@ -12869,7 +12869,7 @@
         <v>843</v>
       </c>
       <c r="E183">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F183" t="s">
         <v>963</v>
@@ -12904,7 +12904,7 @@
         <v>844</v>
       </c>
       <c r="E184">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F184" t="s">
         <v>963</v>
@@ -12939,7 +12939,7 @@
         <v>844</v>
       </c>
       <c r="E185">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F185" t="s">
         <v>963</v>
@@ -12977,7 +12977,7 @@
         <v>845</v>
       </c>
       <c r="E186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F186" t="s">
         <v>963</v>
@@ -13012,7 +13012,7 @@
         <v>845</v>
       </c>
       <c r="E187">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F187" t="s">
         <v>963</v>
@@ -13047,7 +13047,7 @@
         <v>845</v>
       </c>
       <c r="E188">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F188" t="s">
         <v>963</v>
@@ -13082,7 +13082,7 @@
         <v>845</v>
       </c>
       <c r="E189">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F189" t="s">
         <v>963</v>
@@ -13117,7 +13117,7 @@
         <v>846</v>
       </c>
       <c r="E190">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F190" t="s">
         <v>963</v>
@@ -13152,7 +13152,7 @@
         <v>847</v>
       </c>
       <c r="E191">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F191" t="s">
         <v>968</v>
@@ -13187,7 +13187,7 @@
         <v>847</v>
       </c>
       <c r="E192">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F192" t="s">
         <v>963</v>
@@ -13222,7 +13222,7 @@
         <v>847</v>
       </c>
       <c r="E193">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F193" t="s">
         <v>963</v>
@@ -13257,7 +13257,7 @@
         <v>848</v>
       </c>
       <c r="E194">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F194" t="s">
         <v>965</v>
@@ -13292,7 +13292,7 @@
         <v>849</v>
       </c>
       <c r="E195">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F195" t="s">
         <v>963</v>
@@ -13327,7 +13327,7 @@
         <v>849</v>
       </c>
       <c r="E196">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F196" t="s">
         <v>963</v>
@@ -13362,7 +13362,7 @@
         <v>849</v>
       </c>
       <c r="E197">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F197" t="s">
         <v>963</v>
@@ -13397,7 +13397,7 @@
         <v>850</v>
       </c>
       <c r="E198">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F198" t="s">
         <v>963</v>
@@ -13432,7 +13432,7 @@
         <v>851</v>
       </c>
       <c r="E199">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F199" t="s">
         <v>963</v>
@@ -13467,7 +13467,7 @@
         <v>852</v>
       </c>
       <c r="E200">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F200" t="s">
         <v>963</v>
@@ -13505,7 +13505,7 @@
         <v>853</v>
       </c>
       <c r="E201">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F201" t="s">
         <v>963</v>
@@ -13540,7 +13540,7 @@
         <v>853</v>
       </c>
       <c r="E202">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F202" t="s">
         <v>963</v>
@@ -13575,7 +13575,7 @@
         <v>853</v>
       </c>
       <c r="E203">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F203" t="s">
         <v>963</v>
@@ -13610,7 +13610,7 @@
         <v>854</v>
       </c>
       <c r="E204">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F204" t="s">
         <v>963</v>
@@ -13645,7 +13645,7 @@
         <v>855</v>
       </c>
       <c r="E205">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F205" t="s">
         <v>963</v>
@@ -13680,7 +13680,7 @@
         <v>855</v>
       </c>
       <c r="E206">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F206" t="s">
         <v>963</v>
@@ -13715,7 +13715,7 @@
         <v>855</v>
       </c>
       <c r="E207">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F207" t="s">
         <v>963</v>
@@ -13750,7 +13750,7 @@
         <v>855</v>
       </c>
       <c r="E208">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F208" t="s">
         <v>963</v>
@@ -13785,7 +13785,7 @@
         <v>855</v>
       </c>
       <c r="E209">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F209" t="s">
         <v>963</v>
@@ -13820,7 +13820,7 @@
         <v>856</v>
       </c>
       <c r="E210">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F210" t="s">
         <v>963</v>
@@ -13855,7 +13855,7 @@
         <v>857</v>
       </c>
       <c r="E211">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F211" t="s">
         <v>963</v>
@@ -13890,7 +13890,7 @@
         <v>857</v>
       </c>
       <c r="E212">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F212" t="s">
         <v>963</v>
@@ -13925,7 +13925,7 @@
         <v>858</v>
       </c>
       <c r="E213">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F213" t="s">
         <v>963</v>
@@ -13960,7 +13960,7 @@
         <v>858</v>
       </c>
       <c r="E214">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F214" t="s">
         <v>963</v>
@@ -13995,7 +13995,7 @@
         <v>858</v>
       </c>
       <c r="E215">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F215" t="s">
         <v>963</v>
@@ -14030,7 +14030,7 @@
         <v>859</v>
       </c>
       <c r="E216">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F216" t="s">
         <v>963</v>
@@ -14065,7 +14065,7 @@
         <v>859</v>
       </c>
       <c r="E217">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F217" t="s">
         <v>963</v>
@@ -14100,7 +14100,7 @@
         <v>859</v>
       </c>
       <c r="E218">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F218" t="s">
         <v>963</v>
@@ -14135,7 +14135,7 @@
         <v>860</v>
       </c>
       <c r="E219">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F219" t="s">
         <v>963</v>
@@ -14170,7 +14170,7 @@
         <v>860</v>
       </c>
       <c r="E220">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F220" t="s">
         <v>963</v>
@@ -14205,7 +14205,7 @@
         <v>861</v>
       </c>
       <c r="E221">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F221" t="s">
         <v>963</v>
@@ -14240,7 +14240,7 @@
         <v>861</v>
       </c>
       <c r="E222">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F222" t="s">
         <v>963</v>
@@ -14275,7 +14275,7 @@
         <v>862</v>
       </c>
       <c r="E223">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F223" t="s">
         <v>963</v>
@@ -14310,7 +14310,7 @@
         <v>862</v>
       </c>
       <c r="E224">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F224" t="s">
         <v>963</v>
@@ -14345,7 +14345,7 @@
         <v>862</v>
       </c>
       <c r="E225">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F225" t="s">
         <v>963</v>
@@ -14380,7 +14380,7 @@
         <v>863</v>
       </c>
       <c r="E226">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F226" t="s">
         <v>963</v>
@@ -14415,7 +14415,7 @@
         <v>863</v>
       </c>
       <c r="E227">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F227" t="s">
         <v>963</v>
@@ -14453,7 +14453,7 @@
         <v>863</v>
       </c>
       <c r="E228">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F228" t="s">
         <v>963</v>
@@ -14488,7 +14488,7 @@
         <v>864</v>
       </c>
       <c r="E229">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F229" t="s">
         <v>963</v>
@@ -14523,7 +14523,7 @@
         <v>864</v>
       </c>
       <c r="E230">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F230" t="s">
         <v>963</v>
@@ -14558,7 +14558,7 @@
         <v>865</v>
       </c>
       <c r="E231">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F231" t="s">
         <v>963</v>
@@ -14593,7 +14593,7 @@
         <v>866</v>
       </c>
       <c r="E232">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F232" t="s">
         <v>968</v>
@@ -14631,7 +14631,7 @@
         <v>866</v>
       </c>
       <c r="E233">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F233" t="s">
         <v>963</v>
@@ -14666,7 +14666,7 @@
         <v>866</v>
       </c>
       <c r="E234">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F234" t="s">
         <v>963</v>
@@ -14701,7 +14701,7 @@
         <v>866</v>
       </c>
       <c r="E235">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F235" t="s">
         <v>963</v>
@@ -14736,7 +14736,7 @@
         <v>866</v>
       </c>
       <c r="E236">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F236" t="s">
         <v>963</v>
@@ -14771,7 +14771,7 @@
         <v>867</v>
       </c>
       <c r="E237">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F237" t="s">
         <v>963</v>
@@ -14806,7 +14806,7 @@
         <v>867</v>
       </c>
       <c r="E238">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F238" t="s">
         <v>963</v>
@@ -14841,7 +14841,7 @@
         <v>867</v>
       </c>
       <c r="E239">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F239" t="s">
         <v>963</v>
@@ -14876,7 +14876,7 @@
         <v>867</v>
       </c>
       <c r="E240">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F240" t="s">
         <v>968</v>
@@ -14911,7 +14911,7 @@
         <v>867</v>
       </c>
       <c r="E241">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F241" t="s">
         <v>963</v>
@@ -14949,7 +14949,7 @@
         <v>867</v>
       </c>
       <c r="E242">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F242" t="s">
         <v>963</v>
@@ -14984,7 +14984,7 @@
         <v>868</v>
       </c>
       <c r="E243">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F243" t="s">
         <v>963</v>
@@ -15019,7 +15019,7 @@
         <v>868</v>
       </c>
       <c r="E244">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F244" t="s">
         <v>963</v>
@@ -15054,7 +15054,7 @@
         <v>868</v>
       </c>
       <c r="E245">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F245" t="s">
         <v>963</v>
@@ -15089,7 +15089,7 @@
         <v>869</v>
       </c>
       <c r="E246">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F246" t="s">
         <v>963</v>
@@ -15124,7 +15124,7 @@
         <v>869</v>
       </c>
       <c r="E247">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F247" t="s">
         <v>963</v>
@@ -15159,7 +15159,7 @@
         <v>869</v>
       </c>
       <c r="E248">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F248" t="s">
         <v>963</v>
@@ -15197,7 +15197,7 @@
         <v>869</v>
       </c>
       <c r="E249">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F249" t="s">
         <v>963</v>
@@ -15232,7 +15232,7 @@
         <v>870</v>
       </c>
       <c r="E250">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F250" t="s">
         <v>963</v>
@@ -15267,7 +15267,7 @@
         <v>870</v>
       </c>
       <c r="E251">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F251" t="s">
         <v>963</v>
@@ -15302,7 +15302,7 @@
         <v>870</v>
       </c>
       <c r="E252">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F252" t="s">
         <v>963</v>
@@ -15337,7 +15337,7 @@
         <v>870</v>
       </c>
       <c r="E253">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F253" t="s">
         <v>963</v>
@@ -15372,7 +15372,7 @@
         <v>871</v>
       </c>
       <c r="E254">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F254" t="s">
         <v>963</v>
@@ -15407,7 +15407,7 @@
         <v>871</v>
       </c>
       <c r="E255">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F255" t="s">
         <v>963</v>
@@ -15442,7 +15442,7 @@
         <v>871</v>
       </c>
       <c r="E256">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F256" t="s">
         <v>963</v>
@@ -15477,7 +15477,7 @@
         <v>871</v>
       </c>
       <c r="E257">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F257" t="s">
         <v>963</v>
@@ -15512,7 +15512,7 @@
         <v>872</v>
       </c>
       <c r="E258">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F258" t="s">
         <v>963</v>
@@ -15547,7 +15547,7 @@
         <v>872</v>
       </c>
       <c r="E259">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F259" t="s">
         <v>963</v>
@@ -15582,7 +15582,7 @@
         <v>873</v>
       </c>
       <c r="E260">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F260" t="s">
         <v>963</v>
@@ -15617,7 +15617,7 @@
         <v>873</v>
       </c>
       <c r="E261">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F261" t="s">
         <v>963</v>
@@ -15652,7 +15652,7 @@
         <v>874</v>
       </c>
       <c r="E262">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F262" t="s">
         <v>963</v>
@@ -15690,7 +15690,7 @@
         <v>874</v>
       </c>
       <c r="E263">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F263" t="s">
         <v>963</v>
@@ -15728,7 +15728,7 @@
         <v>874</v>
       </c>
       <c r="E264">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F264" t="s">
         <v>963</v>
@@ -15766,7 +15766,7 @@
         <v>875</v>
       </c>
       <c r="E265">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F265" t="s">
         <v>963</v>
@@ -15801,7 +15801,7 @@
         <v>875</v>
       </c>
       <c r="E266">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F266" t="s">
         <v>963</v>
@@ -15836,7 +15836,7 @@
         <v>875</v>
       </c>
       <c r="E267">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F267" t="s">
         <v>963</v>
@@ -15871,7 +15871,7 @@
         <v>876</v>
       </c>
       <c r="E268">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F268" t="s">
         <v>963</v>
@@ -15906,7 +15906,7 @@
         <v>876</v>
       </c>
       <c r="E269">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F269" t="s">
         <v>963</v>
@@ -15944,7 +15944,7 @@
         <v>876</v>
       </c>
       <c r="E270">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F270" t="s">
         <v>963</v>
@@ -15979,7 +15979,7 @@
         <v>877</v>
       </c>
       <c r="E271">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F271" t="s">
         <v>963</v>
@@ -16014,7 +16014,7 @@
         <v>877</v>
       </c>
       <c r="E272">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F272" t="s">
         <v>963</v>
@@ -16049,7 +16049,7 @@
         <v>878</v>
       </c>
       <c r="E273">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F273" t="s">
         <v>963</v>
@@ -16084,7 +16084,7 @@
         <v>878</v>
       </c>
       <c r="E274">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F274" t="s">
         <v>963</v>
@@ -16119,7 +16119,7 @@
         <v>878</v>
       </c>
       <c r="E275">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F275" t="s">
         <v>963</v>
@@ -16154,7 +16154,7 @@
         <v>878</v>
       </c>
       <c r="E276">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F276" t="s">
         <v>963</v>
@@ -16189,7 +16189,7 @@
         <v>879</v>
       </c>
       <c r="E277">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F277" t="s">
         <v>963</v>
@@ -16224,7 +16224,7 @@
         <v>879</v>
       </c>
       <c r="E278">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F278" t="s">
         <v>963</v>
@@ -16259,7 +16259,7 @@
         <v>879</v>
       </c>
       <c r="E279">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F279" t="s">
         <v>963</v>
@@ -16294,7 +16294,7 @@
         <v>880</v>
       </c>
       <c r="E280">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F280" t="s">
         <v>963</v>
@@ -16329,7 +16329,7 @@
         <v>880</v>
       </c>
       <c r="E281">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F281" t="s">
         <v>963</v>
@@ -16364,7 +16364,7 @@
         <v>880</v>
       </c>
       <c r="E282">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F282" t="s">
         <v>963</v>
@@ -16399,7 +16399,7 @@
         <v>880</v>
       </c>
       <c r="E283">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F283" t="s">
         <v>963</v>
@@ -16434,7 +16434,7 @@
         <v>880</v>
       </c>
       <c r="E284">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F284" t="s">
         <v>963</v>
@@ -16469,7 +16469,7 @@
         <v>880</v>
       </c>
       <c r="E285">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F285" t="s">
         <v>963</v>
@@ -16504,7 +16504,7 @@
         <v>880</v>
       </c>
       <c r="E286">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F286" t="s">
         <v>963</v>
@@ -16539,7 +16539,7 @@
         <v>880</v>
       </c>
       <c r="E287">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F287" t="s">
         <v>963</v>
@@ -16574,7 +16574,7 @@
         <v>881</v>
       </c>
       <c r="E288">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F288" t="s">
         <v>963</v>
@@ -16609,7 +16609,7 @@
         <v>881</v>
       </c>
       <c r="E289">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F289" t="s">
         <v>963</v>
@@ -16644,7 +16644,7 @@
         <v>882</v>
       </c>
       <c r="E290">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F290" t="s">
         <v>964</v>
@@ -16679,7 +16679,7 @@
         <v>882</v>
       </c>
       <c r="E291">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F291" t="s">
         <v>963</v>
@@ -16714,7 +16714,7 @@
         <v>883</v>
       </c>
       <c r="E292">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F292" t="s">
         <v>963</v>
@@ -16749,7 +16749,7 @@
         <v>883</v>
       </c>
       <c r="E293">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F293" t="s">
         <v>963</v>
@@ -16784,7 +16784,7 @@
         <v>884</v>
       </c>
       <c r="E294">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F294" t="s">
         <v>963</v>
@@ -16819,7 +16819,7 @@
         <v>884</v>
       </c>
       <c r="E295">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F295" t="s">
         <v>963</v>
@@ -16854,7 +16854,7 @@
         <v>884</v>
       </c>
       <c r="E296">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F296" t="s">
         <v>963</v>
@@ -16889,7 +16889,7 @@
         <v>884</v>
       </c>
       <c r="E297">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F297" t="s">
         <v>963</v>
@@ -16924,7 +16924,7 @@
         <v>884</v>
       </c>
       <c r="E298">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F298" t="s">
         <v>963</v>
@@ -16959,7 +16959,7 @@
         <v>884</v>
       </c>
       <c r="E299">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F299" t="s">
         <v>963</v>
@@ -16994,7 +16994,7 @@
         <v>884</v>
       </c>
       <c r="E300">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F300" t="s">
         <v>963</v>
@@ -17029,7 +17029,7 @@
         <v>884</v>
       </c>
       <c r="E301">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F301" t="s">
         <v>963</v>
@@ -17064,7 +17064,7 @@
         <v>885</v>
       </c>
       <c r="E302">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F302" t="s">
         <v>963</v>
@@ -17099,7 +17099,7 @@
         <v>885</v>
       </c>
       <c r="E303">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F303" t="s">
         <v>963</v>
@@ -17134,7 +17134,7 @@
         <v>885</v>
       </c>
       <c r="E304">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F304" t="s">
         <v>963</v>
@@ -17169,7 +17169,7 @@
         <v>885</v>
       </c>
       <c r="E305">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F305" t="s">
         <v>963</v>
@@ -17204,7 +17204,7 @@
         <v>886</v>
       </c>
       <c r="E306">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F306" t="s">
         <v>963</v>
@@ -17239,7 +17239,7 @@
         <v>886</v>
       </c>
       <c r="E307">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F307" t="s">
         <v>963</v>
@@ -17274,7 +17274,7 @@
         <v>886</v>
       </c>
       <c r="E308">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F308" t="s">
         <v>963</v>
@@ -17309,7 +17309,7 @@
         <v>887</v>
       </c>
       <c r="E309">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F309" t="s">
         <v>963</v>
@@ -17344,7 +17344,7 @@
         <v>887</v>
       </c>
       <c r="E310">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F310" t="s">
         <v>963</v>
@@ -17379,7 +17379,7 @@
         <v>888</v>
       </c>
       <c r="E311">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F311" t="s">
         <v>963</v>
@@ -17414,7 +17414,7 @@
         <v>888</v>
       </c>
       <c r="E312">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F312" t="s">
         <v>963</v>
@@ -17449,7 +17449,7 @@
         <v>888</v>
       </c>
       <c r="E313">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F313" t="s">
         <v>963</v>
@@ -17484,7 +17484,7 @@
         <v>888</v>
       </c>
       <c r="E314">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F314" t="s">
         <v>963</v>
@@ -17519,7 +17519,7 @@
         <v>889</v>
       </c>
       <c r="E315">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F315" t="s">
         <v>963</v>
@@ -17554,7 +17554,7 @@
         <v>889</v>
       </c>
       <c r="E316">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F316" t="s">
         <v>963</v>
@@ -17589,7 +17589,7 @@
         <v>889</v>
       </c>
       <c r="E317">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F317" t="s">
         <v>963</v>
@@ -17624,7 +17624,7 @@
         <v>889</v>
       </c>
       <c r="E318">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F318" t="s">
         <v>963</v>
@@ -17659,7 +17659,7 @@
         <v>889</v>
       </c>
       <c r="E319">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F319" t="s">
         <v>963</v>
@@ -17694,7 +17694,7 @@
         <v>890</v>
       </c>
       <c r="E320">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F320" t="s">
         <v>963</v>
@@ -17729,7 +17729,7 @@
         <v>890</v>
       </c>
       <c r="E321">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F321" t="s">
         <v>963</v>
@@ -17767,7 +17767,7 @@
         <v>890</v>
       </c>
       <c r="E322">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F322" t="s">
         <v>963</v>
@@ -17802,7 +17802,7 @@
         <v>891</v>
       </c>
       <c r="E323">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F323" t="s">
         <v>963</v>
@@ -17837,7 +17837,7 @@
         <v>891</v>
       </c>
       <c r="E324">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F324" t="s">
         <v>963</v>
@@ -17872,7 +17872,7 @@
         <v>891</v>
       </c>
       <c r="E325">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F325" t="s">
         <v>963</v>
@@ -17907,7 +17907,7 @@
         <v>891</v>
       </c>
       <c r="E326">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F326" t="s">
         <v>963</v>
@@ -17942,7 +17942,7 @@
         <v>892</v>
       </c>
       <c r="E327">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F327" t="s">
         <v>963</v>
@@ -17977,7 +17977,7 @@
         <v>892</v>
       </c>
       <c r="E328">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F328" t="s">
         <v>963</v>
@@ -18012,7 +18012,7 @@
         <v>892</v>
       </c>
       <c r="E329">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F329" t="s">
         <v>963</v>
@@ -18047,7 +18047,7 @@
         <v>892</v>
       </c>
       <c r="E330">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F330" t="s">
         <v>963</v>
@@ -18082,7 +18082,7 @@
         <v>892</v>
       </c>
       <c r="E331">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F331" t="s">
         <v>963</v>
@@ -18117,7 +18117,7 @@
         <v>892</v>
       </c>
       <c r="E332">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F332" t="s">
         <v>963</v>
@@ -18152,7 +18152,7 @@
         <v>892</v>
       </c>
       <c r="E333">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F333" t="s">
         <v>963</v>
@@ -18187,7 +18187,7 @@
         <v>892</v>
       </c>
       <c r="E334">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F334" t="s">
         <v>963</v>
@@ -18222,7 +18222,7 @@
         <v>892</v>
       </c>
       <c r="E335">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F335" t="s">
         <v>963</v>
@@ -18257,7 +18257,7 @@
         <v>893</v>
       </c>
       <c r="E336">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F336" t="s">
         <v>963</v>
@@ -18292,7 +18292,7 @@
         <v>893</v>
       </c>
       <c r="E337">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F337" t="s">
         <v>963</v>
@@ -18330,7 +18330,7 @@
         <v>893</v>
       </c>
       <c r="E338">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F338" t="s">
         <v>963</v>
@@ -18365,7 +18365,7 @@
         <v>893</v>
       </c>
       <c r="E339">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F339" t="s">
         <v>963</v>
@@ -18400,7 +18400,7 @@
         <v>894</v>
       </c>
       <c r="E340">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F340" t="s">
         <v>963</v>
@@ -18435,7 +18435,7 @@
         <v>894</v>
       </c>
       <c r="E341">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F341" t="s">
         <v>963</v>
@@ -18470,7 +18470,7 @@
         <v>894</v>
       </c>
       <c r="E342">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F342" t="s">
         <v>963</v>
@@ -18505,7 +18505,7 @@
         <v>894</v>
       </c>
       <c r="E343">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F343" t="s">
         <v>963</v>
@@ -18540,7 +18540,7 @@
         <v>894</v>
       </c>
       <c r="E344">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F344" t="s">
         <v>963</v>
@@ -18575,7 +18575,7 @@
         <v>894</v>
       </c>
       <c r="E345">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F345" t="s">
         <v>963</v>
@@ -18610,7 +18610,7 @@
         <v>894</v>
       </c>
       <c r="E346">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F346" t="s">
         <v>963</v>
@@ -18645,7 +18645,7 @@
         <v>894</v>
       </c>
       <c r="E347">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F347" t="s">
         <v>963</v>
@@ -18683,7 +18683,7 @@
         <v>895</v>
       </c>
       <c r="E348">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F348" t="s">
         <v>963</v>
@@ -18718,7 +18718,7 @@
         <v>895</v>
       </c>
       <c r="E349">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F349" t="s">
         <v>963</v>
@@ -18753,7 +18753,7 @@
         <v>896</v>
       </c>
       <c r="E350">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F350" t="s">
         <v>963</v>
@@ -18791,7 +18791,7 @@
         <v>896</v>
       </c>
       <c r="E351">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F351" t="s">
         <v>963</v>
@@ -18826,7 +18826,7 @@
         <v>896</v>
       </c>
       <c r="E352">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F352" t="s">
         <v>963</v>
@@ -18861,7 +18861,7 @@
         <v>896</v>
       </c>
       <c r="E353">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F353" t="s">
         <v>963</v>
@@ -18896,7 +18896,7 @@
         <v>896</v>
       </c>
       <c r="E354">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F354" t="s">
         <v>963</v>
@@ -18934,7 +18934,7 @@
         <v>897</v>
       </c>
       <c r="E355">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F355" t="s">
         <v>963</v>
@@ -18969,7 +18969,7 @@
         <v>897</v>
       </c>
       <c r="E356">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F356" t="s">
         <v>963</v>
@@ -19004,7 +19004,7 @@
         <v>897</v>
       </c>
       <c r="E357">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F357" t="s">
         <v>963</v>
@@ -19039,7 +19039,7 @@
         <v>897</v>
       </c>
       <c r="E358">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F358" t="s">
         <v>963</v>
@@ -19074,7 +19074,7 @@
         <v>897</v>
       </c>
       <c r="E359">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F359" t="s">
         <v>963</v>
@@ -19109,7 +19109,7 @@
         <v>897</v>
       </c>
       <c r="E360">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F360" t="s">
         <v>963</v>
@@ -19144,7 +19144,7 @@
         <v>897</v>
       </c>
       <c r="E361">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F361" t="s">
         <v>963</v>
@@ -19179,7 +19179,7 @@
         <v>898</v>
       </c>
       <c r="E362">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F362" t="s">
         <v>963</v>
@@ -19214,7 +19214,7 @@
         <v>898</v>
       </c>
       <c r="E363">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F363" t="s">
         <v>963</v>
@@ -19249,7 +19249,7 @@
         <v>898</v>
       </c>
       <c r="E364">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F364" t="s">
         <v>963</v>
@@ -19287,7 +19287,7 @@
         <v>898</v>
       </c>
       <c r="E365">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F365" t="s">
         <v>963</v>
@@ -19322,7 +19322,7 @@
         <v>898</v>
       </c>
       <c r="E366">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F366" t="s">
         <v>963</v>
@@ -19357,7 +19357,7 @@
         <v>899</v>
       </c>
       <c r="E367">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F367" t="s">
         <v>963</v>
@@ -19392,7 +19392,7 @@
         <v>900</v>
       </c>
       <c r="E368">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F368" t="s">
         <v>963</v>
@@ -19430,7 +19430,7 @@
         <v>900</v>
       </c>
       <c r="E369">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F369" t="s">
         <v>963</v>
@@ -19465,7 +19465,7 @@
         <v>900</v>
       </c>
       <c r="E370">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F370" t="s">
         <v>963</v>
@@ -19500,7 +19500,7 @@
         <v>900</v>
       </c>
       <c r="E371">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F371" t="s">
         <v>963</v>
@@ -19535,7 +19535,7 @@
         <v>900</v>
       </c>
       <c r="E372">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F372" t="s">
         <v>963</v>
@@ -19570,7 +19570,7 @@
         <v>900</v>
       </c>
       <c r="E373">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F373" t="s">
         <v>963</v>
@@ -19605,7 +19605,7 @@
         <v>900</v>
       </c>
       <c r="E374">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F374" t="s">
         <v>963</v>
@@ -19640,7 +19640,7 @@
         <v>900</v>
       </c>
       <c r="E375">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F375" t="s">
         <v>963</v>
@@ -19675,7 +19675,7 @@
         <v>900</v>
       </c>
       <c r="E376">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F376" t="s">
         <v>963</v>
@@ -19710,7 +19710,7 @@
         <v>900</v>
       </c>
       <c r="E377">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F377" t="s">
         <v>963</v>
@@ -19745,7 +19745,7 @@
         <v>900</v>
       </c>
       <c r="E378">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F378" t="s">
         <v>963</v>
@@ -19780,7 +19780,7 @@
         <v>900</v>
       </c>
       <c r="E379">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F379" t="s">
         <v>963</v>
@@ -19815,7 +19815,7 @@
         <v>900</v>
       </c>
       <c r="E380">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F380" t="s">
         <v>963</v>
@@ -19850,7 +19850,7 @@
         <v>901</v>
       </c>
       <c r="E381">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F381" t="s">
         <v>963</v>
@@ -19885,7 +19885,7 @@
         <v>901</v>
       </c>
       <c r="E382">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F382" t="s">
         <v>963</v>
@@ -19920,7 +19920,7 @@
         <v>901</v>
       </c>
       <c r="E383">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F383" t="s">
         <v>963</v>
@@ -19955,7 +19955,7 @@
         <v>901</v>
       </c>
       <c r="E384">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F384" t="s">
         <v>963</v>
@@ -19990,7 +19990,7 @@
         <v>901</v>
       </c>
       <c r="E385">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F385" t="s">
         <v>963</v>
@@ -20025,7 +20025,7 @@
         <v>901</v>
       </c>
       <c r="E386">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F386" t="s">
         <v>963</v>
@@ -20060,7 +20060,7 @@
         <v>901</v>
       </c>
       <c r="E387">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F387" t="s">
         <v>968</v>
@@ -20095,7 +20095,7 @@
         <v>901</v>
       </c>
       <c r="E388">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F388" t="s">
         <v>963</v>
@@ -20130,7 +20130,7 @@
         <v>902</v>
       </c>
       <c r="E389">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F389" t="s">
         <v>963</v>
@@ -20168,7 +20168,7 @@
         <v>903</v>
       </c>
       <c r="E390">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F390" t="s">
         <v>963</v>
@@ -20203,7 +20203,7 @@
         <v>903</v>
       </c>
       <c r="E391">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F391" t="s">
         <v>963</v>
@@ -20238,7 +20238,7 @@
         <v>904</v>
       </c>
       <c r="E392">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F392" t="s">
         <v>963</v>
@@ -20273,7 +20273,7 @@
         <v>904</v>
       </c>
       <c r="E393">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F393" t="s">
         <v>963</v>
@@ -20308,7 +20308,7 @@
         <v>904</v>
       </c>
       <c r="E394">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F394" t="s">
         <v>963</v>
@@ -20343,7 +20343,7 @@
         <v>904</v>
       </c>
       <c r="E395">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F395" t="s">
         <v>963</v>
@@ -20378,7 +20378,7 @@
         <v>904</v>
       </c>
       <c r="E396">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F396" t="s">
         <v>963</v>
@@ -20413,7 +20413,7 @@
         <v>904</v>
       </c>
       <c r="E397">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F397" t="s">
         <v>963</v>
@@ -20448,7 +20448,7 @@
         <v>905</v>
       </c>
       <c r="E398">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F398" t="s">
         <v>963</v>
@@ -20483,7 +20483,7 @@
         <v>905</v>
       </c>
       <c r="E399">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F399" t="s">
         <v>963</v>
@@ -20518,7 +20518,7 @@
         <v>905</v>
       </c>
       <c r="E400">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F400" t="s">
         <v>963</v>
@@ -20553,7 +20553,7 @@
         <v>905</v>
       </c>
       <c r="E401">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F401" t="s">
         <v>963</v>
@@ -20588,7 +20588,7 @@
         <v>905</v>
       </c>
       <c r="E402">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F402" t="s">
         <v>963</v>
@@ -20623,7 +20623,7 @@
         <v>905</v>
       </c>
       <c r="E403">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F403" t="s">
         <v>963</v>
@@ -20658,7 +20658,7 @@
         <v>906</v>
       </c>
       <c r="E404">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F404" t="s">
         <v>963</v>
@@ -20693,7 +20693,7 @@
         <v>906</v>
       </c>
       <c r="E405">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F405" t="s">
         <v>963</v>
@@ -20728,7 +20728,7 @@
         <v>906</v>
       </c>
       <c r="E406">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F406" t="s">
         <v>963</v>
@@ -20763,7 +20763,7 @@
         <v>906</v>
       </c>
       <c r="E407">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F407" t="s">
         <v>963</v>
@@ -20798,7 +20798,7 @@
         <v>906</v>
       </c>
       <c r="E408">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F408" t="s">
         <v>963</v>
@@ -20833,7 +20833,7 @@
         <v>907</v>
       </c>
       <c r="E409">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F409" t="s">
         <v>963</v>
@@ -20868,7 +20868,7 @@
         <v>907</v>
       </c>
       <c r="E410">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F410" t="s">
         <v>963</v>
@@ -20903,7 +20903,7 @@
         <v>908</v>
       </c>
       <c r="E411">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F411" t="s">
         <v>963</v>
@@ -20938,7 +20938,7 @@
         <v>908</v>
       </c>
       <c r="E412">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F412" t="s">
         <v>963</v>
@@ -20973,7 +20973,7 @@
         <v>908</v>
       </c>
       <c r="E413">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F413" t="s">
         <v>963</v>
@@ -21008,7 +21008,7 @@
         <v>908</v>
       </c>
       <c r="E414">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F414" t="s">
         <v>963</v>
@@ -21043,7 +21043,7 @@
         <v>909</v>
       </c>
       <c r="E415">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F415" t="s">
         <v>963</v>
@@ -21078,7 +21078,7 @@
         <v>909</v>
       </c>
       <c r="E416">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F416" t="s">
         <v>963</v>
@@ -21113,7 +21113,7 @@
         <v>909</v>
       </c>
       <c r="E417">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F417" t="s">
         <v>963</v>
@@ -21148,7 +21148,7 @@
         <v>909</v>
       </c>
       <c r="E418">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F418" t="s">
         <v>963</v>
@@ -21183,7 +21183,7 @@
         <v>910</v>
       </c>
       <c r="E419">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F419" t="s">
         <v>963</v>
@@ -21221,7 +21221,7 @@
         <v>911</v>
       </c>
       <c r="E420">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F420" t="s">
         <v>963</v>
@@ -21256,7 +21256,7 @@
         <v>911</v>
       </c>
       <c r="E421">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F421" t="s">
         <v>963</v>
@@ -21291,7 +21291,7 @@
         <v>912</v>
       </c>
       <c r="E422">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F422" t="s">
         <v>968</v>
@@ -21329,7 +21329,7 @@
         <v>912</v>
       </c>
       <c r="E423">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F423" t="s">
         <v>963</v>
@@ -21364,7 +21364,7 @@
         <v>912</v>
       </c>
       <c r="E424">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F424" t="s">
         <v>963</v>
@@ -21399,7 +21399,7 @@
         <v>912</v>
       </c>
       <c r="E425">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F425" t="s">
         <v>963</v>
@@ -21434,7 +21434,7 @@
         <v>912</v>
       </c>
       <c r="E426">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F426" t="s">
         <v>963</v>
@@ -21469,7 +21469,7 @@
         <v>912</v>
       </c>
       <c r="E427">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F427" t="s">
         <v>963</v>
@@ -21504,7 +21504,7 @@
         <v>913</v>
       </c>
       <c r="E428">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F428" t="s">
         <v>963</v>
@@ -21542,7 +21542,7 @@
         <v>913</v>
       </c>
       <c r="E429">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F429" t="s">
         <v>963</v>
@@ -21577,7 +21577,7 @@
         <v>914</v>
       </c>
       <c r="E430">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F430" t="s">
         <v>965</v>
@@ -21612,7 +21612,7 @@
         <v>915</v>
       </c>
       <c r="E431">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F431" t="s">
         <v>963</v>
@@ -21647,7 +21647,7 @@
         <v>916</v>
       </c>
       <c r="E432">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F432" t="s">
         <v>963</v>
@@ -21682,7 +21682,7 @@
         <v>916</v>
       </c>
       <c r="E433">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F433" t="s">
         <v>963</v>
@@ -21717,7 +21717,7 @@
         <v>916</v>
       </c>
       <c r="E434">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F434" t="s">
         <v>963</v>
@@ -21752,7 +21752,7 @@
         <v>917</v>
       </c>
       <c r="E435">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F435" t="s">
         <v>963</v>
@@ -21787,7 +21787,7 @@
         <v>917</v>
       </c>
       <c r="E436">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F436" t="s">
         <v>963</v>
@@ -21822,7 +21822,7 @@
         <v>918</v>
       </c>
       <c r="E437">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F437" t="s">
         <v>963</v>
@@ -21857,7 +21857,7 @@
         <v>918</v>
       </c>
       <c r="E438">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F438" t="s">
         <v>963</v>
@@ -21895,7 +21895,7 @@
         <v>918</v>
       </c>
       <c r="E439">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F439" t="s">
         <v>963</v>
@@ -21933,7 +21933,7 @@
         <v>918</v>
       </c>
       <c r="E440">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F440" t="s">
         <v>963</v>
@@ -21968,7 +21968,7 @@
         <v>919</v>
       </c>
       <c r="E441">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F441" t="s">
         <v>963</v>
@@ -22003,7 +22003,7 @@
         <v>919</v>
       </c>
       <c r="E442">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F442" t="s">
         <v>963</v>
@@ -22038,7 +22038,7 @@
         <v>919</v>
       </c>
       <c r="E443">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F443" t="s">
         <v>963</v>
@@ -22073,7 +22073,7 @@
         <v>920</v>
       </c>
       <c r="E444">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F444" t="s">
         <v>963</v>
@@ -22111,7 +22111,7 @@
         <v>920</v>
       </c>
       <c r="E445">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F445" t="s">
         <v>963</v>
@@ -22146,7 +22146,7 @@
         <v>921</v>
       </c>
       <c r="E446">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F446" t="s">
         <v>967</v>
@@ -22181,7 +22181,7 @@
         <v>921</v>
       </c>
       <c r="E447">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F447" t="s">
         <v>968</v>
@@ -22219,7 +22219,7 @@
         <v>921</v>
       </c>
       <c r="E448">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F448" t="s">
         <v>963</v>
@@ -22254,7 +22254,7 @@
         <v>922</v>
       </c>
       <c r="E449">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F449" t="s">
         <v>963</v>
@@ -22289,7 +22289,7 @@
         <v>922</v>
       </c>
       <c r="E450">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F450" t="s">
         <v>963</v>
@@ -22324,7 +22324,7 @@
         <v>922</v>
       </c>
       <c r="E451">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F451" t="s">
         <v>963</v>
@@ -22359,7 +22359,7 @@
         <v>922</v>
       </c>
       <c r="E452">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F452" t="s">
         <v>963</v>
@@ -22394,7 +22394,7 @@
         <v>922</v>
       </c>
       <c r="E453">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F453" t="s">
         <v>963</v>
@@ -22429,7 +22429,7 @@
         <v>923</v>
       </c>
       <c r="E454">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F454" t="s">
         <v>963</v>
@@ -22464,7 +22464,7 @@
         <v>923</v>
       </c>
       <c r="E455">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F455" t="s">
         <v>963</v>
@@ -22499,7 +22499,7 @@
         <v>923</v>
       </c>
       <c r="E456">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F456" t="s">
         <v>963</v>
@@ -22534,7 +22534,7 @@
         <v>923</v>
       </c>
       <c r="E457">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F457" t="s">
         <v>963</v>
@@ -22569,7 +22569,7 @@
         <v>923</v>
       </c>
       <c r="E458">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F458" t="s">
         <v>963</v>
@@ -22604,7 +22604,7 @@
         <v>924</v>
       </c>
       <c r="E459">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F459" t="s">
         <v>963</v>
@@ -22639,7 +22639,7 @@
         <v>925</v>
       </c>
       <c r="E460">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F460" t="s">
         <v>963</v>
@@ -22674,7 +22674,7 @@
         <v>925</v>
       </c>
       <c r="E461">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F461" t="s">
         <v>963</v>
@@ -22709,7 +22709,7 @@
         <v>925</v>
       </c>
       <c r="E462">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F462" t="s">
         <v>963</v>
@@ -22744,7 +22744,7 @@
         <v>925</v>
       </c>
       <c r="E463">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F463" t="s">
         <v>963</v>
@@ -22779,7 +22779,7 @@
         <v>925</v>
       </c>
       <c r="E464">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F464" t="s">
         <v>963</v>
@@ -22814,7 +22814,7 @@
         <v>926</v>
       </c>
       <c r="E465">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F465" t="s">
         <v>963</v>
@@ -22849,7 +22849,7 @@
         <v>926</v>
       </c>
       <c r="E466">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F466" t="s">
         <v>963</v>
@@ -22887,7 +22887,7 @@
         <v>927</v>
       </c>
       <c r="E467">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F467" t="s">
         <v>963</v>
@@ -22922,7 +22922,7 @@
         <v>927</v>
       </c>
       <c r="E468">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F468" t="s">
         <v>963</v>
@@ -22957,7 +22957,7 @@
         <v>927</v>
       </c>
       <c r="E469">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F469" t="s">
         <v>963</v>
@@ -22992,7 +22992,7 @@
         <v>927</v>
       </c>
       <c r="E470">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F470" t="s">
         <v>963</v>
@@ -23027,7 +23027,7 @@
         <v>927</v>
       </c>
       <c r="E471">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F471" t="s">
         <v>963</v>
@@ -23062,7 +23062,7 @@
         <v>928</v>
       </c>
       <c r="E472">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F472" t="s">
         <v>963</v>
@@ -23097,7 +23097,7 @@
         <v>928</v>
       </c>
       <c r="E473">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F473" t="s">
         <v>963</v>
@@ -23132,7 +23132,7 @@
         <v>928</v>
       </c>
       <c r="E474">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F474" t="s">
         <v>963</v>
@@ -23167,7 +23167,7 @@
         <v>928</v>
       </c>
       <c r="E475">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F475" t="s">
         <v>963</v>
@@ -23202,7 +23202,7 @@
         <v>928</v>
       </c>
       <c r="E476">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F476" t="s">
         <v>963</v>
@@ -23237,7 +23237,7 @@
         <v>928</v>
       </c>
       <c r="E477">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F477" t="s">
         <v>963</v>
@@ -23272,7 +23272,7 @@
         <v>929</v>
       </c>
       <c r="E478">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F478" t="s">
         <v>963</v>
@@ -23310,7 +23310,7 @@
         <v>929</v>
       </c>
       <c r="E479">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F479" t="s">
         <v>963</v>
@@ -23345,7 +23345,7 @@
         <v>929</v>
       </c>
       <c r="E480">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F480" t="s">
         <v>963</v>
@@ -23380,7 +23380,7 @@
         <v>929</v>
       </c>
       <c r="E481">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F481" t="s">
         <v>963</v>
@@ -23415,7 +23415,7 @@
         <v>929</v>
       </c>
       <c r="E482">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F482" t="s">
         <v>963</v>
@@ -23453,7 +23453,7 @@
         <v>930</v>
       </c>
       <c r="E483">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F483" t="s">
         <v>963</v>
@@ -23488,7 +23488,7 @@
         <v>930</v>
       </c>
       <c r="E484">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F484" t="s">
         <v>963</v>
@@ -23523,7 +23523,7 @@
         <v>931</v>
       </c>
       <c r="E485">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F485" t="s">
         <v>963</v>
@@ -23561,7 +23561,7 @@
         <v>931</v>
       </c>
       <c r="E486">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F486" t="s">
         <v>963</v>
@@ -23596,7 +23596,7 @@
         <v>931</v>
       </c>
       <c r="E487">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F487" t="s">
         <v>963</v>
@@ -23631,7 +23631,7 @@
         <v>931</v>
       </c>
       <c r="E488">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F488" t="s">
         <v>963</v>
@@ -23666,7 +23666,7 @@
         <v>931</v>
       </c>
       <c r="E489">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F489" t="s">
         <v>963</v>
@@ -23701,7 +23701,7 @@
         <v>932</v>
       </c>
       <c r="E490">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F490" t="s">
         <v>963</v>
@@ -23736,7 +23736,7 @@
         <v>932</v>
       </c>
       <c r="E491">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F491" t="s">
         <v>963</v>
@@ -23771,7 +23771,7 @@
         <v>933</v>
       </c>
       <c r="E492">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F492" t="s">
         <v>963</v>
@@ -23806,7 +23806,7 @@
         <v>933</v>
       </c>
       <c r="E493">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F493" t="s">
         <v>963</v>
@@ -23841,7 +23841,7 @@
         <v>933</v>
       </c>
       <c r="E494">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F494" t="s">
         <v>963</v>
@@ -23876,7 +23876,7 @@
         <v>933</v>
       </c>
       <c r="E495">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F495" t="s">
         <v>963</v>
@@ -23911,7 +23911,7 @@
         <v>933</v>
       </c>
       <c r="E496">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F496" t="s">
         <v>963</v>
@@ -23946,7 +23946,7 @@
         <v>934</v>
       </c>
       <c r="E497">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F497" t="s">
         <v>963</v>
@@ -23981,7 +23981,7 @@
         <v>934</v>
       </c>
       <c r="E498">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F498" t="s">
         <v>963</v>
@@ -24016,7 +24016,7 @@
         <v>934</v>
       </c>
       <c r="E499">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F499" t="s">
         <v>963</v>
@@ -24051,7 +24051,7 @@
         <v>935</v>
       </c>
       <c r="E500">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F500" t="s">
         <v>963</v>
@@ -24086,7 +24086,7 @@
         <v>935</v>
       </c>
       <c r="E501">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F501" t="s">
         <v>963</v>
@@ -24121,7 +24121,7 @@
         <v>935</v>
       </c>
       <c r="E502">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F502" t="s">
         <v>963</v>
@@ -24156,7 +24156,7 @@
         <v>935</v>
       </c>
       <c r="E503">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F503" t="s">
         <v>963</v>
@@ -24191,7 +24191,7 @@
         <v>935</v>
       </c>
       <c r="E504">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F504" t="s">
         <v>963</v>
@@ -24226,7 +24226,7 @@
         <v>935</v>
       </c>
       <c r="E505">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F505" t="s">
         <v>963</v>
@@ -24261,7 +24261,7 @@
         <v>935</v>
       </c>
       <c r="E506">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F506" t="s">
         <v>963</v>
@@ -24296,7 +24296,7 @@
         <v>935</v>
       </c>
       <c r="E507">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F507" t="s">
         <v>963</v>
@@ -24331,7 +24331,7 @@
         <v>936</v>
       </c>
       <c r="E508">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F508" t="s">
         <v>963</v>
@@ -24366,7 +24366,7 @@
         <v>936</v>
       </c>
       <c r="E509">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F509" t="s">
         <v>963</v>
@@ -24401,7 +24401,7 @@
         <v>936</v>
       </c>
       <c r="E510">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F510" t="s">
         <v>963</v>
@@ -24436,7 +24436,7 @@
         <v>936</v>
       </c>
       <c r="E511">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F511" t="s">
         <v>963</v>
@@ -24471,7 +24471,7 @@
         <v>936</v>
       </c>
       <c r="E512">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F512" t="s">
         <v>963</v>
@@ -24506,7 +24506,7 @@
         <v>936</v>
       </c>
       <c r="E513">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F513" t="s">
         <v>963</v>
@@ -24541,7 +24541,7 @@
         <v>936</v>
       </c>
       <c r="E514">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F514" t="s">
         <v>963</v>
@@ -24576,7 +24576,7 @@
         <v>936</v>
       </c>
       <c r="E515">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F515" t="s">
         <v>963</v>
@@ -24611,7 +24611,7 @@
         <v>936</v>
       </c>
       <c r="E516">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F516" t="s">
         <v>963</v>
@@ -24646,7 +24646,7 @@
         <v>936</v>
       </c>
       <c r="E517">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F517" t="s">
         <v>963</v>
@@ -24681,7 +24681,7 @@
         <v>936</v>
       </c>
       <c r="E518">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F518" t="s">
         <v>963</v>
@@ -24716,7 +24716,7 @@
         <v>936</v>
       </c>
       <c r="E519">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F519" t="s">
         <v>963</v>
@@ -24751,7 +24751,7 @@
         <v>936</v>
       </c>
       <c r="E520">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F520" t="s">
         <v>963</v>
@@ -24786,7 +24786,7 @@
         <v>936</v>
       </c>
       <c r="E521">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F521" t="s">
         <v>963</v>
@@ -24821,7 +24821,7 @@
         <v>936</v>
       </c>
       <c r="E522">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F522" t="s">
         <v>963</v>
@@ -24856,7 +24856,7 @@
         <v>936</v>
       </c>
       <c r="E523">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F523" t="s">
         <v>963</v>
@@ -24891,7 +24891,7 @@
         <v>936</v>
       </c>
       <c r="E524">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F524" t="s">
         <v>963</v>
@@ -24926,7 +24926,7 @@
         <v>936</v>
       </c>
       <c r="E525">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F525" t="s">
         <v>963</v>
@@ -24961,7 +24961,7 @@
         <v>937</v>
       </c>
       <c r="E526">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F526" t="s">
         <v>963</v>
@@ -24996,7 +24996,7 @@
         <v>937</v>
       </c>
       <c r="E527">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F527" t="s">
         <v>963</v>
@@ -25031,7 +25031,7 @@
         <v>938</v>
       </c>
       <c r="E528">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F528" t="s">
         <v>963</v>
@@ -25066,7 +25066,7 @@
         <v>939</v>
       </c>
       <c r="E529">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F529" t="s">
         <v>963</v>
@@ -25101,7 +25101,7 @@
         <v>939</v>
       </c>
       <c r="E530">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F530" t="s">
         <v>963</v>
@@ -25136,7 +25136,7 @@
         <v>939</v>
       </c>
       <c r="E531">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F531" t="s">
         <v>963</v>
@@ -25171,7 +25171,7 @@
         <v>939</v>
       </c>
       <c r="E532">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F532" t="s">
         <v>968</v>
@@ -25209,7 +25209,7 @@
         <v>940</v>
       </c>
       <c r="E533">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F533" t="s">
         <v>963</v>
@@ -25244,7 +25244,7 @@
         <v>940</v>
       </c>
       <c r="E534">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F534" t="s">
         <v>963</v>
@@ -25279,7 +25279,7 @@
         <v>941</v>
       </c>
       <c r="E535">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F535" t="s">
         <v>963</v>
@@ -25317,7 +25317,7 @@
         <v>941</v>
       </c>
       <c r="E536">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F536" t="s">
         <v>963</v>
@@ -25352,7 +25352,7 @@
         <v>941</v>
       </c>
       <c r="E537">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F537" t="s">
         <v>963</v>
@@ -25390,7 +25390,7 @@
         <v>941</v>
       </c>
       <c r="E538">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F538" t="s">
         <v>963</v>
@@ -25425,7 +25425,7 @@
         <v>942</v>
       </c>
       <c r="E539">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F539" t="s">
         <v>963</v>
@@ -25460,7 +25460,7 @@
         <v>942</v>
       </c>
       <c r="E540">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F540" t="s">
         <v>963</v>
@@ -25495,7 +25495,7 @@
         <v>942</v>
       </c>
       <c r="E541">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F541" t="s">
         <v>963</v>
@@ -25530,7 +25530,7 @@
         <v>942</v>
       </c>
       <c r="E542">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F542" t="s">
         <v>963</v>
@@ -25565,7 +25565,7 @@
         <v>942</v>
       </c>
       <c r="E543">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F543" t="s">
         <v>968</v>
@@ -25603,7 +25603,7 @@
         <v>942</v>
       </c>
       <c r="E544">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F544" t="s">
         <v>963</v>
@@ -25638,7 +25638,7 @@
         <v>942</v>
       </c>
       <c r="E545">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F545" t="s">
         <v>963</v>
@@ -25673,7 +25673,7 @@
         <v>942</v>
       </c>
       <c r="E546">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F546" t="s">
         <v>963</v>
@@ -25708,7 +25708,7 @@
         <v>943</v>
       </c>
       <c r="E547">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F547" t="s">
         <v>963</v>
@@ -25743,7 +25743,7 @@
         <v>943</v>
       </c>
       <c r="E548">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F548" t="s">
         <v>968</v>
@@ -25778,7 +25778,7 @@
         <v>943</v>
       </c>
       <c r="E549">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F549" t="s">
         <v>963</v>
@@ -25816,7 +25816,7 @@
         <v>943</v>
       </c>
       <c r="E550">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F550" t="s">
         <v>963</v>
@@ -25851,7 +25851,7 @@
         <v>944</v>
       </c>
       <c r="E551">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F551" t="s">
         <v>963</v>
@@ -25886,7 +25886,7 @@
         <v>944</v>
       </c>
       <c r="E552">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F552" t="s">
         <v>963</v>
@@ -25921,7 +25921,7 @@
         <v>945</v>
       </c>
       <c r="E553">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F553" t="s">
         <v>963</v>
@@ -25956,7 +25956,7 @@
         <v>945</v>
       </c>
       <c r="E554">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F554" t="s">
         <v>963</v>
@@ -25991,7 +25991,7 @@
         <v>945</v>
       </c>
       <c r="E555">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F555" t="s">
         <v>963</v>
@@ -26026,7 +26026,7 @@
         <v>945</v>
       </c>
       <c r="E556">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F556" t="s">
         <v>963</v>
@@ -26061,7 +26061,7 @@
         <v>946</v>
       </c>
       <c r="E557">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F557" t="s">
         <v>968</v>
@@ -26099,7 +26099,7 @@
         <v>946</v>
       </c>
       <c r="E558">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F558" t="s">
         <v>963</v>
@@ -26134,7 +26134,7 @@
         <v>947</v>
       </c>
       <c r="E559">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F559" t="s">
         <v>963</v>
@@ -26169,7 +26169,7 @@
         <v>948</v>
       </c>
       <c r="E560">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F560" t="s">
         <v>963</v>
@@ -26204,7 +26204,7 @@
         <v>948</v>
       </c>
       <c r="E561">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F561" t="s">
         <v>963</v>
@@ -26239,7 +26239,7 @@
         <v>948</v>
       </c>
       <c r="E562">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F562" t="s">
         <v>963</v>
@@ -26274,7 +26274,7 @@
         <v>948</v>
       </c>
       <c r="E563">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F563" t="s">
         <v>963</v>
@@ -26309,7 +26309,7 @@
         <v>948</v>
       </c>
       <c r="E564">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F564" t="s">
         <v>963</v>
@@ -26344,7 +26344,7 @@
         <v>948</v>
       </c>
       <c r="E565">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F565" t="s">
         <v>968</v>
@@ -26379,7 +26379,7 @@
         <v>948</v>
       </c>
       <c r="E566">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F566" t="s">
         <v>963</v>
@@ -26414,7 +26414,7 @@
         <v>949</v>
       </c>
       <c r="E567">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F567" t="s">
         <v>963</v>
@@ -26449,7 +26449,7 @@
         <v>949</v>
       </c>
       <c r="E568">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F568" t="s">
         <v>963</v>
@@ -26484,7 +26484,7 @@
         <v>949</v>
       </c>
       <c r="E569">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F569" t="s">
         <v>963</v>
@@ -26519,7 +26519,7 @@
         <v>949</v>
       </c>
       <c r="E570">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F570" t="s">
         <v>963</v>
@@ -26554,7 +26554,7 @@
         <v>949</v>
       </c>
       <c r="E571">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F571" t="s">
         <v>963</v>
@@ -26589,7 +26589,7 @@
         <v>949</v>
       </c>
       <c r="E572">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F572" t="s">
         <v>963</v>
@@ -26624,7 +26624,7 @@
         <v>949</v>
       </c>
       <c r="E573">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F573" t="s">
         <v>963</v>
@@ -26659,7 +26659,7 @@
         <v>949</v>
       </c>
       <c r="E574">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F574" t="s">
         <v>963</v>
@@ -26694,7 +26694,7 @@
         <v>950</v>
       </c>
       <c r="E575">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F575" t="s">
         <v>963</v>
@@ -26729,7 +26729,7 @@
         <v>950</v>
       </c>
       <c r="E576">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F576" t="s">
         <v>963</v>
@@ -26764,7 +26764,7 @@
         <v>950</v>
       </c>
       <c r="E577">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F577" t="s">
         <v>963</v>
@@ -26799,7 +26799,7 @@
         <v>950</v>
       </c>
       <c r="E578">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F578" t="s">
         <v>963</v>
@@ -26834,7 +26834,7 @@
         <v>950</v>
       </c>
       <c r="E579">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F579" t="s">
         <v>963</v>
@@ -26869,7 +26869,7 @@
         <v>950</v>
       </c>
       <c r="E580">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F580" t="s">
         <v>968</v>
@@ -26904,7 +26904,7 @@
         <v>950</v>
       </c>
       <c r="E581">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F581" t="s">
         <v>963</v>
@@ -26939,7 +26939,7 @@
         <v>950</v>
       </c>
       <c r="E582">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F582" t="s">
         <v>968</v>
@@ -26977,7 +26977,7 @@
         <v>950</v>
       </c>
       <c r="E583">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F583" t="s">
         <v>963</v>
@@ -27012,7 +27012,7 @@
         <v>951</v>
       </c>
       <c r="E584">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F584" t="s">
         <v>963</v>
@@ -27047,7 +27047,7 @@
         <v>951</v>
       </c>
       <c r="E585">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F585" t="s">
         <v>963</v>
@@ -27082,7 +27082,7 @@
         <v>951</v>
       </c>
       <c r="E586">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F586" t="s">
         <v>963</v>
@@ -27117,7 +27117,7 @@
         <v>951</v>
       </c>
       <c r="E587">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F587" t="s">
         <v>963</v>
@@ -27152,7 +27152,7 @@
         <v>951</v>
       </c>
       <c r="E588">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F588" t="s">
         <v>968</v>
@@ -27190,7 +27190,7 @@
         <v>951</v>
       </c>
       <c r="E589">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F589" t="s">
         <v>963</v>
@@ -27225,7 +27225,7 @@
         <v>951</v>
       </c>
       <c r="E590">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F590" t="s">
         <v>963</v>
@@ -27260,7 +27260,7 @@
         <v>951</v>
       </c>
       <c r="E591">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F591" t="s">
         <v>963</v>
@@ -27295,7 +27295,7 @@
         <v>951</v>
       </c>
       <c r="E592">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F592" t="s">
         <v>963</v>
@@ -27330,7 +27330,7 @@
         <v>951</v>
       </c>
       <c r="E593">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F593" t="s">
         <v>963</v>
@@ -27365,7 +27365,7 @@
         <v>951</v>
       </c>
       <c r="E594">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F594" t="s">
         <v>968</v>
@@ -27403,7 +27403,7 @@
         <v>951</v>
       </c>
       <c r="E595">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F595" t="s">
         <v>963</v>
@@ -27438,7 +27438,7 @@
         <v>951</v>
       </c>
       <c r="E596">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F596" t="s">
         <v>968</v>
@@ -27476,7 +27476,7 @@
         <v>951</v>
       </c>
       <c r="E597">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F597" t="s">
         <v>963</v>
@@ -27511,7 +27511,7 @@
         <v>951</v>
       </c>
       <c r="E598">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F598" t="s">
         <v>963</v>
@@ -27546,7 +27546,7 @@
         <v>951</v>
       </c>
       <c r="E599">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F599" t="s">
         <v>963</v>
@@ -27581,7 +27581,7 @@
         <v>952</v>
       </c>
       <c r="E600">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F600" t="s">
         <v>963</v>
@@ -27616,7 +27616,7 @@
         <v>952</v>
       </c>
       <c r="E601">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F601" t="s">
         <v>963</v>
@@ -27651,7 +27651,7 @@
         <v>952</v>
       </c>
       <c r="E602">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F602" t="s">
         <v>963</v>
@@ -27686,7 +27686,7 @@
         <v>952</v>
       </c>
       <c r="E603">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F603" t="s">
         <v>968</v>
@@ -27724,7 +27724,7 @@
         <v>952</v>
       </c>
       <c r="E604">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F604" t="s">
         <v>968</v>
@@ -27762,7 +27762,7 @@
         <v>952</v>
       </c>
       <c r="E605">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F605" t="s">
         <v>963</v>
@@ -27797,7 +27797,7 @@
         <v>952</v>
       </c>
       <c r="E606">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F606" t="s">
         <v>963</v>
@@ -27832,7 +27832,7 @@
         <v>952</v>
       </c>
       <c r="E607">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F607" t="s">
         <v>963</v>
@@ -27867,7 +27867,7 @@
         <v>952</v>
       </c>
       <c r="E608">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F608" t="s">
         <v>963</v>
@@ -27902,7 +27902,7 @@
         <v>952</v>
       </c>
       <c r="E609">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F609" t="s">
         <v>963</v>
@@ -27937,7 +27937,7 @@
         <v>952</v>
       </c>
       <c r="E610">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F610" t="s">
         <v>963</v>
@@ -27972,7 +27972,7 @@
         <v>953</v>
       </c>
       <c r="E611">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F611" t="s">
         <v>968</v>
@@ -28007,7 +28007,7 @@
         <v>953</v>
       </c>
       <c r="E612">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F612" t="s">
         <v>963</v>
@@ -28045,7 +28045,7 @@
         <v>953</v>
       </c>
       <c r="E613">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F613" t="s">
         <v>963</v>
@@ -28080,7 +28080,7 @@
         <v>953</v>
       </c>
       <c r="E614">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F614" t="s">
         <v>963</v>
@@ -28115,7 +28115,7 @@
         <v>953</v>
       </c>
       <c r="E615">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F615" t="s">
         <v>963</v>
@@ -28150,7 +28150,7 @@
         <v>954</v>
       </c>
       <c r="E616">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F616" t="s">
         <v>963</v>
@@ -28185,7 +28185,7 @@
         <v>954</v>
       </c>
       <c r="E617">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F617" t="s">
         <v>963</v>
@@ -28223,7 +28223,7 @@
         <v>954</v>
       </c>
       <c r="E618">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F618" t="s">
         <v>963</v>
@@ -28258,7 +28258,7 @@
         <v>954</v>
       </c>
       <c r="E619">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F619" t="s">
         <v>963</v>
@@ -28293,7 +28293,7 @@
         <v>954</v>
       </c>
       <c r="E620">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F620" t="s">
         <v>963</v>
@@ -28328,7 +28328,7 @@
         <v>955</v>
       </c>
       <c r="E621">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F621" t="s">
         <v>963</v>
@@ -28363,7 +28363,7 @@
         <v>955</v>
       </c>
       <c r="E622">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F622" t="s">
         <v>963</v>
@@ -28398,7 +28398,7 @@
         <v>955</v>
       </c>
       <c r="E623">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F623" t="s">
         <v>968</v>
@@ -28436,7 +28436,7 @@
         <v>955</v>
       </c>
       <c r="E624">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F624" t="s">
         <v>963</v>
@@ -28471,7 +28471,7 @@
         <v>956</v>
       </c>
       <c r="E625">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F625" t="s">
         <v>963</v>
@@ -28506,7 +28506,7 @@
         <v>956</v>
       </c>
       <c r="E626">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F626" t="s">
         <v>963</v>
@@ -28541,7 +28541,7 @@
         <v>956</v>
       </c>
       <c r="E627">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F627" t="s">
         <v>963</v>
@@ -28576,7 +28576,7 @@
         <v>956</v>
       </c>
       <c r="E628">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F628" t="s">
         <v>968</v>
@@ -28614,7 +28614,7 @@
         <v>956</v>
       </c>
       <c r="E629">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F629" t="s">
         <v>968</v>
@@ -28652,7 +28652,7 @@
         <v>956</v>
       </c>
       <c r="E630">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F630" t="s">
         <v>968</v>
@@ -28690,7 +28690,7 @@
         <v>956</v>
       </c>
       <c r="E631">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F631" t="s">
         <v>963</v>
@@ -28725,7 +28725,7 @@
         <v>957</v>
       </c>
       <c r="E632">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F632" t="s">
         <v>963</v>
@@ -28760,7 +28760,7 @@
         <v>957</v>
       </c>
       <c r="E633">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F633" t="s">
         <v>963</v>
@@ -28795,7 +28795,7 @@
         <v>957</v>
       </c>
       <c r="E634">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F634" t="s">
         <v>968</v>
@@ -28833,7 +28833,7 @@
         <v>957</v>
       </c>
       <c r="E635">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F635" t="s">
         <v>963</v>
@@ -28871,7 +28871,7 @@
         <v>957</v>
       </c>
       <c r="E636">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F636" t="s">
         <v>968</v>
@@ -28909,7 +28909,7 @@
         <v>957</v>
       </c>
       <c r="E637">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F637" t="s">
         <v>968</v>
@@ -28947,7 +28947,7 @@
         <v>958</v>
       </c>
       <c r="E638">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F638" t="s">
         <v>963</v>
@@ -28982,7 +28982,7 @@
         <v>958</v>
       </c>
       <c r="E639">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F639" t="s">
         <v>963</v>
@@ -29017,7 +29017,7 @@
         <v>958</v>
       </c>
       <c r="E640">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F640" t="s">
         <v>963</v>
@@ -29052,7 +29052,7 @@
         <v>958</v>
       </c>
       <c r="E641">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F641" t="s">
         <v>963</v>
@@ -29087,7 +29087,7 @@
         <v>958</v>
       </c>
       <c r="E642">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F642" t="s">
         <v>963</v>
@@ -29122,7 +29122,7 @@
         <v>958</v>
       </c>
       <c r="E643">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F643" t="s">
         <v>963</v>
@@ -29157,7 +29157,7 @@
         <v>958</v>
       </c>
       <c r="E644">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F644" t="s">
         <v>963</v>
@@ -29192,7 +29192,7 @@
         <v>958</v>
       </c>
       <c r="E645">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F645" t="s">
         <v>963</v>
@@ -29227,7 +29227,7 @@
         <v>959</v>
       </c>
       <c r="E646">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F646" t="s">
         <v>968</v>
@@ -29265,7 +29265,7 @@
         <v>959</v>
       </c>
       <c r="E647">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F647" t="s">
         <v>963</v>
@@ -29300,7 +29300,7 @@
         <v>959</v>
       </c>
       <c r="E648">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F648" t="s">
         <v>963</v>
@@ -29335,7 +29335,7 @@
         <v>959</v>
       </c>
       <c r="E649">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F649" t="s">
         <v>963</v>
@@ -29370,7 +29370,7 @@
         <v>959</v>
       </c>
       <c r="E650">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F650" t="s">
         <v>963</v>
@@ -29405,7 +29405,7 @@
         <v>959</v>
       </c>
       <c r="E651">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F651" t="s">
         <v>963</v>
@@ -29440,7 +29440,7 @@
         <v>959</v>
       </c>
       <c r="E652">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F652" t="s">
         <v>963</v>
@@ -29475,7 +29475,7 @@
         <v>959</v>
       </c>
       <c r="E653">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F653" t="s">
         <v>963</v>
@@ -29510,7 +29510,7 @@
         <v>959</v>
       </c>
       <c r="E654">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F654" t="s">
         <v>963</v>
@@ -29545,7 +29545,7 @@
         <v>959</v>
       </c>
       <c r="E655">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F655" t="s">
         <v>963</v>
@@ -29580,7 +29580,7 @@
         <v>959</v>
       </c>
       <c r="E656">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F656" t="s">
         <v>963</v>
@@ -29615,7 +29615,7 @@
         <v>959</v>
       </c>
       <c r="E657">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F657" t="s">
         <v>963</v>
@@ -29650,7 +29650,7 @@
         <v>959</v>
       </c>
       <c r="E658">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F658" t="s">
         <v>963</v>
@@ -29688,7 +29688,7 @@
         <v>959</v>
       </c>
       <c r="E659">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F659" t="s">
         <v>963</v>
@@ -29726,7 +29726,7 @@
         <v>959</v>
       </c>
       <c r="E660">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F660" t="s">
         <v>963</v>
@@ -29764,7 +29764,7 @@
         <v>959</v>
       </c>
       <c r="E661">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F661" t="s">
         <v>963</v>
@@ -29802,7 +29802,7 @@
         <v>960</v>
       </c>
       <c r="E662">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F662" t="s">
         <v>967</v>
@@ -29837,7 +29837,7 @@
         <v>960</v>
       </c>
       <c r="E663">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F663" t="s">
         <v>963</v>
@@ -29872,7 +29872,7 @@
         <v>960</v>
       </c>
       <c r="E664">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F664" t="s">
         <v>963</v>
@@ -29907,7 +29907,7 @@
         <v>960</v>
       </c>
       <c r="E665">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F665" t="s">
         <v>963</v>
@@ -29945,7 +29945,7 @@
         <v>960</v>
       </c>
       <c r="E666">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F666" t="s">
         <v>963</v>
@@ -29980,7 +29980,7 @@
         <v>960</v>
       </c>
       <c r="E667">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F667" t="s">
         <v>963</v>
@@ -30015,7 +30015,7 @@
         <v>960</v>
       </c>
       <c r="E668">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F668" t="s">
         <v>963</v>
@@ -30050,7 +30050,7 @@
         <v>960</v>
       </c>
       <c r="E669">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F669" t="s">
         <v>963</v>
@@ -30088,7 +30088,7 @@
         <v>960</v>
       </c>
       <c r="E670">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F670" t="s">
         <v>963</v>
@@ -30123,7 +30123,7 @@
         <v>960</v>
       </c>
       <c r="E671">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F671" t="s">
         <v>963</v>
@@ -30158,7 +30158,7 @@
         <v>960</v>
       </c>
       <c r="E672">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F672" t="s">
         <v>963</v>
@@ -30196,7 +30196,7 @@
         <v>960</v>
       </c>
       <c r="E673">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F673" t="s">
         <v>963</v>
@@ -30234,7 +30234,7 @@
         <v>960</v>
       </c>
       <c r="E674">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F674" t="s">
         <v>963</v>
@@ -30269,7 +30269,7 @@
         <v>960</v>
       </c>
       <c r="E675">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F675" t="s">
         <v>963</v>
@@ -30304,7 +30304,7 @@
         <v>960</v>
       </c>
       <c r="E676">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F676" t="s">
         <v>963</v>
@@ -30339,7 +30339,7 @@
         <v>960</v>
       </c>
       <c r="E677">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F677" t="s">
         <v>963</v>
@@ -30374,7 +30374,7 @@
         <v>961</v>
       </c>
       <c r="E678">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F678" t="s">
         <v>963</v>
@@ -30412,7 +30412,7 @@
         <v>961</v>
       </c>
       <c r="E679">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F679" t="s">
         <v>963</v>
@@ -30447,7 +30447,7 @@
         <v>961</v>
       </c>
       <c r="E680">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F680" t="s">
         <v>963</v>
@@ -30482,7 +30482,7 @@
         <v>961</v>
       </c>
       <c r="E681">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F681" t="s">
         <v>963</v>
@@ -30520,7 +30520,7 @@
         <v>961</v>
       </c>
       <c r="E682">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F682" t="s">
         <v>963</v>
@@ -30558,7 +30558,7 @@
         <v>962</v>
       </c>
       <c r="E683">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F683" t="s">
         <v>963</v>
@@ -30593,7 +30593,7 @@
         <v>962</v>
       </c>
       <c r="E684">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F684" t="s">
         <v>963</v>
@@ -30628,7 +30628,7 @@
         <v>962</v>
       </c>
       <c r="E685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F685" t="s">
         <v>963</v>
@@ -30666,7 +30666,7 @@
         <v>962</v>
       </c>
       <c r="E686">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F686" t="s">
         <v>963</v>
@@ -30704,7 +30704,7 @@
         <v>962</v>
       </c>
       <c r="E687">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F687" t="s">
         <v>963</v>
@@ -30739,7 +30739,7 @@
         <v>962</v>
       </c>
       <c r="E688">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F688" t="s">
         <v>963</v>
@@ -30774,7 +30774,7 @@
         <v>962</v>
       </c>
       <c r="E689">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F689" t="s">
         <v>963</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6471,7 +6471,7 @@
         <v>726</v>
       </c>
       <c r="E2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F2" t="s">
         <v>963</v>
@@ -6506,7 +6506,7 @@
         <v>727</v>
       </c>
       <c r="E3">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F3" t="s">
         <v>964</v>
@@ -6541,7 +6541,7 @@
         <v>728</v>
       </c>
       <c r="E4">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F4" t="s">
         <v>964</v>
@@ -6576,7 +6576,7 @@
         <v>729</v>
       </c>
       <c r="E5">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F5" t="s">
         <v>964</v>
@@ -6611,7 +6611,7 @@
         <v>730</v>
       </c>
       <c r="E6">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F6" t="s">
         <v>964</v>
@@ -6646,7 +6646,7 @@
         <v>731</v>
       </c>
       <c r="E7">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F7" t="s">
         <v>964</v>
@@ -6681,7 +6681,7 @@
         <v>732</v>
       </c>
       <c r="E8">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F8" t="s">
         <v>964</v>
@@ -6719,7 +6719,7 @@
         <v>733</v>
       </c>
       <c r="E9">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F9" t="s">
         <v>964</v>
@@ -6754,7 +6754,7 @@
         <v>734</v>
       </c>
       <c r="E10">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F10" t="s">
         <v>964</v>
@@ -6792,7 +6792,7 @@
         <v>735</v>
       </c>
       <c r="E11">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F11" t="s">
         <v>964</v>
@@ -6827,7 +6827,7 @@
         <v>736</v>
       </c>
       <c r="E12">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F12" t="s">
         <v>964</v>
@@ -6862,7 +6862,7 @@
         <v>737</v>
       </c>
       <c r="E13">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F13" t="s">
         <v>964</v>
@@ -6897,7 +6897,7 @@
         <v>738</v>
       </c>
       <c r="E14">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F14" t="s">
         <v>964</v>
@@ -6932,7 +6932,7 @@
         <v>739</v>
       </c>
       <c r="E15">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F15" t="s">
         <v>964</v>
@@ -6970,7 +6970,7 @@
         <v>740</v>
       </c>
       <c r="E16">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
         <v>964</v>
@@ -7008,7 +7008,7 @@
         <v>741</v>
       </c>
       <c r="E17">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F17" t="s">
         <v>964</v>
@@ -7046,7 +7046,7 @@
         <v>742</v>
       </c>
       <c r="E18">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F18" t="s">
         <v>964</v>
@@ -7081,7 +7081,7 @@
         <v>743</v>
       </c>
       <c r="E19">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F19" t="s">
         <v>964</v>
@@ -7116,7 +7116,7 @@
         <v>744</v>
       </c>
       <c r="E20">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F20" t="s">
         <v>964</v>
@@ -7151,7 +7151,7 @@
         <v>745</v>
       </c>
       <c r="E21">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F21" t="s">
         <v>964</v>
@@ -7186,7 +7186,7 @@
         <v>746</v>
       </c>
       <c r="E22">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F22" t="s">
         <v>964</v>
@@ -7221,7 +7221,7 @@
         <v>747</v>
       </c>
       <c r="E23">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
         <v>964</v>
@@ -7256,7 +7256,7 @@
         <v>747</v>
       </c>
       <c r="E24">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F24" t="s">
         <v>965</v>
@@ -7291,7 +7291,7 @@
         <v>748</v>
       </c>
       <c r="E25">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
         <v>964</v>
@@ -7326,7 +7326,7 @@
         <v>749</v>
       </c>
       <c r="E26">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F26" t="s">
         <v>964</v>
@@ -7361,7 +7361,7 @@
         <v>750</v>
       </c>
       <c r="E27">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F27" t="s">
         <v>964</v>
@@ -7396,7 +7396,7 @@
         <v>750</v>
       </c>
       <c r="E28">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>964</v>
@@ -7431,7 +7431,7 @@
         <v>751</v>
       </c>
       <c r="E29">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F29" t="s">
         <v>964</v>
@@ -7469,7 +7469,7 @@
         <v>752</v>
       </c>
       <c r="E30">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
         <v>964</v>
@@ -7504,7 +7504,7 @@
         <v>752</v>
       </c>
       <c r="E31">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F31" t="s">
         <v>964</v>
@@ -7539,7 +7539,7 @@
         <v>753</v>
       </c>
       <c r="E32">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F32" t="s">
         <v>964</v>
@@ -7577,7 +7577,7 @@
         <v>753</v>
       </c>
       <c r="E33">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F33" t="s">
         <v>964</v>
@@ -7615,7 +7615,7 @@
         <v>754</v>
       </c>
       <c r="E34">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F34" t="s">
         <v>964</v>
@@ -7650,7 +7650,7 @@
         <v>755</v>
       </c>
       <c r="E35">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F35" t="s">
         <v>964</v>
@@ -7685,7 +7685,7 @@
         <v>756</v>
       </c>
       <c r="E36">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F36" t="s">
         <v>964</v>
@@ -7720,7 +7720,7 @@
         <v>756</v>
       </c>
       <c r="E37">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F37" t="s">
         <v>964</v>
@@ -7755,7 +7755,7 @@
         <v>757</v>
       </c>
       <c r="E38">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F38" t="s">
         <v>964</v>
@@ -7790,7 +7790,7 @@
         <v>758</v>
       </c>
       <c r="E39">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F39" t="s">
         <v>964</v>
@@ -7825,7 +7825,7 @@
         <v>759</v>
       </c>
       <c r="E40">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F40" t="s">
         <v>964</v>
@@ -7860,7 +7860,7 @@
         <v>760</v>
       </c>
       <c r="E41">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F41" t="s">
         <v>964</v>
@@ -7895,7 +7895,7 @@
         <v>760</v>
       </c>
       <c r="E42">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F42" t="s">
         <v>964</v>
@@ -7930,7 +7930,7 @@
         <v>761</v>
       </c>
       <c r="E43">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F43" t="s">
         <v>964</v>
@@ -7965,7 +7965,7 @@
         <v>762</v>
       </c>
       <c r="E44">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F44" t="s">
         <v>964</v>
@@ -8000,7 +8000,7 @@
         <v>763</v>
       </c>
       <c r="E45">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F45" t="s">
         <v>964</v>
@@ -8035,7 +8035,7 @@
         <v>764</v>
       </c>
       <c r="E46">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F46" t="s">
         <v>964</v>
@@ -8070,7 +8070,7 @@
         <v>764</v>
       </c>
       <c r="E47">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
         <v>964</v>
@@ -8105,7 +8105,7 @@
         <v>765</v>
       </c>
       <c r="E48">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F48" t="s">
         <v>964</v>
@@ -8140,7 +8140,7 @@
         <v>766</v>
       </c>
       <c r="E49">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F49" t="s">
         <v>964</v>
@@ -8175,7 +8175,7 @@
         <v>766</v>
       </c>
       <c r="E50">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F50" t="s">
         <v>964</v>
@@ -8210,7 +8210,7 @@
         <v>767</v>
       </c>
       <c r="E51">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F51" t="s">
         <v>964</v>
@@ -8245,7 +8245,7 @@
         <v>768</v>
       </c>
       <c r="E52">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F52" t="s">
         <v>964</v>
@@ -8283,7 +8283,7 @@
         <v>769</v>
       </c>
       <c r="E53">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F53" t="s">
         <v>964</v>
@@ -8318,7 +8318,7 @@
         <v>770</v>
       </c>
       <c r="E54">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F54" t="s">
         <v>964</v>
@@ -8356,7 +8356,7 @@
         <v>771</v>
       </c>
       <c r="E55">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F55" t="s">
         <v>964</v>
@@ -8391,7 +8391,7 @@
         <v>772</v>
       </c>
       <c r="E56">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F56" t="s">
         <v>964</v>
@@ -8426,7 +8426,7 @@
         <v>773</v>
       </c>
       <c r="E57">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F57" t="s">
         <v>964</v>
@@ -8461,7 +8461,7 @@
         <v>774</v>
       </c>
       <c r="E58">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
         <v>964</v>
@@ -8496,7 +8496,7 @@
         <v>775</v>
       </c>
       <c r="E59">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
         <v>964</v>
@@ -8534,7 +8534,7 @@
         <v>776</v>
       </c>
       <c r="E60">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
         <v>964</v>
@@ -8569,7 +8569,7 @@
         <v>777</v>
       </c>
       <c r="E61">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F61" t="s">
         <v>966</v>
@@ -8604,7 +8604,7 @@
         <v>778</v>
       </c>
       <c r="E62">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
         <v>966</v>
@@ -8639,7 +8639,7 @@
         <v>779</v>
       </c>
       <c r="E63">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F63" t="s">
         <v>966</v>
@@ -8674,7 +8674,7 @@
         <v>780</v>
       </c>
       <c r="E64">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F64" t="s">
         <v>966</v>
@@ -8712,7 +8712,7 @@
         <v>781</v>
       </c>
       <c r="E65">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
         <v>966</v>
@@ -8747,7 +8747,7 @@
         <v>782</v>
       </c>
       <c r="E66">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F66" t="s">
         <v>964</v>
@@ -8782,7 +8782,7 @@
         <v>783</v>
       </c>
       <c r="E67">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>966</v>
@@ -8817,7 +8817,7 @@
         <v>784</v>
       </c>
       <c r="E68">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F68" t="s">
         <v>966</v>
@@ -8852,7 +8852,7 @@
         <v>785</v>
       </c>
       <c r="E69">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F69" t="s">
         <v>966</v>
@@ -8887,7 +8887,7 @@
         <v>786</v>
       </c>
       <c r="E70">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F70" t="s">
         <v>966</v>
@@ -8922,7 +8922,7 @@
         <v>786</v>
       </c>
       <c r="E71">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
         <v>966</v>
@@ -8957,7 +8957,7 @@
         <v>787</v>
       </c>
       <c r="E72">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F72" t="s">
         <v>964</v>
@@ -8995,7 +8995,7 @@
         <v>788</v>
       </c>
       <c r="E73">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F73" t="s">
         <v>966</v>
@@ -9030,7 +9030,7 @@
         <v>789</v>
       </c>
       <c r="E74">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>963</v>
@@ -9065,7 +9065,7 @@
         <v>790</v>
       </c>
       <c r="E75">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F75" t="s">
         <v>966</v>
@@ -9100,7 +9100,7 @@
         <v>790</v>
       </c>
       <c r="E76">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
         <v>966</v>
@@ -9135,7 +9135,7 @@
         <v>790</v>
       </c>
       <c r="E77">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F77" t="s">
         <v>966</v>
@@ -9170,7 +9170,7 @@
         <v>791</v>
       </c>
       <c r="E78">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F78" t="s">
         <v>965</v>
@@ -9205,7 +9205,7 @@
         <v>792</v>
       </c>
       <c r="E79">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
         <v>963</v>
@@ -9240,7 +9240,7 @@
         <v>793</v>
       </c>
       <c r="E80">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
         <v>966</v>
@@ -9275,7 +9275,7 @@
         <v>794</v>
       </c>
       <c r="E81">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F81" t="s">
         <v>963</v>
@@ -9313,7 +9313,7 @@
         <v>795</v>
       </c>
       <c r="E82">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F82" t="s">
         <v>966</v>
@@ -9348,7 +9348,7 @@
         <v>795</v>
       </c>
       <c r="E83">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
         <v>966</v>
@@ -9383,7 +9383,7 @@
         <v>795</v>
       </c>
       <c r="E84">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
         <v>963</v>
@@ -9418,7 +9418,7 @@
         <v>795</v>
       </c>
       <c r="E85">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
         <v>963</v>
@@ -9453,7 +9453,7 @@
         <v>796</v>
       </c>
       <c r="E86">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s">
         <v>965</v>
@@ -9488,7 +9488,7 @@
         <v>797</v>
       </c>
       <c r="E87">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
         <v>966</v>
@@ -9523,7 +9523,7 @@
         <v>797</v>
       </c>
       <c r="E88">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
         <v>966</v>
@@ -9558,7 +9558,7 @@
         <v>797</v>
       </c>
       <c r="E89">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F89" t="s">
         <v>966</v>
@@ -9593,7 +9593,7 @@
         <v>798</v>
       </c>
       <c r="E90">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F90" t="s">
         <v>966</v>
@@ -9628,7 +9628,7 @@
         <v>798</v>
       </c>
       <c r="E91">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F91" t="s">
         <v>966</v>
@@ -9663,7 +9663,7 @@
         <v>799</v>
       </c>
       <c r="E92">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
         <v>966</v>
@@ -9698,7 +9698,7 @@
         <v>800</v>
       </c>
       <c r="E93">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F93" t="s">
         <v>966</v>
@@ -9733,7 +9733,7 @@
         <v>800</v>
       </c>
       <c r="E94">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F94" t="s">
         <v>963</v>
@@ -9768,7 +9768,7 @@
         <v>801</v>
       </c>
       <c r="E95">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
         <v>966</v>
@@ -9803,7 +9803,7 @@
         <v>801</v>
       </c>
       <c r="E96">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
         <v>966</v>
@@ -9838,7 +9838,7 @@
         <v>802</v>
       </c>
       <c r="E97">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
         <v>966</v>
@@ -9876,7 +9876,7 @@
         <v>802</v>
       </c>
       <c r="E98">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F98" t="s">
         <v>966</v>
@@ -9911,7 +9911,7 @@
         <v>803</v>
       </c>
       <c r="E99">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
         <v>966</v>
@@ -9946,7 +9946,7 @@
         <v>803</v>
       </c>
       <c r="E100">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>963</v>
@@ -9981,7 +9981,7 @@
         <v>804</v>
       </c>
       <c r="E101">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F101" t="s">
         <v>966</v>
@@ -10016,7 +10016,7 @@
         <v>804</v>
       </c>
       <c r="E102">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F102" t="s">
         <v>963</v>
@@ -10051,7 +10051,7 @@
         <v>805</v>
       </c>
       <c r="E103">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F103" t="s">
         <v>963</v>
@@ -10086,7 +10086,7 @@
         <v>806</v>
       </c>
       <c r="E104">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F104" t="s">
         <v>963</v>
@@ -10121,7 +10121,7 @@
         <v>806</v>
       </c>
       <c r="E105">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
         <v>963</v>
@@ -10156,7 +10156,7 @@
         <v>806</v>
       </c>
       <c r="E106">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
         <v>966</v>
@@ -10191,7 +10191,7 @@
         <v>807</v>
       </c>
       <c r="E107">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F107" t="s">
         <v>963</v>
@@ -10226,7 +10226,7 @@
         <v>808</v>
       </c>
       <c r="E108">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F108" t="s">
         <v>963</v>
@@ -10261,7 +10261,7 @@
         <v>808</v>
       </c>
       <c r="E109">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F109" t="s">
         <v>963</v>
@@ -10299,7 +10299,7 @@
         <v>809</v>
       </c>
       <c r="E110">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F110" t="s">
         <v>967</v>
@@ -10334,7 +10334,7 @@
         <v>809</v>
       </c>
       <c r="E111">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F111" t="s">
         <v>967</v>
@@ -10369,7 +10369,7 @@
         <v>809</v>
       </c>
       <c r="E112">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F112" t="s">
         <v>967</v>
@@ -10404,7 +10404,7 @@
         <v>810</v>
       </c>
       <c r="E113">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F113" t="s">
         <v>967</v>
@@ -10439,7 +10439,7 @@
         <v>811</v>
       </c>
       <c r="E114">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F114" t="s">
         <v>967</v>
@@ -10477,7 +10477,7 @@
         <v>812</v>
       </c>
       <c r="E115">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F115" t="s">
         <v>963</v>
@@ -10512,7 +10512,7 @@
         <v>813</v>
       </c>
       <c r="E116">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
         <v>967</v>
@@ -10547,7 +10547,7 @@
         <v>814</v>
       </c>
       <c r="E117">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F117" t="s">
         <v>967</v>
@@ -10582,7 +10582,7 @@
         <v>814</v>
       </c>
       <c r="E118">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
         <v>963</v>
@@ -10617,7 +10617,7 @@
         <v>814</v>
       </c>
       <c r="E119">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
         <v>963</v>
@@ -10652,7 +10652,7 @@
         <v>815</v>
       </c>
       <c r="E120">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F120" t="s">
         <v>963</v>
@@ -10690,7 +10690,7 @@
         <v>816</v>
       </c>
       <c r="E121">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F121" t="s">
         <v>963</v>
@@ -10725,7 +10725,7 @@
         <v>816</v>
       </c>
       <c r="E122">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F122" t="s">
         <v>963</v>
@@ -10760,7 +10760,7 @@
         <v>816</v>
       </c>
       <c r="E123">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F123" t="s">
         <v>963</v>
@@ -10795,7 +10795,7 @@
         <v>817</v>
       </c>
       <c r="E124">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F124" t="s">
         <v>963</v>
@@ -10833,7 +10833,7 @@
         <v>817</v>
       </c>
       <c r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F125" t="s">
         <v>963</v>
@@ -10868,7 +10868,7 @@
         <v>817</v>
       </c>
       <c r="E126">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F126" t="s">
         <v>963</v>
@@ -10903,7 +10903,7 @@
         <v>817</v>
       </c>
       <c r="E127">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F127" t="s">
         <v>963</v>
@@ -10938,7 +10938,7 @@
         <v>818</v>
       </c>
       <c r="E128">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F128" t="s">
         <v>967</v>
@@ -10973,7 +10973,7 @@
         <v>818</v>
       </c>
       <c r="E129">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F129" t="s">
         <v>963</v>
@@ -11008,7 +11008,7 @@
         <v>819</v>
       </c>
       <c r="E130">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F130" t="s">
         <v>967</v>
@@ -11043,7 +11043,7 @@
         <v>819</v>
       </c>
       <c r="E131">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
         <v>963</v>
@@ -11078,7 +11078,7 @@
         <v>819</v>
       </c>
       <c r="E132">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
         <v>963</v>
@@ -11113,7 +11113,7 @@
         <v>819</v>
       </c>
       <c r="E133">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
         <v>965</v>
@@ -11151,7 +11151,7 @@
         <v>820</v>
       </c>
       <c r="E134">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
         <v>963</v>
@@ -11186,7 +11186,7 @@
         <v>821</v>
       </c>
       <c r="E135">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
         <v>963</v>
@@ -11221,7 +11221,7 @@
         <v>822</v>
       </c>
       <c r="E136">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
         <v>963</v>
@@ -11256,7 +11256,7 @@
         <v>822</v>
       </c>
       <c r="E137">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
         <v>965</v>
@@ -11291,7 +11291,7 @@
         <v>823</v>
       </c>
       <c r="E138">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
         <v>963</v>
@@ -11326,7 +11326,7 @@
         <v>823</v>
       </c>
       <c r="E139">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
         <v>967</v>
@@ -11361,7 +11361,7 @@
         <v>823</v>
       </c>
       <c r="E140">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F140" t="s">
         <v>963</v>
@@ -11396,7 +11396,7 @@
         <v>823</v>
       </c>
       <c r="E141">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
         <v>965</v>
@@ -11431,7 +11431,7 @@
         <v>823</v>
       </c>
       <c r="E142">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F142" t="s">
         <v>965</v>
@@ -11466,7 +11466,7 @@
         <v>823</v>
       </c>
       <c r="E143">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F143" t="s">
         <v>965</v>
@@ -11501,7 +11501,7 @@
         <v>823</v>
       </c>
       <c r="E144">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F144" t="s">
         <v>963</v>
@@ -11536,7 +11536,7 @@
         <v>824</v>
       </c>
       <c r="E145">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F145" t="s">
         <v>963</v>
@@ -11574,7 +11574,7 @@
         <v>825</v>
       </c>
       <c r="E146">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F146" t="s">
         <v>963</v>
@@ -11609,7 +11609,7 @@
         <v>825</v>
       </c>
       <c r="E147">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F147" t="s">
         <v>963</v>
@@ -11644,7 +11644,7 @@
         <v>825</v>
       </c>
       <c r="E148">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F148" t="s">
         <v>963</v>
@@ -11679,7 +11679,7 @@
         <v>826</v>
       </c>
       <c r="E149">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F149" t="s">
         <v>963</v>
@@ -11714,7 +11714,7 @@
         <v>827</v>
       </c>
       <c r="E150">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F150" t="s">
         <v>963</v>
@@ -11749,7 +11749,7 @@
         <v>828</v>
       </c>
       <c r="E151">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F151" t="s">
         <v>963</v>
@@ -11784,7 +11784,7 @@
         <v>829</v>
       </c>
       <c r="E152">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F152" t="s">
         <v>963</v>
@@ -11819,7 +11819,7 @@
         <v>830</v>
       </c>
       <c r="E153">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F153" t="s">
         <v>963</v>
@@ -11854,7 +11854,7 @@
         <v>830</v>
       </c>
       <c r="E154">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F154" t="s">
         <v>963</v>
@@ -11889,7 +11889,7 @@
         <v>831</v>
       </c>
       <c r="E155">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F155" t="s">
         <v>963</v>
@@ -11924,7 +11924,7 @@
         <v>832</v>
       </c>
       <c r="E156">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
         <v>963</v>
@@ -11959,7 +11959,7 @@
         <v>833</v>
       </c>
       <c r="E157">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F157" t="s">
         <v>963</v>
@@ -11994,7 +11994,7 @@
         <v>834</v>
       </c>
       <c r="E158">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F158" t="s">
         <v>963</v>
@@ -12029,7 +12029,7 @@
         <v>834</v>
       </c>
       <c r="E159">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F159" t="s">
         <v>963</v>
@@ -12064,7 +12064,7 @@
         <v>834</v>
       </c>
       <c r="E160">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F160" t="s">
         <v>963</v>
@@ -12099,7 +12099,7 @@
         <v>834</v>
       </c>
       <c r="E161">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F161" t="s">
         <v>963</v>
@@ -12134,7 +12134,7 @@
         <v>834</v>
       </c>
       <c r="E162">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F162" t="s">
         <v>963</v>
@@ -12169,7 +12169,7 @@
         <v>835</v>
       </c>
       <c r="E163">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F163" t="s">
         <v>963</v>
@@ -12204,7 +12204,7 @@
         <v>836</v>
       </c>
       <c r="E164">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F164" t="s">
         <v>963</v>
@@ -12239,7 +12239,7 @@
         <v>836</v>
       </c>
       <c r="E165">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F165" t="s">
         <v>963</v>
@@ -12274,7 +12274,7 @@
         <v>837</v>
       </c>
       <c r="E166">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F166" t="s">
         <v>963</v>
@@ -12309,7 +12309,7 @@
         <v>837</v>
       </c>
       <c r="E167">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F167" t="s">
         <v>963</v>
@@ -12344,7 +12344,7 @@
         <v>838</v>
       </c>
       <c r="E168">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F168" t="s">
         <v>963</v>
@@ -12379,7 +12379,7 @@
         <v>838</v>
       </c>
       <c r="E169">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F169" t="s">
         <v>963</v>
@@ -12414,7 +12414,7 @@
         <v>839</v>
       </c>
       <c r="E170">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F170" t="s">
         <v>963</v>
@@ -12449,7 +12449,7 @@
         <v>839</v>
       </c>
       <c r="E171">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F171" t="s">
         <v>963</v>
@@ -12484,7 +12484,7 @@
         <v>839</v>
       </c>
       <c r="E172">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F172" t="s">
         <v>963</v>
@@ -12519,7 +12519,7 @@
         <v>839</v>
       </c>
       <c r="E173">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F173" t="s">
         <v>963</v>
@@ -12554,7 +12554,7 @@
         <v>840</v>
       </c>
       <c r="E174">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F174" t="s">
         <v>963</v>
@@ -12589,7 +12589,7 @@
         <v>841</v>
       </c>
       <c r="E175">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F175" t="s">
         <v>963</v>
@@ -12624,7 +12624,7 @@
         <v>841</v>
       </c>
       <c r="E176">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F176" t="s">
         <v>963</v>
@@ -12659,7 +12659,7 @@
         <v>841</v>
       </c>
       <c r="E177">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F177" t="s">
         <v>963</v>
@@ -12694,7 +12694,7 @@
         <v>842</v>
       </c>
       <c r="E178">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F178" t="s">
         <v>963</v>
@@ -12729,7 +12729,7 @@
         <v>842</v>
       </c>
       <c r="E179">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F179" t="s">
         <v>963</v>
@@ -12764,7 +12764,7 @@
         <v>842</v>
       </c>
       <c r="E180">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F180" t="s">
         <v>963</v>
@@ -12799,7 +12799,7 @@
         <v>843</v>
       </c>
       <c r="E181">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F181" t="s">
         <v>963</v>
@@ -12834,7 +12834,7 @@
         <v>843</v>
       </c>
       <c r="E182">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F182" t="s">
         <v>963</v>
@@ -12869,7 +12869,7 @@
         <v>843</v>
       </c>
       <c r="E183">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F183" t="s">
         <v>963</v>
@@ -12904,7 +12904,7 @@
         <v>844</v>
       </c>
       <c r="E184">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F184" t="s">
         <v>963</v>
@@ -12939,7 +12939,7 @@
         <v>844</v>
       </c>
       <c r="E185">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F185" t="s">
         <v>963</v>
@@ -12977,7 +12977,7 @@
         <v>845</v>
       </c>
       <c r="E186">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F186" t="s">
         <v>963</v>
@@ -13012,7 +13012,7 @@
         <v>845</v>
       </c>
       <c r="E187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F187" t="s">
         <v>963</v>
@@ -13047,7 +13047,7 @@
         <v>845</v>
       </c>
       <c r="E188">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F188" t="s">
         <v>963</v>
@@ -13082,7 +13082,7 @@
         <v>845</v>
       </c>
       <c r="E189">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F189" t="s">
         <v>963</v>
@@ -13117,7 +13117,7 @@
         <v>846</v>
       </c>
       <c r="E190">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F190" t="s">
         <v>963</v>
@@ -13152,7 +13152,7 @@
         <v>847</v>
       </c>
       <c r="E191">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F191" t="s">
         <v>968</v>
@@ -13187,7 +13187,7 @@
         <v>847</v>
       </c>
       <c r="E192">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F192" t="s">
         <v>963</v>
@@ -13222,7 +13222,7 @@
         <v>847</v>
       </c>
       <c r="E193">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F193" t="s">
         <v>963</v>
@@ -13257,7 +13257,7 @@
         <v>848</v>
       </c>
       <c r="E194">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F194" t="s">
         <v>965</v>
@@ -13292,7 +13292,7 @@
         <v>849</v>
       </c>
       <c r="E195">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F195" t="s">
         <v>963</v>
@@ -13327,7 +13327,7 @@
         <v>849</v>
       </c>
       <c r="E196">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F196" t="s">
         <v>963</v>
@@ -13362,7 +13362,7 @@
         <v>849</v>
       </c>
       <c r="E197">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F197" t="s">
         <v>963</v>
@@ -13397,7 +13397,7 @@
         <v>850</v>
       </c>
       <c r="E198">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F198" t="s">
         <v>963</v>
@@ -13432,7 +13432,7 @@
         <v>851</v>
       </c>
       <c r="E199">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F199" t="s">
         <v>963</v>
@@ -13467,7 +13467,7 @@
         <v>852</v>
       </c>
       <c r="E200">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F200" t="s">
         <v>963</v>
@@ -13505,7 +13505,7 @@
         <v>853</v>
       </c>
       <c r="E201">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F201" t="s">
         <v>963</v>
@@ -13540,7 +13540,7 @@
         <v>853</v>
       </c>
       <c r="E202">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F202" t="s">
         <v>963</v>
@@ -13575,7 +13575,7 @@
         <v>853</v>
       </c>
       <c r="E203">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F203" t="s">
         <v>963</v>
@@ -13610,7 +13610,7 @@
         <v>854</v>
       </c>
       <c r="E204">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F204" t="s">
         <v>963</v>
@@ -13645,7 +13645,7 @@
         <v>855</v>
       </c>
       <c r="E205">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F205" t="s">
         <v>963</v>
@@ -13680,7 +13680,7 @@
         <v>855</v>
       </c>
       <c r="E206">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F206" t="s">
         <v>963</v>
@@ -13715,7 +13715,7 @@
         <v>855</v>
       </c>
       <c r="E207">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F207" t="s">
         <v>963</v>
@@ -13750,7 +13750,7 @@
         <v>855</v>
       </c>
       <c r="E208">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F208" t="s">
         <v>963</v>
@@ -13785,7 +13785,7 @@
         <v>855</v>
       </c>
       <c r="E209">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F209" t="s">
         <v>963</v>
@@ -13820,7 +13820,7 @@
         <v>856</v>
       </c>
       <c r="E210">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F210" t="s">
         <v>963</v>
@@ -13855,7 +13855,7 @@
         <v>857</v>
       </c>
       <c r="E211">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F211" t="s">
         <v>963</v>
@@ -13890,7 +13890,7 @@
         <v>857</v>
       </c>
       <c r="E212">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F212" t="s">
         <v>963</v>
@@ -13925,7 +13925,7 @@
         <v>858</v>
       </c>
       <c r="E213">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F213" t="s">
         <v>963</v>
@@ -13960,7 +13960,7 @@
         <v>858</v>
       </c>
       <c r="E214">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F214" t="s">
         <v>963</v>
@@ -13995,7 +13995,7 @@
         <v>858</v>
       </c>
       <c r="E215">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F215" t="s">
         <v>963</v>
@@ -14030,7 +14030,7 @@
         <v>859</v>
       </c>
       <c r="E216">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F216" t="s">
         <v>963</v>
@@ -14065,7 +14065,7 @@
         <v>859</v>
       </c>
       <c r="E217">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F217" t="s">
         <v>963</v>
@@ -14100,7 +14100,7 @@
         <v>859</v>
       </c>
       <c r="E218">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F218" t="s">
         <v>963</v>
@@ -14135,7 +14135,7 @@
         <v>860</v>
       </c>
       <c r="E219">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F219" t="s">
         <v>963</v>
@@ -14170,7 +14170,7 @@
         <v>860</v>
       </c>
       <c r="E220">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F220" t="s">
         <v>963</v>
@@ -14205,7 +14205,7 @@
         <v>861</v>
       </c>
       <c r="E221">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F221" t="s">
         <v>963</v>
@@ -14240,7 +14240,7 @@
         <v>861</v>
       </c>
       <c r="E222">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F222" t="s">
         <v>963</v>
@@ -14275,7 +14275,7 @@
         <v>862</v>
       </c>
       <c r="E223">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F223" t="s">
         <v>963</v>
@@ -14310,7 +14310,7 @@
         <v>862</v>
       </c>
       <c r="E224">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F224" t="s">
         <v>963</v>
@@ -14345,7 +14345,7 @@
         <v>862</v>
       </c>
       <c r="E225">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F225" t="s">
         <v>963</v>
@@ -14380,7 +14380,7 @@
         <v>863</v>
       </c>
       <c r="E226">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F226" t="s">
         <v>963</v>
@@ -14415,7 +14415,7 @@
         <v>863</v>
       </c>
       <c r="E227">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F227" t="s">
         <v>963</v>
@@ -14453,7 +14453,7 @@
         <v>863</v>
       </c>
       <c r="E228">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F228" t="s">
         <v>963</v>
@@ -14488,7 +14488,7 @@
         <v>864</v>
       </c>
       <c r="E229">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F229" t="s">
         <v>963</v>
@@ -14523,7 +14523,7 @@
         <v>864</v>
       </c>
       <c r="E230">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F230" t="s">
         <v>963</v>
@@ -14558,7 +14558,7 @@
         <v>865</v>
       </c>
       <c r="E231">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F231" t="s">
         <v>963</v>
@@ -14593,7 +14593,7 @@
         <v>866</v>
       </c>
       <c r="E232">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F232" t="s">
         <v>968</v>
@@ -14631,7 +14631,7 @@
         <v>866</v>
       </c>
       <c r="E233">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F233" t="s">
         <v>963</v>
@@ -14666,7 +14666,7 @@
         <v>866</v>
       </c>
       <c r="E234">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F234" t="s">
         <v>963</v>
@@ -14701,7 +14701,7 @@
         <v>866</v>
       </c>
       <c r="E235">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F235" t="s">
         <v>963</v>
@@ -14736,7 +14736,7 @@
         <v>866</v>
       </c>
       <c r="E236">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F236" t="s">
         <v>963</v>
@@ -14771,7 +14771,7 @@
         <v>867</v>
       </c>
       <c r="E237">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F237" t="s">
         <v>963</v>
@@ -14806,7 +14806,7 @@
         <v>867</v>
       </c>
       <c r="E238">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F238" t="s">
         <v>963</v>
@@ -14841,7 +14841,7 @@
         <v>867</v>
       </c>
       <c r="E239">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F239" t="s">
         <v>963</v>
@@ -14876,7 +14876,7 @@
         <v>867</v>
       </c>
       <c r="E240">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F240" t="s">
         <v>968</v>
@@ -14911,7 +14911,7 @@
         <v>867</v>
       </c>
       <c r="E241">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F241" t="s">
         <v>963</v>
@@ -14949,7 +14949,7 @@
         <v>867</v>
       </c>
       <c r="E242">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F242" t="s">
         <v>963</v>
@@ -14984,7 +14984,7 @@
         <v>868</v>
       </c>
       <c r="E243">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F243" t="s">
         <v>963</v>
@@ -15019,7 +15019,7 @@
         <v>868</v>
       </c>
       <c r="E244">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F244" t="s">
         <v>963</v>
@@ -15054,7 +15054,7 @@
         <v>868</v>
       </c>
       <c r="E245">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F245" t="s">
         <v>963</v>
@@ -15089,7 +15089,7 @@
         <v>869</v>
       </c>
       <c r="E246">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F246" t="s">
         <v>963</v>
@@ -15124,7 +15124,7 @@
         <v>869</v>
       </c>
       <c r="E247">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F247" t="s">
         <v>963</v>
@@ -15159,7 +15159,7 @@
         <v>869</v>
       </c>
       <c r="E248">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F248" t="s">
         <v>963</v>
@@ -15197,7 +15197,7 @@
         <v>869</v>
       </c>
       <c r="E249">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F249" t="s">
         <v>963</v>
@@ -15232,7 +15232,7 @@
         <v>870</v>
       </c>
       <c r="E250">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F250" t="s">
         <v>963</v>
@@ -15267,7 +15267,7 @@
         <v>870</v>
       </c>
       <c r="E251">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F251" t="s">
         <v>963</v>
@@ -15302,7 +15302,7 @@
         <v>870</v>
       </c>
       <c r="E252">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F252" t="s">
         <v>963</v>
@@ -15337,7 +15337,7 @@
         <v>870</v>
       </c>
       <c r="E253">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F253" t="s">
         <v>963</v>
@@ -15372,7 +15372,7 @@
         <v>871</v>
       </c>
       <c r="E254">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F254" t="s">
         <v>963</v>
@@ -15407,7 +15407,7 @@
         <v>871</v>
       </c>
       <c r="E255">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F255" t="s">
         <v>963</v>
@@ -15442,7 +15442,7 @@
         <v>871</v>
       </c>
       <c r="E256">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F256" t="s">
         <v>963</v>
@@ -15477,7 +15477,7 @@
         <v>871</v>
       </c>
       <c r="E257">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F257" t="s">
         <v>963</v>
@@ -15512,7 +15512,7 @@
         <v>872</v>
       </c>
       <c r="E258">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F258" t="s">
         <v>963</v>
@@ -15547,7 +15547,7 @@
         <v>872</v>
       </c>
       <c r="E259">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F259" t="s">
         <v>963</v>
@@ -15582,7 +15582,7 @@
         <v>873</v>
       </c>
       <c r="E260">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F260" t="s">
         <v>963</v>
@@ -15617,7 +15617,7 @@
         <v>873</v>
       </c>
       <c r="E261">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F261" t="s">
         <v>963</v>
@@ -15652,7 +15652,7 @@
         <v>874</v>
       </c>
       <c r="E262">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F262" t="s">
         <v>963</v>
@@ -15690,7 +15690,7 @@
         <v>874</v>
       </c>
       <c r="E263">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F263" t="s">
         <v>963</v>
@@ -15728,7 +15728,7 @@
         <v>874</v>
       </c>
       <c r="E264">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F264" t="s">
         <v>963</v>
@@ -15766,7 +15766,7 @@
         <v>875</v>
       </c>
       <c r="E265">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F265" t="s">
         <v>963</v>
@@ -15801,7 +15801,7 @@
         <v>875</v>
       </c>
       <c r="E266">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F266" t="s">
         <v>963</v>
@@ -15836,7 +15836,7 @@
         <v>875</v>
       </c>
       <c r="E267">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F267" t="s">
         <v>963</v>
@@ -15871,7 +15871,7 @@
         <v>876</v>
       </c>
       <c r="E268">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F268" t="s">
         <v>963</v>
@@ -15906,7 +15906,7 @@
         <v>876</v>
       </c>
       <c r="E269">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F269" t="s">
         <v>963</v>
@@ -15944,7 +15944,7 @@
         <v>876</v>
       </c>
       <c r="E270">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F270" t="s">
         <v>963</v>
@@ -15979,7 +15979,7 @@
         <v>877</v>
       </c>
       <c r="E271">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F271" t="s">
         <v>963</v>
@@ -16014,7 +16014,7 @@
         <v>877</v>
       </c>
       <c r="E272">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F272" t="s">
         <v>963</v>
@@ -16049,7 +16049,7 @@
         <v>878</v>
       </c>
       <c r="E273">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F273" t="s">
         <v>963</v>
@@ -16084,7 +16084,7 @@
         <v>878</v>
       </c>
       <c r="E274">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F274" t="s">
         <v>963</v>
@@ -16119,7 +16119,7 @@
         <v>878</v>
       </c>
       <c r="E275">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F275" t="s">
         <v>963</v>
@@ -16154,7 +16154,7 @@
         <v>878</v>
       </c>
       <c r="E276">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F276" t="s">
         <v>963</v>
@@ -16189,7 +16189,7 @@
         <v>879</v>
       </c>
       <c r="E277">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F277" t="s">
         <v>963</v>
@@ -16224,7 +16224,7 @@
         <v>879</v>
       </c>
       <c r="E278">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F278" t="s">
         <v>963</v>
@@ -16259,7 +16259,7 @@
         <v>879</v>
       </c>
       <c r="E279">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F279" t="s">
         <v>963</v>
@@ -16294,7 +16294,7 @@
         <v>880</v>
       </c>
       <c r="E280">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F280" t="s">
         <v>963</v>
@@ -16329,7 +16329,7 @@
         <v>880</v>
       </c>
       <c r="E281">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F281" t="s">
         <v>963</v>
@@ -16364,7 +16364,7 @@
         <v>880</v>
       </c>
       <c r="E282">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F282" t="s">
         <v>963</v>
@@ -16399,7 +16399,7 @@
         <v>880</v>
       </c>
       <c r="E283">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F283" t="s">
         <v>963</v>
@@ -16434,7 +16434,7 @@
         <v>880</v>
       </c>
       <c r="E284">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F284" t="s">
         <v>963</v>
@@ -16469,7 +16469,7 @@
         <v>880</v>
       </c>
       <c r="E285">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F285" t="s">
         <v>963</v>
@@ -16504,7 +16504,7 @@
         <v>880</v>
       </c>
       <c r="E286">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F286" t="s">
         <v>963</v>
@@ -16539,7 +16539,7 @@
         <v>880</v>
       </c>
       <c r="E287">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F287" t="s">
         <v>963</v>
@@ -16574,7 +16574,7 @@
         <v>881</v>
       </c>
       <c r="E288">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F288" t="s">
         <v>963</v>
@@ -16609,7 +16609,7 @@
         <v>881</v>
       </c>
       <c r="E289">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F289" t="s">
         <v>963</v>
@@ -16644,7 +16644,7 @@
         <v>882</v>
       </c>
       <c r="E290">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F290" t="s">
         <v>964</v>
@@ -16679,7 +16679,7 @@
         <v>882</v>
       </c>
       <c r="E291">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F291" t="s">
         <v>963</v>
@@ -16714,7 +16714,7 @@
         <v>883</v>
       </c>
       <c r="E292">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F292" t="s">
         <v>963</v>
@@ -16749,7 +16749,7 @@
         <v>883</v>
       </c>
       <c r="E293">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F293" t="s">
         <v>963</v>
@@ -16784,7 +16784,7 @@
         <v>884</v>
       </c>
       <c r="E294">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F294" t="s">
         <v>963</v>
@@ -16819,7 +16819,7 @@
         <v>884</v>
       </c>
       <c r="E295">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F295" t="s">
         <v>963</v>
@@ -16854,7 +16854,7 @@
         <v>884</v>
       </c>
       <c r="E296">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F296" t="s">
         <v>963</v>
@@ -16889,7 +16889,7 @@
         <v>884</v>
       </c>
       <c r="E297">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F297" t="s">
         <v>963</v>
@@ -16924,7 +16924,7 @@
         <v>884</v>
       </c>
       <c r="E298">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F298" t="s">
         <v>963</v>
@@ -16959,7 +16959,7 @@
         <v>884</v>
       </c>
       <c r="E299">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F299" t="s">
         <v>963</v>
@@ -16994,7 +16994,7 @@
         <v>884</v>
       </c>
       <c r="E300">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F300" t="s">
         <v>963</v>
@@ -17029,7 +17029,7 @@
         <v>884</v>
       </c>
       <c r="E301">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F301" t="s">
         <v>963</v>
@@ -17064,7 +17064,7 @@
         <v>885</v>
       </c>
       <c r="E302">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F302" t="s">
         <v>963</v>
@@ -17099,7 +17099,7 @@
         <v>885</v>
       </c>
       <c r="E303">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F303" t="s">
         <v>963</v>
@@ -17134,7 +17134,7 @@
         <v>885</v>
       </c>
       <c r="E304">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F304" t="s">
         <v>963</v>
@@ -17169,7 +17169,7 @@
         <v>885</v>
       </c>
       <c r="E305">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F305" t="s">
         <v>963</v>
@@ -17204,7 +17204,7 @@
         <v>886</v>
       </c>
       <c r="E306">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F306" t="s">
         <v>963</v>
@@ -17239,7 +17239,7 @@
         <v>886</v>
       </c>
       <c r="E307">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F307" t="s">
         <v>963</v>
@@ -17274,7 +17274,7 @@
         <v>886</v>
       </c>
       <c r="E308">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F308" t="s">
         <v>963</v>
@@ -17309,7 +17309,7 @@
         <v>887</v>
       </c>
       <c r="E309">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F309" t="s">
         <v>963</v>
@@ -17344,7 +17344,7 @@
         <v>887</v>
       </c>
       <c r="E310">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F310" t="s">
         <v>963</v>
@@ -17379,7 +17379,7 @@
         <v>888</v>
       </c>
       <c r="E311">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F311" t="s">
         <v>963</v>
@@ -17414,7 +17414,7 @@
         <v>888</v>
       </c>
       <c r="E312">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F312" t="s">
         <v>963</v>
@@ -17449,7 +17449,7 @@
         <v>888</v>
       </c>
       <c r="E313">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F313" t="s">
         <v>963</v>
@@ -17484,7 +17484,7 @@
         <v>888</v>
       </c>
       <c r="E314">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F314" t="s">
         <v>963</v>
@@ -17519,7 +17519,7 @@
         <v>889</v>
       </c>
       <c r="E315">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F315" t="s">
         <v>963</v>
@@ -17554,7 +17554,7 @@
         <v>889</v>
       </c>
       <c r="E316">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F316" t="s">
         <v>963</v>
@@ -17589,7 +17589,7 @@
         <v>889</v>
       </c>
       <c r="E317">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F317" t="s">
         <v>963</v>
@@ -17624,7 +17624,7 @@
         <v>889</v>
       </c>
       <c r="E318">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F318" t="s">
         <v>963</v>
@@ -17659,7 +17659,7 @@
         <v>889</v>
       </c>
       <c r="E319">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F319" t="s">
         <v>963</v>
@@ -17694,7 +17694,7 @@
         <v>890</v>
       </c>
       <c r="E320">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F320" t="s">
         <v>963</v>
@@ -17729,7 +17729,7 @@
         <v>890</v>
       </c>
       <c r="E321">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F321" t="s">
         <v>963</v>
@@ -17767,7 +17767,7 @@
         <v>890</v>
       </c>
       <c r="E322">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F322" t="s">
         <v>963</v>
@@ -17802,7 +17802,7 @@
         <v>891</v>
       </c>
       <c r="E323">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F323" t="s">
         <v>963</v>
@@ -17837,7 +17837,7 @@
         <v>891</v>
       </c>
       <c r="E324">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F324" t="s">
         <v>963</v>
@@ -17872,7 +17872,7 @@
         <v>891</v>
       </c>
       <c r="E325">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F325" t="s">
         <v>963</v>
@@ -17907,7 +17907,7 @@
         <v>891</v>
       </c>
       <c r="E326">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F326" t="s">
         <v>963</v>
@@ -17942,7 +17942,7 @@
         <v>892</v>
       </c>
       <c r="E327">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F327" t="s">
         <v>963</v>
@@ -17977,7 +17977,7 @@
         <v>892</v>
       </c>
       <c r="E328">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F328" t="s">
         <v>963</v>
@@ -18012,7 +18012,7 @@
         <v>892</v>
       </c>
       <c r="E329">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F329" t="s">
         <v>963</v>
@@ -18047,7 +18047,7 @@
         <v>892</v>
       </c>
       <c r="E330">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F330" t="s">
         <v>963</v>
@@ -18082,7 +18082,7 @@
         <v>892</v>
       </c>
       <c r="E331">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F331" t="s">
         <v>963</v>
@@ -18117,7 +18117,7 @@
         <v>892</v>
       </c>
       <c r="E332">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F332" t="s">
         <v>963</v>
@@ -18152,7 +18152,7 @@
         <v>892</v>
       </c>
       <c r="E333">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F333" t="s">
         <v>963</v>
@@ -18187,7 +18187,7 @@
         <v>892</v>
       </c>
       <c r="E334">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F334" t="s">
         <v>963</v>
@@ -18222,7 +18222,7 @@
         <v>892</v>
       </c>
       <c r="E335">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F335" t="s">
         <v>963</v>
@@ -18257,7 +18257,7 @@
         <v>893</v>
       </c>
       <c r="E336">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F336" t="s">
         <v>963</v>
@@ -18292,7 +18292,7 @@
         <v>893</v>
       </c>
       <c r="E337">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F337" t="s">
         <v>963</v>
@@ -18330,7 +18330,7 @@
         <v>893</v>
       </c>
       <c r="E338">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F338" t="s">
         <v>963</v>
@@ -18365,7 +18365,7 @@
         <v>893</v>
       </c>
       <c r="E339">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F339" t="s">
         <v>963</v>
@@ -18400,7 +18400,7 @@
         <v>894</v>
       </c>
       <c r="E340">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F340" t="s">
         <v>963</v>
@@ -18435,7 +18435,7 @@
         <v>894</v>
       </c>
       <c r="E341">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F341" t="s">
         <v>963</v>
@@ -18470,7 +18470,7 @@
         <v>894</v>
       </c>
       <c r="E342">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F342" t="s">
         <v>963</v>
@@ -18505,7 +18505,7 @@
         <v>894</v>
       </c>
       <c r="E343">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F343" t="s">
         <v>963</v>
@@ -18540,7 +18540,7 @@
         <v>894</v>
       </c>
       <c r="E344">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F344" t="s">
         <v>963</v>
@@ -18575,7 +18575,7 @@
         <v>894</v>
       </c>
       <c r="E345">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F345" t="s">
         <v>963</v>
@@ -18610,7 +18610,7 @@
         <v>894</v>
       </c>
       <c r="E346">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F346" t="s">
         <v>963</v>
@@ -18645,7 +18645,7 @@
         <v>894</v>
       </c>
       <c r="E347">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F347" t="s">
         <v>963</v>
@@ -18683,7 +18683,7 @@
         <v>895</v>
       </c>
       <c r="E348">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F348" t="s">
         <v>963</v>
@@ -18718,7 +18718,7 @@
         <v>895</v>
       </c>
       <c r="E349">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F349" t="s">
         <v>963</v>
@@ -18753,7 +18753,7 @@
         <v>896</v>
       </c>
       <c r="E350">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F350" t="s">
         <v>963</v>
@@ -18791,7 +18791,7 @@
         <v>896</v>
       </c>
       <c r="E351">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F351" t="s">
         <v>963</v>
@@ -18826,7 +18826,7 @@
         <v>896</v>
       </c>
       <c r="E352">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F352" t="s">
         <v>963</v>
@@ -18861,7 +18861,7 @@
         <v>896</v>
       </c>
       <c r="E353">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F353" t="s">
         <v>963</v>
@@ -18896,7 +18896,7 @@
         <v>896</v>
       </c>
       <c r="E354">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F354" t="s">
         <v>963</v>
@@ -18934,7 +18934,7 @@
         <v>897</v>
       </c>
       <c r="E355">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F355" t="s">
         <v>963</v>
@@ -18969,7 +18969,7 @@
         <v>897</v>
       </c>
       <c r="E356">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F356" t="s">
         <v>963</v>
@@ -19004,7 +19004,7 @@
         <v>897</v>
       </c>
       <c r="E357">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F357" t="s">
         <v>963</v>
@@ -19039,7 +19039,7 @@
         <v>897</v>
       </c>
       <c r="E358">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F358" t="s">
         <v>963</v>
@@ -19074,7 +19074,7 @@
         <v>897</v>
       </c>
       <c r="E359">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F359" t="s">
         <v>963</v>
@@ -19109,7 +19109,7 @@
         <v>897</v>
       </c>
       <c r="E360">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F360" t="s">
         <v>963</v>
@@ -19144,7 +19144,7 @@
         <v>897</v>
       </c>
       <c r="E361">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F361" t="s">
         <v>963</v>
@@ -19179,7 +19179,7 @@
         <v>898</v>
       </c>
       <c r="E362">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F362" t="s">
         <v>963</v>
@@ -19214,7 +19214,7 @@
         <v>898</v>
       </c>
       <c r="E363">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F363" t="s">
         <v>963</v>
@@ -19249,7 +19249,7 @@
         <v>898</v>
       </c>
       <c r="E364">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F364" t="s">
         <v>963</v>
@@ -19287,7 +19287,7 @@
         <v>898</v>
       </c>
       <c r="E365">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F365" t="s">
         <v>963</v>
@@ -19322,7 +19322,7 @@
         <v>898</v>
       </c>
       <c r="E366">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F366" t="s">
         <v>963</v>
@@ -19357,7 +19357,7 @@
         <v>899</v>
       </c>
       <c r="E367">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F367" t="s">
         <v>963</v>
@@ -19392,7 +19392,7 @@
         <v>900</v>
       </c>
       <c r="E368">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F368" t="s">
         <v>963</v>
@@ -19430,7 +19430,7 @@
         <v>900</v>
       </c>
       <c r="E369">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F369" t="s">
         <v>963</v>
@@ -19465,7 +19465,7 @@
         <v>900</v>
       </c>
       <c r="E370">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F370" t="s">
         <v>963</v>
@@ -19500,7 +19500,7 @@
         <v>900</v>
       </c>
       <c r="E371">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F371" t="s">
         <v>963</v>
@@ -19535,7 +19535,7 @@
         <v>900</v>
       </c>
       <c r="E372">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F372" t="s">
         <v>963</v>
@@ -19570,7 +19570,7 @@
         <v>900</v>
       </c>
       <c r="E373">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F373" t="s">
         <v>963</v>
@@ -19605,7 +19605,7 @@
         <v>900</v>
       </c>
       <c r="E374">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F374" t="s">
         <v>963</v>
@@ -19640,7 +19640,7 @@
         <v>900</v>
       </c>
       <c r="E375">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F375" t="s">
         <v>963</v>
@@ -19675,7 +19675,7 @@
         <v>900</v>
       </c>
       <c r="E376">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F376" t="s">
         <v>963</v>
@@ -19710,7 +19710,7 @@
         <v>900</v>
       </c>
       <c r="E377">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F377" t="s">
         <v>963</v>
@@ -19745,7 +19745,7 @@
         <v>900</v>
       </c>
       <c r="E378">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F378" t="s">
         <v>963</v>
@@ -19780,7 +19780,7 @@
         <v>900</v>
       </c>
       <c r="E379">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F379" t="s">
         <v>963</v>
@@ -19815,7 +19815,7 @@
         <v>900</v>
       </c>
       <c r="E380">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F380" t="s">
         <v>963</v>
@@ -19850,7 +19850,7 @@
         <v>901</v>
       </c>
       <c r="E381">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F381" t="s">
         <v>963</v>
@@ -19885,7 +19885,7 @@
         <v>901</v>
       </c>
       <c r="E382">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F382" t="s">
         <v>963</v>
@@ -19920,7 +19920,7 @@
         <v>901</v>
       </c>
       <c r="E383">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F383" t="s">
         <v>963</v>
@@ -19955,7 +19955,7 @@
         <v>901</v>
       </c>
       <c r="E384">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F384" t="s">
         <v>963</v>
@@ -19990,7 +19990,7 @@
         <v>901</v>
       </c>
       <c r="E385">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F385" t="s">
         <v>963</v>
@@ -20025,7 +20025,7 @@
         <v>901</v>
       </c>
       <c r="E386">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F386" t="s">
         <v>963</v>
@@ -20060,7 +20060,7 @@
         <v>901</v>
       </c>
       <c r="E387">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F387" t="s">
         <v>968</v>
@@ -20095,7 +20095,7 @@
         <v>901</v>
       </c>
       <c r="E388">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F388" t="s">
         <v>963</v>
@@ -20130,7 +20130,7 @@
         <v>902</v>
       </c>
       <c r="E389">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F389" t="s">
         <v>963</v>
@@ -20168,7 +20168,7 @@
         <v>903</v>
       </c>
       <c r="E390">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F390" t="s">
         <v>963</v>
@@ -20203,7 +20203,7 @@
         <v>903</v>
       </c>
       <c r="E391">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F391" t="s">
         <v>963</v>
@@ -20238,7 +20238,7 @@
         <v>904</v>
       </c>
       <c r="E392">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F392" t="s">
         <v>963</v>
@@ -20273,7 +20273,7 @@
         <v>904</v>
       </c>
       <c r="E393">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F393" t="s">
         <v>963</v>
@@ -20308,7 +20308,7 @@
         <v>904</v>
       </c>
       <c r="E394">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F394" t="s">
         <v>963</v>
@@ -20343,7 +20343,7 @@
         <v>904</v>
       </c>
       <c r="E395">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F395" t="s">
         <v>963</v>
@@ -20378,7 +20378,7 @@
         <v>904</v>
       </c>
       <c r="E396">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F396" t="s">
         <v>963</v>
@@ -20413,7 +20413,7 @@
         <v>904</v>
       </c>
       <c r="E397">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F397" t="s">
         <v>963</v>
@@ -20448,7 +20448,7 @@
         <v>905</v>
       </c>
       <c r="E398">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F398" t="s">
         <v>963</v>
@@ -20483,7 +20483,7 @@
         <v>905</v>
       </c>
       <c r="E399">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F399" t="s">
         <v>963</v>
@@ -20518,7 +20518,7 @@
         <v>905</v>
       </c>
       <c r="E400">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F400" t="s">
         <v>963</v>
@@ -20553,7 +20553,7 @@
         <v>905</v>
       </c>
       <c r="E401">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F401" t="s">
         <v>963</v>
@@ -20588,7 +20588,7 @@
         <v>905</v>
       </c>
       <c r="E402">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F402" t="s">
         <v>963</v>
@@ -20623,7 +20623,7 @@
         <v>905</v>
       </c>
       <c r="E403">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F403" t="s">
         <v>963</v>
@@ -20658,7 +20658,7 @@
         <v>906</v>
       </c>
       <c r="E404">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F404" t="s">
         <v>963</v>
@@ -20693,7 +20693,7 @@
         <v>906</v>
       </c>
       <c r="E405">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F405" t="s">
         <v>963</v>
@@ -20728,7 +20728,7 @@
         <v>906</v>
       </c>
       <c r="E406">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F406" t="s">
         <v>963</v>
@@ -20763,7 +20763,7 @@
         <v>906</v>
       </c>
       <c r="E407">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F407" t="s">
         <v>963</v>
@@ -20798,7 +20798,7 @@
         <v>906</v>
       </c>
       <c r="E408">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F408" t="s">
         <v>963</v>
@@ -20833,7 +20833,7 @@
         <v>907</v>
       </c>
       <c r="E409">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F409" t="s">
         <v>963</v>
@@ -20868,7 +20868,7 @@
         <v>907</v>
       </c>
       <c r="E410">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F410" t="s">
         <v>963</v>
@@ -20903,7 +20903,7 @@
         <v>908</v>
       </c>
       <c r="E411">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F411" t="s">
         <v>963</v>
@@ -20938,7 +20938,7 @@
         <v>908</v>
       </c>
       <c r="E412">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F412" t="s">
         <v>963</v>
@@ -20973,7 +20973,7 @@
         <v>908</v>
       </c>
       <c r="E413">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F413" t="s">
         <v>963</v>
@@ -21008,7 +21008,7 @@
         <v>908</v>
       </c>
       <c r="E414">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F414" t="s">
         <v>963</v>
@@ -21043,7 +21043,7 @@
         <v>909</v>
       </c>
       <c r="E415">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F415" t="s">
         <v>963</v>
@@ -21078,7 +21078,7 @@
         <v>909</v>
       </c>
       <c r="E416">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F416" t="s">
         <v>963</v>
@@ -21113,7 +21113,7 @@
         <v>909</v>
       </c>
       <c r="E417">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F417" t="s">
         <v>963</v>
@@ -21148,7 +21148,7 @@
         <v>909</v>
       </c>
       <c r="E418">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F418" t="s">
         <v>963</v>
@@ -21183,7 +21183,7 @@
         <v>910</v>
       </c>
       <c r="E419">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F419" t="s">
         <v>963</v>
@@ -21221,7 +21221,7 @@
         <v>911</v>
       </c>
       <c r="E420">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F420" t="s">
         <v>963</v>
@@ -21256,7 +21256,7 @@
         <v>911</v>
       </c>
       <c r="E421">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F421" t="s">
         <v>963</v>
@@ -21291,7 +21291,7 @@
         <v>912</v>
       </c>
       <c r="E422">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F422" t="s">
         <v>968</v>
@@ -21329,7 +21329,7 @@
         <v>912</v>
       </c>
       <c r="E423">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F423" t="s">
         <v>963</v>
@@ -21364,7 +21364,7 @@
         <v>912</v>
       </c>
       <c r="E424">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F424" t="s">
         <v>963</v>
@@ -21399,7 +21399,7 @@
         <v>912</v>
       </c>
       <c r="E425">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F425" t="s">
         <v>963</v>
@@ -21434,7 +21434,7 @@
         <v>912</v>
       </c>
       <c r="E426">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F426" t="s">
         <v>963</v>
@@ -21469,7 +21469,7 @@
         <v>912</v>
       </c>
       <c r="E427">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F427" t="s">
         <v>963</v>
@@ -21504,7 +21504,7 @@
         <v>913</v>
       </c>
       <c r="E428">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F428" t="s">
         <v>963</v>
@@ -21542,7 +21542,7 @@
         <v>913</v>
       </c>
       <c r="E429">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F429" t="s">
         <v>963</v>
@@ -21577,7 +21577,7 @@
         <v>914</v>
       </c>
       <c r="E430">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F430" t="s">
         <v>965</v>
@@ -21612,7 +21612,7 @@
         <v>915</v>
       </c>
       <c r="E431">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F431" t="s">
         <v>963</v>
@@ -21647,7 +21647,7 @@
         <v>916</v>
       </c>
       <c r="E432">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F432" t="s">
         <v>963</v>
@@ -21682,7 +21682,7 @@
         <v>916</v>
       </c>
       <c r="E433">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F433" t="s">
         <v>963</v>
@@ -21717,7 +21717,7 @@
         <v>916</v>
       </c>
       <c r="E434">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F434" t="s">
         <v>963</v>
@@ -21752,7 +21752,7 @@
         <v>917</v>
       </c>
       <c r="E435">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F435" t="s">
         <v>963</v>
@@ -21787,7 +21787,7 @@
         <v>917</v>
       </c>
       <c r="E436">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F436" t="s">
         <v>963</v>
@@ -21822,7 +21822,7 @@
         <v>918</v>
       </c>
       <c r="E437">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F437" t="s">
         <v>963</v>
@@ -21857,7 +21857,7 @@
         <v>918</v>
       </c>
       <c r="E438">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F438" t="s">
         <v>963</v>
@@ -21895,7 +21895,7 @@
         <v>918</v>
       </c>
       <c r="E439">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F439" t="s">
         <v>963</v>
@@ -21933,7 +21933,7 @@
         <v>918</v>
       </c>
       <c r="E440">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F440" t="s">
         <v>963</v>
@@ -21968,7 +21968,7 @@
         <v>919</v>
       </c>
       <c r="E441">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F441" t="s">
         <v>963</v>
@@ -22003,7 +22003,7 @@
         <v>919</v>
       </c>
       <c r="E442">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F442" t="s">
         <v>963</v>
@@ -22038,7 +22038,7 @@
         <v>919</v>
       </c>
       <c r="E443">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F443" t="s">
         <v>963</v>
@@ -22073,7 +22073,7 @@
         <v>920</v>
       </c>
       <c r="E444">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F444" t="s">
         <v>963</v>
@@ -22111,7 +22111,7 @@
         <v>920</v>
       </c>
       <c r="E445">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F445" t="s">
         <v>963</v>
@@ -22146,7 +22146,7 @@
         <v>921</v>
       </c>
       <c r="E446">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F446" t="s">
         <v>967</v>
@@ -22181,7 +22181,7 @@
         <v>921</v>
       </c>
       <c r="E447">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F447" t="s">
         <v>968</v>
@@ -22219,7 +22219,7 @@
         <v>921</v>
       </c>
       <c r="E448">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F448" t="s">
         <v>963</v>
@@ -22254,7 +22254,7 @@
         <v>922</v>
       </c>
       <c r="E449">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F449" t="s">
         <v>963</v>
@@ -22289,7 +22289,7 @@
         <v>922</v>
       </c>
       <c r="E450">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F450" t="s">
         <v>963</v>
@@ -22324,7 +22324,7 @@
         <v>922</v>
       </c>
       <c r="E451">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F451" t="s">
         <v>963</v>
@@ -22359,7 +22359,7 @@
         <v>922</v>
       </c>
       <c r="E452">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F452" t="s">
         <v>963</v>
@@ -22394,7 +22394,7 @@
         <v>922</v>
       </c>
       <c r="E453">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F453" t="s">
         <v>963</v>
@@ -22429,7 +22429,7 @@
         <v>923</v>
       </c>
       <c r="E454">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F454" t="s">
         <v>963</v>
@@ -22464,7 +22464,7 @@
         <v>923</v>
       </c>
       <c r="E455">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F455" t="s">
         <v>963</v>
@@ -22499,7 +22499,7 @@
         <v>923</v>
       </c>
       <c r="E456">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F456" t="s">
         <v>963</v>
@@ -22534,7 +22534,7 @@
         <v>923</v>
       </c>
       <c r="E457">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F457" t="s">
         <v>963</v>
@@ -22569,7 +22569,7 @@
         <v>923</v>
       </c>
       <c r="E458">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F458" t="s">
         <v>963</v>
@@ -22604,7 +22604,7 @@
         <v>924</v>
       </c>
       <c r="E459">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F459" t="s">
         <v>963</v>
@@ -22639,7 +22639,7 @@
         <v>925</v>
       </c>
       <c r="E460">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F460" t="s">
         <v>963</v>
@@ -22674,7 +22674,7 @@
         <v>925</v>
       </c>
       <c r="E461">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F461" t="s">
         <v>963</v>
@@ -22709,7 +22709,7 @@
         <v>925</v>
       </c>
       <c r="E462">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F462" t="s">
         <v>963</v>
@@ -22744,7 +22744,7 @@
         <v>925</v>
       </c>
       <c r="E463">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F463" t="s">
         <v>963</v>
@@ -22779,7 +22779,7 @@
         <v>925</v>
       </c>
       <c r="E464">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F464" t="s">
         <v>963</v>
@@ -22814,7 +22814,7 @@
         <v>926</v>
       </c>
       <c r="E465">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F465" t="s">
         <v>963</v>
@@ -22849,7 +22849,7 @@
         <v>926</v>
       </c>
       <c r="E466">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F466" t="s">
         <v>963</v>
@@ -22887,7 +22887,7 @@
         <v>927</v>
       </c>
       <c r="E467">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F467" t="s">
         <v>963</v>
@@ -22922,7 +22922,7 @@
         <v>927</v>
       </c>
       <c r="E468">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F468" t="s">
         <v>963</v>
@@ -22957,7 +22957,7 @@
         <v>927</v>
       </c>
       <c r="E469">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F469" t="s">
         <v>963</v>
@@ -22992,7 +22992,7 @@
         <v>927</v>
       </c>
       <c r="E470">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F470" t="s">
         <v>963</v>
@@ -23027,7 +23027,7 @@
         <v>927</v>
       </c>
       <c r="E471">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F471" t="s">
         <v>963</v>
@@ -23062,7 +23062,7 @@
         <v>928</v>
       </c>
       <c r="E472">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F472" t="s">
         <v>963</v>
@@ -23097,7 +23097,7 @@
         <v>928</v>
       </c>
       <c r="E473">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F473" t="s">
         <v>963</v>
@@ -23132,7 +23132,7 @@
         <v>928</v>
       </c>
       <c r="E474">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F474" t="s">
         <v>963</v>
@@ -23167,7 +23167,7 @@
         <v>928</v>
       </c>
       <c r="E475">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F475" t="s">
         <v>963</v>
@@ -23202,7 +23202,7 @@
         <v>928</v>
       </c>
       <c r="E476">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F476" t="s">
         <v>963</v>
@@ -23237,7 +23237,7 @@
         <v>928</v>
       </c>
       <c r="E477">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F477" t="s">
         <v>963</v>
@@ -23272,7 +23272,7 @@
         <v>929</v>
       </c>
       <c r="E478">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F478" t="s">
         <v>963</v>
@@ -23310,7 +23310,7 @@
         <v>929</v>
       </c>
       <c r="E479">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F479" t="s">
         <v>963</v>
@@ -23345,7 +23345,7 @@
         <v>929</v>
       </c>
       <c r="E480">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F480" t="s">
         <v>963</v>
@@ -23380,7 +23380,7 @@
         <v>929</v>
       </c>
       <c r="E481">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F481" t="s">
         <v>963</v>
@@ -23415,7 +23415,7 @@
         <v>929</v>
       </c>
       <c r="E482">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F482" t="s">
         <v>963</v>
@@ -23453,7 +23453,7 @@
         <v>930</v>
       </c>
       <c r="E483">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F483" t="s">
         <v>963</v>
@@ -23488,7 +23488,7 @@
         <v>930</v>
       </c>
       <c r="E484">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F484" t="s">
         <v>963</v>
@@ -23523,7 +23523,7 @@
         <v>931</v>
       </c>
       <c r="E485">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F485" t="s">
         <v>963</v>
@@ -23561,7 +23561,7 @@
         <v>931</v>
       </c>
       <c r="E486">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F486" t="s">
         <v>963</v>
@@ -23596,7 +23596,7 @@
         <v>931</v>
       </c>
       <c r="E487">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F487" t="s">
         <v>963</v>
@@ -23631,7 +23631,7 @@
         <v>931</v>
       </c>
       <c r="E488">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F488" t="s">
         <v>963</v>
@@ -23666,7 +23666,7 @@
         <v>931</v>
       </c>
       <c r="E489">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F489" t="s">
         <v>963</v>
@@ -23701,7 +23701,7 @@
         <v>932</v>
       </c>
       <c r="E490">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F490" t="s">
         <v>963</v>
@@ -23736,7 +23736,7 @@
         <v>932</v>
       </c>
       <c r="E491">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F491" t="s">
         <v>963</v>
@@ -23771,7 +23771,7 @@
         <v>933</v>
       </c>
       <c r="E492">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F492" t="s">
         <v>963</v>
@@ -23806,7 +23806,7 @@
         <v>933</v>
       </c>
       <c r="E493">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F493" t="s">
         <v>963</v>
@@ -23841,7 +23841,7 @@
         <v>933</v>
       </c>
       <c r="E494">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F494" t="s">
         <v>963</v>
@@ -23876,7 +23876,7 @@
         <v>933</v>
       </c>
       <c r="E495">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F495" t="s">
         <v>963</v>
@@ -23911,7 +23911,7 @@
         <v>933</v>
       </c>
       <c r="E496">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F496" t="s">
         <v>963</v>
@@ -23946,7 +23946,7 @@
         <v>934</v>
       </c>
       <c r="E497">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F497" t="s">
         <v>963</v>
@@ -23981,7 +23981,7 @@
         <v>934</v>
       </c>
       <c r="E498">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F498" t="s">
         <v>963</v>
@@ -24016,7 +24016,7 @@
         <v>934</v>
       </c>
       <c r="E499">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F499" t="s">
         <v>963</v>
@@ -24051,7 +24051,7 @@
         <v>935</v>
       </c>
       <c r="E500">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F500" t="s">
         <v>963</v>
@@ -24086,7 +24086,7 @@
         <v>935</v>
       </c>
       <c r="E501">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F501" t="s">
         <v>963</v>
@@ -24121,7 +24121,7 @@
         <v>935</v>
       </c>
       <c r="E502">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F502" t="s">
         <v>963</v>
@@ -24156,7 +24156,7 @@
         <v>935</v>
       </c>
       <c r="E503">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F503" t="s">
         <v>963</v>
@@ -24191,7 +24191,7 @@
         <v>935</v>
       </c>
       <c r="E504">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F504" t="s">
         <v>963</v>
@@ -24226,7 +24226,7 @@
         <v>935</v>
       </c>
       <c r="E505">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F505" t="s">
         <v>963</v>
@@ -24261,7 +24261,7 @@
         <v>935</v>
       </c>
       <c r="E506">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F506" t="s">
         <v>963</v>
@@ -24296,7 +24296,7 @@
         <v>935</v>
       </c>
       <c r="E507">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F507" t="s">
         <v>963</v>
@@ -24331,7 +24331,7 @@
         <v>936</v>
       </c>
       <c r="E508">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F508" t="s">
         <v>963</v>
@@ -24366,7 +24366,7 @@
         <v>936</v>
       </c>
       <c r="E509">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F509" t="s">
         <v>963</v>
@@ -24401,7 +24401,7 @@
         <v>936</v>
       </c>
       <c r="E510">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F510" t="s">
         <v>963</v>
@@ -24436,7 +24436,7 @@
         <v>936</v>
       </c>
       <c r="E511">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F511" t="s">
         <v>963</v>
@@ -24471,7 +24471,7 @@
         <v>936</v>
       </c>
       <c r="E512">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F512" t="s">
         <v>963</v>
@@ -24506,7 +24506,7 @@
         <v>936</v>
       </c>
       <c r="E513">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F513" t="s">
         <v>963</v>
@@ -24541,7 +24541,7 @@
         <v>936</v>
       </c>
       <c r="E514">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F514" t="s">
         <v>963</v>
@@ -24576,7 +24576,7 @@
         <v>936</v>
       </c>
       <c r="E515">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F515" t="s">
         <v>963</v>
@@ -24611,7 +24611,7 @@
         <v>936</v>
       </c>
       <c r="E516">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F516" t="s">
         <v>963</v>
@@ -24646,7 +24646,7 @@
         <v>936</v>
       </c>
       <c r="E517">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F517" t="s">
         <v>963</v>
@@ -24681,7 +24681,7 @@
         <v>936</v>
       </c>
       <c r="E518">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F518" t="s">
         <v>963</v>
@@ -24716,7 +24716,7 @@
         <v>936</v>
       </c>
       <c r="E519">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F519" t="s">
         <v>963</v>
@@ -24751,7 +24751,7 @@
         <v>936</v>
       </c>
       <c r="E520">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F520" t="s">
         <v>963</v>
@@ -24786,7 +24786,7 @@
         <v>936</v>
       </c>
       <c r="E521">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F521" t="s">
         <v>963</v>
@@ -24821,7 +24821,7 @@
         <v>936</v>
       </c>
       <c r="E522">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F522" t="s">
         <v>963</v>
@@ -24856,7 +24856,7 @@
         <v>936</v>
       </c>
       <c r="E523">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F523" t="s">
         <v>963</v>
@@ -24891,7 +24891,7 @@
         <v>936</v>
       </c>
       <c r="E524">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F524" t="s">
         <v>963</v>
@@ -24926,7 +24926,7 @@
         <v>936</v>
       </c>
       <c r="E525">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F525" t="s">
         <v>963</v>
@@ -24961,7 +24961,7 @@
         <v>937</v>
       </c>
       <c r="E526">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F526" t="s">
         <v>963</v>
@@ -24996,7 +24996,7 @@
         <v>937</v>
       </c>
       <c r="E527">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F527" t="s">
         <v>963</v>
@@ -25031,7 +25031,7 @@
         <v>938</v>
       </c>
       <c r="E528">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F528" t="s">
         <v>963</v>
@@ -25066,7 +25066,7 @@
         <v>939</v>
       </c>
       <c r="E529">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F529" t="s">
         <v>963</v>
@@ -25101,7 +25101,7 @@
         <v>939</v>
       </c>
       <c r="E530">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F530" t="s">
         <v>963</v>
@@ -25136,7 +25136,7 @@
         <v>939</v>
       </c>
       <c r="E531">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F531" t="s">
         <v>963</v>
@@ -25171,7 +25171,7 @@
         <v>939</v>
       </c>
       <c r="E532">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F532" t="s">
         <v>968</v>
@@ -25209,7 +25209,7 @@
         <v>940</v>
       </c>
       <c r="E533">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F533" t="s">
         <v>963</v>
@@ -25244,7 +25244,7 @@
         <v>940</v>
       </c>
       <c r="E534">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F534" t="s">
         <v>963</v>
@@ -25279,7 +25279,7 @@
         <v>941</v>
       </c>
       <c r="E535">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F535" t="s">
         <v>963</v>
@@ -25317,7 +25317,7 @@
         <v>941</v>
       </c>
       <c r="E536">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F536" t="s">
         <v>963</v>
@@ -25352,7 +25352,7 @@
         <v>941</v>
       </c>
       <c r="E537">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F537" t="s">
         <v>963</v>
@@ -25390,7 +25390,7 @@
         <v>941</v>
       </c>
       <c r="E538">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F538" t="s">
         <v>963</v>
@@ -25425,7 +25425,7 @@
         <v>942</v>
       </c>
       <c r="E539">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F539" t="s">
         <v>963</v>
@@ -25460,7 +25460,7 @@
         <v>942</v>
       </c>
       <c r="E540">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F540" t="s">
         <v>963</v>
@@ -25495,7 +25495,7 @@
         <v>942</v>
       </c>
       <c r="E541">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F541" t="s">
         <v>963</v>
@@ -25530,7 +25530,7 @@
         <v>942</v>
       </c>
       <c r="E542">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F542" t="s">
         <v>963</v>
@@ -25565,7 +25565,7 @@
         <v>942</v>
       </c>
       <c r="E543">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F543" t="s">
         <v>968</v>
@@ -25603,7 +25603,7 @@
         <v>942</v>
       </c>
       <c r="E544">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F544" t="s">
         <v>963</v>
@@ -25638,7 +25638,7 @@
         <v>942</v>
       </c>
       <c r="E545">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F545" t="s">
         <v>963</v>
@@ -25673,7 +25673,7 @@
         <v>942</v>
       </c>
       <c r="E546">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F546" t="s">
         <v>963</v>
@@ -25708,7 +25708,7 @@
         <v>943</v>
       </c>
       <c r="E547">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F547" t="s">
         <v>963</v>
@@ -25743,7 +25743,7 @@
         <v>943</v>
       </c>
       <c r="E548">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F548" t="s">
         <v>968</v>
@@ -25778,7 +25778,7 @@
         <v>943</v>
       </c>
       <c r="E549">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F549" t="s">
         <v>963</v>
@@ -25816,7 +25816,7 @@
         <v>943</v>
       </c>
       <c r="E550">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F550" t="s">
         <v>963</v>
@@ -25851,7 +25851,7 @@
         <v>944</v>
       </c>
       <c r="E551">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F551" t="s">
         <v>963</v>
@@ -25886,7 +25886,7 @@
         <v>944</v>
       </c>
       <c r="E552">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F552" t="s">
         <v>963</v>
@@ -25921,7 +25921,7 @@
         <v>945</v>
       </c>
       <c r="E553">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F553" t="s">
         <v>963</v>
@@ -25956,7 +25956,7 @@
         <v>945</v>
       </c>
       <c r="E554">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F554" t="s">
         <v>963</v>
@@ -25991,7 +25991,7 @@
         <v>945</v>
       </c>
       <c r="E555">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F555" t="s">
         <v>963</v>
@@ -26026,7 +26026,7 @@
         <v>945</v>
       </c>
       <c r="E556">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F556" t="s">
         <v>963</v>
@@ -26061,7 +26061,7 @@
         <v>946</v>
       </c>
       <c r="E557">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F557" t="s">
         <v>968</v>
@@ -26099,7 +26099,7 @@
         <v>946</v>
       </c>
       <c r="E558">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F558" t="s">
         <v>963</v>
@@ -26134,7 +26134,7 @@
         <v>947</v>
       </c>
       <c r="E559">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F559" t="s">
         <v>963</v>
@@ -26169,7 +26169,7 @@
         <v>948</v>
       </c>
       <c r="E560">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F560" t="s">
         <v>963</v>
@@ -26204,7 +26204,7 @@
         <v>948</v>
       </c>
       <c r="E561">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F561" t="s">
         <v>963</v>
@@ -26239,7 +26239,7 @@
         <v>948</v>
       </c>
       <c r="E562">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F562" t="s">
         <v>963</v>
@@ -26274,7 +26274,7 @@
         <v>948</v>
       </c>
       <c r="E563">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F563" t="s">
         <v>963</v>
@@ -26309,7 +26309,7 @@
         <v>948</v>
       </c>
       <c r="E564">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F564" t="s">
         <v>963</v>
@@ -26344,7 +26344,7 @@
         <v>948</v>
       </c>
       <c r="E565">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F565" t="s">
         <v>968</v>
@@ -26379,7 +26379,7 @@
         <v>948</v>
       </c>
       <c r="E566">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F566" t="s">
         <v>963</v>
@@ -26414,7 +26414,7 @@
         <v>949</v>
       </c>
       <c r="E567">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F567" t="s">
         <v>963</v>
@@ -26449,7 +26449,7 @@
         <v>949</v>
       </c>
       <c r="E568">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F568" t="s">
         <v>963</v>
@@ -26484,7 +26484,7 @@
         <v>949</v>
       </c>
       <c r="E569">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F569" t="s">
         <v>963</v>
@@ -26519,7 +26519,7 @@
         <v>949</v>
       </c>
       <c r="E570">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F570" t="s">
         <v>963</v>
@@ -26554,7 +26554,7 @@
         <v>949</v>
       </c>
       <c r="E571">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F571" t="s">
         <v>963</v>
@@ -26589,7 +26589,7 @@
         <v>949</v>
       </c>
       <c r="E572">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F572" t="s">
         <v>963</v>
@@ -26624,7 +26624,7 @@
         <v>949</v>
       </c>
       <c r="E573">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F573" t="s">
         <v>963</v>
@@ -26659,7 +26659,7 @@
         <v>949</v>
       </c>
       <c r="E574">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F574" t="s">
         <v>963</v>
@@ -26694,7 +26694,7 @@
         <v>950</v>
       </c>
       <c r="E575">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F575" t="s">
         <v>963</v>
@@ -26729,7 +26729,7 @@
         <v>950</v>
       </c>
       <c r="E576">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F576" t="s">
         <v>963</v>
@@ -26764,7 +26764,7 @@
         <v>950</v>
       </c>
       <c r="E577">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F577" t="s">
         <v>963</v>
@@ -26799,7 +26799,7 @@
         <v>950</v>
       </c>
       <c r="E578">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F578" t="s">
         <v>963</v>
@@ -26834,7 +26834,7 @@
         <v>950</v>
       </c>
       <c r="E579">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F579" t="s">
         <v>963</v>
@@ -26869,7 +26869,7 @@
         <v>950</v>
       </c>
       <c r="E580">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F580" t="s">
         <v>968</v>
@@ -26904,7 +26904,7 @@
         <v>950</v>
       </c>
       <c r="E581">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F581" t="s">
         <v>963</v>
@@ -26939,7 +26939,7 @@
         <v>950</v>
       </c>
       <c r="E582">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F582" t="s">
         <v>968</v>
@@ -26977,7 +26977,7 @@
         <v>950</v>
       </c>
       <c r="E583">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F583" t="s">
         <v>963</v>
@@ -27012,7 +27012,7 @@
         <v>951</v>
       </c>
       <c r="E584">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F584" t="s">
         <v>963</v>
@@ -27047,7 +27047,7 @@
         <v>951</v>
       </c>
       <c r="E585">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F585" t="s">
         <v>963</v>
@@ -27082,7 +27082,7 @@
         <v>951</v>
       </c>
       <c r="E586">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F586" t="s">
         <v>963</v>
@@ -27117,7 +27117,7 @@
         <v>951</v>
       </c>
       <c r="E587">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F587" t="s">
         <v>963</v>
@@ -27152,7 +27152,7 @@
         <v>951</v>
       </c>
       <c r="E588">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F588" t="s">
         <v>968</v>
@@ -27190,7 +27190,7 @@
         <v>951</v>
       </c>
       <c r="E589">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F589" t="s">
         <v>963</v>
@@ -27225,7 +27225,7 @@
         <v>951</v>
       </c>
       <c r="E590">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F590" t="s">
         <v>963</v>
@@ -27260,7 +27260,7 @@
         <v>951</v>
       </c>
       <c r="E591">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F591" t="s">
         <v>963</v>
@@ -27295,7 +27295,7 @@
         <v>951</v>
       </c>
       <c r="E592">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F592" t="s">
         <v>963</v>
@@ -27330,7 +27330,7 @@
         <v>951</v>
       </c>
       <c r="E593">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F593" t="s">
         <v>963</v>
@@ -27365,7 +27365,7 @@
         <v>951</v>
       </c>
       <c r="E594">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F594" t="s">
         <v>968</v>
@@ -27403,7 +27403,7 @@
         <v>951</v>
       </c>
       <c r="E595">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F595" t="s">
         <v>963</v>
@@ -27438,7 +27438,7 @@
         <v>951</v>
       </c>
       <c r="E596">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F596" t="s">
         <v>968</v>
@@ -27476,7 +27476,7 @@
         <v>951</v>
       </c>
       <c r="E597">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F597" t="s">
         <v>963</v>
@@ -27511,7 +27511,7 @@
         <v>951</v>
       </c>
       <c r="E598">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F598" t="s">
         <v>963</v>
@@ -27546,7 +27546,7 @@
         <v>951</v>
       </c>
       <c r="E599">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F599" t="s">
         <v>963</v>
@@ -27581,7 +27581,7 @@
         <v>952</v>
       </c>
       <c r="E600">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F600" t="s">
         <v>963</v>
@@ -27616,7 +27616,7 @@
         <v>952</v>
       </c>
       <c r="E601">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F601" t="s">
         <v>963</v>
@@ -27651,7 +27651,7 @@
         <v>952</v>
       </c>
       <c r="E602">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F602" t="s">
         <v>963</v>
@@ -27686,7 +27686,7 @@
         <v>952</v>
       </c>
       <c r="E603">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F603" t="s">
         <v>968</v>
@@ -27724,7 +27724,7 @@
         <v>952</v>
       </c>
       <c r="E604">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F604" t="s">
         <v>968</v>
@@ -27762,7 +27762,7 @@
         <v>952</v>
       </c>
       <c r="E605">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F605" t="s">
         <v>963</v>
@@ -27797,7 +27797,7 @@
         <v>952</v>
       </c>
       <c r="E606">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F606" t="s">
         <v>963</v>
@@ -27832,7 +27832,7 @@
         <v>952</v>
       </c>
       <c r="E607">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F607" t="s">
         <v>963</v>
@@ -27867,7 +27867,7 @@
         <v>952</v>
       </c>
       <c r="E608">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F608" t="s">
         <v>963</v>
@@ -27902,7 +27902,7 @@
         <v>952</v>
       </c>
       <c r="E609">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F609" t="s">
         <v>963</v>
@@ -27937,7 +27937,7 @@
         <v>952</v>
       </c>
       <c r="E610">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F610" t="s">
         <v>963</v>
@@ -27972,7 +27972,7 @@
         <v>953</v>
       </c>
       <c r="E611">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F611" t="s">
         <v>968</v>
@@ -28007,7 +28007,7 @@
         <v>953</v>
       </c>
       <c r="E612">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F612" t="s">
         <v>963</v>
@@ -28045,7 +28045,7 @@
         <v>953</v>
       </c>
       <c r="E613">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F613" t="s">
         <v>963</v>
@@ -28080,7 +28080,7 @@
         <v>953</v>
       </c>
       <c r="E614">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F614" t="s">
         <v>963</v>
@@ -28115,7 +28115,7 @@
         <v>953</v>
       </c>
       <c r="E615">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F615" t="s">
         <v>963</v>
@@ -28150,7 +28150,7 @@
         <v>954</v>
       </c>
       <c r="E616">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F616" t="s">
         <v>963</v>
@@ -28185,7 +28185,7 @@
         <v>954</v>
       </c>
       <c r="E617">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F617" t="s">
         <v>963</v>
@@ -28223,7 +28223,7 @@
         <v>954</v>
       </c>
       <c r="E618">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F618" t="s">
         <v>963</v>
@@ -28258,7 +28258,7 @@
         <v>954</v>
       </c>
       <c r="E619">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F619" t="s">
         <v>963</v>
@@ -28293,7 +28293,7 @@
         <v>954</v>
       </c>
       <c r="E620">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F620" t="s">
         <v>963</v>
@@ -28328,7 +28328,7 @@
         <v>955</v>
       </c>
       <c r="E621">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F621" t="s">
         <v>963</v>
@@ -28363,7 +28363,7 @@
         <v>955</v>
       </c>
       <c r="E622">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F622" t="s">
         <v>963</v>
@@ -28398,7 +28398,7 @@
         <v>955</v>
       </c>
       <c r="E623">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F623" t="s">
         <v>968</v>
@@ -28436,7 +28436,7 @@
         <v>955</v>
       </c>
       <c r="E624">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F624" t="s">
         <v>963</v>
@@ -28471,7 +28471,7 @@
         <v>956</v>
       </c>
       <c r="E625">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F625" t="s">
         <v>963</v>
@@ -28506,7 +28506,7 @@
         <v>956</v>
       </c>
       <c r="E626">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F626" t="s">
         <v>963</v>
@@ -28541,7 +28541,7 @@
         <v>956</v>
       </c>
       <c r="E627">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F627" t="s">
         <v>963</v>
@@ -28576,7 +28576,7 @@
         <v>956</v>
       </c>
       <c r="E628">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F628" t="s">
         <v>968</v>
@@ -28614,7 +28614,7 @@
         <v>956</v>
       </c>
       <c r="E629">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F629" t="s">
         <v>968</v>
@@ -28652,7 +28652,7 @@
         <v>956</v>
       </c>
       <c r="E630">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F630" t="s">
         <v>968</v>
@@ -28690,7 +28690,7 @@
         <v>956</v>
       </c>
       <c r="E631">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F631" t="s">
         <v>963</v>
@@ -28725,7 +28725,7 @@
         <v>957</v>
       </c>
       <c r="E632">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F632" t="s">
         <v>963</v>
@@ -28760,7 +28760,7 @@
         <v>957</v>
       </c>
       <c r="E633">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F633" t="s">
         <v>963</v>
@@ -28795,7 +28795,7 @@
         <v>957</v>
       </c>
       <c r="E634">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F634" t="s">
         <v>968</v>
@@ -28833,7 +28833,7 @@
         <v>957</v>
       </c>
       <c r="E635">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F635" t="s">
         <v>963</v>
@@ -28871,7 +28871,7 @@
         <v>957</v>
       </c>
       <c r="E636">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F636" t="s">
         <v>968</v>
@@ -28909,7 +28909,7 @@
         <v>957</v>
       </c>
       <c r="E637">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F637" t="s">
         <v>968</v>
@@ -28947,7 +28947,7 @@
         <v>958</v>
       </c>
       <c r="E638">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F638" t="s">
         <v>963</v>
@@ -28982,7 +28982,7 @@
         <v>958</v>
       </c>
       <c r="E639">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F639" t="s">
         <v>963</v>
@@ -29017,7 +29017,7 @@
         <v>958</v>
       </c>
       <c r="E640">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F640" t="s">
         <v>963</v>
@@ -29052,7 +29052,7 @@
         <v>958</v>
       </c>
       <c r="E641">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F641" t="s">
         <v>963</v>
@@ -29087,7 +29087,7 @@
         <v>958</v>
       </c>
       <c r="E642">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F642" t="s">
         <v>963</v>
@@ -29122,7 +29122,7 @@
         <v>958</v>
       </c>
       <c r="E643">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F643" t="s">
         <v>963</v>
@@ -29157,7 +29157,7 @@
         <v>958</v>
       </c>
       <c r="E644">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F644" t="s">
         <v>963</v>
@@ -29192,7 +29192,7 @@
         <v>958</v>
       </c>
       <c r="E645">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F645" t="s">
         <v>963</v>
@@ -29227,7 +29227,7 @@
         <v>959</v>
       </c>
       <c r="E646">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F646" t="s">
         <v>968</v>
@@ -29265,7 +29265,7 @@
         <v>959</v>
       </c>
       <c r="E647">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F647" t="s">
         <v>963</v>
@@ -29300,7 +29300,7 @@
         <v>959</v>
       </c>
       <c r="E648">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F648" t="s">
         <v>963</v>
@@ -29335,7 +29335,7 @@
         <v>959</v>
       </c>
       <c r="E649">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F649" t="s">
         <v>963</v>
@@ -29370,7 +29370,7 @@
         <v>959</v>
       </c>
       <c r="E650">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F650" t="s">
         <v>963</v>
@@ -29405,7 +29405,7 @@
         <v>959</v>
       </c>
       <c r="E651">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F651" t="s">
         <v>963</v>
@@ -29440,7 +29440,7 @@
         <v>959</v>
       </c>
       <c r="E652">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F652" t="s">
         <v>963</v>
@@ -29475,7 +29475,7 @@
         <v>959</v>
       </c>
       <c r="E653">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F653" t="s">
         <v>963</v>
@@ -29510,7 +29510,7 @@
         <v>959</v>
       </c>
       <c r="E654">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F654" t="s">
         <v>963</v>
@@ -29545,7 +29545,7 @@
         <v>959</v>
       </c>
       <c r="E655">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F655" t="s">
         <v>963</v>
@@ -29580,7 +29580,7 @@
         <v>959</v>
       </c>
       <c r="E656">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F656" t="s">
         <v>963</v>
@@ -29615,7 +29615,7 @@
         <v>959</v>
       </c>
       <c r="E657">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F657" t="s">
         <v>963</v>
@@ -29650,7 +29650,7 @@
         <v>959</v>
       </c>
       <c r="E658">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F658" t="s">
         <v>963</v>
@@ -29688,7 +29688,7 @@
         <v>959</v>
       </c>
       <c r="E659">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F659" t="s">
         <v>963</v>
@@ -29726,7 +29726,7 @@
         <v>959</v>
       </c>
       <c r="E660">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F660" t="s">
         <v>963</v>
@@ -29764,7 +29764,7 @@
         <v>959</v>
       </c>
       <c r="E661">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F661" t="s">
         <v>963</v>
@@ -29802,7 +29802,7 @@
         <v>960</v>
       </c>
       <c r="E662">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F662" t="s">
         <v>967</v>
@@ -29837,7 +29837,7 @@
         <v>960</v>
       </c>
       <c r="E663">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F663" t="s">
         <v>963</v>
@@ -29872,7 +29872,7 @@
         <v>960</v>
       </c>
       <c r="E664">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F664" t="s">
         <v>963</v>
@@ -29907,7 +29907,7 @@
         <v>960</v>
       </c>
       <c r="E665">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F665" t="s">
         <v>963</v>
@@ -29945,7 +29945,7 @@
         <v>960</v>
       </c>
       <c r="E666">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F666" t="s">
         <v>963</v>
@@ -29980,7 +29980,7 @@
         <v>960</v>
       </c>
       <c r="E667">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F667" t="s">
         <v>963</v>
@@ -30015,7 +30015,7 @@
         <v>960</v>
       </c>
       <c r="E668">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F668" t="s">
         <v>963</v>
@@ -30050,7 +30050,7 @@
         <v>960</v>
       </c>
       <c r="E669">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F669" t="s">
         <v>963</v>
@@ -30088,7 +30088,7 @@
         <v>960</v>
       </c>
       <c r="E670">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F670" t="s">
         <v>963</v>
@@ -30123,7 +30123,7 @@
         <v>960</v>
       </c>
       <c r="E671">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F671" t="s">
         <v>963</v>
@@ -30158,7 +30158,7 @@
         <v>960</v>
       </c>
       <c r="E672">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F672" t="s">
         <v>963</v>
@@ -30196,7 +30196,7 @@
         <v>960</v>
       </c>
       <c r="E673">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F673" t="s">
         <v>963</v>
@@ -30234,7 +30234,7 @@
         <v>960</v>
       </c>
       <c r="E674">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F674" t="s">
         <v>963</v>
@@ -30269,7 +30269,7 @@
         <v>960</v>
       </c>
       <c r="E675">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F675" t="s">
         <v>963</v>
@@ -30304,7 +30304,7 @@
         <v>960</v>
       </c>
       <c r="E676">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F676" t="s">
         <v>963</v>
@@ -30339,7 +30339,7 @@
         <v>960</v>
       </c>
       <c r="E677">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F677" t="s">
         <v>963</v>
@@ -30374,7 +30374,7 @@
         <v>961</v>
       </c>
       <c r="E678">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F678" t="s">
         <v>963</v>
@@ -30412,7 +30412,7 @@
         <v>961</v>
       </c>
       <c r="E679">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F679" t="s">
         <v>963</v>
@@ -30447,7 +30447,7 @@
         <v>961</v>
       </c>
       <c r="E680">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F680" t="s">
         <v>963</v>
@@ -30482,7 +30482,7 @@
         <v>961</v>
       </c>
       <c r="E681">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F681" t="s">
         <v>963</v>
@@ -30520,7 +30520,7 @@
         <v>961</v>
       </c>
       <c r="E682">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F682" t="s">
         <v>963</v>
@@ -30558,7 +30558,7 @@
         <v>962</v>
       </c>
       <c r="E683">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F683" t="s">
         <v>963</v>
@@ -30593,7 +30593,7 @@
         <v>962</v>
       </c>
       <c r="E684">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F684" t="s">
         <v>963</v>
@@ -30628,7 +30628,7 @@
         <v>962</v>
       </c>
       <c r="E685">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F685" t="s">
         <v>963</v>
@@ -30666,7 +30666,7 @@
         <v>962</v>
       </c>
       <c r="E686">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F686" t="s">
         <v>963</v>
@@ -30704,7 +30704,7 @@
         <v>962</v>
       </c>
       <c r="E687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F687" t="s">
         <v>963</v>
@@ -30739,7 +30739,7 @@
         <v>962</v>
       </c>
       <c r="E688">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F688" t="s">
         <v>963</v>
@@ -30774,7 +30774,7 @@
         <v>962</v>
       </c>
       <c r="E689">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F689" t="s">
         <v>963</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24792,7 +24792,7 @@
         <v>1860</v>
       </c>
       <c r="L524" t="s">
-        <v>1970</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25148,7 +25148,7 @@
         <v>1796</v>
       </c>
       <c r="L534" t="s">
-        <v>1970</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25221,7 +25221,7 @@
         <v>1781</v>
       </c>
       <c r="L536" t="s">
-        <v>1970</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29867,7 +29867,7 @@
         <v>1813</v>
       </c>
       <c r="L666" t="s">
-        <v>1970</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -6393,7 +6393,7 @@
         <v>721</v>
       </c>
       <c r="E2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F2" t="s">
         <v>950</v>
@@ -6428,7 +6428,7 @@
         <v>722</v>
       </c>
       <c r="E3">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F3" t="s">
         <v>950</v>
@@ -6463,7 +6463,7 @@
         <v>723</v>
       </c>
       <c r="E4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F4" t="s">
         <v>950</v>
@@ -6498,7 +6498,7 @@
         <v>724</v>
       </c>
       <c r="E5">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F5" t="s">
         <v>950</v>
@@ -6533,7 +6533,7 @@
         <v>725</v>
       </c>
       <c r="E6">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -6571,7 +6571,7 @@
         <v>726</v>
       </c>
       <c r="E7">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -6606,7 +6606,7 @@
         <v>727</v>
       </c>
       <c r="E8">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -6641,7 +6641,7 @@
         <v>728</v>
       </c>
       <c r="E9">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -6679,7 +6679,7 @@
         <v>729</v>
       </c>
       <c r="E10">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -6714,7 +6714,7 @@
         <v>730</v>
       </c>
       <c r="E11">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -6749,7 +6749,7 @@
         <v>731</v>
       </c>
       <c r="E12">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -6784,7 +6784,7 @@
         <v>732</v>
       </c>
       <c r="E13">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -6819,7 +6819,7 @@
         <v>733</v>
       </c>
       <c r="E14">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -6854,7 +6854,7 @@
         <v>734</v>
       </c>
       <c r="E15">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -6889,7 +6889,7 @@
         <v>735</v>
       </c>
       <c r="E16">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -6924,7 +6924,7 @@
         <v>735</v>
       </c>
       <c r="E17">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -6959,7 +6959,7 @@
         <v>736</v>
       </c>
       <c r="E18">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -6994,7 +6994,7 @@
         <v>737</v>
       </c>
       <c r="E19">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -7029,7 +7029,7 @@
         <v>738</v>
       </c>
       <c r="E20">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F20" t="s">
         <v>950</v>
@@ -7064,7 +7064,7 @@
         <v>739</v>
       </c>
       <c r="E21">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -7099,7 +7099,7 @@
         <v>740</v>
       </c>
       <c r="E22">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -7134,7 +7134,7 @@
         <v>741</v>
       </c>
       <c r="E23">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -7169,7 +7169,7 @@
         <v>741</v>
       </c>
       <c r="E24">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -7204,7 +7204,7 @@
         <v>742</v>
       </c>
       <c r="E25">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F25" t="s">
         <v>950</v>
@@ -7239,7 +7239,7 @@
         <v>743</v>
       </c>
       <c r="E26">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F26" t="s">
         <v>950</v>
@@ -7277,7 +7277,7 @@
         <v>744</v>
       </c>
       <c r="E27">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -7312,7 +7312,7 @@
         <v>745</v>
       </c>
       <c r="E28">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -7347,7 +7347,7 @@
         <v>746</v>
       </c>
       <c r="E29">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -7382,7 +7382,7 @@
         <v>747</v>
       </c>
       <c r="E30">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -7417,7 +7417,7 @@
         <v>748</v>
       </c>
       <c r="E31">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
         <v>950</v>
@@ -7452,7 +7452,7 @@
         <v>749</v>
       </c>
       <c r="E32">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -7487,7 +7487,7 @@
         <v>750</v>
       </c>
       <c r="E33">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -7522,7 +7522,7 @@
         <v>751</v>
       </c>
       <c r="E34">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -7557,7 +7557,7 @@
         <v>752</v>
       </c>
       <c r="E35">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F35" t="s">
         <v>950</v>
@@ -7592,7 +7592,7 @@
         <v>753</v>
       </c>
       <c r="E36">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -7627,7 +7627,7 @@
         <v>753</v>
       </c>
       <c r="E37">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F37" t="s">
         <v>950</v>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="E38">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -7697,7 +7697,7 @@
         <v>755</v>
       </c>
       <c r="E39">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -7732,7 +7732,7 @@
         <v>756</v>
       </c>
       <c r="E40">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -7767,7 +7767,7 @@
         <v>756</v>
       </c>
       <c r="E41">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -7802,7 +7802,7 @@
         <v>757</v>
       </c>
       <c r="E42">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -7840,7 +7840,7 @@
         <v>758</v>
       </c>
       <c r="E43">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F43" t="s">
         <v>950</v>
@@ -7875,7 +7875,7 @@
         <v>759</v>
       </c>
       <c r="E44">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F44" t="s">
         <v>951</v>
@@ -7910,7 +7910,7 @@
         <v>760</v>
       </c>
       <c r="E45">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -7945,7 +7945,7 @@
         <v>760</v>
       </c>
       <c r="E46">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F46" t="s">
         <v>950</v>
@@ -7980,7 +7980,7 @@
         <v>760</v>
       </c>
       <c r="E47">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -8015,7 +8015,7 @@
         <v>761</v>
       </c>
       <c r="E48">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -8050,7 +8050,7 @@
         <v>761</v>
       </c>
       <c r="E49">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F49" t="s">
         <v>951</v>
@@ -8085,7 +8085,7 @@
         <v>761</v>
       </c>
       <c r="E50">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F50" t="s">
         <v>951</v>
@@ -8120,7 +8120,7 @@
         <v>762</v>
       </c>
       <c r="E51">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -8155,7 +8155,7 @@
         <v>762</v>
       </c>
       <c r="E52">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -8190,7 +8190,7 @@
         <v>763</v>
       </c>
       <c r="E53">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -8225,7 +8225,7 @@
         <v>763</v>
       </c>
       <c r="E54">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -8260,7 +8260,7 @@
         <v>764</v>
       </c>
       <c r="E55">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -8295,7 +8295,7 @@
         <v>765</v>
       </c>
       <c r="E56">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F56" t="s">
         <v>951</v>
@@ -8330,7 +8330,7 @@
         <v>766</v>
       </c>
       <c r="E57">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -8365,7 +8365,7 @@
         <v>766</v>
       </c>
       <c r="E58">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -8400,7 +8400,7 @@
         <v>767</v>
       </c>
       <c r="E59">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -8438,7 +8438,7 @@
         <v>768</v>
       </c>
       <c r="E60">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F60" t="s">
         <v>952</v>
@@ -8473,7 +8473,7 @@
         <v>769</v>
       </c>
       <c r="E61">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F61" t="s">
         <v>952</v>
@@ -8508,7 +8508,7 @@
         <v>770</v>
       </c>
       <c r="E62">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
         <v>951</v>
@@ -8543,7 +8543,7 @@
         <v>771</v>
       </c>
       <c r="E63">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F63" t="s">
         <v>951</v>
@@ -8578,7 +8578,7 @@
         <v>771</v>
       </c>
       <c r="E64">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F64" t="s">
         <v>951</v>
@@ -8613,7 +8613,7 @@
         <v>771</v>
       </c>
       <c r="E65">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F65" t="s">
         <v>952</v>
@@ -8648,7 +8648,7 @@
         <v>772</v>
       </c>
       <c r="E66">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
         <v>951</v>
@@ -8683,7 +8683,7 @@
         <v>773</v>
       </c>
       <c r="E67">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
         <v>951</v>
@@ -8718,7 +8718,7 @@
         <v>773</v>
       </c>
       <c r="E68">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F68" t="s">
         <v>951</v>
@@ -8756,7 +8756,7 @@
         <v>774</v>
       </c>
       <c r="E69">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F69" t="s">
         <v>952</v>
@@ -8791,7 +8791,7 @@
         <v>774</v>
       </c>
       <c r="E70">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
         <v>952</v>
@@ -8826,7 +8826,7 @@
         <v>775</v>
       </c>
       <c r="E71">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F71" t="s">
         <v>952</v>
@@ -8861,7 +8861,7 @@
         <v>776</v>
       </c>
       <c r="E72">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
         <v>952</v>
@@ -8899,7 +8899,7 @@
         <v>777</v>
       </c>
       <c r="E73">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
         <v>951</v>
@@ -8934,7 +8934,7 @@
         <v>778</v>
       </c>
       <c r="E74">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74" t="s">
         <v>952</v>
@@ -8969,7 +8969,7 @@
         <v>779</v>
       </c>
       <c r="E75">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F75" t="s">
         <v>952</v>
@@ -9004,7 +9004,7 @@
         <v>780</v>
       </c>
       <c r="E76">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F76" t="s">
         <v>951</v>
@@ -9039,7 +9039,7 @@
         <v>780</v>
       </c>
       <c r="E77">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F77" t="s">
         <v>951</v>
@@ -9074,7 +9074,7 @@
         <v>781</v>
       </c>
       <c r="E78">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F78" t="s">
         <v>951</v>
@@ -9112,7 +9112,7 @@
         <v>782</v>
       </c>
       <c r="E79">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F79" t="s">
         <v>952</v>
@@ -9147,7 +9147,7 @@
         <v>782</v>
       </c>
       <c r="E80">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F80" t="s">
         <v>951</v>
@@ -9182,7 +9182,7 @@
         <v>782</v>
       </c>
       <c r="E81">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>953</v>
@@ -9220,7 +9220,7 @@
         <v>783</v>
       </c>
       <c r="E82">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F82" t="s">
         <v>951</v>
@@ -9255,7 +9255,7 @@
         <v>784</v>
       </c>
       <c r="E83">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F83" t="s">
         <v>951</v>
@@ -9290,7 +9290,7 @@
         <v>785</v>
       </c>
       <c r="E84">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s">
         <v>951</v>
@@ -9325,7 +9325,7 @@
         <v>785</v>
       </c>
       <c r="E85">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
         <v>953</v>
@@ -9360,7 +9360,7 @@
         <v>786</v>
       </c>
       <c r="E86">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F86" t="s">
         <v>952</v>
@@ -9395,7 +9395,7 @@
         <v>786</v>
       </c>
       <c r="E87">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s">
         <v>953</v>
@@ -9430,7 +9430,7 @@
         <v>786</v>
       </c>
       <c r="E88">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
         <v>953</v>
@@ -9465,7 +9465,7 @@
         <v>787</v>
       </c>
       <c r="E89">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
         <v>951</v>
@@ -9500,7 +9500,7 @@
         <v>787</v>
       </c>
       <c r="E90">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F90" t="s">
         <v>951</v>
@@ -9535,7 +9535,7 @@
         <v>788</v>
       </c>
       <c r="E91">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
         <v>951</v>
@@ -9570,7 +9570,7 @@
         <v>789</v>
       </c>
       <c r="E92">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F92" t="s">
         <v>951</v>
@@ -9605,7 +9605,7 @@
         <v>789</v>
       </c>
       <c r="E93">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F93" t="s">
         <v>951</v>
@@ -9640,7 +9640,7 @@
         <v>790</v>
       </c>
       <c r="E94">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F94" t="s">
         <v>951</v>
@@ -9675,7 +9675,7 @@
         <v>791</v>
       </c>
       <c r="E95">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F95" t="s">
         <v>951</v>
@@ -9710,7 +9710,7 @@
         <v>791</v>
       </c>
       <c r="E96">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F96" t="s">
         <v>951</v>
@@ -9745,7 +9745,7 @@
         <v>792</v>
       </c>
       <c r="E97">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F97" t="s">
         <v>951</v>
@@ -9780,7 +9780,7 @@
         <v>792</v>
       </c>
       <c r="E98">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98" t="s">
         <v>951</v>
@@ -9815,7 +9815,7 @@
         <v>793</v>
       </c>
       <c r="E99">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F99" t="s">
         <v>951</v>
@@ -9850,7 +9850,7 @@
         <v>793</v>
       </c>
       <c r="E100">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F100" t="s">
         <v>951</v>
@@ -9885,7 +9885,7 @@
         <v>794</v>
       </c>
       <c r="E101">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
         <v>951</v>
@@ -9920,7 +9920,7 @@
         <v>794</v>
       </c>
       <c r="E102">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>951</v>
@@ -9955,7 +9955,7 @@
         <v>795</v>
       </c>
       <c r="E103">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F103" t="s">
         <v>951</v>
@@ -9990,7 +9990,7 @@
         <v>795</v>
       </c>
       <c r="E104">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F104" t="s">
         <v>951</v>
@@ -10025,7 +10025,7 @@
         <v>795</v>
       </c>
       <c r="E105">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F105" t="s">
         <v>951</v>
@@ -10060,7 +10060,7 @@
         <v>796</v>
       </c>
       <c r="E106">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
         <v>951</v>
@@ -10095,7 +10095,7 @@
         <v>797</v>
       </c>
       <c r="E107">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F107" t="s">
         <v>951</v>
@@ -10130,7 +10130,7 @@
         <v>797</v>
       </c>
       <c r="E108">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F108" t="s">
         <v>951</v>
@@ -10165,7 +10165,7 @@
         <v>798</v>
       </c>
       <c r="E109">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F109" t="s">
         <v>951</v>
@@ -10200,7 +10200,7 @@
         <v>798</v>
       </c>
       <c r="E110">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F110" t="s">
         <v>951</v>
@@ -10235,7 +10235,7 @@
         <v>799</v>
       </c>
       <c r="E111">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" t="s">
         <v>951</v>
@@ -10270,7 +10270,7 @@
         <v>799</v>
       </c>
       <c r="E112">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F112" t="s">
         <v>951</v>
@@ -10305,7 +10305,7 @@
         <v>799</v>
       </c>
       <c r="E113">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F113" t="s">
         <v>951</v>
@@ -10340,7 +10340,7 @@
         <v>800</v>
       </c>
       <c r="E114">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F114" t="s">
         <v>951</v>
@@ -10375,7 +10375,7 @@
         <v>800</v>
       </c>
       <c r="E115">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F115" t="s">
         <v>951</v>
@@ -10410,7 +10410,7 @@
         <v>801</v>
       </c>
       <c r="E116">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F116" t="s">
         <v>951</v>
@@ -10445,7 +10445,7 @@
         <v>801</v>
       </c>
       <c r="E117">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F117" t="s">
         <v>951</v>
@@ -10480,7 +10480,7 @@
         <v>802</v>
       </c>
       <c r="E118">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F118" t="s">
         <v>951</v>
@@ -10515,7 +10515,7 @@
         <v>803</v>
       </c>
       <c r="E119">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F119" t="s">
         <v>951</v>
@@ -10550,7 +10550,7 @@
         <v>803</v>
       </c>
       <c r="E120">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F120" t="s">
         <v>951</v>
@@ -10585,7 +10585,7 @@
         <v>803</v>
       </c>
       <c r="E121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F121" t="s">
         <v>951</v>
@@ -10620,7 +10620,7 @@
         <v>804</v>
       </c>
       <c r="E122">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F122" t="s">
         <v>951</v>
@@ -10655,7 +10655,7 @@
         <v>805</v>
       </c>
       <c r="E123">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
         <v>951</v>
@@ -10690,7 +10690,7 @@
         <v>805</v>
       </c>
       <c r="E124">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
         <v>951</v>
@@ -10725,7 +10725,7 @@
         <v>805</v>
       </c>
       <c r="E125">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
         <v>951</v>
@@ -10760,7 +10760,7 @@
         <v>806</v>
       </c>
       <c r="E126">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
         <v>951</v>
@@ -10795,7 +10795,7 @@
         <v>806</v>
       </c>
       <c r="E127">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
         <v>951</v>
@@ -10830,7 +10830,7 @@
         <v>807</v>
       </c>
       <c r="E128">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
         <v>951</v>
@@ -10865,7 +10865,7 @@
         <v>808</v>
       </c>
       <c r="E129">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
         <v>951</v>
@@ -10900,7 +10900,7 @@
         <v>808</v>
       </c>
       <c r="E130">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
         <v>951</v>
@@ -10935,7 +10935,7 @@
         <v>808</v>
       </c>
       <c r="E131">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
         <v>951</v>
@@ -10970,7 +10970,7 @@
         <v>809</v>
       </c>
       <c r="E132">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F132" t="s">
         <v>951</v>
@@ -11005,7 +11005,7 @@
         <v>809</v>
       </c>
       <c r="E133">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F133" t="s">
         <v>951</v>
@@ -11040,7 +11040,7 @@
         <v>810</v>
       </c>
       <c r="E134">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F134" t="s">
         <v>951</v>
@@ -11075,7 +11075,7 @@
         <v>810</v>
       </c>
       <c r="E135">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F135" t="s">
         <v>951</v>
@@ -11110,7 +11110,7 @@
         <v>811</v>
       </c>
       <c r="E136">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F136" t="s">
         <v>951</v>
@@ -11145,7 +11145,7 @@
         <v>811</v>
       </c>
       <c r="E137">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F137" t="s">
         <v>951</v>
@@ -11180,7 +11180,7 @@
         <v>812</v>
       </c>
       <c r="E138">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F138" t="s">
         <v>951</v>
@@ -11215,7 +11215,7 @@
         <v>812</v>
       </c>
       <c r="E139">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F139" t="s">
         <v>951</v>
@@ -11253,7 +11253,7 @@
         <v>812</v>
       </c>
       <c r="E140">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F140" t="s">
         <v>951</v>
@@ -11288,7 +11288,7 @@
         <v>813</v>
       </c>
       <c r="E141">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F141" t="s">
         <v>951</v>
@@ -11323,7 +11323,7 @@
         <v>813</v>
       </c>
       <c r="E142">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F142" t="s">
         <v>951</v>
@@ -11358,7 +11358,7 @@
         <v>814</v>
       </c>
       <c r="E143">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F143" t="s">
         <v>951</v>
@@ -11393,7 +11393,7 @@
         <v>815</v>
       </c>
       <c r="E144">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F144" t="s">
         <v>951</v>
@@ -11428,7 +11428,7 @@
         <v>815</v>
       </c>
       <c r="E145">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F145" t="s">
         <v>951</v>
@@ -11463,7 +11463,7 @@
         <v>815</v>
       </c>
       <c r="E146">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F146" t="s">
         <v>951</v>
@@ -11498,7 +11498,7 @@
         <v>816</v>
       </c>
       <c r="E147">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F147" t="s">
         <v>951</v>
@@ -11533,7 +11533,7 @@
         <v>816</v>
       </c>
       <c r="E148">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F148" t="s">
         <v>951</v>
@@ -11568,7 +11568,7 @@
         <v>816</v>
       </c>
       <c r="E149">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F149" t="s">
         <v>951</v>
@@ -11603,7 +11603,7 @@
         <v>817</v>
       </c>
       <c r="E150">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F150" t="s">
         <v>951</v>
@@ -11638,7 +11638,7 @@
         <v>817</v>
       </c>
       <c r="E151">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F151" t="s">
         <v>951</v>
@@ -11673,7 +11673,7 @@
         <v>817</v>
       </c>
       <c r="E152">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F152" t="s">
         <v>951</v>
@@ -11708,7 +11708,7 @@
         <v>818</v>
       </c>
       <c r="E153">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F153" t="s">
         <v>951</v>
@@ -11743,7 +11743,7 @@
         <v>818</v>
       </c>
       <c r="E154">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F154" t="s">
         <v>951</v>
@@ -11778,7 +11778,7 @@
         <v>818</v>
       </c>
       <c r="E155">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F155" t="s">
         <v>951</v>
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="E156">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F156" t="s">
         <v>951</v>
@@ -11848,7 +11848,7 @@
         <v>819</v>
       </c>
       <c r="E157">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F157" t="s">
         <v>951</v>
@@ -11883,7 +11883,7 @@
         <v>820</v>
       </c>
       <c r="E158">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F158" t="s">
         <v>951</v>
@@ -11918,7 +11918,7 @@
         <v>820</v>
       </c>
       <c r="E159">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F159" t="s">
         <v>951</v>
@@ -11953,7 +11953,7 @@
         <v>821</v>
       </c>
       <c r="E160">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F160" t="s">
         <v>951</v>
@@ -11988,7 +11988,7 @@
         <v>821</v>
       </c>
       <c r="E161">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F161" t="s">
         <v>951</v>
@@ -12023,7 +12023,7 @@
         <v>822</v>
       </c>
       <c r="E162">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F162" t="s">
         <v>951</v>
@@ -12058,7 +12058,7 @@
         <v>822</v>
       </c>
       <c r="E163">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F163" t="s">
         <v>951</v>
@@ -12093,7 +12093,7 @@
         <v>823</v>
       </c>
       <c r="E164">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F164" t="s">
         <v>951</v>
@@ -12131,7 +12131,7 @@
         <v>824</v>
       </c>
       <c r="E165">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F165" t="s">
         <v>951</v>
@@ -12166,7 +12166,7 @@
         <v>824</v>
       </c>
       <c r="E166">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F166" t="s">
         <v>951</v>
@@ -12201,7 +12201,7 @@
         <v>824</v>
       </c>
       <c r="E167">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F167" t="s">
         <v>951</v>
@@ -12236,7 +12236,7 @@
         <v>825</v>
       </c>
       <c r="E168">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F168" t="s">
         <v>951</v>
@@ -12271,7 +12271,7 @@
         <v>826</v>
       </c>
       <c r="E169">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F169" t="s">
         <v>951</v>
@@ -12306,7 +12306,7 @@
         <v>826</v>
       </c>
       <c r="E170">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F170" t="s">
         <v>951</v>
@@ -12341,7 +12341,7 @@
         <v>827</v>
       </c>
       <c r="E171">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F171" t="s">
         <v>951</v>
@@ -12376,7 +12376,7 @@
         <v>827</v>
       </c>
       <c r="E172">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F172" t="s">
         <v>951</v>
@@ -12411,7 +12411,7 @@
         <v>827</v>
       </c>
       <c r="E173">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F173" t="s">
         <v>951</v>
@@ -12446,7 +12446,7 @@
         <v>827</v>
       </c>
       <c r="E174">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F174" t="s">
         <v>951</v>
@@ -12481,7 +12481,7 @@
         <v>827</v>
       </c>
       <c r="E175">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F175" t="s">
         <v>951</v>
@@ -12516,7 +12516,7 @@
         <v>827</v>
       </c>
       <c r="E176">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F176" t="s">
         <v>951</v>
@@ -12551,7 +12551,7 @@
         <v>828</v>
       </c>
       <c r="E177">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F177" t="s">
         <v>951</v>
@@ -12586,7 +12586,7 @@
         <v>829</v>
       </c>
       <c r="E178">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F178" t="s">
         <v>951</v>
@@ -12621,7 +12621,7 @@
         <v>830</v>
       </c>
       <c r="E179">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F179" t="s">
         <v>951</v>
@@ -12656,7 +12656,7 @@
         <v>831</v>
       </c>
       <c r="E180">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F180" t="s">
         <v>951</v>
@@ -12691,7 +12691,7 @@
         <v>831</v>
       </c>
       <c r="E181">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F181" t="s">
         <v>951</v>
@@ -12726,7 +12726,7 @@
         <v>831</v>
       </c>
       <c r="E182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F182" t="s">
         <v>951</v>
@@ -12761,7 +12761,7 @@
         <v>832</v>
       </c>
       <c r="E183">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F183" t="s">
         <v>951</v>
@@ -12796,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="E184">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F184" t="s">
         <v>951</v>
@@ -12831,7 +12831,7 @@
         <v>832</v>
       </c>
       <c r="E185">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F185" t="s">
         <v>951</v>
@@ -12866,7 +12866,7 @@
         <v>832</v>
       </c>
       <c r="E186">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F186" t="s">
         <v>951</v>
@@ -12901,7 +12901,7 @@
         <v>832</v>
       </c>
       <c r="E187">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F187" t="s">
         <v>951</v>
@@ -12936,7 +12936,7 @@
         <v>832</v>
       </c>
       <c r="E188">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F188" t="s">
         <v>951</v>
@@ -12971,7 +12971,7 @@
         <v>832</v>
       </c>
       <c r="E189">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F189" t="s">
         <v>951</v>
@@ -13006,7 +13006,7 @@
         <v>833</v>
       </c>
       <c r="E190">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F190" t="s">
         <v>951</v>
@@ -13041,7 +13041,7 @@
         <v>833</v>
       </c>
       <c r="E191">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F191" t="s">
         <v>951</v>
@@ -13076,7 +13076,7 @@
         <v>833</v>
       </c>
       <c r="E192">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F192" t="s">
         <v>951</v>
@@ -13111,7 +13111,7 @@
         <v>834</v>
       </c>
       <c r="E193">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F193" t="s">
         <v>951</v>
@@ -13146,7 +13146,7 @@
         <v>835</v>
       </c>
       <c r="E194">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F194" t="s">
         <v>951</v>
@@ -13181,7 +13181,7 @@
         <v>835</v>
       </c>
       <c r="E195">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F195" t="s">
         <v>951</v>
@@ -13216,7 +13216,7 @@
         <v>835</v>
       </c>
       <c r="E196">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F196" t="s">
         <v>951</v>
@@ -13251,7 +13251,7 @@
         <v>836</v>
       </c>
       <c r="E197">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F197" t="s">
         <v>951</v>
@@ -13286,7 +13286,7 @@
         <v>836</v>
       </c>
       <c r="E198">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F198" t="s">
         <v>951</v>
@@ -13321,7 +13321,7 @@
         <v>836</v>
       </c>
       <c r="E199">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F199" t="s">
         <v>951</v>
@@ -13356,7 +13356,7 @@
         <v>837</v>
       </c>
       <c r="E200">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F200" t="s">
         <v>951</v>
@@ -13391,7 +13391,7 @@
         <v>837</v>
       </c>
       <c r="E201">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F201" t="s">
         <v>951</v>
@@ -13429,7 +13429,7 @@
         <v>837</v>
       </c>
       <c r="E202">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F202" t="s">
         <v>951</v>
@@ -13464,7 +13464,7 @@
         <v>838</v>
       </c>
       <c r="E203">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F203" t="s">
         <v>951</v>
@@ -13499,7 +13499,7 @@
         <v>839</v>
       </c>
       <c r="E204">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F204" t="s">
         <v>951</v>
@@ -13534,7 +13534,7 @@
         <v>839</v>
       </c>
       <c r="E205">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F205" t="s">
         <v>951</v>
@@ -13569,7 +13569,7 @@
         <v>840</v>
       </c>
       <c r="E206">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F206" t="s">
         <v>951</v>
@@ -13604,7 +13604,7 @@
         <v>841</v>
       </c>
       <c r="E207">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F207" t="s">
         <v>951</v>
@@ -13639,7 +13639,7 @@
         <v>841</v>
       </c>
       <c r="E208">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -13674,7 +13674,7 @@
         <v>841</v>
       </c>
       <c r="E209">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F209" t="s">
         <v>951</v>
@@ -13709,7 +13709,7 @@
         <v>841</v>
       </c>
       <c r="E210">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F210" t="s">
         <v>951</v>
@@ -13744,7 +13744,7 @@
         <v>841</v>
       </c>
       <c r="E211">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F211" t="s">
         <v>951</v>
@@ -13779,7 +13779,7 @@
         <v>841</v>
       </c>
       <c r="E212">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F212" t="s">
         <v>951</v>
@@ -13814,7 +13814,7 @@
         <v>842</v>
       </c>
       <c r="E213">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F213" t="s">
         <v>951</v>
@@ -13849,7 +13849,7 @@
         <v>842</v>
       </c>
       <c r="E214">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F214" t="s">
         <v>951</v>
@@ -13884,7 +13884,7 @@
         <v>843</v>
       </c>
       <c r="E215">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F215" t="s">
         <v>951</v>
@@ -13922,7 +13922,7 @@
         <v>843</v>
       </c>
       <c r="E216">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F216" t="s">
         <v>951</v>
@@ -13957,7 +13957,7 @@
         <v>843</v>
       </c>
       <c r="E217">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F217" t="s">
         <v>951</v>
@@ -13992,7 +13992,7 @@
         <v>843</v>
       </c>
       <c r="E218">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F218" t="s">
         <v>951</v>
@@ -14030,7 +14030,7 @@
         <v>844</v>
       </c>
       <c r="E219">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F219" t="s">
         <v>951</v>
@@ -14065,7 +14065,7 @@
         <v>844</v>
       </c>
       <c r="E220">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F220" t="s">
         <v>951</v>
@@ -14100,7 +14100,7 @@
         <v>844</v>
       </c>
       <c r="E221">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F221" t="s">
         <v>951</v>
@@ -14135,7 +14135,7 @@
         <v>845</v>
       </c>
       <c r="E222">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F222" t="s">
         <v>951</v>
@@ -14170,7 +14170,7 @@
         <v>845</v>
       </c>
       <c r="E223">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F223" t="s">
         <v>951</v>
@@ -14205,7 +14205,7 @@
         <v>845</v>
       </c>
       <c r="E224">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F224" t="s">
         <v>951</v>
@@ -14240,7 +14240,7 @@
         <v>846</v>
       </c>
       <c r="E225">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F225" t="s">
         <v>951</v>
@@ -14275,7 +14275,7 @@
         <v>847</v>
       </c>
       <c r="E226">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F226" t="s">
         <v>951</v>
@@ -14313,7 +14313,7 @@
         <v>847</v>
       </c>
       <c r="E227">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F227" t="s">
         <v>951</v>
@@ -14348,7 +14348,7 @@
         <v>847</v>
       </c>
       <c r="E228">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F228" t="s">
         <v>951</v>
@@ -14383,7 +14383,7 @@
         <v>847</v>
       </c>
       <c r="E229">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F229" t="s">
         <v>951</v>
@@ -14418,7 +14418,7 @@
         <v>847</v>
       </c>
       <c r="E230">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F230" t="s">
         <v>951</v>
@@ -14453,7 +14453,7 @@
         <v>847</v>
       </c>
       <c r="E231">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F231" t="s">
         <v>951</v>
@@ -14488,7 +14488,7 @@
         <v>847</v>
       </c>
       <c r="E232">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F232" t="s">
         <v>951</v>
@@ -14523,7 +14523,7 @@
         <v>847</v>
       </c>
       <c r="E233">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F233" t="s">
         <v>951</v>
@@ -14558,7 +14558,7 @@
         <v>847</v>
       </c>
       <c r="E234">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F234" t="s">
         <v>951</v>
@@ -14593,7 +14593,7 @@
         <v>847</v>
       </c>
       <c r="E235">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F235" t="s">
         <v>951</v>
@@ -14628,7 +14628,7 @@
         <v>848</v>
       </c>
       <c r="E236">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F236" t="s">
         <v>951</v>
@@ -14663,7 +14663,7 @@
         <v>848</v>
       </c>
       <c r="E237">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F237" t="s">
         <v>951</v>
@@ -14698,7 +14698,7 @@
         <v>848</v>
       </c>
       <c r="E238">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F238" t="s">
         <v>951</v>
@@ -14733,7 +14733,7 @@
         <v>848</v>
       </c>
       <c r="E239">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F239" t="s">
         <v>951</v>
@@ -14768,7 +14768,7 @@
         <v>848</v>
       </c>
       <c r="E240">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F240" t="s">
         <v>951</v>
@@ -14803,7 +14803,7 @@
         <v>849</v>
       </c>
       <c r="E241">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F241" t="s">
         <v>951</v>
@@ -14841,7 +14841,7 @@
         <v>850</v>
       </c>
       <c r="E242">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F242" t="s">
         <v>951</v>
@@ -14876,7 +14876,7 @@
         <v>851</v>
       </c>
       <c r="E243">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F243" t="s">
         <v>951</v>
@@ -14911,7 +14911,7 @@
         <v>851</v>
       </c>
       <c r="E244">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F244" t="s">
         <v>951</v>
@@ -14946,7 +14946,7 @@
         <v>851</v>
       </c>
       <c r="E245">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F245" t="s">
         <v>951</v>
@@ -14981,7 +14981,7 @@
         <v>851</v>
       </c>
       <c r="E246">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F246" t="s">
         <v>951</v>
@@ -15016,7 +15016,7 @@
         <v>851</v>
       </c>
       <c r="E247">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F247" t="s">
         <v>951</v>
@@ -15051,7 +15051,7 @@
         <v>851</v>
       </c>
       <c r="E248">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F248" t="s">
         <v>951</v>
@@ -15086,7 +15086,7 @@
         <v>852</v>
       </c>
       <c r="E249">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F249" t="s">
         <v>951</v>
@@ -15121,7 +15121,7 @@
         <v>852</v>
       </c>
       <c r="E250">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F250" t="s">
         <v>951</v>
@@ -15156,7 +15156,7 @@
         <v>852</v>
       </c>
       <c r="E251">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F251" t="s">
         <v>951</v>
@@ -15191,7 +15191,7 @@
         <v>852</v>
       </c>
       <c r="E252">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F252" t="s">
         <v>951</v>
@@ -15226,7 +15226,7 @@
         <v>852</v>
       </c>
       <c r="E253">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F253" t="s">
         <v>951</v>
@@ -15261,7 +15261,7 @@
         <v>853</v>
       </c>
       <c r="E254">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F254" t="s">
         <v>951</v>
@@ -15296,7 +15296,7 @@
         <v>853</v>
       </c>
       <c r="E255">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F255" t="s">
         <v>951</v>
@@ -15331,7 +15331,7 @@
         <v>853</v>
       </c>
       <c r="E256">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F256" t="s">
         <v>951</v>
@@ -15366,7 +15366,7 @@
         <v>853</v>
       </c>
       <c r="E257">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F257" t="s">
         <v>951</v>
@@ -15401,7 +15401,7 @@
         <v>853</v>
       </c>
       <c r="E258">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F258" t="s">
         <v>951</v>
@@ -15436,7 +15436,7 @@
         <v>854</v>
       </c>
       <c r="E259">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F259" t="s">
         <v>951</v>
@@ -15471,7 +15471,7 @@
         <v>854</v>
       </c>
       <c r="E260">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F260" t="s">
         <v>951</v>
@@ -15506,7 +15506,7 @@
         <v>854</v>
       </c>
       <c r="E261">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F261" t="s">
         <v>951</v>
@@ -15541,7 +15541,7 @@
         <v>855</v>
       </c>
       <c r="E262">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F262" t="s">
         <v>951</v>
@@ -15576,7 +15576,7 @@
         <v>856</v>
       </c>
       <c r="E263">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F263" t="s">
         <v>951</v>
@@ -15614,7 +15614,7 @@
         <v>857</v>
       </c>
       <c r="E264">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F264" t="s">
         <v>951</v>
@@ -15649,7 +15649,7 @@
         <v>858</v>
       </c>
       <c r="E265">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F265" t="s">
         <v>951</v>
@@ -15684,7 +15684,7 @@
         <v>858</v>
       </c>
       <c r="E266">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F266" t="s">
         <v>951</v>
@@ -15719,7 +15719,7 @@
         <v>858</v>
       </c>
       <c r="E267">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F267" t="s">
         <v>951</v>
@@ -15754,7 +15754,7 @@
         <v>859</v>
       </c>
       <c r="E268">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F268" t="s">
         <v>951</v>
@@ -15792,7 +15792,7 @@
         <v>860</v>
       </c>
       <c r="E269">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F269" t="s">
         <v>953</v>
@@ -15827,7 +15827,7 @@
         <v>861</v>
       </c>
       <c r="E270">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F270" t="s">
         <v>951</v>
@@ -15862,7 +15862,7 @@
         <v>862</v>
       </c>
       <c r="E271">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F271" t="s">
         <v>951</v>
@@ -15897,7 +15897,7 @@
         <v>862</v>
       </c>
       <c r="E272">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F272" t="s">
         <v>951</v>
@@ -15932,7 +15932,7 @@
         <v>862</v>
       </c>
       <c r="E273">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F273" t="s">
         <v>951</v>
@@ -15967,7 +15967,7 @@
         <v>863</v>
       </c>
       <c r="E274">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F274" t="s">
         <v>951</v>
@@ -16002,7 +16002,7 @@
         <v>864</v>
       </c>
       <c r="E275">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F275" t="s">
         <v>951</v>
@@ -16037,7 +16037,7 @@
         <v>864</v>
       </c>
       <c r="E276">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F276" t="s">
         <v>951</v>
@@ -16072,7 +16072,7 @@
         <v>864</v>
       </c>
       <c r="E277">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F277" t="s">
         <v>951</v>
@@ -16107,7 +16107,7 @@
         <v>864</v>
       </c>
       <c r="E278">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F278" t="s">
         <v>951</v>
@@ -16145,7 +16145,7 @@
         <v>865</v>
       </c>
       <c r="E279">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F279" t="s">
         <v>951</v>
@@ -16180,7 +16180,7 @@
         <v>866</v>
       </c>
       <c r="E280">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F280" t="s">
         <v>951</v>
@@ -16215,7 +16215,7 @@
         <v>867</v>
       </c>
       <c r="E281">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F281" t="s">
         <v>954</v>
@@ -16253,7 +16253,7 @@
         <v>867</v>
       </c>
       <c r="E282">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F282" t="s">
         <v>951</v>
@@ -16288,7 +16288,7 @@
         <v>867</v>
       </c>
       <c r="E283">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F283" t="s">
         <v>951</v>
@@ -16323,7 +16323,7 @@
         <v>868</v>
       </c>
       <c r="E284">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F284" t="s">
         <v>951</v>
@@ -16358,7 +16358,7 @@
         <v>868</v>
       </c>
       <c r="E285">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F285" t="s">
         <v>951</v>
@@ -16393,7 +16393,7 @@
         <v>868</v>
       </c>
       <c r="E286">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F286" t="s">
         <v>951</v>
@@ -16428,7 +16428,7 @@
         <v>869</v>
       </c>
       <c r="E287">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F287" t="s">
         <v>951</v>
@@ -16463,7 +16463,7 @@
         <v>869</v>
       </c>
       <c r="E288">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F288" t="s">
         <v>951</v>
@@ -16498,7 +16498,7 @@
         <v>869</v>
       </c>
       <c r="E289">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F289" t="s">
         <v>951</v>
@@ -16533,7 +16533,7 @@
         <v>869</v>
       </c>
       <c r="E290">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F290" t="s">
         <v>951</v>
@@ -16568,7 +16568,7 @@
         <v>870</v>
       </c>
       <c r="E291">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F291" t="s">
         <v>951</v>
@@ -16603,7 +16603,7 @@
         <v>870</v>
       </c>
       <c r="E292">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F292" t="s">
         <v>951</v>
@@ -16638,7 +16638,7 @@
         <v>870</v>
       </c>
       <c r="E293">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F293" t="s">
         <v>951</v>
@@ -16673,7 +16673,7 @@
         <v>870</v>
       </c>
       <c r="E294">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F294" t="s">
         <v>951</v>
@@ -16708,7 +16708,7 @@
         <v>871</v>
       </c>
       <c r="E295">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F295" t="s">
         <v>951</v>
@@ -16746,7 +16746,7 @@
         <v>872</v>
       </c>
       <c r="E296">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F296" t="s">
         <v>951</v>
@@ -16781,7 +16781,7 @@
         <v>872</v>
       </c>
       <c r="E297">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F297" t="s">
         <v>951</v>
@@ -16816,7 +16816,7 @@
         <v>872</v>
       </c>
       <c r="E298">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F298" t="s">
         <v>951</v>
@@ -16851,7 +16851,7 @@
         <v>872</v>
       </c>
       <c r="E299">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F299" t="s">
         <v>951</v>
@@ -16886,7 +16886,7 @@
         <v>872</v>
       </c>
       <c r="E300">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F300" t="s">
         <v>951</v>
@@ -16921,7 +16921,7 @@
         <v>873</v>
       </c>
       <c r="E301">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F301" t="s">
         <v>951</v>
@@ -16956,7 +16956,7 @@
         <v>873</v>
       </c>
       <c r="E302">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F302" t="s">
         <v>951</v>
@@ -16991,7 +16991,7 @@
         <v>873</v>
       </c>
       <c r="E303">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F303" t="s">
         <v>951</v>
@@ -17026,7 +17026,7 @@
         <v>874</v>
       </c>
       <c r="E304">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F304" t="s">
         <v>951</v>
@@ -17061,7 +17061,7 @@
         <v>874</v>
       </c>
       <c r="E305">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F305" t="s">
         <v>951</v>
@@ -17096,7 +17096,7 @@
         <v>874</v>
       </c>
       <c r="E306">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F306" t="s">
         <v>951</v>
@@ -17131,7 +17131,7 @@
         <v>874</v>
       </c>
       <c r="E307">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F307" t="s">
         <v>951</v>
@@ -17169,7 +17169,7 @@
         <v>875</v>
       </c>
       <c r="E308">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F308" t="s">
         <v>951</v>
@@ -17204,7 +17204,7 @@
         <v>875</v>
       </c>
       <c r="E309">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F309" t="s">
         <v>951</v>
@@ -17242,7 +17242,7 @@
         <v>875</v>
       </c>
       <c r="E310">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F310" t="s">
         <v>951</v>
@@ -17277,7 +17277,7 @@
         <v>875</v>
       </c>
       <c r="E311">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F311" t="s">
         <v>951</v>
@@ -17312,7 +17312,7 @@
         <v>876</v>
       </c>
       <c r="E312">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F312" t="s">
         <v>951</v>
@@ -17347,7 +17347,7 @@
         <v>876</v>
       </c>
       <c r="E313">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F313" t="s">
         <v>951</v>
@@ -17382,7 +17382,7 @@
         <v>877</v>
       </c>
       <c r="E314">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F314" t="s">
         <v>951</v>
@@ -17417,7 +17417,7 @@
         <v>877</v>
       </c>
       <c r="E315">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F315" t="s">
         <v>951</v>
@@ -17452,7 +17452,7 @@
         <v>877</v>
       </c>
       <c r="E316">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F316" t="s">
         <v>951</v>
@@ -17487,7 +17487,7 @@
         <v>877</v>
       </c>
       <c r="E317">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F317" t="s">
         <v>951</v>
@@ -17522,7 +17522,7 @@
         <v>878</v>
       </c>
       <c r="E318">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F318" t="s">
         <v>951</v>
@@ -17557,7 +17557,7 @@
         <v>878</v>
       </c>
       <c r="E319">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F319" t="s">
         <v>951</v>
@@ -17592,7 +17592,7 @@
         <v>879</v>
       </c>
       <c r="E320">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F320" t="s">
         <v>951</v>
@@ -17627,7 +17627,7 @@
         <v>879</v>
       </c>
       <c r="E321">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F321" t="s">
         <v>951</v>
@@ -17662,7 +17662,7 @@
         <v>879</v>
       </c>
       <c r="E322">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F322" t="s">
         <v>951</v>
@@ -17697,7 +17697,7 @@
         <v>879</v>
       </c>
       <c r="E323">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F323" t="s">
         <v>951</v>
@@ -17732,7 +17732,7 @@
         <v>879</v>
       </c>
       <c r="E324">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F324" t="s">
         <v>951</v>
@@ -17767,7 +17767,7 @@
         <v>879</v>
       </c>
       <c r="E325">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F325" t="s">
         <v>951</v>
@@ -17802,7 +17802,7 @@
         <v>880</v>
       </c>
       <c r="E326">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F326" t="s">
         <v>951</v>
@@ -17837,7 +17837,7 @@
         <v>880</v>
       </c>
       <c r="E327">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F327" t="s">
         <v>951</v>
@@ -17872,7 +17872,7 @@
         <v>880</v>
       </c>
       <c r="E328">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F328" t="s">
         <v>951</v>
@@ -17907,7 +17907,7 @@
         <v>880</v>
       </c>
       <c r="E329">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F329" t="s">
         <v>951</v>
@@ -17942,7 +17942,7 @@
         <v>880</v>
       </c>
       <c r="E330">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F330" t="s">
         <v>951</v>
@@ -17977,7 +17977,7 @@
         <v>880</v>
       </c>
       <c r="E331">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F331" t="s">
         <v>951</v>
@@ -18012,7 +18012,7 @@
         <v>880</v>
       </c>
       <c r="E332">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F332" t="s">
         <v>951</v>
@@ -18047,7 +18047,7 @@
         <v>880</v>
       </c>
       <c r="E333">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F333" t="s">
         <v>951</v>
@@ -18082,7 +18082,7 @@
         <v>880</v>
       </c>
       <c r="E334">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F334" t="s">
         <v>951</v>
@@ -18117,7 +18117,7 @@
         <v>880</v>
       </c>
       <c r="E335">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F335" t="s">
         <v>951</v>
@@ -18152,7 +18152,7 @@
         <v>880</v>
       </c>
       <c r="E336">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F336" t="s">
         <v>951</v>
@@ -18187,7 +18187,7 @@
         <v>881</v>
       </c>
       <c r="E337">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F337" t="s">
         <v>951</v>
@@ -18222,7 +18222,7 @@
         <v>882</v>
       </c>
       <c r="E338">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F338" t="s">
         <v>951</v>
@@ -18257,7 +18257,7 @@
         <v>883</v>
       </c>
       <c r="E339">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F339" t="s">
         <v>951</v>
@@ -18292,7 +18292,7 @@
         <v>883</v>
       </c>
       <c r="E340">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F340" t="s">
         <v>951</v>
@@ -18327,7 +18327,7 @@
         <v>883</v>
       </c>
       <c r="E341">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F341" t="s">
         <v>951</v>
@@ -18362,7 +18362,7 @@
         <v>884</v>
       </c>
       <c r="E342">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F342" t="s">
         <v>951</v>
@@ -18397,7 +18397,7 @@
         <v>884</v>
       </c>
       <c r="E343">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F343" t="s">
         <v>951</v>
@@ -18432,7 +18432,7 @@
         <v>885</v>
       </c>
       <c r="E344">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F344" t="s">
         <v>951</v>
@@ -18467,7 +18467,7 @@
         <v>885</v>
       </c>
       <c r="E345">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F345" t="s">
         <v>951</v>
@@ -18505,7 +18505,7 @@
         <v>885</v>
       </c>
       <c r="E346">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F346" t="s">
         <v>951</v>
@@ -18540,7 +18540,7 @@
         <v>885</v>
       </c>
       <c r="E347">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F347" t="s">
         <v>951</v>
@@ -18578,7 +18578,7 @@
         <v>885</v>
       </c>
       <c r="E348">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F348" t="s">
         <v>951</v>
@@ -18613,7 +18613,7 @@
         <v>886</v>
       </c>
       <c r="E349">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F349" t="s">
         <v>951</v>
@@ -18648,7 +18648,7 @@
         <v>886</v>
       </c>
       <c r="E350">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F350" t="s">
         <v>951</v>
@@ -18683,7 +18683,7 @@
         <v>886</v>
       </c>
       <c r="E351">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F351" t="s">
         <v>951</v>
@@ -18718,7 +18718,7 @@
         <v>886</v>
       </c>
       <c r="E352">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F352" t="s">
         <v>951</v>
@@ -18753,7 +18753,7 @@
         <v>886</v>
       </c>
       <c r="E353">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F353" t="s">
         <v>951</v>
@@ -18788,7 +18788,7 @@
         <v>886</v>
       </c>
       <c r="E354">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F354" t="s">
         <v>951</v>
@@ -18823,7 +18823,7 @@
         <v>886</v>
       </c>
       <c r="E355">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F355" t="s">
         <v>951</v>
@@ -18858,7 +18858,7 @@
         <v>887</v>
       </c>
       <c r="E356">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F356" t="s">
         <v>951</v>
@@ -18893,7 +18893,7 @@
         <v>887</v>
       </c>
       <c r="E357">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F357" t="s">
         <v>951</v>
@@ -18931,7 +18931,7 @@
         <v>887</v>
       </c>
       <c r="E358">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F358" t="s">
         <v>951</v>
@@ -18966,7 +18966,7 @@
         <v>888</v>
       </c>
       <c r="E359">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F359" t="s">
         <v>951</v>
@@ -19001,7 +19001,7 @@
         <v>889</v>
       </c>
       <c r="E360">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F360" t="s">
         <v>951</v>
@@ -19036,7 +19036,7 @@
         <v>889</v>
       </c>
       <c r="E361">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F361" t="s">
         <v>951</v>
@@ -19071,7 +19071,7 @@
         <v>889</v>
       </c>
       <c r="E362">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F362" t="s">
         <v>951</v>
@@ -19106,7 +19106,7 @@
         <v>889</v>
       </c>
       <c r="E363">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F363" t="s">
         <v>951</v>
@@ -19141,7 +19141,7 @@
         <v>889</v>
       </c>
       <c r="E364">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F364" t="s">
         <v>951</v>
@@ -19176,7 +19176,7 @@
         <v>890</v>
       </c>
       <c r="E365">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F365" t="s">
         <v>951</v>
@@ -19211,7 +19211,7 @@
         <v>891</v>
       </c>
       <c r="E366">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F366" t="s">
         <v>951</v>
@@ -19246,7 +19246,7 @@
         <v>892</v>
       </c>
       <c r="E367">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F367" t="s">
         <v>951</v>
@@ -19281,7 +19281,7 @@
         <v>892</v>
       </c>
       <c r="E368">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F368" t="s">
         <v>951</v>
@@ -19316,7 +19316,7 @@
         <v>892</v>
       </c>
       <c r="E369">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F369" t="s">
         <v>951</v>
@@ -19351,7 +19351,7 @@
         <v>892</v>
       </c>
       <c r="E370">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F370" t="s">
         <v>951</v>
@@ -19386,7 +19386,7 @@
         <v>893</v>
       </c>
       <c r="E371">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F371" t="s">
         <v>951</v>
@@ -19421,7 +19421,7 @@
         <v>893</v>
       </c>
       <c r="E372">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F372" t="s">
         <v>951</v>
@@ -19456,7 +19456,7 @@
         <v>893</v>
       </c>
       <c r="E373">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F373" t="s">
         <v>951</v>
@@ -19491,7 +19491,7 @@
         <v>893</v>
       </c>
       <c r="E374">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F374" t="s">
         <v>951</v>
@@ -19526,7 +19526,7 @@
         <v>893</v>
       </c>
       <c r="E375">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F375" t="s">
         <v>951</v>
@@ -19561,7 +19561,7 @@
         <v>893</v>
       </c>
       <c r="E376">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F376" t="s">
         <v>951</v>
@@ -19596,7 +19596,7 @@
         <v>893</v>
       </c>
       <c r="E377">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F377" t="s">
         <v>951</v>
@@ -19631,7 +19631,7 @@
         <v>893</v>
       </c>
       <c r="E378">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F378" t="s">
         <v>951</v>
@@ -19666,7 +19666,7 @@
         <v>894</v>
       </c>
       <c r="E379">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F379" t="s">
         <v>951</v>
@@ -19701,7 +19701,7 @@
         <v>894</v>
       </c>
       <c r="E380">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F380" t="s">
         <v>951</v>
@@ -19736,7 +19736,7 @@
         <v>894</v>
       </c>
       <c r="E381">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F381" t="s">
         <v>951</v>
@@ -19771,7 +19771,7 @@
         <v>894</v>
       </c>
       <c r="E382">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F382" t="s">
         <v>951</v>
@@ -19806,7 +19806,7 @@
         <v>895</v>
       </c>
       <c r="E383">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F383" t="s">
         <v>951</v>
@@ -19841,7 +19841,7 @@
         <v>895</v>
       </c>
       <c r="E384">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F384" t="s">
         <v>951</v>
@@ -19876,7 +19876,7 @@
         <v>895</v>
       </c>
       <c r="E385">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F385" t="s">
         <v>951</v>
@@ -19911,7 +19911,7 @@
         <v>895</v>
       </c>
       <c r="E386">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F386" t="s">
         <v>951</v>
@@ -19946,7 +19946,7 @@
         <v>895</v>
       </c>
       <c r="E387">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F387" t="s">
         <v>951</v>
@@ -19981,7 +19981,7 @@
         <v>895</v>
       </c>
       <c r="E388">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F388" t="s">
         <v>951</v>
@@ -20016,7 +20016,7 @@
         <v>895</v>
       </c>
       <c r="E389">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F389" t="s">
         <v>951</v>
@@ -20051,7 +20051,7 @@
         <v>895</v>
       </c>
       <c r="E390">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F390" t="s">
         <v>954</v>
@@ -20089,7 +20089,7 @@
         <v>895</v>
       </c>
       <c r="E391">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F391" t="s">
         <v>951</v>
@@ -20124,7 +20124,7 @@
         <v>895</v>
       </c>
       <c r="E392">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F392" t="s">
         <v>951</v>
@@ -20159,7 +20159,7 @@
         <v>895</v>
       </c>
       <c r="E393">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F393" t="s">
         <v>951</v>
@@ -20194,7 +20194,7 @@
         <v>896</v>
       </c>
       <c r="E394">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F394" t="s">
         <v>951</v>
@@ -20229,7 +20229,7 @@
         <v>896</v>
       </c>
       <c r="E395">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F395" t="s">
         <v>951</v>
@@ -20264,7 +20264,7 @@
         <v>896</v>
       </c>
       <c r="E396">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F396" t="s">
         <v>951</v>
@@ -20299,7 +20299,7 @@
         <v>896</v>
       </c>
       <c r="E397">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F397" t="s">
         <v>951</v>
@@ -20334,7 +20334,7 @@
         <v>896</v>
       </c>
       <c r="E398">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F398" t="s">
         <v>951</v>
@@ -20369,7 +20369,7 @@
         <v>896</v>
       </c>
       <c r="E399">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F399" t="s">
         <v>951</v>
@@ -20404,7 +20404,7 @@
         <v>896</v>
       </c>
       <c r="E400">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F400" t="s">
         <v>951</v>
@@ -20439,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="E401">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F401" t="s">
         <v>951</v>
@@ -20474,7 +20474,7 @@
         <v>896</v>
       </c>
       <c r="E402">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F402" t="s">
         <v>951</v>
@@ -20509,7 +20509,7 @@
         <v>897</v>
       </c>
       <c r="E403">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F403" t="s">
         <v>951</v>
@@ -20544,7 +20544,7 @@
         <v>898</v>
       </c>
       <c r="E404">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F404" t="s">
         <v>951</v>
@@ -20582,7 +20582,7 @@
         <v>898</v>
       </c>
       <c r="E405">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F405" t="s">
         <v>951</v>
@@ -20617,7 +20617,7 @@
         <v>898</v>
       </c>
       <c r="E406">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F406" t="s">
         <v>951</v>
@@ -20652,7 +20652,7 @@
         <v>899</v>
       </c>
       <c r="E407">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F407" t="s">
         <v>951</v>
@@ -20687,7 +20687,7 @@
         <v>899</v>
       </c>
       <c r="E408">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F408" t="s">
         <v>951</v>
@@ -20722,7 +20722,7 @@
         <v>899</v>
       </c>
       <c r="E409">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F409" t="s">
         <v>951</v>
@@ -20757,7 +20757,7 @@
         <v>900</v>
       </c>
       <c r="E410">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F410" t="s">
         <v>951</v>
@@ -20792,7 +20792,7 @@
         <v>900</v>
       </c>
       <c r="E411">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F411" t="s">
         <v>951</v>
@@ -20827,7 +20827,7 @@
         <v>900</v>
       </c>
       <c r="E412">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F412" t="s">
         <v>951</v>
@@ -20862,7 +20862,7 @@
         <v>900</v>
       </c>
       <c r="E413">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F413" t="s">
         <v>951</v>
@@ -20897,7 +20897,7 @@
         <v>901</v>
       </c>
       <c r="E414">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F414" t="s">
         <v>951</v>
@@ -20932,7 +20932,7 @@
         <v>901</v>
       </c>
       <c r="E415">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F415" t="s">
         <v>951</v>
@@ -20967,7 +20967,7 @@
         <v>901</v>
       </c>
       <c r="E416">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F416" t="s">
         <v>951</v>
@@ -21005,7 +21005,7 @@
         <v>902</v>
       </c>
       <c r="E417">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F417" t="s">
         <v>951</v>
@@ -21040,7 +21040,7 @@
         <v>902</v>
       </c>
       <c r="E418">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F418" t="s">
         <v>951</v>
@@ -21075,7 +21075,7 @@
         <v>902</v>
       </c>
       <c r="E419">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F419" t="s">
         <v>951</v>
@@ -21110,7 +21110,7 @@
         <v>902</v>
       </c>
       <c r="E420">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F420" t="s">
         <v>951</v>
@@ -21145,7 +21145,7 @@
         <v>902</v>
       </c>
       <c r="E421">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F421" t="s">
         <v>951</v>
@@ -21180,7 +21180,7 @@
         <v>903</v>
       </c>
       <c r="E422">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F422" t="s">
         <v>951</v>
@@ -21215,7 +21215,7 @@
         <v>903</v>
       </c>
       <c r="E423">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F423" t="s">
         <v>951</v>
@@ -21250,7 +21250,7 @@
         <v>903</v>
       </c>
       <c r="E424">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F424" t="s">
         <v>951</v>
@@ -21285,7 +21285,7 @@
         <v>903</v>
       </c>
       <c r="E425">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F425" t="s">
         <v>951</v>
@@ -21320,7 +21320,7 @@
         <v>903</v>
       </c>
       <c r="E426">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F426" t="s">
         <v>951</v>
@@ -21355,7 +21355,7 @@
         <v>903</v>
       </c>
       <c r="E427">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F427" t="s">
         <v>951</v>
@@ -21390,7 +21390,7 @@
         <v>903</v>
       </c>
       <c r="E428">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F428" t="s">
         <v>951</v>
@@ -21425,7 +21425,7 @@
         <v>903</v>
       </c>
       <c r="E429">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F429" t="s">
         <v>951</v>
@@ -21460,7 +21460,7 @@
         <v>903</v>
       </c>
       <c r="E430">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F430" t="s">
         <v>951</v>
@@ -21495,7 +21495,7 @@
         <v>903</v>
       </c>
       <c r="E431">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F431" t="s">
         <v>951</v>
@@ -21530,7 +21530,7 @@
         <v>904</v>
       </c>
       <c r="E432">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F432" t="s">
         <v>951</v>
@@ -21565,7 +21565,7 @@
         <v>904</v>
       </c>
       <c r="E433">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F433" t="s">
         <v>951</v>
@@ -21600,7 +21600,7 @@
         <v>904</v>
       </c>
       <c r="E434">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F434" t="s">
         <v>951</v>
@@ -21638,7 +21638,7 @@
         <v>904</v>
       </c>
       <c r="E435">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F435" t="s">
         <v>951</v>
@@ -21673,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E436">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F436" t="s">
         <v>951</v>
@@ -21708,7 +21708,7 @@
         <v>904</v>
       </c>
       <c r="E437">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F437" t="s">
         <v>951</v>
@@ -21743,7 +21743,7 @@
         <v>904</v>
       </c>
       <c r="E438">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F438" t="s">
         <v>951</v>
@@ -21778,7 +21778,7 @@
         <v>904</v>
       </c>
       <c r="E439">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F439" t="s">
         <v>951</v>
@@ -21813,7 +21813,7 @@
         <v>904</v>
       </c>
       <c r="E440">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F440" t="s">
         <v>951</v>
@@ -21848,7 +21848,7 @@
         <v>904</v>
       </c>
       <c r="E441">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F441" t="s">
         <v>951</v>
@@ -21883,7 +21883,7 @@
         <v>905</v>
       </c>
       <c r="E442">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F442" t="s">
         <v>951</v>
@@ -21918,7 +21918,7 @@
         <v>905</v>
       </c>
       <c r="E443">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F443" t="s">
         <v>951</v>
@@ -21953,7 +21953,7 @@
         <v>906</v>
       </c>
       <c r="E444">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F444" t="s">
         <v>951</v>
@@ -21988,7 +21988,7 @@
         <v>906</v>
       </c>
       <c r="E445">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F445" t="s">
         <v>951</v>
@@ -22023,7 +22023,7 @@
         <v>906</v>
       </c>
       <c r="E446">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F446" t="s">
         <v>951</v>
@@ -22061,7 +22061,7 @@
         <v>907</v>
       </c>
       <c r="E447">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F447" t="s">
         <v>951</v>
@@ -22096,7 +22096,7 @@
         <v>907</v>
       </c>
       <c r="E448">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F448" t="s">
         <v>951</v>
@@ -22134,7 +22134,7 @@
         <v>907</v>
       </c>
       <c r="E449">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F449" t="s">
         <v>951</v>
@@ -22169,7 +22169,7 @@
         <v>907</v>
       </c>
       <c r="E450">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F450" t="s">
         <v>951</v>
@@ -22204,7 +22204,7 @@
         <v>907</v>
       </c>
       <c r="E451">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F451" t="s">
         <v>951</v>
@@ -22239,7 +22239,7 @@
         <v>907</v>
       </c>
       <c r="E452">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F452" t="s">
         <v>951</v>
@@ -22274,7 +22274,7 @@
         <v>907</v>
       </c>
       <c r="E453">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F453" t="s">
         <v>951</v>
@@ -22309,7 +22309,7 @@
         <v>908</v>
       </c>
       <c r="E454">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F454" t="s">
         <v>951</v>
@@ -22344,7 +22344,7 @@
         <v>908</v>
       </c>
       <c r="E455">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F455" t="s">
         <v>951</v>
@@ -22382,7 +22382,7 @@
         <v>908</v>
       </c>
       <c r="E456">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F456" t="s">
         <v>951</v>
@@ -22417,7 +22417,7 @@
         <v>908</v>
       </c>
       <c r="E457">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F457" t="s">
         <v>951</v>
@@ -22452,7 +22452,7 @@
         <v>908</v>
       </c>
       <c r="E458">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F458" t="s">
         <v>951</v>
@@ -22487,7 +22487,7 @@
         <v>908</v>
       </c>
       <c r="E459">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F459" t="s">
         <v>951</v>
@@ -22522,7 +22522,7 @@
         <v>908</v>
       </c>
       <c r="E460">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F460" t="s">
         <v>951</v>
@@ -22557,7 +22557,7 @@
         <v>908</v>
       </c>
       <c r="E461">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F461" t="s">
         <v>951</v>
@@ -22595,7 +22595,7 @@
         <v>909</v>
       </c>
       <c r="E462">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F462" t="s">
         <v>951</v>
@@ -22630,7 +22630,7 @@
         <v>910</v>
       </c>
       <c r="E463">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F463" t="s">
         <v>951</v>
@@ -22665,7 +22665,7 @@
         <v>910</v>
       </c>
       <c r="E464">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F464" t="s">
         <v>951</v>
@@ -22700,7 +22700,7 @@
         <v>910</v>
       </c>
       <c r="E465">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F465" t="s">
         <v>951</v>
@@ -22735,7 +22735,7 @@
         <v>910</v>
       </c>
       <c r="E466">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F466" t="s">
         <v>951</v>
@@ -22770,7 +22770,7 @@
         <v>910</v>
       </c>
       <c r="E467">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F467" t="s">
         <v>951</v>
@@ -22805,7 +22805,7 @@
         <v>910</v>
       </c>
       <c r="E468">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F468" t="s">
         <v>954</v>
@@ -22840,7 +22840,7 @@
         <v>911</v>
       </c>
       <c r="E469">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F469" t="s">
         <v>951</v>
@@ -22875,7 +22875,7 @@
         <v>911</v>
       </c>
       <c r="E470">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F470" t="s">
         <v>951</v>
@@ -22910,7 +22910,7 @@
         <v>911</v>
       </c>
       <c r="E471">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F471" t="s">
         <v>951</v>
@@ -22945,7 +22945,7 @@
         <v>911</v>
       </c>
       <c r="E472">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F472" t="s">
         <v>951</v>
@@ -22980,7 +22980,7 @@
         <v>911</v>
       </c>
       <c r="E473">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F473" t="s">
         <v>951</v>
@@ -23015,7 +23015,7 @@
         <v>911</v>
       </c>
       <c r="E474">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F474" t="s">
         <v>951</v>
@@ -23050,7 +23050,7 @@
         <v>911</v>
       </c>
       <c r="E475">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F475" t="s">
         <v>951</v>
@@ -23085,7 +23085,7 @@
         <v>911</v>
       </c>
       <c r="E476">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F476" t="s">
         <v>951</v>
@@ -23120,7 +23120,7 @@
         <v>911</v>
       </c>
       <c r="E477">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F477" t="s">
         <v>951</v>
@@ -23155,7 +23155,7 @@
         <v>911</v>
       </c>
       <c r="E478">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F478" t="s">
         <v>951</v>
@@ -23193,7 +23193,7 @@
         <v>911</v>
       </c>
       <c r="E479">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F479" t="s">
         <v>951</v>
@@ -23228,7 +23228,7 @@
         <v>912</v>
       </c>
       <c r="E480">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F480" t="s">
         <v>951</v>
@@ -23263,7 +23263,7 @@
         <v>913</v>
       </c>
       <c r="E481">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F481" t="s">
         <v>954</v>
@@ -23298,7 +23298,7 @@
         <v>913</v>
       </c>
       <c r="E482">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F482" t="s">
         <v>951</v>
@@ -23333,7 +23333,7 @@
         <v>913</v>
       </c>
       <c r="E483">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F483" t="s">
         <v>951</v>
@@ -23368,7 +23368,7 @@
         <v>913</v>
       </c>
       <c r="E484">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F484" t="s">
         <v>951</v>
@@ -23403,7 +23403,7 @@
         <v>913</v>
       </c>
       <c r="E485">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F485" t="s">
         <v>951</v>
@@ -23438,7 +23438,7 @@
         <v>914</v>
       </c>
       <c r="E486">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F486" t="s">
         <v>951</v>
@@ -23473,7 +23473,7 @@
         <v>914</v>
       </c>
       <c r="E487">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F487" t="s">
         <v>951</v>
@@ -23508,7 +23508,7 @@
         <v>914</v>
       </c>
       <c r="E488">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F488" t="s">
         <v>954</v>
@@ -23546,7 +23546,7 @@
         <v>914</v>
       </c>
       <c r="E489">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F489" t="s">
         <v>951</v>
@@ -23581,7 +23581,7 @@
         <v>915</v>
       </c>
       <c r="E490">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F490" t="s">
         <v>951</v>
@@ -23616,7 +23616,7 @@
         <v>915</v>
       </c>
       <c r="E491">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F491" t="s">
         <v>954</v>
@@ -23651,7 +23651,7 @@
         <v>915</v>
       </c>
       <c r="E492">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F492" t="s">
         <v>951</v>
@@ -23686,7 +23686,7 @@
         <v>915</v>
       </c>
       <c r="E493">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F493" t="s">
         <v>951</v>
@@ -23721,7 +23721,7 @@
         <v>915</v>
       </c>
       <c r="E494">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F494" t="s">
         <v>951</v>
@@ -23756,7 +23756,7 @@
         <v>916</v>
       </c>
       <c r="E495">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F495" t="s">
         <v>951</v>
@@ -23791,7 +23791,7 @@
         <v>916</v>
       </c>
       <c r="E496">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F496" t="s">
         <v>951</v>
@@ -23826,7 +23826,7 @@
         <v>916</v>
       </c>
       <c r="E497">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F497" t="s">
         <v>951</v>
@@ -23864,7 +23864,7 @@
         <v>917</v>
       </c>
       <c r="E498">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F498" t="s">
         <v>951</v>
@@ -23899,7 +23899,7 @@
         <v>917</v>
       </c>
       <c r="E499">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F499" t="s">
         <v>951</v>
@@ -23934,7 +23934,7 @@
         <v>917</v>
       </c>
       <c r="E500">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F500" t="s">
         <v>951</v>
@@ -23969,7 +23969,7 @@
         <v>917</v>
       </c>
       <c r="E501">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F501" t="s">
         <v>951</v>
@@ -24004,7 +24004,7 @@
         <v>917</v>
       </c>
       <c r="E502">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F502" t="s">
         <v>951</v>
@@ -24039,7 +24039,7 @@
         <v>917</v>
       </c>
       <c r="E503">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F503" t="s">
         <v>954</v>
@@ -24074,7 +24074,7 @@
         <v>917</v>
       </c>
       <c r="E504">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F504" t="s">
         <v>954</v>
@@ -24109,7 +24109,7 @@
         <v>917</v>
       </c>
       <c r="E505">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F505" t="s">
         <v>954</v>
@@ -24144,7 +24144,7 @@
         <v>917</v>
       </c>
       <c r="E506">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F506" t="s">
         <v>951</v>
@@ -24179,7 +24179,7 @@
         <v>917</v>
       </c>
       <c r="E507">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F507" t="s">
         <v>951</v>
@@ -24214,7 +24214,7 @@
         <v>917</v>
       </c>
       <c r="E508">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F508" t="s">
         <v>951</v>
@@ -24249,7 +24249,7 @@
         <v>918</v>
       </c>
       <c r="E509">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F509" t="s">
         <v>951</v>
@@ -24284,7 +24284,7 @@
         <v>918</v>
       </c>
       <c r="E510">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F510" t="s">
         <v>951</v>
@@ -24319,7 +24319,7 @@
         <v>918</v>
       </c>
       <c r="E511">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F511" t="s">
         <v>951</v>
@@ -24354,7 +24354,7 @@
         <v>918</v>
       </c>
       <c r="E512">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F512" t="s">
         <v>954</v>
@@ -24389,7 +24389,7 @@
         <v>918</v>
       </c>
       <c r="E513">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F513" t="s">
         <v>951</v>
@@ -24424,7 +24424,7 @@
         <v>918</v>
       </c>
       <c r="E514">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F514" t="s">
         <v>954</v>
@@ -24459,7 +24459,7 @@
         <v>918</v>
       </c>
       <c r="E515">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F515" t="s">
         <v>954</v>
@@ -24494,7 +24494,7 @@
         <v>918</v>
       </c>
       <c r="E516">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F516" t="s">
         <v>951</v>
@@ -24529,7 +24529,7 @@
         <v>918</v>
       </c>
       <c r="E517">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F517" t="s">
         <v>951</v>
@@ -24564,7 +24564,7 @@
         <v>918</v>
       </c>
       <c r="E518">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F518" t="s">
         <v>951</v>
@@ -24599,7 +24599,7 @@
         <v>918</v>
       </c>
       <c r="E519">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F519" t="s">
         <v>951</v>
@@ -24634,7 +24634,7 @@
         <v>918</v>
       </c>
       <c r="E520">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F520" t="s">
         <v>951</v>
@@ -24669,7 +24669,7 @@
         <v>918</v>
       </c>
       <c r="E521">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F521" t="s">
         <v>951</v>
@@ -24704,7 +24704,7 @@
         <v>918</v>
       </c>
       <c r="E522">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F522" t="s">
         <v>951</v>
@@ -24739,7 +24739,7 @@
         <v>919</v>
       </c>
       <c r="E523">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F523" t="s">
         <v>951</v>
@@ -24774,7 +24774,7 @@
         <v>919</v>
       </c>
       <c r="E524">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F524" t="s">
         <v>951</v>
@@ -24809,7 +24809,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F525" t="s">
         <v>951</v>
@@ -24847,7 +24847,7 @@
         <v>919</v>
       </c>
       <c r="E526">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F526" t="s">
         <v>951</v>
@@ -24885,7 +24885,7 @@
         <v>919</v>
       </c>
       <c r="E527">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F527" t="s">
         <v>951</v>
@@ -24920,7 +24920,7 @@
         <v>919</v>
       </c>
       <c r="E528">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F528" t="s">
         <v>951</v>
@@ -24955,7 +24955,7 @@
         <v>920</v>
       </c>
       <c r="E529">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F529" t="s">
         <v>951</v>
@@ -24990,7 +24990,7 @@
         <v>920</v>
       </c>
       <c r="E530">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F530" t="s">
         <v>951</v>
@@ -25025,7 +25025,7 @@
         <v>920</v>
       </c>
       <c r="E531">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F531" t="s">
         <v>951</v>
@@ -25060,7 +25060,7 @@
         <v>920</v>
       </c>
       <c r="E532">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F532" t="s">
         <v>951</v>
@@ -25095,7 +25095,7 @@
         <v>920</v>
       </c>
       <c r="E533">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F533" t="s">
         <v>951</v>
@@ -25130,7 +25130,7 @@
         <v>921</v>
       </c>
       <c r="E534">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F534" t="s">
         <v>951</v>
@@ -25165,7 +25165,7 @@
         <v>922</v>
       </c>
       <c r="E535">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F535" t="s">
         <v>954</v>
@@ -25203,7 +25203,7 @@
         <v>922</v>
       </c>
       <c r="E536">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F536" t="s">
         <v>951</v>
@@ -25238,7 +25238,7 @@
         <v>923</v>
       </c>
       <c r="E537">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F537" t="s">
         <v>951</v>
@@ -25273,7 +25273,7 @@
         <v>923</v>
       </c>
       <c r="E538">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F538" t="s">
         <v>951</v>
@@ -25308,7 +25308,7 @@
         <v>924</v>
       </c>
       <c r="E539">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F539" t="s">
         <v>951</v>
@@ -25343,7 +25343,7 @@
         <v>924</v>
       </c>
       <c r="E540">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F540" t="s">
         <v>951</v>
@@ -25378,7 +25378,7 @@
         <v>925</v>
       </c>
       <c r="E541">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F541" t="s">
         <v>951</v>
@@ -25413,7 +25413,7 @@
         <v>925</v>
       </c>
       <c r="E542">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F542" t="s">
         <v>951</v>
@@ -25448,7 +25448,7 @@
         <v>925</v>
       </c>
       <c r="E543">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F543" t="s">
         <v>954</v>
@@ -25486,7 +25486,7 @@
         <v>926</v>
       </c>
       <c r="E544">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F544" t="s">
         <v>952</v>
@@ -25521,7 +25521,7 @@
         <v>926</v>
       </c>
       <c r="E545">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F545" t="s">
         <v>951</v>
@@ -25556,7 +25556,7 @@
         <v>926</v>
       </c>
       <c r="E546">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F546" t="s">
         <v>951</v>
@@ -25591,7 +25591,7 @@
         <v>926</v>
       </c>
       <c r="E547">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F547" t="s">
         <v>954</v>
@@ -25629,7 +25629,7 @@
         <v>926</v>
       </c>
       <c r="E548">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F548" t="s">
         <v>951</v>
@@ -25664,7 +25664,7 @@
         <v>926</v>
       </c>
       <c r="E549">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F549" t="s">
         <v>954</v>
@@ -25702,7 +25702,7 @@
         <v>927</v>
       </c>
       <c r="E550">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F550" t="s">
         <v>951</v>
@@ -25737,7 +25737,7 @@
         <v>927</v>
       </c>
       <c r="E551">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F551" t="s">
         <v>951</v>
@@ -25772,7 +25772,7 @@
         <v>927</v>
       </c>
       <c r="E552">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F552" t="s">
         <v>951</v>
@@ -25807,7 +25807,7 @@
         <v>927</v>
       </c>
       <c r="E553">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F553" t="s">
         <v>951</v>
@@ -25845,7 +25845,7 @@
         <v>927</v>
       </c>
       <c r="E554">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F554" t="s">
         <v>951</v>
@@ -25883,7 +25883,7 @@
         <v>927</v>
       </c>
       <c r="E555">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F555" t="s">
         <v>951</v>
@@ -25921,7 +25921,7 @@
         <v>927</v>
       </c>
       <c r="E556">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F556" t="s">
         <v>951</v>
@@ -25959,7 +25959,7 @@
         <v>928</v>
       </c>
       <c r="E557">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F557" t="s">
         <v>951</v>
@@ -25994,7 +25994,7 @@
         <v>928</v>
       </c>
       <c r="E558">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F558" t="s">
         <v>951</v>
@@ -26029,7 +26029,7 @@
         <v>928</v>
       </c>
       <c r="E559">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F559" t="s">
         <v>951</v>
@@ -26064,7 +26064,7 @@
         <v>928</v>
       </c>
       <c r="E560">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F560" t="s">
         <v>951</v>
@@ -26099,7 +26099,7 @@
         <v>928</v>
       </c>
       <c r="E561">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F561" t="s">
         <v>951</v>
@@ -26134,7 +26134,7 @@
         <v>928</v>
       </c>
       <c r="E562">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F562" t="s">
         <v>951</v>
@@ -26169,7 +26169,7 @@
         <v>929</v>
       </c>
       <c r="E563">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F563" t="s">
         <v>954</v>
@@ -26207,7 +26207,7 @@
         <v>929</v>
       </c>
       <c r="E564">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F564" t="s">
         <v>951</v>
@@ -26242,7 +26242,7 @@
         <v>929</v>
       </c>
       <c r="E565">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F565" t="s">
         <v>951</v>
@@ -26277,7 +26277,7 @@
         <v>929</v>
       </c>
       <c r="E566">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F566" t="s">
         <v>951</v>
@@ -26312,7 +26312,7 @@
         <v>929</v>
       </c>
       <c r="E567">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F567" t="s">
         <v>951</v>
@@ -26347,7 +26347,7 @@
         <v>929</v>
       </c>
       <c r="E568">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F568" t="s">
         <v>951</v>
@@ -26382,7 +26382,7 @@
         <v>930</v>
       </c>
       <c r="E569">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F569" t="s">
         <v>951</v>
@@ -26420,7 +26420,7 @@
         <v>930</v>
       </c>
       <c r="E570">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F570" t="s">
         <v>951</v>
@@ -26455,7 +26455,7 @@
         <v>930</v>
       </c>
       <c r="E571">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F571" t="s">
         <v>954</v>
@@ -26490,7 +26490,7 @@
         <v>930</v>
       </c>
       <c r="E572">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F572" t="s">
         <v>951</v>
@@ -26525,7 +26525,7 @@
         <v>930</v>
       </c>
       <c r="E573">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F573" t="s">
         <v>951</v>
@@ -26560,7 +26560,7 @@
         <v>930</v>
       </c>
       <c r="E574">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F574" t="s">
         <v>951</v>
@@ -26595,7 +26595,7 @@
         <v>930</v>
       </c>
       <c r="E575">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F575" t="s">
         <v>954</v>
@@ -26633,7 +26633,7 @@
         <v>931</v>
       </c>
       <c r="E576">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F576" t="s">
         <v>951</v>
@@ -26668,7 +26668,7 @@
         <v>931</v>
       </c>
       <c r="E577">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F577" t="s">
         <v>951</v>
@@ -26703,7 +26703,7 @@
         <v>931</v>
       </c>
       <c r="E578">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F578" t="s">
         <v>951</v>
@@ -26738,7 +26738,7 @@
         <v>931</v>
       </c>
       <c r="E579">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F579" t="s">
         <v>951</v>
@@ -26773,7 +26773,7 @@
         <v>932</v>
       </c>
       <c r="E580">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F580" t="s">
         <v>951</v>
@@ -26808,7 +26808,7 @@
         <v>932</v>
       </c>
       <c r="E581">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F581" t="s">
         <v>951</v>
@@ -26843,7 +26843,7 @@
         <v>932</v>
       </c>
       <c r="E582">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F582" t="s">
         <v>951</v>
@@ -26878,7 +26878,7 @@
         <v>932</v>
       </c>
       <c r="E583">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F583" t="s">
         <v>954</v>
@@ -26916,7 +26916,7 @@
         <v>932</v>
       </c>
       <c r="E584">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F584" t="s">
         <v>951</v>
@@ -26951,7 +26951,7 @@
         <v>932</v>
       </c>
       <c r="E585">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F585" t="s">
         <v>951</v>
@@ -26986,7 +26986,7 @@
         <v>933</v>
       </c>
       <c r="E586">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F586" t="s">
         <v>951</v>
@@ -27021,7 +27021,7 @@
         <v>933</v>
       </c>
       <c r="E587">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F587" t="s">
         <v>951</v>
@@ -27056,7 +27056,7 @@
         <v>933</v>
       </c>
       <c r="E588">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F588" t="s">
         <v>951</v>
@@ -27091,7 +27091,7 @@
         <v>933</v>
       </c>
       <c r="E589">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F589" t="s">
         <v>951</v>
@@ -27126,7 +27126,7 @@
         <v>933</v>
       </c>
       <c r="E590">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F590" t="s">
         <v>954</v>
@@ -27164,7 +27164,7 @@
         <v>933</v>
       </c>
       <c r="E591">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F591" t="s">
         <v>951</v>
@@ -27182,7 +27182,7 @@
         <v>1778</v>
       </c>
       <c r="L591" t="s">
-        <v>1970</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="592" spans="1:12">
@@ -27199,7 +27199,7 @@
         <v>933</v>
       </c>
       <c r="E592">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F592" t="s">
         <v>951</v>
@@ -27234,7 +27234,7 @@
         <v>934</v>
       </c>
       <c r="E593">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F593" t="s">
         <v>951</v>
@@ -27269,7 +27269,7 @@
         <v>934</v>
       </c>
       <c r="E594">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F594" t="s">
         <v>951</v>
@@ -27304,7 +27304,7 @@
         <v>934</v>
       </c>
       <c r="E595">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F595" t="s">
         <v>951</v>
@@ -27339,7 +27339,7 @@
         <v>935</v>
       </c>
       <c r="E596">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F596" t="s">
         <v>951</v>
@@ -27374,7 +27374,7 @@
         <v>935</v>
       </c>
       <c r="E597">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F597" t="s">
         <v>951</v>
@@ -27409,7 +27409,7 @@
         <v>935</v>
       </c>
       <c r="E598">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F598" t="s">
         <v>951</v>
@@ -27444,7 +27444,7 @@
         <v>935</v>
       </c>
       <c r="E599">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F599" t="s">
         <v>951</v>
@@ -27479,7 +27479,7 @@
         <v>936</v>
       </c>
       <c r="E600">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F600" t="s">
         <v>951</v>
@@ -27514,7 +27514,7 @@
         <v>936</v>
       </c>
       <c r="E601">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F601" t="s">
         <v>951</v>
@@ -27549,7 +27549,7 @@
         <v>936</v>
       </c>
       <c r="E602">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F602" t="s">
         <v>954</v>
@@ -27587,7 +27587,7 @@
         <v>936</v>
       </c>
       <c r="E603">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F603" t="s">
         <v>951</v>
@@ -27622,7 +27622,7 @@
         <v>936</v>
       </c>
       <c r="E604">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F604" t="s">
         <v>951</v>
@@ -27657,7 +27657,7 @@
         <v>936</v>
       </c>
       <c r="E605">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F605" t="s">
         <v>951</v>
@@ -27692,7 +27692,7 @@
         <v>936</v>
       </c>
       <c r="E606">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F606" t="s">
         <v>954</v>
@@ -27730,7 +27730,7 @@
         <v>936</v>
       </c>
       <c r="E607">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F607" t="s">
         <v>954</v>
@@ -27768,7 +27768,7 @@
         <v>936</v>
       </c>
       <c r="E608">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F608" t="s">
         <v>954</v>
@@ -27806,7 +27806,7 @@
         <v>937</v>
       </c>
       <c r="E609">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F609" t="s">
         <v>954</v>
@@ -27844,7 +27844,7 @@
         <v>937</v>
       </c>
       <c r="E610">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F610" t="s">
         <v>951</v>
@@ -27879,7 +27879,7 @@
         <v>937</v>
       </c>
       <c r="E611">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F611" t="s">
         <v>951</v>
@@ -27914,7 +27914,7 @@
         <v>937</v>
       </c>
       <c r="E612">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F612" t="s">
         <v>954</v>
@@ -27952,7 +27952,7 @@
         <v>937</v>
       </c>
       <c r="E613">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F613" t="s">
         <v>954</v>
@@ -27990,7 +27990,7 @@
         <v>938</v>
       </c>
       <c r="E614">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F614" t="s">
         <v>951</v>
@@ -28025,7 +28025,7 @@
         <v>939</v>
       </c>
       <c r="E615">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F615" t="s">
         <v>951</v>
@@ -28043,7 +28043,7 @@
         <v>1781</v>
       </c>
       <c r="L615" t="s">
-        <v>1970</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="616" spans="1:12">
@@ -28060,7 +28060,7 @@
         <v>939</v>
       </c>
       <c r="E616">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F616" t="s">
         <v>951</v>
@@ -28095,7 +28095,7 @@
         <v>939</v>
       </c>
       <c r="E617">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F617" t="s">
         <v>951</v>
@@ -28130,7 +28130,7 @@
         <v>939</v>
       </c>
       <c r="E618">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F618" t="s">
         <v>951</v>
@@ -28168,7 +28168,7 @@
         <v>940</v>
       </c>
       <c r="E619">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F619" t="s">
         <v>951</v>
@@ -28203,7 +28203,7 @@
         <v>940</v>
       </c>
       <c r="E620">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F620" t="s">
         <v>951</v>
@@ -28221,7 +28221,7 @@
         <v>1868</v>
       </c>
       <c r="L620" t="s">
-        <v>1970</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="621" spans="1:12">
@@ -28238,7 +28238,7 @@
         <v>940</v>
       </c>
       <c r="E621">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F621" t="s">
         <v>951</v>
@@ -28256,7 +28256,7 @@
         <v>1868</v>
       </c>
       <c r="L621" t="s">
-        <v>1970</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="622" spans="1:12">
@@ -28273,7 +28273,7 @@
         <v>940</v>
       </c>
       <c r="E622">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F622" t="s">
         <v>951</v>
@@ -28308,7 +28308,7 @@
         <v>940</v>
       </c>
       <c r="E623">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F623" t="s">
         <v>954</v>
@@ -28346,7 +28346,7 @@
         <v>940</v>
       </c>
       <c r="E624">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F624" t="s">
         <v>954</v>
@@ -28384,7 +28384,7 @@
         <v>941</v>
       </c>
       <c r="E625">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F625" t="s">
         <v>951</v>
@@ -28419,7 +28419,7 @@
         <v>941</v>
       </c>
       <c r="E626">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F626" t="s">
         <v>951</v>
@@ -28457,7 +28457,7 @@
         <v>941</v>
       </c>
       <c r="E627">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F627" t="s">
         <v>951</v>
@@ -28492,7 +28492,7 @@
         <v>941</v>
       </c>
       <c r="E628">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F628" t="s">
         <v>951</v>
@@ -28527,7 +28527,7 @@
         <v>941</v>
       </c>
       <c r="E629">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F629" t="s">
         <v>954</v>
@@ -28565,7 +28565,7 @@
         <v>941</v>
       </c>
       <c r="E630">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F630" t="s">
         <v>953</v>
@@ -28600,7 +28600,7 @@
         <v>941</v>
       </c>
       <c r="E631">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F631" t="s">
         <v>951</v>
@@ -28618,7 +28618,7 @@
         <v>1796</v>
       </c>
       <c r="L631" t="s">
-        <v>1970</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="632" spans="1:12">
@@ -28635,7 +28635,7 @@
         <v>941</v>
       </c>
       <c r="E632">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F632" t="s">
         <v>951</v>
@@ -28653,7 +28653,7 @@
         <v>1796</v>
       </c>
       <c r="L632" t="s">
-        <v>1970</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="633" spans="1:12">
@@ -28670,7 +28670,7 @@
         <v>942</v>
       </c>
       <c r="E633">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F633" t="s">
         <v>951</v>
@@ -28705,7 +28705,7 @@
         <v>942</v>
       </c>
       <c r="E634">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F634" t="s">
         <v>954</v>
@@ -28743,7 +28743,7 @@
         <v>942</v>
       </c>
       <c r="E635">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F635" t="s">
         <v>954</v>
@@ -28781,7 +28781,7 @@
         <v>942</v>
       </c>
       <c r="E636">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F636" t="s">
         <v>951</v>
@@ -28816,7 +28816,7 @@
         <v>942</v>
       </c>
       <c r="E637">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F637" t="s">
         <v>951</v>
@@ -28851,7 +28851,7 @@
         <v>942</v>
       </c>
       <c r="E638">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F638" t="s">
         <v>951</v>
@@ -28886,7 +28886,7 @@
         <v>942</v>
       </c>
       <c r="E639">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F639" t="s">
         <v>951</v>
@@ -28921,7 +28921,7 @@
         <v>942</v>
       </c>
       <c r="E640">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F640" t="s">
         <v>951</v>
@@ -28956,7 +28956,7 @@
         <v>943</v>
       </c>
       <c r="E641">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F641" t="s">
         <v>951</v>
@@ -28991,7 +28991,7 @@
         <v>943</v>
       </c>
       <c r="E642">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F642" t="s">
         <v>951</v>
@@ -29026,7 +29026,7 @@
         <v>943</v>
       </c>
       <c r="E643">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F643" t="s">
         <v>951</v>
@@ -29061,7 +29061,7 @@
         <v>943</v>
       </c>
       <c r="E644">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F644" t="s">
         <v>954</v>
@@ -29099,7 +29099,7 @@
         <v>943</v>
       </c>
       <c r="E645">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F645" t="s">
         <v>951</v>
@@ -29134,7 +29134,7 @@
         <v>943</v>
       </c>
       <c r="E646">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F646" t="s">
         <v>951</v>
@@ -29169,7 +29169,7 @@
         <v>944</v>
       </c>
       <c r="E647">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F647" t="s">
         <v>954</v>
@@ -29204,7 +29204,7 @@
         <v>944</v>
       </c>
       <c r="E648">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F648" t="s">
         <v>951</v>
@@ -29239,7 +29239,7 @@
         <v>944</v>
       </c>
       <c r="E649">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F649" t="s">
         <v>951</v>
@@ -29274,7 +29274,7 @@
         <v>944</v>
       </c>
       <c r="E650">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F650" t="s">
         <v>951</v>
@@ -29309,7 +29309,7 @@
         <v>944</v>
       </c>
       <c r="E651">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F651" t="s">
         <v>951</v>
@@ -29344,7 +29344,7 @@
         <v>944</v>
       </c>
       <c r="E652">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F652" t="s">
         <v>954</v>
@@ -29379,7 +29379,7 @@
         <v>944</v>
       </c>
       <c r="E653">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F653" t="s">
         <v>951</v>
@@ -29414,7 +29414,7 @@
         <v>945</v>
       </c>
       <c r="E654">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F654" t="s">
         <v>951</v>
@@ -29449,7 +29449,7 @@
         <v>945</v>
       </c>
       <c r="E655">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F655" t="s">
         <v>950</v>
@@ -29484,7 +29484,7 @@
         <v>945</v>
       </c>
       <c r="E656">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F656" t="s">
         <v>951</v>
@@ -29519,7 +29519,7 @@
         <v>945</v>
       </c>
       <c r="E657">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F657" t="s">
         <v>951</v>
@@ -29554,7 +29554,7 @@
         <v>945</v>
       </c>
       <c r="E658">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F658" t="s">
         <v>951</v>
@@ -29592,7 +29592,7 @@
         <v>945</v>
       </c>
       <c r="E659">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F659" t="s">
         <v>951</v>
@@ -29630,7 +29630,7 @@
         <v>945</v>
       </c>
       <c r="E660">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F660" t="s">
         <v>951</v>
@@ -29665,7 +29665,7 @@
         <v>946</v>
       </c>
       <c r="E661">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F661" t="s">
         <v>951</v>
@@ -29700,7 +29700,7 @@
         <v>946</v>
       </c>
       <c r="E662">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F662" t="s">
         <v>951</v>
@@ -29735,7 +29735,7 @@
         <v>946</v>
       </c>
       <c r="E663">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F663" t="s">
         <v>954</v>
@@ -29773,7 +29773,7 @@
         <v>946</v>
       </c>
       <c r="E664">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F664" t="s">
         <v>951</v>
@@ -29811,7 +29811,7 @@
         <v>946</v>
       </c>
       <c r="E665">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F665" t="s">
         <v>954</v>
@@ -29849,7 +29849,7 @@
         <v>946</v>
       </c>
       <c r="E666">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F666" t="s">
         <v>951</v>
@@ -29884,7 +29884,7 @@
         <v>946</v>
       </c>
       <c r="E667">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F667" t="s">
         <v>954</v>
@@ -29922,7 +29922,7 @@
         <v>946</v>
       </c>
       <c r="E668">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F668" t="s">
         <v>951</v>
@@ -29957,7 +29957,7 @@
         <v>946</v>
       </c>
       <c r="E669">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F669" t="s">
         <v>951</v>
@@ -29992,7 +29992,7 @@
         <v>946</v>
       </c>
       <c r="E670">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F670" t="s">
         <v>951</v>
@@ -30027,7 +30027,7 @@
         <v>947</v>
       </c>
       <c r="E671">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F671" t="s">
         <v>954</v>
@@ -30065,7 +30065,7 @@
         <v>947</v>
       </c>
       <c r="E672">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F672" t="s">
         <v>954</v>
@@ -30103,7 +30103,7 @@
         <v>947</v>
       </c>
       <c r="E673">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F673" t="s">
         <v>951</v>
@@ -30138,7 +30138,7 @@
         <v>947</v>
       </c>
       <c r="E674">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F674" t="s">
         <v>951</v>
@@ -30173,7 +30173,7 @@
         <v>947</v>
       </c>
       <c r="E675">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F675" t="s">
         <v>951</v>
@@ -30211,7 +30211,7 @@
         <v>947</v>
       </c>
       <c r="E676">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F676" t="s">
         <v>951</v>
@@ -30246,7 +30246,7 @@
         <v>948</v>
       </c>
       <c r="E677">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F677" t="s">
         <v>955</v>
@@ -30281,7 +30281,7 @@
         <v>948</v>
       </c>
       <c r="E678">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F678" t="s">
         <v>951</v>
@@ -30316,7 +30316,7 @@
         <v>948</v>
       </c>
       <c r="E679">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F679" t="s">
         <v>951</v>
@@ -30351,7 +30351,7 @@
         <v>949</v>
       </c>
       <c r="E680">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F680" t="s">
         <v>951</v>
@@ -30386,7 +30386,7 @@
         <v>949</v>
       </c>
       <c r="E681">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F681" t="s">
         <v>951</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -29648,7 +29648,7 @@
         <v>1911</v>
       </c>
       <c r="L660" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="661" spans="1:12">

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -8403,7 +8403,7 @@
         <v>1399</v>
       </c>
       <c r="E2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F2" t="s">
         <v>1627</v>
@@ -8438,7 +8438,7 @@
         <v>1400</v>
       </c>
       <c r="E3">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F3" t="s">
         <v>1627</v>
@@ -8473,7 +8473,7 @@
         <v>1401</v>
       </c>
       <c r="E4">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
         <v>1627</v>
@@ -8508,7 +8508,7 @@
         <v>1402</v>
       </c>
       <c r="E5">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F5" t="s">
         <v>1627</v>
@@ -8543,7 +8543,7 @@
         <v>1403</v>
       </c>
       <c r="E6">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
         <v>1627</v>
@@ -8578,7 +8578,7 @@
         <v>1404</v>
       </c>
       <c r="E7">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
         <v>1627</v>
@@ -8613,7 +8613,7 @@
         <v>1405</v>
       </c>
       <c r="E8">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F8" t="s">
         <v>1627</v>
@@ -8651,7 +8651,7 @@
         <v>1406</v>
       </c>
       <c r="E9">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F9" t="s">
         <v>1627</v>
@@ -8686,7 +8686,7 @@
         <v>1407</v>
       </c>
       <c r="E10">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F10" t="s">
         <v>1627</v>
@@ -8721,7 +8721,7 @@
         <v>1408</v>
       </c>
       <c r="E11">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F11" t="s">
         <v>1627</v>
@@ -8756,7 +8756,7 @@
         <v>1409</v>
       </c>
       <c r="E12">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
         <v>1627</v>
@@ -8791,7 +8791,7 @@
         <v>1410</v>
       </c>
       <c r="E13">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F13" t="s">
         <v>1627</v>
@@ -8826,7 +8826,7 @@
         <v>1411</v>
       </c>
       <c r="E14">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F14" t="s">
         <v>1627</v>
@@ -8861,7 +8861,7 @@
         <v>1412</v>
       </c>
       <c r="E15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F15" t="s">
         <v>1627</v>
@@ -8896,7 +8896,7 @@
         <v>1412</v>
       </c>
       <c r="E16">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F16" t="s">
         <v>1627</v>
@@ -8931,7 +8931,7 @@
         <v>1413</v>
       </c>
       <c r="E17">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
         <v>1627</v>
@@ -8966,7 +8966,7 @@
         <v>1414</v>
       </c>
       <c r="E18">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F18" t="s">
         <v>1627</v>
@@ -9001,7 +9001,7 @@
         <v>1415</v>
       </c>
       <c r="E19">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
         <v>1627</v>
@@ -9036,7 +9036,7 @@
         <v>1416</v>
       </c>
       <c r="E20">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
         <v>1627</v>
@@ -9071,7 +9071,7 @@
         <v>1417</v>
       </c>
       <c r="E21">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F21" t="s">
         <v>1627</v>
@@ -9106,7 +9106,7 @@
         <v>1418</v>
       </c>
       <c r="E22">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F22" t="s">
         <v>1627</v>
@@ -9141,7 +9141,7 @@
         <v>1418</v>
       </c>
       <c r="E23">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
         <v>1627</v>
@@ -9176,7 +9176,7 @@
         <v>1419</v>
       </c>
       <c r="E24">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F24" t="s">
         <v>1627</v>
@@ -9211,7 +9211,7 @@
         <v>1420</v>
       </c>
       <c r="E25">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F25" t="s">
         <v>1627</v>
@@ -9249,7 +9249,7 @@
         <v>1421</v>
       </c>
       <c r="E26">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
         <v>1627</v>
@@ -9284,7 +9284,7 @@
         <v>1422</v>
       </c>
       <c r="E27">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F27" t="s">
         <v>1627</v>
@@ -9319,7 +9319,7 @@
         <v>1423</v>
       </c>
       <c r="E28">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F28" t="s">
         <v>1627</v>
@@ -9354,7 +9354,7 @@
         <v>1424</v>
       </c>
       <c r="E29">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
         <v>1627</v>
@@ -9389,7 +9389,7 @@
         <v>1425</v>
       </c>
       <c r="E30">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
         <v>1627</v>
@@ -9424,7 +9424,7 @@
         <v>1426</v>
       </c>
       <c r="E31">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
         <v>1627</v>
@@ -9459,7 +9459,7 @@
         <v>1427</v>
       </c>
       <c r="E32">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F32" t="s">
         <v>1627</v>
@@ -9494,7 +9494,7 @@
         <v>1428</v>
       </c>
       <c r="E33">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F33" t="s">
         <v>1627</v>
@@ -9529,7 +9529,7 @@
         <v>1429</v>
       </c>
       <c r="E34">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F34" t="s">
         <v>1627</v>
@@ -9564,7 +9564,7 @@
         <v>1430</v>
       </c>
       <c r="E35">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F35" t="s">
         <v>1627</v>
@@ -9599,7 +9599,7 @@
         <v>1430</v>
       </c>
       <c r="E36">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F36" t="s">
         <v>1627</v>
@@ -9634,7 +9634,7 @@
         <v>1431</v>
       </c>
       <c r="E37">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F37" t="s">
         <v>1627</v>
@@ -9669,7 +9669,7 @@
         <v>1432</v>
       </c>
       <c r="E38">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F38" t="s">
         <v>1627</v>
@@ -9704,7 +9704,7 @@
         <v>1433</v>
       </c>
       <c r="E39">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F39" t="s">
         <v>1627</v>
@@ -9739,7 +9739,7 @@
         <v>1433</v>
       </c>
       <c r="E40">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F40" t="s">
         <v>1627</v>
@@ -9774,7 +9774,7 @@
         <v>1434</v>
       </c>
       <c r="E41">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F41" t="s">
         <v>1627</v>
@@ -9812,7 +9812,7 @@
         <v>1435</v>
       </c>
       <c r="E42">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F42" t="s">
         <v>1627</v>
@@ -9847,7 +9847,7 @@
         <v>1436</v>
       </c>
       <c r="E43">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F43" t="s">
         <v>1628</v>
@@ -9882,7 +9882,7 @@
         <v>1437</v>
       </c>
       <c r="E44">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F44" t="s">
         <v>1627</v>
@@ -9917,7 +9917,7 @@
         <v>1437</v>
       </c>
       <c r="E45">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F45" t="s">
         <v>1627</v>
@@ -9952,7 +9952,7 @@
         <v>1437</v>
       </c>
       <c r="E46">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F46" t="s">
         <v>1627</v>
@@ -9987,7 +9987,7 @@
         <v>1438</v>
       </c>
       <c r="E47">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F47" t="s">
         <v>1628</v>
@@ -10022,7 +10022,7 @@
         <v>1438</v>
       </c>
       <c r="E48">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F48" t="s">
         <v>1628</v>
@@ -10057,7 +10057,7 @@
         <v>1438</v>
       </c>
       <c r="E49">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F49" t="s">
         <v>1627</v>
@@ -10092,7 +10092,7 @@
         <v>1439</v>
       </c>
       <c r="E50">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F50" t="s">
         <v>1627</v>
@@ -10127,7 +10127,7 @@
         <v>1439</v>
       </c>
       <c r="E51">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F51" t="s">
         <v>1627</v>
@@ -10162,7 +10162,7 @@
         <v>1440</v>
       </c>
       <c r="E52">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
         <v>1627</v>
@@ -10197,7 +10197,7 @@
         <v>1440</v>
       </c>
       <c r="E53">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F53" t="s">
         <v>1627</v>
@@ -10232,7 +10232,7 @@
         <v>1441</v>
       </c>
       <c r="E54">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F54" t="s">
         <v>1627</v>
@@ -10267,7 +10267,7 @@
         <v>1442</v>
       </c>
       <c r="E55">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
         <v>1628</v>
@@ -10302,7 +10302,7 @@
         <v>1443</v>
       </c>
       <c r="E56">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F56" t="s">
         <v>1627</v>
@@ -10337,7 +10337,7 @@
         <v>1443</v>
       </c>
       <c r="E57">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F57" t="s">
         <v>1627</v>
@@ -10372,7 +10372,7 @@
         <v>1444</v>
       </c>
       <c r="E58">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F58" t="s">
         <v>1627</v>
@@ -10410,7 +10410,7 @@
         <v>1445</v>
       </c>
       <c r="E59">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F59" t="s">
         <v>1629</v>
@@ -10445,7 +10445,7 @@
         <v>1446</v>
       </c>
       <c r="E60">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F60" t="s">
         <v>1629</v>
@@ -10480,7 +10480,7 @@
         <v>1447</v>
       </c>
       <c r="E61">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F61" t="s">
         <v>1628</v>
@@ -10515,7 +10515,7 @@
         <v>1448</v>
       </c>
       <c r="E62">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F62" t="s">
         <v>1629</v>
@@ -10550,7 +10550,7 @@
         <v>1448</v>
       </c>
       <c r="E63">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F63" t="s">
         <v>1628</v>
@@ -10585,7 +10585,7 @@
         <v>1448</v>
       </c>
       <c r="E64">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F64" t="s">
         <v>1628</v>
@@ -10620,7 +10620,7 @@
         <v>1449</v>
       </c>
       <c r="E65">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
         <v>1628</v>
@@ -10655,7 +10655,7 @@
         <v>1450</v>
       </c>
       <c r="E66">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
         <v>1628</v>
@@ -10693,7 +10693,7 @@
         <v>1450</v>
       </c>
       <c r="E67">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
         <v>1628</v>
@@ -10728,7 +10728,7 @@
         <v>1451</v>
       </c>
       <c r="E68">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F68" t="s">
         <v>1629</v>
@@ -10763,7 +10763,7 @@
         <v>1451</v>
       </c>
       <c r="E69">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F69" t="s">
         <v>1629</v>
@@ -10798,7 +10798,7 @@
         <v>1452</v>
       </c>
       <c r="E70">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F70" t="s">
         <v>1629</v>
@@ -10833,7 +10833,7 @@
         <v>1453</v>
       </c>
       <c r="E71">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F71" t="s">
         <v>1629</v>
@@ -10871,7 +10871,7 @@
         <v>1454</v>
       </c>
       <c r="E72">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
         <v>1628</v>
@@ -10906,7 +10906,7 @@
         <v>1455</v>
       </c>
       <c r="E73">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F73" t="s">
         <v>1629</v>
@@ -10941,7 +10941,7 @@
         <v>1456</v>
       </c>
       <c r="E74">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74" t="s">
         <v>1629</v>
@@ -10976,7 +10976,7 @@
         <v>1457</v>
       </c>
       <c r="E75">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F75" t="s">
         <v>1628</v>
@@ -11011,7 +11011,7 @@
         <v>1457</v>
       </c>
       <c r="E76">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
         <v>1628</v>
@@ -11046,7 +11046,7 @@
         <v>1458</v>
       </c>
       <c r="E77">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>1628</v>
@@ -11084,7 +11084,7 @@
         <v>1459</v>
       </c>
       <c r="E78">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F78" t="s">
         <v>1630</v>
@@ -11122,7 +11122,7 @@
         <v>1459</v>
       </c>
       <c r="E79">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F79" t="s">
         <v>1628</v>
@@ -11157,7 +11157,7 @@
         <v>1459</v>
       </c>
       <c r="E80">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F80" t="s">
         <v>1629</v>
@@ -11192,7 +11192,7 @@
         <v>1460</v>
       </c>
       <c r="E81">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>1628</v>
@@ -11227,7 +11227,7 @@
         <v>1461</v>
       </c>
       <c r="E82">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F82" t="s">
         <v>1628</v>
@@ -11262,7 +11262,7 @@
         <v>1462</v>
       </c>
       <c r="E83">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F83" t="s">
         <v>1630</v>
@@ -11297,7 +11297,7 @@
         <v>1462</v>
       </c>
       <c r="E84">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F84" t="s">
         <v>1628</v>
@@ -11332,7 +11332,7 @@
         <v>1463</v>
       </c>
       <c r="E85">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
         <v>1630</v>
@@ -11367,7 +11367,7 @@
         <v>1463</v>
       </c>
       <c r="E86">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s">
         <v>1630</v>
@@ -11402,7 +11402,7 @@
         <v>1463</v>
       </c>
       <c r="E87">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
         <v>1629</v>
@@ -11437,7 +11437,7 @@
         <v>1464</v>
       </c>
       <c r="E88">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F88" t="s">
         <v>1628</v>
@@ -11472,7 +11472,7 @@
         <v>1464</v>
       </c>
       <c r="E89">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F89" t="s">
         <v>1628</v>
@@ -11507,7 +11507,7 @@
         <v>1465</v>
       </c>
       <c r="E90">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
         <v>1628</v>
@@ -11542,7 +11542,7 @@
         <v>1466</v>
       </c>
       <c r="E91">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F91" t="s">
         <v>1628</v>
@@ -11577,7 +11577,7 @@
         <v>1466</v>
       </c>
       <c r="E92">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F92" t="s">
         <v>1628</v>
@@ -11612,7 +11612,7 @@
         <v>1467</v>
       </c>
       <c r="E93">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F93" t="s">
         <v>1628</v>
@@ -11647,7 +11647,7 @@
         <v>1468</v>
       </c>
       <c r="E94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F94" t="s">
         <v>1628</v>
@@ -11682,7 +11682,7 @@
         <v>1468</v>
       </c>
       <c r="E95">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F95" t="s">
         <v>1628</v>
@@ -11717,7 +11717,7 @@
         <v>1469</v>
       </c>
       <c r="E96">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F96" t="s">
         <v>1628</v>
@@ -11752,7 +11752,7 @@
         <v>1469</v>
       </c>
       <c r="E97">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F97" t="s">
         <v>1628</v>
@@ -11787,7 +11787,7 @@
         <v>1470</v>
       </c>
       <c r="E98">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98" t="s">
         <v>1628</v>
@@ -11822,7 +11822,7 @@
         <v>1470</v>
       </c>
       <c r="E99">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F99" t="s">
         <v>1628</v>
@@ -11857,7 +11857,7 @@
         <v>1471</v>
       </c>
       <c r="E100">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F100" t="s">
         <v>1628</v>
@@ -11892,7 +11892,7 @@
         <v>1471</v>
       </c>
       <c r="E101">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F101" t="s">
         <v>1628</v>
@@ -11927,7 +11927,7 @@
         <v>1472</v>
       </c>
       <c r="E102">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F102" t="s">
         <v>1628</v>
@@ -11962,7 +11962,7 @@
         <v>1472</v>
       </c>
       <c r="E103">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F103" t="s">
         <v>1628</v>
@@ -11997,7 +11997,7 @@
         <v>1472</v>
       </c>
       <c r="E104">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F104" t="s">
         <v>1628</v>
@@ -12032,7 +12032,7 @@
         <v>1473</v>
       </c>
       <c r="E105">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
         <v>1628</v>
@@ -12067,7 +12067,7 @@
         <v>1474</v>
       </c>
       <c r="E106">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
         <v>1628</v>
@@ -12102,7 +12102,7 @@
         <v>1474</v>
       </c>
       <c r="E107">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F107" t="s">
         <v>1628</v>
@@ -12137,7 +12137,7 @@
         <v>1475</v>
       </c>
       <c r="E108">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F108" t="s">
         <v>1628</v>
@@ -12172,7 +12172,7 @@
         <v>1475</v>
       </c>
       <c r="E109">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F109" t="s">
         <v>1628</v>
@@ -12207,7 +12207,7 @@
         <v>1476</v>
       </c>
       <c r="E110">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F110" t="s">
         <v>1628</v>
@@ -12242,7 +12242,7 @@
         <v>1476</v>
       </c>
       <c r="E111">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F111" t="s">
         <v>1628</v>
@@ -12277,7 +12277,7 @@
         <v>1476</v>
       </c>
       <c r="E112">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F112" t="s">
         <v>1628</v>
@@ -12312,7 +12312,7 @@
         <v>1477</v>
       </c>
       <c r="E113">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F113" t="s">
         <v>1628</v>
@@ -12347,7 +12347,7 @@
         <v>1477</v>
       </c>
       <c r="E114">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F114" t="s">
         <v>1628</v>
@@ -12382,7 +12382,7 @@
         <v>1478</v>
       </c>
       <c r="E115">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F115" t="s">
         <v>1628</v>
@@ -12417,7 +12417,7 @@
         <v>1478</v>
       </c>
       <c r="E116">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F116" t="s">
         <v>1628</v>
@@ -12452,7 +12452,7 @@
         <v>1479</v>
       </c>
       <c r="E117">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F117" t="s">
         <v>1628</v>
@@ -12487,7 +12487,7 @@
         <v>1480</v>
       </c>
       <c r="E118">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F118" t="s">
         <v>1628</v>
@@ -12522,7 +12522,7 @@
         <v>1480</v>
       </c>
       <c r="E119">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F119" t="s">
         <v>1628</v>
@@ -12557,7 +12557,7 @@
         <v>1480</v>
       </c>
       <c r="E120">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F120" t="s">
         <v>1628</v>
@@ -12592,7 +12592,7 @@
         <v>1481</v>
       </c>
       <c r="E121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F121" t="s">
         <v>1628</v>
@@ -12627,7 +12627,7 @@
         <v>1482</v>
       </c>
       <c r="E122">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F122" t="s">
         <v>1628</v>
@@ -12662,7 +12662,7 @@
         <v>1482</v>
       </c>
       <c r="E123">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
         <v>1628</v>
@@ -12697,7 +12697,7 @@
         <v>1482</v>
       </c>
       <c r="E124">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
         <v>1628</v>
@@ -12732,7 +12732,7 @@
         <v>1483</v>
       </c>
       <c r="E125">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
         <v>1628</v>
@@ -12767,7 +12767,7 @@
         <v>1483</v>
       </c>
       <c r="E126">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
         <v>1628</v>
@@ -12802,7 +12802,7 @@
         <v>1484</v>
       </c>
       <c r="E127">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
         <v>1628</v>
@@ -12837,7 +12837,7 @@
         <v>1485</v>
       </c>
       <c r="E128">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
         <v>1628</v>
@@ -12872,7 +12872,7 @@
         <v>1485</v>
       </c>
       <c r="E129">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F129" t="s">
         <v>1628</v>
@@ -12907,7 +12907,7 @@
         <v>1485</v>
       </c>
       <c r="E130">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
         <v>1628</v>
@@ -12942,7 +12942,7 @@
         <v>1486</v>
       </c>
       <c r="E131">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F131" t="s">
         <v>1628</v>
@@ -12977,7 +12977,7 @@
         <v>1486</v>
       </c>
       <c r="E132">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F132" t="s">
         <v>1628</v>
@@ -13012,7 +13012,7 @@
         <v>1487</v>
       </c>
       <c r="E133">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F133" t="s">
         <v>1628</v>
@@ -13047,7 +13047,7 @@
         <v>1487</v>
       </c>
       <c r="E134">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F134" t="s">
         <v>1628</v>
@@ -13082,7 +13082,7 @@
         <v>1488</v>
       </c>
       <c r="E135">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F135" t="s">
         <v>1628</v>
@@ -13117,7 +13117,7 @@
         <v>1488</v>
       </c>
       <c r="E136">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F136" t="s">
         <v>1628</v>
@@ -13152,7 +13152,7 @@
         <v>1489</v>
       </c>
       <c r="E137">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F137" t="s">
         <v>1628</v>
@@ -13187,7 +13187,7 @@
         <v>1489</v>
       </c>
       <c r="E138">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F138" t="s">
         <v>1628</v>
@@ -13225,7 +13225,7 @@
         <v>1489</v>
       </c>
       <c r="E139">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F139" t="s">
         <v>1628</v>
@@ -13260,7 +13260,7 @@
         <v>1490</v>
       </c>
       <c r="E140">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F140" t="s">
         <v>1628</v>
@@ -13295,7 +13295,7 @@
         <v>1490</v>
       </c>
       <c r="E141">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F141" t="s">
         <v>1628</v>
@@ -13330,7 +13330,7 @@
         <v>1491</v>
       </c>
       <c r="E142">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F142" t="s">
         <v>1628</v>
@@ -13365,7 +13365,7 @@
         <v>1492</v>
       </c>
       <c r="E143">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F143" t="s">
         <v>1628</v>
@@ -13400,7 +13400,7 @@
         <v>1492</v>
       </c>
       <c r="E144">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F144" t="s">
         <v>1628</v>
@@ -13435,7 +13435,7 @@
         <v>1492</v>
       </c>
       <c r="E145">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F145" t="s">
         <v>1628</v>
@@ -13470,7 +13470,7 @@
         <v>1493</v>
       </c>
       <c r="E146">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F146" t="s">
         <v>1628</v>
@@ -13505,7 +13505,7 @@
         <v>1493</v>
       </c>
       <c r="E147">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F147" t="s">
         <v>1628</v>
@@ -13540,7 +13540,7 @@
         <v>1493</v>
       </c>
       <c r="E148">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F148" t="s">
         <v>1628</v>
@@ -13575,7 +13575,7 @@
         <v>1494</v>
       </c>
       <c r="E149">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F149" t="s">
         <v>1628</v>
@@ -13610,7 +13610,7 @@
         <v>1494</v>
       </c>
       <c r="E150">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F150" t="s">
         <v>1628</v>
@@ -13645,7 +13645,7 @@
         <v>1494</v>
       </c>
       <c r="E151">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F151" t="s">
         <v>1628</v>
@@ -13680,7 +13680,7 @@
         <v>1495</v>
       </c>
       <c r="E152">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F152" t="s">
         <v>1628</v>
@@ -13715,7 +13715,7 @@
         <v>1495</v>
       </c>
       <c r="E153">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F153" t="s">
         <v>1628</v>
@@ -13750,7 +13750,7 @@
         <v>1495</v>
       </c>
       <c r="E154">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F154" t="s">
         <v>1628</v>
@@ -13785,7 +13785,7 @@
         <v>1496</v>
       </c>
       <c r="E155">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F155" t="s">
         <v>1628</v>
@@ -13820,7 +13820,7 @@
         <v>1496</v>
       </c>
       <c r="E156">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
         <v>1628</v>
@@ -13855,7 +13855,7 @@
         <v>1497</v>
       </c>
       <c r="E157">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F157" t="s">
         <v>1628</v>
@@ -13890,7 +13890,7 @@
         <v>1497</v>
       </c>
       <c r="E158">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F158" t="s">
         <v>1628</v>
@@ -13925,7 +13925,7 @@
         <v>1498</v>
       </c>
       <c r="E159">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F159" t="s">
         <v>1628</v>
@@ -13960,7 +13960,7 @@
         <v>1498</v>
       </c>
       <c r="E160">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F160" t="s">
         <v>1628</v>
@@ -13995,7 +13995,7 @@
         <v>1499</v>
       </c>
       <c r="E161">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F161" t="s">
         <v>1628</v>
@@ -14030,7 +14030,7 @@
         <v>1499</v>
       </c>
       <c r="E162">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F162" t="s">
         <v>1628</v>
@@ -14065,7 +14065,7 @@
         <v>1500</v>
       </c>
       <c r="E163">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F163" t="s">
         <v>1628</v>
@@ -14103,7 +14103,7 @@
         <v>1501</v>
       </c>
       <c r="E164">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F164" t="s">
         <v>1628</v>
@@ -14138,7 +14138,7 @@
         <v>1501</v>
       </c>
       <c r="E165">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F165" t="s">
         <v>1628</v>
@@ -14173,7 +14173,7 @@
         <v>1501</v>
       </c>
       <c r="E166">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F166" t="s">
         <v>1628</v>
@@ -14208,7 +14208,7 @@
         <v>1502</v>
       </c>
       <c r="E167">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F167" t="s">
         <v>1628</v>
@@ -14243,7 +14243,7 @@
         <v>1503</v>
       </c>
       <c r="E168">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F168" t="s">
         <v>1628</v>
@@ -14278,7 +14278,7 @@
         <v>1503</v>
       </c>
       <c r="E169">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F169" t="s">
         <v>1628</v>
@@ -14313,7 +14313,7 @@
         <v>1504</v>
       </c>
       <c r="E170">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F170" t="s">
         <v>1628</v>
@@ -14348,7 +14348,7 @@
         <v>1504</v>
       </c>
       <c r="E171">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F171" t="s">
         <v>1628</v>
@@ -14383,7 +14383,7 @@
         <v>1504</v>
       </c>
       <c r="E172">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F172" t="s">
         <v>1628</v>
@@ -14418,7 +14418,7 @@
         <v>1504</v>
       </c>
       <c r="E173">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F173" t="s">
         <v>1628</v>
@@ -14453,7 +14453,7 @@
         <v>1504</v>
       </c>
       <c r="E174">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F174" t="s">
         <v>1628</v>
@@ -14488,7 +14488,7 @@
         <v>1504</v>
       </c>
       <c r="E175">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F175" t="s">
         <v>1628</v>
@@ -14523,7 +14523,7 @@
         <v>1505</v>
       </c>
       <c r="E176">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F176" t="s">
         <v>1628</v>
@@ -14558,7 +14558,7 @@
         <v>1506</v>
       </c>
       <c r="E177">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F177" t="s">
         <v>1628</v>
@@ -14593,7 +14593,7 @@
         <v>1507</v>
       </c>
       <c r="E178">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F178" t="s">
         <v>1628</v>
@@ -14628,7 +14628,7 @@
         <v>1508</v>
       </c>
       <c r="E179">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F179" t="s">
         <v>1628</v>
@@ -14663,7 +14663,7 @@
         <v>1508</v>
       </c>
       <c r="E180">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F180" t="s">
         <v>1628</v>
@@ -14698,7 +14698,7 @@
         <v>1508</v>
       </c>
       <c r="E181">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F181" t="s">
         <v>1628</v>
@@ -14733,7 +14733,7 @@
         <v>1509</v>
       </c>
       <c r="E182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F182" t="s">
         <v>1628</v>
@@ -14768,7 +14768,7 @@
         <v>1509</v>
       </c>
       <c r="E183">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F183" t="s">
         <v>1628</v>
@@ -14803,7 +14803,7 @@
         <v>1509</v>
       </c>
       <c r="E184">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F184" t="s">
         <v>1628</v>
@@ -14838,7 +14838,7 @@
         <v>1509</v>
       </c>
       <c r="E185">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F185" t="s">
         <v>1628</v>
@@ -14873,7 +14873,7 @@
         <v>1509</v>
       </c>
       <c r="E186">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F186" t="s">
         <v>1628</v>
@@ -14908,7 +14908,7 @@
         <v>1509</v>
       </c>
       <c r="E187">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F187" t="s">
         <v>1628</v>
@@ -14943,7 +14943,7 @@
         <v>1509</v>
       </c>
       <c r="E188">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F188" t="s">
         <v>1628</v>
@@ -14978,7 +14978,7 @@
         <v>1510</v>
       </c>
       <c r="E189">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F189" t="s">
         <v>1628</v>
@@ -15013,7 +15013,7 @@
         <v>1510</v>
       </c>
       <c r="E190">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F190" t="s">
         <v>1628</v>
@@ -15048,7 +15048,7 @@
         <v>1510</v>
       </c>
       <c r="E191">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F191" t="s">
         <v>1628</v>
@@ -15083,7 +15083,7 @@
         <v>1511</v>
       </c>
       <c r="E192">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F192" t="s">
         <v>1628</v>
@@ -15118,7 +15118,7 @@
         <v>1512</v>
       </c>
       <c r="E193">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F193" t="s">
         <v>1628</v>
@@ -15153,7 +15153,7 @@
         <v>1512</v>
       </c>
       <c r="E194">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F194" t="s">
         <v>1628</v>
@@ -15188,7 +15188,7 @@
         <v>1512</v>
       </c>
       <c r="E195">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F195" t="s">
         <v>1628</v>
@@ -15223,7 +15223,7 @@
         <v>1513</v>
       </c>
       <c r="E196">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F196" t="s">
         <v>1628</v>
@@ -15258,7 +15258,7 @@
         <v>1513</v>
       </c>
       <c r="E197">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F197" t="s">
         <v>1628</v>
@@ -15293,7 +15293,7 @@
         <v>1513</v>
       </c>
       <c r="E198">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F198" t="s">
         <v>1628</v>
@@ -15328,7 +15328,7 @@
         <v>1514</v>
       </c>
       <c r="E199">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F199" t="s">
         <v>1628</v>
@@ -15363,7 +15363,7 @@
         <v>1514</v>
       </c>
       <c r="E200">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F200" t="s">
         <v>1628</v>
@@ -15401,7 +15401,7 @@
         <v>1514</v>
       </c>
       <c r="E201">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F201" t="s">
         <v>1628</v>
@@ -15436,7 +15436,7 @@
         <v>1515</v>
       </c>
       <c r="E202">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F202" t="s">
         <v>1628</v>
@@ -15471,7 +15471,7 @@
         <v>1516</v>
       </c>
       <c r="E203">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F203" t="s">
         <v>1628</v>
@@ -15506,7 +15506,7 @@
         <v>1516</v>
       </c>
       <c r="E204">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F204" t="s">
         <v>1628</v>
@@ -15541,7 +15541,7 @@
         <v>1517</v>
       </c>
       <c r="E205">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F205" t="s">
         <v>1628</v>
@@ -15576,7 +15576,7 @@
         <v>1518</v>
       </c>
       <c r="E206">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F206" t="s">
         <v>1628</v>
@@ -15611,7 +15611,7 @@
         <v>1518</v>
       </c>
       <c r="E207">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F207" t="s">
         <v>1628</v>
@@ -15646,7 +15646,7 @@
         <v>1518</v>
       </c>
       <c r="E208">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F208" t="s">
         <v>1628</v>
@@ -15681,7 +15681,7 @@
         <v>1518</v>
       </c>
       <c r="E209">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F209" t="s">
         <v>1628</v>
@@ -15716,7 +15716,7 @@
         <v>1518</v>
       </c>
       <c r="E210">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F210" t="s">
         <v>1628</v>
@@ -15751,7 +15751,7 @@
         <v>1518</v>
       </c>
       <c r="E211">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F211" t="s">
         <v>1628</v>
@@ -15786,7 +15786,7 @@
         <v>1519</v>
       </c>
       <c r="E212">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F212" t="s">
         <v>1628</v>
@@ -15821,7 +15821,7 @@
         <v>1519</v>
       </c>
       <c r="E213">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F213" t="s">
         <v>1628</v>
@@ -15856,7 +15856,7 @@
         <v>1520</v>
       </c>
       <c r="E214">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F214" t="s">
         <v>1628</v>
@@ -15894,7 +15894,7 @@
         <v>1520</v>
       </c>
       <c r="E215">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F215" t="s">
         <v>1628</v>
@@ -15929,7 +15929,7 @@
         <v>1520</v>
       </c>
       <c r="E216">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F216" t="s">
         <v>1628</v>
@@ -15964,7 +15964,7 @@
         <v>1520</v>
       </c>
       <c r="E217">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F217" t="s">
         <v>1628</v>
@@ -16002,7 +16002,7 @@
         <v>1521</v>
       </c>
       <c r="E218">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F218" t="s">
         <v>1628</v>
@@ -16037,7 +16037,7 @@
         <v>1521</v>
       </c>
       <c r="E219">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F219" t="s">
         <v>1628</v>
@@ -16072,7 +16072,7 @@
         <v>1521</v>
       </c>
       <c r="E220">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F220" t="s">
         <v>1628</v>
@@ -16107,7 +16107,7 @@
         <v>1522</v>
       </c>
       <c r="E221">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F221" t="s">
         <v>1628</v>
@@ -16142,7 +16142,7 @@
         <v>1522</v>
       </c>
       <c r="E222">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F222" t="s">
         <v>1628</v>
@@ -16177,7 +16177,7 @@
         <v>1522</v>
       </c>
       <c r="E223">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F223" t="s">
         <v>1628</v>
@@ -16212,7 +16212,7 @@
         <v>1523</v>
       </c>
       <c r="E224">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F224" t="s">
         <v>1628</v>
@@ -16247,7 +16247,7 @@
         <v>1524</v>
       </c>
       <c r="E225">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F225" t="s">
         <v>1628</v>
@@ -16282,7 +16282,7 @@
         <v>1524</v>
       </c>
       <c r="E226">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F226" t="s">
         <v>1628</v>
@@ -16317,7 +16317,7 @@
         <v>1524</v>
       </c>
       <c r="E227">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F227" t="s">
         <v>1628</v>
@@ -16352,7 +16352,7 @@
         <v>1524</v>
       </c>
       <c r="E228">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F228" t="s">
         <v>1628</v>
@@ -16387,7 +16387,7 @@
         <v>1524</v>
       </c>
       <c r="E229">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F229" t="s">
         <v>1628</v>
@@ -16422,7 +16422,7 @@
         <v>1524</v>
       </c>
       <c r="E230">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F230" t="s">
         <v>1628</v>
@@ -16457,7 +16457,7 @@
         <v>1524</v>
       </c>
       <c r="E231">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F231" t="s">
         <v>1628</v>
@@ -16492,7 +16492,7 @@
         <v>1524</v>
       </c>
       <c r="E232">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F232" t="s">
         <v>1628</v>
@@ -16527,7 +16527,7 @@
         <v>1524</v>
       </c>
       <c r="E233">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F233" t="s">
         <v>1628</v>
@@ -16562,7 +16562,7 @@
         <v>1524</v>
       </c>
       <c r="E234">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F234" t="s">
         <v>1628</v>
@@ -16600,7 +16600,7 @@
         <v>1525</v>
       </c>
       <c r="E235">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F235" t="s">
         <v>1628</v>
@@ -16635,7 +16635,7 @@
         <v>1525</v>
       </c>
       <c r="E236">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F236" t="s">
         <v>1628</v>
@@ -16670,7 +16670,7 @@
         <v>1525</v>
       </c>
       <c r="E237">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F237" t="s">
         <v>1628</v>
@@ -16705,7 +16705,7 @@
         <v>1525</v>
       </c>
       <c r="E238">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F238" t="s">
         <v>1628</v>
@@ -16740,7 +16740,7 @@
         <v>1525</v>
       </c>
       <c r="E239">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F239" t="s">
         <v>1628</v>
@@ -16775,7 +16775,7 @@
         <v>1526</v>
       </c>
       <c r="E240">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F240" t="s">
         <v>1628</v>
@@ -16813,7 +16813,7 @@
         <v>1527</v>
       </c>
       <c r="E241">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F241" t="s">
         <v>1628</v>
@@ -16848,7 +16848,7 @@
         <v>1528</v>
       </c>
       <c r="E242">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F242" t="s">
         <v>1628</v>
@@ -16883,7 +16883,7 @@
         <v>1528</v>
       </c>
       <c r="E243">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F243" t="s">
         <v>1628</v>
@@ -16918,7 +16918,7 @@
         <v>1528</v>
       </c>
       <c r="E244">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F244" t="s">
         <v>1628</v>
@@ -16953,7 +16953,7 @@
         <v>1528</v>
       </c>
       <c r="E245">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F245" t="s">
         <v>1628</v>
@@ -16988,7 +16988,7 @@
         <v>1528</v>
       </c>
       <c r="E246">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F246" t="s">
         <v>1628</v>
@@ -17023,7 +17023,7 @@
         <v>1528</v>
       </c>
       <c r="E247">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F247" t="s">
         <v>1628</v>
@@ -17058,7 +17058,7 @@
         <v>1529</v>
       </c>
       <c r="E248">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F248" t="s">
         <v>1628</v>
@@ -17093,7 +17093,7 @@
         <v>1529</v>
       </c>
       <c r="E249">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F249" t="s">
         <v>1628</v>
@@ -17128,7 +17128,7 @@
         <v>1529</v>
       </c>
       <c r="E250">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F250" t="s">
         <v>1628</v>
@@ -17163,7 +17163,7 @@
         <v>1529</v>
       </c>
       <c r="E251">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F251" t="s">
         <v>1628</v>
@@ -17198,7 +17198,7 @@
         <v>1529</v>
       </c>
       <c r="E252">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F252" t="s">
         <v>1628</v>
@@ -17233,7 +17233,7 @@
         <v>1530</v>
       </c>
       <c r="E253">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F253" t="s">
         <v>1628</v>
@@ -17268,7 +17268,7 @@
         <v>1530</v>
       </c>
       <c r="E254">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F254" t="s">
         <v>1628</v>
@@ -17303,7 +17303,7 @@
         <v>1530</v>
       </c>
       <c r="E255">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F255" t="s">
         <v>1628</v>
@@ -17338,7 +17338,7 @@
         <v>1530</v>
       </c>
       <c r="E256">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F256" t="s">
         <v>1628</v>
@@ -17373,7 +17373,7 @@
         <v>1530</v>
       </c>
       <c r="E257">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F257" t="s">
         <v>1628</v>
@@ -17408,7 +17408,7 @@
         <v>1531</v>
       </c>
       <c r="E258">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F258" t="s">
         <v>1628</v>
@@ -17443,7 +17443,7 @@
         <v>1531</v>
       </c>
       <c r="E259">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F259" t="s">
         <v>1628</v>
@@ -17478,7 +17478,7 @@
         <v>1531</v>
       </c>
       <c r="E260">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F260" t="s">
         <v>1628</v>
@@ -17513,7 +17513,7 @@
         <v>1532</v>
       </c>
       <c r="E261">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F261" t="s">
         <v>1628</v>
@@ -17548,7 +17548,7 @@
         <v>1533</v>
       </c>
       <c r="E262">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F262" t="s">
         <v>1628</v>
@@ -17586,7 +17586,7 @@
         <v>1534</v>
       </c>
       <c r="E263">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F263" t="s">
         <v>1628</v>
@@ -17621,7 +17621,7 @@
         <v>1535</v>
       </c>
       <c r="E264">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F264" t="s">
         <v>1628</v>
@@ -17656,7 +17656,7 @@
         <v>1535</v>
       </c>
       <c r="E265">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F265" t="s">
         <v>1628</v>
@@ -17691,7 +17691,7 @@
         <v>1535</v>
       </c>
       <c r="E266">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F266" t="s">
         <v>1628</v>
@@ -17726,7 +17726,7 @@
         <v>1536</v>
       </c>
       <c r="E267">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F267" t="s">
         <v>1628</v>
@@ -17764,7 +17764,7 @@
         <v>1537</v>
       </c>
       <c r="E268">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F268" t="s">
         <v>1630</v>
@@ -17799,7 +17799,7 @@
         <v>1538</v>
       </c>
       <c r="E269">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F269" t="s">
         <v>1628</v>
@@ -17834,7 +17834,7 @@
         <v>1539</v>
       </c>
       <c r="E270">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F270" t="s">
         <v>1628</v>
@@ -17869,7 +17869,7 @@
         <v>1539</v>
       </c>
       <c r="E271">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F271" t="s">
         <v>1628</v>
@@ -17904,7 +17904,7 @@
         <v>1539</v>
       </c>
       <c r="E272">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F272" t="s">
         <v>1628</v>
@@ -17939,7 +17939,7 @@
         <v>1540</v>
       </c>
       <c r="E273">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F273" t="s">
         <v>1628</v>
@@ -17974,7 +17974,7 @@
         <v>1541</v>
       </c>
       <c r="E274">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F274" t="s">
         <v>1628</v>
@@ -18012,7 +18012,7 @@
         <v>1541</v>
       </c>
       <c r="E275">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F275" t="s">
         <v>1628</v>
@@ -18047,7 +18047,7 @@
         <v>1541</v>
       </c>
       <c r="E276">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F276" t="s">
         <v>1628</v>
@@ -18082,7 +18082,7 @@
         <v>1541</v>
       </c>
       <c r="E277">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F277" t="s">
         <v>1628</v>
@@ -18117,7 +18117,7 @@
         <v>1542</v>
       </c>
       <c r="E278">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F278" t="s">
         <v>1628</v>
@@ -18152,7 +18152,7 @@
         <v>1543</v>
       </c>
       <c r="E279">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F279" t="s">
         <v>1628</v>
@@ -18187,7 +18187,7 @@
         <v>1544</v>
       </c>
       <c r="E280">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F280" t="s">
         <v>1628</v>
@@ -18222,7 +18222,7 @@
         <v>1544</v>
       </c>
       <c r="E281">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F281" t="s">
         <v>1628</v>
@@ -18257,7 +18257,7 @@
         <v>1544</v>
       </c>
       <c r="E282">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F282" t="s">
         <v>1631</v>
@@ -18295,7 +18295,7 @@
         <v>1545</v>
       </c>
       <c r="E283">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F283" t="s">
         <v>1628</v>
@@ -18330,7 +18330,7 @@
         <v>1545</v>
       </c>
       <c r="E284">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F284" t="s">
         <v>1628</v>
@@ -18365,7 +18365,7 @@
         <v>1545</v>
       </c>
       <c r="E285">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F285" t="s">
         <v>1628</v>
@@ -18400,7 +18400,7 @@
         <v>1546</v>
       </c>
       <c r="E286">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F286" t="s">
         <v>1628</v>
@@ -18435,7 +18435,7 @@
         <v>1546</v>
       </c>
       <c r="E287">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F287" t="s">
         <v>1628</v>
@@ -18470,7 +18470,7 @@
         <v>1546</v>
       </c>
       <c r="E288">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F288" t="s">
         <v>1628</v>
@@ -18505,7 +18505,7 @@
         <v>1546</v>
       </c>
       <c r="E289">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F289" t="s">
         <v>1628</v>
@@ -18540,7 +18540,7 @@
         <v>1547</v>
       </c>
       <c r="E290">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F290" t="s">
         <v>1628</v>
@@ -18575,7 +18575,7 @@
         <v>1547</v>
       </c>
       <c r="E291">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F291" t="s">
         <v>1628</v>
@@ -18610,7 +18610,7 @@
         <v>1547</v>
       </c>
       <c r="E292">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F292" t="s">
         <v>1628</v>
@@ -18645,7 +18645,7 @@
         <v>1547</v>
       </c>
       <c r="E293">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F293" t="s">
         <v>1628</v>
@@ -18680,7 +18680,7 @@
         <v>1548</v>
       </c>
       <c r="E294">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F294" t="s">
         <v>1628</v>
@@ -18718,7 +18718,7 @@
         <v>1549</v>
       </c>
       <c r="E295">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F295" t="s">
         <v>1628</v>
@@ -18753,7 +18753,7 @@
         <v>1549</v>
       </c>
       <c r="E296">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F296" t="s">
         <v>1628</v>
@@ -18788,7 +18788,7 @@
         <v>1549</v>
       </c>
       <c r="E297">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F297" t="s">
         <v>1628</v>
@@ -18823,7 +18823,7 @@
         <v>1549</v>
       </c>
       <c r="E298">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F298" t="s">
         <v>1628</v>
@@ -18858,7 +18858,7 @@
         <v>1549</v>
       </c>
       <c r="E299">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F299" t="s">
         <v>1628</v>
@@ -18893,7 +18893,7 @@
         <v>1550</v>
       </c>
       <c r="E300">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F300" t="s">
         <v>1628</v>
@@ -18928,7 +18928,7 @@
         <v>1550</v>
       </c>
       <c r="E301">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F301" t="s">
         <v>1628</v>
@@ -18963,7 +18963,7 @@
         <v>1550</v>
       </c>
       <c r="E302">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F302" t="s">
         <v>1628</v>
@@ -18998,7 +18998,7 @@
         <v>1551</v>
       </c>
       <c r="E303">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F303" t="s">
         <v>1628</v>
@@ -19036,7 +19036,7 @@
         <v>1551</v>
       </c>
       <c r="E304">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F304" t="s">
         <v>1628</v>
@@ -19071,7 +19071,7 @@
         <v>1551</v>
       </c>
       <c r="E305">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F305" t="s">
         <v>1628</v>
@@ -19106,7 +19106,7 @@
         <v>1551</v>
       </c>
       <c r="E306">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F306" t="s">
         <v>1628</v>
@@ -19141,7 +19141,7 @@
         <v>1552</v>
       </c>
       <c r="E307">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F307" t="s">
         <v>1628</v>
@@ -19176,7 +19176,7 @@
         <v>1552</v>
       </c>
       <c r="E308">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F308" t="s">
         <v>1628</v>
@@ -19211,7 +19211,7 @@
         <v>1552</v>
       </c>
       <c r="E309">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F309" t="s">
         <v>1628</v>
@@ -19249,7 +19249,7 @@
         <v>1552</v>
       </c>
       <c r="E310">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F310" t="s">
         <v>1628</v>
@@ -19284,7 +19284,7 @@
         <v>1553</v>
       </c>
       <c r="E311">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F311" t="s">
         <v>1628</v>
@@ -19319,7 +19319,7 @@
         <v>1553</v>
       </c>
       <c r="E312">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F312" t="s">
         <v>1628</v>
@@ -19354,7 +19354,7 @@
         <v>1554</v>
       </c>
       <c r="E313">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F313" t="s">
         <v>1628</v>
@@ -19389,7 +19389,7 @@
         <v>1554</v>
       </c>
       <c r="E314">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F314" t="s">
         <v>1628</v>
@@ -19424,7 +19424,7 @@
         <v>1554</v>
       </c>
       <c r="E315">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F315" t="s">
         <v>1628</v>
@@ -19459,7 +19459,7 @@
         <v>1554</v>
       </c>
       <c r="E316">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F316" t="s">
         <v>1628</v>
@@ -19494,7 +19494,7 @@
         <v>1555</v>
       </c>
       <c r="E317">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F317" t="s">
         <v>1628</v>
@@ -19529,7 +19529,7 @@
         <v>1555</v>
       </c>
       <c r="E318">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F318" t="s">
         <v>1628</v>
@@ -19564,7 +19564,7 @@
         <v>1556</v>
       </c>
       <c r="E319">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F319" t="s">
         <v>1628</v>
@@ -19599,7 +19599,7 @@
         <v>1556</v>
       </c>
       <c r="E320">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F320" t="s">
         <v>1628</v>
@@ -19634,7 +19634,7 @@
         <v>1556</v>
       </c>
       <c r="E321">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F321" t="s">
         <v>1628</v>
@@ -19669,7 +19669,7 @@
         <v>1556</v>
       </c>
       <c r="E322">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F322" t="s">
         <v>1628</v>
@@ -19704,7 +19704,7 @@
         <v>1556</v>
       </c>
       <c r="E323">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F323" t="s">
         <v>1628</v>
@@ -19739,7 +19739,7 @@
         <v>1556</v>
       </c>
       <c r="E324">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F324" t="s">
         <v>1628</v>
@@ -19774,7 +19774,7 @@
         <v>1557</v>
       </c>
       <c r="E325">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F325" t="s">
         <v>1628</v>
@@ -19809,7 +19809,7 @@
         <v>1557</v>
       </c>
       <c r="E326">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F326" t="s">
         <v>1628</v>
@@ -19844,7 +19844,7 @@
         <v>1557</v>
       </c>
       <c r="E327">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F327" t="s">
         <v>1628</v>
@@ -19879,7 +19879,7 @@
         <v>1557</v>
       </c>
       <c r="E328">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F328" t="s">
         <v>1628</v>
@@ -19914,7 +19914,7 @@
         <v>1557</v>
       </c>
       <c r="E329">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F329" t="s">
         <v>1628</v>
@@ -19949,7 +19949,7 @@
         <v>1557</v>
       </c>
       <c r="E330">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F330" t="s">
         <v>1628</v>
@@ -19984,7 +19984,7 @@
         <v>1557</v>
       </c>
       <c r="E331">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F331" t="s">
         <v>1628</v>
@@ -20019,7 +20019,7 @@
         <v>1557</v>
       </c>
       <c r="E332">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F332" t="s">
         <v>1628</v>
@@ -20054,7 +20054,7 @@
         <v>1557</v>
       </c>
       <c r="E333">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F333" t="s">
         <v>1628</v>
@@ -20089,7 +20089,7 @@
         <v>1557</v>
       </c>
       <c r="E334">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F334" t="s">
         <v>1628</v>
@@ -20124,7 +20124,7 @@
         <v>1557</v>
       </c>
       <c r="E335">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F335" t="s">
         <v>1628</v>
@@ -20159,7 +20159,7 @@
         <v>1558</v>
       </c>
       <c r="E336">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F336" t="s">
         <v>1628</v>
@@ -20194,7 +20194,7 @@
         <v>1559</v>
       </c>
       <c r="E337">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F337" t="s">
         <v>1628</v>
@@ -20229,7 +20229,7 @@
         <v>1560</v>
       </c>
       <c r="E338">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F338" t="s">
         <v>1628</v>
@@ -20264,7 +20264,7 @@
         <v>1560</v>
       </c>
       <c r="E339">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F339" t="s">
         <v>1628</v>
@@ -20299,7 +20299,7 @@
         <v>1560</v>
       </c>
       <c r="E340">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F340" t="s">
         <v>1628</v>
@@ -20334,7 +20334,7 @@
         <v>1561</v>
       </c>
       <c r="E341">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F341" t="s">
         <v>1628</v>
@@ -20369,7 +20369,7 @@
         <v>1561</v>
       </c>
       <c r="E342">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F342" t="s">
         <v>1628</v>
@@ -20404,7 +20404,7 @@
         <v>1562</v>
       </c>
       <c r="E343">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F343" t="s">
         <v>1628</v>
@@ -20439,7 +20439,7 @@
         <v>1562</v>
       </c>
       <c r="E344">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F344" t="s">
         <v>1628</v>
@@ -20477,7 +20477,7 @@
         <v>1562</v>
       </c>
       <c r="E345">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F345" t="s">
         <v>1628</v>
@@ -20512,7 +20512,7 @@
         <v>1562</v>
       </c>
       <c r="E346">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F346" t="s">
         <v>1628</v>
@@ -20550,7 +20550,7 @@
         <v>1562</v>
       </c>
       <c r="E347">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F347" t="s">
         <v>1628</v>
@@ -20585,7 +20585,7 @@
         <v>1563</v>
       </c>
       <c r="E348">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F348" t="s">
         <v>1628</v>
@@ -20620,7 +20620,7 @@
         <v>1563</v>
       </c>
       <c r="E349">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F349" t="s">
         <v>1628</v>
@@ -20655,7 +20655,7 @@
         <v>1563</v>
       </c>
       <c r="E350">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F350" t="s">
         <v>1628</v>
@@ -20690,7 +20690,7 @@
         <v>1563</v>
       </c>
       <c r="E351">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F351" t="s">
         <v>1628</v>
@@ -20725,7 +20725,7 @@
         <v>1563</v>
       </c>
       <c r="E352">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F352" t="s">
         <v>1628</v>
@@ -20760,7 +20760,7 @@
         <v>1563</v>
       </c>
       <c r="E353">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F353" t="s">
         <v>1628</v>
@@ -20795,7 +20795,7 @@
         <v>1563</v>
       </c>
       <c r="E354">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F354" t="s">
         <v>1628</v>
@@ -20830,7 +20830,7 @@
         <v>1564</v>
       </c>
       <c r="E355">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F355" t="s">
         <v>1628</v>
@@ -20865,7 +20865,7 @@
         <v>1564</v>
       </c>
       <c r="E356">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F356" t="s">
         <v>1628</v>
@@ -20903,7 +20903,7 @@
         <v>1564</v>
       </c>
       <c r="E357">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F357" t="s">
         <v>1628</v>
@@ -20938,7 +20938,7 @@
         <v>1565</v>
       </c>
       <c r="E358">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F358" t="s">
         <v>1628</v>
@@ -20973,7 +20973,7 @@
         <v>1566</v>
       </c>
       <c r="E359">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F359" t="s">
         <v>1628</v>
@@ -21008,7 +21008,7 @@
         <v>1566</v>
       </c>
       <c r="E360">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F360" t="s">
         <v>1628</v>
@@ -21043,7 +21043,7 @@
         <v>1566</v>
       </c>
       <c r="E361">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F361" t="s">
         <v>1628</v>
@@ -21078,7 +21078,7 @@
         <v>1566</v>
       </c>
       <c r="E362">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F362" t="s">
         <v>1628</v>
@@ -21113,7 +21113,7 @@
         <v>1566</v>
       </c>
       <c r="E363">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F363" t="s">
         <v>1628</v>
@@ -21148,7 +21148,7 @@
         <v>1567</v>
       </c>
       <c r="E364">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F364" t="s">
         <v>1628</v>
@@ -21183,7 +21183,7 @@
         <v>1568</v>
       </c>
       <c r="E365">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F365" t="s">
         <v>1628</v>
@@ -21218,7 +21218,7 @@
         <v>1569</v>
       </c>
       <c r="E366">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F366" t="s">
         <v>1628</v>
@@ -21253,7 +21253,7 @@
         <v>1569</v>
       </c>
       <c r="E367">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F367" t="s">
         <v>1628</v>
@@ -21288,7 +21288,7 @@
         <v>1569</v>
       </c>
       <c r="E368">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F368" t="s">
         <v>1628</v>
@@ -21323,7 +21323,7 @@
         <v>1569</v>
       </c>
       <c r="E369">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F369" t="s">
         <v>1628</v>
@@ -21358,7 +21358,7 @@
         <v>1570</v>
       </c>
       <c r="E370">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F370" t="s">
         <v>1628</v>
@@ -21393,7 +21393,7 @@
         <v>1570</v>
       </c>
       <c r="E371">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F371" t="s">
         <v>1628</v>
@@ -21428,7 +21428,7 @@
         <v>1570</v>
       </c>
       <c r="E372">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F372" t="s">
         <v>1628</v>
@@ -21463,7 +21463,7 @@
         <v>1570</v>
       </c>
       <c r="E373">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F373" t="s">
         <v>1628</v>
@@ -21498,7 +21498,7 @@
         <v>1570</v>
       </c>
       <c r="E374">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F374" t="s">
         <v>1628</v>
@@ -21533,7 +21533,7 @@
         <v>1570</v>
       </c>
       <c r="E375">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F375" t="s">
         <v>1628</v>
@@ -21568,7 +21568,7 @@
         <v>1570</v>
       </c>
       <c r="E376">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F376" t="s">
         <v>1628</v>
@@ -21603,7 +21603,7 @@
         <v>1570</v>
       </c>
       <c r="E377">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F377" t="s">
         <v>1628</v>
@@ -21638,7 +21638,7 @@
         <v>1571</v>
       </c>
       <c r="E378">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F378" t="s">
         <v>1628</v>
@@ -21673,7 +21673,7 @@
         <v>1571</v>
       </c>
       <c r="E379">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F379" t="s">
         <v>1628</v>
@@ -21708,7 +21708,7 @@
         <v>1571</v>
       </c>
       <c r="E380">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F380" t="s">
         <v>1628</v>
@@ -21743,7 +21743,7 @@
         <v>1571</v>
       </c>
       <c r="E381">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F381" t="s">
         <v>1628</v>
@@ -21778,7 +21778,7 @@
         <v>1572</v>
       </c>
       <c r="E382">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F382" t="s">
         <v>1628</v>
@@ -21813,7 +21813,7 @@
         <v>1572</v>
       </c>
       <c r="E383">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F383" t="s">
         <v>1628</v>
@@ -21848,7 +21848,7 @@
         <v>1572</v>
       </c>
       <c r="E384">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F384" t="s">
         <v>1628</v>
@@ -21883,7 +21883,7 @@
         <v>1572</v>
       </c>
       <c r="E385">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F385" t="s">
         <v>1631</v>
@@ -21921,7 +21921,7 @@
         <v>1572</v>
       </c>
       <c r="E386">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F386" t="s">
         <v>1628</v>
@@ -21956,7 +21956,7 @@
         <v>1572</v>
       </c>
       <c r="E387">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F387" t="s">
         <v>1628</v>
@@ -21991,7 +21991,7 @@
         <v>1572</v>
       </c>
       <c r="E388">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F388" t="s">
         <v>1628</v>
@@ -22026,7 +22026,7 @@
         <v>1572</v>
       </c>
       <c r="E389">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F389" t="s">
         <v>1628</v>
@@ -22061,7 +22061,7 @@
         <v>1572</v>
       </c>
       <c r="E390">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F390" t="s">
         <v>1628</v>
@@ -22096,7 +22096,7 @@
         <v>1572</v>
       </c>
       <c r="E391">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F391" t="s">
         <v>1628</v>
@@ -22131,7 +22131,7 @@
         <v>1572</v>
       </c>
       <c r="E392">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F392" t="s">
         <v>1628</v>
@@ -22166,7 +22166,7 @@
         <v>1573</v>
       </c>
       <c r="E393">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F393" t="s">
         <v>1628</v>
@@ -22201,7 +22201,7 @@
         <v>1573</v>
       </c>
       <c r="E394">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F394" t="s">
         <v>1628</v>
@@ -22236,7 +22236,7 @@
         <v>1573</v>
       </c>
       <c r="E395">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F395" t="s">
         <v>1628</v>
@@ -22271,7 +22271,7 @@
         <v>1573</v>
       </c>
       <c r="E396">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F396" t="s">
         <v>1628</v>
@@ -22306,7 +22306,7 @@
         <v>1573</v>
       </c>
       <c r="E397">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F397" t="s">
         <v>1628</v>
@@ -22341,7 +22341,7 @@
         <v>1573</v>
       </c>
       <c r="E398">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F398" t="s">
         <v>1628</v>
@@ -22376,7 +22376,7 @@
         <v>1573</v>
       </c>
       <c r="E399">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F399" t="s">
         <v>1628</v>
@@ -22411,7 +22411,7 @@
         <v>1573</v>
       </c>
       <c r="E400">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F400" t="s">
         <v>1628</v>
@@ -22446,7 +22446,7 @@
         <v>1573</v>
       </c>
       <c r="E401">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F401" t="s">
         <v>1628</v>
@@ -22481,7 +22481,7 @@
         <v>1574</v>
       </c>
       <c r="E402">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F402" t="s">
         <v>1628</v>
@@ -22516,7 +22516,7 @@
         <v>1575</v>
       </c>
       <c r="E403">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F403" t="s">
         <v>1628</v>
@@ -22551,7 +22551,7 @@
         <v>1575</v>
       </c>
       <c r="E404">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F404" t="s">
         <v>1628</v>
@@ -22586,7 +22586,7 @@
         <v>1575</v>
       </c>
       <c r="E405">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F405" t="s">
         <v>1628</v>
@@ -22624,7 +22624,7 @@
         <v>1576</v>
       </c>
       <c r="E406">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F406" t="s">
         <v>1628</v>
@@ -22659,7 +22659,7 @@
         <v>1576</v>
       </c>
       <c r="E407">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F407" t="s">
         <v>1628</v>
@@ -22694,7 +22694,7 @@
         <v>1576</v>
       </c>
       <c r="E408">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F408" t="s">
         <v>1628</v>
@@ -22729,7 +22729,7 @@
         <v>1577</v>
       </c>
       <c r="E409">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F409" t="s">
         <v>1628</v>
@@ -22764,7 +22764,7 @@
         <v>1577</v>
       </c>
       <c r="E410">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F410" t="s">
         <v>1628</v>
@@ -22799,7 +22799,7 @@
         <v>1577</v>
       </c>
       <c r="E411">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F411" t="s">
         <v>1628</v>
@@ -22834,7 +22834,7 @@
         <v>1577</v>
       </c>
       <c r="E412">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F412" t="s">
         <v>1628</v>
@@ -22869,7 +22869,7 @@
         <v>1578</v>
       </c>
       <c r="E413">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F413" t="s">
         <v>1628</v>
@@ -22907,7 +22907,7 @@
         <v>1578</v>
       </c>
       <c r="E414">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F414" t="s">
         <v>1628</v>
@@ -22942,7 +22942,7 @@
         <v>1578</v>
       </c>
       <c r="E415">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F415" t="s">
         <v>1628</v>
@@ -22977,7 +22977,7 @@
         <v>1579</v>
       </c>
       <c r="E416">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F416" t="s">
         <v>1628</v>
@@ -23012,7 +23012,7 @@
         <v>1579</v>
       </c>
       <c r="E417">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F417" t="s">
         <v>1628</v>
@@ -23047,7 +23047,7 @@
         <v>1579</v>
       </c>
       <c r="E418">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F418" t="s">
         <v>1628</v>
@@ -23082,7 +23082,7 @@
         <v>1579</v>
       </c>
       <c r="E419">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F419" t="s">
         <v>1628</v>
@@ -23117,7 +23117,7 @@
         <v>1579</v>
       </c>
       <c r="E420">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F420" t="s">
         <v>1628</v>
@@ -23152,7 +23152,7 @@
         <v>1580</v>
       </c>
       <c r="E421">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F421" t="s">
         <v>1628</v>
@@ -23187,7 +23187,7 @@
         <v>1580</v>
       </c>
       <c r="E422">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F422" t="s">
         <v>1628</v>
@@ -23222,7 +23222,7 @@
         <v>1580</v>
       </c>
       <c r="E423">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F423" t="s">
         <v>1628</v>
@@ -23257,7 +23257,7 @@
         <v>1580</v>
       </c>
       <c r="E424">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F424" t="s">
         <v>1628</v>
@@ -23292,7 +23292,7 @@
         <v>1580</v>
       </c>
       <c r="E425">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F425" t="s">
         <v>1628</v>
@@ -23327,7 +23327,7 @@
         <v>1580</v>
       </c>
       <c r="E426">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F426" t="s">
         <v>1628</v>
@@ -23362,7 +23362,7 @@
         <v>1580</v>
       </c>
       <c r="E427">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F427" t="s">
         <v>1628</v>
@@ -23397,7 +23397,7 @@
         <v>1580</v>
       </c>
       <c r="E428">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F428" t="s">
         <v>1628</v>
@@ -23432,7 +23432,7 @@
         <v>1580</v>
       </c>
       <c r="E429">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F429" t="s">
         <v>1628</v>
@@ -23467,7 +23467,7 @@
         <v>1580</v>
       </c>
       <c r="E430">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F430" t="s">
         <v>1628</v>
@@ -23502,7 +23502,7 @@
         <v>1581</v>
       </c>
       <c r="E431">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F431" t="s">
         <v>1628</v>
@@ -23537,7 +23537,7 @@
         <v>1581</v>
       </c>
       <c r="E432">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F432" t="s">
         <v>1628</v>
@@ -23572,7 +23572,7 @@
         <v>1581</v>
       </c>
       <c r="E433">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F433" t="s">
         <v>1628</v>
@@ -23607,7 +23607,7 @@
         <v>1581</v>
       </c>
       <c r="E434">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F434" t="s">
         <v>1628</v>
@@ -23642,7 +23642,7 @@
         <v>1581</v>
       </c>
       <c r="E435">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F435" t="s">
         <v>1628</v>
@@ -23677,7 +23677,7 @@
         <v>1581</v>
       </c>
       <c r="E436">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F436" t="s">
         <v>1628</v>
@@ -23712,7 +23712,7 @@
         <v>1581</v>
       </c>
       <c r="E437">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F437" t="s">
         <v>1628</v>
@@ -23747,7 +23747,7 @@
         <v>1581</v>
       </c>
       <c r="E438">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F438" t="s">
         <v>1628</v>
@@ -23785,7 +23785,7 @@
         <v>1581</v>
       </c>
       <c r="E439">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F439" t="s">
         <v>1628</v>
@@ -23820,7 +23820,7 @@
         <v>1581</v>
       </c>
       <c r="E440">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F440" t="s">
         <v>1628</v>
@@ -23855,7 +23855,7 @@
         <v>1582</v>
       </c>
       <c r="E441">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F441" t="s">
         <v>1628</v>
@@ -23890,7 +23890,7 @@
         <v>1582</v>
       </c>
       <c r="E442">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F442" t="s">
         <v>1628</v>
@@ -23925,7 +23925,7 @@
         <v>1583</v>
       </c>
       <c r="E443">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F443" t="s">
         <v>1628</v>
@@ -23963,7 +23963,7 @@
         <v>1583</v>
       </c>
       <c r="E444">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F444" t="s">
         <v>1628</v>
@@ -23998,7 +23998,7 @@
         <v>1583</v>
       </c>
       <c r="E445">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F445" t="s">
         <v>1628</v>
@@ -24033,7 +24033,7 @@
         <v>1584</v>
       </c>
       <c r="E446">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F446" t="s">
         <v>1628</v>
@@ -24068,7 +24068,7 @@
         <v>1584</v>
       </c>
       <c r="E447">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F447" t="s">
         <v>1628</v>
@@ -24103,7 +24103,7 @@
         <v>1584</v>
       </c>
       <c r="E448">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F448" t="s">
         <v>1628</v>
@@ -24138,7 +24138,7 @@
         <v>1584</v>
       </c>
       <c r="E449">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F449" t="s">
         <v>1628</v>
@@ -24173,7 +24173,7 @@
         <v>1584</v>
       </c>
       <c r="E450">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F450" t="s">
         <v>1628</v>
@@ -24208,7 +24208,7 @@
         <v>1584</v>
       </c>
       <c r="E451">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F451" t="s">
         <v>1628</v>
@@ -24246,7 +24246,7 @@
         <v>1584</v>
       </c>
       <c r="E452">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F452" t="s">
         <v>1628</v>
@@ -24281,7 +24281,7 @@
         <v>1585</v>
       </c>
       <c r="E453">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F453" t="s">
         <v>1628</v>
@@ -24319,7 +24319,7 @@
         <v>1585</v>
       </c>
       <c r="E454">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F454" t="s">
         <v>1628</v>
@@ -24354,7 +24354,7 @@
         <v>1585</v>
       </c>
       <c r="E455">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F455" t="s">
         <v>1628</v>
@@ -24389,7 +24389,7 @@
         <v>1585</v>
       </c>
       <c r="E456">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F456" t="s">
         <v>1628</v>
@@ -24424,7 +24424,7 @@
         <v>1585</v>
       </c>
       <c r="E457">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F457" t="s">
         <v>1628</v>
@@ -24459,7 +24459,7 @@
         <v>1585</v>
       </c>
       <c r="E458">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F458" t="s">
         <v>1628</v>
@@ -24494,7 +24494,7 @@
         <v>1585</v>
       </c>
       <c r="E459">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F459" t="s">
         <v>1628</v>
@@ -24532,7 +24532,7 @@
         <v>1585</v>
       </c>
       <c r="E460">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F460" t="s">
         <v>1628</v>
@@ -24567,7 +24567,7 @@
         <v>1586</v>
       </c>
       <c r="E461">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F461" t="s">
         <v>1628</v>
@@ -24602,7 +24602,7 @@
         <v>1587</v>
       </c>
       <c r="E462">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F462" t="s">
         <v>1631</v>
@@ -24637,7 +24637,7 @@
         <v>1587</v>
       </c>
       <c r="E463">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F463" t="s">
         <v>1628</v>
@@ -24672,7 +24672,7 @@
         <v>1587</v>
       </c>
       <c r="E464">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F464" t="s">
         <v>1628</v>
@@ -24707,7 +24707,7 @@
         <v>1587</v>
       </c>
       <c r="E465">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F465" t="s">
         <v>1628</v>
@@ -24742,7 +24742,7 @@
         <v>1587</v>
       </c>
       <c r="E466">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F466" t="s">
         <v>1628</v>
@@ -24777,7 +24777,7 @@
         <v>1588</v>
       </c>
       <c r="E467">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F467" t="s">
         <v>1628</v>
@@ -24812,7 +24812,7 @@
         <v>1588</v>
       </c>
       <c r="E468">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F468" t="s">
         <v>1628</v>
@@ -24850,7 +24850,7 @@
         <v>1588</v>
       </c>
       <c r="E469">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F469" t="s">
         <v>1628</v>
@@ -24885,7 +24885,7 @@
         <v>1588</v>
       </c>
       <c r="E470">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F470" t="s">
         <v>1628</v>
@@ -24920,7 +24920,7 @@
         <v>1588</v>
       </c>
       <c r="E471">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F471" t="s">
         <v>1628</v>
@@ -24955,7 +24955,7 @@
         <v>1588</v>
       </c>
       <c r="E472">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F472" t="s">
         <v>1628</v>
@@ -24990,7 +24990,7 @@
         <v>1588</v>
       </c>
       <c r="E473">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F473" t="s">
         <v>1628</v>
@@ -25025,7 +25025,7 @@
         <v>1588</v>
       </c>
       <c r="E474">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F474" t="s">
         <v>1628</v>
@@ -25060,7 +25060,7 @@
         <v>1588</v>
       </c>
       <c r="E475">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F475" t="s">
         <v>1628</v>
@@ -25095,7 +25095,7 @@
         <v>1588</v>
       </c>
       <c r="E476">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F476" t="s">
         <v>1628</v>
@@ -25130,7 +25130,7 @@
         <v>1588</v>
       </c>
       <c r="E477">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F477" t="s">
         <v>1628</v>
@@ -25165,7 +25165,7 @@
         <v>1589</v>
       </c>
       <c r="E478">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F478" t="s">
         <v>1628</v>
@@ -25200,7 +25200,7 @@
         <v>1590</v>
       </c>
       <c r="E479">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F479" t="s">
         <v>1628</v>
@@ -25235,7 +25235,7 @@
         <v>1590</v>
       </c>
       <c r="E480">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F480" t="s">
         <v>1628</v>
@@ -25270,7 +25270,7 @@
         <v>1590</v>
       </c>
       <c r="E481">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F481" t="s">
         <v>1628</v>
@@ -25305,7 +25305,7 @@
         <v>1590</v>
       </c>
       <c r="E482">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F482" t="s">
         <v>1628</v>
@@ -25340,7 +25340,7 @@
         <v>1590</v>
       </c>
       <c r="E483">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F483" t="s">
         <v>1631</v>
@@ -25375,7 +25375,7 @@
         <v>1591</v>
       </c>
       <c r="E484">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F484" t="s">
         <v>1628</v>
@@ -25410,7 +25410,7 @@
         <v>1591</v>
       </c>
       <c r="E485">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F485" t="s">
         <v>1631</v>
@@ -25448,7 +25448,7 @@
         <v>1591</v>
       </c>
       <c r="E486">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F486" t="s">
         <v>1628</v>
@@ -25483,7 +25483,7 @@
         <v>1591</v>
       </c>
       <c r="E487">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F487" t="s">
         <v>1628</v>
@@ -25518,7 +25518,7 @@
         <v>1592</v>
       </c>
       <c r="E488">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F488" t="s">
         <v>1628</v>
@@ -25553,7 +25553,7 @@
         <v>1592</v>
       </c>
       <c r="E489">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F489" t="s">
         <v>1628</v>
@@ -25588,7 +25588,7 @@
         <v>1592</v>
       </c>
       <c r="E490">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F490" t="s">
         <v>1628</v>
@@ -25623,7 +25623,7 @@
         <v>1592</v>
       </c>
       <c r="E491">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F491" t="s">
         <v>1631</v>
@@ -25658,7 +25658,7 @@
         <v>1592</v>
       </c>
       <c r="E492">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F492" t="s">
         <v>1628</v>
@@ -25693,7 +25693,7 @@
         <v>1593</v>
       </c>
       <c r="E493">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F493" t="s">
         <v>1628</v>
@@ -25731,7 +25731,7 @@
         <v>1593</v>
       </c>
       <c r="E494">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F494" t="s">
         <v>1628</v>
@@ -25766,7 +25766,7 @@
         <v>1593</v>
       </c>
       <c r="E495">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F495" t="s">
         <v>1628</v>
@@ -25801,7 +25801,7 @@
         <v>1594</v>
       </c>
       <c r="E496">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F496" t="s">
         <v>1628</v>
@@ -25836,7 +25836,7 @@
         <v>1594</v>
       </c>
       <c r="E497">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F497" t="s">
         <v>1628</v>
@@ -25871,7 +25871,7 @@
         <v>1594</v>
       </c>
       <c r="E498">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F498" t="s">
         <v>1628</v>
@@ -25906,7 +25906,7 @@
         <v>1594</v>
       </c>
       <c r="E499">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F499" t="s">
         <v>1631</v>
@@ -25941,7 +25941,7 @@
         <v>1594</v>
       </c>
       <c r="E500">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F500" t="s">
         <v>1631</v>
@@ -25976,7 +25976,7 @@
         <v>1594</v>
       </c>
       <c r="E501">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F501" t="s">
         <v>1631</v>
@@ -26011,7 +26011,7 @@
         <v>1594</v>
       </c>
       <c r="E502">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F502" t="s">
         <v>1628</v>
@@ -26046,7 +26046,7 @@
         <v>1594</v>
       </c>
       <c r="E503">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F503" t="s">
         <v>1628</v>
@@ -26081,7 +26081,7 @@
         <v>1594</v>
       </c>
       <c r="E504">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F504" t="s">
         <v>1628</v>
@@ -26116,7 +26116,7 @@
         <v>1594</v>
       </c>
       <c r="E505">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F505" t="s">
         <v>1628</v>
@@ -26151,7 +26151,7 @@
         <v>1594</v>
       </c>
       <c r="E506">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F506" t="s">
         <v>1628</v>
@@ -26186,7 +26186,7 @@
         <v>1595</v>
       </c>
       <c r="E507">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F507" t="s">
         <v>1628</v>
@@ -26221,7 +26221,7 @@
         <v>1595</v>
       </c>
       <c r="E508">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F508" t="s">
         <v>1628</v>
@@ -26256,7 +26256,7 @@
         <v>1595</v>
       </c>
       <c r="E509">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F509" t="s">
         <v>1628</v>
@@ -26291,7 +26291,7 @@
         <v>1595</v>
       </c>
       <c r="E510">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F510" t="s">
         <v>1628</v>
@@ -26326,7 +26326,7 @@
         <v>1595</v>
       </c>
       <c r="E511">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F511" t="s">
         <v>1628</v>
@@ -26361,7 +26361,7 @@
         <v>1595</v>
       </c>
       <c r="E512">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F512" t="s">
         <v>1628</v>
@@ -26396,7 +26396,7 @@
         <v>1595</v>
       </c>
       <c r="E513">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F513" t="s">
         <v>1628</v>
@@ -26431,7 +26431,7 @@
         <v>1595</v>
       </c>
       <c r="E514">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F514" t="s">
         <v>1631</v>
@@ -26466,7 +26466,7 @@
         <v>1595</v>
       </c>
       <c r="E515">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F515" t="s">
         <v>1631</v>
@@ -26501,7 +26501,7 @@
         <v>1595</v>
       </c>
       <c r="E516">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F516" t="s">
         <v>1628</v>
@@ -26536,7 +26536,7 @@
         <v>1595</v>
       </c>
       <c r="E517">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F517" t="s">
         <v>1631</v>
@@ -26571,7 +26571,7 @@
         <v>1595</v>
       </c>
       <c r="E518">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F518" t="s">
         <v>1628</v>
@@ -26606,7 +26606,7 @@
         <v>1595</v>
       </c>
       <c r="E519">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F519" t="s">
         <v>1628</v>
@@ -26641,7 +26641,7 @@
         <v>1595</v>
       </c>
       <c r="E520">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F520" t="s">
         <v>1628</v>
@@ -26676,7 +26676,7 @@
         <v>1596</v>
       </c>
       <c r="E521">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F521" t="s">
         <v>1628</v>
@@ -26711,7 +26711,7 @@
         <v>1596</v>
       </c>
       <c r="E522">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F522" t="s">
         <v>1628</v>
@@ -26746,7 +26746,7 @@
         <v>1596</v>
       </c>
       <c r="E523">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F523" t="s">
         <v>1628</v>
@@ -26784,7 +26784,7 @@
         <v>1596</v>
       </c>
       <c r="E524">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F524" t="s">
         <v>1628</v>
@@ -26822,7 +26822,7 @@
         <v>1596</v>
       </c>
       <c r="E525">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F525" t="s">
         <v>1628</v>
@@ -26857,7 +26857,7 @@
         <v>1596</v>
       </c>
       <c r="E526">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F526" t="s">
         <v>1628</v>
@@ -26892,7 +26892,7 @@
         <v>1597</v>
       </c>
       <c r="E527">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F527" t="s">
         <v>1628</v>
@@ -26927,7 +26927,7 @@
         <v>1597</v>
       </c>
       <c r="E528">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F528" t="s">
         <v>1628</v>
@@ -26962,7 +26962,7 @@
         <v>1597</v>
       </c>
       <c r="E529">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F529" t="s">
         <v>1628</v>
@@ -26997,7 +26997,7 @@
         <v>1597</v>
       </c>
       <c r="E530">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F530" t="s">
         <v>1628</v>
@@ -27032,7 +27032,7 @@
         <v>1597</v>
       </c>
       <c r="E531">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F531" t="s">
         <v>1628</v>
@@ -27067,7 +27067,7 @@
         <v>1598</v>
       </c>
       <c r="E532">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F532" t="s">
         <v>1628</v>
@@ -27102,7 +27102,7 @@
         <v>1599</v>
       </c>
       <c r="E533">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F533" t="s">
         <v>1628</v>
@@ -27137,7 +27137,7 @@
         <v>1600</v>
       </c>
       <c r="E534">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F534" t="s">
         <v>1628</v>
@@ -27172,7 +27172,7 @@
         <v>1600</v>
       </c>
       <c r="E535">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F535" t="s">
         <v>1628</v>
@@ -27207,7 +27207,7 @@
         <v>1601</v>
       </c>
       <c r="E536">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F536" t="s">
         <v>1628</v>
@@ -27242,7 +27242,7 @@
         <v>1601</v>
       </c>
       <c r="E537">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F537" t="s">
         <v>1628</v>
@@ -27277,7 +27277,7 @@
         <v>1602</v>
       </c>
       <c r="E538">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F538" t="s">
         <v>1631</v>
@@ -27315,7 +27315,7 @@
         <v>1602</v>
       </c>
       <c r="E539">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F539" t="s">
         <v>1628</v>
@@ -27350,7 +27350,7 @@
         <v>1602</v>
       </c>
       <c r="E540">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F540" t="s">
         <v>1628</v>
@@ -27385,7 +27385,7 @@
         <v>1603</v>
       </c>
       <c r="E541">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F541" t="s">
         <v>1631</v>
@@ -27423,7 +27423,7 @@
         <v>1603</v>
       </c>
       <c r="E542">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F542" t="s">
         <v>1628</v>
@@ -27458,7 +27458,7 @@
         <v>1603</v>
       </c>
       <c r="E543">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F543" t="s">
         <v>1631</v>
@@ -27496,7 +27496,7 @@
         <v>1603</v>
       </c>
       <c r="E544">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F544" t="s">
         <v>1628</v>
@@ -27531,7 +27531,7 @@
         <v>1603</v>
       </c>
       <c r="E545">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F545" t="s">
         <v>1628</v>
@@ -27566,7 +27566,7 @@
         <v>1603</v>
       </c>
       <c r="E546">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F546" t="s">
         <v>1629</v>
@@ -27601,7 +27601,7 @@
         <v>1604</v>
       </c>
       <c r="E547">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F547" t="s">
         <v>1628</v>
@@ -27639,7 +27639,7 @@
         <v>1604</v>
       </c>
       <c r="E548">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F548" t="s">
         <v>1628</v>
@@ -27677,7 +27677,7 @@
         <v>1604</v>
       </c>
       <c r="E549">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F549" t="s">
         <v>1628</v>
@@ -27715,7 +27715,7 @@
         <v>1604</v>
       </c>
       <c r="E550">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F550" t="s">
         <v>1628</v>
@@ -27753,7 +27753,7 @@
         <v>1604</v>
       </c>
       <c r="E551">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F551" t="s">
         <v>1628</v>
@@ -27788,7 +27788,7 @@
         <v>1604</v>
       </c>
       <c r="E552">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F552" t="s">
         <v>1628</v>
@@ -27823,7 +27823,7 @@
         <v>1604</v>
       </c>
       <c r="E553">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F553" t="s">
         <v>1628</v>
@@ -27858,7 +27858,7 @@
         <v>1605</v>
       </c>
       <c r="E554">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F554" t="s">
         <v>1628</v>
@@ -27893,7 +27893,7 @@
         <v>1605</v>
       </c>
       <c r="E555">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F555" t="s">
         <v>1628</v>
@@ -27928,7 +27928,7 @@
         <v>1605</v>
       </c>
       <c r="E556">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F556" t="s">
         <v>1628</v>
@@ -27963,7 +27963,7 @@
         <v>1605</v>
       </c>
       <c r="E557">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F557" t="s">
         <v>1628</v>
@@ -27998,7 +27998,7 @@
         <v>1605</v>
       </c>
       <c r="E558">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F558" t="s">
         <v>1628</v>
@@ -28033,7 +28033,7 @@
         <v>1605</v>
       </c>
       <c r="E559">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F559" t="s">
         <v>1628</v>
@@ -28068,7 +28068,7 @@
         <v>1606</v>
       </c>
       <c r="E560">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F560" t="s">
         <v>1628</v>
@@ -28103,7 +28103,7 @@
         <v>1606</v>
       </c>
       <c r="E561">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F561" t="s">
         <v>1628</v>
@@ -28138,7 +28138,7 @@
         <v>1606</v>
       </c>
       <c r="E562">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F562" t="s">
         <v>1628</v>
@@ -28173,7 +28173,7 @@
         <v>1606</v>
       </c>
       <c r="E563">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F563" t="s">
         <v>1628</v>
@@ -28208,7 +28208,7 @@
         <v>1606</v>
       </c>
       <c r="E564">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F564" t="s">
         <v>1628</v>
@@ -28243,7 +28243,7 @@
         <v>1606</v>
       </c>
       <c r="E565">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F565" t="s">
         <v>1631</v>
@@ -28281,7 +28281,7 @@
         <v>1607</v>
       </c>
       <c r="E566">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F566" t="s">
         <v>1631</v>
@@ -28319,7 +28319,7 @@
         <v>1607</v>
       </c>
       <c r="E567">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F567" t="s">
         <v>1628</v>
@@ -28354,7 +28354,7 @@
         <v>1607</v>
       </c>
       <c r="E568">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F568" t="s">
         <v>1628</v>
@@ -28389,7 +28389,7 @@
         <v>1607</v>
       </c>
       <c r="E569">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F569" t="s">
         <v>1628</v>
@@ -28424,7 +28424,7 @@
         <v>1607</v>
       </c>
       <c r="E570">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F570" t="s">
         <v>1631</v>
@@ -28459,7 +28459,7 @@
         <v>1607</v>
       </c>
       <c r="E571">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F571" t="s">
         <v>1628</v>
@@ -28494,7 +28494,7 @@
         <v>1607</v>
       </c>
       <c r="E572">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F572" t="s">
         <v>1628</v>
@@ -28532,7 +28532,7 @@
         <v>1608</v>
       </c>
       <c r="E573">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F573" t="s">
         <v>1628</v>
@@ -28567,7 +28567,7 @@
         <v>1608</v>
       </c>
       <c r="E574">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F574" t="s">
         <v>1628</v>
@@ -28602,7 +28602,7 @@
         <v>1608</v>
       </c>
       <c r="E575">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F575" t="s">
         <v>1628</v>
@@ -28637,7 +28637,7 @@
         <v>1608</v>
       </c>
       <c r="E576">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F576" t="s">
         <v>1628</v>
@@ -28672,7 +28672,7 @@
         <v>1609</v>
       </c>
       <c r="E577">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F577" t="s">
         <v>1628</v>
@@ -28707,7 +28707,7 @@
         <v>1609</v>
       </c>
       <c r="E578">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F578" t="s">
         <v>1628</v>
@@ -28742,7 +28742,7 @@
         <v>1609</v>
       </c>
       <c r="E579">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F579" t="s">
         <v>1631</v>
@@ -28780,7 +28780,7 @@
         <v>1609</v>
       </c>
       <c r="E580">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F580" t="s">
         <v>1628</v>
@@ -28815,7 +28815,7 @@
         <v>1609</v>
       </c>
       <c r="E581">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F581" t="s">
         <v>1628</v>
@@ -28850,7 +28850,7 @@
         <v>1609</v>
       </c>
       <c r="E582">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F582" t="s">
         <v>1628</v>
@@ -28885,7 +28885,7 @@
         <v>1610</v>
       </c>
       <c r="E583">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F583" t="s">
         <v>1628</v>
@@ -28920,7 +28920,7 @@
         <v>1610</v>
       </c>
       <c r="E584">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F584" t="s">
         <v>1628</v>
@@ -28955,7 +28955,7 @@
         <v>1610</v>
       </c>
       <c r="E585">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F585" t="s">
         <v>1631</v>
@@ -28993,7 +28993,7 @@
         <v>1610</v>
       </c>
       <c r="E586">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F586" t="s">
         <v>1628</v>
@@ -29028,7 +29028,7 @@
         <v>1610</v>
       </c>
       <c r="E587">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F587" t="s">
         <v>1628</v>
@@ -29063,7 +29063,7 @@
         <v>1610</v>
       </c>
       <c r="E588">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F588" t="s">
         <v>1628</v>
@@ -29098,7 +29098,7 @@
         <v>1610</v>
       </c>
       <c r="E589">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F589" t="s">
         <v>1628</v>
@@ -29133,7 +29133,7 @@
         <v>1611</v>
       </c>
       <c r="E590">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F590" t="s">
         <v>1628</v>
@@ -29168,7 +29168,7 @@
         <v>1611</v>
       </c>
       <c r="E591">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F591" t="s">
         <v>1628</v>
@@ -29203,7 +29203,7 @@
         <v>1611</v>
       </c>
       <c r="E592">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F592" t="s">
         <v>1628</v>
@@ -29238,7 +29238,7 @@
         <v>1612</v>
       </c>
       <c r="E593">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F593" t="s">
         <v>1628</v>
@@ -29273,7 +29273,7 @@
         <v>1612</v>
       </c>
       <c r="E594">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F594" t="s">
         <v>1628</v>
@@ -29308,7 +29308,7 @@
         <v>1612</v>
       </c>
       <c r="E595">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F595" t="s">
         <v>1628</v>
@@ -29343,7 +29343,7 @@
         <v>1612</v>
       </c>
       <c r="E596">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F596" t="s">
         <v>1628</v>
@@ -29378,7 +29378,7 @@
         <v>1613</v>
       </c>
       <c r="E597">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F597" t="s">
         <v>1631</v>
@@ -29416,7 +29416,7 @@
         <v>1613</v>
       </c>
       <c r="E598">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F598" t="s">
         <v>1631</v>
@@ -29454,7 +29454,7 @@
         <v>1613</v>
       </c>
       <c r="E599">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F599" t="s">
         <v>1631</v>
@@ -29492,7 +29492,7 @@
         <v>1613</v>
       </c>
       <c r="E600">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F600" t="s">
         <v>1628</v>
@@ -29527,7 +29527,7 @@
         <v>1613</v>
       </c>
       <c r="E601">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F601" t="s">
         <v>1628</v>
@@ -29562,7 +29562,7 @@
         <v>1613</v>
       </c>
       <c r="E602">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F602" t="s">
         <v>1628</v>
@@ -29597,7 +29597,7 @@
         <v>1613</v>
       </c>
       <c r="E603">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F603" t="s">
         <v>1631</v>
@@ -29635,7 +29635,7 @@
         <v>1613</v>
       </c>
       <c r="E604">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F604" t="s">
         <v>1628</v>
@@ -29670,7 +29670,7 @@
         <v>1613</v>
       </c>
       <c r="E605">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F605" t="s">
         <v>1628</v>
@@ -29705,7 +29705,7 @@
         <v>1614</v>
       </c>
       <c r="E606">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F606" t="s">
         <v>1631</v>
@@ -29743,7 +29743,7 @@
         <v>1614</v>
       </c>
       <c r="E607">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F607" t="s">
         <v>1631</v>
@@ -29781,7 +29781,7 @@
         <v>1614</v>
       </c>
       <c r="E608">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F608" t="s">
         <v>1628</v>
@@ -29816,7 +29816,7 @@
         <v>1614</v>
       </c>
       <c r="E609">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F609" t="s">
         <v>1628</v>
@@ -29851,7 +29851,7 @@
         <v>1614</v>
       </c>
       <c r="E610">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F610" t="s">
         <v>1631</v>
@@ -29889,7 +29889,7 @@
         <v>1615</v>
       </c>
       <c r="E611">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F611" t="s">
         <v>1628</v>
@@ -29924,7 +29924,7 @@
         <v>1616</v>
       </c>
       <c r="E612">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F612" t="s">
         <v>1628</v>
@@ -29962,7 +29962,7 @@
         <v>1616</v>
       </c>
       <c r="E613">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F613" t="s">
         <v>1628</v>
@@ -29997,7 +29997,7 @@
         <v>1616</v>
       </c>
       <c r="E614">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F614" t="s">
         <v>1628</v>
@@ -30032,7 +30032,7 @@
         <v>1616</v>
       </c>
       <c r="E615">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F615" t="s">
         <v>1628</v>
@@ -30067,7 +30067,7 @@
         <v>1617</v>
       </c>
       <c r="E616">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F616" t="s">
         <v>1631</v>
@@ -30105,7 +30105,7 @@
         <v>1617</v>
       </c>
       <c r="E617">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F617" t="s">
         <v>1631</v>
@@ -30143,7 +30143,7 @@
         <v>1617</v>
       </c>
       <c r="E618">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F618" t="s">
         <v>1628</v>
@@ -30178,7 +30178,7 @@
         <v>1617</v>
       </c>
       <c r="E619">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F619" t="s">
         <v>1628</v>
@@ -30213,7 +30213,7 @@
         <v>1617</v>
       </c>
       <c r="E620">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F620" t="s">
         <v>1628</v>
@@ -30248,7 +30248,7 @@
         <v>1617</v>
       </c>
       <c r="E621">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F621" t="s">
         <v>1628</v>
@@ -30283,7 +30283,7 @@
         <v>1618</v>
       </c>
       <c r="E622">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F622" t="s">
         <v>1628</v>
@@ -30318,7 +30318,7 @@
         <v>1618</v>
       </c>
       <c r="E623">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F623" t="s">
         <v>1628</v>
@@ -30353,7 +30353,7 @@
         <v>1618</v>
       </c>
       <c r="E624">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F624" t="s">
         <v>1630</v>
@@ -30388,7 +30388,7 @@
         <v>1618</v>
       </c>
       <c r="E625">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F625" t="s">
         <v>1631</v>
@@ -30426,7 +30426,7 @@
         <v>1618</v>
       </c>
       <c r="E626">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F626" t="s">
         <v>1628</v>
@@ -30461,7 +30461,7 @@
         <v>1618</v>
       </c>
       <c r="E627">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F627" t="s">
         <v>1628</v>
@@ -30496,7 +30496,7 @@
         <v>1618</v>
       </c>
       <c r="E628">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F628" t="s">
         <v>1628</v>
@@ -30534,7 +30534,7 @@
         <v>1618</v>
       </c>
       <c r="E629">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F629" t="s">
         <v>1628</v>
@@ -30569,7 +30569,7 @@
         <v>1619</v>
       </c>
       <c r="E630">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F630" t="s">
         <v>1628</v>
@@ -30604,7 +30604,7 @@
         <v>1619</v>
       </c>
       <c r="E631">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F631" t="s">
         <v>1628</v>
@@ -30639,7 +30639,7 @@
         <v>1619</v>
       </c>
       <c r="E632">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F632" t="s">
         <v>1628</v>
@@ -30674,7 +30674,7 @@
         <v>1619</v>
       </c>
       <c r="E633">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F633" t="s">
         <v>1628</v>
@@ -30709,7 +30709,7 @@
         <v>1619</v>
       </c>
       <c r="E634">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F634" t="s">
         <v>1628</v>
@@ -30744,7 +30744,7 @@
         <v>1619</v>
       </c>
       <c r="E635">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F635" t="s">
         <v>1631</v>
@@ -30782,7 +30782,7 @@
         <v>1619</v>
       </c>
       <c r="E636">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F636" t="s">
         <v>1631</v>
@@ -30820,7 +30820,7 @@
         <v>1619</v>
       </c>
       <c r="E637">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F637" t="s">
         <v>1628</v>
@@ -30855,7 +30855,7 @@
         <v>1620</v>
       </c>
       <c r="E638">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F638" t="s">
         <v>1628</v>
@@ -30890,7 +30890,7 @@
         <v>1620</v>
       </c>
       <c r="E639">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F639" t="s">
         <v>1628</v>
@@ -30925,7 +30925,7 @@
         <v>1620</v>
       </c>
       <c r="E640">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F640" t="s">
         <v>1631</v>
@@ -30963,7 +30963,7 @@
         <v>1620</v>
       </c>
       <c r="E641">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F641" t="s">
         <v>1628</v>
@@ -30998,7 +30998,7 @@
         <v>1620</v>
       </c>
       <c r="E642">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F642" t="s">
         <v>1628</v>
@@ -31033,7 +31033,7 @@
         <v>1620</v>
       </c>
       <c r="E643">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F643" t="s">
         <v>1628</v>
@@ -31068,7 +31068,7 @@
         <v>1621</v>
       </c>
       <c r="E644">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F644" t="s">
         <v>1628</v>
@@ -31103,7 +31103,7 @@
         <v>1621</v>
       </c>
       <c r="E645">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F645" t="s">
         <v>1631</v>
@@ -31138,7 +31138,7 @@
         <v>1621</v>
       </c>
       <c r="E646">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F646" t="s">
         <v>1628</v>
@@ -31173,7 +31173,7 @@
         <v>1621</v>
       </c>
       <c r="E647">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F647" t="s">
         <v>1628</v>
@@ -31208,7 +31208,7 @@
         <v>1621</v>
       </c>
       <c r="E648">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F648" t="s">
         <v>1628</v>
@@ -31243,7 +31243,7 @@
         <v>1621</v>
       </c>
       <c r="E649">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F649" t="s">
         <v>1628</v>
@@ -31278,7 +31278,7 @@
         <v>1621</v>
       </c>
       <c r="E650">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F650" t="s">
         <v>1631</v>
@@ -31313,7 +31313,7 @@
         <v>1622</v>
       </c>
       <c r="E651">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F651" t="s">
         <v>1628</v>
@@ -31348,7 +31348,7 @@
         <v>1622</v>
       </c>
       <c r="E652">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F652" t="s">
         <v>1628</v>
@@ -31386,7 +31386,7 @@
         <v>1622</v>
       </c>
       <c r="E653">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F653" t="s">
         <v>1628</v>
@@ -31424,7 +31424,7 @@
         <v>1622</v>
       </c>
       <c r="E654">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F654" t="s">
         <v>1628</v>
@@ -31459,7 +31459,7 @@
         <v>1622</v>
       </c>
       <c r="E655">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F655" t="s">
         <v>1628</v>
@@ -31494,7 +31494,7 @@
         <v>1622</v>
       </c>
       <c r="E656">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F656" t="s">
         <v>1627</v>
@@ -31529,7 +31529,7 @@
         <v>1622</v>
       </c>
       <c r="E657">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F657" t="s">
         <v>1628</v>
@@ -31564,7 +31564,7 @@
         <v>1623</v>
       </c>
       <c r="E658">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F658" t="s">
         <v>1628</v>
@@ -31599,7 +31599,7 @@
         <v>1623</v>
       </c>
       <c r="E659">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F659" t="s">
         <v>1628</v>
@@ -31634,7 +31634,7 @@
         <v>1623</v>
       </c>
       <c r="E660">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F660" t="s">
         <v>1628</v>
@@ -31669,7 +31669,7 @@
         <v>1623</v>
       </c>
       <c r="E661">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F661" t="s">
         <v>1631</v>
@@ -31707,7 +31707,7 @@
         <v>1623</v>
       </c>
       <c r="E662">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F662" t="s">
         <v>1628</v>
@@ -31742,7 +31742,7 @@
         <v>1623</v>
       </c>
       <c r="E663">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F663" t="s">
         <v>1631</v>
@@ -31780,7 +31780,7 @@
         <v>1623</v>
       </c>
       <c r="E664">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F664" t="s">
         <v>1628</v>
@@ -31818,7 +31818,7 @@
         <v>1623</v>
       </c>
       <c r="E665">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F665" t="s">
         <v>1631</v>
@@ -31856,7 +31856,7 @@
         <v>1623</v>
       </c>
       <c r="E666">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F666" t="s">
         <v>1628</v>
@@ -31891,7 +31891,7 @@
         <v>1623</v>
       </c>
       <c r="E667">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F667" t="s">
         <v>1628</v>
@@ -31926,7 +31926,7 @@
         <v>1624</v>
       </c>
       <c r="E668">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F668" t="s">
         <v>1628</v>
@@ -31961,7 +31961,7 @@
         <v>1624</v>
       </c>
       <c r="E669">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F669" t="s">
         <v>1628</v>
@@ -31999,7 +31999,7 @@
         <v>1624</v>
       </c>
       <c r="E670">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F670" t="s">
         <v>1628</v>
@@ -32034,7 +32034,7 @@
         <v>1624</v>
       </c>
       <c r="E671">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F671" t="s">
         <v>1628</v>
@@ -32069,7 +32069,7 @@
         <v>1624</v>
       </c>
       <c r="E672">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F672" t="s">
         <v>1631</v>
@@ -32107,7 +32107,7 @@
         <v>1625</v>
       </c>
       <c r="E673">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F673" t="s">
         <v>1628</v>
@@ -32142,7 +32142,7 @@
         <v>1625</v>
       </c>
       <c r="E674">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F674" t="s">
         <v>1628</v>
@@ -32177,7 +32177,7 @@
         <v>1625</v>
       </c>
       <c r="E675">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F675" t="s">
         <v>1632</v>
@@ -32212,7 +32212,7 @@
         <v>1626</v>
       </c>
       <c r="E676">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F676" t="s">
         <v>1628</v>
@@ -32247,7 +32247,7 @@
         <v>1626</v>
       </c>
       <c r="E677">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F677" t="s">
         <v>1628</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -8403,7 +8403,7 @@
         <v>1399</v>
       </c>
       <c r="E2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>1627</v>
@@ -8438,7 +8438,7 @@
         <v>1400</v>
       </c>
       <c r="E3">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F3" t="s">
         <v>1627</v>
@@ -8473,7 +8473,7 @@
         <v>1401</v>
       </c>
       <c r="E4">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F4" t="s">
         <v>1627</v>
@@ -8508,7 +8508,7 @@
         <v>1402</v>
       </c>
       <c r="E5">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F5" t="s">
         <v>1627</v>
@@ -8543,7 +8543,7 @@
         <v>1403</v>
       </c>
       <c r="E6">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
         <v>1627</v>
@@ -8578,7 +8578,7 @@
         <v>1404</v>
       </c>
       <c r="E7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F7" t="s">
         <v>1627</v>
@@ -8613,7 +8613,7 @@
         <v>1405</v>
       </c>
       <c r="E8">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F8" t="s">
         <v>1627</v>
@@ -8651,7 +8651,7 @@
         <v>1406</v>
       </c>
       <c r="E9">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
         <v>1627</v>
@@ -8686,7 +8686,7 @@
         <v>1407</v>
       </c>
       <c r="E10">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F10" t="s">
         <v>1627</v>
@@ -8721,7 +8721,7 @@
         <v>1408</v>
       </c>
       <c r="E11">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F11" t="s">
         <v>1627</v>
@@ -8756,7 +8756,7 @@
         <v>1409</v>
       </c>
       <c r="E12">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
         <v>1627</v>
@@ -8791,7 +8791,7 @@
         <v>1410</v>
       </c>
       <c r="E13">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F13" t="s">
         <v>1627</v>
@@ -8826,7 +8826,7 @@
         <v>1411</v>
       </c>
       <c r="E14">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
         <v>1627</v>
@@ -8861,7 +8861,7 @@
         <v>1412</v>
       </c>
       <c r="E15">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F15" t="s">
         <v>1627</v>
@@ -8896,7 +8896,7 @@
         <v>1412</v>
       </c>
       <c r="E16">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F16" t="s">
         <v>1627</v>
@@ -8931,7 +8931,7 @@
         <v>1413</v>
       </c>
       <c r="E17">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F17" t="s">
         <v>1627</v>
@@ -8966,7 +8966,7 @@
         <v>1414</v>
       </c>
       <c r="E18">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F18" t="s">
         <v>1627</v>
@@ -9001,7 +9001,7 @@
         <v>1415</v>
       </c>
       <c r="E19">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>1627</v>
@@ -9036,7 +9036,7 @@
         <v>1416</v>
       </c>
       <c r="E20">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F20" t="s">
         <v>1627</v>
@@ -9071,7 +9071,7 @@
         <v>1417</v>
       </c>
       <c r="E21">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
         <v>1627</v>
@@ -9106,7 +9106,7 @@
         <v>1418</v>
       </c>
       <c r="E22">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F22" t="s">
         <v>1627</v>
@@ -9141,7 +9141,7 @@
         <v>1418</v>
       </c>
       <c r="E23">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F23" t="s">
         <v>1627</v>
@@ -9176,7 +9176,7 @@
         <v>1419</v>
       </c>
       <c r="E24">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F24" t="s">
         <v>1627</v>
@@ -9211,7 +9211,7 @@
         <v>1420</v>
       </c>
       <c r="E25">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
         <v>1627</v>
@@ -9249,7 +9249,7 @@
         <v>1421</v>
       </c>
       <c r="E26">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F26" t="s">
         <v>1627</v>
@@ -9284,7 +9284,7 @@
         <v>1422</v>
       </c>
       <c r="E27">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
         <v>1627</v>
@@ -9319,7 +9319,7 @@
         <v>1423</v>
       </c>
       <c r="E28">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F28" t="s">
         <v>1627</v>
@@ -9354,7 +9354,7 @@
         <v>1424</v>
       </c>
       <c r="E29">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F29" t="s">
         <v>1627</v>
@@ -9389,7 +9389,7 @@
         <v>1425</v>
       </c>
       <c r="E30">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F30" t="s">
         <v>1627</v>
@@ -9424,7 +9424,7 @@
         <v>1426</v>
       </c>
       <c r="E31">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F31" t="s">
         <v>1627</v>
@@ -9459,7 +9459,7 @@
         <v>1427</v>
       </c>
       <c r="E32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F32" t="s">
         <v>1627</v>
@@ -9494,7 +9494,7 @@
         <v>1428</v>
       </c>
       <c r="E33">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F33" t="s">
         <v>1627</v>
@@ -9529,7 +9529,7 @@
         <v>1429</v>
       </c>
       <c r="E34">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F34" t="s">
         <v>1627</v>
@@ -9564,7 +9564,7 @@
         <v>1430</v>
       </c>
       <c r="E35">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F35" t="s">
         <v>1627</v>
@@ -9599,7 +9599,7 @@
         <v>1430</v>
       </c>
       <c r="E36">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F36" t="s">
         <v>1627</v>
@@ -9634,7 +9634,7 @@
         <v>1431</v>
       </c>
       <c r="E37">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F37" t="s">
         <v>1627</v>
@@ -9669,7 +9669,7 @@
         <v>1432</v>
       </c>
       <c r="E38">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F38" t="s">
         <v>1627</v>
@@ -9704,7 +9704,7 @@
         <v>1433</v>
       </c>
       <c r="E39">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F39" t="s">
         <v>1627</v>
@@ -9739,7 +9739,7 @@
         <v>1433</v>
       </c>
       <c r="E40">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F40" t="s">
         <v>1627</v>
@@ -9774,7 +9774,7 @@
         <v>1434</v>
       </c>
       <c r="E41">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F41" t="s">
         <v>1627</v>
@@ -9812,7 +9812,7 @@
         <v>1435</v>
       </c>
       <c r="E42">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F42" t="s">
         <v>1627</v>
@@ -9847,7 +9847,7 @@
         <v>1436</v>
       </c>
       <c r="E43">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F43" t="s">
         <v>1628</v>
@@ -9882,7 +9882,7 @@
         <v>1437</v>
       </c>
       <c r="E44">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F44" t="s">
         <v>1627</v>
@@ -9917,7 +9917,7 @@
         <v>1437</v>
       </c>
       <c r="E45">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F45" t="s">
         <v>1627</v>
@@ -9952,7 +9952,7 @@
         <v>1437</v>
       </c>
       <c r="E46">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F46" t="s">
         <v>1627</v>
@@ -9987,7 +9987,7 @@
         <v>1438</v>
       </c>
       <c r="E47">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F47" t="s">
         <v>1628</v>
@@ -10022,7 +10022,7 @@
         <v>1438</v>
       </c>
       <c r="E48">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F48" t="s">
         <v>1628</v>
@@ -10057,7 +10057,7 @@
         <v>1438</v>
       </c>
       <c r="E49">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F49" t="s">
         <v>1627</v>
@@ -10092,7 +10092,7 @@
         <v>1439</v>
       </c>
       <c r="E50">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F50" t="s">
         <v>1627</v>
@@ -10127,7 +10127,7 @@
         <v>1439</v>
       </c>
       <c r="E51">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F51" t="s">
         <v>1627</v>
@@ -10162,7 +10162,7 @@
         <v>1440</v>
       </c>
       <c r="E52">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F52" t="s">
         <v>1627</v>
@@ -10197,7 +10197,7 @@
         <v>1440</v>
       </c>
       <c r="E53">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F53" t="s">
         <v>1627</v>
@@ -10232,7 +10232,7 @@
         <v>1441</v>
       </c>
       <c r="E54">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F54" t="s">
         <v>1627</v>
@@ -10267,7 +10267,7 @@
         <v>1442</v>
       </c>
       <c r="E55">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F55" t="s">
         <v>1628</v>
@@ -10302,7 +10302,7 @@
         <v>1443</v>
       </c>
       <c r="E56">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F56" t="s">
         <v>1627</v>
@@ -10337,7 +10337,7 @@
         <v>1443</v>
       </c>
       <c r="E57">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s">
         <v>1627</v>
@@ -10372,7 +10372,7 @@
         <v>1444</v>
       </c>
       <c r="E58">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
         <v>1627</v>
@@ -10410,7 +10410,7 @@
         <v>1445</v>
       </c>
       <c r="E59">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
         <v>1629</v>
@@ -10445,7 +10445,7 @@
         <v>1446</v>
       </c>
       <c r="E60">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F60" t="s">
         <v>1629</v>
@@ -10480,7 +10480,7 @@
         <v>1447</v>
       </c>
       <c r="E61">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F61" t="s">
         <v>1628</v>
@@ -10515,7 +10515,7 @@
         <v>1448</v>
       </c>
       <c r="E62">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F62" t="s">
         <v>1629</v>
@@ -10550,7 +10550,7 @@
         <v>1448</v>
       </c>
       <c r="E63">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F63" t="s">
         <v>1628</v>
@@ -10585,7 +10585,7 @@
         <v>1448</v>
       </c>
       <c r="E64">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F64" t="s">
         <v>1628</v>
@@ -10620,7 +10620,7 @@
         <v>1449</v>
       </c>
       <c r="E65">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F65" t="s">
         <v>1628</v>
@@ -10655,7 +10655,7 @@
         <v>1450</v>
       </c>
       <c r="E66">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F66" t="s">
         <v>1628</v>
@@ -10693,7 +10693,7 @@
         <v>1450</v>
       </c>
       <c r="E67">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
         <v>1628</v>
@@ -10728,7 +10728,7 @@
         <v>1451</v>
       </c>
       <c r="E68">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
         <v>1629</v>
@@ -10763,7 +10763,7 @@
         <v>1451</v>
       </c>
       <c r="E69">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F69" t="s">
         <v>1629</v>
@@ -10798,7 +10798,7 @@
         <v>1452</v>
       </c>
       <c r="E70">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
         <v>1629</v>
@@ -10833,7 +10833,7 @@
         <v>1453</v>
       </c>
       <c r="E71">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F71" t="s">
         <v>1629</v>
@@ -10871,7 +10871,7 @@
         <v>1454</v>
       </c>
       <c r="E72">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F72" t="s">
         <v>1628</v>
@@ -10906,7 +10906,7 @@
         <v>1455</v>
       </c>
       <c r="E73">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
         <v>1629</v>
@@ -10941,7 +10941,7 @@
         <v>1456</v>
       </c>
       <c r="E74">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F74" t="s">
         <v>1629</v>
@@ -10976,7 +10976,7 @@
         <v>1457</v>
       </c>
       <c r="E75">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F75" t="s">
         <v>1628</v>
@@ -11011,7 +11011,7 @@
         <v>1457</v>
       </c>
       <c r="E76">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F76" t="s">
         <v>1628</v>
@@ -11046,7 +11046,7 @@
         <v>1458</v>
       </c>
       <c r="E77">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F77" t="s">
         <v>1628</v>
@@ -11084,7 +11084,7 @@
         <v>1459</v>
       </c>
       <c r="E78">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F78" t="s">
         <v>1630</v>
@@ -11122,7 +11122,7 @@
         <v>1459</v>
       </c>
       <c r="E79">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
         <v>1628</v>
@@ -11157,7 +11157,7 @@
         <v>1459</v>
       </c>
       <c r="E80">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F80" t="s">
         <v>1629</v>
@@ -11192,7 +11192,7 @@
         <v>1460</v>
       </c>
       <c r="E81">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F81" t="s">
         <v>1628</v>
@@ -11227,7 +11227,7 @@
         <v>1461</v>
       </c>
       <c r="E82">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F82" t="s">
         <v>1628</v>
@@ -11262,7 +11262,7 @@
         <v>1462</v>
       </c>
       <c r="E83">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
         <v>1630</v>
@@ -11297,7 +11297,7 @@
         <v>1462</v>
       </c>
       <c r="E84">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F84" t="s">
         <v>1628</v>
@@ -11332,7 +11332,7 @@
         <v>1463</v>
       </c>
       <c r="E85">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F85" t="s">
         <v>1630</v>
@@ -11367,7 +11367,7 @@
         <v>1463</v>
       </c>
       <c r="E86">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F86" t="s">
         <v>1630</v>
@@ -11402,7 +11402,7 @@
         <v>1463</v>
       </c>
       <c r="E87">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
         <v>1629</v>
@@ -11437,7 +11437,7 @@
         <v>1464</v>
       </c>
       <c r="E88">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
         <v>1628</v>
@@ -11472,7 +11472,7 @@
         <v>1464</v>
       </c>
       <c r="E89">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F89" t="s">
         <v>1628</v>
@@ -11507,7 +11507,7 @@
         <v>1465</v>
       </c>
       <c r="E90">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F90" t="s">
         <v>1628</v>
@@ -11542,7 +11542,7 @@
         <v>1466</v>
       </c>
       <c r="E91">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F91" t="s">
         <v>1628</v>
@@ -11577,7 +11577,7 @@
         <v>1466</v>
       </c>
       <c r="E92">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F92" t="s">
         <v>1628</v>
@@ -11612,7 +11612,7 @@
         <v>1467</v>
       </c>
       <c r="E93">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
         <v>1628</v>
@@ -11647,7 +11647,7 @@
         <v>1468</v>
       </c>
       <c r="E94">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F94" t="s">
         <v>1628</v>
@@ -11682,7 +11682,7 @@
         <v>1468</v>
       </c>
       <c r="E95">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F95" t="s">
         <v>1628</v>
@@ -11717,7 +11717,7 @@
         <v>1469</v>
       </c>
       <c r="E96">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F96" t="s">
         <v>1628</v>
@@ -11752,7 +11752,7 @@
         <v>1469</v>
       </c>
       <c r="E97">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F97" t="s">
         <v>1628</v>
@@ -11787,7 +11787,7 @@
         <v>1470</v>
       </c>
       <c r="E98">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F98" t="s">
         <v>1628</v>
@@ -11822,7 +11822,7 @@
         <v>1470</v>
       </c>
       <c r="E99">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F99" t="s">
         <v>1628</v>
@@ -11857,7 +11857,7 @@
         <v>1471</v>
       </c>
       <c r="E100">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F100" t="s">
         <v>1628</v>
@@ -11892,7 +11892,7 @@
         <v>1471</v>
       </c>
       <c r="E101">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F101" t="s">
         <v>1628</v>
@@ -11927,7 +11927,7 @@
         <v>1472</v>
       </c>
       <c r="E102">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>1628</v>
@@ -11962,7 +11962,7 @@
         <v>1472</v>
       </c>
       <c r="E103">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F103" t="s">
         <v>1628</v>
@@ -11997,7 +11997,7 @@
         <v>1472</v>
       </c>
       <c r="E104">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
         <v>1628</v>
@@ -12032,7 +12032,7 @@
         <v>1473</v>
       </c>
       <c r="E105">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
         <v>1628</v>
@@ -12067,7 +12067,7 @@
         <v>1474</v>
       </c>
       <c r="E106">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
         <v>1628</v>
@@ -12102,7 +12102,7 @@
         <v>1474</v>
       </c>
       <c r="E107">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F107" t="s">
         <v>1628</v>
@@ -12137,7 +12137,7 @@
         <v>1475</v>
       </c>
       <c r="E108">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F108" t="s">
         <v>1628</v>
@@ -12172,7 +12172,7 @@
         <v>1475</v>
       </c>
       <c r="E109">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
         <v>1628</v>
@@ -12207,7 +12207,7 @@
         <v>1476</v>
       </c>
       <c r="E110">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
         <v>1628</v>
@@ -12242,7 +12242,7 @@
         <v>1476</v>
       </c>
       <c r="E111">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F111" t="s">
         <v>1628</v>
@@ -12277,7 +12277,7 @@
         <v>1476</v>
       </c>
       <c r="E112">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F112" t="s">
         <v>1628</v>
@@ -12312,7 +12312,7 @@
         <v>1477</v>
       </c>
       <c r="E113">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F113" t="s">
         <v>1628</v>
@@ -12347,7 +12347,7 @@
         <v>1477</v>
       </c>
       <c r="E114">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F114" t="s">
         <v>1628</v>
@@ -12382,7 +12382,7 @@
         <v>1478</v>
       </c>
       <c r="E115">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F115" t="s">
         <v>1628</v>
@@ -12417,7 +12417,7 @@
         <v>1478</v>
       </c>
       <c r="E116">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F116" t="s">
         <v>1628</v>
@@ -12452,7 +12452,7 @@
         <v>1479</v>
       </c>
       <c r="E117">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F117" t="s">
         <v>1628</v>
@@ -12487,7 +12487,7 @@
         <v>1480</v>
       </c>
       <c r="E118">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F118" t="s">
         <v>1628</v>
@@ -12522,7 +12522,7 @@
         <v>1480</v>
       </c>
       <c r="E119">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F119" t="s">
         <v>1628</v>
@@ -12557,7 +12557,7 @@
         <v>1480</v>
       </c>
       <c r="E120">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F120" t="s">
         <v>1628</v>
@@ -12592,7 +12592,7 @@
         <v>1481</v>
       </c>
       <c r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F121" t="s">
         <v>1628</v>
@@ -12627,7 +12627,7 @@
         <v>1482</v>
       </c>
       <c r="E122">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
         <v>1628</v>
@@ -12662,7 +12662,7 @@
         <v>1482</v>
       </c>
       <c r="E123">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F123" t="s">
         <v>1628</v>
@@ -12697,7 +12697,7 @@
         <v>1482</v>
       </c>
       <c r="E124">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
         <v>1628</v>
@@ -12732,7 +12732,7 @@
         <v>1483</v>
       </c>
       <c r="E125">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
         <v>1628</v>
@@ -12767,7 +12767,7 @@
         <v>1483</v>
       </c>
       <c r="E126">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
         <v>1628</v>
@@ -12802,7 +12802,7 @@
         <v>1484</v>
       </c>
       <c r="E127">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
         <v>1628</v>
@@ -12837,7 +12837,7 @@
         <v>1485</v>
       </c>
       <c r="E128">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F128" t="s">
         <v>1628</v>
@@ -12872,7 +12872,7 @@
         <v>1485</v>
       </c>
       <c r="E129">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F129" t="s">
         <v>1628</v>
@@ -12907,7 +12907,7 @@
         <v>1485</v>
       </c>
       <c r="E130">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
         <v>1628</v>
@@ -12942,7 +12942,7 @@
         <v>1486</v>
       </c>
       <c r="E131">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
         <v>1628</v>
@@ -12977,7 +12977,7 @@
         <v>1486</v>
       </c>
       <c r="E132">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F132" t="s">
         <v>1628</v>
@@ -13012,7 +13012,7 @@
         <v>1487</v>
       </c>
       <c r="E133">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F133" t="s">
         <v>1628</v>
@@ -13047,7 +13047,7 @@
         <v>1487</v>
       </c>
       <c r="E134">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F134" t="s">
         <v>1628</v>
@@ -13082,7 +13082,7 @@
         <v>1488</v>
       </c>
       <c r="E135">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F135" t="s">
         <v>1628</v>
@@ -13117,7 +13117,7 @@
         <v>1488</v>
       </c>
       <c r="E136">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F136" t="s">
         <v>1628</v>
@@ -13152,7 +13152,7 @@
         <v>1489</v>
       </c>
       <c r="E137">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F137" t="s">
         <v>1628</v>
@@ -13187,7 +13187,7 @@
         <v>1489</v>
       </c>
       <c r="E138">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F138" t="s">
         <v>1628</v>
@@ -13225,7 +13225,7 @@
         <v>1489</v>
       </c>
       <c r="E139">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F139" t="s">
         <v>1628</v>
@@ -13260,7 +13260,7 @@
         <v>1490</v>
       </c>
       <c r="E140">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F140" t="s">
         <v>1628</v>
@@ -13295,7 +13295,7 @@
         <v>1490</v>
       </c>
       <c r="E141">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F141" t="s">
         <v>1628</v>
@@ -13330,7 +13330,7 @@
         <v>1491</v>
       </c>
       <c r="E142">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F142" t="s">
         <v>1628</v>
@@ -13365,7 +13365,7 @@
         <v>1492</v>
       </c>
       <c r="E143">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F143" t="s">
         <v>1628</v>
@@ -13400,7 +13400,7 @@
         <v>1492</v>
       </c>
       <c r="E144">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F144" t="s">
         <v>1628</v>
@@ -13435,7 +13435,7 @@
         <v>1492</v>
       </c>
       <c r="E145">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F145" t="s">
         <v>1628</v>
@@ -13470,7 +13470,7 @@
         <v>1493</v>
       </c>
       <c r="E146">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F146" t="s">
         <v>1628</v>
@@ -13505,7 +13505,7 @@
         <v>1493</v>
       </c>
       <c r="E147">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F147" t="s">
         <v>1628</v>
@@ -13540,7 +13540,7 @@
         <v>1493</v>
       </c>
       <c r="E148">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F148" t="s">
         <v>1628</v>
@@ -13575,7 +13575,7 @@
         <v>1494</v>
       </c>
       <c r="E149">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F149" t="s">
         <v>1628</v>
@@ -13610,7 +13610,7 @@
         <v>1494</v>
       </c>
       <c r="E150">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F150" t="s">
         <v>1628</v>
@@ -13645,7 +13645,7 @@
         <v>1494</v>
       </c>
       <c r="E151">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F151" t="s">
         <v>1628</v>
@@ -13680,7 +13680,7 @@
         <v>1495</v>
       </c>
       <c r="E152">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F152" t="s">
         <v>1628</v>
@@ -13715,7 +13715,7 @@
         <v>1495</v>
       </c>
       <c r="E153">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F153" t="s">
         <v>1628</v>
@@ -13750,7 +13750,7 @@
         <v>1495</v>
       </c>
       <c r="E154">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F154" t="s">
         <v>1628</v>
@@ -13785,7 +13785,7 @@
         <v>1496</v>
       </c>
       <c r="E155">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F155" t="s">
         <v>1628</v>
@@ -13820,7 +13820,7 @@
         <v>1496</v>
       </c>
       <c r="E156">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F156" t="s">
         <v>1628</v>
@@ -13855,7 +13855,7 @@
         <v>1497</v>
       </c>
       <c r="E157">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
         <v>1628</v>
@@ -13890,7 +13890,7 @@
         <v>1497</v>
       </c>
       <c r="E158">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F158" t="s">
         <v>1628</v>
@@ -13925,7 +13925,7 @@
         <v>1498</v>
       </c>
       <c r="E159">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F159" t="s">
         <v>1628</v>
@@ -13960,7 +13960,7 @@
         <v>1498</v>
       </c>
       <c r="E160">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F160" t="s">
         <v>1628</v>
@@ -13995,7 +13995,7 @@
         <v>1499</v>
       </c>
       <c r="E161">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F161" t="s">
         <v>1628</v>
@@ -14030,7 +14030,7 @@
         <v>1499</v>
       </c>
       <c r="E162">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F162" t="s">
         <v>1628</v>
@@ -14065,7 +14065,7 @@
         <v>1500</v>
       </c>
       <c r="E163">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F163" t="s">
         <v>1628</v>
@@ -14103,7 +14103,7 @@
         <v>1501</v>
       </c>
       <c r="E164">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F164" t="s">
         <v>1628</v>
@@ -14138,7 +14138,7 @@
         <v>1501</v>
       </c>
       <c r="E165">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F165" t="s">
         <v>1628</v>
@@ -14173,7 +14173,7 @@
         <v>1501</v>
       </c>
       <c r="E166">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F166" t="s">
         <v>1628</v>
@@ -14208,7 +14208,7 @@
         <v>1502</v>
       </c>
       <c r="E167">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F167" t="s">
         <v>1628</v>
@@ -14243,7 +14243,7 @@
         <v>1503</v>
       </c>
       <c r="E168">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F168" t="s">
         <v>1628</v>
@@ -14278,7 +14278,7 @@
         <v>1503</v>
       </c>
       <c r="E169">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F169" t="s">
         <v>1628</v>
@@ -14313,7 +14313,7 @@
         <v>1504</v>
       </c>
       <c r="E170">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F170" t="s">
         <v>1628</v>
@@ -14348,7 +14348,7 @@
         <v>1504</v>
       </c>
       <c r="E171">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F171" t="s">
         <v>1628</v>
@@ -14383,7 +14383,7 @@
         <v>1504</v>
       </c>
       <c r="E172">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F172" t="s">
         <v>1628</v>
@@ -14418,7 +14418,7 @@
         <v>1504</v>
       </c>
       <c r="E173">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F173" t="s">
         <v>1628</v>
@@ -14453,7 +14453,7 @@
         <v>1504</v>
       </c>
       <c r="E174">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F174" t="s">
         <v>1628</v>
@@ -14488,7 +14488,7 @@
         <v>1504</v>
       </c>
       <c r="E175">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F175" t="s">
         <v>1628</v>
@@ -14523,7 +14523,7 @@
         <v>1505</v>
       </c>
       <c r="E176">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F176" t="s">
         <v>1628</v>
@@ -14558,7 +14558,7 @@
         <v>1506</v>
       </c>
       <c r="E177">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F177" t="s">
         <v>1628</v>
@@ -14593,7 +14593,7 @@
         <v>1507</v>
       </c>
       <c r="E178">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F178" t="s">
         <v>1628</v>
@@ -14628,7 +14628,7 @@
         <v>1508</v>
       </c>
       <c r="E179">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F179" t="s">
         <v>1628</v>
@@ -14663,7 +14663,7 @@
         <v>1508</v>
       </c>
       <c r="E180">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F180" t="s">
         <v>1628</v>
@@ -14698,7 +14698,7 @@
         <v>1508</v>
       </c>
       <c r="E181">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F181" t="s">
         <v>1628</v>
@@ -14733,7 +14733,7 @@
         <v>1509</v>
       </c>
       <c r="E182">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F182" t="s">
         <v>1628</v>
@@ -14768,7 +14768,7 @@
         <v>1509</v>
       </c>
       <c r="E183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F183" t="s">
         <v>1628</v>
@@ -14803,7 +14803,7 @@
         <v>1509</v>
       </c>
       <c r="E184">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F184" t="s">
         <v>1628</v>
@@ -14838,7 +14838,7 @@
         <v>1509</v>
       </c>
       <c r="E185">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F185" t="s">
         <v>1628</v>
@@ -14873,7 +14873,7 @@
         <v>1509</v>
       </c>
       <c r="E186">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F186" t="s">
         <v>1628</v>
@@ -14908,7 +14908,7 @@
         <v>1509</v>
       </c>
       <c r="E187">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F187" t="s">
         <v>1628</v>
@@ -14943,7 +14943,7 @@
         <v>1509</v>
       </c>
       <c r="E188">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F188" t="s">
         <v>1628</v>
@@ -14978,7 +14978,7 @@
         <v>1510</v>
       </c>
       <c r="E189">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F189" t="s">
         <v>1628</v>
@@ -15013,7 +15013,7 @@
         <v>1510</v>
       </c>
       <c r="E190">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F190" t="s">
         <v>1628</v>
@@ -15048,7 +15048,7 @@
         <v>1510</v>
       </c>
       <c r="E191">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F191" t="s">
         <v>1628</v>
@@ -15083,7 +15083,7 @@
         <v>1511</v>
       </c>
       <c r="E192">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F192" t="s">
         <v>1628</v>
@@ -15118,7 +15118,7 @@
         <v>1512</v>
       </c>
       <c r="E193">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F193" t="s">
         <v>1628</v>
@@ -15153,7 +15153,7 @@
         <v>1512</v>
       </c>
       <c r="E194">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F194" t="s">
         <v>1628</v>
@@ -15188,7 +15188,7 @@
         <v>1512</v>
       </c>
       <c r="E195">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F195" t="s">
         <v>1628</v>
@@ -15223,7 +15223,7 @@
         <v>1513</v>
       </c>
       <c r="E196">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F196" t="s">
         <v>1628</v>
@@ -15258,7 +15258,7 @@
         <v>1513</v>
       </c>
       <c r="E197">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F197" t="s">
         <v>1628</v>
@@ -15293,7 +15293,7 @@
         <v>1513</v>
       </c>
       <c r="E198">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F198" t="s">
         <v>1628</v>
@@ -15328,7 +15328,7 @@
         <v>1514</v>
       </c>
       <c r="E199">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F199" t="s">
         <v>1628</v>
@@ -15363,7 +15363,7 @@
         <v>1514</v>
       </c>
       <c r="E200">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F200" t="s">
         <v>1628</v>
@@ -15401,7 +15401,7 @@
         <v>1514</v>
       </c>
       <c r="E201">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F201" t="s">
         <v>1628</v>
@@ -15436,7 +15436,7 @@
         <v>1515</v>
       </c>
       <c r="E202">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F202" t="s">
         <v>1628</v>
@@ -15471,7 +15471,7 @@
         <v>1516</v>
       </c>
       <c r="E203">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F203" t="s">
         <v>1628</v>
@@ -15506,7 +15506,7 @@
         <v>1516</v>
       </c>
       <c r="E204">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F204" t="s">
         <v>1628</v>
@@ -15541,7 +15541,7 @@
         <v>1517</v>
       </c>
       <c r="E205">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F205" t="s">
         <v>1628</v>
@@ -15576,7 +15576,7 @@
         <v>1518</v>
       </c>
       <c r="E206">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F206" t="s">
         <v>1628</v>
@@ -15611,7 +15611,7 @@
         <v>1518</v>
       </c>
       <c r="E207">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F207" t="s">
         <v>1628</v>
@@ -15646,7 +15646,7 @@
         <v>1518</v>
       </c>
       <c r="E208">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F208" t="s">
         <v>1628</v>
@@ -15681,7 +15681,7 @@
         <v>1518</v>
       </c>
       <c r="E209">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F209" t="s">
         <v>1628</v>
@@ -15716,7 +15716,7 @@
         <v>1518</v>
       </c>
       <c r="E210">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F210" t="s">
         <v>1628</v>
@@ -15751,7 +15751,7 @@
         <v>1518</v>
       </c>
       <c r="E211">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F211" t="s">
         <v>1628</v>
@@ -15786,7 +15786,7 @@
         <v>1519</v>
       </c>
       <c r="E212">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F212" t="s">
         <v>1628</v>
@@ -15821,7 +15821,7 @@
         <v>1519</v>
       </c>
       <c r="E213">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F213" t="s">
         <v>1628</v>
@@ -15856,7 +15856,7 @@
         <v>1520</v>
       </c>
       <c r="E214">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F214" t="s">
         <v>1628</v>
@@ -15894,7 +15894,7 @@
         <v>1520</v>
       </c>
       <c r="E215">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F215" t="s">
         <v>1628</v>
@@ -15929,7 +15929,7 @@
         <v>1520</v>
       </c>
       <c r="E216">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F216" t="s">
         <v>1628</v>
@@ -15964,7 +15964,7 @@
         <v>1520</v>
       </c>
       <c r="E217">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F217" t="s">
         <v>1628</v>
@@ -16002,7 +16002,7 @@
         <v>1521</v>
       </c>
       <c r="E218">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F218" t="s">
         <v>1628</v>
@@ -16037,7 +16037,7 @@
         <v>1521</v>
       </c>
       <c r="E219">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F219" t="s">
         <v>1628</v>
@@ -16072,7 +16072,7 @@
         <v>1521</v>
       </c>
       <c r="E220">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F220" t="s">
         <v>1628</v>
@@ -16107,7 +16107,7 @@
         <v>1522</v>
       </c>
       <c r="E221">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F221" t="s">
         <v>1628</v>
@@ -16142,7 +16142,7 @@
         <v>1522</v>
       </c>
       <c r="E222">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F222" t="s">
         <v>1628</v>
@@ -16177,7 +16177,7 @@
         <v>1522</v>
       </c>
       <c r="E223">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F223" t="s">
         <v>1628</v>
@@ -16212,7 +16212,7 @@
         <v>1523</v>
       </c>
       <c r="E224">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F224" t="s">
         <v>1628</v>
@@ -16247,7 +16247,7 @@
         <v>1524</v>
       </c>
       <c r="E225">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F225" t="s">
         <v>1628</v>
@@ -16282,7 +16282,7 @@
         <v>1524</v>
       </c>
       <c r="E226">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F226" t="s">
         <v>1628</v>
@@ -16317,7 +16317,7 @@
         <v>1524</v>
       </c>
       <c r="E227">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F227" t="s">
         <v>1628</v>
@@ -16352,7 +16352,7 @@
         <v>1524</v>
       </c>
       <c r="E228">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F228" t="s">
         <v>1628</v>
@@ -16387,7 +16387,7 @@
         <v>1524</v>
       </c>
       <c r="E229">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F229" t="s">
         <v>1628</v>
@@ -16422,7 +16422,7 @@
         <v>1524</v>
       </c>
       <c r="E230">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F230" t="s">
         <v>1628</v>
@@ -16457,7 +16457,7 @@
         <v>1524</v>
       </c>
       <c r="E231">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F231" t="s">
         <v>1628</v>
@@ -16492,7 +16492,7 @@
         <v>1524</v>
       </c>
       <c r="E232">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F232" t="s">
         <v>1628</v>
@@ -16527,7 +16527,7 @@
         <v>1524</v>
       </c>
       <c r="E233">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F233" t="s">
         <v>1628</v>
@@ -16562,7 +16562,7 @@
         <v>1524</v>
       </c>
       <c r="E234">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F234" t="s">
         <v>1628</v>
@@ -16600,7 +16600,7 @@
         <v>1525</v>
       </c>
       <c r="E235">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F235" t="s">
         <v>1628</v>
@@ -16635,7 +16635,7 @@
         <v>1525</v>
       </c>
       <c r="E236">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F236" t="s">
         <v>1628</v>
@@ -16670,7 +16670,7 @@
         <v>1525</v>
       </c>
       <c r="E237">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F237" t="s">
         <v>1628</v>
@@ -16705,7 +16705,7 @@
         <v>1525</v>
       </c>
       <c r="E238">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F238" t="s">
         <v>1628</v>
@@ -16740,7 +16740,7 @@
         <v>1525</v>
       </c>
       <c r="E239">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F239" t="s">
         <v>1628</v>
@@ -16775,7 +16775,7 @@
         <v>1526</v>
       </c>
       <c r="E240">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F240" t="s">
         <v>1628</v>
@@ -16813,7 +16813,7 @@
         <v>1527</v>
       </c>
       <c r="E241">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F241" t="s">
         <v>1628</v>
@@ -16848,7 +16848,7 @@
         <v>1528</v>
       </c>
       <c r="E242">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F242" t="s">
         <v>1628</v>
@@ -16883,7 +16883,7 @@
         <v>1528</v>
       </c>
       <c r="E243">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F243" t="s">
         <v>1628</v>
@@ -16918,7 +16918,7 @@
         <v>1528</v>
       </c>
       <c r="E244">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F244" t="s">
         <v>1628</v>
@@ -16953,7 +16953,7 @@
         <v>1528</v>
       </c>
       <c r="E245">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F245" t="s">
         <v>1628</v>
@@ -16988,7 +16988,7 @@
         <v>1528</v>
       </c>
       <c r="E246">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F246" t="s">
         <v>1628</v>
@@ -17023,7 +17023,7 @@
         <v>1528</v>
       </c>
       <c r="E247">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F247" t="s">
         <v>1628</v>
@@ -17058,7 +17058,7 @@
         <v>1529</v>
       </c>
       <c r="E248">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F248" t="s">
         <v>1628</v>
@@ -17093,7 +17093,7 @@
         <v>1529</v>
       </c>
       <c r="E249">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F249" t="s">
         <v>1628</v>
@@ -17128,7 +17128,7 @@
         <v>1529</v>
       </c>
       <c r="E250">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F250" t="s">
         <v>1628</v>
@@ -17163,7 +17163,7 @@
         <v>1529</v>
       </c>
       <c r="E251">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F251" t="s">
         <v>1628</v>
@@ -17198,7 +17198,7 @@
         <v>1529</v>
       </c>
       <c r="E252">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F252" t="s">
         <v>1628</v>
@@ -17233,7 +17233,7 @@
         <v>1530</v>
       </c>
       <c r="E253">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F253" t="s">
         <v>1628</v>
@@ -17268,7 +17268,7 @@
         <v>1530</v>
       </c>
       <c r="E254">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F254" t="s">
         <v>1628</v>
@@ -17303,7 +17303,7 @@
         <v>1530</v>
       </c>
       <c r="E255">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F255" t="s">
         <v>1628</v>
@@ -17338,7 +17338,7 @@
         <v>1530</v>
       </c>
       <c r="E256">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F256" t="s">
         <v>1628</v>
@@ -17373,7 +17373,7 @@
         <v>1530</v>
       </c>
       <c r="E257">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F257" t="s">
         <v>1628</v>
@@ -17408,7 +17408,7 @@
         <v>1531</v>
       </c>
       <c r="E258">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F258" t="s">
         <v>1628</v>
@@ -17443,7 +17443,7 @@
         <v>1531</v>
       </c>
       <c r="E259">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F259" t="s">
         <v>1628</v>
@@ -17478,7 +17478,7 @@
         <v>1531</v>
       </c>
       <c r="E260">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F260" t="s">
         <v>1628</v>
@@ -17513,7 +17513,7 @@
         <v>1532</v>
       </c>
       <c r="E261">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F261" t="s">
         <v>1628</v>
@@ -17548,7 +17548,7 @@
         <v>1533</v>
       </c>
       <c r="E262">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F262" t="s">
         <v>1628</v>
@@ -17586,7 +17586,7 @@
         <v>1534</v>
       </c>
       <c r="E263">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F263" t="s">
         <v>1628</v>
@@ -17621,7 +17621,7 @@
         <v>1535</v>
       </c>
       <c r="E264">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F264" t="s">
         <v>1628</v>
@@ -17656,7 +17656,7 @@
         <v>1535</v>
       </c>
       <c r="E265">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F265" t="s">
         <v>1628</v>
@@ -17691,7 +17691,7 @@
         <v>1535</v>
       </c>
       <c r="E266">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F266" t="s">
         <v>1628</v>
@@ -17726,7 +17726,7 @@
         <v>1536</v>
       </c>
       <c r="E267">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F267" t="s">
         <v>1628</v>
@@ -17764,7 +17764,7 @@
         <v>1537</v>
       </c>
       <c r="E268">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F268" t="s">
         <v>1630</v>
@@ -17799,7 +17799,7 @@
         <v>1538</v>
       </c>
       <c r="E269">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F269" t="s">
         <v>1628</v>
@@ -17834,7 +17834,7 @@
         <v>1539</v>
       </c>
       <c r="E270">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F270" t="s">
         <v>1628</v>
@@ -17869,7 +17869,7 @@
         <v>1539</v>
       </c>
       <c r="E271">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F271" t="s">
         <v>1628</v>
@@ -17904,7 +17904,7 @@
         <v>1539</v>
       </c>
       <c r="E272">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F272" t="s">
         <v>1628</v>
@@ -17939,7 +17939,7 @@
         <v>1540</v>
       </c>
       <c r="E273">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F273" t="s">
         <v>1628</v>
@@ -17974,7 +17974,7 @@
         <v>1541</v>
       </c>
       <c r="E274">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F274" t="s">
         <v>1628</v>
@@ -18012,7 +18012,7 @@
         <v>1541</v>
       </c>
       <c r="E275">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F275" t="s">
         <v>1628</v>
@@ -18047,7 +18047,7 @@
         <v>1541</v>
       </c>
       <c r="E276">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F276" t="s">
         <v>1628</v>
@@ -18082,7 +18082,7 @@
         <v>1541</v>
       </c>
       <c r="E277">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F277" t="s">
         <v>1628</v>
@@ -18117,7 +18117,7 @@
         <v>1542</v>
       </c>
       <c r="E278">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F278" t="s">
         <v>1628</v>
@@ -18152,7 +18152,7 @@
         <v>1543</v>
       </c>
       <c r="E279">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F279" t="s">
         <v>1628</v>
@@ -18187,7 +18187,7 @@
         <v>1544</v>
       </c>
       <c r="E280">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F280" t="s">
         <v>1628</v>
@@ -18222,7 +18222,7 @@
         <v>1544</v>
       </c>
       <c r="E281">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F281" t="s">
         <v>1628</v>
@@ -18257,7 +18257,7 @@
         <v>1544</v>
       </c>
       <c r="E282">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F282" t="s">
         <v>1631</v>
@@ -18295,7 +18295,7 @@
         <v>1545</v>
       </c>
       <c r="E283">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F283" t="s">
         <v>1628</v>
@@ -18330,7 +18330,7 @@
         <v>1545</v>
       </c>
       <c r="E284">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F284" t="s">
         <v>1628</v>
@@ -18365,7 +18365,7 @@
         <v>1545</v>
       </c>
       <c r="E285">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F285" t="s">
         <v>1628</v>
@@ -18400,7 +18400,7 @@
         <v>1546</v>
       </c>
       <c r="E286">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F286" t="s">
         <v>1628</v>
@@ -18435,7 +18435,7 @@
         <v>1546</v>
       </c>
       <c r="E287">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F287" t="s">
         <v>1628</v>
@@ -18470,7 +18470,7 @@
         <v>1546</v>
       </c>
       <c r="E288">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F288" t="s">
         <v>1628</v>
@@ -18505,7 +18505,7 @@
         <v>1546</v>
       </c>
       <c r="E289">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F289" t="s">
         <v>1628</v>
@@ -18540,7 +18540,7 @@
         <v>1547</v>
       </c>
       <c r="E290">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F290" t="s">
         <v>1628</v>
@@ -18575,7 +18575,7 @@
         <v>1547</v>
       </c>
       <c r="E291">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F291" t="s">
         <v>1628</v>
@@ -18610,7 +18610,7 @@
         <v>1547</v>
       </c>
       <c r="E292">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F292" t="s">
         <v>1628</v>
@@ -18645,7 +18645,7 @@
         <v>1547</v>
       </c>
       <c r="E293">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F293" t="s">
         <v>1628</v>
@@ -18680,7 +18680,7 @@
         <v>1548</v>
       </c>
       <c r="E294">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F294" t="s">
         <v>1628</v>
@@ -18718,7 +18718,7 @@
         <v>1549</v>
       </c>
       <c r="E295">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F295" t="s">
         <v>1628</v>
@@ -18753,7 +18753,7 @@
         <v>1549</v>
       </c>
       <c r="E296">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F296" t="s">
         <v>1628</v>
@@ -18788,7 +18788,7 @@
         <v>1549</v>
       </c>
       <c r="E297">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F297" t="s">
         <v>1628</v>
@@ -18823,7 +18823,7 @@
         <v>1549</v>
       </c>
       <c r="E298">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F298" t="s">
         <v>1628</v>
@@ -18858,7 +18858,7 @@
         <v>1549</v>
       </c>
       <c r="E299">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F299" t="s">
         <v>1628</v>
@@ -18893,7 +18893,7 @@
         <v>1550</v>
       </c>
       <c r="E300">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F300" t="s">
         <v>1628</v>
@@ -18928,7 +18928,7 @@
         <v>1550</v>
       </c>
       <c r="E301">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F301" t="s">
         <v>1628</v>
@@ -18963,7 +18963,7 @@
         <v>1550</v>
       </c>
       <c r="E302">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F302" t="s">
         <v>1628</v>
@@ -18998,7 +18998,7 @@
         <v>1551</v>
       </c>
       <c r="E303">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F303" t="s">
         <v>1628</v>
@@ -19036,7 +19036,7 @@
         <v>1551</v>
       </c>
       <c r="E304">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F304" t="s">
         <v>1628</v>
@@ -19071,7 +19071,7 @@
         <v>1551</v>
       </c>
       <c r="E305">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F305" t="s">
         <v>1628</v>
@@ -19106,7 +19106,7 @@
         <v>1551</v>
       </c>
       <c r="E306">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F306" t="s">
         <v>1628</v>
@@ -19141,7 +19141,7 @@
         <v>1552</v>
       </c>
       <c r="E307">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F307" t="s">
         <v>1628</v>
@@ -19176,7 +19176,7 @@
         <v>1552</v>
       </c>
       <c r="E308">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F308" t="s">
         <v>1628</v>
@@ -19211,7 +19211,7 @@
         <v>1552</v>
       </c>
       <c r="E309">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F309" t="s">
         <v>1628</v>
@@ -19249,7 +19249,7 @@
         <v>1552</v>
       </c>
       <c r="E310">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F310" t="s">
         <v>1628</v>
@@ -19284,7 +19284,7 @@
         <v>1553</v>
       </c>
       <c r="E311">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F311" t="s">
         <v>1628</v>
@@ -19319,7 +19319,7 @@
         <v>1553</v>
       </c>
       <c r="E312">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F312" t="s">
         <v>1628</v>
@@ -19354,7 +19354,7 @@
         <v>1554</v>
       </c>
       <c r="E313">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F313" t="s">
         <v>1628</v>
@@ -19389,7 +19389,7 @@
         <v>1554</v>
       </c>
       <c r="E314">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F314" t="s">
         <v>1628</v>
@@ -19424,7 +19424,7 @@
         <v>1554</v>
       </c>
       <c r="E315">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F315" t="s">
         <v>1628</v>
@@ -19459,7 +19459,7 @@
         <v>1554</v>
       </c>
       <c r="E316">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F316" t="s">
         <v>1628</v>
@@ -19494,7 +19494,7 @@
         <v>1555</v>
       </c>
       <c r="E317">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F317" t="s">
         <v>1628</v>
@@ -19529,7 +19529,7 @@
         <v>1555</v>
       </c>
       <c r="E318">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F318" t="s">
         <v>1628</v>
@@ -19564,7 +19564,7 @@
         <v>1556</v>
       </c>
       <c r="E319">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F319" t="s">
         <v>1628</v>
@@ -19599,7 +19599,7 @@
         <v>1556</v>
       </c>
       <c r="E320">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F320" t="s">
         <v>1628</v>
@@ -19634,7 +19634,7 @@
         <v>1556</v>
       </c>
       <c r="E321">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F321" t="s">
         <v>1628</v>
@@ -19669,7 +19669,7 @@
         <v>1556</v>
       </c>
       <c r="E322">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F322" t="s">
         <v>1628</v>
@@ -19704,7 +19704,7 @@
         <v>1556</v>
       </c>
       <c r="E323">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F323" t="s">
         <v>1628</v>
@@ -19739,7 +19739,7 @@
         <v>1556</v>
       </c>
       <c r="E324">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F324" t="s">
         <v>1628</v>
@@ -19774,7 +19774,7 @@
         <v>1557</v>
       </c>
       <c r="E325">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F325" t="s">
         <v>1628</v>
@@ -19809,7 +19809,7 @@
         <v>1557</v>
       </c>
       <c r="E326">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F326" t="s">
         <v>1628</v>
@@ -19844,7 +19844,7 @@
         <v>1557</v>
       </c>
       <c r="E327">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F327" t="s">
         <v>1628</v>
@@ -19879,7 +19879,7 @@
         <v>1557</v>
       </c>
       <c r="E328">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F328" t="s">
         <v>1628</v>
@@ -19914,7 +19914,7 @@
         <v>1557</v>
       </c>
       <c r="E329">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F329" t="s">
         <v>1628</v>
@@ -19949,7 +19949,7 @@
         <v>1557</v>
       </c>
       <c r="E330">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F330" t="s">
         <v>1628</v>
@@ -19984,7 +19984,7 @@
         <v>1557</v>
       </c>
       <c r="E331">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F331" t="s">
         <v>1628</v>
@@ -20019,7 +20019,7 @@
         <v>1557</v>
       </c>
       <c r="E332">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F332" t="s">
         <v>1628</v>
@@ -20054,7 +20054,7 @@
         <v>1557</v>
       </c>
       <c r="E333">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F333" t="s">
         <v>1628</v>
@@ -20089,7 +20089,7 @@
         <v>1557</v>
       </c>
       <c r="E334">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F334" t="s">
         <v>1628</v>
@@ -20124,7 +20124,7 @@
         <v>1557</v>
       </c>
       <c r="E335">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F335" t="s">
         <v>1628</v>
@@ -20159,7 +20159,7 @@
         <v>1558</v>
       </c>
       <c r="E336">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F336" t="s">
         <v>1628</v>
@@ -20194,7 +20194,7 @@
         <v>1559</v>
       </c>
       <c r="E337">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F337" t="s">
         <v>1628</v>
@@ -20229,7 +20229,7 @@
         <v>1560</v>
       </c>
       <c r="E338">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F338" t="s">
         <v>1628</v>
@@ -20264,7 +20264,7 @@
         <v>1560</v>
       </c>
       <c r="E339">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F339" t="s">
         <v>1628</v>
@@ -20299,7 +20299,7 @@
         <v>1560</v>
       </c>
       <c r="E340">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F340" t="s">
         <v>1628</v>
@@ -20334,7 +20334,7 @@
         <v>1561</v>
       </c>
       <c r="E341">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F341" t="s">
         <v>1628</v>
@@ -20369,7 +20369,7 @@
         <v>1561</v>
       </c>
       <c r="E342">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F342" t="s">
         <v>1628</v>
@@ -20404,7 +20404,7 @@
         <v>1562</v>
       </c>
       <c r="E343">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F343" t="s">
         <v>1628</v>
@@ -20439,7 +20439,7 @@
         <v>1562</v>
       </c>
       <c r="E344">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F344" t="s">
         <v>1628</v>
@@ -20477,7 +20477,7 @@
         <v>1562</v>
       </c>
       <c r="E345">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F345" t="s">
         <v>1628</v>
@@ -20512,7 +20512,7 @@
         <v>1562</v>
       </c>
       <c r="E346">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F346" t="s">
         <v>1628</v>
@@ -20550,7 +20550,7 @@
         <v>1562</v>
       </c>
       <c r="E347">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F347" t="s">
         <v>1628</v>
@@ -20585,7 +20585,7 @@
         <v>1563</v>
       </c>
       <c r="E348">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F348" t="s">
         <v>1628</v>
@@ -20620,7 +20620,7 @@
         <v>1563</v>
       </c>
       <c r="E349">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F349" t="s">
         <v>1628</v>
@@ -20655,7 +20655,7 @@
         <v>1563</v>
       </c>
       <c r="E350">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F350" t="s">
         <v>1628</v>
@@ -20690,7 +20690,7 @@
         <v>1563</v>
       </c>
       <c r="E351">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F351" t="s">
         <v>1628</v>
@@ -20725,7 +20725,7 @@
         <v>1563</v>
       </c>
       <c r="E352">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F352" t="s">
         <v>1628</v>
@@ -20760,7 +20760,7 @@
         <v>1563</v>
       </c>
       <c r="E353">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F353" t="s">
         <v>1628</v>
@@ -20795,7 +20795,7 @@
         <v>1563</v>
       </c>
       <c r="E354">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F354" t="s">
         <v>1628</v>
@@ -20830,7 +20830,7 @@
         <v>1564</v>
       </c>
       <c r="E355">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F355" t="s">
         <v>1628</v>
@@ -20865,7 +20865,7 @@
         <v>1564</v>
       </c>
       <c r="E356">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F356" t="s">
         <v>1628</v>
@@ -20903,7 +20903,7 @@
         <v>1564</v>
       </c>
       <c r="E357">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F357" t="s">
         <v>1628</v>
@@ -20938,7 +20938,7 @@
         <v>1565</v>
       </c>
       <c r="E358">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F358" t="s">
         <v>1628</v>
@@ -20973,7 +20973,7 @@
         <v>1566</v>
       </c>
       <c r="E359">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F359" t="s">
         <v>1628</v>
@@ -21008,7 +21008,7 @@
         <v>1566</v>
       </c>
       <c r="E360">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F360" t="s">
         <v>1628</v>
@@ -21043,7 +21043,7 @@
         <v>1566</v>
       </c>
       <c r="E361">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F361" t="s">
         <v>1628</v>
@@ -21078,7 +21078,7 @@
         <v>1566</v>
       </c>
       <c r="E362">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F362" t="s">
         <v>1628</v>
@@ -21113,7 +21113,7 @@
         <v>1566</v>
       </c>
       <c r="E363">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F363" t="s">
         <v>1628</v>
@@ -21148,7 +21148,7 @@
         <v>1567</v>
       </c>
       <c r="E364">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F364" t="s">
         <v>1628</v>
@@ -21183,7 +21183,7 @@
         <v>1568</v>
       </c>
       <c r="E365">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F365" t="s">
         <v>1628</v>
@@ -21218,7 +21218,7 @@
         <v>1569</v>
       </c>
       <c r="E366">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F366" t="s">
         <v>1628</v>
@@ -21253,7 +21253,7 @@
         <v>1569</v>
       </c>
       <c r="E367">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F367" t="s">
         <v>1628</v>
@@ -21288,7 +21288,7 @@
         <v>1569</v>
       </c>
       <c r="E368">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F368" t="s">
         <v>1628</v>
@@ -21323,7 +21323,7 @@
         <v>1569</v>
       </c>
       <c r="E369">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F369" t="s">
         <v>1628</v>
@@ -21358,7 +21358,7 @@
         <v>1570</v>
       </c>
       <c r="E370">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F370" t="s">
         <v>1628</v>
@@ -21393,7 +21393,7 @@
         <v>1570</v>
       </c>
       <c r="E371">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F371" t="s">
         <v>1628</v>
@@ -21428,7 +21428,7 @@
         <v>1570</v>
       </c>
       <c r="E372">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F372" t="s">
         <v>1628</v>
@@ -21463,7 +21463,7 @@
         <v>1570</v>
       </c>
       <c r="E373">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F373" t="s">
         <v>1628</v>
@@ -21498,7 +21498,7 @@
         <v>1570</v>
       </c>
       <c r="E374">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F374" t="s">
         <v>1628</v>
@@ -21533,7 +21533,7 @@
         <v>1570</v>
       </c>
       <c r="E375">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F375" t="s">
         <v>1628</v>
@@ -21568,7 +21568,7 @@
         <v>1570</v>
       </c>
       <c r="E376">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F376" t="s">
         <v>1628</v>
@@ -21603,7 +21603,7 @@
         <v>1570</v>
       </c>
       <c r="E377">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F377" t="s">
         <v>1628</v>
@@ -21638,7 +21638,7 @@
         <v>1571</v>
       </c>
       <c r="E378">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F378" t="s">
         <v>1628</v>
@@ -21673,7 +21673,7 @@
         <v>1571</v>
       </c>
       <c r="E379">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F379" t="s">
         <v>1628</v>
@@ -21708,7 +21708,7 @@
         <v>1571</v>
       </c>
       <c r="E380">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F380" t="s">
         <v>1628</v>
@@ -21743,7 +21743,7 @@
         <v>1571</v>
       </c>
       <c r="E381">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F381" t="s">
         <v>1628</v>
@@ -21778,7 +21778,7 @@
         <v>1572</v>
       </c>
       <c r="E382">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F382" t="s">
         <v>1628</v>
@@ -21813,7 +21813,7 @@
         <v>1572</v>
       </c>
       <c r="E383">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F383" t="s">
         <v>1628</v>
@@ -21848,7 +21848,7 @@
         <v>1572</v>
       </c>
       <c r="E384">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F384" t="s">
         <v>1628</v>
@@ -21883,7 +21883,7 @@
         <v>1572</v>
       </c>
       <c r="E385">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F385" t="s">
         <v>1631</v>
@@ -21921,7 +21921,7 @@
         <v>1572</v>
       </c>
       <c r="E386">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F386" t="s">
         <v>1628</v>
@@ -21956,7 +21956,7 @@
         <v>1572</v>
       </c>
       <c r="E387">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F387" t="s">
         <v>1628</v>
@@ -21991,7 +21991,7 @@
         <v>1572</v>
       </c>
       <c r="E388">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F388" t="s">
         <v>1628</v>
@@ -22026,7 +22026,7 @@
         <v>1572</v>
       </c>
       <c r="E389">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F389" t="s">
         <v>1628</v>
@@ -22061,7 +22061,7 @@
         <v>1572</v>
       </c>
       <c r="E390">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F390" t="s">
         <v>1628</v>
@@ -22096,7 +22096,7 @@
         <v>1572</v>
       </c>
       <c r="E391">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F391" t="s">
         <v>1628</v>
@@ -22131,7 +22131,7 @@
         <v>1572</v>
       </c>
       <c r="E392">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F392" t="s">
         <v>1628</v>
@@ -22166,7 +22166,7 @@
         <v>1573</v>
       </c>
       <c r="E393">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F393" t="s">
         <v>1628</v>
@@ -22201,7 +22201,7 @@
         <v>1573</v>
       </c>
       <c r="E394">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F394" t="s">
         <v>1628</v>
@@ -22236,7 +22236,7 @@
         <v>1573</v>
       </c>
       <c r="E395">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F395" t="s">
         <v>1628</v>
@@ -22271,7 +22271,7 @@
         <v>1573</v>
       </c>
       <c r="E396">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F396" t="s">
         <v>1628</v>
@@ -22306,7 +22306,7 @@
         <v>1573</v>
       </c>
       <c r="E397">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F397" t="s">
         <v>1628</v>
@@ -22341,7 +22341,7 @@
         <v>1573</v>
       </c>
       <c r="E398">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F398" t="s">
         <v>1628</v>
@@ -22376,7 +22376,7 @@
         <v>1573</v>
       </c>
       <c r="E399">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F399" t="s">
         <v>1628</v>
@@ -22411,7 +22411,7 @@
         <v>1573</v>
       </c>
       <c r="E400">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F400" t="s">
         <v>1628</v>
@@ -22446,7 +22446,7 @@
         <v>1573</v>
       </c>
       <c r="E401">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F401" t="s">
         <v>1628</v>
@@ -22481,7 +22481,7 @@
         <v>1574</v>
       </c>
       <c r="E402">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F402" t="s">
         <v>1628</v>
@@ -22516,7 +22516,7 @@
         <v>1575</v>
       </c>
       <c r="E403">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F403" t="s">
         <v>1628</v>
@@ -22551,7 +22551,7 @@
         <v>1575</v>
       </c>
       <c r="E404">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F404" t="s">
         <v>1628</v>
@@ -22586,7 +22586,7 @@
         <v>1575</v>
       </c>
       <c r="E405">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F405" t="s">
         <v>1628</v>
@@ -22624,7 +22624,7 @@
         <v>1576</v>
       </c>
       <c r="E406">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F406" t="s">
         <v>1628</v>
@@ -22659,7 +22659,7 @@
         <v>1576</v>
       </c>
       <c r="E407">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F407" t="s">
         <v>1628</v>
@@ -22694,7 +22694,7 @@
         <v>1576</v>
       </c>
       <c r="E408">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F408" t="s">
         <v>1628</v>
@@ -22729,7 +22729,7 @@
         <v>1577</v>
       </c>
       <c r="E409">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F409" t="s">
         <v>1628</v>
@@ -22764,7 +22764,7 @@
         <v>1577</v>
       </c>
       <c r="E410">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F410" t="s">
         <v>1628</v>
@@ -22799,7 +22799,7 @@
         <v>1577</v>
       </c>
       <c r="E411">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F411" t="s">
         <v>1628</v>
@@ -22834,7 +22834,7 @@
         <v>1577</v>
       </c>
       <c r="E412">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F412" t="s">
         <v>1628</v>
@@ -22869,7 +22869,7 @@
         <v>1578</v>
       </c>
       <c r="E413">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F413" t="s">
         <v>1628</v>
@@ -22907,7 +22907,7 @@
         <v>1578</v>
       </c>
       <c r="E414">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F414" t="s">
         <v>1628</v>
@@ -22942,7 +22942,7 @@
         <v>1578</v>
       </c>
       <c r="E415">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F415" t="s">
         <v>1628</v>
@@ -22977,7 +22977,7 @@
         <v>1579</v>
       </c>
       <c r="E416">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F416" t="s">
         <v>1628</v>
@@ -23012,7 +23012,7 @@
         <v>1579</v>
       </c>
       <c r="E417">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F417" t="s">
         <v>1628</v>
@@ -23047,7 +23047,7 @@
         <v>1579</v>
       </c>
       <c r="E418">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F418" t="s">
         <v>1628</v>
@@ -23082,7 +23082,7 @@
         <v>1579</v>
       </c>
       <c r="E419">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F419" t="s">
         <v>1628</v>
@@ -23117,7 +23117,7 @@
         <v>1579</v>
       </c>
       <c r="E420">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F420" t="s">
         <v>1628</v>
@@ -23152,7 +23152,7 @@
         <v>1580</v>
       </c>
       <c r="E421">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F421" t="s">
         <v>1628</v>
@@ -23187,7 +23187,7 @@
         <v>1580</v>
       </c>
       <c r="E422">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F422" t="s">
         <v>1628</v>
@@ -23222,7 +23222,7 @@
         <v>1580</v>
       </c>
       <c r="E423">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F423" t="s">
         <v>1628</v>
@@ -23257,7 +23257,7 @@
         <v>1580</v>
       </c>
       <c r="E424">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F424" t="s">
         <v>1628</v>
@@ -23292,7 +23292,7 @@
         <v>1580</v>
       </c>
       <c r="E425">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F425" t="s">
         <v>1628</v>
@@ -23327,7 +23327,7 @@
         <v>1580</v>
       </c>
       <c r="E426">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F426" t="s">
         <v>1628</v>
@@ -23362,7 +23362,7 @@
         <v>1580</v>
       </c>
       <c r="E427">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F427" t="s">
         <v>1628</v>
@@ -23397,7 +23397,7 @@
         <v>1580</v>
       </c>
       <c r="E428">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F428" t="s">
         <v>1628</v>
@@ -23432,7 +23432,7 @@
         <v>1580</v>
       </c>
       <c r="E429">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F429" t="s">
         <v>1628</v>
@@ -23467,7 +23467,7 @@
         <v>1580</v>
       </c>
       <c r="E430">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F430" t="s">
         <v>1628</v>
@@ -23502,7 +23502,7 @@
         <v>1581</v>
       </c>
       <c r="E431">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F431" t="s">
         <v>1628</v>
@@ -23537,7 +23537,7 @@
         <v>1581</v>
       </c>
       <c r="E432">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F432" t="s">
         <v>1628</v>
@@ -23572,7 +23572,7 @@
         <v>1581</v>
       </c>
       <c r="E433">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F433" t="s">
         <v>1628</v>
@@ -23607,7 +23607,7 @@
         <v>1581</v>
       </c>
       <c r="E434">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F434" t="s">
         <v>1628</v>
@@ -23642,7 +23642,7 @@
         <v>1581</v>
       </c>
       <c r="E435">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F435" t="s">
         <v>1628</v>
@@ -23677,7 +23677,7 @@
         <v>1581</v>
       </c>
       <c r="E436">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F436" t="s">
         <v>1628</v>
@@ -23712,7 +23712,7 @@
         <v>1581</v>
       </c>
       <c r="E437">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F437" t="s">
         <v>1628</v>
@@ -23747,7 +23747,7 @@
         <v>1581</v>
       </c>
       <c r="E438">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F438" t="s">
         <v>1628</v>
@@ -23785,7 +23785,7 @@
         <v>1581</v>
       </c>
       <c r="E439">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F439" t="s">
         <v>1628</v>
@@ -23820,7 +23820,7 @@
         <v>1581</v>
       </c>
       <c r="E440">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F440" t="s">
         <v>1628</v>
@@ -23855,7 +23855,7 @@
         <v>1582</v>
       </c>
       <c r="E441">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F441" t="s">
         <v>1628</v>
@@ -23890,7 +23890,7 @@
         <v>1582</v>
       </c>
       <c r="E442">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F442" t="s">
         <v>1628</v>
@@ -23925,7 +23925,7 @@
         <v>1583</v>
       </c>
       <c r="E443">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F443" t="s">
         <v>1628</v>
@@ -23963,7 +23963,7 @@
         <v>1583</v>
       </c>
       <c r="E444">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F444" t="s">
         <v>1628</v>
@@ -23998,7 +23998,7 @@
         <v>1583</v>
       </c>
       <c r="E445">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F445" t="s">
         <v>1628</v>
@@ -24033,7 +24033,7 @@
         <v>1584</v>
       </c>
       <c r="E446">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F446" t="s">
         <v>1628</v>
@@ -24068,7 +24068,7 @@
         <v>1584</v>
       </c>
       <c r="E447">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F447" t="s">
         <v>1628</v>
@@ -24103,7 +24103,7 @@
         <v>1584</v>
       </c>
       <c r="E448">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F448" t="s">
         <v>1628</v>
@@ -24138,7 +24138,7 @@
         <v>1584</v>
       </c>
       <c r="E449">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F449" t="s">
         <v>1628</v>
@@ -24173,7 +24173,7 @@
         <v>1584</v>
       </c>
       <c r="E450">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F450" t="s">
         <v>1628</v>
@@ -24208,7 +24208,7 @@
         <v>1584</v>
       </c>
       <c r="E451">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F451" t="s">
         <v>1628</v>
@@ -24246,7 +24246,7 @@
         <v>1584</v>
       </c>
       <c r="E452">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F452" t="s">
         <v>1628</v>
@@ -24281,7 +24281,7 @@
         <v>1585</v>
       </c>
       <c r="E453">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F453" t="s">
         <v>1628</v>
@@ -24319,7 +24319,7 @@
         <v>1585</v>
       </c>
       <c r="E454">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F454" t="s">
         <v>1628</v>
@@ -24354,7 +24354,7 @@
         <v>1585</v>
       </c>
       <c r="E455">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F455" t="s">
         <v>1628</v>
@@ -24389,7 +24389,7 @@
         <v>1585</v>
       </c>
       <c r="E456">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F456" t="s">
         <v>1628</v>
@@ -24424,7 +24424,7 @@
         <v>1585</v>
       </c>
       <c r="E457">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F457" t="s">
         <v>1628</v>
@@ -24459,7 +24459,7 @@
         <v>1585</v>
       </c>
       <c r="E458">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F458" t="s">
         <v>1628</v>
@@ -24494,7 +24494,7 @@
         <v>1585</v>
       </c>
       <c r="E459">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F459" t="s">
         <v>1628</v>
@@ -24532,7 +24532,7 @@
         <v>1585</v>
       </c>
       <c r="E460">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F460" t="s">
         <v>1628</v>
@@ -24567,7 +24567,7 @@
         <v>1586</v>
       </c>
       <c r="E461">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F461" t="s">
         <v>1628</v>
@@ -24602,7 +24602,7 @@
         <v>1587</v>
       </c>
       <c r="E462">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F462" t="s">
         <v>1631</v>
@@ -24637,7 +24637,7 @@
         <v>1587</v>
       </c>
       <c r="E463">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F463" t="s">
         <v>1628</v>
@@ -24672,7 +24672,7 @@
         <v>1587</v>
       </c>
       <c r="E464">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F464" t="s">
         <v>1628</v>
@@ -24707,7 +24707,7 @@
         <v>1587</v>
       </c>
       <c r="E465">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F465" t="s">
         <v>1628</v>
@@ -24742,7 +24742,7 @@
         <v>1587</v>
       </c>
       <c r="E466">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F466" t="s">
         <v>1628</v>
@@ -24777,7 +24777,7 @@
         <v>1588</v>
       </c>
       <c r="E467">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F467" t="s">
         <v>1628</v>
@@ -24812,7 +24812,7 @@
         <v>1588</v>
       </c>
       <c r="E468">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F468" t="s">
         <v>1628</v>
@@ -24850,7 +24850,7 @@
         <v>1588</v>
       </c>
       <c r="E469">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F469" t="s">
         <v>1628</v>
@@ -24885,7 +24885,7 @@
         <v>1588</v>
       </c>
       <c r="E470">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F470" t="s">
         <v>1628</v>
@@ -24920,7 +24920,7 @@
         <v>1588</v>
       </c>
       <c r="E471">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F471" t="s">
         <v>1628</v>
@@ -24955,7 +24955,7 @@
         <v>1588</v>
       </c>
       <c r="E472">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F472" t="s">
         <v>1628</v>
@@ -24990,7 +24990,7 @@
         <v>1588</v>
       </c>
       <c r="E473">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F473" t="s">
         <v>1628</v>
@@ -25025,7 +25025,7 @@
         <v>1588</v>
       </c>
       <c r="E474">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F474" t="s">
         <v>1628</v>
@@ -25060,7 +25060,7 @@
         <v>1588</v>
       </c>
       <c r="E475">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F475" t="s">
         <v>1628</v>
@@ -25095,7 +25095,7 @@
         <v>1588</v>
       </c>
       <c r="E476">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F476" t="s">
         <v>1628</v>
@@ -25130,7 +25130,7 @@
         <v>1588</v>
       </c>
       <c r="E477">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F477" t="s">
         <v>1628</v>
@@ -25165,7 +25165,7 @@
         <v>1589</v>
       </c>
       <c r="E478">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F478" t="s">
         <v>1628</v>
@@ -25200,7 +25200,7 @@
         <v>1590</v>
       </c>
       <c r="E479">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F479" t="s">
         <v>1628</v>
@@ -25235,7 +25235,7 @@
         <v>1590</v>
       </c>
       <c r="E480">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F480" t="s">
         <v>1628</v>
@@ -25270,7 +25270,7 @@
         <v>1590</v>
       </c>
       <c r="E481">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F481" t="s">
         <v>1628</v>
@@ -25305,7 +25305,7 @@
         <v>1590</v>
       </c>
       <c r="E482">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F482" t="s">
         <v>1628</v>
@@ -25340,7 +25340,7 @@
         <v>1590</v>
       </c>
       <c r="E483">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F483" t="s">
         <v>1631</v>
@@ -25375,7 +25375,7 @@
         <v>1591</v>
       </c>
       <c r="E484">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F484" t="s">
         <v>1628</v>
@@ -25410,7 +25410,7 @@
         <v>1591</v>
       </c>
       <c r="E485">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F485" t="s">
         <v>1631</v>
@@ -25448,7 +25448,7 @@
         <v>1591</v>
       </c>
       <c r="E486">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F486" t="s">
         <v>1628</v>
@@ -25483,7 +25483,7 @@
         <v>1591</v>
       </c>
       <c r="E487">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F487" t="s">
         <v>1628</v>
@@ -25518,7 +25518,7 @@
         <v>1592</v>
       </c>
       <c r="E488">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F488" t="s">
         <v>1628</v>
@@ -25553,7 +25553,7 @@
         <v>1592</v>
       </c>
       <c r="E489">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F489" t="s">
         <v>1628</v>
@@ -25588,7 +25588,7 @@
         <v>1592</v>
       </c>
       <c r="E490">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F490" t="s">
         <v>1628</v>
@@ -25623,7 +25623,7 @@
         <v>1592</v>
       </c>
       <c r="E491">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F491" t="s">
         <v>1631</v>
@@ -25658,7 +25658,7 @@
         <v>1592</v>
       </c>
       <c r="E492">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F492" t="s">
         <v>1628</v>
@@ -25693,7 +25693,7 @@
         <v>1593</v>
       </c>
       <c r="E493">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F493" t="s">
         <v>1628</v>
@@ -25731,7 +25731,7 @@
         <v>1593</v>
       </c>
       <c r="E494">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F494" t="s">
         <v>1628</v>
@@ -25766,7 +25766,7 @@
         <v>1593</v>
       </c>
       <c r="E495">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F495" t="s">
         <v>1628</v>
@@ -25801,7 +25801,7 @@
         <v>1594</v>
       </c>
       <c r="E496">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F496" t="s">
         <v>1628</v>
@@ -25836,7 +25836,7 @@
         <v>1594</v>
       </c>
       <c r="E497">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F497" t="s">
         <v>1628</v>
@@ -25871,7 +25871,7 @@
         <v>1594</v>
       </c>
       <c r="E498">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F498" t="s">
         <v>1628</v>
@@ -25906,7 +25906,7 @@
         <v>1594</v>
       </c>
       <c r="E499">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F499" t="s">
         <v>1631</v>
@@ -25941,7 +25941,7 @@
         <v>1594</v>
       </c>
       <c r="E500">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F500" t="s">
         <v>1631</v>
@@ -25976,7 +25976,7 @@
         <v>1594</v>
       </c>
       <c r="E501">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F501" t="s">
         <v>1631</v>
@@ -26011,7 +26011,7 @@
         <v>1594</v>
       </c>
       <c r="E502">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F502" t="s">
         <v>1628</v>
@@ -26046,7 +26046,7 @@
         <v>1594</v>
       </c>
       <c r="E503">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F503" t="s">
         <v>1628</v>
@@ -26081,7 +26081,7 @@
         <v>1594</v>
       </c>
       <c r="E504">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F504" t="s">
         <v>1628</v>
@@ -26116,7 +26116,7 @@
         <v>1594</v>
       </c>
       <c r="E505">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F505" t="s">
         <v>1628</v>
@@ -26151,7 +26151,7 @@
         <v>1594</v>
       </c>
       <c r="E506">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F506" t="s">
         <v>1628</v>
@@ -26186,7 +26186,7 @@
         <v>1595</v>
       </c>
       <c r="E507">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F507" t="s">
         <v>1628</v>
@@ -26221,7 +26221,7 @@
         <v>1595</v>
       </c>
       <c r="E508">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F508" t="s">
         <v>1628</v>
@@ -26256,7 +26256,7 @@
         <v>1595</v>
       </c>
       <c r="E509">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F509" t="s">
         <v>1628</v>
@@ -26291,7 +26291,7 @@
         <v>1595</v>
       </c>
       <c r="E510">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F510" t="s">
         <v>1628</v>
@@ -26326,7 +26326,7 @@
         <v>1595</v>
       </c>
       <c r="E511">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F511" t="s">
         <v>1628</v>
@@ -26361,7 +26361,7 @@
         <v>1595</v>
       </c>
       <c r="E512">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F512" t="s">
         <v>1628</v>
@@ -26396,7 +26396,7 @@
         <v>1595</v>
       </c>
       <c r="E513">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F513" t="s">
         <v>1628</v>
@@ -26431,7 +26431,7 @@
         <v>1595</v>
       </c>
       <c r="E514">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F514" t="s">
         <v>1631</v>
@@ -26466,7 +26466,7 @@
         <v>1595</v>
       </c>
       <c r="E515">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F515" t="s">
         <v>1631</v>
@@ -26501,7 +26501,7 @@
         <v>1595</v>
       </c>
       <c r="E516">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F516" t="s">
         <v>1628</v>
@@ -26536,7 +26536,7 @@
         <v>1595</v>
       </c>
       <c r="E517">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F517" t="s">
         <v>1631</v>
@@ -26571,7 +26571,7 @@
         <v>1595</v>
       </c>
       <c r="E518">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F518" t="s">
         <v>1628</v>
@@ -26606,7 +26606,7 @@
         <v>1595</v>
       </c>
       <c r="E519">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F519" t="s">
         <v>1628</v>
@@ -26641,7 +26641,7 @@
         <v>1595</v>
       </c>
       <c r="E520">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F520" t="s">
         <v>1628</v>
@@ -26676,7 +26676,7 @@
         <v>1596</v>
       </c>
       <c r="E521">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F521" t="s">
         <v>1628</v>
@@ -26711,7 +26711,7 @@
         <v>1596</v>
       </c>
       <c r="E522">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F522" t="s">
         <v>1628</v>
@@ -26746,7 +26746,7 @@
         <v>1596</v>
       </c>
       <c r="E523">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F523" t="s">
         <v>1628</v>
@@ -26784,7 +26784,7 @@
         <v>1596</v>
       </c>
       <c r="E524">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F524" t="s">
         <v>1628</v>
@@ -26822,7 +26822,7 @@
         <v>1596</v>
       </c>
       <c r="E525">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F525" t="s">
         <v>1628</v>
@@ -26857,7 +26857,7 @@
         <v>1596</v>
       </c>
       <c r="E526">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F526" t="s">
         <v>1628</v>
@@ -26892,7 +26892,7 @@
         <v>1597</v>
       </c>
       <c r="E527">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F527" t="s">
         <v>1628</v>
@@ -26927,7 +26927,7 @@
         <v>1597</v>
       </c>
       <c r="E528">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F528" t="s">
         <v>1628</v>
@@ -26962,7 +26962,7 @@
         <v>1597</v>
       </c>
       <c r="E529">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F529" t="s">
         <v>1628</v>
@@ -26997,7 +26997,7 @@
         <v>1597</v>
       </c>
       <c r="E530">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F530" t="s">
         <v>1628</v>
@@ -27032,7 +27032,7 @@
         <v>1597</v>
       </c>
       <c r="E531">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F531" t="s">
         <v>1628</v>
@@ -27067,7 +27067,7 @@
         <v>1598</v>
       </c>
       <c r="E532">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F532" t="s">
         <v>1628</v>
@@ -27102,7 +27102,7 @@
         <v>1599</v>
       </c>
       <c r="E533">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F533" t="s">
         <v>1628</v>
@@ -27137,7 +27137,7 @@
         <v>1600</v>
       </c>
       <c r="E534">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F534" t="s">
         <v>1628</v>
@@ -27172,7 +27172,7 @@
         <v>1600</v>
       </c>
       <c r="E535">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F535" t="s">
         <v>1628</v>
@@ -27207,7 +27207,7 @@
         <v>1601</v>
       </c>
       <c r="E536">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F536" t="s">
         <v>1628</v>
@@ -27242,7 +27242,7 @@
         <v>1601</v>
       </c>
       <c r="E537">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F537" t="s">
         <v>1628</v>
@@ -27277,7 +27277,7 @@
         <v>1602</v>
       </c>
       <c r="E538">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F538" t="s">
         <v>1631</v>
@@ -27315,7 +27315,7 @@
         <v>1602</v>
       </c>
       <c r="E539">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F539" t="s">
         <v>1628</v>
@@ -27350,7 +27350,7 @@
         <v>1602</v>
       </c>
       <c r="E540">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F540" t="s">
         <v>1628</v>
@@ -27385,7 +27385,7 @@
         <v>1603</v>
       </c>
       <c r="E541">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F541" t="s">
         <v>1631</v>
@@ -27423,7 +27423,7 @@
         <v>1603</v>
       </c>
       <c r="E542">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F542" t="s">
         <v>1628</v>
@@ -27458,7 +27458,7 @@
         <v>1603</v>
       </c>
       <c r="E543">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F543" t="s">
         <v>1631</v>
@@ -27496,7 +27496,7 @@
         <v>1603</v>
       </c>
       <c r="E544">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F544" t="s">
         <v>1628</v>
@@ -27531,7 +27531,7 @@
         <v>1603</v>
       </c>
       <c r="E545">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F545" t="s">
         <v>1628</v>
@@ -27566,7 +27566,7 @@
         <v>1603</v>
       </c>
       <c r="E546">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F546" t="s">
         <v>1629</v>
@@ -27601,7 +27601,7 @@
         <v>1604</v>
       </c>
       <c r="E547">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F547" t="s">
         <v>1628</v>
@@ -27639,7 +27639,7 @@
         <v>1604</v>
       </c>
       <c r="E548">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F548" t="s">
         <v>1628</v>
@@ -27677,7 +27677,7 @@
         <v>1604</v>
       </c>
       <c r="E549">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F549" t="s">
         <v>1628</v>
@@ -27715,7 +27715,7 @@
         <v>1604</v>
       </c>
       <c r="E550">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F550" t="s">
         <v>1628</v>
@@ -27753,7 +27753,7 @@
         <v>1604</v>
       </c>
       <c r="E551">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F551" t="s">
         <v>1628</v>
@@ -27788,7 +27788,7 @@
         <v>1604</v>
       </c>
       <c r="E552">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F552" t="s">
         <v>1628</v>
@@ -27823,7 +27823,7 @@
         <v>1604</v>
       </c>
       <c r="E553">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F553" t="s">
         <v>1628</v>
@@ -27858,7 +27858,7 @@
         <v>1605</v>
       </c>
       <c r="E554">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F554" t="s">
         <v>1628</v>
@@ -27893,7 +27893,7 @@
         <v>1605</v>
       </c>
       <c r="E555">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F555" t="s">
         <v>1628</v>
@@ -27928,7 +27928,7 @@
         <v>1605</v>
       </c>
       <c r="E556">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F556" t="s">
         <v>1628</v>
@@ -27963,7 +27963,7 @@
         <v>1605</v>
       </c>
       <c r="E557">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F557" t="s">
         <v>1628</v>
@@ -27998,7 +27998,7 @@
         <v>1605</v>
       </c>
       <c r="E558">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F558" t="s">
         <v>1628</v>
@@ -28033,7 +28033,7 @@
         <v>1605</v>
       </c>
       <c r="E559">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F559" t="s">
         <v>1628</v>
@@ -28068,7 +28068,7 @@
         <v>1606</v>
       </c>
       <c r="E560">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F560" t="s">
         <v>1628</v>
@@ -28103,7 +28103,7 @@
         <v>1606</v>
       </c>
       <c r="E561">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F561" t="s">
         <v>1628</v>
@@ -28138,7 +28138,7 @@
         <v>1606</v>
       </c>
       <c r="E562">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F562" t="s">
         <v>1628</v>
@@ -28173,7 +28173,7 @@
         <v>1606</v>
       </c>
       <c r="E563">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F563" t="s">
         <v>1628</v>
@@ -28208,7 +28208,7 @@
         <v>1606</v>
       </c>
       <c r="E564">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F564" t="s">
         <v>1628</v>
@@ -28243,7 +28243,7 @@
         <v>1606</v>
       </c>
       <c r="E565">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F565" t="s">
         <v>1631</v>
@@ -28281,7 +28281,7 @@
         <v>1607</v>
       </c>
       <c r="E566">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F566" t="s">
         <v>1631</v>
@@ -28319,7 +28319,7 @@
         <v>1607</v>
       </c>
       <c r="E567">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F567" t="s">
         <v>1628</v>
@@ -28354,7 +28354,7 @@
         <v>1607</v>
       </c>
       <c r="E568">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F568" t="s">
         <v>1628</v>
@@ -28389,7 +28389,7 @@
         <v>1607</v>
       </c>
       <c r="E569">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F569" t="s">
         <v>1628</v>
@@ -28424,7 +28424,7 @@
         <v>1607</v>
       </c>
       <c r="E570">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F570" t="s">
         <v>1631</v>
@@ -28459,7 +28459,7 @@
         <v>1607</v>
       </c>
       <c r="E571">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F571" t="s">
         <v>1628</v>
@@ -28494,7 +28494,7 @@
         <v>1607</v>
       </c>
       <c r="E572">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F572" t="s">
         <v>1628</v>
@@ -28532,7 +28532,7 @@
         <v>1608</v>
       </c>
       <c r="E573">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F573" t="s">
         <v>1628</v>
@@ -28567,7 +28567,7 @@
         <v>1608</v>
       </c>
       <c r="E574">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F574" t="s">
         <v>1628</v>
@@ -28602,7 +28602,7 @@
         <v>1608</v>
       </c>
       <c r="E575">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F575" t="s">
         <v>1628</v>
@@ -28637,7 +28637,7 @@
         <v>1608</v>
       </c>
       <c r="E576">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F576" t="s">
         <v>1628</v>
@@ -28672,7 +28672,7 @@
         <v>1609</v>
       </c>
       <c r="E577">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F577" t="s">
         <v>1628</v>
@@ -28707,7 +28707,7 @@
         <v>1609</v>
       </c>
       <c r="E578">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F578" t="s">
         <v>1628</v>
@@ -28742,7 +28742,7 @@
         <v>1609</v>
       </c>
       <c r="E579">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F579" t="s">
         <v>1631</v>
@@ -28780,7 +28780,7 @@
         <v>1609</v>
       </c>
       <c r="E580">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F580" t="s">
         <v>1628</v>
@@ -28815,7 +28815,7 @@
         <v>1609</v>
       </c>
       <c r="E581">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F581" t="s">
         <v>1628</v>
@@ -28850,7 +28850,7 @@
         <v>1609</v>
       </c>
       <c r="E582">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F582" t="s">
         <v>1628</v>
@@ -28885,7 +28885,7 @@
         <v>1610</v>
       </c>
       <c r="E583">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F583" t="s">
         <v>1628</v>
@@ -28920,7 +28920,7 @@
         <v>1610</v>
       </c>
       <c r="E584">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F584" t="s">
         <v>1628</v>
@@ -28955,7 +28955,7 @@
         <v>1610</v>
       </c>
       <c r="E585">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F585" t="s">
         <v>1631</v>
@@ -28993,7 +28993,7 @@
         <v>1610</v>
       </c>
       <c r="E586">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F586" t="s">
         <v>1628</v>
@@ -29028,7 +29028,7 @@
         <v>1610</v>
       </c>
       <c r="E587">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F587" t="s">
         <v>1628</v>
@@ -29063,7 +29063,7 @@
         <v>1610</v>
       </c>
       <c r="E588">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F588" t="s">
         <v>1628</v>
@@ -29098,7 +29098,7 @@
         <v>1610</v>
       </c>
       <c r="E589">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F589" t="s">
         <v>1628</v>
@@ -29133,7 +29133,7 @@
         <v>1611</v>
       </c>
       <c r="E590">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F590" t="s">
         <v>1628</v>
@@ -29168,7 +29168,7 @@
         <v>1611</v>
       </c>
       <c r="E591">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F591" t="s">
         <v>1628</v>
@@ -29203,7 +29203,7 @@
         <v>1611</v>
       </c>
       <c r="E592">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F592" t="s">
         <v>1628</v>
@@ -29238,7 +29238,7 @@
         <v>1612</v>
       </c>
       <c r="E593">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F593" t="s">
         <v>1628</v>
@@ -29273,7 +29273,7 @@
         <v>1612</v>
       </c>
       <c r="E594">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F594" t="s">
         <v>1628</v>
@@ -29308,7 +29308,7 @@
         <v>1612</v>
       </c>
       <c r="E595">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F595" t="s">
         <v>1628</v>
@@ -29343,7 +29343,7 @@
         <v>1612</v>
       </c>
       <c r="E596">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F596" t="s">
         <v>1628</v>
@@ -29378,7 +29378,7 @@
         <v>1613</v>
       </c>
       <c r="E597">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F597" t="s">
         <v>1631</v>
@@ -29416,7 +29416,7 @@
         <v>1613</v>
       </c>
       <c r="E598">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F598" t="s">
         <v>1631</v>
@@ -29454,7 +29454,7 @@
         <v>1613</v>
       </c>
       <c r="E599">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F599" t="s">
         <v>1631</v>
@@ -29492,7 +29492,7 @@
         <v>1613</v>
       </c>
       <c r="E600">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F600" t="s">
         <v>1628</v>
@@ -29527,7 +29527,7 @@
         <v>1613</v>
       </c>
       <c r="E601">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F601" t="s">
         <v>1628</v>
@@ -29562,7 +29562,7 @@
         <v>1613</v>
       </c>
       <c r="E602">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F602" t="s">
         <v>1628</v>
@@ -29597,7 +29597,7 @@
         <v>1613</v>
       </c>
       <c r="E603">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F603" t="s">
         <v>1631</v>
@@ -29635,7 +29635,7 @@
         <v>1613</v>
       </c>
       <c r="E604">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F604" t="s">
         <v>1628</v>
@@ -29670,7 +29670,7 @@
         <v>1613</v>
       </c>
       <c r="E605">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F605" t="s">
         <v>1628</v>
@@ -29705,7 +29705,7 @@
         <v>1614</v>
       </c>
       <c r="E606">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F606" t="s">
         <v>1631</v>
@@ -29743,7 +29743,7 @@
         <v>1614</v>
       </c>
       <c r="E607">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F607" t="s">
         <v>1631</v>
@@ -29781,7 +29781,7 @@
         <v>1614</v>
       </c>
       <c r="E608">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F608" t="s">
         <v>1628</v>
@@ -29816,7 +29816,7 @@
         <v>1614</v>
       </c>
       <c r="E609">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F609" t="s">
         <v>1628</v>
@@ -29851,7 +29851,7 @@
         <v>1614</v>
       </c>
       <c r="E610">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F610" t="s">
         <v>1631</v>
@@ -29889,7 +29889,7 @@
         <v>1615</v>
       </c>
       <c r="E611">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F611" t="s">
         <v>1628</v>
@@ -29924,7 +29924,7 @@
         <v>1616</v>
       </c>
       <c r="E612">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F612" t="s">
         <v>1628</v>
@@ -29962,7 +29962,7 @@
         <v>1616</v>
       </c>
       <c r="E613">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F613" t="s">
         <v>1628</v>
@@ -29997,7 +29997,7 @@
         <v>1616</v>
       </c>
       <c r="E614">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F614" t="s">
         <v>1628</v>
@@ -30032,7 +30032,7 @@
         <v>1616</v>
       </c>
       <c r="E615">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F615" t="s">
         <v>1628</v>
@@ -30067,7 +30067,7 @@
         <v>1617</v>
       </c>
       <c r="E616">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F616" t="s">
         <v>1631</v>
@@ -30105,7 +30105,7 @@
         <v>1617</v>
       </c>
       <c r="E617">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F617" t="s">
         <v>1631</v>
@@ -30143,7 +30143,7 @@
         <v>1617</v>
       </c>
       <c r="E618">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F618" t="s">
         <v>1628</v>
@@ -30178,7 +30178,7 @@
         <v>1617</v>
       </c>
       <c r="E619">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F619" t="s">
         <v>1628</v>
@@ -30213,7 +30213,7 @@
         <v>1617</v>
       </c>
       <c r="E620">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F620" t="s">
         <v>1628</v>
@@ -30248,7 +30248,7 @@
         <v>1617</v>
       </c>
       <c r="E621">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F621" t="s">
         <v>1628</v>
@@ -30283,7 +30283,7 @@
         <v>1618</v>
       </c>
       <c r="E622">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F622" t="s">
         <v>1628</v>
@@ -30318,7 +30318,7 @@
         <v>1618</v>
       </c>
       <c r="E623">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F623" t="s">
         <v>1628</v>
@@ -30353,7 +30353,7 @@
         <v>1618</v>
       </c>
       <c r="E624">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F624" t="s">
         <v>1630</v>
@@ -30388,7 +30388,7 @@
         <v>1618</v>
       </c>
       <c r="E625">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F625" t="s">
         <v>1631</v>
@@ -30426,7 +30426,7 @@
         <v>1618</v>
       </c>
       <c r="E626">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F626" t="s">
         <v>1628</v>
@@ -30461,7 +30461,7 @@
         <v>1618</v>
       </c>
       <c r="E627">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F627" t="s">
         <v>1628</v>
@@ -30496,7 +30496,7 @@
         <v>1618</v>
       </c>
       <c r="E628">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F628" t="s">
         <v>1628</v>
@@ -30534,7 +30534,7 @@
         <v>1618</v>
       </c>
       <c r="E629">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F629" t="s">
         <v>1628</v>
@@ -30569,7 +30569,7 @@
         <v>1619</v>
       </c>
       <c r="E630">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F630" t="s">
         <v>1628</v>
@@ -30604,7 +30604,7 @@
         <v>1619</v>
       </c>
       <c r="E631">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F631" t="s">
         <v>1628</v>
@@ -30639,7 +30639,7 @@
         <v>1619</v>
       </c>
       <c r="E632">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F632" t="s">
         <v>1628</v>
@@ -30674,7 +30674,7 @@
         <v>1619</v>
       </c>
       <c r="E633">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F633" t="s">
         <v>1628</v>
@@ -30709,7 +30709,7 @@
         <v>1619</v>
       </c>
       <c r="E634">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F634" t="s">
         <v>1628</v>
@@ -30744,7 +30744,7 @@
         <v>1619</v>
       </c>
       <c r="E635">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F635" t="s">
         <v>1631</v>
@@ -30782,7 +30782,7 @@
         <v>1619</v>
       </c>
       <c r="E636">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F636" t="s">
         <v>1631</v>
@@ -30820,7 +30820,7 @@
         <v>1619</v>
       </c>
       <c r="E637">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F637" t="s">
         <v>1628</v>
@@ -30855,7 +30855,7 @@
         <v>1620</v>
       </c>
       <c r="E638">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F638" t="s">
         <v>1628</v>
@@ -30890,7 +30890,7 @@
         <v>1620</v>
       </c>
       <c r="E639">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F639" t="s">
         <v>1628</v>
@@ -30925,7 +30925,7 @@
         <v>1620</v>
       </c>
       <c r="E640">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F640" t="s">
         <v>1631</v>
@@ -30963,7 +30963,7 @@
         <v>1620</v>
       </c>
       <c r="E641">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F641" t="s">
         <v>1628</v>
@@ -30998,7 +30998,7 @@
         <v>1620</v>
       </c>
       <c r="E642">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F642" t="s">
         <v>1628</v>
@@ -31033,7 +31033,7 @@
         <v>1620</v>
       </c>
       <c r="E643">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F643" t="s">
         <v>1628</v>
@@ -31068,7 +31068,7 @@
         <v>1621</v>
       </c>
       <c r="E644">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F644" t="s">
         <v>1628</v>
@@ -31103,7 +31103,7 @@
         <v>1621</v>
       </c>
       <c r="E645">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F645" t="s">
         <v>1631</v>
@@ -31138,7 +31138,7 @@
         <v>1621</v>
       </c>
       <c r="E646">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F646" t="s">
         <v>1628</v>
@@ -31173,7 +31173,7 @@
         <v>1621</v>
       </c>
       <c r="E647">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F647" t="s">
         <v>1628</v>
@@ -31208,7 +31208,7 @@
         <v>1621</v>
       </c>
       <c r="E648">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F648" t="s">
         <v>1628</v>
@@ -31243,7 +31243,7 @@
         <v>1621</v>
       </c>
       <c r="E649">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F649" t="s">
         <v>1628</v>
@@ -31278,7 +31278,7 @@
         <v>1621</v>
       </c>
       <c r="E650">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F650" t="s">
         <v>1631</v>
@@ -31313,7 +31313,7 @@
         <v>1622</v>
       </c>
       <c r="E651">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F651" t="s">
         <v>1628</v>
@@ -31348,7 +31348,7 @@
         <v>1622</v>
       </c>
       <c r="E652">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F652" t="s">
         <v>1628</v>
@@ -31386,7 +31386,7 @@
         <v>1622</v>
       </c>
       <c r="E653">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F653" t="s">
         <v>1628</v>
@@ -31424,7 +31424,7 @@
         <v>1622</v>
       </c>
       <c r="E654">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F654" t="s">
         <v>1628</v>
@@ -31459,7 +31459,7 @@
         <v>1622</v>
       </c>
       <c r="E655">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F655" t="s">
         <v>1628</v>
@@ -31494,7 +31494,7 @@
         <v>1622</v>
       </c>
       <c r="E656">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F656" t="s">
         <v>1627</v>
@@ -31529,7 +31529,7 @@
         <v>1622</v>
       </c>
       <c r="E657">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F657" t="s">
         <v>1628</v>
@@ -31564,7 +31564,7 @@
         <v>1623</v>
       </c>
       <c r="E658">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F658" t="s">
         <v>1628</v>
@@ -31599,7 +31599,7 @@
         <v>1623</v>
       </c>
       <c r="E659">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F659" t="s">
         <v>1628</v>
@@ -31634,7 +31634,7 @@
         <v>1623</v>
       </c>
       <c r="E660">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F660" t="s">
         <v>1628</v>
@@ -31669,7 +31669,7 @@
         <v>1623</v>
       </c>
       <c r="E661">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F661" t="s">
         <v>1631</v>
@@ -31707,7 +31707,7 @@
         <v>1623</v>
       </c>
       <c r="E662">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F662" t="s">
         <v>1628</v>
@@ -31742,7 +31742,7 @@
         <v>1623</v>
       </c>
       <c r="E663">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F663" t="s">
         <v>1631</v>
@@ -31780,7 +31780,7 @@
         <v>1623</v>
       </c>
       <c r="E664">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F664" t="s">
         <v>1628</v>
@@ -31818,7 +31818,7 @@
         <v>1623</v>
       </c>
       <c r="E665">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F665" t="s">
         <v>1631</v>
@@ -31856,7 +31856,7 @@
         <v>1623</v>
       </c>
       <c r="E666">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F666" t="s">
         <v>1628</v>
@@ -31891,7 +31891,7 @@
         <v>1623</v>
       </c>
       <c r="E667">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F667" t="s">
         <v>1628</v>
@@ -31926,7 +31926,7 @@
         <v>1624</v>
       </c>
       <c r="E668">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F668" t="s">
         <v>1628</v>
@@ -31961,7 +31961,7 @@
         <v>1624</v>
       </c>
       <c r="E669">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F669" t="s">
         <v>1628</v>
@@ -31999,7 +31999,7 @@
         <v>1624</v>
       </c>
       <c r="E670">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F670" t="s">
         <v>1628</v>
@@ -32034,7 +32034,7 @@
         <v>1624</v>
       </c>
       <c r="E671">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F671" t="s">
         <v>1628</v>
@@ -32069,7 +32069,7 @@
         <v>1624</v>
       </c>
       <c r="E672">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F672" t="s">
         <v>1631</v>
@@ -32107,7 +32107,7 @@
         <v>1625</v>
       </c>
       <c r="E673">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F673" t="s">
         <v>1628</v>
@@ -32142,7 +32142,7 @@
         <v>1625</v>
       </c>
       <c r="E674">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F674" t="s">
         <v>1628</v>
@@ -32177,7 +32177,7 @@
         <v>1625</v>
       </c>
       <c r="E675">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F675" t="s">
         <v>1632</v>
@@ -32212,7 +32212,7 @@
         <v>1626</v>
       </c>
       <c r="E676">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F676" t="s">
         <v>1628</v>
@@ -32247,7 +32247,7 @@
         <v>1626</v>
       </c>
       <c r="E677">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F677" t="s">
         <v>1628</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -8403,7 +8403,7 @@
         <v>1399</v>
       </c>
       <c r="E2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F2" t="s">
         <v>1627</v>
@@ -8438,7 +8438,7 @@
         <v>1400</v>
       </c>
       <c r="E3">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F3" t="s">
         <v>1627</v>
@@ -8473,7 +8473,7 @@
         <v>1401</v>
       </c>
       <c r="E4">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F4" t="s">
         <v>1627</v>
@@ -8508,7 +8508,7 @@
         <v>1402</v>
       </c>
       <c r="E5">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F5" t="s">
         <v>1627</v>
@@ -8543,7 +8543,7 @@
         <v>1403</v>
       </c>
       <c r="E6">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F6" t="s">
         <v>1627</v>
@@ -8578,7 +8578,7 @@
         <v>1404</v>
       </c>
       <c r="E7">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F7" t="s">
         <v>1627</v>
@@ -8613,7 +8613,7 @@
         <v>1405</v>
       </c>
       <c r="E8">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F8" t="s">
         <v>1627</v>
@@ -8651,7 +8651,7 @@
         <v>1406</v>
       </c>
       <c r="E9">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F9" t="s">
         <v>1627</v>
@@ -8686,7 +8686,7 @@
         <v>1407</v>
       </c>
       <c r="E10">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F10" t="s">
         <v>1627</v>
@@ -8721,7 +8721,7 @@
         <v>1408</v>
       </c>
       <c r="E11">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F11" t="s">
         <v>1627</v>
@@ -8756,7 +8756,7 @@
         <v>1409</v>
       </c>
       <c r="E12">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F12" t="s">
         <v>1627</v>
@@ -8791,7 +8791,7 @@
         <v>1410</v>
       </c>
       <c r="E13">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F13" t="s">
         <v>1627</v>
@@ -8826,7 +8826,7 @@
         <v>1411</v>
       </c>
       <c r="E14">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F14" t="s">
         <v>1627</v>
@@ -8861,7 +8861,7 @@
         <v>1412</v>
       </c>
       <c r="E15">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F15" t="s">
         <v>1627</v>
@@ -8896,7 +8896,7 @@
         <v>1412</v>
       </c>
       <c r="E16">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
         <v>1627</v>
@@ -8931,7 +8931,7 @@
         <v>1413</v>
       </c>
       <c r="E17">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F17" t="s">
         <v>1627</v>
@@ -8966,7 +8966,7 @@
         <v>1414</v>
       </c>
       <c r="E18">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F18" t="s">
         <v>1627</v>
@@ -9001,7 +9001,7 @@
         <v>1415</v>
       </c>
       <c r="E19">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
         <v>1627</v>
@@ -9036,7 +9036,7 @@
         <v>1416</v>
       </c>
       <c r="E20">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
         <v>1627</v>
@@ -9071,7 +9071,7 @@
         <v>1417</v>
       </c>
       <c r="E21">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F21" t="s">
         <v>1627</v>
@@ -9106,7 +9106,7 @@
         <v>1418</v>
       </c>
       <c r="E22">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F22" t="s">
         <v>1627</v>
@@ -9141,7 +9141,7 @@
         <v>1418</v>
       </c>
       <c r="E23">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
         <v>1627</v>
@@ -9176,7 +9176,7 @@
         <v>1419</v>
       </c>
       <c r="E24">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F24" t="s">
         <v>1627</v>
@@ -9211,7 +9211,7 @@
         <v>1420</v>
       </c>
       <c r="E25">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F25" t="s">
         <v>1627</v>
@@ -9249,7 +9249,7 @@
         <v>1421</v>
       </c>
       <c r="E26">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F26" t="s">
         <v>1627</v>
@@ -9284,7 +9284,7 @@
         <v>1422</v>
       </c>
       <c r="E27">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F27" t="s">
         <v>1627</v>
@@ -9319,7 +9319,7 @@
         <v>1423</v>
       </c>
       <c r="E28">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F28" t="s">
         <v>1627</v>
@@ -9354,7 +9354,7 @@
         <v>1424</v>
       </c>
       <c r="E29">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
         <v>1627</v>
@@ -9389,7 +9389,7 @@
         <v>1425</v>
       </c>
       <c r="E30">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
         <v>1627</v>
@@ -9424,7 +9424,7 @@
         <v>1426</v>
       </c>
       <c r="E31">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F31" t="s">
         <v>1627</v>
@@ -9459,7 +9459,7 @@
         <v>1427</v>
       </c>
       <c r="E32">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
         <v>1627</v>
@@ -9494,7 +9494,7 @@
         <v>1428</v>
       </c>
       <c r="E33">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F33" t="s">
         <v>1627</v>
@@ -9529,7 +9529,7 @@
         <v>1429</v>
       </c>
       <c r="E34">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F34" t="s">
         <v>1627</v>
@@ -9564,7 +9564,7 @@
         <v>1430</v>
       </c>
       <c r="E35">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F35" t="s">
         <v>1627</v>
@@ -9599,7 +9599,7 @@
         <v>1430</v>
       </c>
       <c r="E36">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F36" t="s">
         <v>1627</v>
@@ -9634,7 +9634,7 @@
         <v>1431</v>
       </c>
       <c r="E37">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F37" t="s">
         <v>1627</v>
@@ -9669,7 +9669,7 @@
         <v>1432</v>
       </c>
       <c r="E38">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F38" t="s">
         <v>1627</v>
@@ -9704,7 +9704,7 @@
         <v>1433</v>
       </c>
       <c r="E39">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F39" t="s">
         <v>1627</v>
@@ -9739,7 +9739,7 @@
         <v>1433</v>
       </c>
       <c r="E40">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F40" t="s">
         <v>1627</v>
@@ -9774,7 +9774,7 @@
         <v>1434</v>
       </c>
       <c r="E41">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F41" t="s">
         <v>1627</v>
@@ -9812,7 +9812,7 @@
         <v>1435</v>
       </c>
       <c r="E42">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F42" t="s">
         <v>1627</v>
@@ -9847,7 +9847,7 @@
         <v>1436</v>
       </c>
       <c r="E43">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F43" t="s">
         <v>1628</v>
@@ -9882,7 +9882,7 @@
         <v>1437</v>
       </c>
       <c r="E44">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F44" t="s">
         <v>1627</v>
@@ -9917,7 +9917,7 @@
         <v>1437</v>
       </c>
       <c r="E45">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F45" t="s">
         <v>1627</v>
@@ -9952,7 +9952,7 @@
         <v>1437</v>
       </c>
       <c r="E46">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F46" t="s">
         <v>1627</v>
@@ -9987,7 +9987,7 @@
         <v>1438</v>
       </c>
       <c r="E47">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F47" t="s">
         <v>1628</v>
@@ -10022,7 +10022,7 @@
         <v>1438</v>
       </c>
       <c r="E48">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F48" t="s">
         <v>1628</v>
@@ -10057,7 +10057,7 @@
         <v>1438</v>
       </c>
       <c r="E49">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F49" t="s">
         <v>1627</v>
@@ -10092,7 +10092,7 @@
         <v>1439</v>
       </c>
       <c r="E50">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
         <v>1627</v>
@@ -10127,7 +10127,7 @@
         <v>1439</v>
       </c>
       <c r="E51">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F51" t="s">
         <v>1627</v>
@@ -10162,7 +10162,7 @@
         <v>1440</v>
       </c>
       <c r="E52">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F52" t="s">
         <v>1627</v>
@@ -10197,7 +10197,7 @@
         <v>1440</v>
       </c>
       <c r="E53">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
         <v>1627</v>
@@ -10232,7 +10232,7 @@
         <v>1441</v>
       </c>
       <c r="E54">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F54" t="s">
         <v>1627</v>
@@ -10267,7 +10267,7 @@
         <v>1442</v>
       </c>
       <c r="E55">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F55" t="s">
         <v>1628</v>
@@ -10302,7 +10302,7 @@
         <v>1443</v>
       </c>
       <c r="E56">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F56" t="s">
         <v>1627</v>
@@ -10337,7 +10337,7 @@
         <v>1443</v>
       </c>
       <c r="E57">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F57" t="s">
         <v>1627</v>
@@ -10372,7 +10372,7 @@
         <v>1444</v>
       </c>
       <c r="E58">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
         <v>1627</v>
@@ -10410,7 +10410,7 @@
         <v>1445</v>
       </c>
       <c r="E59">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F59" t="s">
         <v>1629</v>
@@ -10445,7 +10445,7 @@
         <v>1446</v>
       </c>
       <c r="E60">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F60" t="s">
         <v>1629</v>
@@ -10480,7 +10480,7 @@
         <v>1447</v>
       </c>
       <c r="E61">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F61" t="s">
         <v>1628</v>
@@ -10515,7 +10515,7 @@
         <v>1448</v>
       </c>
       <c r="E62">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F62" t="s">
         <v>1629</v>
@@ -10550,7 +10550,7 @@
         <v>1448</v>
       </c>
       <c r="E63">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F63" t="s">
         <v>1628</v>
@@ -10585,7 +10585,7 @@
         <v>1448</v>
       </c>
       <c r="E64">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F64" t="s">
         <v>1628</v>
@@ -10620,7 +10620,7 @@
         <v>1449</v>
       </c>
       <c r="E65">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F65" t="s">
         <v>1628</v>
@@ -10655,7 +10655,7 @@
         <v>1450</v>
       </c>
       <c r="E66">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
         <v>1628</v>
@@ -10693,7 +10693,7 @@
         <v>1450</v>
       </c>
       <c r="E67">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F67" t="s">
         <v>1628</v>
@@ -10728,7 +10728,7 @@
         <v>1451</v>
       </c>
       <c r="E68">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F68" t="s">
         <v>1629</v>
@@ -10763,7 +10763,7 @@
         <v>1451</v>
       </c>
       <c r="E69">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F69" t="s">
         <v>1629</v>
@@ -10798,7 +10798,7 @@
         <v>1452</v>
       </c>
       <c r="E70">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
         <v>1629</v>
@@ -10833,7 +10833,7 @@
         <v>1453</v>
       </c>
       <c r="E71">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
         <v>1629</v>
@@ -10871,7 +10871,7 @@
         <v>1454</v>
       </c>
       <c r="E72">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F72" t="s">
         <v>1628</v>
@@ -10906,7 +10906,7 @@
         <v>1455</v>
       </c>
       <c r="E73">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F73" t="s">
         <v>1629</v>
@@ -10941,7 +10941,7 @@
         <v>1456</v>
       </c>
       <c r="E74">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F74" t="s">
         <v>1629</v>
@@ -10976,7 +10976,7 @@
         <v>1457</v>
       </c>
       <c r="E75">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F75" t="s">
         <v>1628</v>
@@ -11011,7 +11011,7 @@
         <v>1457</v>
       </c>
       <c r="E76">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F76" t="s">
         <v>1628</v>
@@ -11046,7 +11046,7 @@
         <v>1458</v>
       </c>
       <c r="E77">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F77" t="s">
         <v>1628</v>
@@ -11084,7 +11084,7 @@
         <v>1459</v>
       </c>
       <c r="E78">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F78" t="s">
         <v>1630</v>
@@ -11122,7 +11122,7 @@
         <v>1459</v>
       </c>
       <c r="E79">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F79" t="s">
         <v>1628</v>
@@ -11157,7 +11157,7 @@
         <v>1459</v>
       </c>
       <c r="E80">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F80" t="s">
         <v>1629</v>
@@ -11192,7 +11192,7 @@
         <v>1460</v>
       </c>
       <c r="E81">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F81" t="s">
         <v>1628</v>
@@ -11227,7 +11227,7 @@
         <v>1461</v>
       </c>
       <c r="E82">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F82" t="s">
         <v>1628</v>
@@ -11262,7 +11262,7 @@
         <v>1462</v>
       </c>
       <c r="E83">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F83" t="s">
         <v>1630</v>
@@ -11297,7 +11297,7 @@
         <v>1462</v>
       </c>
       <c r="E84">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F84" t="s">
         <v>1628</v>
@@ -11332,7 +11332,7 @@
         <v>1463</v>
       </c>
       <c r="E85">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
         <v>1630</v>
@@ -11367,7 +11367,7 @@
         <v>1463</v>
       </c>
       <c r="E86">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F86" t="s">
         <v>1630</v>
@@ -11402,7 +11402,7 @@
         <v>1463</v>
       </c>
       <c r="E87">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F87" t="s">
         <v>1629</v>
@@ -11437,7 +11437,7 @@
         <v>1464</v>
       </c>
       <c r="E88">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F88" t="s">
         <v>1628</v>
@@ -11472,7 +11472,7 @@
         <v>1464</v>
       </c>
       <c r="E89">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
         <v>1628</v>
@@ -11507,7 +11507,7 @@
         <v>1465</v>
       </c>
       <c r="E90">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F90" t="s">
         <v>1628</v>
@@ -11542,7 +11542,7 @@
         <v>1466</v>
       </c>
       <c r="E91">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
         <v>1628</v>
@@ -11577,7 +11577,7 @@
         <v>1466</v>
       </c>
       <c r="E92">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
         <v>1628</v>
@@ -11612,7 +11612,7 @@
         <v>1467</v>
       </c>
       <c r="E93">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F93" t="s">
         <v>1628</v>
@@ -11647,7 +11647,7 @@
         <v>1468</v>
       </c>
       <c r="E94">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F94" t="s">
         <v>1628</v>
@@ -11682,7 +11682,7 @@
         <v>1468</v>
       </c>
       <c r="E95">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F95" t="s">
         <v>1628</v>
@@ -11717,7 +11717,7 @@
         <v>1469</v>
       </c>
       <c r="E96">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F96" t="s">
         <v>1628</v>
@@ -11752,7 +11752,7 @@
         <v>1469</v>
       </c>
       <c r="E97">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F97" t="s">
         <v>1628</v>
@@ -11787,7 +11787,7 @@
         <v>1470</v>
       </c>
       <c r="E98">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F98" t="s">
         <v>1628</v>
@@ -11822,7 +11822,7 @@
         <v>1470</v>
       </c>
       <c r="E99">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F99" t="s">
         <v>1628</v>
@@ -11857,7 +11857,7 @@
         <v>1471</v>
       </c>
       <c r="E100">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F100" t="s">
         <v>1628</v>
@@ -11892,7 +11892,7 @@
         <v>1471</v>
       </c>
       <c r="E101">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F101" t="s">
         <v>1628</v>
@@ -11927,7 +11927,7 @@
         <v>1472</v>
       </c>
       <c r="E102">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F102" t="s">
         <v>1628</v>
@@ -11962,7 +11962,7 @@
         <v>1472</v>
       </c>
       <c r="E103">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F103" t="s">
         <v>1628</v>
@@ -11997,7 +11997,7 @@
         <v>1472</v>
       </c>
       <c r="E104">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F104" t="s">
         <v>1628</v>
@@ -12032,7 +12032,7 @@
         <v>1473</v>
       </c>
       <c r="E105">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
         <v>1628</v>
@@ -12067,7 +12067,7 @@
         <v>1474</v>
       </c>
       <c r="E106">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
         <v>1628</v>
@@ -12102,7 +12102,7 @@
         <v>1474</v>
       </c>
       <c r="E107">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F107" t="s">
         <v>1628</v>
@@ -12137,7 +12137,7 @@
         <v>1475</v>
       </c>
       <c r="E108">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F108" t="s">
         <v>1628</v>
@@ -12172,7 +12172,7 @@
         <v>1475</v>
       </c>
       <c r="E109">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F109" t="s">
         <v>1628</v>
@@ -12207,7 +12207,7 @@
         <v>1476</v>
       </c>
       <c r="E110">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F110" t="s">
         <v>1628</v>
@@ -12242,7 +12242,7 @@
         <v>1476</v>
       </c>
       <c r="E111">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F111" t="s">
         <v>1628</v>
@@ -12277,7 +12277,7 @@
         <v>1476</v>
       </c>
       <c r="E112">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F112" t="s">
         <v>1628</v>
@@ -12312,7 +12312,7 @@
         <v>1477</v>
       </c>
       <c r="E113">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
         <v>1628</v>
@@ -12347,7 +12347,7 @@
         <v>1477</v>
       </c>
       <c r="E114">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F114" t="s">
         <v>1628</v>
@@ -12382,7 +12382,7 @@
         <v>1478</v>
       </c>
       <c r="E115">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F115" t="s">
         <v>1628</v>
@@ -12417,7 +12417,7 @@
         <v>1478</v>
       </c>
       <c r="E116">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s">
         <v>1628</v>
@@ -12452,7 +12452,7 @@
         <v>1479</v>
       </c>
       <c r="E117">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F117" t="s">
         <v>1628</v>
@@ -12487,7 +12487,7 @@
         <v>1480</v>
       </c>
       <c r="E118">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F118" t="s">
         <v>1628</v>
@@ -12522,7 +12522,7 @@
         <v>1480</v>
       </c>
       <c r="E119">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F119" t="s">
         <v>1628</v>
@@ -12557,7 +12557,7 @@
         <v>1480</v>
       </c>
       <c r="E120">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F120" t="s">
         <v>1628</v>
@@ -12592,7 +12592,7 @@
         <v>1481</v>
       </c>
       <c r="E121">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F121" t="s">
         <v>1628</v>
@@ -12627,7 +12627,7 @@
         <v>1482</v>
       </c>
       <c r="E122">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F122" t="s">
         <v>1628</v>
@@ -12662,7 +12662,7 @@
         <v>1482</v>
       </c>
       <c r="E123">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F123" t="s">
         <v>1628</v>
@@ -12697,7 +12697,7 @@
         <v>1482</v>
       </c>
       <c r="E124">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F124" t="s">
         <v>1628</v>
@@ -12732,7 +12732,7 @@
         <v>1483</v>
       </c>
       <c r="E125">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
         <v>1628</v>
@@ -12767,7 +12767,7 @@
         <v>1483</v>
       </c>
       <c r="E126">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
         <v>1628</v>
@@ -12802,7 +12802,7 @@
         <v>1484</v>
       </c>
       <c r="E127">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
         <v>1628</v>
@@ -12837,7 +12837,7 @@
         <v>1485</v>
       </c>
       <c r="E128">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
         <v>1628</v>
@@ -12872,7 +12872,7 @@
         <v>1485</v>
       </c>
       <c r="E129">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
         <v>1628</v>
@@ -12907,7 +12907,7 @@
         <v>1485</v>
       </c>
       <c r="E130">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
         <v>1628</v>
@@ -12942,7 +12942,7 @@
         <v>1486</v>
       </c>
       <c r="E131">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F131" t="s">
         <v>1628</v>
@@ -12977,7 +12977,7 @@
         <v>1486</v>
       </c>
       <c r="E132">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F132" t="s">
         <v>1628</v>
@@ -13012,7 +13012,7 @@
         <v>1487</v>
       </c>
       <c r="E133">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
         <v>1628</v>
@@ -13047,7 +13047,7 @@
         <v>1487</v>
       </c>
       <c r="E134">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F134" t="s">
         <v>1628</v>
@@ -13082,7 +13082,7 @@
         <v>1488</v>
       </c>
       <c r="E135">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F135" t="s">
         <v>1628</v>
@@ -13117,7 +13117,7 @@
         <v>1488</v>
       </c>
       <c r="E136">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F136" t="s">
         <v>1628</v>
@@ -13152,7 +13152,7 @@
         <v>1489</v>
       </c>
       <c r="E137">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F137" t="s">
         <v>1628</v>
@@ -13187,7 +13187,7 @@
         <v>1489</v>
       </c>
       <c r="E138">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F138" t="s">
         <v>1628</v>
@@ -13225,7 +13225,7 @@
         <v>1489</v>
       </c>
       <c r="E139">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F139" t="s">
         <v>1628</v>
@@ -13260,7 +13260,7 @@
         <v>1490</v>
       </c>
       <c r="E140">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F140" t="s">
         <v>1628</v>
@@ -13295,7 +13295,7 @@
         <v>1490</v>
       </c>
       <c r="E141">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F141" t="s">
         <v>1628</v>
@@ -13330,7 +13330,7 @@
         <v>1491</v>
       </c>
       <c r="E142">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F142" t="s">
         <v>1628</v>
@@ -13365,7 +13365,7 @@
         <v>1492</v>
       </c>
       <c r="E143">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F143" t="s">
         <v>1628</v>
@@ -13400,7 +13400,7 @@
         <v>1492</v>
       </c>
       <c r="E144">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F144" t="s">
         <v>1628</v>
@@ -13435,7 +13435,7 @@
         <v>1492</v>
       </c>
       <c r="E145">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F145" t="s">
         <v>1628</v>
@@ -13470,7 +13470,7 @@
         <v>1493</v>
       </c>
       <c r="E146">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F146" t="s">
         <v>1628</v>
@@ -13505,7 +13505,7 @@
         <v>1493</v>
       </c>
       <c r="E147">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F147" t="s">
         <v>1628</v>
@@ -13540,7 +13540,7 @@
         <v>1493</v>
       </c>
       <c r="E148">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F148" t="s">
         <v>1628</v>
@@ -13575,7 +13575,7 @@
         <v>1494</v>
       </c>
       <c r="E149">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F149" t="s">
         <v>1628</v>
@@ -13610,7 +13610,7 @@
         <v>1494</v>
       </c>
       <c r="E150">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F150" t="s">
         <v>1628</v>
@@ -13645,7 +13645,7 @@
         <v>1494</v>
       </c>
       <c r="E151">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F151" t="s">
         <v>1628</v>
@@ -13680,7 +13680,7 @@
         <v>1495</v>
       </c>
       <c r="E152">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F152" t="s">
         <v>1628</v>
@@ -13715,7 +13715,7 @@
         <v>1495</v>
       </c>
       <c r="E153">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F153" t="s">
         <v>1628</v>
@@ -13750,7 +13750,7 @@
         <v>1495</v>
       </c>
       <c r="E154">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F154" t="s">
         <v>1628</v>
@@ -13785,7 +13785,7 @@
         <v>1496</v>
       </c>
       <c r="E155">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F155" t="s">
         <v>1628</v>
@@ -13820,7 +13820,7 @@
         <v>1496</v>
       </c>
       <c r="E156">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F156" t="s">
         <v>1628</v>
@@ -13855,7 +13855,7 @@
         <v>1497</v>
       </c>
       <c r="E157">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F157" t="s">
         <v>1628</v>
@@ -13890,7 +13890,7 @@
         <v>1497</v>
       </c>
       <c r="E158">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F158" t="s">
         <v>1628</v>
@@ -13925,7 +13925,7 @@
         <v>1498</v>
       </c>
       <c r="E159">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F159" t="s">
         <v>1628</v>
@@ -13960,7 +13960,7 @@
         <v>1498</v>
       </c>
       <c r="E160">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F160" t="s">
         <v>1628</v>
@@ -13995,7 +13995,7 @@
         <v>1499</v>
       </c>
       <c r="E161">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F161" t="s">
         <v>1628</v>
@@ -14030,7 +14030,7 @@
         <v>1499</v>
       </c>
       <c r="E162">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F162" t="s">
         <v>1628</v>
@@ -14065,7 +14065,7 @@
         <v>1500</v>
       </c>
       <c r="E163">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F163" t="s">
         <v>1628</v>
@@ -14103,7 +14103,7 @@
         <v>1501</v>
       </c>
       <c r="E164">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F164" t="s">
         <v>1628</v>
@@ -14138,7 +14138,7 @@
         <v>1501</v>
       </c>
       <c r="E165">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F165" t="s">
         <v>1628</v>
@@ -14173,7 +14173,7 @@
         <v>1501</v>
       </c>
       <c r="E166">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F166" t="s">
         <v>1628</v>
@@ -14208,7 +14208,7 @@
         <v>1502</v>
       </c>
       <c r="E167">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F167" t="s">
         <v>1628</v>
@@ -14243,7 +14243,7 @@
         <v>1503</v>
       </c>
       <c r="E168">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F168" t="s">
         <v>1628</v>
@@ -14278,7 +14278,7 @@
         <v>1503</v>
       </c>
       <c r="E169">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F169" t="s">
         <v>1628</v>
@@ -14313,7 +14313,7 @@
         <v>1504</v>
       </c>
       <c r="E170">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F170" t="s">
         <v>1628</v>
@@ -14348,7 +14348,7 @@
         <v>1504</v>
       </c>
       <c r="E171">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F171" t="s">
         <v>1628</v>
@@ -14383,7 +14383,7 @@
         <v>1504</v>
       </c>
       <c r="E172">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F172" t="s">
         <v>1628</v>
@@ -14418,7 +14418,7 @@
         <v>1504</v>
       </c>
       <c r="E173">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F173" t="s">
         <v>1628</v>
@@ -14453,7 +14453,7 @@
         <v>1504</v>
       </c>
       <c r="E174">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F174" t="s">
         <v>1628</v>
@@ -14488,7 +14488,7 @@
         <v>1504</v>
       </c>
       <c r="E175">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F175" t="s">
         <v>1628</v>
@@ -14523,7 +14523,7 @@
         <v>1505</v>
       </c>
       <c r="E176">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F176" t="s">
         <v>1628</v>
@@ -14558,7 +14558,7 @@
         <v>1506</v>
       </c>
       <c r="E177">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F177" t="s">
         <v>1628</v>
@@ -14593,7 +14593,7 @@
         <v>1507</v>
       </c>
       <c r="E178">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F178" t="s">
         <v>1628</v>
@@ -14628,7 +14628,7 @@
         <v>1508</v>
       </c>
       <c r="E179">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F179" t="s">
         <v>1628</v>
@@ -14663,7 +14663,7 @@
         <v>1508</v>
       </c>
       <c r="E180">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F180" t="s">
         <v>1628</v>
@@ -14698,7 +14698,7 @@
         <v>1508</v>
       </c>
       <c r="E181">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F181" t="s">
         <v>1628</v>
@@ -14733,7 +14733,7 @@
         <v>1509</v>
       </c>
       <c r="E182">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F182" t="s">
         <v>1628</v>
@@ -14768,7 +14768,7 @@
         <v>1509</v>
       </c>
       <c r="E183">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F183" t="s">
         <v>1628</v>
@@ -14803,7 +14803,7 @@
         <v>1509</v>
       </c>
       <c r="E184">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F184" t="s">
         <v>1628</v>
@@ -14838,7 +14838,7 @@
         <v>1509</v>
       </c>
       <c r="E185">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F185" t="s">
         <v>1628</v>
@@ -14873,7 +14873,7 @@
         <v>1509</v>
       </c>
       <c r="E186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F186" t="s">
         <v>1628</v>
@@ -14908,7 +14908,7 @@
         <v>1509</v>
       </c>
       <c r="E187">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F187" t="s">
         <v>1628</v>
@@ -14943,7 +14943,7 @@
         <v>1509</v>
       </c>
       <c r="E188">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F188" t="s">
         <v>1628</v>
@@ -14978,7 +14978,7 @@
         <v>1510</v>
       </c>
       <c r="E189">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F189" t="s">
         <v>1628</v>
@@ -15013,7 +15013,7 @@
         <v>1510</v>
       </c>
       <c r="E190">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F190" t="s">
         <v>1628</v>
@@ -15048,7 +15048,7 @@
         <v>1510</v>
       </c>
       <c r="E191">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F191" t="s">
         <v>1628</v>
@@ -15083,7 +15083,7 @@
         <v>1511</v>
       </c>
       <c r="E192">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F192" t="s">
         <v>1628</v>
@@ -15118,7 +15118,7 @@
         <v>1512</v>
       </c>
       <c r="E193">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F193" t="s">
         <v>1628</v>
@@ -15153,7 +15153,7 @@
         <v>1512</v>
       </c>
       <c r="E194">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F194" t="s">
         <v>1628</v>
@@ -15188,7 +15188,7 @@
         <v>1512</v>
       </c>
       <c r="E195">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F195" t="s">
         <v>1628</v>
@@ -15223,7 +15223,7 @@
         <v>1513</v>
       </c>
       <c r="E196">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F196" t="s">
         <v>1628</v>
@@ -15258,7 +15258,7 @@
         <v>1513</v>
       </c>
       <c r="E197">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F197" t="s">
         <v>1628</v>
@@ -15293,7 +15293,7 @@
         <v>1513</v>
       </c>
       <c r="E198">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F198" t="s">
         <v>1628</v>
@@ -15328,7 +15328,7 @@
         <v>1514</v>
       </c>
       <c r="E199">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F199" t="s">
         <v>1628</v>
@@ -15363,7 +15363,7 @@
         <v>1514</v>
       </c>
       <c r="E200">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F200" t="s">
         <v>1628</v>
@@ -15401,7 +15401,7 @@
         <v>1514</v>
       </c>
       <c r="E201">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F201" t="s">
         <v>1628</v>
@@ -15436,7 +15436,7 @@
         <v>1515</v>
       </c>
       <c r="E202">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F202" t="s">
         <v>1628</v>
@@ -15471,7 +15471,7 @@
         <v>1516</v>
       </c>
       <c r="E203">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F203" t="s">
         <v>1628</v>
@@ -15506,7 +15506,7 @@
         <v>1516</v>
       </c>
       <c r="E204">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F204" t="s">
         <v>1628</v>
@@ -15541,7 +15541,7 @@
         <v>1517</v>
       </c>
       <c r="E205">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F205" t="s">
         <v>1628</v>
@@ -15576,7 +15576,7 @@
         <v>1518</v>
       </c>
       <c r="E206">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F206" t="s">
         <v>1628</v>
@@ -15611,7 +15611,7 @@
         <v>1518</v>
       </c>
       <c r="E207">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F207" t="s">
         <v>1628</v>
@@ -15646,7 +15646,7 @@
         <v>1518</v>
       </c>
       <c r="E208">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F208" t="s">
         <v>1628</v>
@@ -15681,7 +15681,7 @@
         <v>1518</v>
       </c>
       <c r="E209">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F209" t="s">
         <v>1628</v>
@@ -15716,7 +15716,7 @@
         <v>1518</v>
       </c>
       <c r="E210">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F210" t="s">
         <v>1628</v>
@@ -15751,7 +15751,7 @@
         <v>1518</v>
       </c>
       <c r="E211">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F211" t="s">
         <v>1628</v>
@@ -15786,7 +15786,7 @@
         <v>1519</v>
       </c>
       <c r="E212">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F212" t="s">
         <v>1628</v>
@@ -15821,7 +15821,7 @@
         <v>1519</v>
       </c>
       <c r="E213">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F213" t="s">
         <v>1628</v>
@@ -15856,7 +15856,7 @@
         <v>1520</v>
       </c>
       <c r="E214">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F214" t="s">
         <v>1628</v>
@@ -15894,7 +15894,7 @@
         <v>1520</v>
       </c>
       <c r="E215">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F215" t="s">
         <v>1628</v>
@@ -15929,7 +15929,7 @@
         <v>1520</v>
       </c>
       <c r="E216">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F216" t="s">
         <v>1628</v>
@@ -15964,7 +15964,7 @@
         <v>1520</v>
       </c>
       <c r="E217">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F217" t="s">
         <v>1628</v>
@@ -16002,7 +16002,7 @@
         <v>1521</v>
       </c>
       <c r="E218">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F218" t="s">
         <v>1628</v>
@@ -16037,7 +16037,7 @@
         <v>1521</v>
       </c>
       <c r="E219">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F219" t="s">
         <v>1628</v>
@@ -16072,7 +16072,7 @@
         <v>1521</v>
       </c>
       <c r="E220">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F220" t="s">
         <v>1628</v>
@@ -16107,7 +16107,7 @@
         <v>1522</v>
       </c>
       <c r="E221">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F221" t="s">
         <v>1628</v>
@@ -16142,7 +16142,7 @@
         <v>1522</v>
       </c>
       <c r="E222">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F222" t="s">
         <v>1628</v>
@@ -16177,7 +16177,7 @@
         <v>1522</v>
       </c>
       <c r="E223">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F223" t="s">
         <v>1628</v>
@@ -16212,7 +16212,7 @@
         <v>1523</v>
       </c>
       <c r="E224">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F224" t="s">
         <v>1628</v>
@@ -16247,7 +16247,7 @@
         <v>1524</v>
       </c>
       <c r="E225">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F225" t="s">
         <v>1628</v>
@@ -16282,7 +16282,7 @@
         <v>1524</v>
       </c>
       <c r="E226">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F226" t="s">
         <v>1628</v>
@@ -16317,7 +16317,7 @@
         <v>1524</v>
       </c>
       <c r="E227">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F227" t="s">
         <v>1628</v>
@@ -16352,7 +16352,7 @@
         <v>1524</v>
       </c>
       <c r="E228">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F228" t="s">
         <v>1628</v>
@@ -16387,7 +16387,7 @@
         <v>1524</v>
       </c>
       <c r="E229">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F229" t="s">
         <v>1628</v>
@@ -16422,7 +16422,7 @@
         <v>1524</v>
       </c>
       <c r="E230">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F230" t="s">
         <v>1628</v>
@@ -16457,7 +16457,7 @@
         <v>1524</v>
       </c>
       <c r="E231">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F231" t="s">
         <v>1628</v>
@@ -16492,7 +16492,7 @@
         <v>1524</v>
       </c>
       <c r="E232">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F232" t="s">
         <v>1628</v>
@@ -16527,7 +16527,7 @@
         <v>1524</v>
       </c>
       <c r="E233">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F233" t="s">
         <v>1628</v>
@@ -16562,7 +16562,7 @@
         <v>1524</v>
       </c>
       <c r="E234">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F234" t="s">
         <v>1628</v>
@@ -16600,7 +16600,7 @@
         <v>1525</v>
       </c>
       <c r="E235">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F235" t="s">
         <v>1628</v>
@@ -16635,7 +16635,7 @@
         <v>1525</v>
       </c>
       <c r="E236">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F236" t="s">
         <v>1628</v>
@@ -16670,7 +16670,7 @@
         <v>1525</v>
       </c>
       <c r="E237">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F237" t="s">
         <v>1628</v>
@@ -16705,7 +16705,7 @@
         <v>1525</v>
       </c>
       <c r="E238">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F238" t="s">
         <v>1628</v>
@@ -16740,7 +16740,7 @@
         <v>1525</v>
       </c>
       <c r="E239">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F239" t="s">
         <v>1628</v>
@@ -16775,7 +16775,7 @@
         <v>1526</v>
       </c>
       <c r="E240">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F240" t="s">
         <v>1628</v>
@@ -16813,7 +16813,7 @@
         <v>1527</v>
       </c>
       <c r="E241">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F241" t="s">
         <v>1628</v>
@@ -16848,7 +16848,7 @@
         <v>1528</v>
       </c>
       <c r="E242">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F242" t="s">
         <v>1628</v>
@@ -16883,7 +16883,7 @@
         <v>1528</v>
       </c>
       <c r="E243">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F243" t="s">
         <v>1628</v>
@@ -16918,7 +16918,7 @@
         <v>1528</v>
       </c>
       <c r="E244">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F244" t="s">
         <v>1628</v>
@@ -16953,7 +16953,7 @@
         <v>1528</v>
       </c>
       <c r="E245">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F245" t="s">
         <v>1628</v>
@@ -16988,7 +16988,7 @@
         <v>1528</v>
       </c>
       <c r="E246">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F246" t="s">
         <v>1628</v>
@@ -17023,7 +17023,7 @@
         <v>1528</v>
       </c>
       <c r="E247">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F247" t="s">
         <v>1628</v>
@@ -17058,7 +17058,7 @@
         <v>1529</v>
       </c>
       <c r="E248">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F248" t="s">
         <v>1628</v>
@@ -17093,7 +17093,7 @@
         <v>1529</v>
       </c>
       <c r="E249">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F249" t="s">
         <v>1628</v>
@@ -17128,7 +17128,7 @@
         <v>1529</v>
       </c>
       <c r="E250">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F250" t="s">
         <v>1628</v>
@@ -17163,7 +17163,7 @@
         <v>1529</v>
       </c>
       <c r="E251">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F251" t="s">
         <v>1628</v>
@@ -17198,7 +17198,7 @@
         <v>1529</v>
       </c>
       <c r="E252">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F252" t="s">
         <v>1628</v>
@@ -17233,7 +17233,7 @@
         <v>1530</v>
       </c>
       <c r="E253">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F253" t="s">
         <v>1628</v>
@@ -17268,7 +17268,7 @@
         <v>1530</v>
       </c>
       <c r="E254">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F254" t="s">
         <v>1628</v>
@@ -17303,7 +17303,7 @@
         <v>1530</v>
       </c>
       <c r="E255">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F255" t="s">
         <v>1628</v>
@@ -17338,7 +17338,7 @@
         <v>1530</v>
       </c>
       <c r="E256">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F256" t="s">
         <v>1628</v>
@@ -17373,7 +17373,7 @@
         <v>1530</v>
       </c>
       <c r="E257">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F257" t="s">
         <v>1628</v>
@@ -17408,7 +17408,7 @@
         <v>1531</v>
       </c>
       <c r="E258">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F258" t="s">
         <v>1628</v>
@@ -17443,7 +17443,7 @@
         <v>1531</v>
       </c>
       <c r="E259">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F259" t="s">
         <v>1628</v>
@@ -17478,7 +17478,7 @@
         <v>1531</v>
       </c>
       <c r="E260">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F260" t="s">
         <v>1628</v>
@@ -17513,7 +17513,7 @@
         <v>1532</v>
       </c>
       <c r="E261">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F261" t="s">
         <v>1628</v>
@@ -17548,7 +17548,7 @@
         <v>1533</v>
       </c>
       <c r="E262">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F262" t="s">
         <v>1628</v>
@@ -17586,7 +17586,7 @@
         <v>1534</v>
       </c>
       <c r="E263">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F263" t="s">
         <v>1628</v>
@@ -17621,7 +17621,7 @@
         <v>1535</v>
       </c>
       <c r="E264">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F264" t="s">
         <v>1628</v>
@@ -17656,7 +17656,7 @@
         <v>1535</v>
       </c>
       <c r="E265">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F265" t="s">
         <v>1628</v>
@@ -17691,7 +17691,7 @@
         <v>1535</v>
       </c>
       <c r="E266">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F266" t="s">
         <v>1628</v>
@@ -17726,7 +17726,7 @@
         <v>1536</v>
       </c>
       <c r="E267">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F267" t="s">
         <v>1628</v>
@@ -17764,7 +17764,7 @@
         <v>1537</v>
       </c>
       <c r="E268">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F268" t="s">
         <v>1630</v>
@@ -17799,7 +17799,7 @@
         <v>1538</v>
       </c>
       <c r="E269">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F269" t="s">
         <v>1628</v>
@@ -17834,7 +17834,7 @@
         <v>1539</v>
       </c>
       <c r="E270">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F270" t="s">
         <v>1628</v>
@@ -17869,7 +17869,7 @@
         <v>1539</v>
       </c>
       <c r="E271">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F271" t="s">
         <v>1628</v>
@@ -17904,7 +17904,7 @@
         <v>1539</v>
       </c>
       <c r="E272">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F272" t="s">
         <v>1628</v>
@@ -17939,7 +17939,7 @@
         <v>1540</v>
       </c>
       <c r="E273">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F273" t="s">
         <v>1628</v>
@@ -17974,7 +17974,7 @@
         <v>1541</v>
       </c>
       <c r="E274">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F274" t="s">
         <v>1628</v>
@@ -18012,7 +18012,7 @@
         <v>1541</v>
       </c>
       <c r="E275">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F275" t="s">
         <v>1628</v>
@@ -18047,7 +18047,7 @@
         <v>1541</v>
       </c>
       <c r="E276">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F276" t="s">
         <v>1628</v>
@@ -18082,7 +18082,7 @@
         <v>1541</v>
       </c>
       <c r="E277">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F277" t="s">
         <v>1628</v>
@@ -18117,7 +18117,7 @@
         <v>1542</v>
       </c>
       <c r="E278">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F278" t="s">
         <v>1628</v>
@@ -18152,7 +18152,7 @@
         <v>1543</v>
       </c>
       <c r="E279">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F279" t="s">
         <v>1628</v>
@@ -18187,7 +18187,7 @@
         <v>1544</v>
       </c>
       <c r="E280">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F280" t="s">
         <v>1628</v>
@@ -18222,7 +18222,7 @@
         <v>1544</v>
       </c>
       <c r="E281">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F281" t="s">
         <v>1628</v>
@@ -18257,7 +18257,7 @@
         <v>1544</v>
       </c>
       <c r="E282">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F282" t="s">
         <v>1631</v>
@@ -18295,7 +18295,7 @@
         <v>1545</v>
       </c>
       <c r="E283">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F283" t="s">
         <v>1628</v>
@@ -18330,7 +18330,7 @@
         <v>1545</v>
       </c>
       <c r="E284">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F284" t="s">
         <v>1628</v>
@@ -18365,7 +18365,7 @@
         <v>1545</v>
       </c>
       <c r="E285">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F285" t="s">
         <v>1628</v>
@@ -18400,7 +18400,7 @@
         <v>1546</v>
       </c>
       <c r="E286">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F286" t="s">
         <v>1628</v>
@@ -18435,7 +18435,7 @@
         <v>1546</v>
       </c>
       <c r="E287">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F287" t="s">
         <v>1628</v>
@@ -18470,7 +18470,7 @@
         <v>1546</v>
       </c>
       <c r="E288">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F288" t="s">
         <v>1628</v>
@@ -18505,7 +18505,7 @@
         <v>1546</v>
       </c>
       <c r="E289">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F289" t="s">
         <v>1628</v>
@@ -18540,7 +18540,7 @@
         <v>1547</v>
       </c>
       <c r="E290">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F290" t="s">
         <v>1628</v>
@@ -18575,7 +18575,7 @@
         <v>1547</v>
       </c>
       <c r="E291">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F291" t="s">
         <v>1628</v>
@@ -18610,7 +18610,7 @@
         <v>1547</v>
       </c>
       <c r="E292">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F292" t="s">
         <v>1628</v>
@@ -18645,7 +18645,7 @@
         <v>1547</v>
       </c>
       <c r="E293">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F293" t="s">
         <v>1628</v>
@@ -18680,7 +18680,7 @@
         <v>1548</v>
       </c>
       <c r="E294">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F294" t="s">
         <v>1628</v>
@@ -18718,7 +18718,7 @@
         <v>1549</v>
       </c>
       <c r="E295">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F295" t="s">
         <v>1628</v>
@@ -18753,7 +18753,7 @@
         <v>1549</v>
       </c>
       <c r="E296">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F296" t="s">
         <v>1628</v>
@@ -18788,7 +18788,7 @@
         <v>1549</v>
       </c>
       <c r="E297">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F297" t="s">
         <v>1628</v>
@@ -18823,7 +18823,7 @@
         <v>1549</v>
       </c>
       <c r="E298">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F298" t="s">
         <v>1628</v>
@@ -18858,7 +18858,7 @@
         <v>1549</v>
       </c>
       <c r="E299">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F299" t="s">
         <v>1628</v>
@@ -18893,7 +18893,7 @@
         <v>1550</v>
       </c>
       <c r="E300">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F300" t="s">
         <v>1628</v>
@@ -18928,7 +18928,7 @@
         <v>1550</v>
       </c>
       <c r="E301">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F301" t="s">
         <v>1628</v>
@@ -18963,7 +18963,7 @@
         <v>1550</v>
       </c>
       <c r="E302">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F302" t="s">
         <v>1628</v>
@@ -18998,7 +18998,7 @@
         <v>1551</v>
       </c>
       <c r="E303">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F303" t="s">
         <v>1628</v>
@@ -19036,7 +19036,7 @@
         <v>1551</v>
       </c>
       <c r="E304">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F304" t="s">
         <v>1628</v>
@@ -19071,7 +19071,7 @@
         <v>1551</v>
       </c>
       <c r="E305">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F305" t="s">
         <v>1628</v>
@@ -19106,7 +19106,7 @@
         <v>1551</v>
       </c>
       <c r="E306">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F306" t="s">
         <v>1628</v>
@@ -19141,7 +19141,7 @@
         <v>1552</v>
       </c>
       <c r="E307">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F307" t="s">
         <v>1628</v>
@@ -19176,7 +19176,7 @@
         <v>1552</v>
       </c>
       <c r="E308">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F308" t="s">
         <v>1628</v>
@@ -19211,7 +19211,7 @@
         <v>1552</v>
       </c>
       <c r="E309">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F309" t="s">
         <v>1628</v>
@@ -19249,7 +19249,7 @@
         <v>1552</v>
       </c>
       <c r="E310">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F310" t="s">
         <v>1628</v>
@@ -19284,7 +19284,7 @@
         <v>1553</v>
       </c>
       <c r="E311">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F311" t="s">
         <v>1628</v>
@@ -19319,7 +19319,7 @@
         <v>1553</v>
       </c>
       <c r="E312">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F312" t="s">
         <v>1628</v>
@@ -19354,7 +19354,7 @@
         <v>1554</v>
       </c>
       <c r="E313">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F313" t="s">
         <v>1628</v>
@@ -19389,7 +19389,7 @@
         <v>1554</v>
       </c>
       <c r="E314">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F314" t="s">
         <v>1628</v>
@@ -19424,7 +19424,7 @@
         <v>1554</v>
       </c>
       <c r="E315">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F315" t="s">
         <v>1628</v>
@@ -19459,7 +19459,7 @@
         <v>1554</v>
       </c>
       <c r="E316">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F316" t="s">
         <v>1628</v>
@@ -19494,7 +19494,7 @@
         <v>1555</v>
       </c>
       <c r="E317">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F317" t="s">
         <v>1628</v>
@@ -19529,7 +19529,7 @@
         <v>1555</v>
       </c>
       <c r="E318">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F318" t="s">
         <v>1628</v>
@@ -19564,7 +19564,7 @@
         <v>1556</v>
       </c>
       <c r="E319">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F319" t="s">
         <v>1628</v>
@@ -19599,7 +19599,7 @@
         <v>1556</v>
       </c>
       <c r="E320">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F320" t="s">
         <v>1628</v>
@@ -19634,7 +19634,7 @@
         <v>1556</v>
       </c>
       <c r="E321">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F321" t="s">
         <v>1628</v>
@@ -19669,7 +19669,7 @@
         <v>1556</v>
       </c>
       <c r="E322">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F322" t="s">
         <v>1628</v>
@@ -19704,7 +19704,7 @@
         <v>1556</v>
       </c>
       <c r="E323">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F323" t="s">
         <v>1628</v>
@@ -19739,7 +19739,7 @@
         <v>1556</v>
       </c>
       <c r="E324">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F324" t="s">
         <v>1628</v>
@@ -19774,7 +19774,7 @@
         <v>1557</v>
       </c>
       <c r="E325">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F325" t="s">
         <v>1628</v>
@@ -19809,7 +19809,7 @@
         <v>1557</v>
       </c>
       <c r="E326">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F326" t="s">
         <v>1628</v>
@@ -19844,7 +19844,7 @@
         <v>1557</v>
       </c>
       <c r="E327">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F327" t="s">
         <v>1628</v>
@@ -19879,7 +19879,7 @@
         <v>1557</v>
       </c>
       <c r="E328">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F328" t="s">
         <v>1628</v>
@@ -19914,7 +19914,7 @@
         <v>1557</v>
       </c>
       <c r="E329">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F329" t="s">
         <v>1628</v>
@@ -19949,7 +19949,7 @@
         <v>1557</v>
       </c>
       <c r="E330">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F330" t="s">
         <v>1628</v>
@@ -19984,7 +19984,7 @@
         <v>1557</v>
       </c>
       <c r="E331">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F331" t="s">
         <v>1628</v>
@@ -20019,7 +20019,7 @@
         <v>1557</v>
       </c>
       <c r="E332">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F332" t="s">
         <v>1628</v>
@@ -20054,7 +20054,7 @@
         <v>1557</v>
       </c>
       <c r="E333">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F333" t="s">
         <v>1628</v>
@@ -20089,7 +20089,7 @@
         <v>1557</v>
       </c>
       <c r="E334">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F334" t="s">
         <v>1628</v>
@@ -20124,7 +20124,7 @@
         <v>1557</v>
       </c>
       <c r="E335">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F335" t="s">
         <v>1628</v>
@@ -20159,7 +20159,7 @@
         <v>1558</v>
       </c>
       <c r="E336">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F336" t="s">
         <v>1628</v>
@@ -20194,7 +20194,7 @@
         <v>1559</v>
       </c>
       <c r="E337">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F337" t="s">
         <v>1628</v>
@@ -20229,7 +20229,7 @@
         <v>1560</v>
       </c>
       <c r="E338">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F338" t="s">
         <v>1628</v>
@@ -20264,7 +20264,7 @@
         <v>1560</v>
       </c>
       <c r="E339">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F339" t="s">
         <v>1628</v>
@@ -20299,7 +20299,7 @@
         <v>1560</v>
       </c>
       <c r="E340">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F340" t="s">
         <v>1628</v>
@@ -20334,7 +20334,7 @@
         <v>1561</v>
       </c>
       <c r="E341">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F341" t="s">
         <v>1628</v>
@@ -20369,7 +20369,7 @@
         <v>1561</v>
       </c>
       <c r="E342">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F342" t="s">
         <v>1628</v>
@@ -20404,7 +20404,7 @@
         <v>1562</v>
       </c>
       <c r="E343">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F343" t="s">
         <v>1628</v>
@@ -20439,7 +20439,7 @@
         <v>1562</v>
       </c>
       <c r="E344">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F344" t="s">
         <v>1628</v>
@@ -20477,7 +20477,7 @@
         <v>1562</v>
       </c>
       <c r="E345">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F345" t="s">
         <v>1628</v>
@@ -20512,7 +20512,7 @@
         <v>1562</v>
       </c>
       <c r="E346">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F346" t="s">
         <v>1628</v>
@@ -20550,7 +20550,7 @@
         <v>1562</v>
       </c>
       <c r="E347">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F347" t="s">
         <v>1628</v>
@@ -20585,7 +20585,7 @@
         <v>1563</v>
       </c>
       <c r="E348">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F348" t="s">
         <v>1628</v>
@@ -20620,7 +20620,7 @@
         <v>1563</v>
       </c>
       <c r="E349">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F349" t="s">
         <v>1628</v>
@@ -20655,7 +20655,7 @@
         <v>1563</v>
       </c>
       <c r="E350">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F350" t="s">
         <v>1628</v>
@@ -20690,7 +20690,7 @@
         <v>1563</v>
       </c>
       <c r="E351">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F351" t="s">
         <v>1628</v>
@@ -20725,7 +20725,7 @@
         <v>1563</v>
       </c>
       <c r="E352">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F352" t="s">
         <v>1628</v>
@@ -20760,7 +20760,7 @@
         <v>1563</v>
       </c>
       <c r="E353">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F353" t="s">
         <v>1628</v>
@@ -20795,7 +20795,7 @@
         <v>1563</v>
       </c>
       <c r="E354">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F354" t="s">
         <v>1628</v>
@@ -20830,7 +20830,7 @@
         <v>1564</v>
       </c>
       <c r="E355">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F355" t="s">
         <v>1628</v>
@@ -20865,7 +20865,7 @@
         <v>1564</v>
       </c>
       <c r="E356">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F356" t="s">
         <v>1628</v>
@@ -20903,7 +20903,7 @@
         <v>1564</v>
       </c>
       <c r="E357">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F357" t="s">
         <v>1628</v>
@@ -20938,7 +20938,7 @@
         <v>1565</v>
       </c>
       <c r="E358">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F358" t="s">
         <v>1628</v>
@@ -20973,7 +20973,7 @@
         <v>1566</v>
       </c>
       <c r="E359">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F359" t="s">
         <v>1628</v>
@@ -21008,7 +21008,7 @@
         <v>1566</v>
       </c>
       <c r="E360">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F360" t="s">
         <v>1628</v>
@@ -21043,7 +21043,7 @@
         <v>1566</v>
       </c>
       <c r="E361">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F361" t="s">
         <v>1628</v>
@@ -21078,7 +21078,7 @@
         <v>1566</v>
       </c>
       <c r="E362">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F362" t="s">
         <v>1628</v>
@@ -21113,7 +21113,7 @@
         <v>1566</v>
       </c>
       <c r="E363">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F363" t="s">
         <v>1628</v>
@@ -21148,7 +21148,7 @@
         <v>1567</v>
       </c>
       <c r="E364">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F364" t="s">
         <v>1628</v>
@@ -21183,7 +21183,7 @@
         <v>1568</v>
       </c>
       <c r="E365">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F365" t="s">
         <v>1628</v>
@@ -21218,7 +21218,7 @@
         <v>1569</v>
       </c>
       <c r="E366">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F366" t="s">
         <v>1628</v>
@@ -21253,7 +21253,7 @@
         <v>1569</v>
       </c>
       <c r="E367">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F367" t="s">
         <v>1628</v>
@@ -21288,7 +21288,7 @@
         <v>1569</v>
       </c>
       <c r="E368">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F368" t="s">
         <v>1628</v>
@@ -21323,7 +21323,7 @@
         <v>1569</v>
       </c>
       <c r="E369">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F369" t="s">
         <v>1628</v>
@@ -21358,7 +21358,7 @@
         <v>1570</v>
       </c>
       <c r="E370">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F370" t="s">
         <v>1628</v>
@@ -21393,7 +21393,7 @@
         <v>1570</v>
       </c>
       <c r="E371">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F371" t="s">
         <v>1628</v>
@@ -21428,7 +21428,7 @@
         <v>1570</v>
       </c>
       <c r="E372">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F372" t="s">
         <v>1628</v>
@@ -21463,7 +21463,7 @@
         <v>1570</v>
       </c>
       <c r="E373">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F373" t="s">
         <v>1628</v>
@@ -21498,7 +21498,7 @@
         <v>1570</v>
       </c>
       <c r="E374">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F374" t="s">
         <v>1628</v>
@@ -21533,7 +21533,7 @@
         <v>1570</v>
       </c>
       <c r="E375">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F375" t="s">
         <v>1628</v>
@@ -21568,7 +21568,7 @@
         <v>1570</v>
       </c>
       <c r="E376">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F376" t="s">
         <v>1628</v>
@@ -21603,7 +21603,7 @@
         <v>1570</v>
       </c>
       <c r="E377">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F377" t="s">
         <v>1628</v>
@@ -21638,7 +21638,7 @@
         <v>1571</v>
       </c>
       <c r="E378">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F378" t="s">
         <v>1628</v>
@@ -21673,7 +21673,7 @@
         <v>1571</v>
       </c>
       <c r="E379">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F379" t="s">
         <v>1628</v>
@@ -21708,7 +21708,7 @@
         <v>1571</v>
       </c>
       <c r="E380">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F380" t="s">
         <v>1628</v>
@@ -21743,7 +21743,7 @@
         <v>1571</v>
       </c>
       <c r="E381">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F381" t="s">
         <v>1628</v>
@@ -21778,7 +21778,7 @@
         <v>1572</v>
       </c>
       <c r="E382">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F382" t="s">
         <v>1628</v>
@@ -21813,7 +21813,7 @@
         <v>1572</v>
       </c>
       <c r="E383">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F383" t="s">
         <v>1628</v>
@@ -21848,7 +21848,7 @@
         <v>1572</v>
       </c>
       <c r="E384">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F384" t="s">
         <v>1628</v>
@@ -21883,7 +21883,7 @@
         <v>1572</v>
       </c>
       <c r="E385">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F385" t="s">
         <v>1631</v>
@@ -21921,7 +21921,7 @@
         <v>1572</v>
       </c>
       <c r="E386">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F386" t="s">
         <v>1628</v>
@@ -21956,7 +21956,7 @@
         <v>1572</v>
       </c>
       <c r="E387">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F387" t="s">
         <v>1628</v>
@@ -21991,7 +21991,7 @@
         <v>1572</v>
       </c>
       <c r="E388">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F388" t="s">
         <v>1628</v>
@@ -22026,7 +22026,7 @@
         <v>1572</v>
       </c>
       <c r="E389">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F389" t="s">
         <v>1628</v>
@@ -22061,7 +22061,7 @@
         <v>1572</v>
       </c>
       <c r="E390">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F390" t="s">
         <v>1628</v>
@@ -22096,7 +22096,7 @@
         <v>1572</v>
       </c>
       <c r="E391">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F391" t="s">
         <v>1628</v>
@@ -22131,7 +22131,7 @@
         <v>1572</v>
       </c>
       <c r="E392">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F392" t="s">
         <v>1628</v>
@@ -22166,7 +22166,7 @@
         <v>1573</v>
       </c>
       <c r="E393">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F393" t="s">
         <v>1628</v>
@@ -22201,7 +22201,7 @@
         <v>1573</v>
       </c>
       <c r="E394">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F394" t="s">
         <v>1628</v>
@@ -22236,7 +22236,7 @@
         <v>1573</v>
       </c>
       <c r="E395">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F395" t="s">
         <v>1628</v>
@@ -22271,7 +22271,7 @@
         <v>1573</v>
       </c>
       <c r="E396">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F396" t="s">
         <v>1628</v>
@@ -22306,7 +22306,7 @@
         <v>1573</v>
       </c>
       <c r="E397">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F397" t="s">
         <v>1628</v>
@@ -22341,7 +22341,7 @@
         <v>1573</v>
       </c>
       <c r="E398">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F398" t="s">
         <v>1628</v>
@@ -22376,7 +22376,7 @@
         <v>1573</v>
       </c>
       <c r="E399">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F399" t="s">
         <v>1628</v>
@@ -22411,7 +22411,7 @@
         <v>1573</v>
       </c>
       <c r="E400">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F400" t="s">
         <v>1628</v>
@@ -22446,7 +22446,7 @@
         <v>1573</v>
       </c>
       <c r="E401">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F401" t="s">
         <v>1628</v>
@@ -22481,7 +22481,7 @@
         <v>1574</v>
       </c>
       <c r="E402">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F402" t="s">
         <v>1628</v>
@@ -22516,7 +22516,7 @@
         <v>1575</v>
       </c>
       <c r="E403">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F403" t="s">
         <v>1628</v>
@@ -22551,7 +22551,7 @@
         <v>1575</v>
       </c>
       <c r="E404">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F404" t="s">
         <v>1628</v>
@@ -22586,7 +22586,7 @@
         <v>1575</v>
       </c>
       <c r="E405">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F405" t="s">
         <v>1628</v>
@@ -22624,7 +22624,7 @@
         <v>1576</v>
       </c>
       <c r="E406">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F406" t="s">
         <v>1628</v>
@@ -22659,7 +22659,7 @@
         <v>1576</v>
       </c>
       <c r="E407">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F407" t="s">
         <v>1628</v>
@@ -22694,7 +22694,7 @@
         <v>1576</v>
       </c>
       <c r="E408">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F408" t="s">
         <v>1628</v>
@@ -22729,7 +22729,7 @@
         <v>1577</v>
       </c>
       <c r="E409">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F409" t="s">
         <v>1628</v>
@@ -22764,7 +22764,7 @@
         <v>1577</v>
       </c>
       <c r="E410">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F410" t="s">
         <v>1628</v>
@@ -22799,7 +22799,7 @@
         <v>1577</v>
       </c>
       <c r="E411">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F411" t="s">
         <v>1628</v>
@@ -22834,7 +22834,7 @@
         <v>1577</v>
       </c>
       <c r="E412">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F412" t="s">
         <v>1628</v>
@@ -22869,7 +22869,7 @@
         <v>1578</v>
       </c>
       <c r="E413">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F413" t="s">
         <v>1628</v>
@@ -22907,7 +22907,7 @@
         <v>1578</v>
       </c>
       <c r="E414">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F414" t="s">
         <v>1628</v>
@@ -22942,7 +22942,7 @@
         <v>1578</v>
       </c>
       <c r="E415">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F415" t="s">
         <v>1628</v>
@@ -22977,7 +22977,7 @@
         <v>1579</v>
       </c>
       <c r="E416">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F416" t="s">
         <v>1628</v>
@@ -23012,7 +23012,7 @@
         <v>1579</v>
       </c>
       <c r="E417">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F417" t="s">
         <v>1628</v>
@@ -23047,7 +23047,7 @@
         <v>1579</v>
       </c>
       <c r="E418">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F418" t="s">
         <v>1628</v>
@@ -23082,7 +23082,7 @@
         <v>1579</v>
       </c>
       <c r="E419">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F419" t="s">
         <v>1628</v>
@@ -23117,7 +23117,7 @@
         <v>1579</v>
       </c>
       <c r="E420">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F420" t="s">
         <v>1628</v>
@@ -23152,7 +23152,7 @@
         <v>1580</v>
       </c>
       <c r="E421">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F421" t="s">
         <v>1628</v>
@@ -23187,7 +23187,7 @@
         <v>1580</v>
       </c>
       <c r="E422">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F422" t="s">
         <v>1628</v>
@@ -23222,7 +23222,7 @@
         <v>1580</v>
       </c>
       <c r="E423">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F423" t="s">
         <v>1628</v>
@@ -23257,7 +23257,7 @@
         <v>1580</v>
       </c>
       <c r="E424">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F424" t="s">
         <v>1628</v>
@@ -23292,7 +23292,7 @@
         <v>1580</v>
       </c>
       <c r="E425">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F425" t="s">
         <v>1628</v>
@@ -23327,7 +23327,7 @@
         <v>1580</v>
       </c>
       <c r="E426">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F426" t="s">
         <v>1628</v>
@@ -23362,7 +23362,7 @@
         <v>1580</v>
       </c>
       <c r="E427">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F427" t="s">
         <v>1628</v>
@@ -23397,7 +23397,7 @@
         <v>1580</v>
       </c>
       <c r="E428">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F428" t="s">
         <v>1628</v>
@@ -23432,7 +23432,7 @@
         <v>1580</v>
       </c>
       <c r="E429">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F429" t="s">
         <v>1628</v>
@@ -23467,7 +23467,7 @@
         <v>1580</v>
       </c>
       <c r="E430">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F430" t="s">
         <v>1628</v>
@@ -23502,7 +23502,7 @@
         <v>1581</v>
       </c>
       <c r="E431">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F431" t="s">
         <v>1628</v>
@@ -23537,7 +23537,7 @@
         <v>1581</v>
       </c>
       <c r="E432">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F432" t="s">
         <v>1628</v>
@@ -23572,7 +23572,7 @@
         <v>1581</v>
       </c>
       <c r="E433">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F433" t="s">
         <v>1628</v>
@@ -23607,7 +23607,7 @@
         <v>1581</v>
       </c>
       <c r="E434">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F434" t="s">
         <v>1628</v>
@@ -23642,7 +23642,7 @@
         <v>1581</v>
       </c>
       <c r="E435">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F435" t="s">
         <v>1628</v>
@@ -23677,7 +23677,7 @@
         <v>1581</v>
       </c>
       <c r="E436">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F436" t="s">
         <v>1628</v>
@@ -23712,7 +23712,7 @@
         <v>1581</v>
       </c>
       <c r="E437">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F437" t="s">
         <v>1628</v>
@@ -23747,7 +23747,7 @@
         <v>1581</v>
       </c>
       <c r="E438">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F438" t="s">
         <v>1628</v>
@@ -23785,7 +23785,7 @@
         <v>1581</v>
       </c>
       <c r="E439">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F439" t="s">
         <v>1628</v>
@@ -23820,7 +23820,7 @@
         <v>1581</v>
       </c>
       <c r="E440">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F440" t="s">
         <v>1628</v>
@@ -23855,7 +23855,7 @@
         <v>1582</v>
       </c>
       <c r="E441">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F441" t="s">
         <v>1628</v>
@@ -23890,7 +23890,7 @@
         <v>1582</v>
       </c>
       <c r="E442">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F442" t="s">
         <v>1628</v>
@@ -23925,7 +23925,7 @@
         <v>1583</v>
       </c>
       <c r="E443">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F443" t="s">
         <v>1628</v>
@@ -23963,7 +23963,7 @@
         <v>1583</v>
       </c>
       <c r="E444">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F444" t="s">
         <v>1628</v>
@@ -23998,7 +23998,7 @@
         <v>1583</v>
       </c>
       <c r="E445">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F445" t="s">
         <v>1628</v>
@@ -24033,7 +24033,7 @@
         <v>1584</v>
       </c>
       <c r="E446">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F446" t="s">
         <v>1628</v>
@@ -24068,7 +24068,7 @@
         <v>1584</v>
       </c>
       <c r="E447">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F447" t="s">
         <v>1628</v>
@@ -24103,7 +24103,7 @@
         <v>1584</v>
       </c>
       <c r="E448">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F448" t="s">
         <v>1628</v>
@@ -24138,7 +24138,7 @@
         <v>1584</v>
       </c>
       <c r="E449">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F449" t="s">
         <v>1628</v>
@@ -24173,7 +24173,7 @@
         <v>1584</v>
       </c>
       <c r="E450">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F450" t="s">
         <v>1628</v>
@@ -24208,7 +24208,7 @@
         <v>1584</v>
       </c>
       <c r="E451">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F451" t="s">
         <v>1628</v>
@@ -24246,7 +24246,7 @@
         <v>1584</v>
       </c>
       <c r="E452">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F452" t="s">
         <v>1628</v>
@@ -24281,7 +24281,7 @@
         <v>1585</v>
       </c>
       <c r="E453">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F453" t="s">
         <v>1628</v>
@@ -24319,7 +24319,7 @@
         <v>1585</v>
       </c>
       <c r="E454">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F454" t="s">
         <v>1628</v>
@@ -24354,7 +24354,7 @@
         <v>1585</v>
       </c>
       <c r="E455">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F455" t="s">
         <v>1628</v>
@@ -24389,7 +24389,7 @@
         <v>1585</v>
       </c>
       <c r="E456">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F456" t="s">
         <v>1628</v>
@@ -24424,7 +24424,7 @@
         <v>1585</v>
       </c>
       <c r="E457">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F457" t="s">
         <v>1628</v>
@@ -24459,7 +24459,7 @@
         <v>1585</v>
       </c>
       <c r="E458">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F458" t="s">
         <v>1628</v>
@@ -24494,7 +24494,7 @@
         <v>1585</v>
       </c>
       <c r="E459">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F459" t="s">
         <v>1628</v>
@@ -24532,7 +24532,7 @@
         <v>1585</v>
       </c>
       <c r="E460">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F460" t="s">
         <v>1628</v>
@@ -24567,7 +24567,7 @@
         <v>1586</v>
       </c>
       <c r="E461">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F461" t="s">
         <v>1628</v>
@@ -24602,7 +24602,7 @@
         <v>1587</v>
       </c>
       <c r="E462">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F462" t="s">
         <v>1631</v>
@@ -24637,7 +24637,7 @@
         <v>1587</v>
       </c>
       <c r="E463">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F463" t="s">
         <v>1628</v>
@@ -24672,7 +24672,7 @@
         <v>1587</v>
       </c>
       <c r="E464">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F464" t="s">
         <v>1628</v>
@@ -24707,7 +24707,7 @@
         <v>1587</v>
       </c>
       <c r="E465">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F465" t="s">
         <v>1628</v>
@@ -24742,7 +24742,7 @@
         <v>1587</v>
       </c>
       <c r="E466">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F466" t="s">
         <v>1628</v>
@@ -24777,7 +24777,7 @@
         <v>1588</v>
       </c>
       <c r="E467">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F467" t="s">
         <v>1628</v>
@@ -24812,7 +24812,7 @@
         <v>1588</v>
       </c>
       <c r="E468">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F468" t="s">
         <v>1628</v>
@@ -24850,7 +24850,7 @@
         <v>1588</v>
       </c>
       <c r="E469">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F469" t="s">
         <v>1628</v>
@@ -24885,7 +24885,7 @@
         <v>1588</v>
       </c>
       <c r="E470">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F470" t="s">
         <v>1628</v>
@@ -24920,7 +24920,7 @@
         <v>1588</v>
       </c>
       <c r="E471">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F471" t="s">
         <v>1628</v>
@@ -24955,7 +24955,7 @@
         <v>1588</v>
       </c>
       <c r="E472">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F472" t="s">
         <v>1628</v>
@@ -24990,7 +24990,7 @@
         <v>1588</v>
       </c>
       <c r="E473">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F473" t="s">
         <v>1628</v>
@@ -25025,7 +25025,7 @@
         <v>1588</v>
       </c>
       <c r="E474">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F474" t="s">
         <v>1628</v>
@@ -25060,7 +25060,7 @@
         <v>1588</v>
       </c>
       <c r="E475">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F475" t="s">
         <v>1628</v>
@@ -25095,7 +25095,7 @@
         <v>1588</v>
       </c>
       <c r="E476">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F476" t="s">
         <v>1628</v>
@@ -25130,7 +25130,7 @@
         <v>1588</v>
       </c>
       <c r="E477">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F477" t="s">
         <v>1628</v>
@@ -25165,7 +25165,7 @@
         <v>1589</v>
       </c>
       <c r="E478">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F478" t="s">
         <v>1628</v>
@@ -25200,7 +25200,7 @@
         <v>1590</v>
       </c>
       <c r="E479">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F479" t="s">
         <v>1628</v>
@@ -25235,7 +25235,7 @@
         <v>1590</v>
       </c>
       <c r="E480">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F480" t="s">
         <v>1628</v>
@@ -25270,7 +25270,7 @@
         <v>1590</v>
       </c>
       <c r="E481">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F481" t="s">
         <v>1628</v>
@@ -25305,7 +25305,7 @@
         <v>1590</v>
       </c>
       <c r="E482">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F482" t="s">
         <v>1628</v>
@@ -25340,7 +25340,7 @@
         <v>1590</v>
       </c>
       <c r="E483">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F483" t="s">
         <v>1631</v>
@@ -25375,7 +25375,7 @@
         <v>1591</v>
       </c>
       <c r="E484">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F484" t="s">
         <v>1628</v>
@@ -25410,7 +25410,7 @@
         <v>1591</v>
       </c>
       <c r="E485">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F485" t="s">
         <v>1631</v>
@@ -25448,7 +25448,7 @@
         <v>1591</v>
       </c>
       <c r="E486">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F486" t="s">
         <v>1628</v>
@@ -25483,7 +25483,7 @@
         <v>1591</v>
       </c>
       <c r="E487">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F487" t="s">
         <v>1628</v>
@@ -25518,7 +25518,7 @@
         <v>1592</v>
       </c>
       <c r="E488">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F488" t="s">
         <v>1628</v>
@@ -25553,7 +25553,7 @@
         <v>1592</v>
       </c>
       <c r="E489">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F489" t="s">
         <v>1628</v>
@@ -25588,7 +25588,7 @@
         <v>1592</v>
       </c>
       <c r="E490">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F490" t="s">
         <v>1628</v>
@@ -25623,7 +25623,7 @@
         <v>1592</v>
       </c>
       <c r="E491">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F491" t="s">
         <v>1631</v>
@@ -25658,7 +25658,7 @@
         <v>1592</v>
       </c>
       <c r="E492">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F492" t="s">
         <v>1628</v>
@@ -25693,7 +25693,7 @@
         <v>1593</v>
       </c>
       <c r="E493">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F493" t="s">
         <v>1628</v>
@@ -25731,7 +25731,7 @@
         <v>1593</v>
       </c>
       <c r="E494">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F494" t="s">
         <v>1628</v>
@@ -25766,7 +25766,7 @@
         <v>1593</v>
       </c>
       <c r="E495">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F495" t="s">
         <v>1628</v>
@@ -25801,7 +25801,7 @@
         <v>1594</v>
       </c>
       <c r="E496">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F496" t="s">
         <v>1628</v>
@@ -25836,7 +25836,7 @@
         <v>1594</v>
       </c>
       <c r="E497">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F497" t="s">
         <v>1628</v>
@@ -25871,7 +25871,7 @@
         <v>1594</v>
       </c>
       <c r="E498">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F498" t="s">
         <v>1628</v>
@@ -25906,7 +25906,7 @@
         <v>1594</v>
       </c>
       <c r="E499">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F499" t="s">
         <v>1631</v>
@@ -25941,7 +25941,7 @@
         <v>1594</v>
       </c>
       <c r="E500">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F500" t="s">
         <v>1631</v>
@@ -25976,7 +25976,7 @@
         <v>1594</v>
       </c>
       <c r="E501">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F501" t="s">
         <v>1631</v>
@@ -26011,7 +26011,7 @@
         <v>1594</v>
       </c>
       <c r="E502">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F502" t="s">
         <v>1628</v>
@@ -26046,7 +26046,7 @@
         <v>1594</v>
       </c>
       <c r="E503">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F503" t="s">
         <v>1628</v>
@@ -26081,7 +26081,7 @@
         <v>1594</v>
       </c>
       <c r="E504">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F504" t="s">
         <v>1628</v>
@@ -26116,7 +26116,7 @@
         <v>1594</v>
       </c>
       <c r="E505">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F505" t="s">
         <v>1628</v>
@@ -26151,7 +26151,7 @@
         <v>1594</v>
       </c>
       <c r="E506">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F506" t="s">
         <v>1628</v>
@@ -26186,7 +26186,7 @@
         <v>1595</v>
       </c>
       <c r="E507">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F507" t="s">
         <v>1628</v>
@@ -26221,7 +26221,7 @@
         <v>1595</v>
       </c>
       <c r="E508">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F508" t="s">
         <v>1628</v>
@@ -26256,7 +26256,7 @@
         <v>1595</v>
       </c>
       <c r="E509">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F509" t="s">
         <v>1628</v>
@@ -26291,7 +26291,7 @@
         <v>1595</v>
       </c>
       <c r="E510">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F510" t="s">
         <v>1628</v>
@@ -26326,7 +26326,7 @@
         <v>1595</v>
       </c>
       <c r="E511">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F511" t="s">
         <v>1628</v>
@@ -26361,7 +26361,7 @@
         <v>1595</v>
       </c>
       <c r="E512">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F512" t="s">
         <v>1628</v>
@@ -26396,7 +26396,7 @@
         <v>1595</v>
       </c>
       <c r="E513">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F513" t="s">
         <v>1628</v>
@@ -26431,7 +26431,7 @@
         <v>1595</v>
       </c>
       <c r="E514">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F514" t="s">
         <v>1631</v>
@@ -26466,7 +26466,7 @@
         <v>1595</v>
       </c>
       <c r="E515">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F515" t="s">
         <v>1631</v>
@@ -26501,7 +26501,7 @@
         <v>1595</v>
       </c>
       <c r="E516">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F516" t="s">
         <v>1628</v>
@@ -26536,7 +26536,7 @@
         <v>1595</v>
       </c>
       <c r="E517">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F517" t="s">
         <v>1631</v>
@@ -26571,7 +26571,7 @@
         <v>1595</v>
       </c>
       <c r="E518">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F518" t="s">
         <v>1628</v>
@@ -26606,7 +26606,7 @@
         <v>1595</v>
       </c>
       <c r="E519">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F519" t="s">
         <v>1628</v>
@@ -26641,7 +26641,7 @@
         <v>1595</v>
       </c>
       <c r="E520">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F520" t="s">
         <v>1628</v>
@@ -26676,7 +26676,7 @@
         <v>1596</v>
       </c>
       <c r="E521">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F521" t="s">
         <v>1628</v>
@@ -26711,7 +26711,7 @@
         <v>1596</v>
       </c>
       <c r="E522">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F522" t="s">
         <v>1628</v>
@@ -26746,7 +26746,7 @@
         <v>1596</v>
       </c>
       <c r="E523">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F523" t="s">
         <v>1628</v>
@@ -26784,7 +26784,7 @@
         <v>1596</v>
       </c>
       <c r="E524">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F524" t="s">
         <v>1628</v>
@@ -26822,7 +26822,7 @@
         <v>1596</v>
       </c>
       <c r="E525">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F525" t="s">
         <v>1628</v>
@@ -26857,7 +26857,7 @@
         <v>1596</v>
       </c>
       <c r="E526">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F526" t="s">
         <v>1628</v>
@@ -26892,7 +26892,7 @@
         <v>1597</v>
       </c>
       <c r="E527">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F527" t="s">
         <v>1628</v>
@@ -26927,7 +26927,7 @@
         <v>1597</v>
       </c>
       <c r="E528">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F528" t="s">
         <v>1628</v>
@@ -26962,7 +26962,7 @@
         <v>1597</v>
       </c>
       <c r="E529">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F529" t="s">
         <v>1628</v>
@@ -26997,7 +26997,7 @@
         <v>1597</v>
       </c>
       <c r="E530">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F530" t="s">
         <v>1628</v>
@@ -27032,7 +27032,7 @@
         <v>1597</v>
       </c>
       <c r="E531">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F531" t="s">
         <v>1628</v>
@@ -27067,7 +27067,7 @@
         <v>1598</v>
       </c>
       <c r="E532">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F532" t="s">
         <v>1628</v>
@@ -27102,7 +27102,7 @@
         <v>1599</v>
       </c>
       <c r="E533">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F533" t="s">
         <v>1628</v>
@@ -27137,7 +27137,7 @@
         <v>1600</v>
       </c>
       <c r="E534">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F534" t="s">
         <v>1628</v>
@@ -27172,7 +27172,7 @@
         <v>1600</v>
       </c>
       <c r="E535">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F535" t="s">
         <v>1628</v>
@@ -27207,7 +27207,7 @@
         <v>1601</v>
       </c>
       <c r="E536">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F536" t="s">
         <v>1628</v>
@@ -27242,7 +27242,7 @@
         <v>1601</v>
       </c>
       <c r="E537">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F537" t="s">
         <v>1628</v>
@@ -27277,7 +27277,7 @@
         <v>1602</v>
       </c>
       <c r="E538">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F538" t="s">
         <v>1631</v>
@@ -27315,7 +27315,7 @@
         <v>1602</v>
       </c>
       <c r="E539">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F539" t="s">
         <v>1628</v>
@@ -27350,7 +27350,7 @@
         <v>1602</v>
       </c>
       <c r="E540">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F540" t="s">
         <v>1628</v>
@@ -27385,7 +27385,7 @@
         <v>1603</v>
       </c>
       <c r="E541">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F541" t="s">
         <v>1631</v>
@@ -27423,7 +27423,7 @@
         <v>1603</v>
       </c>
       <c r="E542">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F542" t="s">
         <v>1628</v>
@@ -27458,7 +27458,7 @@
         <v>1603</v>
       </c>
       <c r="E543">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F543" t="s">
         <v>1631</v>
@@ -27496,7 +27496,7 @@
         <v>1603</v>
       </c>
       <c r="E544">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F544" t="s">
         <v>1628</v>
@@ -27531,7 +27531,7 @@
         <v>1603</v>
       </c>
       <c r="E545">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F545" t="s">
         <v>1628</v>
@@ -27566,7 +27566,7 @@
         <v>1603</v>
       </c>
       <c r="E546">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F546" t="s">
         <v>1629</v>
@@ -27601,7 +27601,7 @@
         <v>1604</v>
       </c>
       <c r="E547">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F547" t="s">
         <v>1628</v>
@@ -27639,7 +27639,7 @@
         <v>1604</v>
       </c>
       <c r="E548">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F548" t="s">
         <v>1628</v>
@@ -27677,7 +27677,7 @@
         <v>1604</v>
       </c>
       <c r="E549">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F549" t="s">
         <v>1628</v>
@@ -27715,7 +27715,7 @@
         <v>1604</v>
       </c>
       <c r="E550">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F550" t="s">
         <v>1628</v>
@@ -27753,7 +27753,7 @@
         <v>1604</v>
       </c>
       <c r="E551">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F551" t="s">
         <v>1628</v>
@@ -27788,7 +27788,7 @@
         <v>1604</v>
       </c>
       <c r="E552">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F552" t="s">
         <v>1628</v>
@@ -27823,7 +27823,7 @@
         <v>1604</v>
       </c>
       <c r="E553">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F553" t="s">
         <v>1628</v>
@@ -27858,7 +27858,7 @@
         <v>1605</v>
       </c>
       <c r="E554">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F554" t="s">
         <v>1628</v>
@@ -27893,7 +27893,7 @@
         <v>1605</v>
       </c>
       <c r="E555">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F555" t="s">
         <v>1628</v>
@@ -27928,7 +27928,7 @@
         <v>1605</v>
       </c>
       <c r="E556">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F556" t="s">
         <v>1628</v>
@@ -27963,7 +27963,7 @@
         <v>1605</v>
       </c>
       <c r="E557">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F557" t="s">
         <v>1628</v>
@@ -27998,7 +27998,7 @@
         <v>1605</v>
       </c>
       <c r="E558">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F558" t="s">
         <v>1628</v>
@@ -28033,7 +28033,7 @@
         <v>1605</v>
       </c>
       <c r="E559">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F559" t="s">
         <v>1628</v>
@@ -28068,7 +28068,7 @@
         <v>1606</v>
       </c>
       <c r="E560">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F560" t="s">
         <v>1628</v>
@@ -28103,7 +28103,7 @@
         <v>1606</v>
       </c>
       <c r="E561">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F561" t="s">
         <v>1628</v>
@@ -28138,7 +28138,7 @@
         <v>1606</v>
       </c>
       <c r="E562">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F562" t="s">
         <v>1628</v>
@@ -28173,7 +28173,7 @@
         <v>1606</v>
       </c>
       <c r="E563">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F563" t="s">
         <v>1628</v>
@@ -28208,7 +28208,7 @@
         <v>1606</v>
       </c>
       <c r="E564">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F564" t="s">
         <v>1628</v>
@@ -28243,7 +28243,7 @@
         <v>1606</v>
       </c>
       <c r="E565">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F565" t="s">
         <v>1631</v>
@@ -28281,7 +28281,7 @@
         <v>1607</v>
       </c>
       <c r="E566">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F566" t="s">
         <v>1631</v>
@@ -28319,7 +28319,7 @@
         <v>1607</v>
       </c>
       <c r="E567">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F567" t="s">
         <v>1628</v>
@@ -28354,7 +28354,7 @@
         <v>1607</v>
       </c>
       <c r="E568">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F568" t="s">
         <v>1628</v>
@@ -28389,7 +28389,7 @@
         <v>1607</v>
       </c>
       <c r="E569">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F569" t="s">
         <v>1628</v>
@@ -28424,7 +28424,7 @@
         <v>1607</v>
       </c>
       <c r="E570">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F570" t="s">
         <v>1631</v>
@@ -28459,7 +28459,7 @@
         <v>1607</v>
       </c>
       <c r="E571">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F571" t="s">
         <v>1628</v>
@@ -28494,7 +28494,7 @@
         <v>1607</v>
       </c>
       <c r="E572">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F572" t="s">
         <v>1628</v>
@@ -28532,7 +28532,7 @@
         <v>1608</v>
       </c>
       <c r="E573">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F573" t="s">
         <v>1628</v>
@@ -28567,7 +28567,7 @@
         <v>1608</v>
       </c>
       <c r="E574">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F574" t="s">
         <v>1628</v>
@@ -28602,7 +28602,7 @@
         <v>1608</v>
       </c>
       <c r="E575">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F575" t="s">
         <v>1628</v>
@@ -28637,7 +28637,7 @@
         <v>1608</v>
       </c>
       <c r="E576">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F576" t="s">
         <v>1628</v>
@@ -28672,7 +28672,7 @@
         <v>1609</v>
       </c>
       <c r="E577">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F577" t="s">
         <v>1628</v>
@@ -28707,7 +28707,7 @@
         <v>1609</v>
       </c>
       <c r="E578">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F578" t="s">
         <v>1628</v>
@@ -28742,7 +28742,7 @@
         <v>1609</v>
       </c>
       <c r="E579">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F579" t="s">
         <v>1631</v>
@@ -28780,7 +28780,7 @@
         <v>1609</v>
       </c>
       <c r="E580">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F580" t="s">
         <v>1628</v>
@@ -28815,7 +28815,7 @@
         <v>1609</v>
       </c>
       <c r="E581">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F581" t="s">
         <v>1628</v>
@@ -28850,7 +28850,7 @@
         <v>1609</v>
       </c>
       <c r="E582">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F582" t="s">
         <v>1628</v>
@@ -28885,7 +28885,7 @@
         <v>1610</v>
       </c>
       <c r="E583">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F583" t="s">
         <v>1628</v>
@@ -28920,7 +28920,7 @@
         <v>1610</v>
       </c>
       <c r="E584">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F584" t="s">
         <v>1628</v>
@@ -28955,7 +28955,7 @@
         <v>1610</v>
       </c>
       <c r="E585">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F585" t="s">
         <v>1631</v>
@@ -28993,7 +28993,7 @@
         <v>1610</v>
       </c>
       <c r="E586">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F586" t="s">
         <v>1628</v>
@@ -29028,7 +29028,7 @@
         <v>1610</v>
       </c>
       <c r="E587">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F587" t="s">
         <v>1628</v>
@@ -29063,7 +29063,7 @@
         <v>1610</v>
       </c>
       <c r="E588">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F588" t="s">
         <v>1628</v>
@@ -29098,7 +29098,7 @@
         <v>1610</v>
       </c>
       <c r="E589">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F589" t="s">
         <v>1628</v>
@@ -29133,7 +29133,7 @@
         <v>1611</v>
       </c>
       <c r="E590">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F590" t="s">
         <v>1628</v>
@@ -29168,7 +29168,7 @@
         <v>1611</v>
       </c>
       <c r="E591">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F591" t="s">
         <v>1628</v>
@@ -29203,7 +29203,7 @@
         <v>1611</v>
       </c>
       <c r="E592">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F592" t="s">
         <v>1628</v>
@@ -29238,7 +29238,7 @@
         <v>1612</v>
       </c>
       <c r="E593">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F593" t="s">
         <v>1628</v>
@@ -29273,7 +29273,7 @@
         <v>1612</v>
       </c>
       <c r="E594">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F594" t="s">
         <v>1628</v>
@@ -29308,7 +29308,7 @@
         <v>1612</v>
       </c>
       <c r="E595">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F595" t="s">
         <v>1628</v>
@@ -29343,7 +29343,7 @@
         <v>1612</v>
       </c>
       <c r="E596">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F596" t="s">
         <v>1628</v>
@@ -29378,7 +29378,7 @@
         <v>1613</v>
       </c>
       <c r="E597">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F597" t="s">
         <v>1631</v>
@@ -29416,7 +29416,7 @@
         <v>1613</v>
       </c>
       <c r="E598">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F598" t="s">
         <v>1631</v>
@@ -29454,7 +29454,7 @@
         <v>1613</v>
       </c>
       <c r="E599">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F599" t="s">
         <v>1631</v>
@@ -29492,7 +29492,7 @@
         <v>1613</v>
       </c>
       <c r="E600">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F600" t="s">
         <v>1628</v>
@@ -29527,7 +29527,7 @@
         <v>1613</v>
       </c>
       <c r="E601">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F601" t="s">
         <v>1628</v>
@@ -29562,7 +29562,7 @@
         <v>1613</v>
       </c>
       <c r="E602">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F602" t="s">
         <v>1628</v>
@@ -29597,7 +29597,7 @@
         <v>1613</v>
       </c>
       <c r="E603">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F603" t="s">
         <v>1631</v>
@@ -29635,7 +29635,7 @@
         <v>1613</v>
       </c>
       <c r="E604">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F604" t="s">
         <v>1628</v>
@@ -29670,7 +29670,7 @@
         <v>1613</v>
       </c>
       <c r="E605">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F605" t="s">
         <v>1628</v>
@@ -29705,7 +29705,7 @@
         <v>1614</v>
       </c>
       <c r="E606">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F606" t="s">
         <v>1631</v>
@@ -29743,7 +29743,7 @@
         <v>1614</v>
       </c>
       <c r="E607">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F607" t="s">
         <v>1631</v>
@@ -29781,7 +29781,7 @@
         <v>1614</v>
       </c>
       <c r="E608">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F608" t="s">
         <v>1628</v>
@@ -29816,7 +29816,7 @@
         <v>1614</v>
       </c>
       <c r="E609">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F609" t="s">
         <v>1628</v>
@@ -29851,7 +29851,7 @@
         <v>1614</v>
       </c>
       <c r="E610">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F610" t="s">
         <v>1631</v>
@@ -29889,7 +29889,7 @@
         <v>1615</v>
       </c>
       <c r="E611">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F611" t="s">
         <v>1628</v>
@@ -29924,7 +29924,7 @@
         <v>1616</v>
       </c>
       <c r="E612">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F612" t="s">
         <v>1628</v>
@@ -29962,7 +29962,7 @@
         <v>1616</v>
       </c>
       <c r="E613">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F613" t="s">
         <v>1628</v>
@@ -29997,7 +29997,7 @@
         <v>1616</v>
       </c>
       <c r="E614">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F614" t="s">
         <v>1628</v>
@@ -30032,7 +30032,7 @@
         <v>1616</v>
       </c>
       <c r="E615">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F615" t="s">
         <v>1628</v>
@@ -30067,7 +30067,7 @@
         <v>1617</v>
       </c>
       <c r="E616">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F616" t="s">
         <v>1631</v>
@@ -30105,7 +30105,7 @@
         <v>1617</v>
       </c>
       <c r="E617">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F617" t="s">
         <v>1631</v>
@@ -30143,7 +30143,7 @@
         <v>1617</v>
       </c>
       <c r="E618">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F618" t="s">
         <v>1628</v>
@@ -30178,7 +30178,7 @@
         <v>1617</v>
       </c>
       <c r="E619">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F619" t="s">
         <v>1628</v>
@@ -30213,7 +30213,7 @@
         <v>1617</v>
       </c>
       <c r="E620">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F620" t="s">
         <v>1628</v>
@@ -30248,7 +30248,7 @@
         <v>1617</v>
       </c>
       <c r="E621">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F621" t="s">
         <v>1628</v>
@@ -30283,7 +30283,7 @@
         <v>1618</v>
       </c>
       <c r="E622">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F622" t="s">
         <v>1628</v>
@@ -30318,7 +30318,7 @@
         <v>1618</v>
       </c>
       <c r="E623">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F623" t="s">
         <v>1628</v>
@@ -30353,7 +30353,7 @@
         <v>1618</v>
       </c>
       <c r="E624">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F624" t="s">
         <v>1630</v>
@@ -30388,7 +30388,7 @@
         <v>1618</v>
       </c>
       <c r="E625">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F625" t="s">
         <v>1631</v>
@@ -30426,7 +30426,7 @@
         <v>1618</v>
       </c>
       <c r="E626">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F626" t="s">
         <v>1628</v>
@@ -30461,7 +30461,7 @@
         <v>1618</v>
       </c>
       <c r="E627">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F627" t="s">
         <v>1628</v>
@@ -30496,7 +30496,7 @@
         <v>1618</v>
       </c>
       <c r="E628">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F628" t="s">
         <v>1628</v>
@@ -30534,7 +30534,7 @@
         <v>1618</v>
       </c>
       <c r="E629">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F629" t="s">
         <v>1628</v>
@@ -30569,7 +30569,7 @@
         <v>1619</v>
       </c>
       <c r="E630">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F630" t="s">
         <v>1628</v>
@@ -30604,7 +30604,7 @@
         <v>1619</v>
       </c>
       <c r="E631">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F631" t="s">
         <v>1628</v>
@@ -30639,7 +30639,7 @@
         <v>1619</v>
       </c>
       <c r="E632">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F632" t="s">
         <v>1628</v>
@@ -30674,7 +30674,7 @@
         <v>1619</v>
       </c>
       <c r="E633">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F633" t="s">
         <v>1628</v>
@@ -30709,7 +30709,7 @@
         <v>1619</v>
       </c>
       <c r="E634">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F634" t="s">
         <v>1628</v>
@@ -30744,7 +30744,7 @@
         <v>1619</v>
       </c>
       <c r="E635">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F635" t="s">
         <v>1631</v>
@@ -30782,7 +30782,7 @@
         <v>1619</v>
       </c>
       <c r="E636">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F636" t="s">
         <v>1631</v>
@@ -30820,7 +30820,7 @@
         <v>1619</v>
       </c>
       <c r="E637">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F637" t="s">
         <v>1628</v>
@@ -30855,7 +30855,7 @@
         <v>1620</v>
       </c>
       <c r="E638">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F638" t="s">
         <v>1628</v>
@@ -30890,7 +30890,7 @@
         <v>1620</v>
       </c>
       <c r="E639">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F639" t="s">
         <v>1628</v>
@@ -30925,7 +30925,7 @@
         <v>1620</v>
       </c>
       <c r="E640">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F640" t="s">
         <v>1631</v>
@@ -30963,7 +30963,7 @@
         <v>1620</v>
       </c>
       <c r="E641">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F641" t="s">
         <v>1628</v>
@@ -30998,7 +30998,7 @@
         <v>1620</v>
       </c>
       <c r="E642">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F642" t="s">
         <v>1628</v>
@@ -31033,7 +31033,7 @@
         <v>1620</v>
       </c>
       <c r="E643">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F643" t="s">
         <v>1628</v>
@@ -31068,7 +31068,7 @@
         <v>1621</v>
       </c>
       <c r="E644">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F644" t="s">
         <v>1628</v>
@@ -31103,7 +31103,7 @@
         <v>1621</v>
       </c>
       <c r="E645">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F645" t="s">
         <v>1631</v>
@@ -31138,7 +31138,7 @@
         <v>1621</v>
       </c>
       <c r="E646">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F646" t="s">
         <v>1628</v>
@@ -31173,7 +31173,7 @@
         <v>1621</v>
       </c>
       <c r="E647">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F647" t="s">
         <v>1628</v>
@@ -31208,7 +31208,7 @@
         <v>1621</v>
       </c>
       <c r="E648">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F648" t="s">
         <v>1628</v>
@@ -31243,7 +31243,7 @@
         <v>1621</v>
       </c>
       <c r="E649">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F649" t="s">
         <v>1628</v>
@@ -31278,7 +31278,7 @@
         <v>1621</v>
       </c>
       <c r="E650">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F650" t="s">
         <v>1631</v>
@@ -31313,7 +31313,7 @@
         <v>1622</v>
       </c>
       <c r="E651">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F651" t="s">
         <v>1628</v>
@@ -31348,7 +31348,7 @@
         <v>1622</v>
       </c>
       <c r="E652">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F652" t="s">
         <v>1628</v>
@@ -31386,7 +31386,7 @@
         <v>1622</v>
       </c>
       <c r="E653">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F653" t="s">
         <v>1628</v>
@@ -31424,7 +31424,7 @@
         <v>1622</v>
       </c>
       <c r="E654">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F654" t="s">
         <v>1628</v>
@@ -31459,7 +31459,7 @@
         <v>1622</v>
       </c>
       <c r="E655">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F655" t="s">
         <v>1628</v>
@@ -31494,7 +31494,7 @@
         <v>1622</v>
       </c>
       <c r="E656">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F656" t="s">
         <v>1627</v>
@@ -31529,7 +31529,7 @@
         <v>1622</v>
       </c>
       <c r="E657">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F657" t="s">
         <v>1628</v>
@@ -31564,7 +31564,7 @@
         <v>1623</v>
       </c>
       <c r="E658">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F658" t="s">
         <v>1628</v>
@@ -31599,7 +31599,7 @@
         <v>1623</v>
       </c>
       <c r="E659">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F659" t="s">
         <v>1628</v>
@@ -31634,7 +31634,7 @@
         <v>1623</v>
       </c>
       <c r="E660">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F660" t="s">
         <v>1628</v>
@@ -31669,7 +31669,7 @@
         <v>1623</v>
       </c>
       <c r="E661">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F661" t="s">
         <v>1631</v>
@@ -31707,7 +31707,7 @@
         <v>1623</v>
       </c>
       <c r="E662">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F662" t="s">
         <v>1628</v>
@@ -31742,7 +31742,7 @@
         <v>1623</v>
       </c>
       <c r="E663">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F663" t="s">
         <v>1631</v>
@@ -31780,7 +31780,7 @@
         <v>1623</v>
       </c>
       <c r="E664">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F664" t="s">
         <v>1628</v>
@@ -31818,7 +31818,7 @@
         <v>1623</v>
       </c>
       <c r="E665">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F665" t="s">
         <v>1631</v>
@@ -31856,7 +31856,7 @@
         <v>1623</v>
       </c>
       <c r="E666">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F666" t="s">
         <v>1628</v>
@@ -31891,7 +31891,7 @@
         <v>1623</v>
       </c>
       <c r="E667">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F667" t="s">
         <v>1628</v>
@@ -31926,7 +31926,7 @@
         <v>1624</v>
       </c>
       <c r="E668">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F668" t="s">
         <v>1628</v>
@@ -31961,7 +31961,7 @@
         <v>1624</v>
       </c>
       <c r="E669">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F669" t="s">
         <v>1628</v>
@@ -31999,7 +31999,7 @@
         <v>1624</v>
       </c>
       <c r="E670">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F670" t="s">
         <v>1628</v>
@@ -32034,7 +32034,7 @@
         <v>1624</v>
       </c>
       <c r="E671">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F671" t="s">
         <v>1628</v>
@@ -32069,7 +32069,7 @@
         <v>1624</v>
       </c>
       <c r="E672">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F672" t="s">
         <v>1631</v>
@@ -32107,7 +32107,7 @@
         <v>1625</v>
       </c>
       <c r="E673">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F673" t="s">
         <v>1628</v>
@@ -32142,7 +32142,7 @@
         <v>1625</v>
       </c>
       <c r="E674">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F674" t="s">
         <v>1628</v>
@@ -32177,7 +32177,7 @@
         <v>1625</v>
       </c>
       <c r="E675">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F675" t="s">
         <v>1632</v>
@@ -32212,7 +32212,7 @@
         <v>1626</v>
       </c>
       <c r="E676">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F676" t="s">
         <v>1628</v>
@@ -32247,7 +32247,7 @@
         <v>1626</v>
       </c>
       <c r="E677">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F677" t="s">
         <v>1628</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -8547,7 +8547,7 @@
         <v>1435</v>
       </c>
       <c r="E2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
         <v>1661</v>
@@ -8582,7 +8582,7 @@
         <v>1436</v>
       </c>
       <c r="E3">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F3" t="s">
         <v>1661</v>
@@ -8617,7 +8617,7 @@
         <v>1437</v>
       </c>
       <c r="E4">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F4" t="s">
         <v>1661</v>
@@ -8652,7 +8652,7 @@
         <v>1438</v>
       </c>
       <c r="E5">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F5" t="s">
         <v>1661</v>
@@ -8687,7 +8687,7 @@
         <v>1439</v>
       </c>
       <c r="E6">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F6" t="s">
         <v>1661</v>
@@ -8722,7 +8722,7 @@
         <v>1440</v>
       </c>
       <c r="E7">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
         <v>1661</v>
@@ -8757,7 +8757,7 @@
         <v>1441</v>
       </c>
       <c r="E8">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F8" t="s">
         <v>1661</v>
@@ -8792,7 +8792,7 @@
         <v>1442</v>
       </c>
       <c r="E9">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F9" t="s">
         <v>1661</v>
@@ -8827,7 +8827,7 @@
         <v>1443</v>
       </c>
       <c r="E10">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F10" t="s">
         <v>1661</v>
@@ -8862,7 +8862,7 @@
         <v>1444</v>
       </c>
       <c r="E11">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F11" t="s">
         <v>1661</v>
@@ -8897,7 +8897,7 @@
         <v>1445</v>
       </c>
       <c r="E12">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F12" t="s">
         <v>1661</v>
@@ -8932,7 +8932,7 @@
         <v>1446</v>
       </c>
       <c r="E13">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F13" t="s">
         <v>1661</v>
@@ -8967,7 +8967,7 @@
         <v>1447</v>
       </c>
       <c r="E14">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F14" t="s">
         <v>1661</v>
@@ -9002,7 +9002,7 @@
         <v>1448</v>
       </c>
       <c r="E15">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F15" t="s">
         <v>1661</v>
@@ -9037,7 +9037,7 @@
         <v>1449</v>
       </c>
       <c r="E16">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F16" t="s">
         <v>1661</v>
@@ -9072,7 +9072,7 @@
         <v>1450</v>
       </c>
       <c r="E17">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F17" t="s">
         <v>1661</v>
@@ -9107,7 +9107,7 @@
         <v>1451</v>
       </c>
       <c r="E18">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F18" t="s">
         <v>1661</v>
@@ -9142,7 +9142,7 @@
         <v>1452</v>
       </c>
       <c r="E19">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F19" t="s">
         <v>1661</v>
@@ -9177,7 +9177,7 @@
         <v>1453</v>
       </c>
       <c r="E20">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F20" t="s">
         <v>1661</v>
@@ -9212,7 +9212,7 @@
         <v>1454</v>
       </c>
       <c r="E21">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F21" t="s">
         <v>1661</v>
@@ -9247,7 +9247,7 @@
         <v>1454</v>
       </c>
       <c r="E22">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F22" t="s">
         <v>1661</v>
@@ -9282,7 +9282,7 @@
         <v>1455</v>
       </c>
       <c r="E23">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
         <v>1661</v>
@@ -9317,7 +9317,7 @@
         <v>1456</v>
       </c>
       <c r="E24">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F24" t="s">
         <v>1661</v>
@@ -9352,7 +9352,7 @@
         <v>1457</v>
       </c>
       <c r="E25">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F25" t="s">
         <v>1661</v>
@@ -9387,7 +9387,7 @@
         <v>1457</v>
       </c>
       <c r="E26">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F26" t="s">
         <v>1661</v>
@@ -9422,7 +9422,7 @@
         <v>1458</v>
       </c>
       <c r="E27">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
         <v>1661</v>
@@ -9460,7 +9460,7 @@
         <v>1459</v>
       </c>
       <c r="E28">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F28" t="s">
         <v>1662</v>
@@ -9495,7 +9495,7 @@
         <v>1460</v>
       </c>
       <c r="E29">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F29" t="s">
         <v>1661</v>
@@ -9530,7 +9530,7 @@
         <v>1460</v>
       </c>
       <c r="E30">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F30" t="s">
         <v>1661</v>
@@ -9565,7 +9565,7 @@
         <v>1460</v>
       </c>
       <c r="E31">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
         <v>1661</v>
@@ -9600,7 +9600,7 @@
         <v>1461</v>
       </c>
       <c r="E32">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
         <v>1662</v>
@@ -9635,7 +9635,7 @@
         <v>1461</v>
       </c>
       <c r="E33">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F33" t="s">
         <v>1662</v>
@@ -9670,7 +9670,7 @@
         <v>1461</v>
       </c>
       <c r="E34">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F34" t="s">
         <v>1661</v>
@@ -9705,7 +9705,7 @@
         <v>1462</v>
       </c>
       <c r="E35">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F35" t="s">
         <v>1661</v>
@@ -9740,7 +9740,7 @@
         <v>1463</v>
       </c>
       <c r="E36">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F36" t="s">
         <v>1661</v>
@@ -9775,7 +9775,7 @@
         <v>1463</v>
       </c>
       <c r="E37">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F37" t="s">
         <v>1661</v>
@@ -9810,7 +9810,7 @@
         <v>1464</v>
       </c>
       <c r="E38">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F38" t="s">
         <v>1661</v>
@@ -9845,7 +9845,7 @@
         <v>1465</v>
       </c>
       <c r="E39">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F39" t="s">
         <v>1662</v>
@@ -9880,7 +9880,7 @@
         <v>1466</v>
       </c>
       <c r="E40">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F40" t="s">
         <v>1661</v>
@@ -9915,7 +9915,7 @@
         <v>1466</v>
       </c>
       <c r="E41">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F41" t="s">
         <v>1661</v>
@@ -9950,7 +9950,7 @@
         <v>1467</v>
       </c>
       <c r="E42">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F42" t="s">
         <v>1661</v>
@@ -9988,7 +9988,7 @@
         <v>1468</v>
       </c>
       <c r="E43">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F43" t="s">
         <v>1661</v>
@@ -10023,7 +10023,7 @@
         <v>1469</v>
       </c>
       <c r="E44">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F44" t="s">
         <v>1663</v>
@@ -10058,7 +10058,7 @@
         <v>1470</v>
       </c>
       <c r="E45">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F45" t="s">
         <v>1662</v>
@@ -10093,7 +10093,7 @@
         <v>1471</v>
       </c>
       <c r="E46">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F46" t="s">
         <v>1663</v>
@@ -10128,7 +10128,7 @@
         <v>1471</v>
       </c>
       <c r="E47">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F47" t="s">
         <v>1662</v>
@@ -10163,7 +10163,7 @@
         <v>1472</v>
       </c>
       <c r="E48">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F48" t="s">
         <v>1662</v>
@@ -10201,7 +10201,7 @@
         <v>1472</v>
       </c>
       <c r="E49">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F49" t="s">
         <v>1662</v>
@@ -10236,7 +10236,7 @@
         <v>1473</v>
       </c>
       <c r="E50">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F50" t="s">
         <v>1663</v>
@@ -10271,7 +10271,7 @@
         <v>1473</v>
       </c>
       <c r="E51">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F51" t="s">
         <v>1663</v>
@@ -10306,7 +10306,7 @@
         <v>1474</v>
       </c>
       <c r="E52">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F52" t="s">
         <v>1663</v>
@@ -10341,7 +10341,7 @@
         <v>1475</v>
       </c>
       <c r="E53">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F53" t="s">
         <v>1663</v>
@@ -10379,7 +10379,7 @@
         <v>1476</v>
       </c>
       <c r="E54">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F54" t="s">
         <v>1662</v>
@@ -10414,7 +10414,7 @@
         <v>1477</v>
       </c>
       <c r="E55">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F55" t="s">
         <v>1663</v>
@@ -10449,7 +10449,7 @@
         <v>1478</v>
       </c>
       <c r="E56">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F56" t="s">
         <v>1662</v>
@@ -10484,7 +10484,7 @@
         <v>1479</v>
       </c>
       <c r="E57">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
         <v>1662</v>
@@ -10522,7 +10522,7 @@
         <v>1480</v>
       </c>
       <c r="E58">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
         <v>1664</v>
@@ -10560,7 +10560,7 @@
         <v>1480</v>
       </c>
       <c r="E59">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F59" t="s">
         <v>1662</v>
@@ -10595,7 +10595,7 @@
         <v>1480</v>
       </c>
       <c r="E60">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F60" t="s">
         <v>1663</v>
@@ -10630,7 +10630,7 @@
         <v>1481</v>
       </c>
       <c r="E61">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F61" t="s">
         <v>1662</v>
@@ -10665,7 +10665,7 @@
         <v>1482</v>
       </c>
       <c r="E62">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F62" t="s">
         <v>1664</v>
@@ -10700,7 +10700,7 @@
         <v>1482</v>
       </c>
       <c r="E63">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F63" t="s">
         <v>1662</v>
@@ -10735,7 +10735,7 @@
         <v>1483</v>
       </c>
       <c r="E64">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F64" t="s">
         <v>1664</v>
@@ -10770,7 +10770,7 @@
         <v>1483</v>
       </c>
       <c r="E65">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F65" t="s">
         <v>1663</v>
@@ -10805,7 +10805,7 @@
         <v>1484</v>
       </c>
       <c r="E66">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
         <v>1662</v>
@@ -10840,7 +10840,7 @@
         <v>1485</v>
       </c>
       <c r="E67">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
         <v>1662</v>
@@ -10875,7 +10875,7 @@
         <v>1486</v>
       </c>
       <c r="E68">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
         <v>1662</v>
@@ -10910,7 +10910,7 @@
         <v>1486</v>
       </c>
       <c r="E69">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F69" t="s">
         <v>1662</v>
@@ -10945,7 +10945,7 @@
         <v>1487</v>
       </c>
       <c r="E70">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
         <v>1662</v>
@@ -10980,7 +10980,7 @@
         <v>1488</v>
       </c>
       <c r="E71">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F71" t="s">
         <v>1662</v>
@@ -11015,7 +11015,7 @@
         <v>1488</v>
       </c>
       <c r="E72">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F72" t="s">
         <v>1662</v>
@@ -11050,7 +11050,7 @@
         <v>1489</v>
       </c>
       <c r="E73">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
         <v>1662</v>
@@ -11085,7 +11085,7 @@
         <v>1489</v>
       </c>
       <c r="E74">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
         <v>1662</v>
@@ -11120,7 +11120,7 @@
         <v>1490</v>
       </c>
       <c r="E75">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s">
         <v>1662</v>
@@ -11155,7 +11155,7 @@
         <v>1490</v>
       </c>
       <c r="E76">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F76" t="s">
         <v>1662</v>
@@ -11190,7 +11190,7 @@
         <v>1491</v>
       </c>
       <c r="E77">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F77" t="s">
         <v>1662</v>
@@ -11225,7 +11225,7 @@
         <v>1492</v>
       </c>
       <c r="E78">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F78" t="s">
         <v>1662</v>
@@ -11260,7 +11260,7 @@
         <v>1492</v>
       </c>
       <c r="E79">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
         <v>1662</v>
@@ -11295,7 +11295,7 @@
         <v>1492</v>
       </c>
       <c r="E80">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F80" t="s">
         <v>1662</v>
@@ -11330,7 +11330,7 @@
         <v>1492</v>
       </c>
       <c r="E81">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F81" t="s">
         <v>1662</v>
@@ -11365,7 +11365,7 @@
         <v>1493</v>
       </c>
       <c r="E82">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F82" t="s">
         <v>1662</v>
@@ -11400,7 +11400,7 @@
         <v>1494</v>
       </c>
       <c r="E83">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F83" t="s">
         <v>1662</v>
@@ -11435,7 +11435,7 @@
         <v>1494</v>
       </c>
       <c r="E84">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F84" t="s">
         <v>1662</v>
@@ -11470,7 +11470,7 @@
         <v>1495</v>
       </c>
       <c r="E85">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F85" t="s">
         <v>1662</v>
@@ -11505,7 +11505,7 @@
         <v>1495</v>
       </c>
       <c r="E86">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F86" t="s">
         <v>1662</v>
@@ -11540,7 +11540,7 @@
         <v>1496</v>
       </c>
       <c r="E87">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s">
         <v>1662</v>
@@ -11575,7 +11575,7 @@
         <v>1496</v>
       </c>
       <c r="E88">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F88" t="s">
         <v>1662</v>
@@ -11610,7 +11610,7 @@
         <v>1496</v>
       </c>
       <c r="E89">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F89" t="s">
         <v>1662</v>
@@ -11645,7 +11645,7 @@
         <v>1497</v>
       </c>
       <c r="E90">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F90" t="s">
         <v>1662</v>
@@ -11680,7 +11680,7 @@
         <v>1497</v>
       </c>
       <c r="E91">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F91" t="s">
         <v>1662</v>
@@ -11715,7 +11715,7 @@
         <v>1498</v>
       </c>
       <c r="E92">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F92" t="s">
         <v>1662</v>
@@ -11750,7 +11750,7 @@
         <v>1498</v>
       </c>
       <c r="E93">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s">
         <v>1662</v>
@@ -11785,7 +11785,7 @@
         <v>1499</v>
       </c>
       <c r="E94">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F94" t="s">
         <v>1662</v>
@@ -11820,7 +11820,7 @@
         <v>1500</v>
       </c>
       <c r="E95">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
         <v>1662</v>
@@ -11855,7 +11855,7 @@
         <v>1500</v>
       </c>
       <c r="E96">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F96" t="s">
         <v>1662</v>
@@ -11890,7 +11890,7 @@
         <v>1501</v>
       </c>
       <c r="E97">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
         <v>1662</v>
@@ -11925,7 +11925,7 @@
         <v>1502</v>
       </c>
       <c r="E98">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F98" t="s">
         <v>1662</v>
@@ -11960,7 +11960,7 @@
         <v>1502</v>
       </c>
       <c r="E99">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F99" t="s">
         <v>1662</v>
@@ -11995,7 +11995,7 @@
         <v>1503</v>
       </c>
       <c r="E100">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F100" t="s">
         <v>1662</v>
@@ -12030,7 +12030,7 @@
         <v>1504</v>
       </c>
       <c r="E101">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
         <v>1662</v>
@@ -12065,7 +12065,7 @@
         <v>1505</v>
       </c>
       <c r="E102">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F102" t="s">
         <v>1662</v>
@@ -12100,7 +12100,7 @@
         <v>1505</v>
       </c>
       <c r="E103">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F103" t="s">
         <v>1662</v>
@@ -12135,7 +12135,7 @@
         <v>1506</v>
       </c>
       <c r="E104">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
         <v>1662</v>
@@ -12170,7 +12170,7 @@
         <v>1507</v>
       </c>
       <c r="E105">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
         <v>1662</v>
@@ -12205,7 +12205,7 @@
         <v>1507</v>
       </c>
       <c r="E106">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
         <v>1662</v>
@@ -12240,7 +12240,7 @@
         <v>1508</v>
       </c>
       <c r="E107">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F107" t="s">
         <v>1662</v>
@@ -12275,7 +12275,7 @@
         <v>1508</v>
       </c>
       <c r="E108">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F108" t="s">
         <v>1662</v>
@@ -12310,7 +12310,7 @@
         <v>1509</v>
       </c>
       <c r="E109">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F109" t="s">
         <v>1662</v>
@@ -12345,7 +12345,7 @@
         <v>1509</v>
       </c>
       <c r="E110">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F110" t="s">
         <v>1662</v>
@@ -12380,7 +12380,7 @@
         <v>1510</v>
       </c>
       <c r="E111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>1662</v>
@@ -12415,7 +12415,7 @@
         <v>1511</v>
       </c>
       <c r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F112" t="s">
         <v>1662</v>
@@ -12450,7 +12450,7 @@
         <v>1512</v>
       </c>
       <c r="E113">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F113" t="s">
         <v>1662</v>
@@ -12485,7 +12485,7 @@
         <v>1512</v>
       </c>
       <c r="E114">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F114" t="s">
         <v>1662</v>
@@ -12520,7 +12520,7 @@
         <v>1512</v>
       </c>
       <c r="E115">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F115" t="s">
         <v>1662</v>
@@ -12555,7 +12555,7 @@
         <v>1513</v>
       </c>
       <c r="E116">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
         <v>1662</v>
@@ -12590,7 +12590,7 @@
         <v>1513</v>
       </c>
       <c r="E117">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
         <v>1662</v>
@@ -12625,7 +12625,7 @@
         <v>1513</v>
       </c>
       <c r="E118">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
         <v>1662</v>
@@ -12660,7 +12660,7 @@
         <v>1514</v>
       </c>
       <c r="E119">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
         <v>1662</v>
@@ -12695,7 +12695,7 @@
         <v>1515</v>
       </c>
       <c r="E120">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
         <v>1662</v>
@@ -12730,7 +12730,7 @@
         <v>1515</v>
       </c>
       <c r="E121">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
         <v>1662</v>
@@ -12765,7 +12765,7 @@
         <v>1515</v>
       </c>
       <c r="E122">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
         <v>1662</v>
@@ -12800,7 +12800,7 @@
         <v>1516</v>
       </c>
       <c r="E123">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
         <v>1662</v>
@@ -12835,7 +12835,7 @@
         <v>1516</v>
       </c>
       <c r="E124">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
         <v>1662</v>
@@ -12870,7 +12870,7 @@
         <v>1517</v>
       </c>
       <c r="E125">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F125" t="s">
         <v>1662</v>
@@ -12905,7 +12905,7 @@
         <v>1518</v>
       </c>
       <c r="E126">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
         <v>1662</v>
@@ -12940,7 +12940,7 @@
         <v>1518</v>
       </c>
       <c r="E127">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F127" t="s">
         <v>1662</v>
@@ -12975,7 +12975,7 @@
         <v>1519</v>
       </c>
       <c r="E128">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F128" t="s">
         <v>1662</v>
@@ -13010,7 +13010,7 @@
         <v>1519</v>
       </c>
       <c r="E129">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F129" t="s">
         <v>1662</v>
@@ -13045,7 +13045,7 @@
         <v>1520</v>
       </c>
       <c r="E130">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F130" t="s">
         <v>1662</v>
@@ -13080,7 +13080,7 @@
         <v>1520</v>
       </c>
       <c r="E131">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F131" t="s">
         <v>1662</v>
@@ -13115,7 +13115,7 @@
         <v>1520</v>
       </c>
       <c r="E132">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F132" t="s">
         <v>1662</v>
@@ -13150,7 +13150,7 @@
         <v>1521</v>
       </c>
       <c r="E133">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F133" t="s">
         <v>1662</v>
@@ -13185,7 +13185,7 @@
         <v>1522</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F134" t="s">
         <v>1662</v>
@@ -13220,7 +13220,7 @@
         <v>1522</v>
       </c>
       <c r="E135">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F135" t="s">
         <v>1662</v>
@@ -13255,7 +13255,7 @@
         <v>1523</v>
       </c>
       <c r="E136">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F136" t="s">
         <v>1662</v>
@@ -13290,7 +13290,7 @@
         <v>1523</v>
       </c>
       <c r="E137">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F137" t="s">
         <v>1662</v>
@@ -13325,7 +13325,7 @@
         <v>1523</v>
       </c>
       <c r="E138">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F138" t="s">
         <v>1662</v>
@@ -13360,7 +13360,7 @@
         <v>1523</v>
       </c>
       <c r="E139">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F139" t="s">
         <v>1662</v>
@@ -13395,7 +13395,7 @@
         <v>1523</v>
       </c>
       <c r="E140">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F140" t="s">
         <v>1662</v>
@@ -13430,7 +13430,7 @@
         <v>1523</v>
       </c>
       <c r="E141">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F141" t="s">
         <v>1662</v>
@@ -13465,7 +13465,7 @@
         <v>1524</v>
       </c>
       <c r="E142">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F142" t="s">
         <v>1662</v>
@@ -13500,7 +13500,7 @@
         <v>1525</v>
       </c>
       <c r="E143">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F143" t="s">
         <v>1662</v>
@@ -13535,7 +13535,7 @@
         <v>1526</v>
       </c>
       <c r="E144">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F144" t="s">
         <v>1662</v>
@@ -13570,7 +13570,7 @@
         <v>1527</v>
       </c>
       <c r="E145">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F145" t="s">
         <v>1662</v>
@@ -13605,7 +13605,7 @@
         <v>1528</v>
       </c>
       <c r="E146">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F146" t="s">
         <v>1662</v>
@@ -13640,7 +13640,7 @@
         <v>1528</v>
       </c>
       <c r="E147">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F147" t="s">
         <v>1662</v>
@@ -13675,7 +13675,7 @@
         <v>1528</v>
       </c>
       <c r="E148">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F148" t="s">
         <v>1662</v>
@@ -13710,7 +13710,7 @@
         <v>1528</v>
       </c>
       <c r="E149">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F149" t="s">
         <v>1662</v>
@@ -13745,7 +13745,7 @@
         <v>1528</v>
       </c>
       <c r="E150">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F150" t="s">
         <v>1662</v>
@@ -13780,7 +13780,7 @@
         <v>1528</v>
       </c>
       <c r="E151">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F151" t="s">
         <v>1662</v>
@@ -13815,7 +13815,7 @@
         <v>1529</v>
       </c>
       <c r="E152">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F152" t="s">
         <v>1662</v>
@@ -13850,7 +13850,7 @@
         <v>1529</v>
       </c>
       <c r="E153">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F153" t="s">
         <v>1662</v>
@@ -13885,7 +13885,7 @@
         <v>1529</v>
       </c>
       <c r="E154">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F154" t="s">
         <v>1662</v>
@@ -13920,7 +13920,7 @@
         <v>1530</v>
       </c>
       <c r="E155">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F155" t="s">
         <v>1662</v>
@@ -13955,7 +13955,7 @@
         <v>1531</v>
       </c>
       <c r="E156">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F156" t="s">
         <v>1662</v>
@@ -13990,7 +13990,7 @@
         <v>1531</v>
       </c>
       <c r="E157">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F157" t="s">
         <v>1662</v>
@@ -14025,7 +14025,7 @@
         <v>1531</v>
       </c>
       <c r="E158">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F158" t="s">
         <v>1662</v>
@@ -14060,7 +14060,7 @@
         <v>1532</v>
       </c>
       <c r="E159">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F159" t="s">
         <v>1662</v>
@@ -14095,7 +14095,7 @@
         <v>1532</v>
       </c>
       <c r="E160">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F160" t="s">
         <v>1662</v>
@@ -14130,7 +14130,7 @@
         <v>1532</v>
       </c>
       <c r="E161">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F161" t="s">
         <v>1662</v>
@@ -14165,7 +14165,7 @@
         <v>1533</v>
       </c>
       <c r="E162">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F162" t="s">
         <v>1662</v>
@@ -14203,7 +14203,7 @@
         <v>1534</v>
       </c>
       <c r="E163">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F163" t="s">
         <v>1662</v>
@@ -14238,7 +14238,7 @@
         <v>1535</v>
       </c>
       <c r="E164">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F164" t="s">
         <v>1662</v>
@@ -14273,7 +14273,7 @@
         <v>1535</v>
       </c>
       <c r="E165">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F165" t="s">
         <v>1662</v>
@@ -14308,7 +14308,7 @@
         <v>1536</v>
       </c>
       <c r="E166">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F166" t="s">
         <v>1662</v>
@@ -14343,7 +14343,7 @@
         <v>1537</v>
       </c>
       <c r="E167">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F167" t="s">
         <v>1662</v>
@@ -14378,7 +14378,7 @@
         <v>1537</v>
       </c>
       <c r="E168">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F168" t="s">
         <v>1662</v>
@@ -14413,7 +14413,7 @@
         <v>1537</v>
       </c>
       <c r="E169">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F169" t="s">
         <v>1662</v>
@@ -14448,7 +14448,7 @@
         <v>1537</v>
       </c>
       <c r="E170">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F170" t="s">
         <v>1662</v>
@@ -14483,7 +14483,7 @@
         <v>1538</v>
       </c>
       <c r="E171">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F171" t="s">
         <v>1662</v>
@@ -14518,7 +14518,7 @@
         <v>1539</v>
       </c>
       <c r="E172">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F172" t="s">
         <v>1662</v>
@@ -14556,7 +14556,7 @@
         <v>1539</v>
       </c>
       <c r="E173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F173" t="s">
         <v>1662</v>
@@ -14591,7 +14591,7 @@
         <v>1540</v>
       </c>
       <c r="E174">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F174" t="s">
         <v>1662</v>
@@ -14626,7 +14626,7 @@
         <v>1540</v>
       </c>
       <c r="E175">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F175" t="s">
         <v>1662</v>
@@ -14661,7 +14661,7 @@
         <v>1540</v>
       </c>
       <c r="E176">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F176" t="s">
         <v>1662</v>
@@ -14696,7 +14696,7 @@
         <v>1541</v>
       </c>
       <c r="E177">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F177" t="s">
         <v>1662</v>
@@ -14731,7 +14731,7 @@
         <v>1541</v>
       </c>
       <c r="E178">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F178" t="s">
         <v>1662</v>
@@ -14766,7 +14766,7 @@
         <v>1541</v>
       </c>
       <c r="E179">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F179" t="s">
         <v>1662</v>
@@ -14801,7 +14801,7 @@
         <v>1542</v>
       </c>
       <c r="E180">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F180" t="s">
         <v>1662</v>
@@ -14836,7 +14836,7 @@
         <v>1543</v>
       </c>
       <c r="E181">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F181" t="s">
         <v>1662</v>
@@ -14871,7 +14871,7 @@
         <v>1543</v>
       </c>
       <c r="E182">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F182" t="s">
         <v>1662</v>
@@ -14906,7 +14906,7 @@
         <v>1543</v>
       </c>
       <c r="E183">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F183" t="s">
         <v>1662</v>
@@ -14941,7 +14941,7 @@
         <v>1543</v>
       </c>
       <c r="E184">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F184" t="s">
         <v>1662</v>
@@ -14976,7 +14976,7 @@
         <v>1543</v>
       </c>
       <c r="E185">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F185" t="s">
         <v>1662</v>
@@ -15011,7 +15011,7 @@
         <v>1543</v>
       </c>
       <c r="E186">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F186" t="s">
         <v>1662</v>
@@ -15046,7 +15046,7 @@
         <v>1543</v>
       </c>
       <c r="E187">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F187" t="s">
         <v>1662</v>
@@ -15081,7 +15081,7 @@
         <v>1543</v>
       </c>
       <c r="E188">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F188" t="s">
         <v>1662</v>
@@ -15116,7 +15116,7 @@
         <v>1543</v>
       </c>
       <c r="E189">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F189" t="s">
         <v>1662</v>
@@ -15151,7 +15151,7 @@
         <v>1543</v>
       </c>
       <c r="E190">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F190" t="s">
         <v>1662</v>
@@ -15189,7 +15189,7 @@
         <v>1544</v>
       </c>
       <c r="E191">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F191" t="s">
         <v>1662</v>
@@ -15224,7 +15224,7 @@
         <v>1544</v>
       </c>
       <c r="E192">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F192" t="s">
         <v>1662</v>
@@ -15259,7 +15259,7 @@
         <v>1544</v>
       </c>
       <c r="E193">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F193" t="s">
         <v>1662</v>
@@ -15294,7 +15294,7 @@
         <v>1544</v>
       </c>
       <c r="E194">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F194" t="s">
         <v>1662</v>
@@ -15329,7 +15329,7 @@
         <v>1545</v>
       </c>
       <c r="E195">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F195" t="s">
         <v>1662</v>
@@ -15367,7 +15367,7 @@
         <v>1546</v>
       </c>
       <c r="E196">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F196" t="s">
         <v>1662</v>
@@ -15402,7 +15402,7 @@
         <v>1547</v>
       </c>
       <c r="E197">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F197" t="s">
         <v>1662</v>
@@ -15437,7 +15437,7 @@
         <v>1547</v>
       </c>
       <c r="E198">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F198" t="s">
         <v>1662</v>
@@ -15472,7 +15472,7 @@
         <v>1547</v>
       </c>
       <c r="E199">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F199" t="s">
         <v>1662</v>
@@ -15507,7 +15507,7 @@
         <v>1547</v>
       </c>
       <c r="E200">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F200" t="s">
         <v>1662</v>
@@ -15542,7 +15542,7 @@
         <v>1547</v>
       </c>
       <c r="E201">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F201" t="s">
         <v>1662</v>
@@ -15577,7 +15577,7 @@
         <v>1547</v>
       </c>
       <c r="E202">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F202" t="s">
         <v>1662</v>
@@ -15612,7 +15612,7 @@
         <v>1548</v>
       </c>
       <c r="E203">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F203" t="s">
         <v>1662</v>
@@ -15647,7 +15647,7 @@
         <v>1548</v>
       </c>
       <c r="E204">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F204" t="s">
         <v>1662</v>
@@ -15682,7 +15682,7 @@
         <v>1548</v>
       </c>
       <c r="E205">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F205" t="s">
         <v>1662</v>
@@ -15717,7 +15717,7 @@
         <v>1548</v>
       </c>
       <c r="E206">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F206" t="s">
         <v>1662</v>
@@ -15752,7 +15752,7 @@
         <v>1549</v>
       </c>
       <c r="E207">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F207" t="s">
         <v>1662</v>
@@ -15787,7 +15787,7 @@
         <v>1549</v>
       </c>
       <c r="E208">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F208" t="s">
         <v>1662</v>
@@ -15822,7 +15822,7 @@
         <v>1549</v>
       </c>
       <c r="E209">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F209" t="s">
         <v>1662</v>
@@ -15857,7 +15857,7 @@
         <v>1549</v>
       </c>
       <c r="E210">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F210" t="s">
         <v>1662</v>
@@ -15892,7 +15892,7 @@
         <v>1550</v>
       </c>
       <c r="E211">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F211" t="s">
         <v>1662</v>
@@ -15927,7 +15927,7 @@
         <v>1550</v>
       </c>
       <c r="E212">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F212" t="s">
         <v>1662</v>
@@ -15962,7 +15962,7 @@
         <v>1550</v>
       </c>
       <c r="E213">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F213" t="s">
         <v>1662</v>
@@ -15997,7 +15997,7 @@
         <v>1550</v>
       </c>
       <c r="E214">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F214" t="s">
         <v>1662</v>
@@ -16032,7 +16032,7 @@
         <v>1551</v>
       </c>
       <c r="E215">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F215" t="s">
         <v>1662</v>
@@ -16067,7 +16067,7 @@
         <v>1552</v>
       </c>
       <c r="E216">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F216" t="s">
         <v>1662</v>
@@ -16105,7 +16105,7 @@
         <v>1553</v>
       </c>
       <c r="E217">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F217" t="s">
         <v>1662</v>
@@ -16140,7 +16140,7 @@
         <v>1553</v>
       </c>
       <c r="E218">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F218" t="s">
         <v>1662</v>
@@ -16175,7 +16175,7 @@
         <v>1553</v>
       </c>
       <c r="E219">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F219" t="s">
         <v>1662</v>
@@ -16210,7 +16210,7 @@
         <v>1554</v>
       </c>
       <c r="E220">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F220" t="s">
         <v>1662</v>
@@ -16248,7 +16248,7 @@
         <v>1555</v>
       </c>
       <c r="E221">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F221" t="s">
         <v>1664</v>
@@ -16283,7 +16283,7 @@
         <v>1556</v>
       </c>
       <c r="E222">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F222" t="s">
         <v>1662</v>
@@ -16318,7 +16318,7 @@
         <v>1557</v>
       </c>
       <c r="E223">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F223" t="s">
         <v>1662</v>
@@ -16353,7 +16353,7 @@
         <v>1557</v>
       </c>
       <c r="E224">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F224" t="s">
         <v>1662</v>
@@ -16388,7 +16388,7 @@
         <v>1558</v>
       </c>
       <c r="E225">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F225" t="s">
         <v>1662</v>
@@ -16423,7 +16423,7 @@
         <v>1559</v>
       </c>
       <c r="E226">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F226" t="s">
         <v>1662</v>
@@ -16461,7 +16461,7 @@
         <v>1559</v>
       </c>
       <c r="E227">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F227" t="s">
         <v>1662</v>
@@ -16496,7 +16496,7 @@
         <v>1559</v>
       </c>
       <c r="E228">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F228" t="s">
         <v>1662</v>
@@ -16531,7 +16531,7 @@
         <v>1559</v>
       </c>
       <c r="E229">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F229" t="s">
         <v>1662</v>
@@ -16566,7 +16566,7 @@
         <v>1560</v>
       </c>
       <c r="E230">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F230" t="s">
         <v>1662</v>
@@ -16601,7 +16601,7 @@
         <v>1561</v>
       </c>
       <c r="E231">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F231" t="s">
         <v>1662</v>
@@ -16636,7 +16636,7 @@
         <v>1562</v>
       </c>
       <c r="E232">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F232" t="s">
         <v>1662</v>
@@ -16671,7 +16671,7 @@
         <v>1562</v>
       </c>
       <c r="E233">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F233" t="s">
         <v>1662</v>
@@ -16706,7 +16706,7 @@
         <v>1562</v>
       </c>
       <c r="E234">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F234" t="s">
         <v>1665</v>
@@ -16744,7 +16744,7 @@
         <v>1563</v>
       </c>
       <c r="E235">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F235" t="s">
         <v>1662</v>
@@ -16779,7 +16779,7 @@
         <v>1563</v>
       </c>
       <c r="E236">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F236" t="s">
         <v>1662</v>
@@ -16814,7 +16814,7 @@
         <v>1564</v>
       </c>
       <c r="E237">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F237" t="s">
         <v>1662</v>
@@ -16849,7 +16849,7 @@
         <v>1564</v>
       </c>
       <c r="E238">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F238" t="s">
         <v>1662</v>
@@ -16884,7 +16884,7 @@
         <v>1564</v>
       </c>
       <c r="E239">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F239" t="s">
         <v>1662</v>
@@ -16919,7 +16919,7 @@
         <v>1564</v>
       </c>
       <c r="E240">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F240" t="s">
         <v>1662</v>
@@ -16954,7 +16954,7 @@
         <v>1565</v>
       </c>
       <c r="E241">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F241" t="s">
         <v>1662</v>
@@ -16989,7 +16989,7 @@
         <v>1565</v>
       </c>
       <c r="E242">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F242" t="s">
         <v>1662</v>
@@ -17024,7 +17024,7 @@
         <v>1565</v>
       </c>
       <c r="E243">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F243" t="s">
         <v>1662</v>
@@ -17059,7 +17059,7 @@
         <v>1566</v>
       </c>
       <c r="E244">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F244" t="s">
         <v>1662</v>
@@ -17097,7 +17097,7 @@
         <v>1567</v>
       </c>
       <c r="E245">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F245" t="s">
         <v>1662</v>
@@ -17132,7 +17132,7 @@
         <v>1567</v>
       </c>
       <c r="E246">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F246" t="s">
         <v>1662</v>
@@ -17167,7 +17167,7 @@
         <v>1567</v>
       </c>
       <c r="E247">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F247" t="s">
         <v>1662</v>
@@ -17202,7 +17202,7 @@
         <v>1567</v>
       </c>
       <c r="E248">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F248" t="s">
         <v>1662</v>
@@ -17237,7 +17237,7 @@
         <v>1567</v>
       </c>
       <c r="E249">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F249" t="s">
         <v>1662</v>
@@ -17272,7 +17272,7 @@
         <v>1568</v>
       </c>
       <c r="E250">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F250" t="s">
         <v>1662</v>
@@ -17307,7 +17307,7 @@
         <v>1568</v>
       </c>
       <c r="E251">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F251" t="s">
         <v>1662</v>
@@ -17342,7 +17342,7 @@
         <v>1569</v>
       </c>
       <c r="E252">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F252" t="s">
         <v>1662</v>
@@ -17380,7 +17380,7 @@
         <v>1569</v>
       </c>
       <c r="E253">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F253" t="s">
         <v>1662</v>
@@ -17415,7 +17415,7 @@
         <v>1569</v>
       </c>
       <c r="E254">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F254" t="s">
         <v>1662</v>
@@ -17450,7 +17450,7 @@
         <v>1569</v>
       </c>
       <c r="E255">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F255" t="s">
         <v>1662</v>
@@ -17485,7 +17485,7 @@
         <v>1570</v>
       </c>
       <c r="E256">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F256" t="s">
         <v>1662</v>
@@ -17520,7 +17520,7 @@
         <v>1570</v>
       </c>
       <c r="E257">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F257" t="s">
         <v>1662</v>
@@ -17555,7 +17555,7 @@
         <v>1570</v>
       </c>
       <c r="E258">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F258" t="s">
         <v>1662</v>
@@ -17590,7 +17590,7 @@
         <v>1571</v>
       </c>
       <c r="E259">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F259" t="s">
         <v>1662</v>
@@ -17625,7 +17625,7 @@
         <v>1572</v>
       </c>
       <c r="E260">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F260" t="s">
         <v>1662</v>
@@ -17660,7 +17660,7 @@
         <v>1572</v>
       </c>
       <c r="E261">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F261" t="s">
         <v>1662</v>
@@ -17695,7 +17695,7 @@
         <v>1573</v>
       </c>
       <c r="E262">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F262" t="s">
         <v>1662</v>
@@ -17730,7 +17730,7 @@
         <v>1573</v>
       </c>
       <c r="E263">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F263" t="s">
         <v>1662</v>
@@ -17765,7 +17765,7 @@
         <v>1574</v>
       </c>
       <c r="E264">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F264" t="s">
         <v>1662</v>
@@ -17800,7 +17800,7 @@
         <v>1574</v>
       </c>
       <c r="E265">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F265" t="s">
         <v>1662</v>
@@ -17835,7 +17835,7 @@
         <v>1574</v>
       </c>
       <c r="E266">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F266" t="s">
         <v>1662</v>
@@ -17870,7 +17870,7 @@
         <v>1574</v>
       </c>
       <c r="E267">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F267" t="s">
         <v>1662</v>
@@ -17905,7 +17905,7 @@
         <v>1574</v>
       </c>
       <c r="E268">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F268" t="s">
         <v>1662</v>
@@ -17940,7 +17940,7 @@
         <v>1575</v>
       </c>
       <c r="E269">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F269" t="s">
         <v>1662</v>
@@ -17975,7 +17975,7 @@
         <v>1575</v>
       </c>
       <c r="E270">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F270" t="s">
         <v>1662</v>
@@ -18010,7 +18010,7 @@
         <v>1575</v>
       </c>
       <c r="E271">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F271" t="s">
         <v>1662</v>
@@ -18045,7 +18045,7 @@
         <v>1575</v>
       </c>
       <c r="E272">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F272" t="s">
         <v>1662</v>
@@ -18080,7 +18080,7 @@
         <v>1575</v>
       </c>
       <c r="E273">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F273" t="s">
         <v>1662</v>
@@ -18115,7 +18115,7 @@
         <v>1575</v>
       </c>
       <c r="E274">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F274" t="s">
         <v>1662</v>
@@ -18150,7 +18150,7 @@
         <v>1575</v>
       </c>
       <c r="E275">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F275" t="s">
         <v>1662</v>
@@ -18185,7 +18185,7 @@
         <v>1575</v>
       </c>
       <c r="E276">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F276" t="s">
         <v>1662</v>
@@ -18220,7 +18220,7 @@
         <v>1575</v>
       </c>
       <c r="E277">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F277" t="s">
         <v>1662</v>
@@ -18255,7 +18255,7 @@
         <v>1575</v>
       </c>
       <c r="E278">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F278" t="s">
         <v>1662</v>
@@ -18290,7 +18290,7 @@
         <v>1576</v>
       </c>
       <c r="E279">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F279" t="s">
         <v>1662</v>
@@ -18325,7 +18325,7 @@
         <v>1577</v>
       </c>
       <c r="E280">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F280" t="s">
         <v>1662</v>
@@ -18360,7 +18360,7 @@
         <v>1577</v>
       </c>
       <c r="E281">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F281" t="s">
         <v>1662</v>
@@ -18395,7 +18395,7 @@
         <v>1578</v>
       </c>
       <c r="E282">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F282" t="s">
         <v>1662</v>
@@ -18430,7 +18430,7 @@
         <v>1578</v>
       </c>
       <c r="E283">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F283" t="s">
         <v>1662</v>
@@ -18465,7 +18465,7 @@
         <v>1579</v>
       </c>
       <c r="E284">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F284" t="s">
         <v>1662</v>
@@ -18500,7 +18500,7 @@
         <v>1579</v>
       </c>
       <c r="E285">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F285" t="s">
         <v>1662</v>
@@ -18538,7 +18538,7 @@
         <v>1579</v>
       </c>
       <c r="E286">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F286" t="s">
         <v>1662</v>
@@ -18573,7 +18573,7 @@
         <v>1579</v>
       </c>
       <c r="E287">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F287" t="s">
         <v>1662</v>
@@ -18611,7 +18611,7 @@
         <v>1579</v>
       </c>
       <c r="E288">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F288" t="s">
         <v>1662</v>
@@ -18646,7 +18646,7 @@
         <v>1580</v>
       </c>
       <c r="E289">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F289" t="s">
         <v>1662</v>
@@ -18681,7 +18681,7 @@
         <v>1580</v>
       </c>
       <c r="E290">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F290" t="s">
         <v>1662</v>
@@ -18716,7 +18716,7 @@
         <v>1580</v>
       </c>
       <c r="E291">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F291" t="s">
         <v>1662</v>
@@ -18751,7 +18751,7 @@
         <v>1580</v>
       </c>
       <c r="E292">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F292" t="s">
         <v>1662</v>
@@ -18786,7 +18786,7 @@
         <v>1580</v>
       </c>
       <c r="E293">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F293" t="s">
         <v>1662</v>
@@ -18821,7 +18821,7 @@
         <v>1580</v>
       </c>
       <c r="E294">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F294" t="s">
         <v>1662</v>
@@ -18856,7 +18856,7 @@
         <v>1580</v>
       </c>
       <c r="E295">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F295" t="s">
         <v>1662</v>
@@ -18891,7 +18891,7 @@
         <v>1581</v>
       </c>
       <c r="E296">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F296" t="s">
         <v>1662</v>
@@ -18926,7 +18926,7 @@
         <v>1581</v>
       </c>
       <c r="E297">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F297" t="s">
         <v>1662</v>
@@ -18964,7 +18964,7 @@
         <v>1581</v>
       </c>
       <c r="E298">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F298" t="s">
         <v>1662</v>
@@ -18999,7 +18999,7 @@
         <v>1582</v>
       </c>
       <c r="E299">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F299" t="s">
         <v>1662</v>
@@ -19034,7 +19034,7 @@
         <v>1583</v>
       </c>
       <c r="E300">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F300" t="s">
         <v>1662</v>
@@ -19069,7 +19069,7 @@
         <v>1583</v>
       </c>
       <c r="E301">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F301" t="s">
         <v>1662</v>
@@ -19104,7 +19104,7 @@
         <v>1583</v>
       </c>
       <c r="E302">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F302" t="s">
         <v>1662</v>
@@ -19139,7 +19139,7 @@
         <v>1583</v>
       </c>
       <c r="E303">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F303" t="s">
         <v>1662</v>
@@ -19174,7 +19174,7 @@
         <v>1584</v>
       </c>
       <c r="E304">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F304" t="s">
         <v>1662</v>
@@ -19209,7 +19209,7 @@
         <v>1585</v>
       </c>
       <c r="E305">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F305" t="s">
         <v>1662</v>
@@ -19244,7 +19244,7 @@
         <v>1586</v>
       </c>
       <c r="E306">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F306" t="s">
         <v>1662</v>
@@ -19279,7 +19279,7 @@
         <v>1586</v>
       </c>
       <c r="E307">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F307" t="s">
         <v>1662</v>
@@ -19314,7 +19314,7 @@
         <v>1586</v>
       </c>
       <c r="E308">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F308" t="s">
         <v>1662</v>
@@ -19349,7 +19349,7 @@
         <v>1586</v>
       </c>
       <c r="E309">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F309" t="s">
         <v>1662</v>
@@ -19384,7 +19384,7 @@
         <v>1587</v>
       </c>
       <c r="E310">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F310" t="s">
         <v>1662</v>
@@ -19419,7 +19419,7 @@
         <v>1587</v>
       </c>
       <c r="E311">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F311" t="s">
         <v>1662</v>
@@ -19454,7 +19454,7 @@
         <v>1587</v>
       </c>
       <c r="E312">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F312" t="s">
         <v>1662</v>
@@ -19489,7 +19489,7 @@
         <v>1587</v>
       </c>
       <c r="E313">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F313" t="s">
         <v>1662</v>
@@ -19524,7 +19524,7 @@
         <v>1587</v>
       </c>
       <c r="E314">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F314" t="s">
         <v>1662</v>
@@ -19559,7 +19559,7 @@
         <v>1587</v>
       </c>
       <c r="E315">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F315" t="s">
         <v>1662</v>
@@ -19594,7 +19594,7 @@
         <v>1587</v>
       </c>
       <c r="E316">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F316" t="s">
         <v>1662</v>
@@ -19629,7 +19629,7 @@
         <v>1587</v>
       </c>
       <c r="E317">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F317" t="s">
         <v>1662</v>
@@ -19664,7 +19664,7 @@
         <v>1588</v>
       </c>
       <c r="E318">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F318" t="s">
         <v>1662</v>
@@ -19699,7 +19699,7 @@
         <v>1588</v>
       </c>
       <c r="E319">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F319" t="s">
         <v>1662</v>
@@ -19734,7 +19734,7 @@
         <v>1588</v>
       </c>
       <c r="E320">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F320" t="s">
         <v>1662</v>
@@ -19769,7 +19769,7 @@
         <v>1589</v>
       </c>
       <c r="E321">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F321" t="s">
         <v>1662</v>
@@ -19804,7 +19804,7 @@
         <v>1589</v>
       </c>
       <c r="E322">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F322" t="s">
         <v>1662</v>
@@ -19839,7 +19839,7 @@
         <v>1589</v>
       </c>
       <c r="E323">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F323" t="s">
         <v>1662</v>
@@ -19874,7 +19874,7 @@
         <v>1589</v>
       </c>
       <c r="E324">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F324" t="s">
         <v>1665</v>
@@ -19912,7 +19912,7 @@
         <v>1589</v>
       </c>
       <c r="E325">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F325" t="s">
         <v>1662</v>
@@ -19947,7 +19947,7 @@
         <v>1589</v>
       </c>
       <c r="E326">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F326" t="s">
         <v>1662</v>
@@ -19982,7 +19982,7 @@
         <v>1589</v>
       </c>
       <c r="E327">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F327" t="s">
         <v>1662</v>
@@ -20017,7 +20017,7 @@
         <v>1589</v>
       </c>
       <c r="E328">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F328" t="s">
         <v>1662</v>
@@ -20052,7 +20052,7 @@
         <v>1590</v>
       </c>
       <c r="E329">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F329" t="s">
         <v>1662</v>
@@ -20087,7 +20087,7 @@
         <v>1590</v>
       </c>
       <c r="E330">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F330" t="s">
         <v>1662</v>
@@ -20122,7 +20122,7 @@
         <v>1590</v>
       </c>
       <c r="E331">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F331" t="s">
         <v>1662</v>
@@ -20157,7 +20157,7 @@
         <v>1590</v>
       </c>
       <c r="E332">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F332" t="s">
         <v>1662</v>
@@ -20192,7 +20192,7 @@
         <v>1590</v>
       </c>
       <c r="E333">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F333" t="s">
         <v>1662</v>
@@ -20227,7 +20227,7 @@
         <v>1590</v>
       </c>
       <c r="E334">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F334" t="s">
         <v>1662</v>
@@ -20262,7 +20262,7 @@
         <v>1590</v>
       </c>
       <c r="E335">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F335" t="s">
         <v>1662</v>
@@ -20297,7 +20297,7 @@
         <v>1590</v>
       </c>
       <c r="E336">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F336" t="s">
         <v>1662</v>
@@ -20332,7 +20332,7 @@
         <v>1590</v>
       </c>
       <c r="E337">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F337" t="s">
         <v>1662</v>
@@ -20367,7 +20367,7 @@
         <v>1591</v>
       </c>
       <c r="E338">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F338" t="s">
         <v>1662</v>
@@ -20402,7 +20402,7 @@
         <v>1592</v>
       </c>
       <c r="E339">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F339" t="s">
         <v>1662</v>
@@ -20437,7 +20437,7 @@
         <v>1592</v>
       </c>
       <c r="E340">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F340" t="s">
         <v>1662</v>
@@ -20472,7 +20472,7 @@
         <v>1592</v>
       </c>
       <c r="E341">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F341" t="s">
         <v>1662</v>
@@ -20510,7 +20510,7 @@
         <v>1593</v>
       </c>
       <c r="E342">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F342" t="s">
         <v>1662</v>
@@ -20545,7 +20545,7 @@
         <v>1593</v>
       </c>
       <c r="E343">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F343" t="s">
         <v>1662</v>
@@ -20580,7 +20580,7 @@
         <v>1593</v>
       </c>
       <c r="E344">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F344" t="s">
         <v>1662</v>
@@ -20615,7 +20615,7 @@
         <v>1594</v>
       </c>
       <c r="E345">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F345" t="s">
         <v>1662</v>
@@ -20650,7 +20650,7 @@
         <v>1594</v>
       </c>
       <c r="E346">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F346" t="s">
         <v>1662</v>
@@ -20685,7 +20685,7 @@
         <v>1594</v>
       </c>
       <c r="E347">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F347" t="s">
         <v>1662</v>
@@ -20720,7 +20720,7 @@
         <v>1594</v>
       </c>
       <c r="E348">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F348" t="s">
         <v>1662</v>
@@ -20755,7 +20755,7 @@
         <v>1595</v>
       </c>
       <c r="E349">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F349" t="s">
         <v>1662</v>
@@ -20793,7 +20793,7 @@
         <v>1595</v>
       </c>
       <c r="E350">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F350" t="s">
         <v>1662</v>
@@ -20828,7 +20828,7 @@
         <v>1595</v>
       </c>
       <c r="E351">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F351" t="s">
         <v>1662</v>
@@ -20863,7 +20863,7 @@
         <v>1596</v>
       </c>
       <c r="E352">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F352" t="s">
         <v>1662</v>
@@ -20898,7 +20898,7 @@
         <v>1596</v>
       </c>
       <c r="E353">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F353" t="s">
         <v>1662</v>
@@ -20933,7 +20933,7 @@
         <v>1596</v>
       </c>
       <c r="E354">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F354" t="s">
         <v>1662</v>
@@ -20968,7 +20968,7 @@
         <v>1596</v>
       </c>
       <c r="E355">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F355" t="s">
         <v>1662</v>
@@ -21003,7 +21003,7 @@
         <v>1597</v>
       </c>
       <c r="E356">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F356" t="s">
         <v>1662</v>
@@ -21038,7 +21038,7 @@
         <v>1597</v>
       </c>
       <c r="E357">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F357" t="s">
         <v>1662</v>
@@ -21073,7 +21073,7 @@
         <v>1597</v>
       </c>
       <c r="E358">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F358" t="s">
         <v>1662</v>
@@ -21108,7 +21108,7 @@
         <v>1597</v>
       </c>
       <c r="E359">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F359" t="s">
         <v>1662</v>
@@ -21143,7 +21143,7 @@
         <v>1597</v>
       </c>
       <c r="E360">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F360" t="s">
         <v>1662</v>
@@ -21178,7 +21178,7 @@
         <v>1597</v>
       </c>
       <c r="E361">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F361" t="s">
         <v>1662</v>
@@ -21213,7 +21213,7 @@
         <v>1597</v>
       </c>
       <c r="E362">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F362" t="s">
         <v>1662</v>
@@ -21248,7 +21248,7 @@
         <v>1597</v>
       </c>
       <c r="E363">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F363" t="s">
         <v>1662</v>
@@ -21283,7 +21283,7 @@
         <v>1597</v>
       </c>
       <c r="E364">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F364" t="s">
         <v>1662</v>
@@ -21318,7 +21318,7 @@
         <v>1597</v>
       </c>
       <c r="E365">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F365" t="s">
         <v>1662</v>
@@ -21353,7 +21353,7 @@
         <v>1598</v>
       </c>
       <c r="E366">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F366" t="s">
         <v>1662</v>
@@ -21388,7 +21388,7 @@
         <v>1598</v>
       </c>
       <c r="E367">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F367" t="s">
         <v>1662</v>
@@ -21423,7 +21423,7 @@
         <v>1598</v>
       </c>
       <c r="E368">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F368" t="s">
         <v>1662</v>
@@ -21458,7 +21458,7 @@
         <v>1598</v>
       </c>
       <c r="E369">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F369" t="s">
         <v>1662</v>
@@ -21493,7 +21493,7 @@
         <v>1598</v>
       </c>
       <c r="E370">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F370" t="s">
         <v>1662</v>
@@ -21528,7 +21528,7 @@
         <v>1598</v>
       </c>
       <c r="E371">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F371" t="s">
         <v>1662</v>
@@ -21563,7 +21563,7 @@
         <v>1598</v>
       </c>
       <c r="E372">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F372" t="s">
         <v>1662</v>
@@ -21598,7 +21598,7 @@
         <v>1598</v>
       </c>
       <c r="E373">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F373" t="s">
         <v>1662</v>
@@ -21636,7 +21636,7 @@
         <v>1598</v>
       </c>
       <c r="E374">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F374" t="s">
         <v>1662</v>
@@ -21671,7 +21671,7 @@
         <v>1598</v>
       </c>
       <c r="E375">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F375" t="s">
         <v>1662</v>
@@ -21706,7 +21706,7 @@
         <v>1599</v>
       </c>
       <c r="E376">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F376" t="s">
         <v>1662</v>
@@ -21741,7 +21741,7 @@
         <v>1600</v>
       </c>
       <c r="E377">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F377" t="s">
         <v>1662</v>
@@ -21779,7 +21779,7 @@
         <v>1600</v>
       </c>
       <c r="E378">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F378" t="s">
         <v>1662</v>
@@ -21814,7 +21814,7 @@
         <v>1600</v>
       </c>
       <c r="E379">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F379" t="s">
         <v>1662</v>
@@ -21849,7 +21849,7 @@
         <v>1601</v>
       </c>
       <c r="E380">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F380" t="s">
         <v>1662</v>
@@ -21884,7 +21884,7 @@
         <v>1601</v>
       </c>
       <c r="E381">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F381" t="s">
         <v>1662</v>
@@ -21919,7 +21919,7 @@
         <v>1601</v>
       </c>
       <c r="E382">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F382" t="s">
         <v>1662</v>
@@ -21954,7 +21954,7 @@
         <v>1601</v>
       </c>
       <c r="E383">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F383" t="s">
         <v>1662</v>
@@ -21989,7 +21989,7 @@
         <v>1601</v>
       </c>
       <c r="E384">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F384" t="s">
         <v>1662</v>
@@ -22027,7 +22027,7 @@
         <v>1601</v>
       </c>
       <c r="E385">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F385" t="s">
         <v>1662</v>
@@ -22062,7 +22062,7 @@
         <v>1602</v>
       </c>
       <c r="E386">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F386" t="s">
         <v>1662</v>
@@ -22097,7 +22097,7 @@
         <v>1602</v>
       </c>
       <c r="E387">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F387" t="s">
         <v>1662</v>
@@ -22132,7 +22132,7 @@
         <v>1602</v>
       </c>
       <c r="E388">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F388" t="s">
         <v>1662</v>
@@ -22167,7 +22167,7 @@
         <v>1602</v>
       </c>
       <c r="E389">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F389" t="s">
         <v>1662</v>
@@ -22202,7 +22202,7 @@
         <v>1602</v>
       </c>
       <c r="E390">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F390" t="s">
         <v>1662</v>
@@ -22237,7 +22237,7 @@
         <v>1602</v>
       </c>
       <c r="E391">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F391" t="s">
         <v>1662</v>
@@ -22275,7 +22275,7 @@
         <v>1602</v>
       </c>
       <c r="E392">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F392" t="s">
         <v>1662</v>
@@ -22310,7 +22310,7 @@
         <v>1603</v>
       </c>
       <c r="E393">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F393" t="s">
         <v>1662</v>
@@ -22345,7 +22345,7 @@
         <v>1604</v>
       </c>
       <c r="E394">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F394" t="s">
         <v>1665</v>
@@ -22380,7 +22380,7 @@
         <v>1604</v>
       </c>
       <c r="E395">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F395" t="s">
         <v>1662</v>
@@ -22415,7 +22415,7 @@
         <v>1604</v>
       </c>
       <c r="E396">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F396" t="s">
         <v>1662</v>
@@ -22450,7 +22450,7 @@
         <v>1604</v>
       </c>
       <c r="E397">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F397" t="s">
         <v>1662</v>
@@ -22485,7 +22485,7 @@
         <v>1605</v>
       </c>
       <c r="E398">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F398" t="s">
         <v>1662</v>
@@ -22520,7 +22520,7 @@
         <v>1605</v>
       </c>
       <c r="E399">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F399" t="s">
         <v>1662</v>
@@ -22558,7 +22558,7 @@
         <v>1605</v>
       </c>
       <c r="E400">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F400" t="s">
         <v>1662</v>
@@ -22593,7 +22593,7 @@
         <v>1605</v>
       </c>
       <c r="E401">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F401" t="s">
         <v>1662</v>
@@ -22628,7 +22628,7 @@
         <v>1605</v>
       </c>
       <c r="E402">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F402" t="s">
         <v>1662</v>
@@ -22663,7 +22663,7 @@
         <v>1605</v>
       </c>
       <c r="E403">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F403" t="s">
         <v>1662</v>
@@ -22698,7 +22698,7 @@
         <v>1605</v>
       </c>
       <c r="E404">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F404" t="s">
         <v>1662</v>
@@ -22733,7 +22733,7 @@
         <v>1605</v>
       </c>
       <c r="E405">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F405" t="s">
         <v>1662</v>
@@ -22768,7 +22768,7 @@
         <v>1605</v>
       </c>
       <c r="E406">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F406" t="s">
         <v>1662</v>
@@ -22803,7 +22803,7 @@
         <v>1606</v>
       </c>
       <c r="E407">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F407" t="s">
         <v>1662</v>
@@ -22838,7 +22838,7 @@
         <v>1606</v>
       </c>
       <c r="E408">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F408" t="s">
         <v>1662</v>
@@ -22873,7 +22873,7 @@
         <v>1606</v>
       </c>
       <c r="E409">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F409" t="s">
         <v>1662</v>
@@ -22908,7 +22908,7 @@
         <v>1606</v>
       </c>
       <c r="E410">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F410" t="s">
         <v>1662</v>
@@ -22943,7 +22943,7 @@
         <v>1607</v>
       </c>
       <c r="E411">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F411" t="s">
         <v>1662</v>
@@ -22978,7 +22978,7 @@
         <v>1607</v>
       </c>
       <c r="E412">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F412" t="s">
         <v>1665</v>
@@ -23016,7 +23016,7 @@
         <v>1607</v>
       </c>
       <c r="E413">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F413" t="s">
         <v>1662</v>
@@ -23051,7 +23051,7 @@
         <v>1607</v>
       </c>
       <c r="E414">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F414" t="s">
         <v>1662</v>
@@ -23086,7 +23086,7 @@
         <v>1608</v>
       </c>
       <c r="E415">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F415" t="s">
         <v>1662</v>
@@ -23121,7 +23121,7 @@
         <v>1608</v>
       </c>
       <c r="E416">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F416" t="s">
         <v>1662</v>
@@ -23156,7 +23156,7 @@
         <v>1608</v>
       </c>
       <c r="E417">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F417" t="s">
         <v>1662</v>
@@ -23191,7 +23191,7 @@
         <v>1608</v>
       </c>
       <c r="E418">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F418" t="s">
         <v>1665</v>
@@ -23226,7 +23226,7 @@
         <v>1608</v>
       </c>
       <c r="E419">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F419" t="s">
         <v>1662</v>
@@ -23261,7 +23261,7 @@
         <v>1609</v>
       </c>
       <c r="E420">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F420" t="s">
         <v>1662</v>
@@ -23299,7 +23299,7 @@
         <v>1609</v>
       </c>
       <c r="E421">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F421" t="s">
         <v>1662</v>
@@ -23334,7 +23334,7 @@
         <v>1609</v>
       </c>
       <c r="E422">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F422" t="s">
         <v>1662</v>
@@ -23369,7 +23369,7 @@
         <v>1609</v>
       </c>
       <c r="E423">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F423" t="s">
         <v>1662</v>
@@ -23404,7 +23404,7 @@
         <v>1610</v>
       </c>
       <c r="E424">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F424" t="s">
         <v>1662</v>
@@ -23439,7 +23439,7 @@
         <v>1610</v>
       </c>
       <c r="E425">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F425" t="s">
         <v>1662</v>
@@ -23474,7 +23474,7 @@
         <v>1610</v>
       </c>
       <c r="E426">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F426" t="s">
         <v>1662</v>
@@ -23509,7 +23509,7 @@
         <v>1610</v>
       </c>
       <c r="E427">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F427" t="s">
         <v>1665</v>
@@ -23544,7 +23544,7 @@
         <v>1610</v>
       </c>
       <c r="E428">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F428" t="s">
         <v>1665</v>
@@ -23579,7 +23579,7 @@
         <v>1610</v>
       </c>
       <c r="E429">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F429" t="s">
         <v>1662</v>
@@ -23614,7 +23614,7 @@
         <v>1610</v>
       </c>
       <c r="E430">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F430" t="s">
         <v>1662</v>
@@ -23649,7 +23649,7 @@
         <v>1610</v>
       </c>
       <c r="E431">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F431" t="s">
         <v>1662</v>
@@ -23684,7 +23684,7 @@
         <v>1610</v>
       </c>
       <c r="E432">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F432" t="s">
         <v>1662</v>
@@ -23719,7 +23719,7 @@
         <v>1610</v>
       </c>
       <c r="E433">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F433" t="s">
         <v>1662</v>
@@ -23754,7 +23754,7 @@
         <v>1611</v>
       </c>
       <c r="E434">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F434" t="s">
         <v>1662</v>
@@ -23789,7 +23789,7 @@
         <v>1611</v>
       </c>
       <c r="E435">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F435" t="s">
         <v>1662</v>
@@ -23824,7 +23824,7 @@
         <v>1611</v>
       </c>
       <c r="E436">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F436" t="s">
         <v>1662</v>
@@ -23859,7 +23859,7 @@
         <v>1611</v>
       </c>
       <c r="E437">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F437" t="s">
         <v>1662</v>
@@ -23894,7 +23894,7 @@
         <v>1611</v>
       </c>
       <c r="E438">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F438" t="s">
         <v>1662</v>
@@ -23929,7 +23929,7 @@
         <v>1611</v>
       </c>
       <c r="E439">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F439" t="s">
         <v>1662</v>
@@ -23964,7 +23964,7 @@
         <v>1611</v>
       </c>
       <c r="E440">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F440" t="s">
         <v>1662</v>
@@ -23999,7 +23999,7 @@
         <v>1611</v>
       </c>
       <c r="E441">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F441" t="s">
         <v>1665</v>
@@ -24034,7 +24034,7 @@
         <v>1611</v>
       </c>
       <c r="E442">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F442" t="s">
         <v>1665</v>
@@ -24069,7 +24069,7 @@
         <v>1611</v>
       </c>
       <c r="E443">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F443" t="s">
         <v>1662</v>
@@ -24104,7 +24104,7 @@
         <v>1611</v>
       </c>
       <c r="E444">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F444" t="s">
         <v>1665</v>
@@ -24139,7 +24139,7 @@
         <v>1611</v>
       </c>
       <c r="E445">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F445" t="s">
         <v>1662</v>
@@ -24174,7 +24174,7 @@
         <v>1611</v>
       </c>
       <c r="E446">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F446" t="s">
         <v>1662</v>
@@ -24209,7 +24209,7 @@
         <v>1611</v>
       </c>
       <c r="E447">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F447" t="s">
         <v>1662</v>
@@ -24244,7 +24244,7 @@
         <v>1612</v>
       </c>
       <c r="E448">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F448" t="s">
         <v>1662</v>
@@ -24279,7 +24279,7 @@
         <v>1612</v>
       </c>
       <c r="E449">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F449" t="s">
         <v>1662</v>
@@ -24314,7 +24314,7 @@
         <v>1612</v>
       </c>
       <c r="E450">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F450" t="s">
         <v>1662</v>
@@ -24352,7 +24352,7 @@
         <v>1612</v>
       </c>
       <c r="E451">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F451" t="s">
         <v>1662</v>
@@ -24390,7 +24390,7 @@
         <v>1612</v>
       </c>
       <c r="E452">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F452" t="s">
         <v>1662</v>
@@ -24425,7 +24425,7 @@
         <v>1612</v>
       </c>
       <c r="E453">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F453" t="s">
         <v>1662</v>
@@ -24460,7 +24460,7 @@
         <v>1613</v>
       </c>
       <c r="E454">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F454" t="s">
         <v>1662</v>
@@ -24495,7 +24495,7 @@
         <v>1613</v>
       </c>
       <c r="E455">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F455" t="s">
         <v>1662</v>
@@ -24530,7 +24530,7 @@
         <v>1613</v>
       </c>
       <c r="E456">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F456" t="s">
         <v>1662</v>
@@ -24565,7 +24565,7 @@
         <v>1613</v>
       </c>
       <c r="E457">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F457" t="s">
         <v>1662</v>
@@ -24600,7 +24600,7 @@
         <v>1613</v>
       </c>
       <c r="E458">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F458" t="s">
         <v>1662</v>
@@ -24635,7 +24635,7 @@
         <v>1614</v>
       </c>
       <c r="E459">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F459" t="s">
         <v>1662</v>
@@ -24670,7 +24670,7 @@
         <v>1615</v>
       </c>
       <c r="E460">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F460" t="s">
         <v>1662</v>
@@ -24705,7 +24705,7 @@
         <v>1615</v>
       </c>
       <c r="E461">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F461" t="s">
         <v>1662</v>
@@ -24740,7 +24740,7 @@
         <v>1616</v>
       </c>
       <c r="E462">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F462" t="s">
         <v>1662</v>
@@ -24775,7 +24775,7 @@
         <v>1617</v>
       </c>
       <c r="E463">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F463" t="s">
         <v>1662</v>
@@ -24810,7 +24810,7 @@
         <v>1617</v>
       </c>
       <c r="E464">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F464" t="s">
         <v>1662</v>
@@ -24845,7 +24845,7 @@
         <v>1618</v>
       </c>
       <c r="E465">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F465" t="s">
         <v>1662</v>
@@ -24880,7 +24880,7 @@
         <v>1618</v>
       </c>
       <c r="E466">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F466" t="s">
         <v>1665</v>
@@ -24918,7 +24918,7 @@
         <v>1618</v>
       </c>
       <c r="E467">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F467" t="s">
         <v>1662</v>
@@ -24953,7 +24953,7 @@
         <v>1618</v>
       </c>
       <c r="E468">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F468" t="s">
         <v>1662</v>
@@ -24988,7 +24988,7 @@
         <v>1618</v>
       </c>
       <c r="E469">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F469" t="s">
         <v>1663</v>
@@ -25023,7 +25023,7 @@
         <v>1619</v>
       </c>
       <c r="E470">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F470" t="s">
         <v>1662</v>
@@ -25061,7 +25061,7 @@
         <v>1619</v>
       </c>
       <c r="E471">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F471" t="s">
         <v>1662</v>
@@ -25099,7 +25099,7 @@
         <v>1619</v>
       </c>
       <c r="E472">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F472" t="s">
         <v>1662</v>
@@ -25137,7 +25137,7 @@
         <v>1619</v>
       </c>
       <c r="E473">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F473" t="s">
         <v>1662</v>
@@ -25175,7 +25175,7 @@
         <v>1619</v>
       </c>
       <c r="E474">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F474" t="s">
         <v>1662</v>
@@ -25210,7 +25210,7 @@
         <v>1619</v>
       </c>
       <c r="E475">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F475" t="s">
         <v>1662</v>
@@ -25245,7 +25245,7 @@
         <v>1619</v>
       </c>
       <c r="E476">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F476" t="s">
         <v>1662</v>
@@ -25280,7 +25280,7 @@
         <v>1620</v>
       </c>
       <c r="E477">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F477" t="s">
         <v>1662</v>
@@ -25315,7 +25315,7 @@
         <v>1620</v>
       </c>
       <c r="E478">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F478" t="s">
         <v>1662</v>
@@ -25350,7 +25350,7 @@
         <v>1620</v>
       </c>
       <c r="E479">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F479" t="s">
         <v>1662</v>
@@ -25385,7 +25385,7 @@
         <v>1620</v>
       </c>
       <c r="E480">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F480" t="s">
         <v>1662</v>
@@ -25420,7 +25420,7 @@
         <v>1620</v>
       </c>
       <c r="E481">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F481" t="s">
         <v>1662</v>
@@ -25455,7 +25455,7 @@
         <v>1620</v>
       </c>
       <c r="E482">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F482" t="s">
         <v>1662</v>
@@ -25490,7 +25490,7 @@
         <v>1621</v>
       </c>
       <c r="E483">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F483" t="s">
         <v>1662</v>
@@ -25525,7 +25525,7 @@
         <v>1621</v>
       </c>
       <c r="E484">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F484" t="s">
         <v>1662</v>
@@ -25560,7 +25560,7 @@
         <v>1621</v>
       </c>
       <c r="E485">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F485" t="s">
         <v>1662</v>
@@ -25595,7 +25595,7 @@
         <v>1622</v>
       </c>
       <c r="E486">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F486" t="s">
         <v>1665</v>
@@ -25633,7 +25633,7 @@
         <v>1622</v>
       </c>
       <c r="E487">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F487" t="s">
         <v>1662</v>
@@ -25668,7 +25668,7 @@
         <v>1622</v>
       </c>
       <c r="E488">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F488" t="s">
         <v>1662</v>
@@ -25703,7 +25703,7 @@
         <v>1622</v>
       </c>
       <c r="E489">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F489" t="s">
         <v>1662</v>
@@ -25738,7 +25738,7 @@
         <v>1622</v>
       </c>
       <c r="E490">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F490" t="s">
         <v>1665</v>
@@ -25773,7 +25773,7 @@
         <v>1622</v>
       </c>
       <c r="E491">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F491" t="s">
         <v>1662</v>
@@ -25808,7 +25808,7 @@
         <v>1622</v>
       </c>
       <c r="E492">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F492" t="s">
         <v>1662</v>
@@ -25846,7 +25846,7 @@
         <v>1623</v>
       </c>
       <c r="E493">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F493" t="s">
         <v>1662</v>
@@ -25881,7 +25881,7 @@
         <v>1623</v>
       </c>
       <c r="E494">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F494" t="s">
         <v>1662</v>
@@ -25916,7 +25916,7 @@
         <v>1623</v>
       </c>
       <c r="E495">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F495" t="s">
         <v>1662</v>
@@ -25951,7 +25951,7 @@
         <v>1623</v>
       </c>
       <c r="E496">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F496" t="s">
         <v>1662</v>
@@ -25986,7 +25986,7 @@
         <v>1623</v>
       </c>
       <c r="E497">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F497" t="s">
         <v>1662</v>
@@ -26021,7 +26021,7 @@
         <v>1624</v>
       </c>
       <c r="E498">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F498" t="s">
         <v>1662</v>
@@ -26056,7 +26056,7 @@
         <v>1624</v>
       </c>
       <c r="E499">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F499" t="s">
         <v>1662</v>
@@ -26091,7 +26091,7 @@
         <v>1624</v>
       </c>
       <c r="E500">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F500" t="s">
         <v>1662</v>
@@ -26126,7 +26126,7 @@
         <v>1624</v>
       </c>
       <c r="E501">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F501" t="s">
         <v>1662</v>
@@ -26161,7 +26161,7 @@
         <v>1625</v>
       </c>
       <c r="E502">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F502" t="s">
         <v>1662</v>
@@ -26196,7 +26196,7 @@
         <v>1625</v>
       </c>
       <c r="E503">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F503" t="s">
         <v>1662</v>
@@ -26231,7 +26231,7 @@
         <v>1625</v>
       </c>
       <c r="E504">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F504" t="s">
         <v>1662</v>
@@ -26266,7 +26266,7 @@
         <v>1625</v>
       </c>
       <c r="E505">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F505" t="s">
         <v>1662</v>
@@ -26301,7 +26301,7 @@
         <v>1625</v>
       </c>
       <c r="E506">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F506" t="s">
         <v>1662</v>
@@ -26336,7 +26336,7 @@
         <v>1625</v>
       </c>
       <c r="E507">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F507" t="s">
         <v>1662</v>
@@ -26371,7 +26371,7 @@
         <v>1626</v>
       </c>
       <c r="E508">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F508" t="s">
         <v>1662</v>
@@ -26406,7 +26406,7 @@
         <v>1626</v>
       </c>
       <c r="E509">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F509" t="s">
         <v>1662</v>
@@ -26441,7 +26441,7 @@
         <v>1626</v>
       </c>
       <c r="E510">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F510" t="s">
         <v>1662</v>
@@ -26476,7 +26476,7 @@
         <v>1627</v>
       </c>
       <c r="E511">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F511" t="s">
         <v>1662</v>
@@ -26511,7 +26511,7 @@
         <v>1627</v>
       </c>
       <c r="E512">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F512" t="s">
         <v>1662</v>
@@ -26546,7 +26546,7 @@
         <v>1627</v>
       </c>
       <c r="E513">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F513" t="s">
         <v>1662</v>
@@ -26581,7 +26581,7 @@
         <v>1628</v>
       </c>
       <c r="E514">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F514" t="s">
         <v>1662</v>
@@ -26616,7 +26616,7 @@
         <v>1628</v>
       </c>
       <c r="E515">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F515" t="s">
         <v>1662</v>
@@ -26651,7 +26651,7 @@
         <v>1628</v>
       </c>
       <c r="E516">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F516" t="s">
         <v>1662</v>
@@ -26686,7 +26686,7 @@
         <v>1628</v>
       </c>
       <c r="E517">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F517" t="s">
         <v>1662</v>
@@ -26721,7 +26721,7 @@
         <v>1629</v>
       </c>
       <c r="E518">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F518" t="s">
         <v>1662</v>
@@ -26756,7 +26756,7 @@
         <v>1629</v>
       </c>
       <c r="E519">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F519" t="s">
         <v>1662</v>
@@ -26791,7 +26791,7 @@
         <v>1630</v>
       </c>
       <c r="E520">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F520" t="s">
         <v>1662</v>
@@ -26826,7 +26826,7 @@
         <v>1631</v>
       </c>
       <c r="E521">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F521" t="s">
         <v>1662</v>
@@ -26861,7 +26861,7 @@
         <v>1631</v>
       </c>
       <c r="E522">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F522" t="s">
         <v>1662</v>
@@ -26896,7 +26896,7 @@
         <v>1632</v>
       </c>
       <c r="E523">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F523" t="s">
         <v>1665</v>
@@ -26934,7 +26934,7 @@
         <v>1632</v>
       </c>
       <c r="E524">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F524" t="s">
         <v>1662</v>
@@ -26969,7 +26969,7 @@
         <v>1632</v>
       </c>
       <c r="E525">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F525" t="s">
         <v>1662</v>
@@ -27004,7 +27004,7 @@
         <v>1632</v>
       </c>
       <c r="E526">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F526" t="s">
         <v>1662</v>
@@ -27039,7 +27039,7 @@
         <v>1632</v>
       </c>
       <c r="E527">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F527" t="s">
         <v>1662</v>
@@ -27074,7 +27074,7 @@
         <v>1633</v>
       </c>
       <c r="E528">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F528" t="s">
         <v>1662</v>
@@ -27109,7 +27109,7 @@
         <v>1633</v>
       </c>
       <c r="E529">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F529" t="s">
         <v>1662</v>
@@ -27144,7 +27144,7 @@
         <v>1633</v>
       </c>
       <c r="E530">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F530" t="s">
         <v>1662</v>
@@ -27179,7 +27179,7 @@
         <v>1633</v>
       </c>
       <c r="E531">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F531" t="s">
         <v>1662</v>
@@ -27214,7 +27214,7 @@
         <v>1633</v>
       </c>
       <c r="E532">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F532" t="s">
         <v>1662</v>
@@ -27249,7 +27249,7 @@
         <v>1633</v>
       </c>
       <c r="E533">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F533" t="s">
         <v>1662</v>
@@ -27284,7 +27284,7 @@
         <v>1634</v>
       </c>
       <c r="E534">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F534" t="s">
         <v>1662</v>
@@ -27319,7 +27319,7 @@
         <v>1634</v>
       </c>
       <c r="E535">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F535" t="s">
         <v>1662</v>
@@ -27354,7 +27354,7 @@
         <v>1634</v>
       </c>
       <c r="E536">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F536" t="s">
         <v>1662</v>
@@ -27389,7 +27389,7 @@
         <v>1634</v>
       </c>
       <c r="E537">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F537" t="s">
         <v>1662</v>
@@ -27424,7 +27424,7 @@
         <v>1634</v>
       </c>
       <c r="E538">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F538" t="s">
         <v>1662</v>
@@ -27459,7 +27459,7 @@
         <v>1634</v>
       </c>
       <c r="E539">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F539" t="s">
         <v>1662</v>
@@ -27494,7 +27494,7 @@
         <v>1634</v>
       </c>
       <c r="E540">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F540" t="s">
         <v>1662</v>
@@ -27529,7 +27529,7 @@
         <v>1635</v>
       </c>
       <c r="E541">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F541" t="s">
         <v>1662</v>
@@ -27564,7 +27564,7 @@
         <v>1635</v>
       </c>
       <c r="E542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F542" t="s">
         <v>1662</v>
@@ -27599,7 +27599,7 @@
         <v>1635</v>
       </c>
       <c r="E543">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F543" t="s">
         <v>1662</v>
@@ -27634,7 +27634,7 @@
         <v>1635</v>
       </c>
       <c r="E544">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F544" t="s">
         <v>1662</v>
@@ -27669,7 +27669,7 @@
         <v>1635</v>
       </c>
       <c r="E545">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F545" t="s">
         <v>1662</v>
@@ -27704,7 +27704,7 @@
         <v>1636</v>
       </c>
       <c r="E546">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F546" t="s">
         <v>1662</v>
@@ -27739,7 +27739,7 @@
         <v>1636</v>
       </c>
       <c r="E547">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F547" t="s">
         <v>1662</v>
@@ -27774,7 +27774,7 @@
         <v>1636</v>
       </c>
       <c r="E548">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F548" t="s">
         <v>1662</v>
@@ -27809,7 +27809,7 @@
         <v>1636</v>
       </c>
       <c r="E549">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F549" t="s">
         <v>1662</v>
@@ -27844,7 +27844,7 @@
         <v>1636</v>
       </c>
       <c r="E550">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F550" t="s">
         <v>1662</v>
@@ -27879,7 +27879,7 @@
         <v>1636</v>
       </c>
       <c r="E551">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F551" t="s">
         <v>1665</v>
@@ -27914,7 +27914,7 @@
         <v>1637</v>
       </c>
       <c r="E552">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F552" t="s">
         <v>1662</v>
@@ -27949,7 +27949,7 @@
         <v>1637</v>
       </c>
       <c r="E553">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F553" t="s">
         <v>1662</v>
@@ -27987,7 +27987,7 @@
         <v>1637</v>
       </c>
       <c r="E554">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F554" t="s">
         <v>1662</v>
@@ -28025,7 +28025,7 @@
         <v>1637</v>
       </c>
       <c r="E555">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F555" t="s">
         <v>1662</v>
@@ -28060,7 +28060,7 @@
         <v>1637</v>
       </c>
       <c r="E556">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F556" t="s">
         <v>1662</v>
@@ -28095,7 +28095,7 @@
         <v>1637</v>
       </c>
       <c r="E557">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F557" t="s">
         <v>1661</v>
@@ -28130,7 +28130,7 @@
         <v>1637</v>
       </c>
       <c r="E558">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F558" t="s">
         <v>1662</v>
@@ -28165,7 +28165,7 @@
         <v>1638</v>
       </c>
       <c r="E559">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F559" t="s">
         <v>1662</v>
@@ -28200,7 +28200,7 @@
         <v>1638</v>
       </c>
       <c r="E560">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F560" t="s">
         <v>1662</v>
@@ -28235,7 +28235,7 @@
         <v>1638</v>
       </c>
       <c r="E561">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F561" t="s">
         <v>1662</v>
@@ -28270,7 +28270,7 @@
         <v>1638</v>
       </c>
       <c r="E562">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F562" t="s">
         <v>1665</v>
@@ -28308,7 +28308,7 @@
         <v>1638</v>
       </c>
       <c r="E563">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F563" t="s">
         <v>1662</v>
@@ -28343,7 +28343,7 @@
         <v>1638</v>
       </c>
       <c r="E564">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F564" t="s">
         <v>1665</v>
@@ -28381,7 +28381,7 @@
         <v>1638</v>
       </c>
       <c r="E565">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F565" t="s">
         <v>1665</v>
@@ -28419,7 +28419,7 @@
         <v>1638</v>
       </c>
       <c r="E566">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F566" t="s">
         <v>1662</v>
@@ -28454,7 +28454,7 @@
         <v>1638</v>
       </c>
       <c r="E567">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F567" t="s">
         <v>1662</v>
@@ -28489,7 +28489,7 @@
         <v>1639</v>
       </c>
       <c r="E568">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F568" t="s">
         <v>1662</v>
@@ -28524,7 +28524,7 @@
         <v>1639</v>
       </c>
       <c r="E569">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F569" t="s">
         <v>1662</v>
@@ -28562,7 +28562,7 @@
         <v>1639</v>
       </c>
       <c r="E570">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F570" t="s">
         <v>1662</v>
@@ -28597,7 +28597,7 @@
         <v>1640</v>
       </c>
       <c r="E571">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F571" t="s">
         <v>1662</v>
@@ -28632,7 +28632,7 @@
         <v>1640</v>
       </c>
       <c r="E572">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F572" t="s">
         <v>1662</v>
@@ -28667,7 +28667,7 @@
         <v>1640</v>
       </c>
       <c r="E573">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F573" t="s">
         <v>1662</v>
@@ -28702,7 +28702,7 @@
         <v>1640</v>
       </c>
       <c r="E574">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F574" t="s">
         <v>1662</v>
@@ -28737,7 +28737,7 @@
         <v>1640</v>
       </c>
       <c r="E575">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F575" t="s">
         <v>1662</v>
@@ -28772,7 +28772,7 @@
         <v>1640</v>
       </c>
       <c r="E576">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F576" t="s">
         <v>1662</v>
@@ -28807,7 +28807,7 @@
         <v>1640</v>
       </c>
       <c r="E577">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F577" t="s">
         <v>1662</v>
@@ -28842,7 +28842,7 @@
         <v>1640</v>
       </c>
       <c r="E578">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F578" t="s">
         <v>1662</v>
@@ -28877,7 +28877,7 @@
         <v>1640</v>
       </c>
       <c r="E579">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F579" t="s">
         <v>1662</v>
@@ -28912,7 +28912,7 @@
         <v>1641</v>
       </c>
       <c r="E580">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F580" t="s">
         <v>1662</v>
@@ -28947,7 +28947,7 @@
         <v>1641</v>
       </c>
       <c r="E581">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F581" t="s">
         <v>1662</v>
@@ -28982,7 +28982,7 @@
         <v>1641</v>
       </c>
       <c r="E582">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F582" t="s">
         <v>1665</v>
@@ -29020,7 +29020,7 @@
         <v>1641</v>
       </c>
       <c r="E583">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F583" t="s">
         <v>1662</v>
@@ -29055,7 +29055,7 @@
         <v>1642</v>
       </c>
       <c r="E584">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F584" t="s">
         <v>1662</v>
@@ -29090,7 +29090,7 @@
         <v>1642</v>
       </c>
       <c r="E585">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F585" t="s">
         <v>1662</v>
@@ -29125,7 +29125,7 @@
         <v>1642</v>
       </c>
       <c r="E586">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F586" t="s">
         <v>1665</v>
@@ -29163,7 +29163,7 @@
         <v>1642</v>
       </c>
       <c r="E587">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F587" t="s">
         <v>1662</v>
@@ -29198,7 +29198,7 @@
         <v>1643</v>
       </c>
       <c r="E588">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F588" t="s">
         <v>1662</v>
@@ -29233,7 +29233,7 @@
         <v>1643</v>
       </c>
       <c r="E589">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F589" t="s">
         <v>1662</v>
@@ -29268,7 +29268,7 @@
         <v>1643</v>
       </c>
       <c r="E590">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F590" t="s">
         <v>1662</v>
@@ -29303,7 +29303,7 @@
         <v>1643</v>
       </c>
       <c r="E591">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F591" t="s">
         <v>1662</v>
@@ -29338,7 +29338,7 @@
         <v>1643</v>
       </c>
       <c r="E592">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F592" t="s">
         <v>1662</v>
@@ -29376,7 +29376,7 @@
         <v>1643</v>
       </c>
       <c r="E593">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F593" t="s">
         <v>1662</v>
@@ -29411,7 +29411,7 @@
         <v>1643</v>
       </c>
       <c r="E594">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F594" t="s">
         <v>1662</v>
@@ -29446,7 +29446,7 @@
         <v>1643</v>
       </c>
       <c r="E595">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F595" t="s">
         <v>1662</v>
@@ -29481,7 +29481,7 @@
         <v>1643</v>
       </c>
       <c r="E596">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F596" t="s">
         <v>1662</v>
@@ -29516,7 +29516,7 @@
         <v>1643</v>
       </c>
       <c r="E597">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F597" t="s">
         <v>1662</v>
@@ -29554,7 +29554,7 @@
         <v>1643</v>
       </c>
       <c r="E598">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F598" t="s">
         <v>1662</v>
@@ -29589,7 +29589,7 @@
         <v>1644</v>
       </c>
       <c r="E599">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F599" t="s">
         <v>1662</v>
@@ -29624,7 +29624,7 @@
         <v>1644</v>
       </c>
       <c r="E600">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F600" t="s">
         <v>1662</v>
@@ -29659,7 +29659,7 @@
         <v>1644</v>
       </c>
       <c r="E601">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F601" t="s">
         <v>1662</v>
@@ -29694,7 +29694,7 @@
         <v>1645</v>
       </c>
       <c r="E602">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F602" t="s">
         <v>1662</v>
@@ -29732,7 +29732,7 @@
         <v>1646</v>
       </c>
       <c r="E603">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F603" t="s">
         <v>1662</v>
@@ -29767,7 +29767,7 @@
         <v>1646</v>
       </c>
       <c r="E604">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F604" t="s">
         <v>1662</v>
@@ -29802,7 +29802,7 @@
         <v>1647</v>
       </c>
       <c r="E605">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F605" t="s">
         <v>1662</v>
@@ -29837,7 +29837,7 @@
         <v>1647</v>
       </c>
       <c r="E606">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F606" t="s">
         <v>1662</v>
@@ -29872,7 +29872,7 @@
         <v>1647</v>
       </c>
       <c r="E607">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F607" t="s">
         <v>1662</v>
@@ -29907,7 +29907,7 @@
         <v>1648</v>
       </c>
       <c r="E608">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F608" t="s">
         <v>1665</v>
@@ -29942,7 +29942,7 @@
         <v>1648</v>
       </c>
       <c r="E609">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F609" t="s">
         <v>1662</v>
@@ -29977,7 +29977,7 @@
         <v>1648</v>
       </c>
       <c r="E610">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F610" t="s">
         <v>1662</v>
@@ -30015,7 +30015,7 @@
         <v>1649</v>
       </c>
       <c r="E611">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F611" t="s">
         <v>1665</v>
@@ -30053,7 +30053,7 @@
         <v>1649</v>
       </c>
       <c r="E612">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F612" t="s">
         <v>1665</v>
@@ -30088,7 +30088,7 @@
         <v>1649</v>
       </c>
       <c r="E613">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F613" t="s">
         <v>1665</v>
@@ -30123,7 +30123,7 @@
         <v>1649</v>
       </c>
       <c r="E614">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F614" t="s">
         <v>1662</v>
@@ -30158,7 +30158,7 @@
         <v>1649</v>
       </c>
       <c r="E615">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F615" t="s">
         <v>1662</v>
@@ -30193,7 +30193,7 @@
         <v>1649</v>
       </c>
       <c r="E616">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F616" t="s">
         <v>1665</v>
@@ -30228,7 +30228,7 @@
         <v>1649</v>
       </c>
       <c r="E617">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F617" t="s">
         <v>1665</v>
@@ -30266,7 +30266,7 @@
         <v>1649</v>
       </c>
       <c r="E618">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F618" t="s">
         <v>1662</v>
@@ -30301,7 +30301,7 @@
         <v>1650</v>
       </c>
       <c r="E619">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F619" t="s">
         <v>1662</v>
@@ -30336,7 +30336,7 @@
         <v>1650</v>
       </c>
       <c r="E620">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F620" t="s">
         <v>1662</v>
@@ -30371,7 +30371,7 @@
         <v>1651</v>
       </c>
       <c r="E621">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F621" t="s">
         <v>1662</v>
@@ -30406,7 +30406,7 @@
         <v>1651</v>
       </c>
       <c r="E622">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F622" t="s">
         <v>1665</v>
@@ -30441,7 +30441,7 @@
         <v>1651</v>
       </c>
       <c r="E623">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F623" t="s">
         <v>1662</v>
@@ -30476,7 +30476,7 @@
         <v>1651</v>
       </c>
       <c r="E624">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F624" t="s">
         <v>1662</v>
@@ -30511,7 +30511,7 @@
         <v>1651</v>
       </c>
       <c r="E625">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F625" t="s">
         <v>1665</v>
@@ -30549,7 +30549,7 @@
         <v>1651</v>
       </c>
       <c r="E626">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F626" t="s">
         <v>1665</v>
@@ -30587,7 +30587,7 @@
         <v>1651</v>
       </c>
       <c r="E627">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F627" t="s">
         <v>1662</v>
@@ -30622,7 +30622,7 @@
         <v>1652</v>
       </c>
       <c r="E628">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F628" t="s">
         <v>1662</v>
@@ -30657,7 +30657,7 @@
         <v>1652</v>
       </c>
       <c r="E629">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F629" t="s">
         <v>1662</v>
@@ -30692,7 +30692,7 @@
         <v>1652</v>
       </c>
       <c r="E630">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F630" t="s">
         <v>1662</v>
@@ -30727,7 +30727,7 @@
         <v>1652</v>
       </c>
       <c r="E631">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F631" t="s">
         <v>1662</v>
@@ -30762,7 +30762,7 @@
         <v>1652</v>
       </c>
       <c r="E632">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F632" t="s">
         <v>1662</v>
@@ -30800,7 +30800,7 @@
         <v>1652</v>
       </c>
       <c r="E633">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F633" t="s">
         <v>1662</v>
@@ -30835,7 +30835,7 @@
         <v>1653</v>
       </c>
       <c r="E634">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F634" t="s">
         <v>1662</v>
@@ -30870,7 +30870,7 @@
         <v>1653</v>
       </c>
       <c r="E635">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F635" t="s">
         <v>1665</v>
@@ -30908,7 +30908,7 @@
         <v>1653</v>
       </c>
       <c r="E636">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F636" t="s">
         <v>1662</v>
@@ -30943,7 +30943,7 @@
         <v>1653</v>
       </c>
       <c r="E637">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F637" t="s">
         <v>1662</v>
@@ -30978,7 +30978,7 @@
         <v>1653</v>
       </c>
       <c r="E638">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F638" t="s">
         <v>1662</v>
@@ -31013,7 +31013,7 @@
         <v>1653</v>
       </c>
       <c r="E639">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F639" t="s">
         <v>1662</v>
@@ -31048,7 +31048,7 @@
         <v>1653</v>
       </c>
       <c r="E640">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F640" t="s">
         <v>1662</v>
@@ -31083,7 +31083,7 @@
         <v>1653</v>
       </c>
       <c r="E641">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F641" t="s">
         <v>1662</v>
@@ -31118,7 +31118,7 @@
         <v>1654</v>
       </c>
       <c r="E642">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F642" t="s">
         <v>1665</v>
@@ -31156,7 +31156,7 @@
         <v>1654</v>
       </c>
       <c r="E643">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F643" t="s">
         <v>1665</v>
@@ -31194,7 +31194,7 @@
         <v>1654</v>
       </c>
       <c r="E644">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F644" t="s">
         <v>1665</v>
@@ -31232,7 +31232,7 @@
         <v>1654</v>
       </c>
       <c r="E645">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F645" t="s">
         <v>1662</v>
@@ -31267,7 +31267,7 @@
         <v>1654</v>
       </c>
       <c r="E646">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F646" t="s">
         <v>1662</v>
@@ -31302,7 +31302,7 @@
         <v>1654</v>
       </c>
       <c r="E647">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F647" t="s">
         <v>1665</v>
@@ -31340,7 +31340,7 @@
         <v>1654</v>
       </c>
       <c r="E648">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F648" t="s">
         <v>1662</v>
@@ -31375,7 +31375,7 @@
         <v>1654</v>
       </c>
       <c r="E649">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F649" t="s">
         <v>1665</v>
@@ -31413,7 +31413,7 @@
         <v>1654</v>
       </c>
       <c r="E650">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F650" t="s">
         <v>1662</v>
@@ -31448,7 +31448,7 @@
         <v>1655</v>
       </c>
       <c r="E651">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F651" t="s">
         <v>1665</v>
@@ -31486,7 +31486,7 @@
         <v>1655</v>
       </c>
       <c r="E652">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F652" t="s">
         <v>1662</v>
@@ -31524,7 +31524,7 @@
         <v>1655</v>
       </c>
       <c r="E653">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F653" t="s">
         <v>1662</v>
@@ -31559,7 +31559,7 @@
         <v>1655</v>
       </c>
       <c r="E654">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F654" t="s">
         <v>1665</v>
@@ -31597,7 +31597,7 @@
         <v>1655</v>
       </c>
       <c r="E655">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F655" t="s">
         <v>1665</v>
@@ -31632,7 +31632,7 @@
         <v>1655</v>
       </c>
       <c r="E656">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F656" t="s">
         <v>1662</v>
@@ -31667,7 +31667,7 @@
         <v>1655</v>
       </c>
       <c r="E657">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F657" t="s">
         <v>1662</v>
@@ -31702,7 +31702,7 @@
         <v>1655</v>
       </c>
       <c r="E658">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F658" t="s">
         <v>1662</v>
@@ -31737,7 +31737,7 @@
         <v>1656</v>
       </c>
       <c r="E659">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F659" t="s">
         <v>1662</v>
@@ -31772,7 +31772,7 @@
         <v>1656</v>
       </c>
       <c r="E660">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F660" t="s">
         <v>1662</v>
@@ -31807,7 +31807,7 @@
         <v>1656</v>
       </c>
       <c r="E661">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F661" t="s">
         <v>1662</v>
@@ -31842,7 +31842,7 @@
         <v>1656</v>
       </c>
       <c r="E662">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F662" t="s">
         <v>1665</v>
@@ -31880,7 +31880,7 @@
         <v>1656</v>
       </c>
       <c r="E663">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F663" t="s">
         <v>1662</v>
@@ -31915,7 +31915,7 @@
         <v>1656</v>
       </c>
       <c r="E664">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F664" t="s">
         <v>1662</v>
@@ -31950,7 +31950,7 @@
         <v>1657</v>
       </c>
       <c r="E665">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F665" t="s">
         <v>1662</v>
@@ -31985,7 +31985,7 @@
         <v>1657</v>
       </c>
       <c r="E666">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F666" t="s">
         <v>1662</v>
@@ -32020,7 +32020,7 @@
         <v>1657</v>
       </c>
       <c r="E667">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F667" t="s">
         <v>1662</v>
@@ -32055,7 +32055,7 @@
         <v>1657</v>
       </c>
       <c r="E668">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F668" t="s">
         <v>1662</v>
@@ -32090,7 +32090,7 @@
         <v>1657</v>
       </c>
       <c r="E669">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F669" t="s">
         <v>1662</v>
@@ -32125,7 +32125,7 @@
         <v>1657</v>
       </c>
       <c r="E670">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F670" t="s">
         <v>1662</v>
@@ -32160,7 +32160,7 @@
         <v>1657</v>
       </c>
       <c r="E671">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F671" t="s">
         <v>1662</v>
@@ -32195,7 +32195,7 @@
         <v>1658</v>
       </c>
       <c r="E672">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F672" t="s">
         <v>1662</v>
@@ -32230,7 +32230,7 @@
         <v>1658</v>
       </c>
       <c r="E673">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F673" t="s">
         <v>1662</v>
@@ -32265,7 +32265,7 @@
         <v>1658</v>
       </c>
       <c r="E674">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F674" t="s">
         <v>1662</v>
@@ -32300,7 +32300,7 @@
         <v>1658</v>
       </c>
       <c r="E675">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F675" t="s">
         <v>1662</v>
@@ -32338,7 +32338,7 @@
         <v>1658</v>
       </c>
       <c r="E676">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F676" t="s">
         <v>1662</v>
@@ -32373,7 +32373,7 @@
         <v>1658</v>
       </c>
       <c r="E677">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F677" t="s">
         <v>1662</v>
@@ -32408,7 +32408,7 @@
         <v>1658</v>
       </c>
       <c r="E678">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F678" t="s">
         <v>1662</v>
@@ -32443,7 +32443,7 @@
         <v>1659</v>
       </c>
       <c r="E679">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F679" t="s">
         <v>1665</v>
@@ -32481,7 +32481,7 @@
         <v>1659</v>
       </c>
       <c r="E680">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F680" t="s">
         <v>1662</v>
@@ -32519,7 +32519,7 @@
         <v>1659</v>
       </c>
       <c r="E681">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F681" t="s">
         <v>1662</v>
@@ -32554,7 +32554,7 @@
         <v>1659</v>
       </c>
       <c r="E682">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F682" t="s">
         <v>1662</v>
@@ -32592,7 +32592,7 @@
         <v>1659</v>
       </c>
       <c r="E683">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F683" t="s">
         <v>1662</v>
@@ -32627,7 +32627,7 @@
         <v>1659</v>
       </c>
       <c r="E684">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F684" t="s">
         <v>1662</v>
@@ -32662,7 +32662,7 @@
         <v>1659</v>
       </c>
       <c r="E685">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F685" t="s">
         <v>1662</v>
@@ -32700,7 +32700,7 @@
         <v>1659</v>
       </c>
       <c r="E686">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F686" t="s">
         <v>1662</v>
@@ -32735,7 +32735,7 @@
         <v>1659</v>
       </c>
       <c r="E687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F687" t="s">
         <v>1662</v>
@@ -32773,7 +32773,7 @@
         <v>1659</v>
       </c>
       <c r="E688">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F688" t="s">
         <v>1662</v>
@@ -32811,7 +32811,7 @@
         <v>1659</v>
       </c>
       <c r="E689">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F689" t="s">
         <v>1662</v>
@@ -32846,7 +32846,7 @@
         <v>1659</v>
       </c>
       <c r="E690">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F690" t="s">
         <v>1662</v>
@@ -32881,7 +32881,7 @@
         <v>1660</v>
       </c>
       <c r="E691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F691" t="s">
         <v>1662</v>
@@ -32919,7 +32919,7 @@
         <v>1660</v>
       </c>
       <c r="E692">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F692" t="s">
         <v>1662</v>
@@ -32957,7 +32957,7 @@
         <v>1660</v>
       </c>
       <c r="E693">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F693" t="s">
         <v>1662</v>
@@ -32992,7 +32992,7 @@
         <v>1660</v>
       </c>
       <c r="E694">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F694" t="s">
         <v>1662</v>
@@ -33027,7 +33027,7 @@
         <v>1660</v>
       </c>
       <c r="E695">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F695" t="s">
         <v>1662</v>
@@ -33062,7 +33062,7 @@
         <v>1660</v>
       </c>
       <c r="E696">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F696" t="s">
         <v>1665</v>

--- a/BacklogGATEAutoCompleto.xlsx
+++ b/BacklogGATEAutoCompleto.xlsx
@@ -8628,7 +8628,7 @@
         <v>1454</v>
       </c>
       <c r="E2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F2" t="s">
         <v>1680</v>
@@ -8663,7 +8663,7 @@
         <v>1455</v>
       </c>
       <c r="E3">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F3" t="s">
         <v>1680</v>
@@ -8698,7 +8698,7 @@
         <v>1456</v>
       </c>
       <c r="E4">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F4" t="s">
         <v>1680</v>
@@ -8733,7 +8733,7 @@
         <v>1457</v>
       </c>
       <c r="E5">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
         <v>1680</v>
@@ -8768,7 +8768,7 @@
         <v>1458</v>
       </c>
       <c r="E6">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F6" t="s">
         <v>1680</v>
@@ -8803,7 +8803,7 @@
         <v>1459</v>
       </c>
       <c r="E7">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F7" t="s">
         <v>1680</v>
@@ -8838,7 +8838,7 @@
         <v>1460</v>
       </c>
       <c r="E8">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F8" t="s">
         <v>1680</v>
@@ -8873,7 +8873,7 @@
         <v>1461</v>
       </c>
       <c r="E9">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
         <v>1680</v>
@@ -8908,7 +8908,7 @@
         <v>1462</v>
       </c>
       <c r="E10">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F10" t="s">
         <v>1680</v>
@@ -8943,7 +8943,7 @@
         <v>1463</v>
       </c>
       <c r="E11">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F11" t="s">
         <v>1680</v>
@@ -8978,7 +8978,7 @@
         <v>1464</v>
       </c>
       <c r="E12">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F12" t="s">
         <v>1680</v>
@@ -9013,7 +9013,7 @@
         <v>1465</v>
       </c>
       <c r="E13">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F13" t="s">
         <v>1680</v>
@@ -9048,7 +9048,7 @@
         <v>1466</v>
       </c>
       <c r="E14">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F14" t="s">
         <v>1680</v>
@@ -9083,7 +9083,7 @@
         <v>1467</v>
       </c>
       <c r="E15">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F15" t="s">
         <v>1680</v>
@@ -9118,7 +9118,7 @@
         <v>1468</v>
       </c>
       <c r="E16">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
         <v>1680</v>
@@ -9153,7 +9153,7 @@
         <v>1469</v>
       </c>
       <c r="E17">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F17" t="s">
         <v>1680</v>
@@ -9188,7 +9188,7 @@
         <v>1470</v>
       </c>
       <c r="E18">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F18" t="s">
         <v>1680</v>
@@ -9223,7 +9223,7 @@
         <v>1471</v>
       </c>
       <c r="E19">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F19" t="s">
         <v>1680</v>
@@ -9258,7 +9258,7 @@
         <v>1472</v>
       </c>
       <c r="E20">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F20" t="s">
         <v>1680</v>
@@ -9293,7 +9293,7 @@
         <v>1472</v>
       </c>
       <c r="E21">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F21" t="s">
         <v>1680</v>
@@ -9328,7 +9328,7 @@
         <v>1473</v>
       </c>
       <c r="E22">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F22" t="s">
         <v>1680</v>
@@ -9363,7 +9363,7 @@
         <v>1474</v>
       </c>
       <c r="E23">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F23" t="s">
         <v>1680</v>
@@ -9398,7 +9398,7 @@
         <v>1475</v>
       </c>
       <c r="E24">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
         <v>1680</v>
@@ -9433,7 +9433,7 @@
         <v>1475</v>
       </c>
       <c r="E25">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F25" t="s">
         <v>1680</v>
@@ -9468,7 +9468,7 @@
         <v>1476</v>
       </c>
       <c r="E26">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F26" t="s">
         <v>1680</v>
@@ -9506,7 +9506,7 @@
         <v>1477</v>
       </c>
       <c r="E27">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F27" t="s">
         <v>1681</v>
@@ -9541,7 +9541,7 @@
         <v>1478</v>
       </c>
       <c r="E28">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
         <v>1680</v>
@@ -9576,7 +9576,7 @@
         <v>1478</v>
       </c>
       <c r="E29">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
         <v>1680</v>
@@ -9611,7 +9611,7 @@
         <v>1478</v>
       </c>
       <c r="E30">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F30" t="s">
         <v>1680</v>
@@ -9646,7 +9646,7 @@
         <v>1479</v>
       </c>
       <c r="E31">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
         <v>1681</v>
@@ -9681,7 +9681,7 @@
         <v>1479</v>
       </c>
       <c r="E32">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
         <v>1681</v>
@@ -9716,7 +9716,7 @@
         <v>1479</v>
       </c>
       <c r="E33">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
         <v>1680</v>
@@ -9751,7 +9751,7 @@
         <v>1480</v>
       </c>
       <c r="E34">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F34" t="s">
         <v>1680</v>
@@ -9786,7 +9786,7 @@
         <v>1481</v>
       </c>
       <c r="E35">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F35" t="s">
         <v>1680</v>
@@ -9821,7 +9821,7 @@
         <v>1481</v>
       </c>
       <c r="E36">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F36" t="s">
         <v>1680</v>
@@ -9856,7 +9856,7 @@
         <v>1482</v>
       </c>
       <c r="E37">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F37" t="s">
         <v>1680</v>
@@ -9891,7 +9891,7 @@
         <v>1483</v>
       </c>
       <c r="E38">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F38" t="s">
         <v>1681</v>
@@ -9926,7 +9926,7 @@
         <v>1484</v>
       </c>
       <c r="E39">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F39" t="s">
         <v>1680</v>
@@ -9961,7 +9961,7 @@
         <v>1484</v>
       </c>
       <c r="E40">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F40" t="s">
         <v>1680</v>
@@ -9996,7 +9996,7 @@
         <v>1485</v>
       </c>
       <c r="E41">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F41" t="s">
         <v>1680</v>
@@ -10034,7 +10034,7 @@
         <v>1486</v>
       </c>
       <c r="E42">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F42" t="s">
         <v>1680</v>
@@ -10069,7 +10069,7 @@
         <v>1487</v>
       </c>
       <c r="E43">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
         <v>1682</v>
@@ -10104,7 +10104,7 @@
         <v>1488</v>
       </c>
       <c r="E44">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F44" t="s">
         <v>1681</v>
@@ -10139,7 +10139,7 @@
         <v>1489</v>
       </c>
       <c r="E45">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F45" t="s">
         <v>1682</v>
@@ -10174,7 +10174,7 @@
         <v>1489</v>
       </c>
       <c r="E46">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F46" t="s">
         <v>1681</v>
@@ -10209,7 +10209,7 @@
         <v>1490</v>
       </c>
       <c r="E47">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F47" t="s">
         <v>1681</v>
@@ -10247,7 +10247,7 @@
         <v>1490</v>
       </c>
       <c r="E48">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F48" t="s">
         <v>1681</v>
@@ -10282,7 +10282,7 @@
         <v>1491</v>
       </c>
       <c r="E49">
-        <v>366</v>
+        <v>367</v>
       </c>
     